--- a/OYM/_Documentos Comunes/POO_C32017.xlsx
+++ b/OYM/_Documentos Comunes/POO_C32017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\DocumentosUniversitarios\OYM\_Documentos Comunes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\DocumentosUniversitarios\OYM\_Documentos Comunes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,7 @@
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Page 1'!$A$10:$Z$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Page 1'!$A$1:$O$102</definedName>
   </definedNames>
   <calcPr calcId="152511" calcOnSave="0"/>
@@ -1233,6 +1234,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1247,32 +1254,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1288,6 +1271,24 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1673,8 +1674,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105:B105"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1705,19 +1707,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1738,19 +1740,19 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
       <c r="N3" s="2"/>
       <c r="P3" t="s">
         <v>21</v>
@@ -1760,19 +1762,19 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
       <c r="N4" s="2"/>
       <c r="P4" t="s">
         <v>23</v>
@@ -1782,19 +1784,19 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
       <c r="N5" s="2"/>
       <c r="P5" t="s">
         <v>25</v>
@@ -1826,19 +1828,19 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
       <c r="N7" s="2"/>
       <c r="P7" s="6" t="s">
         <v>29</v>
@@ -1892,34 +1894,34 @@
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:26" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21" t="s">
+      <c r="A10" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21" t="s">
+      <c r="D10" s="27"/>
+      <c r="E10" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="20" t="s">
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="20"/>
+      <c r="I10" s="28"/>
       <c r="J10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="20" t="s">
+      <c r="L10" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s">
         <v>8</v>
@@ -1956,35 +1958,35 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23">
-        <v>0</v>
-      </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="11" t="s">
+      <c r="A11" s="11">
+        <v>0</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11" t="s">
+      <c r="D11" s="14"/>
+      <c r="E11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="14">
+      <c r="F11" s="15"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="16">
         <v>10</v>
       </c>
-      <c r="I11" s="15"/>
+      <c r="I11" s="17"/>
       <c r="J11" s="5">
         <v>20</v>
       </c>
       <c r="K11" s="5">
         <v>20</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="16">
         <f>IF((Y11-50)&gt;50,50,IF((Y11-50)&lt;0,0,(Y11-50)))</f>
         <v>50</v>
       </c>
-      <c r="M11" s="19"/>
-      <c r="N11" s="15"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="17"/>
       <c r="O11" s="2"/>
       <c r="P11">
         <v>20</v>
@@ -2022,30 +2024,33 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="27" t="s">
+      <c r="D12" s="22"/>
+      <c r="E12" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="17"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="14">
+      <c r="L12" s="16">
         <f t="shared" ref="L12:L75" si="0">IF((Y12-50)&gt;50,50,IF((Y12-50)&lt;0,0,(Y12-50)))</f>
         <v>0</v>
       </c>
-      <c r="M12" s="19"/>
-      <c r="N12" s="15"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="17"/>
       <c r="O12" s="2"/>
+      <c r="V12">
+        <v>1</v>
+      </c>
       <c r="Y12">
         <f t="shared" ref="Y12:Y75" si="1">P12+(IF((Q12+R12+S12+T12)&gt;30,(Q12+R12+S12+T12)/4,IF((Q12+R12+S12+T12)&gt;20,(Q12+R12+S12+T12)/3,IF((Q12+R12+S12+T12)&gt;10,(Q12+R12+S12+T12)/2,(Q12+R12+S12+T12)))))+(U12*V12)+W12+X12+Z12</f>
         <v>5</v>
@@ -2055,360 +2060,438 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="27" t="s">
+      <c r="D13" s="22"/>
+      <c r="E13" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="14">
+      <c r="L13" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="19"/>
-      <c r="N13" s="15"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="17"/>
       <c r="O13" s="2"/>
+      <c r="P13">
+        <v>16</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
       <c r="Y13">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="Z13">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="27" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="17"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="14">
+      <c r="L14" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M14" s="19"/>
-      <c r="N14" s="15"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="17"/>
       <c r="O14" s="2"/>
+      <c r="P14">
+        <v>15</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
       <c r="Y14">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Z14">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="27" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="17"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="14">
+      <c r="L15" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M15" s="19"/>
-      <c r="N15" s="15"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="17"/>
       <c r="O15" s="2"/>
+      <c r="P15">
+        <v>15</v>
+      </c>
+      <c r="R15">
+        <v>5</v>
+      </c>
+      <c r="V15">
+        <v>2</v>
+      </c>
       <c r="Y15">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="Z15">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="27" t="s">
+      <c r="D16" s="22"/>
+      <c r="E16" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="17"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="14">
+      <c r="L16" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M16" s="19"/>
-      <c r="N16" s="15"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="17"/>
       <c r="O16" s="2"/>
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
       <c r="Y16">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z16">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="27" t="s">
+      <c r="D17" s="22"/>
+      <c r="E17" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="17"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="14">
+      <c r="L17" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M17" s="19"/>
-      <c r="N17" s="15"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="17"/>
       <c r="O17" s="2"/>
+      <c r="P17">
+        <v>13</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
       <c r="Y17">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Z17">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="27" t="s">
+      <c r="D18" s="22"/>
+      <c r="E18" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="17"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="14">
+      <c r="L18" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M18" s="19"/>
-      <c r="N18" s="15"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="17"/>
       <c r="O18" s="2"/>
+      <c r="P18">
+        <v>14</v>
+      </c>
+      <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
       <c r="Y18">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="Z18">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="27" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="17"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="14">
+      <c r="L19" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M19" s="19"/>
-      <c r="N19" s="15"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="17"/>
       <c r="O19" s="2"/>
+      <c r="P19">
+        <v>14</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
       <c r="Y19">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="Z19">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="27" t="s">
+      <c r="D20" s="22"/>
+      <c r="E20" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="17"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="14">
+      <c r="L20" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M20" s="19"/>
-      <c r="N20" s="15"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="17"/>
       <c r="O20" s="2"/>
+      <c r="P20">
+        <v>16</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="V20">
+        <v>2</v>
+      </c>
       <c r="Y20">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="Z20">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="27" t="s">
+      <c r="D21" s="22"/>
+      <c r="E21" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="17"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="14">
+      <c r="L21" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M21" s="19"/>
-      <c r="N21" s="15"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="17"/>
       <c r="O21" s="2"/>
+      <c r="P21">
+        <v>14</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
       <c r="Y21">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="Z21">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27" t="s">
+      <c r="B22" s="20"/>
+      <c r="C22" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="27" t="s">
+      <c r="D22" s="22"/>
+      <c r="E22" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="17"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="14">
+      <c r="L22" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M22" s="19"/>
-      <c r="N22" s="15"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="17"/>
       <c r="O22" s="2"/>
+      <c r="P22">
+        <v>18</v>
+      </c>
+      <c r="V22">
+        <v>2</v>
+      </c>
       <c r="Y22">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="Z22">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="27" t="s">
+      <c r="D23" s="22"/>
+      <c r="E23" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="17"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="14">
+      <c r="L23" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M23" s="19"/>
-      <c r="N23" s="15"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="17"/>
       <c r="O23" s="2"/>
+      <c r="V23">
+        <v>1</v>
+      </c>
       <c r="Y23">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -2418,30 +2501,33 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27" t="s">
+      <c r="B24" s="20"/>
+      <c r="C24" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="27" t="s">
+      <c r="D24" s="22"/>
+      <c r="E24" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="17"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="14">
+      <c r="L24" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M24" s="19"/>
-      <c r="N24" s="15"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="17"/>
       <c r="O24" s="2"/>
+      <c r="V24">
+        <v>2</v>
+      </c>
       <c r="Y24">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -2451,30 +2537,33 @@
       </c>
     </row>
     <row r="25" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27" t="s">
+      <c r="B25" s="20"/>
+      <c r="C25" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="27" t="s">
+      <c r="D25" s="22"/>
+      <c r="E25" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="17"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="14">
+      <c r="L25" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M25" s="19"/>
-      <c r="N25" s="15"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="17"/>
       <c r="O25" s="2"/>
+      <c r="V25">
+        <v>1</v>
+      </c>
       <c r="Y25">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -2484,162 +2573,198 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27" t="s">
+      <c r="B26" s="20"/>
+      <c r="C26" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="27" t="s">
+      <c r="D26" s="22"/>
+      <c r="E26" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="15"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="17"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="14">
+      <c r="L26" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M26" s="19"/>
-      <c r="N26" s="15"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="17"/>
       <c r="O26" s="2"/>
+      <c r="P26">
+        <v>15</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
       <c r="Y26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Z26">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="27" t="s">
+      <c r="B27" s="20"/>
+      <c r="C27" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="27" t="s">
+      <c r="D27" s="22"/>
+      <c r="E27" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="15"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="17"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="14">
+      <c r="L27" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M27" s="19"/>
-      <c r="N27" s="15"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="17"/>
       <c r="O27" s="2"/>
+      <c r="P27">
+        <v>14</v>
+      </c>
+      <c r="R27">
+        <v>5</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
       <c r="Y27">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="Z27">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="27" t="s">
+      <c r="B28" s="20"/>
+      <c r="C28" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="27" t="s">
+      <c r="D28" s="22"/>
+      <c r="E28" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="17"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="14">
+      <c r="L28" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M28" s="19"/>
-      <c r="N28" s="15"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="17"/>
       <c r="O28" s="2"/>
+      <c r="P28">
+        <v>18</v>
+      </c>
+      <c r="R28">
+        <v>2</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
       <c r="Y28">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="Z28">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="27" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="27" t="s">
+      <c r="D29" s="22"/>
+      <c r="E29" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="F29" s="29"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="15"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="17"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="14">
+      <c r="L29" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M29" s="19"/>
-      <c r="N29" s="15"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="17"/>
       <c r="O29" s="2"/>
+      <c r="P29">
+        <v>16</v>
+      </c>
+      <c r="R29">
+        <v>5</v>
+      </c>
+      <c r="V29">
+        <v>2</v>
+      </c>
       <c r="Y29">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="Z29">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="27" t="s">
+      <c r="B30" s="20"/>
+      <c r="C30" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="27" t="s">
+      <c r="D30" s="22"/>
+      <c r="E30" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="15"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="17"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="14">
+      <c r="L30" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M30" s="19"/>
-      <c r="N30" s="15"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="17"/>
       <c r="O30" s="2"/>
+      <c r="V30">
+        <v>1</v>
+      </c>
       <c r="Y30">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -2649,63 +2774,75 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="27" t="s">
+      <c r="B31" s="20"/>
+      <c r="C31" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="27" t="s">
+      <c r="D31" s="22"/>
+      <c r="E31" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="F31" s="29"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="17"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="14">
+      <c r="L31" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M31" s="19"/>
-      <c r="N31" s="15"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="17"/>
       <c r="O31" s="2"/>
+      <c r="P31">
+        <v>14</v>
+      </c>
+      <c r="R31">
+        <v>2</v>
+      </c>
+      <c r="V31">
+        <v>2</v>
+      </c>
       <c r="Y31">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="Z31">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="27" t="s">
+      <c r="B32" s="20"/>
+      <c r="C32" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="27" t="s">
+      <c r="D32" s="22"/>
+      <c r="E32" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="F32" s="29"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="15"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="17"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="14">
+      <c r="L32" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M32" s="19"/>
-      <c r="N32" s="15"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="17"/>
       <c r="O32" s="2"/>
+      <c r="V32">
+        <v>1</v>
+      </c>
       <c r="Y32">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -2715,228 +2852,273 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="27" t="s">
+      <c r="B33" s="20"/>
+      <c r="C33" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="27" t="s">
+      <c r="D33" s="22"/>
+      <c r="E33" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="F33" s="29"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="15"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="17"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="14">
+      <c r="L33" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M33" s="19"/>
-      <c r="N33" s="15"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="17"/>
       <c r="O33" s="2"/>
+      <c r="P33">
+        <v>18</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
       <c r="Y33">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="Z33">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="27" t="s">
+      <c r="B34" s="20"/>
+      <c r="C34" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="27" t="s">
+      <c r="D34" s="22"/>
+      <c r="E34" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="F34" s="29"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="15"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="17"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="14">
+      <c r="L34" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M34" s="19"/>
-      <c r="N34" s="15"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="17"/>
       <c r="O34" s="2"/>
+      <c r="P34">
+        <v>15</v>
+      </c>
+      <c r="R34">
+        <v>5</v>
+      </c>
+      <c r="V34">
+        <v>1</v>
+      </c>
       <c r="Y34">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="Z34">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="27" t="s">
+      <c r="B35" s="20"/>
+      <c r="C35" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="27" t="s">
+      <c r="D35" s="22"/>
+      <c r="E35" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F35" s="29"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="15"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="17"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="14">
+      <c r="L35" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M35" s="19"/>
-      <c r="N35" s="15"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="17"/>
       <c r="O35" s="2"/>
+      <c r="P35">
+        <v>17</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
       <c r="Y35">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="Z35">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="27" t="s">
+      <c r="B36" s="20"/>
+      <c r="C36" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="27" t="s">
+      <c r="D36" s="22"/>
+      <c r="E36" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="F36" s="29"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="15"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="17"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="14">
+      <c r="L36" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M36" s="19"/>
-      <c r="N36" s="15"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="17"/>
       <c r="O36" s="2"/>
+      <c r="P36">
+        <v>19</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
       <c r="Y36">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="Z36">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="27" t="s">
+      <c r="B37" s="20"/>
+      <c r="C37" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="27" t="s">
+      <c r="D37" s="22"/>
+      <c r="E37" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="F37" s="29"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="15"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="17"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="14">
+      <c r="L37" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M37" s="19"/>
-      <c r="N37" s="15"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="17"/>
       <c r="O37" s="2"/>
+      <c r="P37">
+        <v>15</v>
+      </c>
+      <c r="R37">
+        <v>2</v>
+      </c>
+      <c r="V37">
+        <v>1</v>
+      </c>
       <c r="Y37">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="Z37">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="27" t="s">
+      <c r="B38" s="20"/>
+      <c r="C38" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="27" t="s">
+      <c r="D38" s="22"/>
+      <c r="E38" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="F38" s="29"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="15"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="17"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="14">
+      <c r="L38" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M38" s="19"/>
-      <c r="N38" s="15"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="17"/>
       <c r="O38" s="2"/>
+      <c r="P38">
+        <v>16</v>
+      </c>
+      <c r="V38">
+        <v>1</v>
+      </c>
       <c r="Y38">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="Z38">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="27" t="s">
+      <c r="B39" s="20"/>
+      <c r="C39" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="27" t="s">
+      <c r="D39" s="22"/>
+      <c r="E39" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="F39" s="29"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="15"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="17"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="14">
+      <c r="L39" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M39" s="19"/>
-      <c r="N39" s="15"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="17"/>
       <c r="O39" s="2"/>
+      <c r="V39">
+        <v>1</v>
+      </c>
       <c r="Y39">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -2946,63 +3128,75 @@
       </c>
     </row>
     <row r="40" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="27" t="s">
+      <c r="B40" s="20"/>
+      <c r="C40" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="D40" s="28"/>
-      <c r="E40" s="27" t="s">
+      <c r="D40" s="22"/>
+      <c r="E40" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="F40" s="29"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="15"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="17"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
-      <c r="L40" s="14">
+      <c r="L40" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M40" s="19"/>
-      <c r="N40" s="15"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="17"/>
       <c r="O40" s="2"/>
+      <c r="P40">
+        <v>13</v>
+      </c>
+      <c r="R40">
+        <v>5</v>
+      </c>
+      <c r="V40">
+        <v>2</v>
+      </c>
       <c r="Y40">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="Z40">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="27" t="s">
+      <c r="B41" s="20"/>
+      <c r="C41" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="27" t="s">
+      <c r="D41" s="22"/>
+      <c r="E41" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="F41" s="29"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="15"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="17"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
-      <c r="L41" s="14">
+      <c r="L41" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M41" s="19"/>
-      <c r="N41" s="15"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="17"/>
       <c r="O41" s="2"/>
+      <c r="V41">
+        <v>1</v>
+      </c>
       <c r="Y41">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -3012,30 +3206,33 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="27" t="s">
+      <c r="B42" s="20"/>
+      <c r="C42" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="D42" s="28"/>
-      <c r="E42" s="27" t="s">
+      <c r="D42" s="22"/>
+      <c r="E42" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="F42" s="29"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="15"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="17"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
-      <c r="L42" s="14">
+      <c r="L42" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M42" s="19"/>
-      <c r="N42" s="15"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="17"/>
       <c r="O42" s="2"/>
+      <c r="V42">
+        <v>1</v>
+      </c>
       <c r="Y42">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -3045,63 +3242,75 @@
       </c>
     </row>
     <row r="43" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="27" t="s">
+      <c r="B43" s="20"/>
+      <c r="C43" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="D43" s="28"/>
-      <c r="E43" s="27" t="s">
+      <c r="D43" s="22"/>
+      <c r="E43" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="F43" s="29"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="15"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="17"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
-      <c r="L43" s="14">
+      <c r="L43" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M43" s="19"/>
-      <c r="N43" s="15"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="17"/>
       <c r="O43" s="2"/>
+      <c r="P43">
+        <v>11</v>
+      </c>
+      <c r="R43">
+        <v>2</v>
+      </c>
+      <c r="V43">
+        <v>1</v>
+      </c>
       <c r="Y43">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="Z43">
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="27" t="s">
+      <c r="B44" s="20"/>
+      <c r="C44" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="27" t="s">
+      <c r="D44" s="22"/>
+      <c r="E44" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="F44" s="29"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="15"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="17"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
-      <c r="L44" s="14">
+      <c r="L44" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M44" s="19"/>
-      <c r="N44" s="15"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="17"/>
       <c r="O44" s="2"/>
+      <c r="V44">
+        <v>1</v>
+      </c>
       <c r="Y44">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -3111,228 +3320,273 @@
       </c>
     </row>
     <row r="45" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="27" t="s">
+      <c r="B45" s="20"/>
+      <c r="C45" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="D45" s="28"/>
-      <c r="E45" s="27" t="s">
+      <c r="D45" s="22"/>
+      <c r="E45" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="F45" s="29"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="15"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="17"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
-      <c r="L45" s="14">
+      <c r="L45" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M45" s="19"/>
-      <c r="N45" s="15"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="17"/>
       <c r="O45" s="2"/>
+      <c r="P45">
+        <v>14</v>
+      </c>
+      <c r="V45">
+        <v>1</v>
+      </c>
       <c r="Y45">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="Z45">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="27" t="s">
+      <c r="B46" s="20"/>
+      <c r="C46" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="D46" s="28"/>
-      <c r="E46" s="27" t="s">
+      <c r="D46" s="22"/>
+      <c r="E46" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="F46" s="29"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="15"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="17"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
-      <c r="L46" s="14">
+      <c r="L46" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M46" s="19"/>
-      <c r="N46" s="15"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="17"/>
       <c r="O46" s="2"/>
+      <c r="P46">
+        <v>13</v>
+      </c>
+      <c r="V46">
+        <v>1</v>
+      </c>
       <c r="Y46">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="Z46">
         <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="27" t="s">
+      <c r="B47" s="20"/>
+      <c r="C47" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D47" s="28"/>
-      <c r="E47" s="27" t="s">
+      <c r="D47" s="22"/>
+      <c r="E47" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="F47" s="29"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="15"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="17"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
-      <c r="L47" s="14">
+      <c r="L47" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M47" s="19"/>
-      <c r="N47" s="15"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="17"/>
       <c r="O47" s="2"/>
+      <c r="P47">
+        <v>20</v>
+      </c>
+      <c r="V47">
+        <v>1</v>
+      </c>
       <c r="Y47">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="Z47">
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="26"/>
-      <c r="C48" s="27" t="s">
+      <c r="B48" s="20"/>
+      <c r="C48" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="D48" s="28"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="22"/>
+      <c r="E48" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="F48" s="29"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="15"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="17"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
-      <c r="L48" s="14">
+      <c r="L48" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M48" s="19"/>
-      <c r="N48" s="15"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="17"/>
       <c r="O48" s="2"/>
+      <c r="P48">
+        <v>14</v>
+      </c>
+      <c r="R48">
+        <v>2</v>
+      </c>
+      <c r="V48">
+        <v>1</v>
+      </c>
       <c r="Y48">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="Z48">
         <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="27" t="s">
+      <c r="B49" s="20"/>
+      <c r="C49" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="D49" s="28"/>
-      <c r="E49" s="27" t="s">
+      <c r="D49" s="22"/>
+      <c r="E49" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="F49" s="29"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="15"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="17"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
-      <c r="L49" s="14">
+      <c r="L49" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M49" s="19"/>
-      <c r="N49" s="15"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="17"/>
       <c r="O49" s="2"/>
+      <c r="P49">
+        <v>16</v>
+      </c>
+      <c r="V49">
+        <v>1</v>
+      </c>
       <c r="Y49">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="Z49">
         <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="27" t="s">
+      <c r="B50" s="20"/>
+      <c r="C50" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="27" t="s">
+      <c r="D50" s="22"/>
+      <c r="E50" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="F50" s="29"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="15"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="17"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="14">
+      <c r="L50" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M50" s="19"/>
-      <c r="N50" s="15"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="17"/>
       <c r="O50" s="2"/>
+      <c r="P50">
+        <v>13</v>
+      </c>
+      <c r="R50">
+        <v>2</v>
+      </c>
+      <c r="V50">
+        <v>1</v>
+      </c>
       <c r="Y50">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Z50">
         <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B51" s="26"/>
-      <c r="C51" s="27" t="s">
+      <c r="B51" s="20"/>
+      <c r="C51" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="D51" s="28"/>
-      <c r="E51" s="27" t="s">
+      <c r="D51" s="22"/>
+      <c r="E51" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="F51" s="29"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="15"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="17"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
-      <c r="L51" s="14">
+      <c r="L51" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M51" s="19"/>
-      <c r="N51" s="15"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="17"/>
       <c r="O51" s="2"/>
+      <c r="V51">
+        <v>1</v>
+      </c>
       <c r="Y51">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -3342,96 +3596,117 @@
       </c>
     </row>
     <row r="52" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="27" t="s">
+      <c r="B52" s="20"/>
+      <c r="C52" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="D52" s="28"/>
-      <c r="E52" s="27" t="s">
+      <c r="D52" s="22"/>
+      <c r="E52" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="F52" s="29"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="15"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="17"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
-      <c r="L52" s="14">
+      <c r="L52" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M52" s="19"/>
-      <c r="N52" s="15"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="17"/>
       <c r="O52" s="2"/>
+      <c r="P52">
+        <v>13</v>
+      </c>
+      <c r="R52">
+        <v>5</v>
+      </c>
+      <c r="V52">
+        <v>1</v>
+      </c>
       <c r="Y52">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="Z52">
         <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="26"/>
-      <c r="C53" s="27" t="s">
+      <c r="B53" s="20"/>
+      <c r="C53" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="27" t="s">
+      <c r="D53" s="22"/>
+      <c r="E53" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="F53" s="29"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="15"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="17"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
-      <c r="L53" s="14">
+      <c r="L53" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M53" s="19"/>
-      <c r="N53" s="15"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="17"/>
       <c r="O53" s="2"/>
+      <c r="P53">
+        <v>17</v>
+      </c>
+      <c r="R53">
+        <v>2</v>
+      </c>
+      <c r="V53">
+        <v>1</v>
+      </c>
       <c r="Y53">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="Z53">
         <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="26"/>
-      <c r="C54" s="27" t="s">
+      <c r="B54" s="20"/>
+      <c r="C54" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="D54" s="28"/>
-      <c r="E54" s="27" t="s">
+      <c r="D54" s="22"/>
+      <c r="E54" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="F54" s="29"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="15"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="17"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="14">
+      <c r="L54" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M54" s="19"/>
-      <c r="N54" s="15"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="17"/>
       <c r="O54" s="2"/>
+      <c r="V54">
+        <v>1</v>
+      </c>
       <c r="Y54">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -3441,294 +3716,348 @@
       </c>
     </row>
     <row r="55" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B55" s="26"/>
-      <c r="C55" s="27" t="s">
+      <c r="B55" s="20"/>
+      <c r="C55" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="D55" s="28"/>
-      <c r="E55" s="27" t="s">
+      <c r="D55" s="22"/>
+      <c r="E55" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="F55" s="29"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="15"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="17"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="14">
+      <c r="L55" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M55" s="19"/>
-      <c r="N55" s="15"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="17"/>
       <c r="O55" s="2"/>
+      <c r="R55">
+        <v>2</v>
+      </c>
+      <c r="V55">
+        <v>1</v>
+      </c>
       <c r="Y55">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z55">
         <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="26"/>
-      <c r="C56" s="27" t="s">
+      <c r="B56" s="20"/>
+      <c r="C56" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="D56" s="28"/>
-      <c r="E56" s="27" t="s">
+      <c r="D56" s="22"/>
+      <c r="E56" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="F56" s="29"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="15"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="17"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="14">
+      <c r="L56" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M56" s="19"/>
-      <c r="N56" s="15"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="17"/>
       <c r="O56" s="2"/>
+      <c r="R56">
+        <v>5</v>
+      </c>
+      <c r="V56">
+        <v>1</v>
+      </c>
       <c r="Y56">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z56">
         <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="26"/>
-      <c r="C57" s="27" t="s">
+      <c r="B57" s="20"/>
+      <c r="C57" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="D57" s="28"/>
-      <c r="E57" s="27" t="s">
+      <c r="D57" s="22"/>
+      <c r="E57" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="F57" s="29"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="15"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="17"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="14">
+      <c r="L57" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M57" s="19"/>
-      <c r="N57" s="15"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="17"/>
       <c r="O57" s="2"/>
+      <c r="R57">
+        <v>2</v>
+      </c>
+      <c r="V57">
+        <v>1</v>
+      </c>
       <c r="Y57">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z57">
         <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B58" s="26"/>
-      <c r="C58" s="27" t="s">
+      <c r="B58" s="20"/>
+      <c r="C58" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D58" s="28"/>
-      <c r="E58" s="27" t="s">
+      <c r="D58" s="22"/>
+      <c r="E58" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="F58" s="29"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="15"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="17"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="14">
+      <c r="L58" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M58" s="19"/>
-      <c r="N58" s="15"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="17"/>
       <c r="O58" s="2"/>
+      <c r="P58">
+        <v>14</v>
+      </c>
+      <c r="V58">
+        <v>1</v>
+      </c>
       <c r="Y58">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="Z58">
         <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B59" s="26"/>
-      <c r="C59" s="27" t="s">
+      <c r="B59" s="20"/>
+      <c r="C59" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="27" t="s">
+      <c r="D59" s="22"/>
+      <c r="E59" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="F59" s="29"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="15"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="17"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="14">
+      <c r="L59" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M59" s="19"/>
-      <c r="N59" s="15"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="17"/>
       <c r="O59" s="2"/>
+      <c r="P59">
+        <v>13</v>
+      </c>
+      <c r="V59">
+        <v>1</v>
+      </c>
       <c r="Y59">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="Z59">
         <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B60" s="26"/>
-      <c r="C60" s="27" t="s">
+      <c r="B60" s="20"/>
+      <c r="C60" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D60" s="28"/>
-      <c r="E60" s="27" t="s">
+      <c r="D60" s="22"/>
+      <c r="E60" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="F60" s="29"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="15"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="17"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="14">
+      <c r="L60" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M60" s="19"/>
-      <c r="N60" s="15"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="17"/>
       <c r="O60" s="2"/>
+      <c r="P60">
+        <v>13</v>
+      </c>
+      <c r="R60">
+        <v>2</v>
+      </c>
+      <c r="V60">
+        <v>2</v>
+      </c>
       <c r="Y60">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Z60">
         <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B61" s="26"/>
-      <c r="C61" s="27" t="s">
+      <c r="B61" s="20"/>
+      <c r="C61" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="D61" s="28"/>
-      <c r="E61" s="27" t="s">
+      <c r="D61" s="22"/>
+      <c r="E61" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="F61" s="29"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="15"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="17"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="14">
+      <c r="L61" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M61" s="19"/>
-      <c r="N61" s="15"/>
+      <c r="M61" s="18"/>
+      <c r="N61" s="17"/>
       <c r="O61" s="2"/>
+      <c r="P61">
+        <v>14</v>
+      </c>
+      <c r="V61">
+        <v>1</v>
+      </c>
       <c r="Y61">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="Z61">
         <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B62" s="26"/>
-      <c r="C62" s="27" t="s">
+      <c r="B62" s="20"/>
+      <c r="C62" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="27" t="s">
+      <c r="D62" s="22"/>
+      <c r="E62" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="F62" s="29"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="15"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="17"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="14">
+      <c r="L62" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M62" s="19"/>
-      <c r="N62" s="15"/>
+      <c r="M62" s="18"/>
+      <c r="N62" s="17"/>
       <c r="O62" s="2"/>
+      <c r="P62">
+        <v>13</v>
+      </c>
+      <c r="V62">
+        <v>1</v>
+      </c>
       <c r="Y62">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="Z62">
         <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B63" s="26"/>
-      <c r="C63" s="27" t="s">
+      <c r="B63" s="20"/>
+      <c r="C63" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="D63" s="28"/>
-      <c r="E63" s="27" t="s">
+      <c r="D63" s="22"/>
+      <c r="E63" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="F63" s="29"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="15"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="17"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="14">
+      <c r="L63" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M63" s="19"/>
-      <c r="N63" s="15"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="17"/>
       <c r="O63" s="2"/>
+      <c r="V63">
+        <v>1</v>
+      </c>
       <c r="Y63">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -3738,63 +4067,75 @@
       </c>
     </row>
     <row r="64" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B64" s="26"/>
-      <c r="C64" s="27" t="s">
+      <c r="B64" s="20"/>
+      <c r="C64" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="D64" s="28"/>
-      <c r="E64" s="27" t="s">
+      <c r="D64" s="22"/>
+      <c r="E64" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="F64" s="29"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="15"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="17"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="14">
+      <c r="L64" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M64" s="19"/>
-      <c r="N64" s="15"/>
+      <c r="M64" s="18"/>
+      <c r="N64" s="17"/>
       <c r="O64" s="2"/>
+      <c r="P64">
+        <v>18</v>
+      </c>
+      <c r="R64">
+        <v>2</v>
+      </c>
+      <c r="V64">
+        <v>1</v>
+      </c>
       <c r="Y64">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="Z64">
         <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B65" s="26"/>
-      <c r="C65" s="27" t="s">
+      <c r="B65" s="20"/>
+      <c r="C65" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="D65" s="28"/>
-      <c r="E65" s="27" t="s">
+      <c r="D65" s="22"/>
+      <c r="E65" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="F65" s="29"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="15"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="17"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="14">
+      <c r="L65" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M65" s="19"/>
-      <c r="N65" s="15"/>
+      <c r="M65" s="18"/>
+      <c r="N65" s="17"/>
       <c r="O65" s="2"/>
+      <c r="V65">
+        <v>1</v>
+      </c>
       <c r="Y65">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -3804,129 +4145,156 @@
       </c>
     </row>
     <row r="66" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B66" s="26"/>
-      <c r="C66" s="27" t="s">
+      <c r="B66" s="20"/>
+      <c r="C66" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="D66" s="28"/>
-      <c r="E66" s="27" t="s">
+      <c r="D66" s="22"/>
+      <c r="E66" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="F66" s="29"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="15"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="17"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
-      <c r="L66" s="14">
+      <c r="L66" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M66" s="19"/>
-      <c r="N66" s="15"/>
+      <c r="M66" s="18"/>
+      <c r="N66" s="17"/>
       <c r="O66" s="2"/>
+      <c r="P66">
+        <v>13</v>
+      </c>
+      <c r="V66">
+        <v>1</v>
+      </c>
       <c r="Y66">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="Z66">
         <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B67" s="26"/>
-      <c r="C67" s="27" t="s">
+      <c r="B67" s="20"/>
+      <c r="C67" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="D67" s="28"/>
-      <c r="E67" s="27" t="s">
+      <c r="D67" s="22"/>
+      <c r="E67" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="F67" s="29"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="15"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="17"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="14">
+      <c r="L67" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M67" s="19"/>
-      <c r="N67" s="15"/>
+      <c r="M67" s="18"/>
+      <c r="N67" s="17"/>
       <c r="O67" s="2"/>
+      <c r="P67">
+        <v>15</v>
+      </c>
+      <c r="R67">
+        <v>5</v>
+      </c>
+      <c r="V67">
+        <v>1</v>
+      </c>
       <c r="Y67">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="Z67">
         <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B68" s="26"/>
-      <c r="C68" s="27" t="s">
+      <c r="B68" s="20"/>
+      <c r="C68" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="D68" s="28"/>
-      <c r="E68" s="27" t="s">
+      <c r="D68" s="22"/>
+      <c r="E68" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="F68" s="29"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="15"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="17"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-      <c r="L68" s="14">
+      <c r="L68" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M68" s="19"/>
-      <c r="N68" s="15"/>
+      <c r="M68" s="18"/>
+      <c r="N68" s="17"/>
       <c r="O68" s="2"/>
+      <c r="P68">
+        <v>15</v>
+      </c>
+      <c r="R68">
+        <v>2</v>
+      </c>
+      <c r="V68">
+        <v>1</v>
+      </c>
       <c r="Y68">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="Z68">
         <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B69" s="26"/>
-      <c r="C69" s="27" t="s">
+      <c r="B69" s="20"/>
+      <c r="C69" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="D69" s="28"/>
-      <c r="E69" s="27" t="s">
+      <c r="D69" s="22"/>
+      <c r="E69" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="F69" s="29"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="15"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="17"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="14">
+      <c r="L69" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M69" s="19"/>
-      <c r="N69" s="15"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="17"/>
       <c r="O69" s="2"/>
+      <c r="V69">
+        <v>1</v>
+      </c>
       <c r="Y69">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -3936,228 +4304,279 @@
       </c>
     </row>
     <row r="70" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="25" t="s">
+      <c r="A70" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B70" s="26"/>
-      <c r="C70" s="27" t="s">
+      <c r="B70" s="20"/>
+      <c r="C70" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="D70" s="28"/>
-      <c r="E70" s="27" t="s">
+      <c r="D70" s="22"/>
+      <c r="E70" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="F70" s="29"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="15"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="17"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
-      <c r="L70" s="14">
+      <c r="L70" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M70" s="19"/>
-      <c r="N70" s="15"/>
+      <c r="M70" s="18"/>
+      <c r="N70" s="17"/>
       <c r="O70" s="2"/>
+      <c r="P70">
+        <v>18</v>
+      </c>
+      <c r="R70">
+        <v>5</v>
+      </c>
+      <c r="V70">
+        <v>2</v>
+      </c>
       <c r="Y70">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="Z70">
         <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B71" s="26"/>
-      <c r="C71" s="27" t="s">
+      <c r="B71" s="20"/>
+      <c r="C71" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="D71" s="28"/>
-      <c r="E71" s="27" t="s">
+      <c r="D71" s="22"/>
+      <c r="E71" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="F71" s="29"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="15"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="17"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
-      <c r="L71" s="14">
+      <c r="L71" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M71" s="19"/>
-      <c r="N71" s="15"/>
+      <c r="M71" s="18"/>
+      <c r="N71" s="17"/>
       <c r="O71" s="2"/>
+      <c r="R71">
+        <v>2</v>
+      </c>
+      <c r="V71">
+        <v>1</v>
+      </c>
       <c r="Y71">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z71">
         <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="25" t="s">
+      <c r="A72" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B72" s="26"/>
-      <c r="C72" s="27" t="s">
+      <c r="B72" s="20"/>
+      <c r="C72" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="D72" s="28"/>
-      <c r="E72" s="27" t="s">
+      <c r="D72" s="22"/>
+      <c r="E72" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="F72" s="29"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="15"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="17"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="L72" s="14">
+      <c r="L72" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M72" s="19"/>
-      <c r="N72" s="15"/>
+      <c r="M72" s="18"/>
+      <c r="N72" s="17"/>
       <c r="O72" s="2"/>
+      <c r="P72">
+        <v>15</v>
+      </c>
+      <c r="R72">
+        <v>2</v>
+      </c>
+      <c r="V72">
+        <v>2</v>
+      </c>
       <c r="Y72">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="Z72">
         <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="25" t="s">
+      <c r="A73" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B73" s="26"/>
-      <c r="C73" s="27" t="s">
+      <c r="B73" s="20"/>
+      <c r="C73" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="D73" s="28"/>
-      <c r="E73" s="27" t="s">
+      <c r="D73" s="22"/>
+      <c r="E73" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="F73" s="29"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="15"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="17"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
-      <c r="L73" s="14">
+      <c r="L73" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M73" s="19"/>
-      <c r="N73" s="15"/>
+      <c r="M73" s="18"/>
+      <c r="N73" s="17"/>
       <c r="O73" s="2"/>
+      <c r="P73">
+        <v>13</v>
+      </c>
+      <c r="R73">
+        <v>2</v>
+      </c>
+      <c r="V73">
+        <v>1</v>
+      </c>
       <c r="Y73">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Z73">
         <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="25" t="s">
+      <c r="A74" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B74" s="26"/>
-      <c r="C74" s="27" t="s">
+      <c r="B74" s="20"/>
+      <c r="C74" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="D74" s="28"/>
-      <c r="E74" s="27" t="s">
+      <c r="D74" s="22"/>
+      <c r="E74" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="F74" s="29"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="15"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="17"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
-      <c r="L74" s="14">
+      <c r="L74" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M74" s="19"/>
-      <c r="N74" s="15"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="17"/>
       <c r="O74" s="2"/>
+      <c r="R74">
+        <v>5</v>
+      </c>
+      <c r="V74">
+        <v>1</v>
+      </c>
       <c r="Y74">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z74">
         <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25" t="s">
+      <c r="A75" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="B75" s="26"/>
-      <c r="C75" s="27" t="s">
+      <c r="B75" s="20"/>
+      <c r="C75" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="D75" s="28"/>
-      <c r="E75" s="27" t="s">
+      <c r="D75" s="22"/>
+      <c r="E75" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="F75" s="29"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="15"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="17"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
-      <c r="L75" s="14">
+      <c r="L75" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M75" s="19"/>
-      <c r="N75" s="15"/>
+      <c r="M75" s="18"/>
+      <c r="N75" s="17"/>
       <c r="O75" s="2"/>
+      <c r="P75">
+        <v>14</v>
+      </c>
+      <c r="R75">
+        <v>2</v>
+      </c>
+      <c r="V75">
+        <v>1</v>
+      </c>
       <c r="Y75">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="Z75">
         <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="25" t="s">
+      <c r="A76" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="B76" s="26"/>
-      <c r="C76" s="27" t="s">
+      <c r="B76" s="20"/>
+      <c r="C76" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="D76" s="28"/>
-      <c r="E76" s="27" t="s">
+      <c r="D76" s="22"/>
+      <c r="E76" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="F76" s="29"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="15"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="17"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
-      <c r="L76" s="14">
+      <c r="L76" s="16">
         <f t="shared" ref="L76:L113" si="2">IF((Y76-50)&gt;50,50,IF((Y76-50)&lt;0,0,(Y76-50)))</f>
         <v>0</v>
       </c>
-      <c r="M76" s="19"/>
-      <c r="N76" s="15"/>
+      <c r="M76" s="18"/>
+      <c r="N76" s="17"/>
       <c r="O76" s="2"/>
+      <c r="V76">
+        <v>1</v>
+      </c>
       <c r="Y76">
         <f t="shared" ref="Y76:Y113" si="3">P76+(IF((Q76+R76+S76+T76)&gt;30,(Q76+R76+S76+T76)/4,IF((Q76+R76+S76+T76)&gt;20,(Q76+R76+S76+T76)/3,IF((Q76+R76+S76+T76)&gt;10,(Q76+R76+S76+T76)/2,(Q76+R76+S76+T76)))))+(U76*V76)+W76+X76+Z76</f>
         <v>5</v>
@@ -4167,96 +4586,111 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="25" t="s">
+      <c r="A77" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B77" s="26"/>
-      <c r="C77" s="27" t="s">
+      <c r="B77" s="20"/>
+      <c r="C77" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="D77" s="28"/>
-      <c r="E77" s="27" t="s">
+      <c r="D77" s="22"/>
+      <c r="E77" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="F77" s="29"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="15"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="17"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
-      <c r="L77" s="14">
+      <c r="L77" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M77" s="19"/>
-      <c r="N77" s="15"/>
+      <c r="M77" s="18"/>
+      <c r="N77" s="17"/>
       <c r="O77" s="2"/>
+      <c r="P77">
+        <v>19</v>
+      </c>
+      <c r="V77">
+        <v>1</v>
+      </c>
       <c r="Y77">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="Z77">
         <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="25" t="s">
+      <c r="A78" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="B78" s="26"/>
-      <c r="C78" s="27" t="s">
+      <c r="B78" s="20"/>
+      <c r="C78" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="D78" s="28"/>
-      <c r="E78" s="27" t="s">
+      <c r="D78" s="22"/>
+      <c r="E78" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="F78" s="29"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="15"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="17"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
-      <c r="L78" s="14">
+      <c r="L78" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M78" s="19"/>
-      <c r="N78" s="15"/>
+      <c r="M78" s="18"/>
+      <c r="N78" s="17"/>
       <c r="O78" s="2"/>
+      <c r="P78">
+        <v>16</v>
+      </c>
+      <c r="V78">
+        <v>1</v>
+      </c>
       <c r="Y78">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="Z78">
         <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="25" t="s">
+      <c r="A79" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="B79" s="26"/>
-      <c r="C79" s="27" t="s">
+      <c r="B79" s="20"/>
+      <c r="C79" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="D79" s="28"/>
-      <c r="E79" s="27" t="s">
+      <c r="D79" s="22"/>
+      <c r="E79" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="F79" s="29"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="15"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="17"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
-      <c r="L79" s="14">
+      <c r="L79" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M79" s="19"/>
-      <c r="N79" s="15"/>
+      <c r="M79" s="18"/>
+      <c r="N79" s="17"/>
       <c r="O79" s="2"/>
+      <c r="V79">
+        <v>1</v>
+      </c>
       <c r="Y79">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -4266,96 +4700,117 @@
       </c>
     </row>
     <row r="80" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="25" t="s">
+      <c r="A80" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="B80" s="26"/>
-      <c r="C80" s="27" t="s">
+      <c r="B80" s="20"/>
+      <c r="C80" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="27" t="s">
+      <c r="D80" s="22"/>
+      <c r="E80" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="F80" s="29"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="15"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="17"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
-      <c r="L80" s="14">
+      <c r="L80" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M80" s="19"/>
-      <c r="N80" s="15"/>
+      <c r="M80" s="18"/>
+      <c r="N80" s="17"/>
       <c r="O80" s="2"/>
+      <c r="P80">
+        <v>16</v>
+      </c>
+      <c r="R80">
+        <v>2</v>
+      </c>
+      <c r="V80">
+        <v>1</v>
+      </c>
       <c r="Y80">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="Z80">
         <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="25" t="s">
+      <c r="A81" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="B81" s="26"/>
-      <c r="C81" s="27" t="s">
+      <c r="B81" s="20"/>
+      <c r="C81" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="D81" s="28"/>
-      <c r="E81" s="27" t="s">
+      <c r="D81" s="22"/>
+      <c r="E81" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="F81" s="29"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="15"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="17"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
-      <c r="L81" s="14">
+      <c r="L81" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M81" s="19"/>
-      <c r="N81" s="15"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="17"/>
       <c r="O81" s="2"/>
+      <c r="P81">
+        <v>16</v>
+      </c>
+      <c r="R81">
+        <v>2</v>
+      </c>
+      <c r="V81">
+        <v>1</v>
+      </c>
       <c r="Y81">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="Z81">
         <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25" t="s">
+      <c r="A82" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="B82" s="26"/>
-      <c r="C82" s="27" t="s">
+      <c r="B82" s="20"/>
+      <c r="C82" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="D82" s="28"/>
-      <c r="E82" s="27" t="s">
+      <c r="D82" s="22"/>
+      <c r="E82" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="F82" s="29"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="15"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="17"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
-      <c r="L82" s="14">
+      <c r="L82" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M82" s="19"/>
-      <c r="N82" s="15"/>
+      <c r="M82" s="18"/>
+      <c r="N82" s="17"/>
       <c r="O82" s="2"/>
+      <c r="V82">
+        <v>1</v>
+      </c>
       <c r="Y82">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -4365,162 +4820,195 @@
       </c>
     </row>
     <row r="83" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="25" t="s">
+      <c r="A83" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="B83" s="26"/>
-      <c r="C83" s="27" t="s">
+      <c r="B83" s="20"/>
+      <c r="C83" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="D83" s="28"/>
-      <c r="E83" s="27" t="s">
+      <c r="D83" s="22"/>
+      <c r="E83" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="F83" s="29"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="15"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="17"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
-      <c r="L83" s="14">
+      <c r="L83" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M83" s="19"/>
-      <c r="N83" s="15"/>
+      <c r="M83" s="18"/>
+      <c r="N83" s="17"/>
       <c r="O83" s="2"/>
+      <c r="P83">
+        <v>11</v>
+      </c>
+      <c r="R83">
+        <v>5</v>
+      </c>
+      <c r="V83">
+        <v>1</v>
+      </c>
       <c r="Y83">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="Z83">
         <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="25" t="s">
+      <c r="A84" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="B84" s="26"/>
-      <c r="C84" s="27" t="s">
+      <c r="B84" s="20"/>
+      <c r="C84" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="D84" s="28"/>
-      <c r="E84" s="27" t="s">
+      <c r="D84" s="22"/>
+      <c r="E84" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="F84" s="29"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="15"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="17"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
-      <c r="L84" s="14">
+      <c r="L84" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M84" s="19"/>
-      <c r="N84" s="15"/>
+      <c r="M84" s="18"/>
+      <c r="N84" s="17"/>
       <c r="O84" s="2"/>
+      <c r="R84">
+        <v>5</v>
+      </c>
+      <c r="V84">
+        <v>1</v>
+      </c>
       <c r="Y84">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z84">
         <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="25" t="s">
+      <c r="A85" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="B85" s="26"/>
-      <c r="C85" s="27" t="s">
+      <c r="B85" s="20"/>
+      <c r="C85" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="D85" s="28"/>
-      <c r="E85" s="27" t="s">
+      <c r="D85" s="22"/>
+      <c r="E85" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="F85" s="29"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="15"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="17"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
-      <c r="L85" s="14">
+      <c r="L85" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M85" s="19"/>
-      <c r="N85" s="15"/>
+      <c r="M85" s="18"/>
+      <c r="N85" s="17"/>
       <c r="O85" s="2"/>
+      <c r="P85">
+        <v>13</v>
+      </c>
+      <c r="V85">
+        <v>1</v>
+      </c>
       <c r="Y85">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="Z85">
         <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="25" t="s">
+      <c r="A86" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="B86" s="26"/>
-      <c r="C86" s="27" t="s">
+      <c r="B86" s="20"/>
+      <c r="C86" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="D86" s="28"/>
-      <c r="E86" s="27" t="s">
+      <c r="D86" s="22"/>
+      <c r="E86" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="F86" s="29"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="15"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="17"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
-      <c r="L86" s="14">
+      <c r="L86" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M86" s="19"/>
-      <c r="N86" s="15"/>
+      <c r="M86" s="18"/>
+      <c r="N86" s="17"/>
       <c r="O86" s="2"/>
+      <c r="P86">
+        <v>16</v>
+      </c>
+      <c r="R86">
+        <v>2</v>
+      </c>
+      <c r="V86">
+        <v>1</v>
+      </c>
       <c r="Y86">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="Z86">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="25" t="s">
+      <c r="A87" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="B87" s="26"/>
-      <c r="C87" s="27" t="s">
+      <c r="B87" s="20"/>
+      <c r="C87" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="D87" s="28"/>
-      <c r="E87" s="27" t="s">
+      <c r="D87" s="22"/>
+      <c r="E87" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="F87" s="29"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="15"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="17"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
-      <c r="L87" s="14">
+      <c r="L87" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M87" s="19"/>
-      <c r="N87" s="15"/>
+      <c r="M87" s="18"/>
+      <c r="N87" s="17"/>
       <c r="O87" s="2"/>
+      <c r="V87">
+        <v>1</v>
+      </c>
       <c r="Y87">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -4530,294 +5018,351 @@
       </c>
     </row>
     <row r="88" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="25" t="s">
+      <c r="A88" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="B88" s="26"/>
-      <c r="C88" s="27" t="s">
+      <c r="B88" s="20"/>
+      <c r="C88" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="D88" s="28"/>
-      <c r="E88" s="27" t="s">
+      <c r="D88" s="22"/>
+      <c r="E88" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="F88" s="29"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="15"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="17"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
-      <c r="L88" s="14">
+      <c r="L88" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M88" s="19"/>
-      <c r="N88" s="15"/>
+      <c r="M88" s="18"/>
+      <c r="N88" s="17"/>
       <c r="O88" s="2"/>
+      <c r="P88">
+        <v>14</v>
+      </c>
+      <c r="V88">
+        <v>1</v>
+      </c>
       <c r="Y88">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="Z88">
         <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="25" t="s">
+      <c r="A89" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="B89" s="26"/>
-      <c r="C89" s="27" t="s">
+      <c r="B89" s="20"/>
+      <c r="C89" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="27" t="s">
+      <c r="D89" s="22"/>
+      <c r="E89" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="F89" s="29"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="15"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="17"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
-      <c r="L89" s="14">
+      <c r="L89" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M89" s="19"/>
-      <c r="N89" s="15"/>
+      <c r="M89" s="18"/>
+      <c r="N89" s="17"/>
       <c r="O89" s="2"/>
+      <c r="P89">
+        <v>13</v>
+      </c>
+      <c r="V89">
+        <v>1</v>
+      </c>
       <c r="Y89">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="Z89">
         <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="25" t="s">
+      <c r="A90" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="B90" s="26"/>
-      <c r="C90" s="27" t="s">
+      <c r="B90" s="20"/>
+      <c r="C90" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="D90" s="28"/>
-      <c r="E90" s="27" t="s">
+      <c r="D90" s="22"/>
+      <c r="E90" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="F90" s="29"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="15"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="17"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
-      <c r="L90" s="14">
+      <c r="L90" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M90" s="19"/>
-      <c r="N90" s="15"/>
+      <c r="M90" s="18"/>
+      <c r="N90" s="17"/>
       <c r="O90" s="2"/>
+      <c r="P90">
+        <v>14</v>
+      </c>
+      <c r="V90">
+        <v>1</v>
+      </c>
       <c r="Y90">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="Z90">
         <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="25" t="s">
+      <c r="A91" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="B91" s="26"/>
-      <c r="C91" s="27" t="s">
+      <c r="B91" s="20"/>
+      <c r="C91" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="D91" s="28"/>
-      <c r="E91" s="27" t="s">
+      <c r="D91" s="22"/>
+      <c r="E91" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="F91" s="29"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="15"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="17"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
-      <c r="L91" s="14">
+      <c r="L91" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M91" s="19"/>
-      <c r="N91" s="15"/>
+      <c r="M91" s="18"/>
+      <c r="N91" s="17"/>
       <c r="O91" s="2"/>
+      <c r="P91">
+        <v>13</v>
+      </c>
+      <c r="R91">
+        <v>2</v>
+      </c>
+      <c r="V91">
+        <v>1</v>
+      </c>
       <c r="Y91">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Z91">
         <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="25" t="s">
+      <c r="A92" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="B92" s="26"/>
-      <c r="C92" s="27" t="s">
+      <c r="B92" s="20"/>
+      <c r="C92" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="D92" s="28"/>
-      <c r="E92" s="27" t="s">
+      <c r="D92" s="22"/>
+      <c r="E92" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="F92" s="29"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="15"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="17"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
-      <c r="L92" s="14">
+      <c r="L92" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M92" s="19"/>
-      <c r="N92" s="15"/>
+      <c r="M92" s="18"/>
+      <c r="N92" s="17"/>
       <c r="O92" s="2"/>
+      <c r="P92">
+        <v>14</v>
+      </c>
+      <c r="V92">
+        <v>1</v>
+      </c>
       <c r="Y92">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="Z92">
         <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="25" t="s">
+      <c r="A93" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="B93" s="26"/>
-      <c r="C93" s="27" t="s">
+      <c r="B93" s="20"/>
+      <c r="C93" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="D93" s="28"/>
-      <c r="E93" s="27" t="s">
+      <c r="D93" s="22"/>
+      <c r="E93" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="F93" s="29"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="15"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="17"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
-      <c r="L93" s="14">
+      <c r="L93" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M93" s="19"/>
-      <c r="N93" s="15"/>
+      <c r="M93" s="18"/>
+      <c r="N93" s="17"/>
       <c r="O93" s="2"/>
+      <c r="P93">
+        <v>13</v>
+      </c>
+      <c r="R93">
+        <v>2</v>
+      </c>
+      <c r="V93">
+        <v>1</v>
+      </c>
       <c r="Y93">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Z93">
         <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="25" t="s">
+      <c r="A94" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="B94" s="26"/>
-      <c r="C94" s="27" t="s">
+      <c r="B94" s="20"/>
+      <c r="C94" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="D94" s="28"/>
-      <c r="E94" s="27" t="s">
+      <c r="D94" s="22"/>
+      <c r="E94" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="F94" s="29"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="14"/>
-      <c r="I94" s="15"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="17"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
-      <c r="L94" s="14">
+      <c r="L94" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M94" s="19"/>
-      <c r="N94" s="15"/>
+      <c r="M94" s="18"/>
+      <c r="N94" s="17"/>
       <c r="O94" s="2"/>
+      <c r="P94">
+        <v>13</v>
+      </c>
+      <c r="V94">
+        <v>1</v>
+      </c>
       <c r="Y94">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="Z94">
         <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="25" t="s">
+      <c r="A95" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="B95" s="26"/>
-      <c r="C95" s="27" t="s">
+      <c r="B95" s="20"/>
+      <c r="C95" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="D95" s="28"/>
-      <c r="E95" s="27" t="s">
+      <c r="D95" s="22"/>
+      <c r="E95" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="F95" s="29"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="15"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="22"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="17"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
-      <c r="L95" s="14">
+      <c r="L95" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M95" s="19"/>
-      <c r="N95" s="15"/>
+      <c r="M95" s="18"/>
+      <c r="N95" s="17"/>
       <c r="O95" s="2"/>
+      <c r="P95">
+        <v>14</v>
+      </c>
+      <c r="V95">
+        <v>1</v>
+      </c>
       <c r="Y95">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="Z95">
         <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="25" t="s">
+      <c r="A96" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="B96" s="26"/>
-      <c r="C96" s="27" t="s">
+      <c r="B96" s="20"/>
+      <c r="C96" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="D96" s="28"/>
-      <c r="E96" s="27" t="s">
+      <c r="D96" s="22"/>
+      <c r="E96" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="F96" s="29"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="15"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="17"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
-      <c r="L96" s="14">
+      <c r="L96" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M96" s="19"/>
-      <c r="N96" s="15"/>
+      <c r="M96" s="18"/>
+      <c r="N96" s="17"/>
       <c r="O96" s="2"/>
+      <c r="V96">
+        <v>1</v>
+      </c>
       <c r="Y96">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -4827,453 +5372,552 @@
       </c>
     </row>
     <row r="97" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="25" t="s">
+      <c r="A97" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="B97" s="26"/>
-      <c r="C97" s="27" t="s">
+      <c r="B97" s="20"/>
+      <c r="C97" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="D97" s="28"/>
-      <c r="E97" s="27" t="s">
+      <c r="D97" s="22"/>
+      <c r="E97" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="F97" s="29"/>
-      <c r="G97" s="28"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="15"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="17"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
-      <c r="L97" s="14">
+      <c r="L97" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M97" s="19"/>
-      <c r="N97" s="15"/>
+      <c r="M97" s="18"/>
+      <c r="N97" s="17"/>
       <c r="O97" s="2"/>
+      <c r="P97">
+        <v>18</v>
+      </c>
+      <c r="V97">
+        <v>1</v>
+      </c>
       <c r="Y97">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="Z97">
         <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="25" t="s">
+      <c r="A98" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="B98" s="26"/>
-      <c r="C98" s="27" t="s">
+      <c r="B98" s="20"/>
+      <c r="C98" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="27" t="s">
+      <c r="D98" s="22"/>
+      <c r="E98" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="F98" s="29"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="15"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="17"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
-      <c r="L98" s="14">
+      <c r="L98" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M98" s="19"/>
-      <c r="N98" s="15"/>
+      <c r="M98" s="18"/>
+      <c r="N98" s="17"/>
       <c r="O98" s="2"/>
+      <c r="P98">
+        <v>16</v>
+      </c>
+      <c r="R98">
+        <v>2</v>
+      </c>
+      <c r="V98">
+        <v>1</v>
+      </c>
       <c r="Y98">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="Z98">
         <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="25" t="s">
+      <c r="A99" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="B99" s="26"/>
-      <c r="C99" s="27" t="s">
+      <c r="B99" s="20"/>
+      <c r="C99" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="D99" s="28"/>
-      <c r="E99" s="27" t="s">
+      <c r="D99" s="22"/>
+      <c r="E99" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="F99" s="29"/>
-      <c r="G99" s="28"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="15"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="17"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
-      <c r="L99" s="14">
+      <c r="L99" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M99" s="19"/>
-      <c r="N99" s="15"/>
+      <c r="M99" s="18"/>
+      <c r="N99" s="17"/>
       <c r="O99" s="2"/>
+      <c r="P99">
+        <v>16</v>
+      </c>
+      <c r="R99">
+        <v>5</v>
+      </c>
+      <c r="V99">
+        <v>2</v>
+      </c>
       <c r="Y99">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="Z99">
         <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="25" t="s">
+      <c r="A100" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="B100" s="26"/>
-      <c r="C100" s="27" t="s">
+      <c r="B100" s="20"/>
+      <c r="C100" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="D100" s="28"/>
-      <c r="E100" s="27" t="s">
+      <c r="D100" s="22"/>
+      <c r="E100" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="F100" s="29"/>
-      <c r="G100" s="28"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="15"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="22"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="17"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
-      <c r="L100" s="14">
+      <c r="L100" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M100" s="19"/>
-      <c r="N100" s="15"/>
+      <c r="M100" s="18"/>
+      <c r="N100" s="17"/>
       <c r="O100" s="2"/>
+      <c r="P100">
+        <v>13</v>
+      </c>
+      <c r="R100">
+        <v>2</v>
+      </c>
+      <c r="V100">
+        <v>1</v>
+      </c>
       <c r="Y100">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Z100">
         <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="25" t="s">
+      <c r="A101" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="B101" s="26"/>
-      <c r="C101" s="27" t="s">
+      <c r="B101" s="20"/>
+      <c r="C101" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="D101" s="28"/>
-      <c r="E101" s="27" t="s">
+      <c r="D101" s="22"/>
+      <c r="E101" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="F101" s="29"/>
-      <c r="G101" s="28"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="15"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="22"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="17"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
-      <c r="L101" s="14">
+      <c r="L101" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M101" s="19"/>
-      <c r="N101" s="15"/>
+      <c r="M101" s="18"/>
+      <c r="N101" s="17"/>
       <c r="O101" s="2"/>
+      <c r="R101">
+        <v>5</v>
+      </c>
+      <c r="V101">
+        <v>1</v>
+      </c>
       <c r="Y101">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z101">
         <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="25" t="s">
+      <c r="A102" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="B102" s="26"/>
-      <c r="C102" s="27" t="s">
+      <c r="B102" s="20"/>
+      <c r="C102" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="D102" s="28"/>
-      <c r="E102" s="27" t="s">
+      <c r="D102" s="22"/>
+      <c r="E102" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="F102" s="29"/>
-      <c r="G102" s="28"/>
-      <c r="H102" s="14"/>
-      <c r="I102" s="15"/>
+      <c r="F102" s="23"/>
+      <c r="G102" s="22"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="17"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
-      <c r="L102" s="14">
+      <c r="L102" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M102" s="19"/>
-      <c r="N102" s="15"/>
+      <c r="M102" s="18"/>
+      <c r="N102" s="17"/>
       <c r="O102" s="2"/>
+      <c r="P102">
+        <v>16</v>
+      </c>
+      <c r="R102">
+        <v>2</v>
+      </c>
+      <c r="V102">
+        <v>1</v>
+      </c>
       <c r="Y102">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="Z102">
         <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="25" t="s">
+      <c r="A103" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="B103" s="26"/>
-      <c r="C103" s="27" t="s">
+      <c r="B103" s="20"/>
+      <c r="C103" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="D103" s="28"/>
-      <c r="E103" s="27" t="s">
+      <c r="D103" s="22"/>
+      <c r="E103" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="F103" s="29"/>
-      <c r="G103" s="28"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="15"/>
+      <c r="F103" s="23"/>
+      <c r="G103" s="22"/>
+      <c r="H103" s="16"/>
+      <c r="I103" s="17"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
-      <c r="L103" s="14">
+      <c r="L103" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M103" s="19"/>
-      <c r="N103" s="15"/>
+      <c r="M103" s="18"/>
+      <c r="N103" s="17"/>
       <c r="O103" s="2"/>
+      <c r="P103">
+        <v>18</v>
+      </c>
+      <c r="V103">
+        <v>2</v>
+      </c>
       <c r="Y103">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="Z103">
         <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="25" t="s">
+      <c r="A104" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="B104" s="26"/>
-      <c r="C104" s="27" t="s">
+      <c r="B104" s="20"/>
+      <c r="C104" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="D104" s="28"/>
-      <c r="E104" s="27" t="s">
+      <c r="D104" s="22"/>
+      <c r="E104" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="F104" s="29"/>
-      <c r="G104" s="28"/>
-      <c r="H104" s="14"/>
-      <c r="I104" s="15"/>
+      <c r="F104" s="23"/>
+      <c r="G104" s="22"/>
+      <c r="H104" s="16"/>
+      <c r="I104" s="17"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
-      <c r="L104" s="14">
+      <c r="L104" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M104" s="19"/>
-      <c r="N104" s="15"/>
+      <c r="M104" s="18"/>
+      <c r="N104" s="17"/>
       <c r="O104" s="2"/>
+      <c r="P104">
+        <v>11</v>
+      </c>
+      <c r="R104">
+        <v>2</v>
+      </c>
+      <c r="V104">
+        <v>1</v>
+      </c>
       <c r="Y104">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="Z104">
         <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="25" t="s">
+      <c r="A105" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="B105" s="26"/>
-      <c r="C105" s="27" t="s">
+      <c r="B105" s="20"/>
+      <c r="C105" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="D105" s="28"/>
-      <c r="E105" s="27" t="s">
+      <c r="D105" s="22"/>
+      <c r="E105" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="F105" s="29"/>
-      <c r="G105" s="28"/>
-      <c r="H105" s="14"/>
-      <c r="I105" s="15"/>
+      <c r="F105" s="23"/>
+      <c r="G105" s="22"/>
+      <c r="H105" s="16"/>
+      <c r="I105" s="17"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
-      <c r="L105" s="14">
+      <c r="L105" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M105" s="19"/>
-      <c r="N105" s="15"/>
+      <c r="M105" s="18"/>
+      <c r="N105" s="17"/>
       <c r="O105" s="2"/>
+      <c r="R105">
+        <v>2</v>
+      </c>
+      <c r="V105">
+        <v>1</v>
+      </c>
       <c r="Y105">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z105">
         <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="25" t="s">
+      <c r="A106" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="B106" s="26"/>
-      <c r="C106" s="27" t="s">
+      <c r="B106" s="20"/>
+      <c r="C106" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="D106" s="28"/>
-      <c r="E106" s="27" t="s">
+      <c r="D106" s="22"/>
+      <c r="E106" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="F106" s="29"/>
-      <c r="G106" s="28"/>
-      <c r="H106" s="14"/>
-      <c r="I106" s="15"/>
+      <c r="F106" s="23"/>
+      <c r="G106" s="22"/>
+      <c r="H106" s="16"/>
+      <c r="I106" s="17"/>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
-      <c r="L106" s="14">
+      <c r="L106" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M106" s="19"/>
-      <c r="N106" s="15"/>
+      <c r="M106" s="18"/>
+      <c r="N106" s="17"/>
       <c r="O106" s="2"/>
+      <c r="P106">
+        <v>16</v>
+      </c>
+      <c r="V106">
+        <v>1</v>
+      </c>
       <c r="Y106">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="Z106">
         <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="25" t="s">
+      <c r="A107" s="19" t="s">
         <v>319</v>
       </c>
-      <c r="B107" s="26"/>
-      <c r="C107" s="27" t="s">
+      <c r="B107" s="20"/>
+      <c r="C107" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="D107" s="28"/>
-      <c r="E107" s="27" t="s">
+      <c r="D107" s="22"/>
+      <c r="E107" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="F107" s="29"/>
-      <c r="G107" s="28"/>
-      <c r="H107" s="14"/>
-      <c r="I107" s="15"/>
+      <c r="F107" s="23"/>
+      <c r="G107" s="22"/>
+      <c r="H107" s="16"/>
+      <c r="I107" s="17"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
-      <c r="L107" s="14">
+      <c r="L107" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M107" s="19"/>
-      <c r="N107" s="15"/>
+      <c r="M107" s="18"/>
+      <c r="N107" s="17"/>
       <c r="O107" s="2"/>
+      <c r="P107">
+        <v>18</v>
+      </c>
+      <c r="R107">
+        <v>2</v>
+      </c>
+      <c r="V107">
+        <v>1</v>
+      </c>
       <c r="Y107">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="Z107">
         <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="25" t="s">
+      <c r="A108" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="B108" s="26"/>
-      <c r="C108" s="27" t="s">
+      <c r="B108" s="20"/>
+      <c r="C108" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="D108" s="28"/>
-      <c r="E108" s="27" t="s">
+      <c r="D108" s="22"/>
+      <c r="E108" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="F108" s="29"/>
-      <c r="G108" s="28"/>
-      <c r="H108" s="14"/>
-      <c r="I108" s="15"/>
+      <c r="F108" s="23"/>
+      <c r="G108" s="22"/>
+      <c r="H108" s="16"/>
+      <c r="I108" s="17"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
-      <c r="L108" s="14">
+      <c r="L108" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M108" s="19"/>
-      <c r="N108" s="15"/>
+      <c r="M108" s="18"/>
+      <c r="N108" s="17"/>
       <c r="O108" s="2"/>
+      <c r="P108">
+        <v>13</v>
+      </c>
+      <c r="V108">
+        <v>1</v>
+      </c>
       <c r="Y108">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="Z108">
         <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="25" t="s">
+      <c r="A109" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="B109" s="26"/>
-      <c r="C109" s="27" t="s">
+      <c r="B109" s="20"/>
+      <c r="C109" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="D109" s="28"/>
-      <c r="E109" s="27" t="s">
+      <c r="D109" s="22"/>
+      <c r="E109" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="F109" s="29"/>
-      <c r="G109" s="28"/>
-      <c r="H109" s="14"/>
-      <c r="I109" s="15"/>
+      <c r="F109" s="23"/>
+      <c r="G109" s="22"/>
+      <c r="H109" s="16"/>
+      <c r="I109" s="17"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
-      <c r="L109" s="14">
+      <c r="L109" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M109" s="19"/>
-      <c r="N109" s="15"/>
+      <c r="M109" s="18"/>
+      <c r="N109" s="17"/>
       <c r="O109" s="2"/>
+      <c r="R109">
+        <v>2</v>
+      </c>
+      <c r="V109">
+        <v>1</v>
+      </c>
       <c r="Y109">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z109">
         <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="23"/>
-      <c r="B110" s="24"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="12"/>
-      <c r="H110" s="14"/>
-      <c r="I110" s="15"/>
+      <c r="A110" s="11"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="14"/>
+      <c r="H110" s="16"/>
+      <c r="I110" s="17"/>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
-      <c r="L110" s="14">
+      <c r="L110" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M110" s="19"/>
-      <c r="N110" s="15"/>
+      <c r="M110" s="18"/>
+      <c r="N110" s="17"/>
       <c r="O110" s="2"/>
+      <c r="V110">
+        <v>1</v>
+      </c>
       <c r="Y110">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -5283,24 +5927,27 @@
       </c>
     </row>
     <row r="111" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="23"/>
-      <c r="B111" s="24"/>
-      <c r="C111" s="11"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="13"/>
-      <c r="G111" s="12"/>
-      <c r="H111" s="14"/>
-      <c r="I111" s="15"/>
+      <c r="A111" s="11"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="14"/>
+      <c r="H111" s="16"/>
+      <c r="I111" s="17"/>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
-      <c r="L111" s="14">
+      <c r="L111" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M111" s="19"/>
-      <c r="N111" s="15"/>
+      <c r="M111" s="18"/>
+      <c r="N111" s="17"/>
       <c r="O111" s="2"/>
+      <c r="V111">
+        <v>1</v>
+      </c>
       <c r="Y111">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -5310,24 +5957,27 @@
       </c>
     </row>
     <row r="112" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="23"/>
-      <c r="B112" s="24"/>
-      <c r="C112" s="11"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="12"/>
-      <c r="H112" s="14"/>
-      <c r="I112" s="15"/>
+      <c r="A112" s="11"/>
+      <c r="B112" s="12"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="14"/>
+      <c r="H112" s="16"/>
+      <c r="I112" s="17"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
-      <c r="L112" s="14">
+      <c r="L112" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M112" s="19"/>
-      <c r="N112" s="15"/>
+      <c r="M112" s="18"/>
+      <c r="N112" s="17"/>
       <c r="O112" s="2"/>
+      <c r="V112">
+        <v>1</v>
+      </c>
       <c r="Y112">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -5337,24 +5987,27 @@
       </c>
     </row>
     <row r="113" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="23"/>
-      <c r="B113" s="24"/>
-      <c r="C113" s="11"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="11"/>
-      <c r="F113" s="13"/>
-      <c r="G113" s="12"/>
-      <c r="H113" s="14"/>
-      <c r="I113" s="15"/>
+      <c r="A113" s="11"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="13"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="14"/>
+      <c r="H113" s="16"/>
+      <c r="I113" s="17"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
-      <c r="L113" s="14">
+      <c r="L113" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M113" s="19"/>
-      <c r="N113" s="15"/>
+      <c r="M113" s="18"/>
+      <c r="N113" s="17"/>
       <c r="O113" s="2"/>
+      <c r="V113">
+        <v>1</v>
+      </c>
       <c r="Y113">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -5364,357 +6017,179 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A10:Z10">
+    <filterColumn colId="0" showButton="0"/>
+    <filterColumn colId="2" showButton="0"/>
+    <filterColumn colId="4" showButton="0"/>
+    <filterColumn colId="5" showButton="0"/>
+    <filterColumn colId="7" showButton="0"/>
+    <filterColumn colId="11" showButton="0"/>
+    <filterColumn colId="12" showButton="0"/>
+  </autoFilter>
   <mergeCells count="537">
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="E112:G112"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="L112:N112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="E113:G113"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="L113:N113"/>
-    <mergeCell ref="L108:N108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="L109:N109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="E110:G110"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="L110:N110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="E111:G111"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="L111:N111"/>
-    <mergeCell ref="L103:N103"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="L104:N104"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="L105:N105"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="L106:N106"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="L107:N107"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="E105:G105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="E106:G106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="E107:G107"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="E109:G109"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="E104:G104"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="L102:N102"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="L96:N96"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="L100:N100"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="L98:N98"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="L101:N101"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="L94:N94"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="L93:N93"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="L91:N91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="L92:N92"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="L89:N89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="L90:N90"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="L87:N87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="L88:N88"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="L85:N85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="L86:N86"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="L83:N83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="L84:N84"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="L81:N81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="L82:N82"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="L79:N79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="L80:N80"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="L77:N77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="L78:N78"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="L76:N76"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="L75:N75"/>
-    <mergeCell ref="L74:N74"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="L70:N70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="L71:N71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="L72:N72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="L73:N73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="L68:N68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="L69:N69"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="L66:N66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="L67:N67"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="L64:N64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="L65:N65"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="L61:N61"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="L47:N47"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="L37:N37"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="E43:G43"/>
@@ -5739,169 +6214,356 @@
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="E38:G38"/>
     <mergeCell ref="H40:I40"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="L61:N61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="L64:N64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="L65:N65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="L66:N66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="L67:N67"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="L72:N72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="L73:N73"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="L68:N68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="L69:N69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="L71:N71"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="L77:N77"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="L75:N75"/>
+    <mergeCell ref="L74:N74"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="L78:N78"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="L76:N76"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="L79:N79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="L80:N80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="L81:N81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="L83:N83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="L84:N84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="L85:N85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="L86:N86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="L87:N87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="L88:N88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="L89:N89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="L90:N90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="L94:N94"/>
+    <mergeCell ref="L102:N102"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="L96:N96"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="L100:N100"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="L98:N98"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="L101:N101"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="E104:G104"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E105:G105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="E106:G106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="E107:G107"/>
+    <mergeCell ref="L103:N103"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="L104:N104"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="L105:N105"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="L106:N106"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="L107:N107"/>
+    <mergeCell ref="L108:N108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="L109:N109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="E110:G110"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="L110:N110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="E111:G111"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="L111:N111"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="E109:G109"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="L112:N112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="E113:G113"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="L113:N113"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/OYM/_Documentos Comunes/POO_C32017.xlsx
+++ b/OYM/_Documentos Comunes/POO_C32017.xlsx
@@ -112,9 +112,6 @@
     <t>Entregas Finales</t>
   </si>
   <si>
-    <t>Semana 12</t>
-  </si>
-  <si>
     <t>Cacao</t>
   </si>
   <si>
@@ -1007,6 +1004,9 @@
   </si>
   <si>
     <t>DE LA CRUZ CORCINO STARLIN ROBERTO</t>
+  </si>
+  <si>
+    <t>Semana 14</t>
   </si>
 </sst>
 </file>
@@ -1675,8 +1675,8 @@
   <dimension ref="A1:Z113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q39" sqref="Q39"/>
+      <pane ySplit="10" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1736,7 +1736,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="P2" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -1843,10 +1843,10 @@
       <c r="M7" s="26"/>
       <c r="N7" s="2"/>
       <c r="P7" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q7" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="3.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -1887,7 +1887,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="1"/>
       <c r="Q9" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
@@ -1954,7 +1954,7 @@
         <v>19</v>
       </c>
       <c r="Z10" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2001,7 +2001,7 @@
         <v>10</v>
       </c>
       <c r="T11" s="10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U11">
         <v>20</v>
@@ -2016,24 +2016,24 @@
         <v>30</v>
       </c>
       <c r="Y11">
-        <f>P11+(IF((Q11+R11+S11+T11)&gt;30,(Q11+R11+S11+T11)/4,IF((Q11+R11+S11+T11)&gt;20,(Q11+R11+S11+T11)/3,IF((Q11+R11+S11+T11)&gt;10,(Q11+R11+S11+T11)/2,(Q11+R11+S11+T11)))))+(U11*V11)+W11+X11+Z11</f>
-        <v>125</v>
+        <f>P11+(IF((T11)&gt;30,(T11)/4,IF((T11)&gt;20,(T11)/3,IF((T11)&gt;10,(T11)/2,(T11)))))+(U11*V11)+W11+X11+Z11</f>
+        <v>110</v>
       </c>
       <c r="Z11">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="22"/>
@@ -2048,28 +2048,34 @@
       <c r="M12" s="18"/>
       <c r="N12" s="17"/>
       <c r="O12" s="2"/>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="T12" s="10">
+        <v>0</v>
+      </c>
       <c r="V12">
         <v>1</v>
       </c>
       <c r="Y12">
         <f t="shared" ref="Y12:Y75" si="1">P12+(IF((Q12+R12+S12+T12)&gt;30,(Q12+R12+S12+T12)/4,IF((Q12+R12+S12+T12)&gt;20,(Q12+R12+S12+T12)/3,IF((Q12+R12+S12+T12)&gt;10,(Q12+R12+S12+T12)/2,(Q12+R12+S12+T12)))))+(U12*V12)+W12+X12+Z12</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="22"/>
@@ -2087,31 +2093,37 @@
       <c r="P13">
         <v>16</v>
       </c>
+      <c r="Q13">
+        <v>9</v>
+      </c>
       <c r="R13">
         <v>2</v>
+      </c>
+      <c r="T13" s="10">
+        <v>6</v>
       </c>
       <c r="V13">
         <v>1</v>
       </c>
       <c r="Y13">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>24.5</v>
       </c>
       <c r="Z13">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="22"/>
@@ -2129,28 +2141,34 @@
       <c r="P14">
         <v>15</v>
       </c>
+      <c r="Q14">
+        <v>10</v>
+      </c>
+      <c r="T14" s="10">
+        <v>10</v>
+      </c>
       <c r="V14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y14">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Z14">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="22"/>
@@ -2168,31 +2186,37 @@
       <c r="P15">
         <v>15</v>
       </c>
+      <c r="Q15">
+        <v>9</v>
+      </c>
       <c r="R15">
         <v>5</v>
       </c>
+      <c r="T15" s="10">
+        <v>7</v>
+      </c>
       <c r="V15">
         <v>2</v>
       </c>
       <c r="Y15">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Z15">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="22"/>
@@ -2207,31 +2231,37 @@
       <c r="M16" s="18"/>
       <c r="N16" s="17"/>
       <c r="O16" s="2"/>
+      <c r="Q16">
+        <v>0</v>
+      </c>
       <c r="R16">
         <v>2</v>
       </c>
+      <c r="T16" s="10">
+        <v>2</v>
+      </c>
       <c r="V16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y16">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Z16">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="22"/>
@@ -2249,31 +2279,37 @@
       <c r="P17">
         <v>13</v>
       </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
       <c r="R17">
         <v>2</v>
       </c>
+      <c r="T17" s="10">
+        <v>2</v>
+      </c>
       <c r="V17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y17">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Z17">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="22"/>
@@ -2291,31 +2327,37 @@
       <c r="P18">
         <v>14</v>
       </c>
+      <c r="Q18">
+        <v>6</v>
+      </c>
       <c r="R18">
         <v>2</v>
       </c>
+      <c r="T18" s="10">
+        <v>4</v>
+      </c>
       <c r="V18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y18">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z18">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F19" s="23"/>
       <c r="G19" s="22"/>
@@ -2333,28 +2375,34 @@
       <c r="P19">
         <v>14</v>
       </c>
+      <c r="Q19">
+        <v>8</v>
+      </c>
+      <c r="T19" s="10">
+        <v>8</v>
+      </c>
       <c r="V19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y19">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Z19">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F20" s="23"/>
       <c r="G20" s="22"/>
@@ -2372,31 +2420,37 @@
       <c r="P20">
         <v>16</v>
       </c>
+      <c r="Q20">
+        <v>10</v>
+      </c>
       <c r="R20">
         <v>2</v>
+      </c>
+      <c r="T20" s="10">
+        <v>6</v>
       </c>
       <c r="V20">
         <v>2</v>
       </c>
       <c r="Y20">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Z20">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="22"/>
@@ -2414,28 +2468,37 @@
       <c r="P21">
         <v>14</v>
       </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>10</v>
+      </c>
+      <c r="T21" s="10">
+        <v>10</v>
+      </c>
       <c r="V21">
         <v>1</v>
       </c>
       <c r="Y21">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Z21">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F22" s="23"/>
       <c r="G22" s="22"/>
@@ -2453,28 +2516,34 @@
       <c r="P22">
         <v>18</v>
       </c>
+      <c r="Q22">
+        <v>10</v>
+      </c>
+      <c r="T22" s="10">
+        <v>10</v>
+      </c>
       <c r="V22">
         <v>2</v>
       </c>
       <c r="Y22">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Z22">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F23" s="23"/>
       <c r="G23" s="22"/>
@@ -2489,28 +2558,34 @@
       <c r="M23" s="18"/>
       <c r="N23" s="17"/>
       <c r="O23" s="2"/>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="T23" s="10">
+        <v>0</v>
+      </c>
       <c r="V23">
         <v>1</v>
       </c>
       <c r="Y23">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F24" s="23"/>
       <c r="G24" s="22"/>
@@ -2525,28 +2600,34 @@
       <c r="M24" s="18"/>
       <c r="N24" s="17"/>
       <c r="O24" s="2"/>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="T24" s="10">
+        <v>0</v>
+      </c>
       <c r="V24">
         <v>2</v>
       </c>
       <c r="Y24">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F25" s="23"/>
       <c r="G25" s="22"/>
@@ -2561,28 +2642,37 @@
       <c r="M25" s="18"/>
       <c r="N25" s="17"/>
       <c r="O25" s="2"/>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>7</v>
+      </c>
+      <c r="T25" s="10">
+        <v>7</v>
+      </c>
       <c r="V25">
         <v>1</v>
       </c>
       <c r="Y25">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z25">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F26" s="23"/>
       <c r="G26" s="22"/>
@@ -2600,28 +2690,34 @@
       <c r="P26">
         <v>15</v>
       </c>
+      <c r="Q26">
+        <v>10</v>
+      </c>
+      <c r="T26" s="10">
+        <v>0</v>
+      </c>
       <c r="V26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y26">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Z26">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="22"/>
@@ -2639,31 +2735,37 @@
       <c r="P27">
         <v>14</v>
       </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
       <c r="R27">
         <v>5</v>
       </c>
+      <c r="T27" s="10">
+        <v>5</v>
+      </c>
       <c r="V27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y27">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="Z27">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F28" s="23"/>
       <c r="G28" s="22"/>
@@ -2681,7 +2783,13 @@
       <c r="P28">
         <v>18</v>
       </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
       <c r="R28">
+        <v>2</v>
+      </c>
+      <c r="T28" s="10">
         <v>2</v>
       </c>
       <c r="V28">
@@ -2689,23 +2797,23 @@
       </c>
       <c r="Y28">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Z28">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F29" s="23"/>
       <c r="G29" s="22"/>
@@ -2723,31 +2831,37 @@
       <c r="P29">
         <v>16</v>
       </c>
+      <c r="Q29">
+        <v>9</v>
+      </c>
       <c r="R29">
         <v>5</v>
       </c>
+      <c r="T29" s="10">
+        <v>7</v>
+      </c>
       <c r="V29">
         <v>2</v>
       </c>
       <c r="Y29">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z29">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F30" s="23"/>
       <c r="G30" s="22"/>
@@ -2762,28 +2876,34 @@
       <c r="M30" s="18"/>
       <c r="N30" s="17"/>
       <c r="O30" s="2"/>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="T30" s="10">
+        <v>0</v>
+      </c>
       <c r="V30">
         <v>1</v>
       </c>
       <c r="Y30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F31" s="23"/>
       <c r="G31" s="22"/>
@@ -2801,31 +2921,37 @@
       <c r="P31">
         <v>14</v>
       </c>
+      <c r="Q31">
+        <v>10</v>
+      </c>
       <c r="R31">
         <v>2</v>
+      </c>
+      <c r="T31" s="10">
+        <v>6</v>
       </c>
       <c r="V31">
         <v>2</v>
       </c>
       <c r="Y31">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z31">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F32" s="23"/>
       <c r="G32" s="22"/>
@@ -2840,28 +2966,34 @@
       <c r="M32" s="18"/>
       <c r="N32" s="17"/>
       <c r="O32" s="2"/>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="T32" s="10">
+        <v>0</v>
+      </c>
       <c r="V32">
         <v>1</v>
       </c>
       <c r="Y32">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z32">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F33" s="23"/>
       <c r="G33" s="22"/>
@@ -2879,28 +3011,34 @@
       <c r="P33">
         <v>18</v>
       </c>
+      <c r="Q33">
+        <v>9</v>
+      </c>
+      <c r="T33" s="10">
+        <v>9</v>
+      </c>
       <c r="V33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y33">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Z33">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F34" s="23"/>
       <c r="G34" s="22"/>
@@ -2918,31 +3056,40 @@
       <c r="P34">
         <v>15</v>
       </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
       <c r="R34">
         <v>5</v>
       </c>
+      <c r="S34">
+        <v>10</v>
+      </c>
+      <c r="T34" s="10">
+        <v>7</v>
+      </c>
       <c r="V34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y34">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>22.333333333333332</v>
       </c>
       <c r="Z34">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F35" s="23"/>
       <c r="G35" s="22"/>
@@ -2960,28 +3107,37 @@
       <c r="P35">
         <v>17</v>
       </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>10</v>
+      </c>
+      <c r="T35" s="10">
+        <v>10</v>
+      </c>
       <c r="V35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y35">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="Z35">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F36" s="23"/>
       <c r="G36" s="22"/>
@@ -2999,28 +3155,37 @@
       <c r="P36">
         <v>19</v>
       </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>7</v>
+      </c>
+      <c r="T36" s="10">
+        <v>7</v>
+      </c>
       <c r="V36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y36">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Z36">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F37" s="23"/>
       <c r="G37" s="22"/>
@@ -3038,31 +3203,37 @@
       <c r="P37">
         <v>15</v>
       </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
       <c r="R37">
         <v>2</v>
       </c>
+      <c r="T37" s="10">
+        <v>2</v>
+      </c>
       <c r="V37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y37">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Z37">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F38" s="23"/>
       <c r="G38" s="22"/>
@@ -3080,28 +3251,37 @@
       <c r="P38">
         <v>16</v>
       </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>7</v>
+      </c>
+      <c r="T38" s="10">
+        <v>7</v>
+      </c>
       <c r="V38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y38">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z38">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F39" s="23"/>
       <c r="G39" s="22"/>
@@ -3116,28 +3296,34 @@
       <c r="M39" s="18"/>
       <c r="N39" s="17"/>
       <c r="O39" s="2"/>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="T39" s="10">
+        <v>0</v>
+      </c>
       <c r="V39">
         <v>1</v>
       </c>
       <c r="Y39">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F40" s="23"/>
       <c r="G40" s="22"/>
@@ -3155,31 +3341,37 @@
       <c r="P40">
         <v>13</v>
       </c>
+      <c r="Q40">
+        <v>9</v>
+      </c>
       <c r="R40">
         <v>5</v>
       </c>
+      <c r="T40" s="10">
+        <v>7</v>
+      </c>
       <c r="V40">
         <v>2</v>
       </c>
       <c r="Y40">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Z40">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D41" s="22"/>
       <c r="E41" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F41" s="23"/>
       <c r="G41" s="22"/>
@@ -3194,28 +3386,34 @@
       <c r="M41" s="18"/>
       <c r="N41" s="17"/>
       <c r="O41" s="2"/>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="T41" s="10">
+        <v>0</v>
+      </c>
       <c r="V41">
         <v>1</v>
       </c>
       <c r="Y41">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D42" s="22"/>
       <c r="E42" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F42" s="23"/>
       <c r="G42" s="22"/>
@@ -3230,28 +3428,34 @@
       <c r="M42" s="18"/>
       <c r="N42" s="17"/>
       <c r="O42" s="2"/>
+      <c r="Q42">
+        <v>9</v>
+      </c>
+      <c r="T42" s="10">
+        <v>0</v>
+      </c>
       <c r="V42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y42">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Z42">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F43" s="23"/>
       <c r="G43" s="22"/>
@@ -3269,8 +3473,17 @@
       <c r="P43">
         <v>11</v>
       </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
       <c r="R43">
         <v>2</v>
+      </c>
+      <c r="S43">
+        <v>7</v>
+      </c>
+      <c r="T43" s="10">
+        <v>5</v>
       </c>
       <c r="V43">
         <v>1</v>
@@ -3280,20 +3493,20 @@
         <v>18</v>
       </c>
       <c r="Z43">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D44" s="22"/>
       <c r="E44" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F44" s="23"/>
       <c r="G44" s="22"/>
@@ -3308,28 +3521,37 @@
       <c r="M44" s="18"/>
       <c r="N44" s="17"/>
       <c r="O44" s="2"/>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>7</v>
+      </c>
+      <c r="T44" s="10">
+        <v>7</v>
+      </c>
       <c r="V44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y44">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z44">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D45" s="22"/>
       <c r="E45" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F45" s="23"/>
       <c r="G45" s="22"/>
@@ -3347,28 +3569,34 @@
       <c r="P45">
         <v>14</v>
       </c>
+      <c r="Q45">
+        <v>9</v>
+      </c>
+      <c r="T45" s="10">
+        <v>9</v>
+      </c>
       <c r="V45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y45">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Z45">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D46" s="22"/>
       <c r="E46" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F46" s="23"/>
       <c r="G46" s="22"/>
@@ -3386,28 +3614,37 @@
       <c r="P46">
         <v>13</v>
       </c>
+      <c r="Q46">
+        <v>9</v>
+      </c>
+      <c r="S46">
+        <v>10</v>
+      </c>
+      <c r="T46" s="10">
+        <v>10</v>
+      </c>
       <c r="V46">
         <v>1</v>
       </c>
       <c r="Y46">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>22.666666666666664</v>
       </c>
       <c r="Z46">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D47" s="22"/>
       <c r="E47" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F47" s="23"/>
       <c r="G47" s="22"/>
@@ -3425,28 +3662,37 @@
       <c r="P47">
         <v>20</v>
       </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>10</v>
+      </c>
+      <c r="T47" s="10">
+        <v>0</v>
+      </c>
       <c r="V47">
         <v>1</v>
       </c>
       <c r="Y47">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Z47">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D48" s="22"/>
       <c r="E48" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F48" s="23"/>
       <c r="G48" s="22"/>
@@ -3464,7 +3710,13 @@
       <c r="P48">
         <v>14</v>
       </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
       <c r="R48">
+        <v>2</v>
+      </c>
+      <c r="T48" s="10">
         <v>2</v>
       </c>
       <c r="V48">
@@ -3472,23 +3724,23 @@
       </c>
       <c r="Y48">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Z48">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D49" s="22"/>
       <c r="E49" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F49" s="23"/>
       <c r="G49" s="22"/>
@@ -3506,28 +3758,34 @@
       <c r="P49">
         <v>16</v>
       </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="T49" s="10">
+        <v>0</v>
+      </c>
       <c r="V49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y49">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="Z49">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D50" s="22"/>
       <c r="E50" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F50" s="23"/>
       <c r="G50" s="22"/>
@@ -3545,31 +3803,40 @@
       <c r="P50">
         <v>13</v>
       </c>
+      <c r="Q50">
+        <v>6</v>
+      </c>
       <c r="R50">
         <v>2</v>
       </c>
+      <c r="S50">
+        <v>7</v>
+      </c>
+      <c r="T50" s="10">
+        <v>5</v>
+      </c>
       <c r="V50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y50">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Z50">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D51" s="22"/>
       <c r="E51" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F51" s="23"/>
       <c r="G51" s="22"/>
@@ -3584,28 +3851,37 @@
       <c r="M51" s="18"/>
       <c r="N51" s="17"/>
       <c r="O51" s="2"/>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>10</v>
+      </c>
+      <c r="T51" s="10">
+        <v>10</v>
+      </c>
       <c r="V51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y51">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z51">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D52" s="22"/>
       <c r="E52" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F52" s="23"/>
       <c r="G52" s="22"/>
@@ -3623,31 +3899,37 @@
       <c r="P52">
         <v>13</v>
       </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
       <c r="R52">
         <v>5</v>
       </c>
+      <c r="T52" s="10">
+        <v>5</v>
+      </c>
       <c r="V52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y52">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="Z52">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D53" s="22"/>
       <c r="E53" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F53" s="23"/>
       <c r="G53" s="22"/>
@@ -3665,31 +3947,40 @@
       <c r="P53">
         <v>17</v>
       </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
       <c r="R53">
         <v>2</v>
       </c>
+      <c r="S53">
+        <v>10</v>
+      </c>
+      <c r="T53" s="10">
+        <v>6</v>
+      </c>
       <c r="V53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y53">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Z53">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D54" s="22"/>
       <c r="E54" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F54" s="23"/>
       <c r="G54" s="22"/>
@@ -3704,28 +3995,34 @@
       <c r="M54" s="18"/>
       <c r="N54" s="17"/>
       <c r="O54" s="2"/>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="T54" s="10">
+        <v>0</v>
+      </c>
       <c r="V54">
         <v>1</v>
       </c>
       <c r="Y54">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z54">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D55" s="22"/>
       <c r="E55" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F55" s="23"/>
       <c r="G55" s="22"/>
@@ -3740,31 +4037,37 @@
       <c r="M55" s="18"/>
       <c r="N55" s="17"/>
       <c r="O55" s="2"/>
+      <c r="Q55">
+        <v>0</v>
+      </c>
       <c r="R55">
         <v>2</v>
       </c>
+      <c r="T55" s="10">
+        <v>2</v>
+      </c>
       <c r="V55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y55">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Z55">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D56" s="22"/>
       <c r="E56" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F56" s="23"/>
       <c r="G56" s="22"/>
@@ -3779,7 +4082,13 @@
       <c r="M56" s="18"/>
       <c r="N56" s="17"/>
       <c r="O56" s="2"/>
+      <c r="Q56">
+        <v>0</v>
+      </c>
       <c r="R56">
+        <v>5</v>
+      </c>
+      <c r="T56" s="10">
         <v>5</v>
       </c>
       <c r="V56">
@@ -3790,20 +4099,20 @@
         <v>10</v>
       </c>
       <c r="Z56">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D57" s="22"/>
       <c r="E57" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F57" s="23"/>
       <c r="G57" s="22"/>
@@ -3818,31 +4127,37 @@
       <c r="M57" s="18"/>
       <c r="N57" s="17"/>
       <c r="O57" s="2"/>
+      <c r="Q57">
+        <v>8</v>
+      </c>
       <c r="R57">
         <v>2</v>
+      </c>
+      <c r="T57" s="10">
+        <v>5</v>
       </c>
       <c r="V57">
         <v>1</v>
       </c>
       <c r="Y57">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z57">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D58" s="22"/>
       <c r="E58" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F58" s="23"/>
       <c r="G58" s="22"/>
@@ -3860,28 +4175,37 @@
       <c r="P58">
         <v>14</v>
       </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>8</v>
+      </c>
+      <c r="T58" s="10">
+        <v>8</v>
+      </c>
       <c r="V58">
         <v>1</v>
       </c>
       <c r="Y58">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Z58">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D59" s="22"/>
       <c r="E59" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F59" s="23"/>
       <c r="G59" s="22"/>
@@ -3899,28 +4223,34 @@
       <c r="P59">
         <v>13</v>
       </c>
+      <c r="Q59">
+        <v>8</v>
+      </c>
+      <c r="T59" s="10">
+        <v>8</v>
+      </c>
       <c r="V59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y59">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Z59">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D60" s="22"/>
       <c r="E60" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F60" s="23"/>
       <c r="G60" s="22"/>
@@ -3938,31 +4268,40 @@
       <c r="P60">
         <v>13</v>
       </c>
+      <c r="Q60">
+        <v>8</v>
+      </c>
       <c r="R60">
         <v>2</v>
+      </c>
+      <c r="S60">
+        <v>10</v>
+      </c>
+      <c r="T60" s="10">
+        <v>7</v>
       </c>
       <c r="V60">
         <v>2</v>
       </c>
       <c r="Y60">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Z60">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D61" s="22"/>
       <c r="E61" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F61" s="23"/>
       <c r="G61" s="22"/>
@@ -3980,28 +4319,34 @@
       <c r="P61">
         <v>14</v>
       </c>
+      <c r="Q61">
+        <v>10</v>
+      </c>
+      <c r="T61" s="10">
+        <v>10</v>
+      </c>
       <c r="V61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y61">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Z61">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D62" s="22"/>
       <c r="E62" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F62" s="23"/>
       <c r="G62" s="22"/>
@@ -4019,28 +4364,34 @@
       <c r="P62">
         <v>13</v>
       </c>
+      <c r="Q62">
+        <v>10</v>
+      </c>
+      <c r="T62" s="10">
+        <v>10</v>
+      </c>
       <c r="V62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y62">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Z62">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D63" s="22"/>
       <c r="E63" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F63" s="23"/>
       <c r="G63" s="22"/>
@@ -4055,28 +4406,34 @@
       <c r="M63" s="18"/>
       <c r="N63" s="17"/>
       <c r="O63" s="2"/>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="T63" s="10">
+        <v>0</v>
+      </c>
       <c r="V63">
         <v>1</v>
       </c>
       <c r="Y63">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z63">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D64" s="22"/>
       <c r="E64" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F64" s="23"/>
       <c r="G64" s="22"/>
@@ -4094,31 +4451,40 @@
       <c r="P64">
         <v>18</v>
       </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
       <c r="R64">
         <v>2</v>
       </c>
+      <c r="S64">
+        <v>10</v>
+      </c>
+      <c r="T64" s="10">
+        <v>6</v>
+      </c>
       <c r="V64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y64">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Z64">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D65" s="22"/>
       <c r="E65" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F65" s="23"/>
       <c r="G65" s="22"/>
@@ -4133,28 +4499,34 @@
       <c r="M65" s="18"/>
       <c r="N65" s="17"/>
       <c r="O65" s="2"/>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="T65" s="10">
+        <v>0</v>
+      </c>
       <c r="V65">
         <v>1</v>
       </c>
       <c r="Y65">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z65">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D66" s="22"/>
       <c r="E66" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F66" s="23"/>
       <c r="G66" s="22"/>
@@ -4172,28 +4544,34 @@
       <c r="P66">
         <v>13</v>
       </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="T66" s="10">
+        <v>0</v>
+      </c>
       <c r="V66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y66">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Z66">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D67" s="22"/>
       <c r="E67" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F67" s="23"/>
       <c r="G67" s="22"/>
@@ -4211,31 +4589,40 @@
       <c r="P67">
         <v>15</v>
       </c>
+      <c r="Q67">
+        <v>9</v>
+      </c>
       <c r="R67">
         <v>5</v>
       </c>
+      <c r="S67">
+        <v>10</v>
+      </c>
+      <c r="T67" s="10">
+        <v>8</v>
+      </c>
       <c r="V67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y67">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Z67">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D68" s="22"/>
       <c r="E68" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F68" s="23"/>
       <c r="G68" s="22"/>
@@ -4253,7 +4640,13 @@
       <c r="P68">
         <v>15</v>
       </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
       <c r="R68">
+        <v>2</v>
+      </c>
+      <c r="T68" s="10">
         <v>2</v>
       </c>
       <c r="V68">
@@ -4261,23 +4654,23 @@
       </c>
       <c r="Y68">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Z68">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D69" s="22"/>
       <c r="E69" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F69" s="23"/>
       <c r="G69" s="22"/>
@@ -4292,28 +4685,34 @@
       <c r="M69" s="18"/>
       <c r="N69" s="17"/>
       <c r="O69" s="2"/>
+      <c r="Q69">
+        <v>10</v>
+      </c>
+      <c r="T69" s="10">
+        <v>10</v>
+      </c>
       <c r="V69">
         <v>1</v>
       </c>
       <c r="Y69">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z69">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D70" s="22"/>
       <c r="E70" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F70" s="23"/>
       <c r="G70" s="22"/>
@@ -4331,31 +4730,40 @@
       <c r="P70">
         <v>18</v>
       </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
       <c r="R70">
         <v>5</v>
       </c>
+      <c r="S70">
+        <v>10</v>
+      </c>
+      <c r="T70" s="10">
+        <v>7</v>
+      </c>
       <c r="V70">
         <v>2</v>
       </c>
       <c r="Y70">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>25.333333333333332</v>
       </c>
       <c r="Z70">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D71" s="22"/>
       <c r="E71" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F71" s="23"/>
       <c r="G71" s="22"/>
@@ -4370,31 +4778,37 @@
       <c r="M71" s="18"/>
       <c r="N71" s="17"/>
       <c r="O71" s="2"/>
+      <c r="Q71">
+        <v>0</v>
+      </c>
       <c r="R71">
         <v>2</v>
       </c>
+      <c r="T71" s="10">
+        <v>2</v>
+      </c>
       <c r="V71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y71">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Z71">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D72" s="22"/>
       <c r="E72" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F72" s="23"/>
       <c r="G72" s="22"/>
@@ -4412,7 +4826,13 @@
       <c r="P72">
         <v>15</v>
       </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
       <c r="R72">
+        <v>2</v>
+      </c>
+      <c r="T72" s="10">
         <v>2</v>
       </c>
       <c r="V72">
@@ -4420,23 +4840,23 @@
       </c>
       <c r="Y72">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Z72">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D73" s="22"/>
       <c r="E73" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F73" s="23"/>
       <c r="G73" s="22"/>
@@ -4454,31 +4874,40 @@
       <c r="P73">
         <v>13</v>
       </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
       <c r="R73">
         <v>2</v>
       </c>
+      <c r="S73">
+        <v>10</v>
+      </c>
+      <c r="T73" s="10">
+        <v>6</v>
+      </c>
       <c r="V73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y73">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Z73">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D74" s="22"/>
       <c r="E74" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F74" s="23"/>
       <c r="G74" s="22"/>
@@ -4493,31 +4922,40 @@
       <c r="M74" s="18"/>
       <c r="N74" s="17"/>
       <c r="O74" s="2"/>
+      <c r="Q74">
+        <v>0</v>
+      </c>
       <c r="R74">
         <v>5</v>
       </c>
+      <c r="S74">
+        <v>10</v>
+      </c>
+      <c r="T74" s="10">
+        <v>7</v>
+      </c>
       <c r="V74">
         <v>1</v>
       </c>
       <c r="Y74">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="Z74">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D75" s="22"/>
       <c r="E75" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F75" s="23"/>
       <c r="G75" s="22"/>
@@ -4535,7 +4973,13 @@
       <c r="P75">
         <v>14</v>
       </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
       <c r="R75">
+        <v>2</v>
+      </c>
+      <c r="T75" s="10">
         <v>2</v>
       </c>
       <c r="V75">
@@ -4543,23 +4987,23 @@
       </c>
       <c r="Y75">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Z75">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D76" s="22"/>
       <c r="E76" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F76" s="23"/>
       <c r="G76" s="22"/>
@@ -4574,28 +5018,34 @@
       <c r="M76" s="18"/>
       <c r="N76" s="17"/>
       <c r="O76" s="2"/>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="T76" s="10">
+        <v>0</v>
+      </c>
       <c r="V76">
         <v>1</v>
       </c>
       <c r="Y76">
         <f t="shared" ref="Y76:Y113" si="3">P76+(IF((Q76+R76+S76+T76)&gt;30,(Q76+R76+S76+T76)/4,IF((Q76+R76+S76+T76)&gt;20,(Q76+R76+S76+T76)/3,IF((Q76+R76+S76+T76)&gt;10,(Q76+R76+S76+T76)/2,(Q76+R76+S76+T76)))))+(U76*V76)+W76+X76+Z76</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z76">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D77" s="22"/>
       <c r="E77" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F77" s="23"/>
       <c r="G77" s="22"/>
@@ -4613,28 +5063,37 @@
       <c r="P77">
         <v>19</v>
       </c>
+      <c r="Q77">
+        <v>10</v>
+      </c>
+      <c r="S77">
+        <v>10</v>
+      </c>
+      <c r="T77" s="10">
+        <v>10</v>
+      </c>
       <c r="V77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y77">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Z77">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D78" s="22"/>
       <c r="E78" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F78" s="23"/>
       <c r="G78" s="22"/>
@@ -4652,28 +5111,37 @@
       <c r="P78">
         <v>16</v>
       </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>10</v>
+      </c>
+      <c r="T78" s="10">
+        <v>10</v>
+      </c>
       <c r="V78">
         <v>1</v>
       </c>
       <c r="Y78">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Z78">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D79" s="22"/>
       <c r="E79" s="21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F79" s="23"/>
       <c r="G79" s="22"/>
@@ -4688,28 +5156,37 @@
       <c r="M79" s="18"/>
       <c r="N79" s="17"/>
       <c r="O79" s="2"/>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>7</v>
+      </c>
+      <c r="T79" s="10">
+        <v>0</v>
+      </c>
       <c r="V79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y79">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z79">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D80" s="22"/>
       <c r="E80" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F80" s="23"/>
       <c r="G80" s="22"/>
@@ -4727,7 +5204,13 @@
       <c r="P80">
         <v>16</v>
       </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
       <c r="R80">
+        <v>2</v>
+      </c>
+      <c r="T80" s="10">
         <v>2</v>
       </c>
       <c r="V80">
@@ -4735,23 +5218,23 @@
       </c>
       <c r="Y80">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Z80">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D81" s="22"/>
       <c r="E81" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F81" s="23"/>
       <c r="G81" s="22"/>
@@ -4769,31 +5252,40 @@
       <c r="P81">
         <v>16</v>
       </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
       <c r="R81">
         <v>2</v>
+      </c>
+      <c r="S81">
+        <v>10</v>
+      </c>
+      <c r="T81" s="10">
+        <v>6</v>
       </c>
       <c r="V81">
         <v>1</v>
       </c>
       <c r="Y81">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Z81">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D82" s="22"/>
       <c r="E82" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F82" s="23"/>
       <c r="G82" s="22"/>
@@ -4808,28 +5300,34 @@
       <c r="M82" s="18"/>
       <c r="N82" s="17"/>
       <c r="O82" s="2"/>
+      <c r="Q82">
+        <v>10</v>
+      </c>
+      <c r="T82" s="10">
+        <v>10</v>
+      </c>
       <c r="V82">
         <v>1</v>
       </c>
       <c r="Y82">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z82">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D83" s="22"/>
       <c r="E83" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F83" s="23"/>
       <c r="G83" s="22"/>
@@ -4847,31 +5345,40 @@
       <c r="P83">
         <v>11</v>
       </c>
+      <c r="Q83">
+        <v>8</v>
+      </c>
       <c r="R83">
         <v>5</v>
       </c>
+      <c r="S83">
+        <v>10</v>
+      </c>
+      <c r="T83" s="10">
+        <v>8</v>
+      </c>
       <c r="V83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y83">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>18.75</v>
       </c>
       <c r="Z83">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D84" s="22"/>
       <c r="E84" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F84" s="23"/>
       <c r="G84" s="22"/>
@@ -4886,31 +5393,37 @@
       <c r="M84" s="18"/>
       <c r="N84" s="17"/>
       <c r="O84" s="2"/>
+      <c r="Q84">
+        <v>0</v>
+      </c>
       <c r="R84">
         <v>5</v>
       </c>
+      <c r="T84" s="10">
+        <v>5</v>
+      </c>
       <c r="V84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y84">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="Z84">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D85" s="22"/>
       <c r="E85" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F85" s="23"/>
       <c r="G85" s="22"/>
@@ -4928,28 +5441,37 @@
       <c r="P85">
         <v>13</v>
       </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>5</v>
+      </c>
+      <c r="T85" s="10">
+        <v>7</v>
+      </c>
       <c r="V85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y85">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Z85">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D86" s="22"/>
       <c r="E86" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F86" s="23"/>
       <c r="G86" s="22"/>
@@ -4967,31 +5489,37 @@
       <c r="P86">
         <v>16</v>
       </c>
+      <c r="Q86">
+        <v>8</v>
+      </c>
       <c r="R86">
         <v>2</v>
+      </c>
+      <c r="T86" s="10">
+        <v>5</v>
       </c>
       <c r="V86">
         <v>1</v>
       </c>
       <c r="Y86">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="Z86">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D87" s="22"/>
       <c r="E87" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F87" s="23"/>
       <c r="G87" s="22"/>
@@ -5006,28 +5534,34 @@
       <c r="M87" s="18"/>
       <c r="N87" s="17"/>
       <c r="O87" s="2"/>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="T87" s="10">
+        <v>0</v>
+      </c>
       <c r="V87">
         <v>1</v>
       </c>
       <c r="Y87">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z87">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D88" s="22"/>
       <c r="E88" s="21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F88" s="23"/>
       <c r="G88" s="22"/>
@@ -5045,28 +5579,34 @@
       <c r="P88">
         <v>14</v>
       </c>
+      <c r="Q88">
+        <v>10</v>
+      </c>
+      <c r="T88" s="10">
+        <v>10</v>
+      </c>
       <c r="V88">
         <v>1</v>
       </c>
       <c r="Y88">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Z88">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D89" s="22"/>
       <c r="E89" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F89" s="23"/>
       <c r="G89" s="22"/>
@@ -5084,28 +5624,34 @@
       <c r="P89">
         <v>13</v>
       </c>
+      <c r="Q89">
+        <v>10</v>
+      </c>
+      <c r="T89" s="10">
+        <v>10</v>
+      </c>
       <c r="V89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y89">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Z89">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D90" s="22"/>
       <c r="E90" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F90" s="23"/>
       <c r="G90" s="22"/>
@@ -5123,28 +5669,34 @@
       <c r="P90">
         <v>14</v>
       </c>
+      <c r="Q90">
+        <v>10</v>
+      </c>
+      <c r="T90" s="10">
+        <v>10</v>
+      </c>
       <c r="V90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y90">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Z90">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D91" s="22"/>
       <c r="E91" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F91" s="23"/>
       <c r="G91" s="22"/>
@@ -5162,31 +5714,40 @@
       <c r="P91">
         <v>13</v>
       </c>
+      <c r="Q91">
+        <v>8</v>
+      </c>
       <c r="R91">
         <v>2</v>
+      </c>
+      <c r="S91">
+        <v>7</v>
+      </c>
+      <c r="T91" s="10">
+        <v>6</v>
       </c>
       <c r="V91">
         <v>1</v>
       </c>
       <c r="Y91">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>20.666666666666668</v>
       </c>
       <c r="Z91">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D92" s="22"/>
       <c r="E92" s="21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F92" s="23"/>
       <c r="G92" s="22"/>
@@ -5204,28 +5765,37 @@
       <c r="P92">
         <v>14</v>
       </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <v>7</v>
+      </c>
+      <c r="T92" s="10">
+        <v>7</v>
+      </c>
       <c r="V92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y92">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z92">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D93" s="22"/>
       <c r="E93" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F93" s="23"/>
       <c r="G93" s="22"/>
@@ -5243,7 +5813,13 @@
       <c r="P93">
         <v>13</v>
       </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
       <c r="R93">
+        <v>2</v>
+      </c>
+      <c r="T93" s="10">
         <v>2</v>
       </c>
       <c r="V93">
@@ -5251,23 +5827,23 @@
       </c>
       <c r="Y93">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Z93">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D94" s="22"/>
       <c r="E94" s="21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F94" s="23"/>
       <c r="G94" s="22"/>
@@ -5285,28 +5861,34 @@
       <c r="P94">
         <v>13</v>
       </c>
+      <c r="Q94">
+        <v>4</v>
+      </c>
+      <c r="T94" s="10">
+        <v>4</v>
+      </c>
       <c r="V94">
         <v>1</v>
       </c>
       <c r="Y94">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Z94">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D95" s="22"/>
       <c r="E95" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F95" s="23"/>
       <c r="G95" s="22"/>
@@ -5324,28 +5906,34 @@
       <c r="P95">
         <v>14</v>
       </c>
+      <c r="Q95">
+        <v>10</v>
+      </c>
+      <c r="T95" s="10">
+        <v>10</v>
+      </c>
       <c r="V95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y95">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Z95">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="21" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D96" s="22"/>
       <c r="E96" s="21" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F96" s="23"/>
       <c r="G96" s="22"/>
@@ -5360,28 +5948,34 @@
       <c r="M96" s="18"/>
       <c r="N96" s="17"/>
       <c r="O96" s="2"/>
+      <c r="Q96">
+        <v>9</v>
+      </c>
+      <c r="T96" s="10">
+        <v>9</v>
+      </c>
       <c r="V96">
         <v>1</v>
       </c>
       <c r="Y96">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Z96">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D97" s="22"/>
       <c r="E97" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F97" s="23"/>
       <c r="G97" s="22"/>
@@ -5399,28 +5993,34 @@
       <c r="P97">
         <v>18</v>
       </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="T97" s="10">
+        <v>0</v>
+      </c>
       <c r="V97">
         <v>1</v>
       </c>
       <c r="Y97">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Z97">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D98" s="22"/>
       <c r="E98" s="21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F98" s="23"/>
       <c r="G98" s="22"/>
@@ -5438,31 +6038,40 @@
       <c r="P98">
         <v>16</v>
       </c>
+      <c r="Q98">
+        <v>10</v>
+      </c>
       <c r="R98">
         <v>2</v>
       </c>
+      <c r="S98">
+        <v>10</v>
+      </c>
+      <c r="T98" s="10">
+        <v>8</v>
+      </c>
       <c r="V98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y98">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z98">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D99" s="22"/>
       <c r="E99" s="21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F99" s="23"/>
       <c r="G99" s="22"/>
@@ -5480,31 +6089,40 @@
       <c r="P99">
         <v>16</v>
       </c>
+      <c r="Q99">
+        <v>8</v>
+      </c>
       <c r="R99">
         <v>5</v>
       </c>
+      <c r="S99">
+        <v>10</v>
+      </c>
+      <c r="T99" s="10">
+        <v>8</v>
+      </c>
       <c r="V99">
         <v>2</v>
       </c>
       <c r="Y99">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>23.75</v>
       </c>
       <c r="Z99">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D100" s="22"/>
       <c r="E100" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F100" s="23"/>
       <c r="G100" s="22"/>
@@ -5522,7 +6140,13 @@
       <c r="P100">
         <v>13</v>
       </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
       <c r="R100">
+        <v>2</v>
+      </c>
+      <c r="T100" s="10">
         <v>2</v>
       </c>
       <c r="V100">
@@ -5530,23 +6154,23 @@
       </c>
       <c r="Y100">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Z100">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D101" s="22"/>
       <c r="E101" s="21" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F101" s="23"/>
       <c r="G101" s="22"/>
@@ -5561,31 +6185,40 @@
       <c r="M101" s="18"/>
       <c r="N101" s="17"/>
       <c r="O101" s="2"/>
+      <c r="Q101">
+        <v>9</v>
+      </c>
       <c r="R101">
         <v>5</v>
       </c>
+      <c r="S101">
+        <v>10</v>
+      </c>
+      <c r="T101" s="10">
+        <v>8</v>
+      </c>
       <c r="V101">
         <v>1</v>
       </c>
       <c r="Y101">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Z101">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D102" s="22"/>
       <c r="E102" s="21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F102" s="23"/>
       <c r="G102" s="22"/>
@@ -5603,31 +6236,40 @@
       <c r="P102">
         <v>16</v>
       </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
       <c r="R102">
         <v>2</v>
       </c>
+      <c r="S102">
+        <v>10</v>
+      </c>
+      <c r="T102" s="10">
+        <v>6</v>
+      </c>
       <c r="V102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y102">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Z102">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D103" s="22"/>
       <c r="E103" s="21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F103" s="23"/>
       <c r="G103" s="22"/>
@@ -5645,28 +6287,34 @@
       <c r="P103">
         <v>18</v>
       </c>
+      <c r="Q103">
+        <v>8</v>
+      </c>
+      <c r="T103" s="10">
+        <v>8</v>
+      </c>
       <c r="V103">
         <v>2</v>
       </c>
       <c r="Y103">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z103">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D104" s="22"/>
       <c r="E104" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F104" s="23"/>
       <c r="G104" s="22"/>
@@ -5684,31 +6332,40 @@
       <c r="P104">
         <v>11</v>
       </c>
+      <c r="Q104">
+        <v>6</v>
+      </c>
       <c r="R104">
         <v>2</v>
+      </c>
+      <c r="S104">
+        <v>10</v>
+      </c>
+      <c r="T104" s="10">
+        <v>7</v>
       </c>
       <c r="V104">
         <v>1</v>
       </c>
       <c r="Y104">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>19.333333333333336</v>
       </c>
       <c r="Z104">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D105" s="22"/>
       <c r="E105" s="21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F105" s="23"/>
       <c r="G105" s="22"/>
@@ -5723,7 +6380,13 @@
       <c r="M105" s="18"/>
       <c r="N105" s="17"/>
       <c r="O105" s="2"/>
+      <c r="Q105">
+        <v>0</v>
+      </c>
       <c r="R105">
+        <v>2</v>
+      </c>
+      <c r="T105" s="10">
         <v>2</v>
       </c>
       <c r="V105">
@@ -5731,23 +6394,23 @@
       </c>
       <c r="Y105">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Z105">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D106" s="22"/>
       <c r="E106" s="21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F106" s="23"/>
       <c r="G106" s="22"/>
@@ -5765,28 +6428,37 @@
       <c r="P106">
         <v>16</v>
       </c>
+      <c r="Q106">
+        <v>8</v>
+      </c>
+      <c r="S106">
+        <v>10</v>
+      </c>
+      <c r="T106" s="10">
+        <v>9</v>
+      </c>
       <c r="V106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y106">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Z106">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D107" s="22"/>
       <c r="E107" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F107" s="23"/>
       <c r="G107" s="22"/>
@@ -5804,7 +6476,13 @@
       <c r="P107">
         <v>18</v>
       </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
       <c r="R107">
+        <v>2</v>
+      </c>
+      <c r="T107" s="10">
         <v>2</v>
       </c>
       <c r="V107">
@@ -5812,23 +6490,23 @@
       </c>
       <c r="Y107">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Z107">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D108" s="22"/>
       <c r="E108" s="21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F108" s="23"/>
       <c r="G108" s="22"/>
@@ -5846,28 +6524,34 @@
       <c r="P108">
         <v>13</v>
       </c>
+      <c r="Q108">
+        <v>6</v>
+      </c>
+      <c r="T108" s="10">
+        <v>6</v>
+      </c>
       <c r="V108">
         <v>1</v>
       </c>
       <c r="Y108">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Z108">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="21" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D109" s="22"/>
       <c r="E109" s="21" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F109" s="23"/>
       <c r="G109" s="22"/>
@@ -5882,18 +6566,24 @@
       <c r="M109" s="18"/>
       <c r="N109" s="17"/>
       <c r="O109" s="2"/>
+      <c r="Q109">
+        <v>7</v>
+      </c>
       <c r="R109">
         <v>2</v>
+      </c>
+      <c r="T109" s="10">
+        <v>6</v>
       </c>
       <c r="V109">
         <v>1</v>
       </c>
       <c r="Y109">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z109">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5915,15 +6605,21 @@
       <c r="M110" s="18"/>
       <c r="N110" s="17"/>
       <c r="O110" s="2"/>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+      <c r="T110" s="10">
+        <v>0</v>
+      </c>
       <c r="V110">
         <v>1</v>
       </c>
       <c r="Y110">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z110">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5945,15 +6641,21 @@
       <c r="M111" s="18"/>
       <c r="N111" s="17"/>
       <c r="O111" s="2"/>
+      <c r="Q111">
+        <v>0</v>
+      </c>
+      <c r="T111" s="10">
+        <v>0</v>
+      </c>
       <c r="V111">
         <v>1</v>
       </c>
       <c r="Y111">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z111">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5975,15 +6677,21 @@
       <c r="M112" s="18"/>
       <c r="N112" s="17"/>
       <c r="O112" s="2"/>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="T112" s="10">
+        <v>0</v>
+      </c>
       <c r="V112">
         <v>1</v>
       </c>
       <c r="Y112">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z112">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -6005,15 +6713,21 @@
       <c r="M113" s="18"/>
       <c r="N113" s="17"/>
       <c r="O113" s="2"/>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="T113" s="10">
+        <v>0</v>
+      </c>
       <c r="V113">
         <v>1</v>
       </c>
       <c r="Y113">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z113">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6345,6 +7059,15 @@
     <mergeCell ref="A70:B70"/>
     <mergeCell ref="C70:D70"/>
     <mergeCell ref="E70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="L71:N71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
     <mergeCell ref="A68:B68"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="E68:G68"/>
@@ -6355,13 +7078,6 @@
     <mergeCell ref="E69:G69"/>
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="L69:N69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="L70:N70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="L71:N71"/>
     <mergeCell ref="H74:I74"/>
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="C77:D77"/>
@@ -6377,8 +7093,6 @@
     <mergeCell ref="A74:B74"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="E74:G74"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="E78:G78"/>

--- a/OYM/_Documentos Comunes/POO_C32017.xlsx
+++ b/OYM/_Documentos Comunes/POO_C32017.xlsx
@@ -1234,12 +1234,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1254,14 +1248,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1272,23 +1266,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1675,8 +1675,8 @@
   <dimension ref="A1:Z113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V35" sqref="V35"/>
+      <pane ySplit="10" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V75" sqref="V75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1707,19 +1707,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="B1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1740,19 +1740,19 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
       <c r="N3" s="2"/>
       <c r="P3" t="s">
         <v>21</v>
@@ -1762,19 +1762,19 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
       <c r="N4" s="2"/>
       <c r="P4" t="s">
         <v>23</v>
@@ -1784,19 +1784,19 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
       <c r="N5" s="2"/>
       <c r="P5" t="s">
         <v>25</v>
@@ -1828,19 +1828,19 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
       <c r="N7" s="2"/>
       <c r="P7" s="6" t="s">
         <v>327</v>
@@ -1894,34 +1894,34 @@
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:26" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28" t="s">
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="28"/>
+      <c r="I10" s="23"/>
       <c r="J10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="28" t="s">
+      <c r="L10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s">
         <v>8</v>
@@ -1958,35 +1958,35 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
-        <v>0</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13" t="s">
+      <c r="A11" s="28">
+        <v>0</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="13" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="16">
+      <c r="F11" s="13"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="14">
         <v>10</v>
       </c>
-      <c r="I11" s="17"/>
+      <c r="I11" s="15"/>
       <c r="J11" s="5">
         <v>20</v>
       </c>
       <c r="K11" s="5">
         <v>20</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="14">
         <f>IF((Y11-50)&gt;50,50,IF((Y11-50)&lt;0,0,(Y11-50)))</f>
         <v>50</v>
       </c>
-      <c r="M11" s="18"/>
-      <c r="N11" s="17"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="15"/>
       <c r="O11" s="2"/>
       <c r="P11">
         <v>20</v>
@@ -2024,29 +2024,29 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="21" t="s">
+      <c r="D12" s="20"/>
+      <c r="E12" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="16">
+      <c r="L12" s="14">
         <f t="shared" ref="L12:L75" si="0">IF((Y12-50)&gt;50,50,IF((Y12-50)&lt;0,0,(Y12-50)))</f>
         <v>0</v>
       </c>
-      <c r="M12" s="18"/>
-      <c r="N12" s="17"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="15"/>
       <c r="O12" s="2"/>
       <c r="Q12">
         <v>0</v>
@@ -2066,29 +2066,29 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="21" t="s">
+      <c r="D13" s="20"/>
+      <c r="E13" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="16">
+      <c r="L13" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="18"/>
-      <c r="N13" s="17"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="15"/>
       <c r="O13" s="2"/>
       <c r="P13">
         <v>16</v>
@@ -2103,7 +2103,7 @@
         <v>6</v>
       </c>
       <c r="V13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y13">
         <f t="shared" si="1"/>
@@ -2114,29 +2114,29 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="21" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="17"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="16">
+      <c r="L14" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M14" s="18"/>
-      <c r="N14" s="17"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="15"/>
       <c r="O14" s="2"/>
       <c r="P14">
         <v>15</v>
@@ -2159,29 +2159,29 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="21" t="s">
+      <c r="D15" s="20"/>
+      <c r="E15" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="17"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="16">
+      <c r="L15" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M15" s="18"/>
-      <c r="N15" s="17"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="15"/>
       <c r="O15" s="2"/>
       <c r="P15">
         <v>15</v>
@@ -2207,29 +2207,29 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="21" t="s">
+      <c r="D16" s="20"/>
+      <c r="E16" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="17"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="16">
+      <c r="L16" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M16" s="18"/>
-      <c r="N16" s="17"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="15"/>
       <c r="O16" s="2"/>
       <c r="Q16">
         <v>0</v>
@@ -2252,29 +2252,29 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21" t="s">
+      <c r="B17" s="26"/>
+      <c r="C17" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="21" t="s">
+      <c r="D17" s="20"/>
+      <c r="E17" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="17"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="16">
+      <c r="L17" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M17" s="18"/>
-      <c r="N17" s="17"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="15"/>
       <c r="O17" s="2"/>
       <c r="P17">
         <v>13</v>
@@ -2300,29 +2300,29 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21" t="s">
+      <c r="B18" s="26"/>
+      <c r="C18" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="21" t="s">
+      <c r="D18" s="20"/>
+      <c r="E18" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="17"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="16">
+      <c r="L18" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M18" s="18"/>
-      <c r="N18" s="17"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="15"/>
       <c r="O18" s="2"/>
       <c r="P18">
         <v>14</v>
@@ -2348,29 +2348,29 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21" t="s">
+      <c r="B19" s="26"/>
+      <c r="C19" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="21" t="s">
+      <c r="D19" s="20"/>
+      <c r="E19" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="15"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="16">
+      <c r="L19" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M19" s="18"/>
-      <c r="N19" s="17"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="15"/>
       <c r="O19" s="2"/>
       <c r="P19">
         <v>14</v>
@@ -2393,29 +2393,29 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="26"/>
+      <c r="C20" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="21" t="s">
+      <c r="D20" s="20"/>
+      <c r="E20" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="17"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="15"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="16">
+      <c r="L20" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M20" s="18"/>
-      <c r="N20" s="17"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="15"/>
       <c r="O20" s="2"/>
       <c r="P20">
         <v>16</v>
@@ -2441,29 +2441,29 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="21" t="s">
+      <c r="D21" s="20"/>
+      <c r="E21" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="17"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="15"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="16">
+      <c r="L21" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M21" s="18"/>
-      <c r="N21" s="17"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="15"/>
       <c r="O21" s="2"/>
       <c r="P21">
         <v>14</v>
@@ -2489,29 +2489,29 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21" t="s">
+      <c r="B22" s="26"/>
+      <c r="C22" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="21" t="s">
+      <c r="D22" s="20"/>
+      <c r="E22" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="17"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="16">
+      <c r="L22" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M22" s="18"/>
-      <c r="N22" s="17"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="15"/>
       <c r="O22" s="2"/>
       <c r="P22">
         <v>18</v>
@@ -2534,29 +2534,29 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21" t="s">
+      <c r="B23" s="26"/>
+      <c r="C23" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="21" t="s">
+      <c r="D23" s="20"/>
+      <c r="E23" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="17"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="16">
+      <c r="L23" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M23" s="18"/>
-      <c r="N23" s="17"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="15"/>
       <c r="O23" s="2"/>
       <c r="Q23">
         <v>0</v>
@@ -2576,29 +2576,29 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21" t="s">
+      <c r="B24" s="26"/>
+      <c r="C24" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="21" t="s">
+      <c r="D24" s="20"/>
+      <c r="E24" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="17"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="15"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="16">
+      <c r="L24" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M24" s="18"/>
-      <c r="N24" s="17"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="15"/>
       <c r="O24" s="2"/>
       <c r="Q24">
         <v>0</v>
@@ -2618,29 +2618,29 @@
       </c>
     </row>
     <row r="25" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21" t="s">
+      <c r="B25" s="26"/>
+      <c r="C25" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="21" t="s">
+      <c r="D25" s="20"/>
+      <c r="E25" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="17"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="16">
+      <c r="L25" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M25" s="18"/>
-      <c r="N25" s="17"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="15"/>
       <c r="O25" s="2"/>
       <c r="Q25">
         <v>0</v>
@@ -2663,29 +2663,29 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21" t="s">
+      <c r="B26" s="26"/>
+      <c r="C26" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="21" t="s">
+      <c r="D26" s="20"/>
+      <c r="E26" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="17"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="15"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="16">
+      <c r="L26" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M26" s="18"/>
-      <c r="N26" s="17"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="15"/>
       <c r="O26" s="2"/>
       <c r="P26">
         <v>15</v>
@@ -2708,29 +2708,29 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21" t="s">
+      <c r="B27" s="26"/>
+      <c r="C27" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="21" t="s">
+      <c r="D27" s="20"/>
+      <c r="E27" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="17"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="15"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="16">
+      <c r="L27" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M27" s="18"/>
-      <c r="N27" s="17"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="15"/>
       <c r="O27" s="2"/>
       <c r="P27">
         <v>14</v>
@@ -2756,29 +2756,29 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21" t="s">
+      <c r="B28" s="26"/>
+      <c r="C28" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="21" t="s">
+      <c r="D28" s="20"/>
+      <c r="E28" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="17"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="15"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="16">
+      <c r="L28" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M28" s="18"/>
-      <c r="N28" s="17"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="15"/>
       <c r="O28" s="2"/>
       <c r="P28">
         <v>18</v>
@@ -2804,29 +2804,29 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21" t="s">
+      <c r="B29" s="26"/>
+      <c r="C29" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="21" t="s">
+      <c r="D29" s="20"/>
+      <c r="E29" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="17"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="15"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="16">
+      <c r="L29" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M29" s="18"/>
-      <c r="N29" s="17"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="15"/>
       <c r="O29" s="2"/>
       <c r="P29">
         <v>16</v>
@@ -2852,29 +2852,29 @@
       </c>
     </row>
     <row r="30" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="21" t="s">
+      <c r="B30" s="26"/>
+      <c r="C30" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="21" t="s">
+      <c r="D30" s="20"/>
+      <c r="E30" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="17"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="15"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="16">
+      <c r="L30" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M30" s="18"/>
-      <c r="N30" s="17"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="15"/>
       <c r="O30" s="2"/>
       <c r="Q30">
         <v>0</v>
@@ -2894,29 +2894,29 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="21" t="s">
+      <c r="B31" s="26"/>
+      <c r="C31" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="21" t="s">
+      <c r="D31" s="20"/>
+      <c r="E31" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="17"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="15"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="16">
+      <c r="L31" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M31" s="18"/>
-      <c r="N31" s="17"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="15"/>
       <c r="O31" s="2"/>
       <c r="P31">
         <v>14</v>
@@ -2942,29 +2942,29 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="21" t="s">
+      <c r="B32" s="26"/>
+      <c r="C32" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="21" t="s">
+      <c r="D32" s="20"/>
+      <c r="E32" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="17"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="15"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="16">
+      <c r="L32" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M32" s="18"/>
-      <c r="N32" s="17"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="15"/>
       <c r="O32" s="2"/>
       <c r="Q32">
         <v>0</v>
@@ -2984,29 +2984,29 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="21" t="s">
+      <c r="B33" s="26"/>
+      <c r="C33" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="21" t="s">
+      <c r="D33" s="20"/>
+      <c r="E33" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="F33" s="23"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="17"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="15"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="16">
+      <c r="L33" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M33" s="18"/>
-      <c r="N33" s="17"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="15"/>
       <c r="O33" s="2"/>
       <c r="P33">
         <v>18</v>
@@ -3029,29 +3029,29 @@
       </c>
     </row>
     <row r="34" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="21" t="s">
+      <c r="B34" s="26"/>
+      <c r="C34" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="21" t="s">
+      <c r="D34" s="20"/>
+      <c r="E34" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="17"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="15"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="16">
+      <c r="L34" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M34" s="18"/>
-      <c r="N34" s="17"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="15"/>
       <c r="O34" s="2"/>
       <c r="P34">
         <v>15</v>
@@ -3080,29 +3080,29 @@
       </c>
     </row>
     <row r="35" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="21" t="s">
+      <c r="B35" s="26"/>
+      <c r="C35" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="21" t="s">
+      <c r="D35" s="20"/>
+      <c r="E35" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="F35" s="23"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="17"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="15"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="16">
+      <c r="L35" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M35" s="18"/>
-      <c r="N35" s="17"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="15"/>
       <c r="O35" s="2"/>
       <c r="P35">
         <v>17</v>
@@ -3128,29 +3128,29 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="21" t="s">
+      <c r="B36" s="26"/>
+      <c r="C36" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="21" t="s">
+      <c r="D36" s="20"/>
+      <c r="E36" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="F36" s="23"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="17"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="15"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="16">
+      <c r="L36" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M36" s="18"/>
-      <c r="N36" s="17"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="15"/>
       <c r="O36" s="2"/>
       <c r="P36">
         <v>19</v>
@@ -3176,29 +3176,29 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="21" t="s">
+      <c r="B37" s="26"/>
+      <c r="C37" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="21" t="s">
+      <c r="D37" s="20"/>
+      <c r="E37" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="F37" s="23"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="17"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="15"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="16">
+      <c r="L37" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M37" s="18"/>
-      <c r="N37" s="17"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="15"/>
       <c r="O37" s="2"/>
       <c r="P37">
         <v>15</v>
@@ -3224,29 +3224,29 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="21" t="s">
+      <c r="B38" s="26"/>
+      <c r="C38" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="21" t="s">
+      <c r="D38" s="20"/>
+      <c r="E38" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="F38" s="23"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="17"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="15"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="16">
+      <c r="L38" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M38" s="18"/>
-      <c r="N38" s="17"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="15"/>
       <c r="O38" s="2"/>
       <c r="P38">
         <v>16</v>
@@ -3272,29 +3272,29 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="21" t="s">
+      <c r="B39" s="26"/>
+      <c r="C39" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="21" t="s">
+      <c r="D39" s="20"/>
+      <c r="E39" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="F39" s="23"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="17"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="15"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="16">
+      <c r="L39" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M39" s="18"/>
-      <c r="N39" s="17"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="15"/>
       <c r="O39" s="2"/>
       <c r="Q39">
         <v>0</v>
@@ -3314,29 +3314,29 @@
       </c>
     </row>
     <row r="40" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="21" t="s">
+      <c r="B40" s="26"/>
+      <c r="C40" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="21" t="s">
+      <c r="D40" s="20"/>
+      <c r="E40" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="17"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="15"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
-      <c r="L40" s="16">
+      <c r="L40" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M40" s="18"/>
-      <c r="N40" s="17"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="15"/>
       <c r="O40" s="2"/>
       <c r="P40">
         <v>13</v>
@@ -3362,29 +3362,29 @@
       </c>
     </row>
     <row r="41" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="21" t="s">
+      <c r="B41" s="26"/>
+      <c r="C41" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="21" t="s">
+      <c r="D41" s="20"/>
+      <c r="E41" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="F41" s="23"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="17"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="15"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
-      <c r="L41" s="16">
+      <c r="L41" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M41" s="18"/>
-      <c r="N41" s="17"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="15"/>
       <c r="O41" s="2"/>
       <c r="Q41">
         <v>0</v>
@@ -3404,29 +3404,29 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="21" t="s">
+      <c r="B42" s="26"/>
+      <c r="C42" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="21" t="s">
+      <c r="D42" s="20"/>
+      <c r="E42" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="F42" s="23"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="17"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="15"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
-      <c r="L42" s="16">
+      <c r="L42" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M42" s="18"/>
-      <c r="N42" s="17"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="15"/>
       <c r="O42" s="2"/>
       <c r="Q42">
         <v>9</v>
@@ -3446,29 +3446,29 @@
       </c>
     </row>
     <row r="43" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="21" t="s">
+      <c r="B43" s="26"/>
+      <c r="C43" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="21" t="s">
+      <c r="D43" s="20"/>
+      <c r="E43" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="F43" s="23"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="17"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="15"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
-      <c r="L43" s="16">
+      <c r="L43" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M43" s="18"/>
-      <c r="N43" s="17"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="15"/>
       <c r="O43" s="2"/>
       <c r="P43">
         <v>11</v>
@@ -3497,29 +3497,29 @@
       </c>
     </row>
     <row r="44" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="21" t="s">
+      <c r="B44" s="26"/>
+      <c r="C44" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="21" t="s">
+      <c r="D44" s="20"/>
+      <c r="E44" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="F44" s="23"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="17"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="15"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
-      <c r="L44" s="16">
+      <c r="L44" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M44" s="18"/>
-      <c r="N44" s="17"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="15"/>
       <c r="O44" s="2"/>
       <c r="Q44">
         <v>0</v>
@@ -3542,29 +3542,29 @@
       </c>
     </row>
     <row r="45" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="21" t="s">
+      <c r="B45" s="26"/>
+      <c r="C45" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="21" t="s">
+      <c r="D45" s="20"/>
+      <c r="E45" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="F45" s="23"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="17"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="15"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
-      <c r="L45" s="16">
+      <c r="L45" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M45" s="18"/>
-      <c r="N45" s="17"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="15"/>
       <c r="O45" s="2"/>
       <c r="P45">
         <v>14</v>
@@ -3587,29 +3587,29 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="21" t="s">
+      <c r="B46" s="26"/>
+      <c r="C46" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="21" t="s">
+      <c r="D46" s="20"/>
+      <c r="E46" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="F46" s="23"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="17"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="15"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
-      <c r="L46" s="16">
+      <c r="L46" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M46" s="18"/>
-      <c r="N46" s="17"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="15"/>
       <c r="O46" s="2"/>
       <c r="P46">
         <v>13</v>
@@ -3635,29 +3635,29 @@
       </c>
     </row>
     <row r="47" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="21" t="s">
+      <c r="B47" s="26"/>
+      <c r="C47" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="21" t="s">
+      <c r="D47" s="20"/>
+      <c r="E47" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="F47" s="23"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="17"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="15"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
-      <c r="L47" s="16">
+      <c r="L47" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M47" s="18"/>
-      <c r="N47" s="17"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="15"/>
       <c r="O47" s="2"/>
       <c r="P47">
         <v>20</v>
@@ -3683,29 +3683,29 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="20"/>
-      <c r="C48" s="21" t="s">
+      <c r="B48" s="26"/>
+      <c r="C48" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="21" t="s">
+      <c r="D48" s="20"/>
+      <c r="E48" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="F48" s="23"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="17"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="15"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
-      <c r="L48" s="16">
+      <c r="L48" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M48" s="18"/>
-      <c r="N48" s="17"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="15"/>
       <c r="O48" s="2"/>
       <c r="P48">
         <v>14</v>
@@ -3731,29 +3731,29 @@
       </c>
     </row>
     <row r="49" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B49" s="20"/>
-      <c r="C49" s="21" t="s">
+      <c r="B49" s="26"/>
+      <c r="C49" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="21" t="s">
+      <c r="D49" s="20"/>
+      <c r="E49" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="F49" s="23"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="17"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="15"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
-      <c r="L49" s="16">
+      <c r="L49" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M49" s="18"/>
-      <c r="N49" s="17"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="15"/>
       <c r="O49" s="2"/>
       <c r="P49">
         <v>16</v>
@@ -3776,29 +3776,29 @@
       </c>
     </row>
     <row r="50" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="20"/>
-      <c r="C50" s="21" t="s">
+      <c r="B50" s="26"/>
+      <c r="C50" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="21" t="s">
+      <c r="D50" s="20"/>
+      <c r="E50" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="F50" s="23"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="17"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="15"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="16">
+      <c r="L50" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M50" s="18"/>
-      <c r="N50" s="17"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="15"/>
       <c r="O50" s="2"/>
       <c r="P50">
         <v>13</v>
@@ -3827,29 +3827,29 @@
       </c>
     </row>
     <row r="51" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="21" t="s">
+      <c r="B51" s="26"/>
+      <c r="C51" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="21" t="s">
+      <c r="D51" s="20"/>
+      <c r="E51" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="F51" s="23"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="17"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="15"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
-      <c r="L51" s="16">
+      <c r="L51" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M51" s="18"/>
-      <c r="N51" s="17"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="15"/>
       <c r="O51" s="2"/>
       <c r="Q51">
         <v>0</v>
@@ -3872,29 +3872,29 @@
       </c>
     </row>
     <row r="52" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B52" s="20"/>
-      <c r="C52" s="21" t="s">
+      <c r="B52" s="26"/>
+      <c r="C52" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="D52" s="22"/>
-      <c r="E52" s="21" t="s">
+      <c r="D52" s="20"/>
+      <c r="E52" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="F52" s="23"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="17"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="15"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
-      <c r="L52" s="16">
+      <c r="L52" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M52" s="18"/>
-      <c r="N52" s="17"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="15"/>
       <c r="O52" s="2"/>
       <c r="P52">
         <v>13</v>
@@ -3920,29 +3920,29 @@
       </c>
     </row>
     <row r="53" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="21" t="s">
+      <c r="B53" s="26"/>
+      <c r="C53" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="D53" s="22"/>
-      <c r="E53" s="21" t="s">
+      <c r="D53" s="20"/>
+      <c r="E53" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="F53" s="23"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="17"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="15"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
-      <c r="L53" s="16">
+      <c r="L53" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M53" s="18"/>
-      <c r="N53" s="17"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="15"/>
       <c r="O53" s="2"/>
       <c r="P53">
         <v>17</v>
@@ -3971,29 +3971,29 @@
       </c>
     </row>
     <row r="54" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B54" s="20"/>
-      <c r="C54" s="21" t="s">
+      <c r="B54" s="26"/>
+      <c r="C54" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="D54" s="22"/>
-      <c r="E54" s="21" t="s">
+      <c r="D54" s="20"/>
+      <c r="E54" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="F54" s="23"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="17"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="15"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="16">
+      <c r="L54" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M54" s="18"/>
-      <c r="N54" s="17"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="15"/>
       <c r="O54" s="2"/>
       <c r="Q54">
         <v>0</v>
@@ -4013,29 +4013,29 @@
       </c>
     </row>
     <row r="55" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B55" s="20"/>
-      <c r="C55" s="21" t="s">
+      <c r="B55" s="26"/>
+      <c r="C55" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="D55" s="22"/>
-      <c r="E55" s="21" t="s">
+      <c r="D55" s="20"/>
+      <c r="E55" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="F55" s="23"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="17"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="15"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="16">
+      <c r="L55" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M55" s="18"/>
-      <c r="N55" s="17"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="15"/>
       <c r="O55" s="2"/>
       <c r="Q55">
         <v>0</v>
@@ -4058,29 +4058,29 @@
       </c>
     </row>
     <row r="56" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="21" t="s">
+      <c r="B56" s="26"/>
+      <c r="C56" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="D56" s="22"/>
-      <c r="E56" s="21" t="s">
+      <c r="D56" s="20"/>
+      <c r="E56" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="F56" s="23"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="17"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="15"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="16">
+      <c r="L56" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M56" s="18"/>
-      <c r="N56" s="17"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="15"/>
       <c r="O56" s="2"/>
       <c r="Q56">
         <v>0</v>
@@ -4103,29 +4103,29 @@
       </c>
     </row>
     <row r="57" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B57" s="20"/>
-      <c r="C57" s="21" t="s">
+      <c r="B57" s="26"/>
+      <c r="C57" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="D57" s="22"/>
-      <c r="E57" s="21" t="s">
+      <c r="D57" s="20"/>
+      <c r="E57" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="F57" s="23"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="17"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="15"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="16">
+      <c r="L57" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M57" s="18"/>
-      <c r="N57" s="17"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="15"/>
       <c r="O57" s="2"/>
       <c r="Q57">
         <v>8</v>
@@ -4148,29 +4148,29 @@
       </c>
     </row>
     <row r="58" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="19" t="s">
+      <c r="A58" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B58" s="20"/>
-      <c r="C58" s="21" t="s">
+      <c r="B58" s="26"/>
+      <c r="C58" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="D58" s="22"/>
-      <c r="E58" s="21" t="s">
+      <c r="D58" s="20"/>
+      <c r="E58" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="F58" s="23"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="17"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="15"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="16">
+      <c r="L58" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M58" s="18"/>
-      <c r="N58" s="17"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="15"/>
       <c r="O58" s="2"/>
       <c r="P58">
         <v>14</v>
@@ -4196,29 +4196,29 @@
       </c>
     </row>
     <row r="59" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B59" s="20"/>
-      <c r="C59" s="21" t="s">
+      <c r="B59" s="26"/>
+      <c r="C59" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="D59" s="22"/>
-      <c r="E59" s="21" t="s">
+      <c r="D59" s="20"/>
+      <c r="E59" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="F59" s="23"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="17"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="15"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="16">
+      <c r="L59" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M59" s="18"/>
-      <c r="N59" s="17"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="15"/>
       <c r="O59" s="2"/>
       <c r="P59">
         <v>13</v>
@@ -4241,29 +4241,29 @@
       </c>
     </row>
     <row r="60" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B60" s="20"/>
-      <c r="C60" s="21" t="s">
+      <c r="B60" s="26"/>
+      <c r="C60" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="D60" s="22"/>
-      <c r="E60" s="21" t="s">
+      <c r="D60" s="20"/>
+      <c r="E60" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="F60" s="23"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="17"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="15"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="16">
+      <c r="L60" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M60" s="18"/>
-      <c r="N60" s="17"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="15"/>
       <c r="O60" s="2"/>
       <c r="P60">
         <v>13</v>
@@ -4292,29 +4292,29 @@
       </c>
     </row>
     <row r="61" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="19" t="s">
+      <c r="A61" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B61" s="20"/>
-      <c r="C61" s="21" t="s">
+      <c r="B61" s="26"/>
+      <c r="C61" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="D61" s="22"/>
-      <c r="E61" s="21" t="s">
+      <c r="D61" s="20"/>
+      <c r="E61" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="F61" s="23"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="17"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="15"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="16">
+      <c r="L61" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M61" s="18"/>
-      <c r="N61" s="17"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="15"/>
       <c r="O61" s="2"/>
       <c r="P61">
         <v>14</v>
@@ -4337,29 +4337,29 @@
       </c>
     </row>
     <row r="62" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="19" t="s">
+      <c r="A62" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B62" s="20"/>
-      <c r="C62" s="21" t="s">
+      <c r="B62" s="26"/>
+      <c r="C62" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="D62" s="22"/>
-      <c r="E62" s="21" t="s">
+      <c r="D62" s="20"/>
+      <c r="E62" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="F62" s="23"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="17"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="15"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="16">
+      <c r="L62" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M62" s="18"/>
-      <c r="N62" s="17"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="15"/>
       <c r="O62" s="2"/>
       <c r="P62">
         <v>13</v>
@@ -4382,29 +4382,29 @@
       </c>
     </row>
     <row r="63" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="19" t="s">
+      <c r="A63" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B63" s="20"/>
-      <c r="C63" s="21" t="s">
+      <c r="B63" s="26"/>
+      <c r="C63" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="D63" s="22"/>
-      <c r="E63" s="21" t="s">
+      <c r="D63" s="20"/>
+      <c r="E63" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="F63" s="23"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="17"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="15"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="16">
+      <c r="L63" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M63" s="18"/>
-      <c r="N63" s="17"/>
+      <c r="M63" s="22"/>
+      <c r="N63" s="15"/>
       <c r="O63" s="2"/>
       <c r="Q63">
         <v>0</v>
@@ -4424,29 +4424,29 @@
       </c>
     </row>
     <row r="64" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="19" t="s">
+      <c r="A64" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B64" s="20"/>
-      <c r="C64" s="21" t="s">
+      <c r="B64" s="26"/>
+      <c r="C64" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="D64" s="22"/>
-      <c r="E64" s="21" t="s">
+      <c r="D64" s="20"/>
+      <c r="E64" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="F64" s="23"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="17"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="15"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="16">
+      <c r="L64" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M64" s="18"/>
-      <c r="N64" s="17"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="15"/>
       <c r="O64" s="2"/>
       <c r="P64">
         <v>18</v>
@@ -4475,29 +4475,29 @@
       </c>
     </row>
     <row r="65" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B65" s="20"/>
-      <c r="C65" s="21" t="s">
+      <c r="B65" s="26"/>
+      <c r="C65" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="D65" s="22"/>
-      <c r="E65" s="21" t="s">
+      <c r="D65" s="20"/>
+      <c r="E65" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="F65" s="23"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="17"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="15"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="16">
+      <c r="L65" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M65" s="18"/>
-      <c r="N65" s="17"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="15"/>
       <c r="O65" s="2"/>
       <c r="Q65">
         <v>0</v>
@@ -4517,29 +4517,29 @@
       </c>
     </row>
     <row r="66" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B66" s="20"/>
-      <c r="C66" s="21" t="s">
+      <c r="B66" s="26"/>
+      <c r="C66" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="D66" s="22"/>
-      <c r="E66" s="21" t="s">
+      <c r="D66" s="20"/>
+      <c r="E66" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="F66" s="23"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="17"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="15"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
-      <c r="L66" s="16">
+      <c r="L66" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M66" s="18"/>
-      <c r="N66" s="17"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="15"/>
       <c r="O66" s="2"/>
       <c r="P66">
         <v>13</v>
@@ -4562,29 +4562,29 @@
       </c>
     </row>
     <row r="67" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="20"/>
-      <c r="C67" s="21" t="s">
+      <c r="B67" s="26"/>
+      <c r="C67" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="D67" s="22"/>
-      <c r="E67" s="21" t="s">
+      <c r="D67" s="20"/>
+      <c r="E67" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="F67" s="23"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="17"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="15"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="16">
+      <c r="L67" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M67" s="18"/>
-      <c r="N67" s="17"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="15"/>
       <c r="O67" s="2"/>
       <c r="P67">
         <v>15</v>
@@ -4613,29 +4613,29 @@
       </c>
     </row>
     <row r="68" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21" t="s">
+      <c r="B68" s="26"/>
+      <c r="C68" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="D68" s="22"/>
-      <c r="E68" s="21" t="s">
+      <c r="D68" s="20"/>
+      <c r="E68" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="F68" s="23"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="17"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="15"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-      <c r="L68" s="16">
+      <c r="L68" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M68" s="18"/>
-      <c r="N68" s="17"/>
+      <c r="M68" s="22"/>
+      <c r="N68" s="15"/>
       <c r="O68" s="2"/>
       <c r="P68">
         <v>15</v>
@@ -4661,29 +4661,29 @@
       </c>
     </row>
     <row r="69" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="19" t="s">
+      <c r="A69" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B69" s="20"/>
-      <c r="C69" s="21" t="s">
+      <c r="B69" s="26"/>
+      <c r="C69" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="D69" s="22"/>
-      <c r="E69" s="21" t="s">
+      <c r="D69" s="20"/>
+      <c r="E69" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="F69" s="23"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="17"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="15"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="16">
+      <c r="L69" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M69" s="18"/>
-      <c r="N69" s="17"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="15"/>
       <c r="O69" s="2"/>
       <c r="Q69">
         <v>10</v>
@@ -4703,29 +4703,29 @@
       </c>
     </row>
     <row r="70" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="19" t="s">
+      <c r="A70" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B70" s="20"/>
-      <c r="C70" s="21" t="s">
+      <c r="B70" s="26"/>
+      <c r="C70" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="D70" s="22"/>
-      <c r="E70" s="21" t="s">
+      <c r="D70" s="20"/>
+      <c r="E70" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="F70" s="23"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="17"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="15"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
-      <c r="L70" s="16">
+      <c r="L70" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M70" s="18"/>
-      <c r="N70" s="17"/>
+      <c r="M70" s="22"/>
+      <c r="N70" s="15"/>
       <c r="O70" s="2"/>
       <c r="P70">
         <v>18</v>
@@ -4754,29 +4754,29 @@
       </c>
     </row>
     <row r="71" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="19" t="s">
+      <c r="A71" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B71" s="20"/>
-      <c r="C71" s="21" t="s">
+      <c r="B71" s="26"/>
+      <c r="C71" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="D71" s="22"/>
-      <c r="E71" s="21" t="s">
+      <c r="D71" s="20"/>
+      <c r="E71" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="F71" s="23"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="17"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="15"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
-      <c r="L71" s="16">
+      <c r="L71" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M71" s="18"/>
-      <c r="N71" s="17"/>
+      <c r="M71" s="22"/>
+      <c r="N71" s="15"/>
       <c r="O71" s="2"/>
       <c r="Q71">
         <v>0</v>
@@ -4799,29 +4799,29 @@
       </c>
     </row>
     <row r="72" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="19" t="s">
+      <c r="A72" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B72" s="20"/>
-      <c r="C72" s="21" t="s">
+      <c r="B72" s="26"/>
+      <c r="C72" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="D72" s="22"/>
-      <c r="E72" s="21" t="s">
+      <c r="D72" s="20"/>
+      <c r="E72" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="F72" s="23"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="17"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="15"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="L72" s="16">
+      <c r="L72" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M72" s="18"/>
-      <c r="N72" s="17"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="15"/>
       <c r="O72" s="2"/>
       <c r="P72">
         <v>15</v>
@@ -4847,29 +4847,29 @@
       </c>
     </row>
     <row r="73" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="19" t="s">
+      <c r="A73" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B73" s="20"/>
-      <c r="C73" s="21" t="s">
+      <c r="B73" s="26"/>
+      <c r="C73" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="D73" s="22"/>
-      <c r="E73" s="21" t="s">
+      <c r="D73" s="20"/>
+      <c r="E73" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="F73" s="23"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="17"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="15"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
-      <c r="L73" s="16">
+      <c r="L73" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M73" s="18"/>
-      <c r="N73" s="17"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="15"/>
       <c r="O73" s="2"/>
       <c r="P73">
         <v>13</v>
@@ -4898,29 +4898,29 @@
       </c>
     </row>
     <row r="74" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="19" t="s">
+      <c r="A74" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B74" s="20"/>
-      <c r="C74" s="21" t="s">
+      <c r="B74" s="26"/>
+      <c r="C74" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="D74" s="22"/>
-      <c r="E74" s="21" t="s">
+      <c r="D74" s="20"/>
+      <c r="E74" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="F74" s="23"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="17"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="15"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
-      <c r="L74" s="16">
+      <c r="L74" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M74" s="18"/>
-      <c r="N74" s="17"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="15"/>
       <c r="O74" s="2"/>
       <c r="Q74">
         <v>0</v>
@@ -4946,29 +4946,29 @@
       </c>
     </row>
     <row r="75" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="19" t="s">
+      <c r="A75" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="B75" s="20"/>
-      <c r="C75" s="21" t="s">
+      <c r="B75" s="26"/>
+      <c r="C75" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="D75" s="22"/>
-      <c r="E75" s="21" t="s">
+      <c r="D75" s="20"/>
+      <c r="E75" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="F75" s="23"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="17"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="15"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
-      <c r="L75" s="16">
+      <c r="L75" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M75" s="18"/>
-      <c r="N75" s="17"/>
+      <c r="M75" s="22"/>
+      <c r="N75" s="15"/>
       <c r="O75" s="2"/>
       <c r="P75">
         <v>14</v>
@@ -4983,7 +4983,7 @@
         <v>2</v>
       </c>
       <c r="V75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y75">
         <f t="shared" si="1"/>
@@ -4994,29 +4994,29 @@
       </c>
     </row>
     <row r="76" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="19" t="s">
+      <c r="A76" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="B76" s="20"/>
-      <c r="C76" s="21" t="s">
+      <c r="B76" s="26"/>
+      <c r="C76" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="D76" s="22"/>
-      <c r="E76" s="21" t="s">
+      <c r="D76" s="20"/>
+      <c r="E76" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="F76" s="23"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="17"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="15"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
-      <c r="L76" s="16">
+      <c r="L76" s="14">
         <f t="shared" ref="L76:L113" si="2">IF((Y76-50)&gt;50,50,IF((Y76-50)&lt;0,0,(Y76-50)))</f>
         <v>0</v>
       </c>
-      <c r="M76" s="18"/>
-      <c r="N76" s="17"/>
+      <c r="M76" s="22"/>
+      <c r="N76" s="15"/>
       <c r="O76" s="2"/>
       <c r="Q76">
         <v>0</v>
@@ -5036,29 +5036,29 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="19" t="s">
+      <c r="A77" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="B77" s="20"/>
-      <c r="C77" s="21" t="s">
+      <c r="B77" s="26"/>
+      <c r="C77" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="D77" s="22"/>
-      <c r="E77" s="21" t="s">
+      <c r="D77" s="20"/>
+      <c r="E77" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="F77" s="23"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="17"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="15"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
-      <c r="L77" s="16">
+      <c r="L77" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M77" s="18"/>
-      <c r="N77" s="17"/>
+      <c r="M77" s="22"/>
+      <c r="N77" s="15"/>
       <c r="O77" s="2"/>
       <c r="P77">
         <v>19</v>
@@ -5084,29 +5084,29 @@
       </c>
     </row>
     <row r="78" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="19" t="s">
+      <c r="A78" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="B78" s="20"/>
-      <c r="C78" s="21" t="s">
+      <c r="B78" s="26"/>
+      <c r="C78" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="D78" s="22"/>
-      <c r="E78" s="21" t="s">
+      <c r="D78" s="20"/>
+      <c r="E78" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="F78" s="23"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="17"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="15"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
-      <c r="L78" s="16">
+      <c r="L78" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M78" s="18"/>
-      <c r="N78" s="17"/>
+      <c r="M78" s="22"/>
+      <c r="N78" s="15"/>
       <c r="O78" s="2"/>
       <c r="P78">
         <v>16</v>
@@ -5121,7 +5121,7 @@
         <v>10</v>
       </c>
       <c r="V78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y78">
         <f t="shared" si="3"/>
@@ -5132,29 +5132,29 @@
       </c>
     </row>
     <row r="79" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="19" t="s">
+      <c r="A79" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="B79" s="20"/>
-      <c r="C79" s="21" t="s">
+      <c r="B79" s="26"/>
+      <c r="C79" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="D79" s="22"/>
-      <c r="E79" s="21" t="s">
+      <c r="D79" s="20"/>
+      <c r="E79" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="F79" s="23"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="17"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="15"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
-      <c r="L79" s="16">
+      <c r="L79" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M79" s="18"/>
-      <c r="N79" s="17"/>
+      <c r="M79" s="22"/>
+      <c r="N79" s="15"/>
       <c r="O79" s="2"/>
       <c r="Q79">
         <v>0</v>
@@ -5177,29 +5177,29 @@
       </c>
     </row>
     <row r="80" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="19" t="s">
+      <c r="A80" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="B80" s="20"/>
-      <c r="C80" s="21" t="s">
+      <c r="B80" s="26"/>
+      <c r="C80" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="D80" s="22"/>
-      <c r="E80" s="21" t="s">
+      <c r="D80" s="20"/>
+      <c r="E80" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="F80" s="23"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="17"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="15"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
-      <c r="L80" s="16">
+      <c r="L80" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M80" s="18"/>
-      <c r="N80" s="17"/>
+      <c r="M80" s="22"/>
+      <c r="N80" s="15"/>
       <c r="O80" s="2"/>
       <c r="P80">
         <v>16</v>
@@ -5225,29 +5225,29 @@
       </c>
     </row>
     <row r="81" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="19" t="s">
+      <c r="A81" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="B81" s="20"/>
-      <c r="C81" s="21" t="s">
+      <c r="B81" s="26"/>
+      <c r="C81" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="D81" s="22"/>
-      <c r="E81" s="21" t="s">
+      <c r="D81" s="20"/>
+      <c r="E81" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="F81" s="23"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="17"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="15"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
-      <c r="L81" s="16">
+      <c r="L81" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M81" s="18"/>
-      <c r="N81" s="17"/>
+      <c r="M81" s="22"/>
+      <c r="N81" s="15"/>
       <c r="O81" s="2"/>
       <c r="P81">
         <v>16</v>
@@ -5276,29 +5276,29 @@
       </c>
     </row>
     <row r="82" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="19" t="s">
+      <c r="A82" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="B82" s="20"/>
-      <c r="C82" s="21" t="s">
+      <c r="B82" s="26"/>
+      <c r="C82" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="D82" s="22"/>
-      <c r="E82" s="21" t="s">
+      <c r="D82" s="20"/>
+      <c r="E82" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="F82" s="23"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="17"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="15"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
-      <c r="L82" s="16">
+      <c r="L82" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M82" s="18"/>
-      <c r="N82" s="17"/>
+      <c r="M82" s="22"/>
+      <c r="N82" s="15"/>
       <c r="O82" s="2"/>
       <c r="Q82">
         <v>10</v>
@@ -5318,29 +5318,29 @@
       </c>
     </row>
     <row r="83" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="19" t="s">
+      <c r="A83" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="B83" s="20"/>
-      <c r="C83" s="21" t="s">
+      <c r="B83" s="26"/>
+      <c r="C83" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="D83" s="22"/>
-      <c r="E83" s="21" t="s">
+      <c r="D83" s="20"/>
+      <c r="E83" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="F83" s="23"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="16"/>
-      <c r="I83" s="17"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="15"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
-      <c r="L83" s="16">
+      <c r="L83" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M83" s="18"/>
-      <c r="N83" s="17"/>
+      <c r="M83" s="22"/>
+      <c r="N83" s="15"/>
       <c r="O83" s="2"/>
       <c r="P83">
         <v>11</v>
@@ -5369,29 +5369,29 @@
       </c>
     </row>
     <row r="84" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="19" t="s">
+      <c r="A84" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="B84" s="20"/>
-      <c r="C84" s="21" t="s">
+      <c r="B84" s="26"/>
+      <c r="C84" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="D84" s="22"/>
-      <c r="E84" s="21" t="s">
+      <c r="D84" s="20"/>
+      <c r="E84" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="F84" s="23"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="17"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="15"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
-      <c r="L84" s="16">
+      <c r="L84" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M84" s="18"/>
-      <c r="N84" s="17"/>
+      <c r="M84" s="22"/>
+      <c r="N84" s="15"/>
       <c r="O84" s="2"/>
       <c r="Q84">
         <v>0</v>
@@ -5414,29 +5414,29 @@
       </c>
     </row>
     <row r="85" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="19" t="s">
+      <c r="A85" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="B85" s="20"/>
-      <c r="C85" s="21" t="s">
+      <c r="B85" s="26"/>
+      <c r="C85" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="D85" s="22"/>
-      <c r="E85" s="21" t="s">
+      <c r="D85" s="20"/>
+      <c r="E85" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="F85" s="23"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="17"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="15"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
-      <c r="L85" s="16">
+      <c r="L85" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M85" s="18"/>
-      <c r="N85" s="17"/>
+      <c r="M85" s="22"/>
+      <c r="N85" s="15"/>
       <c r="O85" s="2"/>
       <c r="P85">
         <v>13</v>
@@ -5462,29 +5462,29 @@
       </c>
     </row>
     <row r="86" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="19" t="s">
+      <c r="A86" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="B86" s="20"/>
-      <c r="C86" s="21" t="s">
+      <c r="B86" s="26"/>
+      <c r="C86" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="D86" s="22"/>
-      <c r="E86" s="21" t="s">
+      <c r="D86" s="20"/>
+      <c r="E86" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="F86" s="23"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="17"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="15"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
-      <c r="L86" s="16">
+      <c r="L86" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M86" s="18"/>
-      <c r="N86" s="17"/>
+      <c r="M86" s="22"/>
+      <c r="N86" s="15"/>
       <c r="O86" s="2"/>
       <c r="P86">
         <v>16</v>
@@ -5499,7 +5499,7 @@
         <v>5</v>
       </c>
       <c r="V86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y86">
         <f t="shared" si="3"/>
@@ -5510,29 +5510,29 @@
       </c>
     </row>
     <row r="87" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="19" t="s">
+      <c r="A87" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="B87" s="20"/>
-      <c r="C87" s="21" t="s">
+      <c r="B87" s="26"/>
+      <c r="C87" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="D87" s="22"/>
-      <c r="E87" s="21" t="s">
+      <c r="D87" s="20"/>
+      <c r="E87" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="F87" s="23"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="16"/>
-      <c r="I87" s="17"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="15"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
-      <c r="L87" s="16">
+      <c r="L87" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M87" s="18"/>
-      <c r="N87" s="17"/>
+      <c r="M87" s="22"/>
+      <c r="N87" s="15"/>
       <c r="O87" s="2"/>
       <c r="Q87">
         <v>0</v>
@@ -5552,29 +5552,29 @@
       </c>
     </row>
     <row r="88" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="19" t="s">
+      <c r="A88" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="B88" s="20"/>
-      <c r="C88" s="21" t="s">
+      <c r="B88" s="26"/>
+      <c r="C88" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="D88" s="22"/>
-      <c r="E88" s="21" t="s">
+      <c r="D88" s="20"/>
+      <c r="E88" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="F88" s="23"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="17"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="15"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
-      <c r="L88" s="16">
+      <c r="L88" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M88" s="18"/>
-      <c r="N88" s="17"/>
+      <c r="M88" s="22"/>
+      <c r="N88" s="15"/>
       <c r="O88" s="2"/>
       <c r="P88">
         <v>14</v>
@@ -5597,29 +5597,29 @@
       </c>
     </row>
     <row r="89" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="19" t="s">
+      <c r="A89" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="B89" s="20"/>
-      <c r="C89" s="21" t="s">
+      <c r="B89" s="26"/>
+      <c r="C89" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="D89" s="22"/>
-      <c r="E89" s="21" t="s">
+      <c r="D89" s="20"/>
+      <c r="E89" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="F89" s="23"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="17"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="15"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
-      <c r="L89" s="16">
+      <c r="L89" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M89" s="18"/>
-      <c r="N89" s="17"/>
+      <c r="M89" s="22"/>
+      <c r="N89" s="15"/>
       <c r="O89" s="2"/>
       <c r="P89">
         <v>13</v>
@@ -5642,29 +5642,29 @@
       </c>
     </row>
     <row r="90" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="19" t="s">
+      <c r="A90" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="B90" s="20"/>
-      <c r="C90" s="21" t="s">
+      <c r="B90" s="26"/>
+      <c r="C90" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="D90" s="22"/>
-      <c r="E90" s="21" t="s">
+      <c r="D90" s="20"/>
+      <c r="E90" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="F90" s="23"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="17"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="15"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
-      <c r="L90" s="16">
+      <c r="L90" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M90" s="18"/>
-      <c r="N90" s="17"/>
+      <c r="M90" s="22"/>
+      <c r="N90" s="15"/>
       <c r="O90" s="2"/>
       <c r="P90">
         <v>14</v>
@@ -5687,29 +5687,29 @@
       </c>
     </row>
     <row r="91" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="19" t="s">
+      <c r="A91" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="B91" s="20"/>
-      <c r="C91" s="21" t="s">
+      <c r="B91" s="26"/>
+      <c r="C91" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="D91" s="22"/>
-      <c r="E91" s="21" t="s">
+      <c r="D91" s="20"/>
+      <c r="E91" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="F91" s="23"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="17"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="15"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
-      <c r="L91" s="16">
+      <c r="L91" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M91" s="18"/>
-      <c r="N91" s="17"/>
+      <c r="M91" s="22"/>
+      <c r="N91" s="15"/>
       <c r="O91" s="2"/>
       <c r="P91">
         <v>13</v>
@@ -5738,29 +5738,29 @@
       </c>
     </row>
     <row r="92" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="19" t="s">
+      <c r="A92" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="B92" s="20"/>
-      <c r="C92" s="21" t="s">
+      <c r="B92" s="26"/>
+      <c r="C92" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="D92" s="22"/>
-      <c r="E92" s="21" t="s">
+      <c r="D92" s="20"/>
+      <c r="E92" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="F92" s="23"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="17"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="15"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
-      <c r="L92" s="16">
+      <c r="L92" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M92" s="18"/>
-      <c r="N92" s="17"/>
+      <c r="M92" s="22"/>
+      <c r="N92" s="15"/>
       <c r="O92" s="2"/>
       <c r="P92">
         <v>14</v>
@@ -5786,29 +5786,29 @@
       </c>
     </row>
     <row r="93" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="19" t="s">
+      <c r="A93" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="B93" s="20"/>
-      <c r="C93" s="21" t="s">
+      <c r="B93" s="26"/>
+      <c r="C93" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="D93" s="22"/>
-      <c r="E93" s="21" t="s">
+      <c r="D93" s="20"/>
+      <c r="E93" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="F93" s="23"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="16"/>
-      <c r="I93" s="17"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="15"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
-      <c r="L93" s="16">
+      <c r="L93" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M93" s="18"/>
-      <c r="N93" s="17"/>
+      <c r="M93" s="22"/>
+      <c r="N93" s="15"/>
       <c r="O93" s="2"/>
       <c r="P93">
         <v>13</v>
@@ -5834,29 +5834,29 @@
       </c>
     </row>
     <row r="94" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="19" t="s">
+      <c r="A94" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="B94" s="20"/>
-      <c r="C94" s="21" t="s">
+      <c r="B94" s="26"/>
+      <c r="C94" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="D94" s="22"/>
-      <c r="E94" s="21" t="s">
+      <c r="D94" s="20"/>
+      <c r="E94" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="F94" s="23"/>
-      <c r="G94" s="22"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="17"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="15"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
-      <c r="L94" s="16">
+      <c r="L94" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M94" s="18"/>
-      <c r="N94" s="17"/>
+      <c r="M94" s="22"/>
+      <c r="N94" s="15"/>
       <c r="O94" s="2"/>
       <c r="P94">
         <v>13</v>
@@ -5879,29 +5879,29 @@
       </c>
     </row>
     <row r="95" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="19" t="s">
+      <c r="A95" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="B95" s="20"/>
-      <c r="C95" s="21" t="s">
+      <c r="B95" s="26"/>
+      <c r="C95" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="D95" s="22"/>
-      <c r="E95" s="21" t="s">
+      <c r="D95" s="20"/>
+      <c r="E95" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="F95" s="23"/>
-      <c r="G95" s="22"/>
-      <c r="H95" s="16"/>
-      <c r="I95" s="17"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="20"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="15"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
-      <c r="L95" s="16">
+      <c r="L95" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M95" s="18"/>
-      <c r="N95" s="17"/>
+      <c r="M95" s="22"/>
+      <c r="N95" s="15"/>
       <c r="O95" s="2"/>
       <c r="P95">
         <v>14</v>
@@ -5924,29 +5924,29 @@
       </c>
     </row>
     <row r="96" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="19" t="s">
+      <c r="A96" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="B96" s="20"/>
-      <c r="C96" s="21" t="s">
+      <c r="B96" s="26"/>
+      <c r="C96" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="D96" s="22"/>
-      <c r="E96" s="21" t="s">
+      <c r="D96" s="20"/>
+      <c r="E96" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="F96" s="23"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="16"/>
-      <c r="I96" s="17"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="15"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
-      <c r="L96" s="16">
+      <c r="L96" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M96" s="18"/>
-      <c r="N96" s="17"/>
+      <c r="M96" s="22"/>
+      <c r="N96" s="15"/>
       <c r="O96" s="2"/>
       <c r="Q96">
         <v>9</v>
@@ -5966,29 +5966,29 @@
       </c>
     </row>
     <row r="97" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="19" t="s">
+      <c r="A97" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="B97" s="20"/>
-      <c r="C97" s="21" t="s">
+      <c r="B97" s="26"/>
+      <c r="C97" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="D97" s="22"/>
-      <c r="E97" s="21" t="s">
+      <c r="D97" s="20"/>
+      <c r="E97" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="F97" s="23"/>
-      <c r="G97" s="22"/>
-      <c r="H97" s="16"/>
-      <c r="I97" s="17"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="20"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="15"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
-      <c r="L97" s="16">
+      <c r="L97" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M97" s="18"/>
-      <c r="N97" s="17"/>
+      <c r="M97" s="22"/>
+      <c r="N97" s="15"/>
       <c r="O97" s="2"/>
       <c r="P97">
         <v>18</v>
@@ -6011,29 +6011,29 @@
       </c>
     </row>
     <row r="98" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="19" t="s">
+      <c r="A98" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="B98" s="20"/>
-      <c r="C98" s="21" t="s">
+      <c r="B98" s="26"/>
+      <c r="C98" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="D98" s="22"/>
-      <c r="E98" s="21" t="s">
+      <c r="D98" s="20"/>
+      <c r="E98" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="F98" s="23"/>
-      <c r="G98" s="22"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="17"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="15"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
-      <c r="L98" s="16">
+      <c r="L98" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M98" s="18"/>
-      <c r="N98" s="17"/>
+      <c r="M98" s="22"/>
+      <c r="N98" s="15"/>
       <c r="O98" s="2"/>
       <c r="P98">
         <v>16</v>
@@ -6062,29 +6062,29 @@
       </c>
     </row>
     <row r="99" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="19" t="s">
+      <c r="A99" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="B99" s="20"/>
-      <c r="C99" s="21" t="s">
+      <c r="B99" s="26"/>
+      <c r="C99" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="D99" s="22"/>
-      <c r="E99" s="21" t="s">
+      <c r="D99" s="20"/>
+      <c r="E99" s="19" t="s">
         <v>296</v>
       </c>
-      <c r="F99" s="23"/>
-      <c r="G99" s="22"/>
-      <c r="H99" s="16"/>
-      <c r="I99" s="17"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="15"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
-      <c r="L99" s="16">
+      <c r="L99" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M99" s="18"/>
-      <c r="N99" s="17"/>
+      <c r="M99" s="22"/>
+      <c r="N99" s="15"/>
       <c r="O99" s="2"/>
       <c r="P99">
         <v>16</v>
@@ -6113,29 +6113,29 @@
       </c>
     </row>
     <row r="100" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="19" t="s">
+      <c r="A100" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="B100" s="20"/>
-      <c r="C100" s="21" t="s">
+      <c r="B100" s="26"/>
+      <c r="C100" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="D100" s="22"/>
-      <c r="E100" s="21" t="s">
+      <c r="D100" s="20"/>
+      <c r="E100" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="F100" s="23"/>
-      <c r="G100" s="22"/>
-      <c r="H100" s="16"/>
-      <c r="I100" s="17"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="20"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="15"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
-      <c r="L100" s="16">
+      <c r="L100" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M100" s="18"/>
-      <c r="N100" s="17"/>
+      <c r="M100" s="22"/>
+      <c r="N100" s="15"/>
       <c r="O100" s="2"/>
       <c r="P100">
         <v>13</v>
@@ -6150,7 +6150,7 @@
         <v>2</v>
       </c>
       <c r="V100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y100">
         <f t="shared" si="3"/>
@@ -6161,29 +6161,29 @@
       </c>
     </row>
     <row r="101" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="B101" s="20"/>
-      <c r="C101" s="21" t="s">
+      <c r="B101" s="26"/>
+      <c r="C101" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="D101" s="22"/>
-      <c r="E101" s="21" t="s">
+      <c r="D101" s="20"/>
+      <c r="E101" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="F101" s="23"/>
-      <c r="G101" s="22"/>
-      <c r="H101" s="16"/>
-      <c r="I101" s="17"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="20"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="15"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
-      <c r="L101" s="16">
+      <c r="L101" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M101" s="18"/>
-      <c r="N101" s="17"/>
+      <c r="M101" s="22"/>
+      <c r="N101" s="15"/>
       <c r="O101" s="2"/>
       <c r="Q101">
         <v>9</v>
@@ -6209,29 +6209,29 @@
       </c>
     </row>
     <row r="102" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="19" t="s">
+      <c r="A102" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="B102" s="20"/>
-      <c r="C102" s="21" t="s">
+      <c r="B102" s="26"/>
+      <c r="C102" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="D102" s="22"/>
-      <c r="E102" s="21" t="s">
+      <c r="D102" s="20"/>
+      <c r="E102" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="F102" s="23"/>
-      <c r="G102" s="22"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="17"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="20"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="15"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
-      <c r="L102" s="16">
+      <c r="L102" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M102" s="18"/>
-      <c r="N102" s="17"/>
+      <c r="M102" s="22"/>
+      <c r="N102" s="15"/>
       <c r="O102" s="2"/>
       <c r="P102">
         <v>16</v>
@@ -6260,29 +6260,29 @@
       </c>
     </row>
     <row r="103" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="19" t="s">
+      <c r="A103" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="B103" s="20"/>
-      <c r="C103" s="21" t="s">
+      <c r="B103" s="26"/>
+      <c r="C103" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="D103" s="22"/>
-      <c r="E103" s="21" t="s">
+      <c r="D103" s="20"/>
+      <c r="E103" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="F103" s="23"/>
-      <c r="G103" s="22"/>
-      <c r="H103" s="16"/>
-      <c r="I103" s="17"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="20"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="15"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
-      <c r="L103" s="16">
+      <c r="L103" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M103" s="18"/>
-      <c r="N103" s="17"/>
+      <c r="M103" s="22"/>
+      <c r="N103" s="15"/>
       <c r="O103" s="2"/>
       <c r="P103">
         <v>18</v>
@@ -6305,29 +6305,29 @@
       </c>
     </row>
     <row r="104" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="19" t="s">
+      <c r="A104" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="B104" s="20"/>
-      <c r="C104" s="21" t="s">
+      <c r="B104" s="26"/>
+      <c r="C104" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="D104" s="22"/>
-      <c r="E104" s="21" t="s">
+      <c r="D104" s="20"/>
+      <c r="E104" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="F104" s="23"/>
-      <c r="G104" s="22"/>
-      <c r="H104" s="16"/>
-      <c r="I104" s="17"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="20"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="15"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
-      <c r="L104" s="16">
+      <c r="L104" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M104" s="18"/>
-      <c r="N104" s="17"/>
+      <c r="M104" s="22"/>
+      <c r="N104" s="15"/>
       <c r="O104" s="2"/>
       <c r="P104">
         <v>11</v>
@@ -6345,7 +6345,7 @@
         <v>7</v>
       </c>
       <c r="V104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y104">
         <f t="shared" si="3"/>
@@ -6356,29 +6356,29 @@
       </c>
     </row>
     <row r="105" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="19" t="s">
+      <c r="A105" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="B105" s="20"/>
-      <c r="C105" s="21" t="s">
+      <c r="B105" s="26"/>
+      <c r="C105" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="D105" s="22"/>
-      <c r="E105" s="21" t="s">
+      <c r="D105" s="20"/>
+      <c r="E105" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="F105" s="23"/>
-      <c r="G105" s="22"/>
-      <c r="H105" s="16"/>
-      <c r="I105" s="17"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="20"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="15"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
-      <c r="L105" s="16">
+      <c r="L105" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M105" s="18"/>
-      <c r="N105" s="17"/>
+      <c r="M105" s="22"/>
+      <c r="N105" s="15"/>
       <c r="O105" s="2"/>
       <c r="Q105">
         <v>0</v>
@@ -6401,29 +6401,29 @@
       </c>
     </row>
     <row r="106" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="19" t="s">
+      <c r="A106" s="25" t="s">
         <v>315</v>
       </c>
-      <c r="B106" s="20"/>
-      <c r="C106" s="21" t="s">
+      <c r="B106" s="26"/>
+      <c r="C106" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="D106" s="22"/>
-      <c r="E106" s="21" t="s">
+      <c r="D106" s="20"/>
+      <c r="E106" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="F106" s="23"/>
-      <c r="G106" s="22"/>
-      <c r="H106" s="16"/>
-      <c r="I106" s="17"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="20"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="15"/>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
-      <c r="L106" s="16">
+      <c r="L106" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M106" s="18"/>
-      <c r="N106" s="17"/>
+      <c r="M106" s="22"/>
+      <c r="N106" s="15"/>
       <c r="O106" s="2"/>
       <c r="P106">
         <v>16</v>
@@ -6449,29 +6449,29 @@
       </c>
     </row>
     <row r="107" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="19" t="s">
+      <c r="A107" s="25" t="s">
         <v>318</v>
       </c>
-      <c r="B107" s="20"/>
-      <c r="C107" s="21" t="s">
+      <c r="B107" s="26"/>
+      <c r="C107" s="19" t="s">
         <v>319</v>
       </c>
-      <c r="D107" s="22"/>
-      <c r="E107" s="21" t="s">
+      <c r="D107" s="20"/>
+      <c r="E107" s="19" t="s">
         <v>320</v>
       </c>
-      <c r="F107" s="23"/>
-      <c r="G107" s="22"/>
-      <c r="H107" s="16"/>
-      <c r="I107" s="17"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="20"/>
+      <c r="H107" s="14"/>
+      <c r="I107" s="15"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
-      <c r="L107" s="16">
+      <c r="L107" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M107" s="18"/>
-      <c r="N107" s="17"/>
+      <c r="M107" s="22"/>
+      <c r="N107" s="15"/>
       <c r="O107" s="2"/>
       <c r="P107">
         <v>18</v>
@@ -6497,29 +6497,29 @@
       </c>
     </row>
     <row r="108" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="19" t="s">
+      <c r="A108" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="B108" s="20"/>
-      <c r="C108" s="21" t="s">
+      <c r="B108" s="26"/>
+      <c r="C108" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="D108" s="22"/>
-      <c r="E108" s="21" t="s">
+      <c r="D108" s="20"/>
+      <c r="E108" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="F108" s="23"/>
-      <c r="G108" s="22"/>
-      <c r="H108" s="16"/>
-      <c r="I108" s="17"/>
+      <c r="F108" s="21"/>
+      <c r="G108" s="20"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="15"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
-      <c r="L108" s="16">
+      <c r="L108" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M108" s="18"/>
-      <c r="N108" s="17"/>
+      <c r="M108" s="22"/>
+      <c r="N108" s="15"/>
       <c r="O108" s="2"/>
       <c r="P108">
         <v>13</v>
@@ -6531,7 +6531,7 @@
         <v>6</v>
       </c>
       <c r="V108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y108">
         <f t="shared" si="3"/>
@@ -6542,29 +6542,29 @@
       </c>
     </row>
     <row r="109" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="19" t="s">
+      <c r="A109" s="25" t="s">
         <v>324</v>
       </c>
-      <c r="B109" s="20"/>
-      <c r="C109" s="21" t="s">
+      <c r="B109" s="26"/>
+      <c r="C109" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="D109" s="22"/>
-      <c r="E109" s="21" t="s">
+      <c r="D109" s="20"/>
+      <c r="E109" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="F109" s="23"/>
-      <c r="G109" s="22"/>
-      <c r="H109" s="16"/>
-      <c r="I109" s="17"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="20"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="15"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
-      <c r="L109" s="16">
+      <c r="L109" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M109" s="18"/>
-      <c r="N109" s="17"/>
+      <c r="M109" s="22"/>
+      <c r="N109" s="15"/>
       <c r="O109" s="2"/>
       <c r="Q109">
         <v>7</v>
@@ -6587,23 +6587,23 @@
       </c>
     </row>
     <row r="110" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="11"/>
-      <c r="B110" s="12"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="13"/>
-      <c r="F110" s="15"/>
-      <c r="G110" s="14"/>
-      <c r="H110" s="16"/>
-      <c r="I110" s="17"/>
+      <c r="A110" s="28"/>
+      <c r="B110" s="29"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="14"/>
+      <c r="I110" s="15"/>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
-      <c r="L110" s="16">
+      <c r="L110" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M110" s="18"/>
-      <c r="N110" s="17"/>
+      <c r="M110" s="22"/>
+      <c r="N110" s="15"/>
       <c r="O110" s="2"/>
       <c r="Q110">
         <v>0</v>
@@ -6623,23 +6623,23 @@
       </c>
     </row>
     <row r="111" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="11"/>
-      <c r="B111" s="12"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="13"/>
-      <c r="F111" s="15"/>
-      <c r="G111" s="14"/>
-      <c r="H111" s="16"/>
-      <c r="I111" s="17"/>
+      <c r="A111" s="28"/>
+      <c r="B111" s="29"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="15"/>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
-      <c r="L111" s="16">
+      <c r="L111" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M111" s="18"/>
-      <c r="N111" s="17"/>
+      <c r="M111" s="22"/>
+      <c r="N111" s="15"/>
       <c r="O111" s="2"/>
       <c r="Q111">
         <v>0</v>
@@ -6659,23 +6659,23 @@
       </c>
     </row>
     <row r="112" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="11"/>
-      <c r="B112" s="12"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="15"/>
-      <c r="G112" s="14"/>
-      <c r="H112" s="16"/>
-      <c r="I112" s="17"/>
+      <c r="A112" s="28"/>
+      <c r="B112" s="29"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="13"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="14"/>
+      <c r="I112" s="15"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
-      <c r="L112" s="16">
+      <c r="L112" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M112" s="18"/>
-      <c r="N112" s="17"/>
+      <c r="M112" s="22"/>
+      <c r="N112" s="15"/>
       <c r="O112" s="2"/>
       <c r="Q112">
         <v>0</v>
@@ -6695,23 +6695,23 @@
       </c>
     </row>
     <row r="113" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="11"/>
-      <c r="B113" s="12"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="13"/>
-      <c r="F113" s="15"/>
-      <c r="G113" s="14"/>
-      <c r="H113" s="16"/>
-      <c r="I113" s="17"/>
+      <c r="A113" s="28"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="13"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="14"/>
+      <c r="I113" s="15"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
-      <c r="L113" s="16">
+      <c r="L113" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M113" s="18"/>
-      <c r="N113" s="17"/>
+      <c r="M113" s="22"/>
+      <c r="N113" s="15"/>
       <c r="O113" s="2"/>
       <c r="Q113">
         <v>0</v>
@@ -6741,39 +6741,486 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="537">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="L112:N112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="E113:G113"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="L113:N113"/>
+    <mergeCell ref="L108:N108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="L109:N109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="E110:G110"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="L110:N110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="E111:G111"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="L111:N111"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="E109:G109"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="L103:N103"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="L104:N104"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="L105:N105"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="L106:N106"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="L107:N107"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E105:G105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="E106:G106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="E107:G107"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="E104:G104"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="L102:N102"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="L96:N96"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="L100:N100"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="L98:N98"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="L101:N101"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="L94:N94"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="L89:N89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="L90:N90"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="L87:N87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="L88:N88"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="L85:N85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="L86:N86"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="L83:N83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="L84:N84"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="L81:N81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="L79:N79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="L80:N80"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="L78:N78"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="L76:N76"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="L77:N77"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="L75:N75"/>
+    <mergeCell ref="L74:N74"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="L68:N68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="L69:N69"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="L72:N72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="L73:N73"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="L71:N71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="L66:N66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="L67:N67"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="L64:N64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="L65:N65"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="L61:N61"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="L19:N19"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
@@ -6798,486 +7245,39 @@
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="L47:N47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="L61:N61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="L64:N64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="L65:N65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="L66:N66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="L67:N67"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="L72:N72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="L73:N73"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="L70:N70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="L71:N71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="L68:N68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="L69:N69"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="L77:N77"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="L75:N75"/>
-    <mergeCell ref="L74:N74"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="L78:N78"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="L76:N76"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="L79:N79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="L80:N80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="L81:N81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="L82:N82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="L83:N83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="L84:N84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="L85:N85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="L86:N86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="L87:N87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="L88:N88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="L89:N89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="L90:N90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="L91:N91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="L92:N92"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="L93:N93"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="L94:N94"/>
-    <mergeCell ref="L102:N102"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="L96:N96"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="L100:N100"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="L98:N98"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="L101:N101"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="E104:G104"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="E105:G105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="E106:G106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="E107:G107"/>
-    <mergeCell ref="L103:N103"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="L104:N104"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="L105:N105"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="L106:N106"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="L107:N107"/>
-    <mergeCell ref="L108:N108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="L109:N109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="E110:G110"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="L110:N110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="E111:G111"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="L111:N111"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="E109:G109"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="E112:G112"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="L112:N112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="E113:G113"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="L113:N113"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/OYM/_Documentos Comunes/POO_C32017.xlsx
+++ b/OYM/_Documentos Comunes/POO_C32017.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Page 1'!$A$10:$Z$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Page 1'!$A$1:$O$102</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcOnSave="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1013,7 +1013,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1024,26 +1024,26 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1054,7 +1054,26 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1207,7 +1226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
@@ -1290,6 +1309,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1674,9 +1725,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V75" sqref="V75"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W29" sqref="W29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2243,9 +2294,12 @@
       <c r="V16">
         <v>2</v>
       </c>
+      <c r="W16">
+        <v>20</v>
+      </c>
       <c r="Y16">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -2384,9 +2438,12 @@
       <c r="V19">
         <v>2</v>
       </c>
+      <c r="W19">
+        <v>19</v>
+      </c>
       <c r="Y19">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -2432,9 +2489,12 @@
       <c r="V20">
         <v>2</v>
       </c>
+      <c r="W20">
+        <v>20</v>
+      </c>
       <c r="Y20">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -2525,9 +2585,12 @@
       <c r="V22">
         <v>2</v>
       </c>
+      <c r="W22">
+        <v>19</v>
+      </c>
       <c r="Y22">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -2609,56 +2672,62 @@
       <c r="V24">
         <v>2</v>
       </c>
+      <c r="W24">
+        <v>13</v>
+      </c>
       <c r="Y24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
+    <row r="25" spans="1:26" s="40" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="19" t="s">
+      <c r="B25" s="31"/>
+      <c r="C25" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="19" t="s">
+      <c r="D25" s="33"/>
+      <c r="E25" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="14">
+      <c r="F25" s="34"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M25" s="22"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="2"/>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="S25">
+      <c r="M25" s="38"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="39"/>
+      <c r="Q25" s="40">
+        <v>0</v>
+      </c>
+      <c r="S25" s="40">
         <v>7</v>
       </c>
-      <c r="T25" s="10">
+      <c r="T25" s="41">
         <v>7</v>
       </c>
-      <c r="V25">
-        <v>1</v>
-      </c>
-      <c r="Y25">
+      <c r="V25" s="40">
+        <v>2</v>
+      </c>
+      <c r="W25" s="40">
+        <v>20</v>
+      </c>
+      <c r="Y25" s="40">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="Z25">
+        <v>27</v>
+      </c>
+      <c r="Z25" s="40">
         <v>0</v>
       </c>
     </row>
@@ -2747,9 +2816,12 @@
       <c r="V27">
         <v>2</v>
       </c>
+      <c r="W27">
+        <v>16</v>
+      </c>
       <c r="Y27">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -2843,9 +2915,12 @@
       <c r="V29">
         <v>2</v>
       </c>
+      <c r="W29">
+        <v>20</v>
+      </c>
       <c r="Y29">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -2933,9 +3008,12 @@
       <c r="V31">
         <v>2</v>
       </c>
+      <c r="W31">
+        <v>20</v>
+      </c>
       <c r="Y31">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -3020,9 +3098,12 @@
       <c r="V33">
         <v>2</v>
       </c>
+      <c r="W33">
+        <v>20</v>
+      </c>
       <c r="Y33">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -3071,9 +3152,12 @@
       <c r="V34">
         <v>2</v>
       </c>
+      <c r="W34">
+        <v>20</v>
+      </c>
       <c r="Y34">
         <f t="shared" si="1"/>
-        <v>22.333333333333332</v>
+        <v>42.333333333333329</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -3263,9 +3347,12 @@
       <c r="V38">
         <v>2</v>
       </c>
+      <c r="W38">
+        <v>20</v>
+      </c>
       <c r="Y38">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -3486,11 +3573,14 @@
         <v>5</v>
       </c>
       <c r="V43">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="W43">
+        <v>19</v>
       </c>
       <c r="Y43">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -3722,9 +3812,12 @@
       <c r="V48">
         <v>1</v>
       </c>
+      <c r="W48">
+        <v>16</v>
+      </c>
       <c r="Y48">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="Z48">
         <v>0</v>
@@ -3818,9 +3911,12 @@
       <c r="V50">
         <v>2</v>
       </c>
+      <c r="W50">
+        <v>16</v>
+      </c>
       <c r="Y50">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -3911,9 +4007,12 @@
       <c r="V52">
         <v>2</v>
       </c>
+      <c r="W52">
+        <v>20</v>
+      </c>
       <c r="Y52">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="Z52">
         <v>0</v>
@@ -3962,9 +4061,12 @@
       <c r="V53">
         <v>2</v>
       </c>
+      <c r="W53">
+        <v>20</v>
+      </c>
       <c r="Y53">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="Z53">
         <v>0</v>
@@ -4139,9 +4241,12 @@
       <c r="V57">
         <v>1</v>
       </c>
+      <c r="W57">
+        <v>19</v>
+      </c>
       <c r="Y57">
         <f t="shared" si="1"/>
-        <v>7.5</v>
+        <v>26.5</v>
       </c>
       <c r="Z57">
         <v>0</v>
@@ -4232,9 +4337,12 @@
       <c r="V59">
         <v>2</v>
       </c>
+      <c r="W59">
+        <v>18</v>
+      </c>
       <c r="Y59">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="Z59">
         <v>0</v>
@@ -4283,9 +4391,12 @@
       <c r="V60">
         <v>2</v>
       </c>
+      <c r="W60">
+        <v>19</v>
+      </c>
       <c r="Y60">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="Z60">
         <v>0</v>
@@ -4328,9 +4439,12 @@
       <c r="V61">
         <v>2</v>
       </c>
+      <c r="W61">
+        <v>19</v>
+      </c>
       <c r="Y61">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="Z61">
         <v>0</v>
@@ -4466,9 +4580,12 @@
       <c r="V64">
         <v>2</v>
       </c>
+      <c r="W64">
+        <v>20</v>
+      </c>
       <c r="Y64">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="Z64">
         <v>0</v>
@@ -4790,9 +4907,12 @@
       <c r="V71">
         <v>2</v>
       </c>
+      <c r="W71">
+        <v>19</v>
+      </c>
       <c r="Y71">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="Z71">
         <v>0</v>
@@ -4838,9 +4958,12 @@
       <c r="V72">
         <v>2</v>
       </c>
+      <c r="W72">
+        <v>20</v>
+      </c>
       <c r="Y72">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="Z72">
         <v>0</v>
@@ -4889,9 +5012,12 @@
       <c r="V73">
         <v>2</v>
       </c>
+      <c r="W73">
+        <v>17</v>
+      </c>
       <c r="Y73">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="Z73">
         <v>0</v>
@@ -4985,9 +5111,12 @@
       <c r="V75">
         <v>2</v>
       </c>
+      <c r="W75">
+        <v>19</v>
+      </c>
       <c r="Y75">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="Z75">
         <v>0</v>
@@ -5123,9 +5252,12 @@
       <c r="V78">
         <v>2</v>
       </c>
+      <c r="W78">
+        <v>18</v>
+      </c>
       <c r="Y78">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="Z78">
         <v>0</v>
@@ -5168,9 +5300,12 @@
       <c r="V79">
         <v>2</v>
       </c>
+      <c r="W79">
+        <v>15</v>
+      </c>
       <c r="Y79">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="Z79">
         <v>0</v>
@@ -5360,9 +5495,12 @@
       <c r="V83">
         <v>2</v>
       </c>
+      <c r="W83">
+        <v>19</v>
+      </c>
       <c r="Y83">
         <f t="shared" si="3"/>
-        <v>18.75</v>
+        <v>37.75</v>
       </c>
       <c r="Z83">
         <v>0</v>
@@ -5405,9 +5543,12 @@
       <c r="V84">
         <v>2</v>
       </c>
+      <c r="W84">
+        <v>19</v>
+      </c>
       <c r="Y84">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="Z84">
         <v>0</v>
@@ -5453,9 +5594,12 @@
       <c r="V85">
         <v>2</v>
       </c>
+      <c r="W85">
+        <v>18</v>
+      </c>
       <c r="Y85">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="Z85">
         <v>0</v>
@@ -5727,11 +5871,14 @@
         <v>6</v>
       </c>
       <c r="V91">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="W91">
+        <v>19</v>
       </c>
       <c r="Y91">
         <f t="shared" si="3"/>
-        <v>20.666666666666668</v>
+        <v>39.666666666666671</v>
       </c>
       <c r="Z91">
         <v>0</v>
@@ -5777,9 +5924,12 @@
       <c r="V92">
         <v>2</v>
       </c>
+      <c r="W92">
+        <v>19</v>
+      </c>
       <c r="Y92">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="Z92">
         <v>0</v>
@@ -5825,9 +5975,12 @@
       <c r="V93">
         <v>1</v>
       </c>
+      <c r="W93">
+        <v>18</v>
+      </c>
       <c r="Y93">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="Z93">
         <v>0</v>
@@ -5870,9 +6023,12 @@
       <c r="V94">
         <v>1</v>
       </c>
+      <c r="W94">
+        <v>19</v>
+      </c>
       <c r="Y94">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="Z94">
         <v>0</v>
@@ -5957,9 +6113,12 @@
       <c r="V96">
         <v>1</v>
       </c>
+      <c r="W96">
+        <v>19</v>
+      </c>
       <c r="Y96">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="Z96">
         <v>0</v>
@@ -6053,9 +6212,12 @@
       <c r="V98">
         <v>2</v>
       </c>
+      <c r="W98">
+        <v>20</v>
+      </c>
       <c r="Y98">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="Z98">
         <v>0</v>
@@ -6104,9 +6266,12 @@
       <c r="V99">
         <v>2</v>
       </c>
+      <c r="W99">
+        <v>20</v>
+      </c>
       <c r="Y99">
         <f t="shared" si="3"/>
-        <v>23.75</v>
+        <v>43.75</v>
       </c>
       <c r="Z99">
         <v>0</v>
@@ -6152,9 +6317,12 @@
       <c r="V100">
         <v>2</v>
       </c>
+      <c r="W100">
+        <v>19</v>
+      </c>
       <c r="Y100">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="Z100">
         <v>0</v>
@@ -6251,9 +6419,12 @@
       <c r="V102">
         <v>2</v>
       </c>
+      <c r="W102">
+        <v>20</v>
+      </c>
       <c r="Y102">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="Z102">
         <v>0</v>
@@ -6296,9 +6467,12 @@
       <c r="V103">
         <v>2</v>
       </c>
+      <c r="W103">
+        <v>20</v>
+      </c>
       <c r="Y103">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="Z103">
         <v>0</v>
@@ -6347,9 +6521,12 @@
       <c r="V104">
         <v>2</v>
       </c>
+      <c r="W104">
+        <v>19</v>
+      </c>
       <c r="Y104">
         <f t="shared" si="3"/>
-        <v>19.333333333333336</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="Z104">
         <v>0</v>
@@ -6440,9 +6617,12 @@
       <c r="V106">
         <v>2</v>
       </c>
+      <c r="W106">
+        <v>18</v>
+      </c>
       <c r="Y106">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="Z106">
         <v>0</v>
@@ -6533,9 +6713,12 @@
       <c r="V108">
         <v>2</v>
       </c>
+      <c r="W108">
+        <v>17</v>
+      </c>
       <c r="Y108">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Z108">
         <v>0</v>
@@ -6576,11 +6759,14 @@
         <v>6</v>
       </c>
       <c r="V109">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="W109">
+        <v>18</v>
       </c>
       <c r="Y109">
         <f t="shared" si="3"/>
-        <v>7.5</v>
+        <v>25.5</v>
       </c>
       <c r="Z109">
         <v>0</v>

--- a/OYM/_Documentos Comunes/POO_C32017.xlsx
+++ b/OYM/_Documentos Comunes/POO_C32017.xlsx
@@ -1226,7 +1226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
@@ -1252,6 +1252,20 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1267,14 +1281,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1284,30 +1298,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1330,17 +1320,29 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1726,8 +1728,8 @@
   <dimension ref="A1:Z113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W29" sqref="W29"/>
+      <pane ySplit="10" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U93" sqref="U93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1758,19 +1760,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
+      <c r="B1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1791,19 +1793,19 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
       <c r="N3" s="2"/>
       <c r="P3" t="s">
         <v>21</v>
@@ -1813,19 +1815,19 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
       <c r="N4" s="2"/>
       <c r="P4" t="s">
         <v>23</v>
@@ -1835,19 +1837,19 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
       <c r="N5" s="2"/>
       <c r="P5" t="s">
         <v>25</v>
@@ -1879,19 +1881,19 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
       <c r="N7" s="2"/>
       <c r="P7" s="6" t="s">
         <v>327</v>
@@ -1945,34 +1947,34 @@
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:26" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24" t="s">
+      <c r="B10" s="40"/>
+      <c r="C10" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="23" t="s">
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="23"/>
+      <c r="I10" s="40"/>
       <c r="J10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="23" t="s">
+      <c r="L10" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s">
         <v>8</v>
@@ -2009,35 +2011,35 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28">
-        <v>0</v>
-      </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="11" t="s">
+      <c r="A11" s="15">
+        <v>0</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11" t="s">
+      <c r="D11" s="18"/>
+      <c r="E11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="14">
+      <c r="F11" s="19"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="20">
         <v>10</v>
       </c>
-      <c r="I11" s="15"/>
+      <c r="I11" s="21"/>
       <c r="J11" s="5">
         <v>20</v>
       </c>
       <c r="K11" s="5">
         <v>20</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="20">
         <f>IF((Y11-50)&gt;50,50,IF((Y11-50)&lt;0,0,(Y11-50)))</f>
         <v>50</v>
       </c>
       <c r="M11" s="22"/>
-      <c r="N11" s="15"/>
+      <c r="N11" s="21"/>
       <c r="O11" s="2"/>
       <c r="P11">
         <v>20</v>
@@ -2075,29 +2077,29 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="19" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="19" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="14">
+      <c r="L12" s="20">
         <f t="shared" ref="L12:L75" si="0">IF((Y12-50)&gt;50,50,IF((Y12-50)&lt;0,0,(Y12-50)))</f>
         <v>0</v>
       </c>
       <c r="M12" s="22"/>
-      <c r="N12" s="15"/>
+      <c r="N12" s="21"/>
       <c r="O12" s="2"/>
       <c r="Q12">
         <v>0</v>
@@ -2117,29 +2119,29 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="19" t="s">
+      <c r="B13" s="24"/>
+      <c r="C13" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="19" t="s">
+      <c r="D13" s="26"/>
+      <c r="E13" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="21"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="14">
+      <c r="L13" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M13" s="22"/>
-      <c r="N13" s="15"/>
+      <c r="N13" s="21"/>
       <c r="O13" s="2"/>
       <c r="P13">
         <v>16</v>
@@ -2165,29 +2167,29 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="19" t="s">
+      <c r="B14" s="24"/>
+      <c r="C14" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="19" t="s">
+      <c r="D14" s="26"/>
+      <c r="E14" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="21"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="14">
+      <c r="L14" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M14" s="22"/>
-      <c r="N14" s="15"/>
+      <c r="N14" s="21"/>
       <c r="O14" s="2"/>
       <c r="P14">
         <v>15</v>
@@ -2210,29 +2212,29 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="19" t="s">
+      <c r="B15" s="24"/>
+      <c r="C15" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="19" t="s">
+      <c r="D15" s="26"/>
+      <c r="E15" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="21"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="14">
+      <c r="L15" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M15" s="22"/>
-      <c r="N15" s="15"/>
+      <c r="N15" s="21"/>
       <c r="O15" s="2"/>
       <c r="P15">
         <v>15</v>
@@ -2258,29 +2260,29 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="19" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="19" t="s">
+      <c r="D16" s="26"/>
+      <c r="E16" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="21"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="14">
+      <c r="L16" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M16" s="22"/>
-      <c r="N16" s="15"/>
+      <c r="N16" s="21"/>
       <c r="O16" s="2"/>
       <c r="Q16">
         <v>0</v>
@@ -2291,6 +2293,9 @@
       <c r="T16" s="10">
         <v>2</v>
       </c>
+      <c r="U16" s="42">
+        <v>14</v>
+      </c>
       <c r="V16">
         <v>2</v>
       </c>
@@ -2299,36 +2304,36 @@
       </c>
       <c r="Y16">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="Z16">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="19" t="s">
+      <c r="D17" s="26"/>
+      <c r="E17" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="21"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="14">
+      <c r="L17" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M17" s="22"/>
-      <c r="N17" s="15"/>
+      <c r="N17" s="21"/>
       <c r="O17" s="2"/>
       <c r="P17">
         <v>13</v>
@@ -2354,29 +2359,29 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="19" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="19" t="s">
+      <c r="D18" s="26"/>
+      <c r="E18" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="21"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="14">
+      <c r="L18" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M18" s="22"/>
-      <c r="N18" s="15"/>
+      <c r="N18" s="21"/>
       <c r="O18" s="2"/>
       <c r="P18">
         <v>14</v>
@@ -2402,29 +2407,29 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="19" t="s">
+      <c r="B19" s="24"/>
+      <c r="C19" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="19" t="s">
+      <c r="D19" s="26"/>
+      <c r="E19" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="21"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="14">
+      <c r="L19" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="M19" s="22"/>
-      <c r="N19" s="15"/>
+      <c r="N19" s="21"/>
       <c r="O19" s="2"/>
       <c r="P19">
         <v>14</v>
@@ -2435,6 +2440,9 @@
       <c r="T19" s="10">
         <v>8</v>
       </c>
+      <c r="U19" s="42">
+        <v>16</v>
+      </c>
       <c r="V19">
         <v>2</v>
       </c>
@@ -2443,36 +2451,36 @@
       </c>
       <c r="Y19">
         <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="19" t="s">
+      <c r="B20" s="24"/>
+      <c r="C20" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="19" t="s">
+      <c r="D20" s="26"/>
+      <c r="E20" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="21"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="14">
+      <c r="L20" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="M20" s="22"/>
-      <c r="N20" s="15"/>
+      <c r="N20" s="21"/>
       <c r="O20" s="2"/>
       <c r="P20">
         <v>16</v>
@@ -2486,6 +2494,9 @@
       <c r="T20" s="10">
         <v>6</v>
       </c>
+      <c r="U20" s="42">
+        <v>14</v>
+      </c>
       <c r="V20">
         <v>2</v>
       </c>
@@ -2494,36 +2505,36 @@
       </c>
       <c r="Y20">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="Z20">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="19" t="s">
+      <c r="B21" s="24"/>
+      <c r="C21" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="19" t="s">
+      <c r="D21" s="26"/>
+      <c r="E21" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="21"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="14">
+      <c r="L21" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M21" s="22"/>
-      <c r="N21" s="15"/>
+      <c r="N21" s="21"/>
       <c r="O21" s="2"/>
       <c r="P21">
         <v>14</v>
@@ -2549,29 +2560,29 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="19" t="s">
+      <c r="B22" s="24"/>
+      <c r="C22" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="19" t="s">
+      <c r="D22" s="26"/>
+      <c r="E22" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="21"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="14">
+      <c r="L22" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="M22" s="22"/>
-      <c r="N22" s="15"/>
+      <c r="N22" s="21"/>
       <c r="O22" s="2"/>
       <c r="P22">
         <v>18</v>
@@ -2582,6 +2593,9 @@
       <c r="T22" s="10">
         <v>10</v>
       </c>
+      <c r="U22" s="42">
+        <v>15</v>
+      </c>
       <c r="V22">
         <v>2</v>
       </c>
@@ -2590,36 +2604,36 @@
       </c>
       <c r="Y22">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="Z22">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="19" t="s">
+      <c r="B23" s="24"/>
+      <c r="C23" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="19" t="s">
+      <c r="D23" s="26"/>
+      <c r="E23" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="21"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="14">
+      <c r="L23" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M23" s="22"/>
-      <c r="N23" s="15"/>
+      <c r="N23" s="21"/>
       <c r="O23" s="2"/>
       <c r="Q23">
         <v>0</v>
@@ -2639,29 +2653,29 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="19" t="s">
+      <c r="B24" s="24"/>
+      <c r="C24" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="19" t="s">
+      <c r="D24" s="26"/>
+      <c r="E24" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="21"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="14">
+      <c r="L24" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M24" s="22"/>
-      <c r="N24" s="15"/>
+      <c r="N24" s="21"/>
       <c r="O24" s="2"/>
       <c r="Q24">
         <v>0</v>
@@ -2669,6 +2683,9 @@
       <c r="T24" s="10">
         <v>0</v>
       </c>
+      <c r="U24">
+        <v>15</v>
+      </c>
       <c r="V24">
         <v>2</v>
       </c>
@@ -2677,84 +2694,84 @@
       </c>
       <c r="Y24">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="Z24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:26" s="40" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="30" t="s">
+    <row r="25" spans="1:26" s="13" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="32" t="s">
+      <c r="D25" s="31"/>
+      <c r="E25" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="35">
+      <c r="F25" s="32"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M25" s="38"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="39"/>
-      <c r="Q25" s="40">
-        <v>0</v>
-      </c>
-      <c r="S25" s="40">
+      <c r="M25" s="35"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="12"/>
+      <c r="Q25" s="13">
+        <v>0</v>
+      </c>
+      <c r="S25" s="13">
         <v>7</v>
       </c>
-      <c r="T25" s="41">
+      <c r="T25" s="14">
         <v>7</v>
       </c>
-      <c r="V25" s="40">
-        <v>2</v>
-      </c>
-      <c r="W25" s="40">
+      <c r="V25" s="13">
+        <v>2</v>
+      </c>
+      <c r="W25" s="13">
         <v>20</v>
       </c>
-      <c r="Y25" s="40">
+      <c r="Y25" s="13">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="Z25" s="40">
+      <c r="Z25" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="19" t="s">
+      <c r="B26" s="24"/>
+      <c r="C26" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="19" t="s">
+      <c r="D26" s="26"/>
+      <c r="E26" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="15"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="21"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="14">
+      <c r="L26" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M26" s="22"/>
-      <c r="N26" s="15"/>
+      <c r="N26" s="21"/>
       <c r="O26" s="2"/>
       <c r="P26">
         <v>15</v>
@@ -2777,29 +2794,29 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="19" t="s">
+      <c r="B27" s="24"/>
+      <c r="C27" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="19" t="s">
+      <c r="D27" s="26"/>
+      <c r="E27" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="15"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="21"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="14">
+      <c r="L27" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M27" s="22"/>
-      <c r="N27" s="15"/>
+      <c r="N27" s="21"/>
       <c r="O27" s="2"/>
       <c r="P27">
         <v>14</v>
@@ -2828,29 +2845,29 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="19" t="s">
+      <c r="B28" s="24"/>
+      <c r="C28" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="19" t="s">
+      <c r="D28" s="26"/>
+      <c r="E28" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="21"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="14">
+      <c r="L28" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M28" s="22"/>
-      <c r="N28" s="15"/>
+      <c r="N28" s="21"/>
       <c r="O28" s="2"/>
       <c r="P28">
         <v>18</v>
@@ -2876,29 +2893,29 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="19" t="s">
+      <c r="B29" s="24"/>
+      <c r="C29" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="19" t="s">
+      <c r="D29" s="26"/>
+      <c r="E29" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="15"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="21"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="14">
+      <c r="L29" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="M29" s="22"/>
-      <c r="N29" s="15"/>
+      <c r="N29" s="21"/>
       <c r="O29" s="2"/>
       <c r="P29">
         <v>16</v>
@@ -2912,6 +2929,9 @@
       <c r="T29" s="10">
         <v>7</v>
       </c>
+      <c r="U29" s="42">
+        <v>15</v>
+      </c>
       <c r="V29">
         <v>2</v>
       </c>
@@ -2920,36 +2940,36 @@
       </c>
       <c r="Y29">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="Z29">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="19" t="s">
+      <c r="B30" s="24"/>
+      <c r="C30" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="19" t="s">
+      <c r="D30" s="26"/>
+      <c r="E30" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="15"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="21"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="14">
+      <c r="L30" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M30" s="22"/>
-      <c r="N30" s="15"/>
+      <c r="N30" s="21"/>
       <c r="O30" s="2"/>
       <c r="Q30">
         <v>0</v>
@@ -2969,29 +2989,29 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="19" t="s">
+      <c r="B31" s="24"/>
+      <c r="C31" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="19" t="s">
+      <c r="D31" s="26"/>
+      <c r="E31" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="21"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="14">
+      <c r="L31" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M31" s="22"/>
-      <c r="N31" s="15"/>
+      <c r="N31" s="21"/>
       <c r="O31" s="2"/>
       <c r="P31">
         <v>14</v>
@@ -3020,29 +3040,29 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="19" t="s">
+      <c r="B32" s="24"/>
+      <c r="C32" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="19" t="s">
+      <c r="D32" s="26"/>
+      <c r="E32" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="15"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="21"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="14">
+      <c r="L32" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M32" s="22"/>
-      <c r="N32" s="15"/>
+      <c r="N32" s="21"/>
       <c r="O32" s="2"/>
       <c r="Q32">
         <v>0</v>
@@ -3062,29 +3082,29 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="19" t="s">
+      <c r="B33" s="24"/>
+      <c r="C33" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="19" t="s">
+      <c r="D33" s="26"/>
+      <c r="E33" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="15"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="21"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="14">
+      <c r="L33" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M33" s="22"/>
-      <c r="N33" s="15"/>
+      <c r="N33" s="21"/>
       <c r="O33" s="2"/>
       <c r="P33">
         <v>18</v>
@@ -3110,29 +3130,29 @@
       </c>
     </row>
     <row r="34" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="19" t="s">
+      <c r="B34" s="24"/>
+      <c r="C34" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="19" t="s">
+      <c r="D34" s="26"/>
+      <c r="E34" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="15"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="21"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="14">
+      <c r="L34" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22.333333333333329</v>
       </c>
       <c r="M34" s="22"/>
-      <c r="N34" s="15"/>
+      <c r="N34" s="21"/>
       <c r="O34" s="2"/>
       <c r="P34">
         <v>15</v>
@@ -3149,6 +3169,9 @@
       <c r="T34" s="10">
         <v>7</v>
       </c>
+      <c r="U34" s="42">
+        <v>15</v>
+      </c>
       <c r="V34">
         <v>2</v>
       </c>
@@ -3157,36 +3180,36 @@
       </c>
       <c r="Y34">
         <f t="shared" si="1"/>
-        <v>42.333333333333329</v>
+        <v>72.333333333333329</v>
       </c>
       <c r="Z34">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="19" t="s">
+      <c r="B35" s="24"/>
+      <c r="C35" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="19" t="s">
+      <c r="D35" s="26"/>
+      <c r="E35" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="15"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="21"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="14">
+      <c r="L35" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M35" s="22"/>
-      <c r="N35" s="15"/>
+      <c r="N35" s="21"/>
       <c r="O35" s="2"/>
       <c r="P35">
         <v>17</v>
@@ -3212,29 +3235,29 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="19" t="s">
+      <c r="B36" s="24"/>
+      <c r="C36" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="19" t="s">
+      <c r="D36" s="26"/>
+      <c r="E36" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="15"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="21"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="14">
+      <c r="L36" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M36" s="22"/>
-      <c r="N36" s="15"/>
+      <c r="N36" s="21"/>
       <c r="O36" s="2"/>
       <c r="P36">
         <v>19</v>
@@ -3260,29 +3283,29 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="19" t="s">
+      <c r="B37" s="24"/>
+      <c r="C37" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="19" t="s">
+      <c r="D37" s="26"/>
+      <c r="E37" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="15"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="21"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="14">
+      <c r="L37" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M37" s="22"/>
-      <c r="N37" s="15"/>
+      <c r="N37" s="21"/>
       <c r="O37" s="2"/>
       <c r="P37">
         <v>15</v>
@@ -3308,29 +3331,29 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="19" t="s">
+      <c r="B38" s="24"/>
+      <c r="C38" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="19" t="s">
+      <c r="D38" s="26"/>
+      <c r="E38" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="15"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="21"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="14">
+      <c r="L38" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="M38" s="22"/>
-      <c r="N38" s="15"/>
+      <c r="N38" s="21"/>
       <c r="O38" s="2"/>
       <c r="P38">
         <v>16</v>
@@ -3344,6 +3367,9 @@
       <c r="T38" s="10">
         <v>7</v>
       </c>
+      <c r="U38" s="42">
+        <v>15</v>
+      </c>
       <c r="V38">
         <v>2</v>
       </c>
@@ -3352,36 +3378,36 @@
       </c>
       <c r="Y38">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="19" t="s">
+      <c r="B39" s="24"/>
+      <c r="C39" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="19" t="s">
+      <c r="D39" s="26"/>
+      <c r="E39" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="15"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="21"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="14">
+      <c r="L39" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M39" s="22"/>
-      <c r="N39" s="15"/>
+      <c r="N39" s="21"/>
       <c r="O39" s="2"/>
       <c r="Q39">
         <v>0</v>
@@ -3401,29 +3427,29 @@
       </c>
     </row>
     <row r="40" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="19" t="s">
+      <c r="B40" s="24"/>
+      <c r="C40" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="19" t="s">
+      <c r="D40" s="26"/>
+      <c r="E40" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="21"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="15"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="21"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
-      <c r="L40" s="14">
+      <c r="L40" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M40" s="22"/>
-      <c r="N40" s="15"/>
+      <c r="N40" s="21"/>
       <c r="O40" s="2"/>
       <c r="P40">
         <v>13</v>
@@ -3449,29 +3475,29 @@
       </c>
     </row>
     <row r="41" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="19" t="s">
+      <c r="B41" s="24"/>
+      <c r="C41" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="19" t="s">
+      <c r="D41" s="26"/>
+      <c r="E41" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="F41" s="21"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="15"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="21"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
-      <c r="L41" s="14">
+      <c r="L41" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M41" s="22"/>
-      <c r="N41" s="15"/>
+      <c r="N41" s="21"/>
       <c r="O41" s="2"/>
       <c r="Q41">
         <v>0</v>
@@ -3491,29 +3517,29 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="19" t="s">
+      <c r="B42" s="24"/>
+      <c r="C42" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="19" t="s">
+      <c r="D42" s="26"/>
+      <c r="E42" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="F42" s="21"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="15"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="21"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
-      <c r="L42" s="14">
+      <c r="L42" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M42" s="22"/>
-      <c r="N42" s="15"/>
+      <c r="N42" s="21"/>
       <c r="O42" s="2"/>
       <c r="Q42">
         <v>9</v>
@@ -3533,29 +3559,29 @@
       </c>
     </row>
     <row r="43" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="19" t="s">
+      <c r="B43" s="24"/>
+      <c r="C43" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="D43" s="20"/>
-      <c r="E43" s="19" t="s">
+      <c r="D43" s="26"/>
+      <c r="E43" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="F43" s="21"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="15"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="21"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
-      <c r="L43" s="14">
+      <c r="L43" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M43" s="22"/>
-      <c r="N43" s="15"/>
+      <c r="N43" s="21"/>
       <c r="O43" s="2"/>
       <c r="P43">
         <v>11</v>
@@ -3586,75 +3612,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="25" t="s">
+    <row r="44" spans="1:26" s="13" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="19" t="s">
+      <c r="B44" s="29"/>
+      <c r="C44" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="D44" s="20"/>
-      <c r="E44" s="19" t="s">
+      <c r="D44" s="31"/>
+      <c r="E44" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="F44" s="21"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="14">
+      <c r="F44" s="32"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M44" s="22"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="2"/>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <v>7</v>
-      </c>
-      <c r="T44" s="10">
-        <v>7</v>
-      </c>
-      <c r="V44">
-        <v>2</v>
-      </c>
-      <c r="Y44">
+        <v>21</v>
+      </c>
+      <c r="M44" s="35"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="13">
+        <v>20</v>
+      </c>
+      <c r="Q44" s="13">
+        <v>0</v>
+      </c>
+      <c r="S44" s="13">
+        <v>10</v>
+      </c>
+      <c r="T44" s="14">
+        <v>10</v>
+      </c>
+      <c r="U44" s="43">
+        <v>18</v>
+      </c>
+      <c r="V44" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y44" s="13">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="Z44">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="Z44" s="13">
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="19" t="s">
+      <c r="B45" s="24"/>
+      <c r="C45" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="D45" s="20"/>
-      <c r="E45" s="19" t="s">
+      <c r="D45" s="26"/>
+      <c r="E45" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="F45" s="21"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="15"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="21"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
-      <c r="L45" s="14">
+      <c r="L45" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M45" s="22"/>
-      <c r="N45" s="15"/>
+      <c r="N45" s="21"/>
       <c r="O45" s="2"/>
       <c r="P45">
         <v>14</v>
@@ -3677,29 +3709,29 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="19" t="s">
+      <c r="B46" s="24"/>
+      <c r="C46" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="D46" s="20"/>
-      <c r="E46" s="19" t="s">
+      <c r="D46" s="26"/>
+      <c r="E46" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="F46" s="21"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="15"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="21"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
-      <c r="L46" s="14">
+      <c r="L46" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M46" s="22"/>
-      <c r="N46" s="15"/>
+      <c r="N46" s="21"/>
       <c r="O46" s="2"/>
       <c r="P46">
         <v>13</v>
@@ -3725,29 +3757,29 @@
       </c>
     </row>
     <row r="47" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="19" t="s">
+      <c r="B47" s="24"/>
+      <c r="C47" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="D47" s="20"/>
-      <c r="E47" s="19" t="s">
+      <c r="D47" s="26"/>
+      <c r="E47" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="F47" s="21"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="15"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="21"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
-      <c r="L47" s="14">
+      <c r="L47" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M47" s="22"/>
-      <c r="N47" s="15"/>
+      <c r="N47" s="21"/>
       <c r="O47" s="2"/>
       <c r="P47">
         <v>20</v>
@@ -3773,29 +3805,29 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="26"/>
-      <c r="C48" s="19" t="s">
+      <c r="B48" s="24"/>
+      <c r="C48" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="D48" s="20"/>
-      <c r="E48" s="19" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="F48" s="21"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="15"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="21"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
-      <c r="L48" s="14">
+      <c r="L48" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M48" s="22"/>
-      <c r="N48" s="15"/>
+      <c r="N48" s="21"/>
       <c r="O48" s="2"/>
       <c r="P48">
         <v>14</v>
@@ -3824,29 +3856,29 @@
       </c>
     </row>
     <row r="49" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="19" t="s">
+      <c r="B49" s="24"/>
+      <c r="C49" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="D49" s="20"/>
-      <c r="E49" s="19" t="s">
+      <c r="D49" s="26"/>
+      <c r="E49" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="F49" s="21"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="15"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="21"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
-      <c r="L49" s="14">
+      <c r="L49" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M49" s="22"/>
-      <c r="N49" s="15"/>
+      <c r="N49" s="21"/>
       <c r="O49" s="2"/>
       <c r="P49">
         <v>16</v>
@@ -3869,29 +3901,29 @@
       </c>
     </row>
     <row r="50" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="19" t="s">
+      <c r="B50" s="24"/>
+      <c r="C50" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="D50" s="20"/>
-      <c r="E50" s="19" t="s">
+      <c r="D50" s="26"/>
+      <c r="E50" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="F50" s="21"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="15"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="21"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="14">
+      <c r="L50" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M50" s="22"/>
-      <c r="N50" s="15"/>
+      <c r="N50" s="21"/>
       <c r="O50" s="2"/>
       <c r="P50">
         <v>13</v>
@@ -3908,6 +3940,9 @@
       <c r="T50" s="10">
         <v>5</v>
       </c>
+      <c r="U50" s="42">
+        <v>15</v>
+      </c>
       <c r="V50">
         <v>2</v>
       </c>
@@ -3916,36 +3951,36 @@
       </c>
       <c r="Y50">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="Z50">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B51" s="26"/>
-      <c r="C51" s="19" t="s">
+      <c r="B51" s="24"/>
+      <c r="C51" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="D51" s="20"/>
-      <c r="E51" s="19" t="s">
+      <c r="D51" s="26"/>
+      <c r="E51" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="F51" s="21"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="15"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="21"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
-      <c r="L51" s="14">
+      <c r="L51" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M51" s="22"/>
-      <c r="N51" s="15"/>
+      <c r="N51" s="21"/>
       <c r="O51" s="2"/>
       <c r="Q51">
         <v>0</v>
@@ -3968,29 +4003,29 @@
       </c>
     </row>
     <row r="52" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="19" t="s">
+      <c r="B52" s="24"/>
+      <c r="C52" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="D52" s="20"/>
-      <c r="E52" s="19" t="s">
+      <c r="D52" s="26"/>
+      <c r="E52" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="F52" s="21"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="15"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="21"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
-      <c r="L52" s="14">
+      <c r="L52" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="M52" s="22"/>
-      <c r="N52" s="15"/>
+      <c r="N52" s="21"/>
       <c r="O52" s="2"/>
       <c r="P52">
         <v>13</v>
@@ -4004,6 +4039,9 @@
       <c r="T52" s="10">
         <v>5</v>
       </c>
+      <c r="U52" s="42">
+        <v>15</v>
+      </c>
       <c r="V52">
         <v>2</v>
       </c>
@@ -4012,36 +4050,36 @@
       </c>
       <c r="Y52">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="Z52">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="26"/>
-      <c r="C53" s="19" t="s">
+      <c r="B53" s="24"/>
+      <c r="C53" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="D53" s="20"/>
-      <c r="E53" s="19" t="s">
+      <c r="D53" s="26"/>
+      <c r="E53" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="F53" s="21"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="15"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="21"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
-      <c r="L53" s="14">
+      <c r="L53" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="M53" s="22"/>
-      <c r="N53" s="15"/>
+      <c r="N53" s="21"/>
       <c r="O53" s="2"/>
       <c r="P53">
         <v>17</v>
@@ -4058,6 +4096,9 @@
       <c r="T53" s="10">
         <v>6</v>
       </c>
+      <c r="U53" s="42">
+        <v>16</v>
+      </c>
       <c r="V53">
         <v>2</v>
       </c>
@@ -4066,36 +4107,36 @@
       </c>
       <c r="Y53">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="Z53">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B54" s="26"/>
-      <c r="C54" s="19" t="s">
+      <c r="B54" s="24"/>
+      <c r="C54" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="D54" s="20"/>
-      <c r="E54" s="19" t="s">
+      <c r="D54" s="26"/>
+      <c r="E54" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="F54" s="21"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="15"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="21"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="14">
+      <c r="L54" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M54" s="22"/>
-      <c r="N54" s="15"/>
+      <c r="N54" s="21"/>
       <c r="O54" s="2"/>
       <c r="Q54">
         <v>0</v>
@@ -4115,29 +4156,29 @@
       </c>
     </row>
     <row r="55" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B55" s="26"/>
-      <c r="C55" s="19" t="s">
+      <c r="B55" s="24"/>
+      <c r="C55" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="D55" s="20"/>
-      <c r="E55" s="19" t="s">
+      <c r="D55" s="26"/>
+      <c r="E55" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="F55" s="21"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="15"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="21"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="14">
+      <c r="L55" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M55" s="22"/>
-      <c r="N55" s="15"/>
+      <c r="N55" s="21"/>
       <c r="O55" s="2"/>
       <c r="Q55">
         <v>0</v>
@@ -4160,29 +4201,29 @@
       </c>
     </row>
     <row r="56" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B56" s="26"/>
-      <c r="C56" s="19" t="s">
+      <c r="B56" s="24"/>
+      <c r="C56" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="D56" s="20"/>
-      <c r="E56" s="19" t="s">
+      <c r="D56" s="26"/>
+      <c r="E56" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="F56" s="21"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="15"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="21"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="14">
+      <c r="L56" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M56" s="22"/>
-      <c r="N56" s="15"/>
+      <c r="N56" s="21"/>
       <c r="O56" s="2"/>
       <c r="Q56">
         <v>0</v>
@@ -4205,29 +4246,29 @@
       </c>
     </row>
     <row r="57" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B57" s="26"/>
-      <c r="C57" s="19" t="s">
+      <c r="B57" s="24"/>
+      <c r="C57" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="D57" s="20"/>
-      <c r="E57" s="19" t="s">
+      <c r="D57" s="26"/>
+      <c r="E57" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="F57" s="21"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="15"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="21"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="14">
+      <c r="L57" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M57" s="22"/>
-      <c r="N57" s="15"/>
+      <c r="N57" s="21"/>
       <c r="O57" s="2"/>
       <c r="Q57">
         <v>8</v>
@@ -4253,29 +4294,29 @@
       </c>
     </row>
     <row r="58" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B58" s="26"/>
-      <c r="C58" s="19" t="s">
+      <c r="B58" s="24"/>
+      <c r="C58" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="D58" s="20"/>
-      <c r="E58" s="19" t="s">
+      <c r="D58" s="26"/>
+      <c r="E58" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="F58" s="21"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="15"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="21"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="14">
+      <c r="L58" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M58" s="22"/>
-      <c r="N58" s="15"/>
+      <c r="N58" s="21"/>
       <c r="O58" s="2"/>
       <c r="P58">
         <v>14</v>
@@ -4301,29 +4342,29 @@
       </c>
     </row>
     <row r="59" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B59" s="26"/>
-      <c r="C59" s="19" t="s">
+      <c r="B59" s="24"/>
+      <c r="C59" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="D59" s="20"/>
-      <c r="E59" s="19" t="s">
+      <c r="D59" s="26"/>
+      <c r="E59" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="F59" s="21"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="15"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="21"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="14">
+      <c r="L59" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M59" s="22"/>
-      <c r="N59" s="15"/>
+      <c r="N59" s="21"/>
       <c r="O59" s="2"/>
       <c r="P59">
         <v>13</v>
@@ -4334,6 +4375,9 @@
       <c r="T59" s="10">
         <v>8</v>
       </c>
+      <c r="U59" s="42">
+        <v>14</v>
+      </c>
       <c r="V59">
         <v>2</v>
       </c>
@@ -4342,36 +4386,36 @@
       </c>
       <c r="Y59">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Z59">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B60" s="26"/>
-      <c r="C60" s="19" t="s">
+      <c r="B60" s="24"/>
+      <c r="C60" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="D60" s="20"/>
-      <c r="E60" s="19" t="s">
+      <c r="D60" s="26"/>
+      <c r="E60" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="F60" s="21"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="15"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="21"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="14">
+      <c r="L60" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M60" s="22"/>
-      <c r="N60" s="15"/>
+      <c r="N60" s="21"/>
       <c r="O60" s="2"/>
       <c r="P60">
         <v>13</v>
@@ -4388,6 +4432,9 @@
       <c r="T60" s="10">
         <v>7</v>
       </c>
+      <c r="U60" s="42">
+        <v>15</v>
+      </c>
       <c r="V60">
         <v>2</v>
       </c>
@@ -4396,36 +4443,36 @@
       </c>
       <c r="Y60">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="Z60">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B61" s="26"/>
-      <c r="C61" s="19" t="s">
+      <c r="B61" s="24"/>
+      <c r="C61" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="D61" s="20"/>
-      <c r="E61" s="19" t="s">
+      <c r="D61" s="26"/>
+      <c r="E61" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="F61" s="21"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="15"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="21"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="14">
+      <c r="L61" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M61" s="22"/>
-      <c r="N61" s="15"/>
+      <c r="N61" s="21"/>
       <c r="O61" s="2"/>
       <c r="P61">
         <v>14</v>
@@ -4451,29 +4498,29 @@
       </c>
     </row>
     <row r="62" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B62" s="26"/>
-      <c r="C62" s="19" t="s">
+      <c r="B62" s="24"/>
+      <c r="C62" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="D62" s="20"/>
-      <c r="E62" s="19" t="s">
+      <c r="D62" s="26"/>
+      <c r="E62" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="F62" s="21"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="15"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="21"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="14">
+      <c r="L62" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M62" s="22"/>
-      <c r="N62" s="15"/>
+      <c r="N62" s="21"/>
       <c r="O62" s="2"/>
       <c r="P62">
         <v>13</v>
@@ -4496,29 +4543,29 @@
       </c>
     </row>
     <row r="63" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B63" s="26"/>
-      <c r="C63" s="19" t="s">
+      <c r="B63" s="24"/>
+      <c r="C63" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="D63" s="20"/>
-      <c r="E63" s="19" t="s">
+      <c r="D63" s="26"/>
+      <c r="E63" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="F63" s="21"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="15"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="21"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="14">
+      <c r="L63" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M63" s="22"/>
-      <c r="N63" s="15"/>
+      <c r="N63" s="21"/>
       <c r="O63" s="2"/>
       <c r="Q63">
         <v>0</v>
@@ -4538,29 +4585,29 @@
       </c>
     </row>
     <row r="64" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="B64" s="26"/>
-      <c r="C64" s="19" t="s">
+      <c r="B64" s="24"/>
+      <c r="C64" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="D64" s="20"/>
-      <c r="E64" s="19" t="s">
+      <c r="D64" s="26"/>
+      <c r="E64" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="F64" s="21"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="15"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="21"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="14">
+      <c r="L64" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="M64" s="22"/>
-      <c r="N64" s="15"/>
+      <c r="N64" s="21"/>
       <c r="O64" s="2"/>
       <c r="P64">
         <v>18</v>
@@ -4577,6 +4624,9 @@
       <c r="T64" s="10">
         <v>6</v>
       </c>
+      <c r="U64" s="42">
+        <v>16</v>
+      </c>
       <c r="V64">
         <v>2</v>
       </c>
@@ -4585,36 +4635,36 @@
       </c>
       <c r="Y64">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="Z64">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="B65" s="26"/>
-      <c r="C65" s="19" t="s">
+      <c r="B65" s="24"/>
+      <c r="C65" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="D65" s="20"/>
-      <c r="E65" s="19" t="s">
+      <c r="D65" s="26"/>
+      <c r="E65" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="F65" s="21"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="15"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="21"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="14">
+      <c r="L65" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M65" s="22"/>
-      <c r="N65" s="15"/>
+      <c r="N65" s="21"/>
       <c r="O65" s="2"/>
       <c r="Q65">
         <v>0</v>
@@ -4634,29 +4684,29 @@
       </c>
     </row>
     <row r="66" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B66" s="26"/>
-      <c r="C66" s="19" t="s">
+      <c r="B66" s="24"/>
+      <c r="C66" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="D66" s="20"/>
-      <c r="E66" s="19" t="s">
+      <c r="D66" s="26"/>
+      <c r="E66" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="F66" s="21"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="15"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="21"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
-      <c r="L66" s="14">
+      <c r="L66" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M66" s="22"/>
-      <c r="N66" s="15"/>
+      <c r="N66" s="21"/>
       <c r="O66" s="2"/>
       <c r="P66">
         <v>13</v>
@@ -4679,29 +4729,29 @@
       </c>
     </row>
     <row r="67" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="26"/>
-      <c r="C67" s="19" t="s">
+      <c r="B67" s="24"/>
+      <c r="C67" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="D67" s="20"/>
-      <c r="E67" s="19" t="s">
+      <c r="D67" s="26"/>
+      <c r="E67" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="F67" s="21"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="15"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="21"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="14">
+      <c r="L67" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M67" s="22"/>
-      <c r="N67" s="15"/>
+      <c r="N67" s="21"/>
       <c r="O67" s="2"/>
       <c r="P67">
         <v>15</v>
@@ -4730,29 +4780,29 @@
       </c>
     </row>
     <row r="68" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="B68" s="26"/>
-      <c r="C68" s="19" t="s">
+      <c r="B68" s="24"/>
+      <c r="C68" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="D68" s="20"/>
-      <c r="E68" s="19" t="s">
+      <c r="D68" s="26"/>
+      <c r="E68" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="F68" s="21"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="15"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="21"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-      <c r="L68" s="14">
+      <c r="L68" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M68" s="22"/>
-      <c r="N68" s="15"/>
+      <c r="N68" s="21"/>
       <c r="O68" s="2"/>
       <c r="P68">
         <v>15</v>
@@ -4778,29 +4828,29 @@
       </c>
     </row>
     <row r="69" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="B69" s="26"/>
-      <c r="C69" s="19" t="s">
+      <c r="B69" s="24"/>
+      <c r="C69" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="D69" s="20"/>
-      <c r="E69" s="19" t="s">
+      <c r="D69" s="26"/>
+      <c r="E69" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="F69" s="21"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="15"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="21"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="14">
+      <c r="L69" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M69" s="22"/>
-      <c r="N69" s="15"/>
+      <c r="N69" s="21"/>
       <c r="O69" s="2"/>
       <c r="Q69">
         <v>10</v>
@@ -4820,29 +4870,29 @@
       </c>
     </row>
     <row r="70" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="25" t="s">
+      <c r="A70" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="B70" s="26"/>
-      <c r="C70" s="19" t="s">
+      <c r="B70" s="24"/>
+      <c r="C70" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="D70" s="20"/>
-      <c r="E70" s="19" t="s">
+      <c r="D70" s="26"/>
+      <c r="E70" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="F70" s="21"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="15"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="21"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
-      <c r="L70" s="14">
+      <c r="L70" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M70" s="22"/>
-      <c r="N70" s="15"/>
+      <c r="N70" s="21"/>
       <c r="O70" s="2"/>
       <c r="P70">
         <v>18</v>
@@ -4871,29 +4921,29 @@
       </c>
     </row>
     <row r="71" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B71" s="26"/>
-      <c r="C71" s="19" t="s">
+      <c r="B71" s="24"/>
+      <c r="C71" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="D71" s="20"/>
-      <c r="E71" s="19" t="s">
+      <c r="D71" s="26"/>
+      <c r="E71" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="F71" s="21"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="15"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="21"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
-      <c r="L71" s="14">
+      <c r="L71" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M71" s="22"/>
-      <c r="N71" s="15"/>
+      <c r="N71" s="21"/>
       <c r="O71" s="2"/>
       <c r="Q71">
         <v>0</v>
@@ -4904,6 +4954,9 @@
       <c r="T71" s="10">
         <v>2</v>
       </c>
+      <c r="U71" s="42">
+        <v>15</v>
+      </c>
       <c r="V71">
         <v>2</v>
       </c>
@@ -4912,36 +4965,36 @@
       </c>
       <c r="Y71">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="Z71">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="25" t="s">
+      <c r="A72" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="B72" s="26"/>
-      <c r="C72" s="19" t="s">
+      <c r="B72" s="24"/>
+      <c r="C72" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="D72" s="20"/>
-      <c r="E72" s="19" t="s">
+      <c r="D72" s="26"/>
+      <c r="E72" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="F72" s="21"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="15"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="21"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="L72" s="14">
+      <c r="L72" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M72" s="22"/>
-      <c r="N72" s="15"/>
+      <c r="N72" s="21"/>
       <c r="O72" s="2"/>
       <c r="P72">
         <v>15</v>
@@ -4955,6 +5008,9 @@
       <c r="T72" s="10">
         <v>2</v>
       </c>
+      <c r="U72" s="42">
+        <v>16</v>
+      </c>
       <c r="V72">
         <v>2</v>
       </c>
@@ -4963,36 +5019,36 @@
       </c>
       <c r="Y72">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="Z72">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="25" t="s">
+      <c r="A73" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="B73" s="26"/>
-      <c r="C73" s="19" t="s">
+      <c r="B73" s="24"/>
+      <c r="C73" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="D73" s="20"/>
-      <c r="E73" s="19" t="s">
+      <c r="D73" s="26"/>
+      <c r="E73" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="F73" s="21"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="15"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="21"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
-      <c r="L73" s="14">
+      <c r="L73" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M73" s="22"/>
-      <c r="N73" s="15"/>
+      <c r="N73" s="21"/>
       <c r="O73" s="2"/>
       <c r="P73">
         <v>13</v>
@@ -5009,6 +5065,9 @@
       <c r="T73" s="10">
         <v>6</v>
       </c>
+      <c r="U73" s="42">
+        <v>14</v>
+      </c>
       <c r="V73">
         <v>2</v>
       </c>
@@ -5017,36 +5076,36 @@
       </c>
       <c r="Y73">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Z73">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="25" t="s">
+      <c r="A74" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="B74" s="26"/>
-      <c r="C74" s="19" t="s">
+      <c r="B74" s="24"/>
+      <c r="C74" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="D74" s="20"/>
-      <c r="E74" s="19" t="s">
+      <c r="D74" s="26"/>
+      <c r="E74" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="F74" s="21"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="15"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="21"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
-      <c r="L74" s="14">
+      <c r="L74" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M74" s="22"/>
-      <c r="N74" s="15"/>
+      <c r="N74" s="21"/>
       <c r="O74" s="2"/>
       <c r="Q74">
         <v>0</v>
@@ -5072,29 +5131,29 @@
       </c>
     </row>
     <row r="75" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25" t="s">
+      <c r="A75" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="B75" s="26"/>
-      <c r="C75" s="19" t="s">
+      <c r="B75" s="24"/>
+      <c r="C75" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="D75" s="20"/>
-      <c r="E75" s="19" t="s">
+      <c r="D75" s="26"/>
+      <c r="E75" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="F75" s="21"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="15"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="21"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
-      <c r="L75" s="14">
+      <c r="L75" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M75" s="22"/>
-      <c r="N75" s="15"/>
+      <c r="N75" s="21"/>
       <c r="O75" s="2"/>
       <c r="P75">
         <v>14</v>
@@ -5108,6 +5167,9 @@
       <c r="T75" s="10">
         <v>2</v>
       </c>
+      <c r="U75" s="42">
+        <v>16</v>
+      </c>
       <c r="V75">
         <v>2</v>
       </c>
@@ -5116,36 +5178,36 @@
       </c>
       <c r="Y75">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="Z75">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="25" t="s">
+      <c r="A76" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="B76" s="26"/>
-      <c r="C76" s="19" t="s">
+      <c r="B76" s="24"/>
+      <c r="C76" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="D76" s="20"/>
-      <c r="E76" s="19" t="s">
+      <c r="D76" s="26"/>
+      <c r="E76" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="F76" s="21"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="15"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="21"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
-      <c r="L76" s="14">
+      <c r="L76" s="20">
         <f t="shared" ref="L76:L113" si="2">IF((Y76-50)&gt;50,50,IF((Y76-50)&lt;0,0,(Y76-50)))</f>
         <v>0</v>
       </c>
       <c r="M76" s="22"/>
-      <c r="N76" s="15"/>
+      <c r="N76" s="21"/>
       <c r="O76" s="2"/>
       <c r="Q76">
         <v>0</v>
@@ -5165,29 +5227,29 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="25" t="s">
+      <c r="A77" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="B77" s="26"/>
-      <c r="C77" s="19" t="s">
+      <c r="B77" s="24"/>
+      <c r="C77" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="D77" s="20"/>
-      <c r="E77" s="19" t="s">
+      <c r="D77" s="26"/>
+      <c r="E77" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="F77" s="21"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="15"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="20"/>
+      <c r="I77" s="21"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
-      <c r="L77" s="14">
+      <c r="L77" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M77" s="22"/>
-      <c r="N77" s="15"/>
+      <c r="N77" s="21"/>
       <c r="O77" s="2"/>
       <c r="P77">
         <v>19</v>
@@ -5213,29 +5275,29 @@
       </c>
     </row>
     <row r="78" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="25" t="s">
+      <c r="A78" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="B78" s="26"/>
-      <c r="C78" s="19" t="s">
+      <c r="B78" s="24"/>
+      <c r="C78" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="D78" s="20"/>
-      <c r="E78" s="19" t="s">
+      <c r="D78" s="26"/>
+      <c r="E78" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="F78" s="21"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="15"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="21"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
-      <c r="L78" s="14">
+      <c r="L78" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="M78" s="22"/>
-      <c r="N78" s="15"/>
+      <c r="N78" s="21"/>
       <c r="O78" s="2"/>
       <c r="P78">
         <v>16</v>
@@ -5249,6 +5311,9 @@
       <c r="T78" s="10">
         <v>10</v>
       </c>
+      <c r="U78" s="42">
+        <v>14</v>
+      </c>
       <c r="V78">
         <v>2</v>
       </c>
@@ -5257,36 +5322,36 @@
       </c>
       <c r="Y78">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="Z78">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="25" t="s">
+      <c r="A79" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="B79" s="26"/>
-      <c r="C79" s="19" t="s">
+      <c r="B79" s="24"/>
+      <c r="C79" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="D79" s="20"/>
-      <c r="E79" s="19" t="s">
+      <c r="D79" s="26"/>
+      <c r="E79" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="F79" s="21"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="15"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="21"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
-      <c r="L79" s="14">
+      <c r="L79" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M79" s="22"/>
-      <c r="N79" s="15"/>
+      <c r="N79" s="21"/>
       <c r="O79" s="2"/>
       <c r="Q79">
         <v>0</v>
@@ -5312,29 +5377,29 @@
       </c>
     </row>
     <row r="80" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="25" t="s">
+      <c r="A80" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="B80" s="26"/>
-      <c r="C80" s="19" t="s">
+      <c r="B80" s="24"/>
+      <c r="C80" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="D80" s="20"/>
-      <c r="E80" s="19" t="s">
+      <c r="D80" s="26"/>
+      <c r="E80" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="F80" s="21"/>
-      <c r="G80" s="20"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="15"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="21"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
-      <c r="L80" s="14">
+      <c r="L80" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M80" s="22"/>
-      <c r="N80" s="15"/>
+      <c r="N80" s="21"/>
       <c r="O80" s="2"/>
       <c r="P80">
         <v>16</v>
@@ -5360,29 +5425,29 @@
       </c>
     </row>
     <row r="81" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="25" t="s">
+      <c r="A81" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B81" s="26"/>
-      <c r="C81" s="19" t="s">
+      <c r="B81" s="24"/>
+      <c r="C81" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="D81" s="20"/>
-      <c r="E81" s="19" t="s">
+      <c r="D81" s="26"/>
+      <c r="E81" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="F81" s="21"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="15"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="21"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
-      <c r="L81" s="14">
+      <c r="L81" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M81" s="22"/>
-      <c r="N81" s="15"/>
+      <c r="N81" s="21"/>
       <c r="O81" s="2"/>
       <c r="P81">
         <v>16</v>
@@ -5411,29 +5476,29 @@
       </c>
     </row>
     <row r="82" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25" t="s">
+      <c r="A82" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="B82" s="26"/>
-      <c r="C82" s="19" t="s">
+      <c r="B82" s="24"/>
+      <c r="C82" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="D82" s="20"/>
-      <c r="E82" s="19" t="s">
+      <c r="D82" s="26"/>
+      <c r="E82" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="F82" s="21"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="15"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="21"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
-      <c r="L82" s="14">
+      <c r="L82" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M82" s="22"/>
-      <c r="N82" s="15"/>
+      <c r="N82" s="21"/>
       <c r="O82" s="2"/>
       <c r="Q82">
         <v>10</v>
@@ -5453,29 +5518,29 @@
       </c>
     </row>
     <row r="83" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="25" t="s">
+      <c r="A83" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="B83" s="26"/>
-      <c r="C83" s="19" t="s">
+      <c r="B83" s="24"/>
+      <c r="C83" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="D83" s="20"/>
-      <c r="E83" s="19" t="s">
+      <c r="D83" s="26"/>
+      <c r="E83" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="F83" s="21"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="15"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="21"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
-      <c r="L83" s="14">
+      <c r="L83" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17.75</v>
       </c>
       <c r="M83" s="22"/>
-      <c r="N83" s="15"/>
+      <c r="N83" s="21"/>
       <c r="O83" s="2"/>
       <c r="P83">
         <v>11</v>
@@ -5492,6 +5557,9 @@
       <c r="T83" s="10">
         <v>8</v>
       </c>
+      <c r="U83" s="42">
+        <v>15</v>
+      </c>
       <c r="V83">
         <v>2</v>
       </c>
@@ -5500,36 +5568,36 @@
       </c>
       <c r="Y83">
         <f t="shared" si="3"/>
-        <v>37.75</v>
+        <v>67.75</v>
       </c>
       <c r="Z83">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="25" t="s">
+      <c r="A84" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="B84" s="26"/>
-      <c r="C84" s="19" t="s">
+      <c r="B84" s="24"/>
+      <c r="C84" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="D84" s="20"/>
-      <c r="E84" s="19" t="s">
+      <c r="D84" s="26"/>
+      <c r="E84" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="F84" s="21"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="15"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="21"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
-      <c r="L84" s="14">
+      <c r="L84" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M84" s="22"/>
-      <c r="N84" s="15"/>
+      <c r="N84" s="21"/>
       <c r="O84" s="2"/>
       <c r="Q84">
         <v>0</v>
@@ -5540,6 +5608,9 @@
       <c r="T84" s="10">
         <v>5</v>
       </c>
+      <c r="U84" s="42">
+        <v>15</v>
+      </c>
       <c r="V84">
         <v>2</v>
       </c>
@@ -5548,36 +5619,36 @@
       </c>
       <c r="Y84">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="Z84">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="25" t="s">
+      <c r="A85" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="B85" s="26"/>
-      <c r="C85" s="19" t="s">
+      <c r="B85" s="24"/>
+      <c r="C85" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="D85" s="20"/>
-      <c r="E85" s="19" t="s">
+      <c r="D85" s="26"/>
+      <c r="E85" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="F85" s="21"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="15"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="21"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
-      <c r="L85" s="14">
+      <c r="L85" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M85" s="22"/>
-      <c r="N85" s="15"/>
+      <c r="N85" s="21"/>
       <c r="O85" s="2"/>
       <c r="P85">
         <v>13</v>
@@ -5591,6 +5662,9 @@
       <c r="T85" s="10">
         <v>7</v>
       </c>
+      <c r="U85" s="42">
+        <v>14</v>
+      </c>
       <c r="V85">
         <v>2</v>
       </c>
@@ -5599,36 +5673,36 @@
       </c>
       <c r="Y85">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="Z85">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="25" t="s">
+      <c r="A86" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="B86" s="26"/>
-      <c r="C86" s="19" t="s">
+      <c r="B86" s="24"/>
+      <c r="C86" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="D86" s="20"/>
-      <c r="E86" s="19" t="s">
+      <c r="D86" s="26"/>
+      <c r="E86" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="F86" s="21"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="15"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="21"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
-      <c r="L86" s="14">
+      <c r="L86" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M86" s="22"/>
-      <c r="N86" s="15"/>
+      <c r="N86" s="21"/>
       <c r="O86" s="2"/>
       <c r="P86">
         <v>16</v>
@@ -5654,29 +5728,29 @@
       </c>
     </row>
     <row r="87" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="25" t="s">
+      <c r="A87" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="B87" s="26"/>
-      <c r="C87" s="19" t="s">
+      <c r="B87" s="24"/>
+      <c r="C87" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="D87" s="20"/>
-      <c r="E87" s="19" t="s">
+      <c r="D87" s="26"/>
+      <c r="E87" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="F87" s="21"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="15"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="20"/>
+      <c r="I87" s="21"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
-      <c r="L87" s="14">
+      <c r="L87" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M87" s="22"/>
-      <c r="N87" s="15"/>
+      <c r="N87" s="21"/>
       <c r="O87" s="2"/>
       <c r="Q87">
         <v>0</v>
@@ -5696,29 +5770,29 @@
       </c>
     </row>
     <row r="88" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="25" t="s">
+      <c r="A88" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="B88" s="26"/>
-      <c r="C88" s="19" t="s">
+      <c r="B88" s="24"/>
+      <c r="C88" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="D88" s="20"/>
-      <c r="E88" s="19" t="s">
+      <c r="D88" s="26"/>
+      <c r="E88" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="F88" s="21"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="15"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="21"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
-      <c r="L88" s="14">
+      <c r="L88" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M88" s="22"/>
-      <c r="N88" s="15"/>
+      <c r="N88" s="21"/>
       <c r="O88" s="2"/>
       <c r="P88">
         <v>14</v>
@@ -5741,29 +5815,29 @@
       </c>
     </row>
     <row r="89" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="25" t="s">
+      <c r="A89" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="B89" s="26"/>
-      <c r="C89" s="19" t="s">
+      <c r="B89" s="24"/>
+      <c r="C89" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="D89" s="20"/>
-      <c r="E89" s="19" t="s">
+      <c r="D89" s="26"/>
+      <c r="E89" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="F89" s="21"/>
-      <c r="G89" s="20"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="15"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="20"/>
+      <c r="I89" s="21"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
-      <c r="L89" s="14">
+      <c r="L89" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M89" s="22"/>
-      <c r="N89" s="15"/>
+      <c r="N89" s="21"/>
       <c r="O89" s="2"/>
       <c r="P89">
         <v>13</v>
@@ -5786,29 +5860,29 @@
       </c>
     </row>
     <row r="90" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="25" t="s">
+      <c r="A90" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="B90" s="26"/>
-      <c r="C90" s="19" t="s">
+      <c r="B90" s="24"/>
+      <c r="C90" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="D90" s="20"/>
-      <c r="E90" s="19" t="s">
+      <c r="D90" s="26"/>
+      <c r="E90" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="F90" s="21"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="15"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="21"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
-      <c r="L90" s="14">
+      <c r="L90" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M90" s="22"/>
-      <c r="N90" s="15"/>
+      <c r="N90" s="21"/>
       <c r="O90" s="2"/>
       <c r="P90">
         <v>14</v>
@@ -5831,29 +5905,29 @@
       </c>
     </row>
     <row r="91" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="25" t="s">
+      <c r="A91" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="B91" s="26"/>
-      <c r="C91" s="19" t="s">
+      <c r="B91" s="24"/>
+      <c r="C91" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="D91" s="20"/>
-      <c r="E91" s="19" t="s">
+      <c r="D91" s="26"/>
+      <c r="E91" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="F91" s="21"/>
-      <c r="G91" s="20"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="15"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="21"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
-      <c r="L91" s="14">
+      <c r="L91" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17.666666666666671</v>
       </c>
       <c r="M91" s="22"/>
-      <c r="N91" s="15"/>
+      <c r="N91" s="21"/>
       <c r="O91" s="2"/>
       <c r="P91">
         <v>13</v>
@@ -5870,6 +5944,9 @@
       <c r="T91" s="10">
         <v>6</v>
       </c>
+      <c r="U91" s="42">
+        <v>14</v>
+      </c>
       <c r="V91">
         <v>2</v>
       </c>
@@ -5878,36 +5955,36 @@
       </c>
       <c r="Y91">
         <f t="shared" si="3"/>
-        <v>39.666666666666671</v>
+        <v>67.666666666666671</v>
       </c>
       <c r="Z91">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="25" t="s">
+      <c r="A92" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="B92" s="26"/>
-      <c r="C92" s="19" t="s">
+      <c r="B92" s="24"/>
+      <c r="C92" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="D92" s="20"/>
-      <c r="E92" s="19" t="s">
+      <c r="D92" s="26"/>
+      <c r="E92" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="F92" s="21"/>
-      <c r="G92" s="20"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="15"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="20"/>
+      <c r="I92" s="21"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
-      <c r="L92" s="14">
+      <c r="L92" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M92" s="22"/>
-      <c r="N92" s="15"/>
+      <c r="N92" s="21"/>
       <c r="O92" s="2"/>
       <c r="P92">
         <v>14</v>
@@ -5936,29 +6013,29 @@
       </c>
     </row>
     <row r="93" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="25" t="s">
+      <c r="A93" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="B93" s="26"/>
-      <c r="C93" s="19" t="s">
+      <c r="B93" s="24"/>
+      <c r="C93" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="D93" s="20"/>
-      <c r="E93" s="19" t="s">
+      <c r="D93" s="26"/>
+      <c r="E93" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="F93" s="21"/>
-      <c r="G93" s="20"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="15"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="20"/>
+      <c r="I93" s="21"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
-      <c r="L93" s="14">
+      <c r="L93" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M93" s="22"/>
-      <c r="N93" s="15"/>
+      <c r="N93" s="21"/>
       <c r="O93" s="2"/>
       <c r="P93">
         <v>13</v>
@@ -5987,29 +6064,29 @@
       </c>
     </row>
     <row r="94" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="25" t="s">
+      <c r="A94" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="B94" s="26"/>
-      <c r="C94" s="19" t="s">
+      <c r="B94" s="24"/>
+      <c r="C94" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="D94" s="20"/>
-      <c r="E94" s="19" t="s">
+      <c r="D94" s="26"/>
+      <c r="E94" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="F94" s="21"/>
-      <c r="G94" s="20"/>
-      <c r="H94" s="14"/>
-      <c r="I94" s="15"/>
+      <c r="F94" s="27"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="20"/>
+      <c r="I94" s="21"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
-      <c r="L94" s="14">
+      <c r="L94" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M94" s="22"/>
-      <c r="N94" s="15"/>
+      <c r="N94" s="21"/>
       <c r="O94" s="2"/>
       <c r="P94">
         <v>13</v>
@@ -6035,29 +6112,29 @@
       </c>
     </row>
     <row r="95" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="25" t="s">
+      <c r="A95" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="B95" s="26"/>
-      <c r="C95" s="19" t="s">
+      <c r="B95" s="24"/>
+      <c r="C95" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="D95" s="20"/>
-      <c r="E95" s="19" t="s">
+      <c r="D95" s="26"/>
+      <c r="E95" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="F95" s="21"/>
-      <c r="G95" s="20"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="15"/>
+      <c r="F95" s="27"/>
+      <c r="G95" s="26"/>
+      <c r="H95" s="20"/>
+      <c r="I95" s="21"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
-      <c r="L95" s="14">
+      <c r="L95" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M95" s="22"/>
-      <c r="N95" s="15"/>
+      <c r="N95" s="21"/>
       <c r="O95" s="2"/>
       <c r="P95">
         <v>14</v>
@@ -6080,29 +6157,29 @@
       </c>
     </row>
     <row r="96" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="25" t="s">
+      <c r="A96" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="B96" s="26"/>
-      <c r="C96" s="19" t="s">
+      <c r="B96" s="24"/>
+      <c r="C96" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="D96" s="20"/>
-      <c r="E96" s="19" t="s">
+      <c r="D96" s="26"/>
+      <c r="E96" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="F96" s="21"/>
-      <c r="G96" s="20"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="15"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="26"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="21"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
-      <c r="L96" s="14">
+      <c r="L96" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M96" s="22"/>
-      <c r="N96" s="15"/>
+      <c r="N96" s="21"/>
       <c r="O96" s="2"/>
       <c r="Q96">
         <v>9</v>
@@ -6125,29 +6202,29 @@
       </c>
     </row>
     <row r="97" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="25" t="s">
+      <c r="A97" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="B97" s="26"/>
-      <c r="C97" s="19" t="s">
+      <c r="B97" s="24"/>
+      <c r="C97" s="25" t="s">
         <v>289</v>
       </c>
-      <c r="D97" s="20"/>
-      <c r="E97" s="19" t="s">
+      <c r="D97" s="26"/>
+      <c r="E97" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="F97" s="21"/>
-      <c r="G97" s="20"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="15"/>
+      <c r="F97" s="27"/>
+      <c r="G97" s="26"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="21"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
-      <c r="L97" s="14">
+      <c r="L97" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M97" s="22"/>
-      <c r="N97" s="15"/>
+      <c r="N97" s="21"/>
       <c r="O97" s="2"/>
       <c r="P97">
         <v>18</v>
@@ -6170,29 +6247,29 @@
       </c>
     </row>
     <row r="98" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="25" t="s">
+      <c r="A98" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="B98" s="26"/>
-      <c r="C98" s="19" t="s">
+      <c r="B98" s="24"/>
+      <c r="C98" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="D98" s="20"/>
-      <c r="E98" s="19" t="s">
+      <c r="D98" s="26"/>
+      <c r="E98" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="F98" s="21"/>
-      <c r="G98" s="20"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="15"/>
+      <c r="F98" s="27"/>
+      <c r="G98" s="26"/>
+      <c r="H98" s="20"/>
+      <c r="I98" s="21"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
-      <c r="L98" s="14">
+      <c r="L98" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="M98" s="22"/>
-      <c r="N98" s="15"/>
+      <c r="N98" s="21"/>
       <c r="O98" s="2"/>
       <c r="P98">
         <v>16</v>
@@ -6209,6 +6286,9 @@
       <c r="T98" s="10">
         <v>8</v>
       </c>
+      <c r="U98" s="42">
+        <v>15</v>
+      </c>
       <c r="V98">
         <v>2</v>
       </c>
@@ -6217,36 +6297,36 @@
       </c>
       <c r="Y98">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="Z98">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="25" t="s">
+      <c r="A99" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="B99" s="26"/>
-      <c r="C99" s="19" t="s">
+      <c r="B99" s="24"/>
+      <c r="C99" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="D99" s="20"/>
-      <c r="E99" s="19" t="s">
+      <c r="D99" s="26"/>
+      <c r="E99" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="F99" s="21"/>
-      <c r="G99" s="20"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="15"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="26"/>
+      <c r="H99" s="20"/>
+      <c r="I99" s="21"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
-      <c r="L99" s="14">
+      <c r="L99" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>23.75</v>
       </c>
       <c r="M99" s="22"/>
-      <c r="N99" s="15"/>
+      <c r="N99" s="21"/>
       <c r="O99" s="2"/>
       <c r="P99">
         <v>16</v>
@@ -6263,6 +6343,9 @@
       <c r="T99" s="10">
         <v>8</v>
       </c>
+      <c r="U99" s="42">
+        <v>15</v>
+      </c>
       <c r="V99">
         <v>2</v>
       </c>
@@ -6271,36 +6354,36 @@
       </c>
       <c r="Y99">
         <f t="shared" si="3"/>
-        <v>43.75</v>
+        <v>73.75</v>
       </c>
       <c r="Z99">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="25" t="s">
+      <c r="A100" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="B100" s="26"/>
-      <c r="C100" s="19" t="s">
+      <c r="B100" s="24"/>
+      <c r="C100" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="D100" s="20"/>
-      <c r="E100" s="19" t="s">
+      <c r="D100" s="26"/>
+      <c r="E100" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="F100" s="21"/>
-      <c r="G100" s="20"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="15"/>
+      <c r="F100" s="27"/>
+      <c r="G100" s="26"/>
+      <c r="H100" s="20"/>
+      <c r="I100" s="21"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
-      <c r="L100" s="14">
+      <c r="L100" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M100" s="22"/>
-      <c r="N100" s="15"/>
+      <c r="N100" s="21"/>
       <c r="O100" s="2"/>
       <c r="P100">
         <v>13</v>
@@ -6314,6 +6397,9 @@
       <c r="T100" s="10">
         <v>2</v>
       </c>
+      <c r="U100" s="42">
+        <v>15</v>
+      </c>
       <c r="V100">
         <v>2</v>
       </c>
@@ -6322,36 +6408,36 @@
       </c>
       <c r="Y100">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="Z100">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="25" t="s">
+      <c r="A101" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="B101" s="26"/>
-      <c r="C101" s="19" t="s">
+      <c r="B101" s="24"/>
+      <c r="C101" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="D101" s="20"/>
-      <c r="E101" s="19" t="s">
+      <c r="D101" s="26"/>
+      <c r="E101" s="25" t="s">
         <v>302</v>
       </c>
-      <c r="F101" s="21"/>
-      <c r="G101" s="20"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="15"/>
+      <c r="F101" s="27"/>
+      <c r="G101" s="26"/>
+      <c r="H101" s="20"/>
+      <c r="I101" s="21"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
-      <c r="L101" s="14">
+      <c r="L101" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M101" s="22"/>
-      <c r="N101" s="15"/>
+      <c r="N101" s="21"/>
       <c r="O101" s="2"/>
       <c r="Q101">
         <v>9</v>
@@ -6377,29 +6463,29 @@
       </c>
     </row>
     <row r="102" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="25" t="s">
+      <c r="A102" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="B102" s="26"/>
-      <c r="C102" s="19" t="s">
+      <c r="B102" s="24"/>
+      <c r="C102" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="D102" s="20"/>
-      <c r="E102" s="19" t="s">
+      <c r="D102" s="26"/>
+      <c r="E102" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="F102" s="21"/>
-      <c r="G102" s="20"/>
-      <c r="H102" s="14"/>
-      <c r="I102" s="15"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="26"/>
+      <c r="H102" s="20"/>
+      <c r="I102" s="21"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
-      <c r="L102" s="14">
+      <c r="L102" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M102" s="22"/>
-      <c r="N102" s="15"/>
+      <c r="N102" s="21"/>
       <c r="O102" s="2"/>
       <c r="P102">
         <v>16</v>
@@ -6416,6 +6502,9 @@
       <c r="T102" s="10">
         <v>6</v>
       </c>
+      <c r="U102" s="42">
+        <v>15</v>
+      </c>
       <c r="V102">
         <v>2</v>
       </c>
@@ -6424,36 +6513,36 @@
       </c>
       <c r="Y102">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="Z102">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="25" t="s">
+      <c r="A103" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="B103" s="26"/>
-      <c r="C103" s="19" t="s">
+      <c r="B103" s="24"/>
+      <c r="C103" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="D103" s="20"/>
-      <c r="E103" s="19" t="s">
+      <c r="D103" s="26"/>
+      <c r="E103" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="F103" s="21"/>
-      <c r="G103" s="20"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="15"/>
+      <c r="F103" s="27"/>
+      <c r="G103" s="26"/>
+      <c r="H103" s="20"/>
+      <c r="I103" s="21"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
-      <c r="L103" s="14">
+      <c r="L103" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="M103" s="22"/>
-      <c r="N103" s="15"/>
+      <c r="N103" s="21"/>
       <c r="O103" s="2"/>
       <c r="P103">
         <v>18</v>
@@ -6464,6 +6553,9 @@
       <c r="T103" s="10">
         <v>8</v>
       </c>
+      <c r="U103" s="42">
+        <v>15</v>
+      </c>
       <c r="V103">
         <v>2</v>
       </c>
@@ -6472,36 +6564,36 @@
       </c>
       <c r="Y103">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="Z103">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="25" t="s">
+      <c r="A104" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="B104" s="26"/>
-      <c r="C104" s="19" t="s">
+      <c r="B104" s="24"/>
+      <c r="C104" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="D104" s="20"/>
-      <c r="E104" s="19" t="s">
+      <c r="D104" s="26"/>
+      <c r="E104" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="F104" s="21"/>
-      <c r="G104" s="20"/>
-      <c r="H104" s="14"/>
-      <c r="I104" s="15"/>
+      <c r="F104" s="27"/>
+      <c r="G104" s="26"/>
+      <c r="H104" s="20"/>
+      <c r="I104" s="21"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
-      <c r="L104" s="14">
+      <c r="L104" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>18.333333333333343</v>
       </c>
       <c r="M104" s="22"/>
-      <c r="N104" s="15"/>
+      <c r="N104" s="21"/>
       <c r="O104" s="2"/>
       <c r="P104">
         <v>11</v>
@@ -6518,6 +6610,9 @@
       <c r="T104" s="10">
         <v>7</v>
       </c>
+      <c r="U104" s="42">
+        <v>15</v>
+      </c>
       <c r="V104">
         <v>2</v>
       </c>
@@ -6526,36 +6621,36 @@
       </c>
       <c r="Y104">
         <f t="shared" si="3"/>
-        <v>38.333333333333336</v>
+        <v>68.333333333333343</v>
       </c>
       <c r="Z104">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="25" t="s">
+      <c r="A105" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="B105" s="26"/>
-      <c r="C105" s="19" t="s">
+      <c r="B105" s="24"/>
+      <c r="C105" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="D105" s="20"/>
-      <c r="E105" s="19" t="s">
+      <c r="D105" s="26"/>
+      <c r="E105" s="25" t="s">
         <v>314</v>
       </c>
-      <c r="F105" s="21"/>
-      <c r="G105" s="20"/>
-      <c r="H105" s="14"/>
-      <c r="I105" s="15"/>
+      <c r="F105" s="27"/>
+      <c r="G105" s="26"/>
+      <c r="H105" s="20"/>
+      <c r="I105" s="21"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
-      <c r="L105" s="14">
+      <c r="L105" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M105" s="22"/>
-      <c r="N105" s="15"/>
+      <c r="N105" s="21"/>
       <c r="O105" s="2"/>
       <c r="Q105">
         <v>0</v>
@@ -6578,29 +6673,29 @@
       </c>
     </row>
     <row r="106" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="25" t="s">
+      <c r="A106" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="B106" s="26"/>
-      <c r="C106" s="19" t="s">
+      <c r="B106" s="24"/>
+      <c r="C106" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="D106" s="20"/>
-      <c r="E106" s="19" t="s">
+      <c r="D106" s="26"/>
+      <c r="E106" s="25" t="s">
         <v>317</v>
       </c>
-      <c r="F106" s="21"/>
-      <c r="G106" s="20"/>
-      <c r="H106" s="14"/>
-      <c r="I106" s="15"/>
+      <c r="F106" s="27"/>
+      <c r="G106" s="26"/>
+      <c r="H106" s="20"/>
+      <c r="I106" s="21"/>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
-      <c r="L106" s="14">
+      <c r="L106" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="M106" s="22"/>
-      <c r="N106" s="15"/>
+      <c r="N106" s="21"/>
       <c r="O106" s="2"/>
       <c r="P106">
         <v>16</v>
@@ -6614,6 +6709,9 @@
       <c r="T106" s="10">
         <v>9</v>
       </c>
+      <c r="U106" s="42">
+        <v>15</v>
+      </c>
       <c r="V106">
         <v>2</v>
       </c>
@@ -6622,36 +6720,36 @@
       </c>
       <c r="Y106">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="Z106">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="25" t="s">
+      <c r="A107" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="B107" s="26"/>
-      <c r="C107" s="19" t="s">
+      <c r="B107" s="24"/>
+      <c r="C107" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="D107" s="20"/>
-      <c r="E107" s="19" t="s">
+      <c r="D107" s="26"/>
+      <c r="E107" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="F107" s="21"/>
-      <c r="G107" s="20"/>
-      <c r="H107" s="14"/>
-      <c r="I107" s="15"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="26"/>
+      <c r="H107" s="20"/>
+      <c r="I107" s="21"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
-      <c r="L107" s="14">
+      <c r="L107" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M107" s="22"/>
-      <c r="N107" s="15"/>
+      <c r="N107" s="21"/>
       <c r="O107" s="2"/>
       <c r="P107">
         <v>18</v>
@@ -6677,29 +6775,29 @@
       </c>
     </row>
     <row r="108" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="25" t="s">
+      <c r="A108" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="B108" s="26"/>
-      <c r="C108" s="19" t="s">
+      <c r="B108" s="24"/>
+      <c r="C108" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="D108" s="20"/>
-      <c r="E108" s="19" t="s">
+      <c r="D108" s="26"/>
+      <c r="E108" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="F108" s="21"/>
-      <c r="G108" s="20"/>
-      <c r="H108" s="14"/>
-      <c r="I108" s="15"/>
+      <c r="F108" s="27"/>
+      <c r="G108" s="26"/>
+      <c r="H108" s="20"/>
+      <c r="I108" s="21"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
-      <c r="L108" s="14">
+      <c r="L108" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M108" s="22"/>
-      <c r="N108" s="15"/>
+      <c r="N108" s="21"/>
       <c r="O108" s="2"/>
       <c r="P108">
         <v>13</v>
@@ -6710,6 +6808,9 @@
       <c r="T108" s="10">
         <v>6</v>
       </c>
+      <c r="U108" s="42">
+        <v>15</v>
+      </c>
       <c r="V108">
         <v>2</v>
       </c>
@@ -6718,36 +6819,36 @@
       </c>
       <c r="Y108">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="Z108">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="25" t="s">
+      <c r="A109" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="B109" s="26"/>
-      <c r="C109" s="19" t="s">
+      <c r="B109" s="24"/>
+      <c r="C109" s="25" t="s">
         <v>325</v>
       </c>
-      <c r="D109" s="20"/>
-      <c r="E109" s="19" t="s">
+      <c r="D109" s="26"/>
+      <c r="E109" s="25" t="s">
         <v>326</v>
       </c>
-      <c r="F109" s="21"/>
-      <c r="G109" s="20"/>
-      <c r="H109" s="14"/>
-      <c r="I109" s="15"/>
+      <c r="F109" s="27"/>
+      <c r="G109" s="26"/>
+      <c r="H109" s="20"/>
+      <c r="I109" s="21"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
-      <c r="L109" s="14">
+      <c r="L109" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="M109" s="22"/>
-      <c r="N109" s="15"/>
+      <c r="N109" s="21"/>
       <c r="O109" s="2"/>
       <c r="Q109">
         <v>7</v>
@@ -6758,6 +6859,9 @@
       <c r="T109" s="10">
         <v>6</v>
       </c>
+      <c r="U109" s="42">
+        <v>15</v>
+      </c>
       <c r="V109">
         <v>2</v>
       </c>
@@ -6766,30 +6870,30 @@
       </c>
       <c r="Y109">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>55.5</v>
       </c>
       <c r="Z109">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="28"/>
-      <c r="B110" s="29"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="12"/>
-      <c r="H110" s="14"/>
-      <c r="I110" s="15"/>
+      <c r="A110" s="15"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="19"/>
+      <c r="G110" s="18"/>
+      <c r="H110" s="20"/>
+      <c r="I110" s="21"/>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
-      <c r="L110" s="14">
+      <c r="L110" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M110" s="22"/>
-      <c r="N110" s="15"/>
+      <c r="N110" s="21"/>
       <c r="O110" s="2"/>
       <c r="Q110">
         <v>0</v>
@@ -6809,23 +6913,23 @@
       </c>
     </row>
     <row r="111" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="28"/>
-      <c r="B111" s="29"/>
-      <c r="C111" s="11"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="13"/>
-      <c r="G111" s="12"/>
-      <c r="H111" s="14"/>
-      <c r="I111" s="15"/>
+      <c r="A111" s="15"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="19"/>
+      <c r="G111" s="18"/>
+      <c r="H111" s="20"/>
+      <c r="I111" s="21"/>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
-      <c r="L111" s="14">
+      <c r="L111" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M111" s="22"/>
-      <c r="N111" s="15"/>
+      <c r="N111" s="21"/>
       <c r="O111" s="2"/>
       <c r="Q111">
         <v>0</v>
@@ -6845,23 +6949,23 @@
       </c>
     </row>
     <row r="112" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="28"/>
-      <c r="B112" s="29"/>
-      <c r="C112" s="11"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="12"/>
-      <c r="H112" s="14"/>
-      <c r="I112" s="15"/>
+      <c r="A112" s="15"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="19"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="20"/>
+      <c r="I112" s="21"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
-      <c r="L112" s="14">
+      <c r="L112" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M112" s="22"/>
-      <c r="N112" s="15"/>
+      <c r="N112" s="21"/>
       <c r="O112" s="2"/>
       <c r="Q112">
         <v>0</v>
@@ -6881,23 +6985,23 @@
       </c>
     </row>
     <row r="113" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="28"/>
-      <c r="B113" s="29"/>
-      <c r="C113" s="11"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="11"/>
-      <c r="F113" s="13"/>
-      <c r="G113" s="12"/>
-      <c r="H113" s="14"/>
-      <c r="I113" s="15"/>
+      <c r="A113" s="15"/>
+      <c r="B113" s="16"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="19"/>
+      <c r="G113" s="18"/>
+      <c r="H113" s="20"/>
+      <c r="I113" s="21"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
-      <c r="L113" s="14">
+      <c r="L113" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M113" s="22"/>
-      <c r="N113" s="15"/>
+      <c r="N113" s="21"/>
       <c r="O113" s="2"/>
       <c r="Q113">
         <v>0</v>
@@ -6927,65 +7031,460 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="537">
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="E112:G112"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="L112:N112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="E113:G113"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="L113:N113"/>
-    <mergeCell ref="L108:N108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="L109:N109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="E110:G110"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="L110:N110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="E111:G111"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="L111:N111"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="E109:G109"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="L103:N103"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="L104:N104"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="L105:N105"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="L106:N106"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="L107:N107"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="E105:G105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="E106:G106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="E107:G107"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="E104:G104"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="L61:N61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="L64:N64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="L65:N65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="L66:N66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="L67:N67"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="L72:N72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="L73:N73"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="L71:N71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="L68:N68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="L69:N69"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="L77:N77"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="L75:N75"/>
+    <mergeCell ref="L74:N74"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="L78:N78"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="L76:N76"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="L79:N79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="L80:N80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="L81:N81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="L83:N83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="L84:N84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="L85:N85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="L86:N86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="L87:N87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="L88:N88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="L89:N89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="L90:N90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="L94:N94"/>
     <mergeCell ref="L102:N102"/>
     <mergeCell ref="A96:B96"/>
     <mergeCell ref="C96:D96"/>
@@ -7010,460 +7509,65 @@
     <mergeCell ref="A99:B99"/>
     <mergeCell ref="C99:D99"/>
     <mergeCell ref="E99:G99"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="L93:N93"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="L94:N94"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="L91:N91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="L92:N92"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="L89:N89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="L90:N90"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="L87:N87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="L88:N88"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="L85:N85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="L86:N86"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="L83:N83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="L84:N84"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="L81:N81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="L82:N82"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="L79:N79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="L80:N80"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="L78:N78"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="L76:N76"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="L77:N77"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="L75:N75"/>
-    <mergeCell ref="L74:N74"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="L68:N68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="L69:N69"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="L72:N72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="L73:N73"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="L70:N70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="L71:N71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="L66:N66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="L67:N67"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="L64:N64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="L65:N65"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="L61:N61"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="L47:N47"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="E104:G104"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E105:G105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="E106:G106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="E107:G107"/>
+    <mergeCell ref="L103:N103"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="L104:N104"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="L105:N105"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="L106:N106"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="L107:N107"/>
+    <mergeCell ref="L108:N108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="L109:N109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="E110:G110"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="L110:N110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="E111:G111"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="L111:N111"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="E109:G109"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="L112:N112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="E113:G113"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="L113:N113"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/OYM/_Documentos Comunes/POO_C32017.xlsx
+++ b/OYM/_Documentos Comunes/POO_C32017.xlsx
@@ -1260,12 +1260,8 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1281,14 +1277,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1298,6 +1294,30 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1323,26 +1343,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1727,9 +1727,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U93" sqref="U93"/>
+      <selection pane="bottomLeft" activeCell="X95" sqref="X95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1760,19 +1760,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
+      <c r="B1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1793,19 +1793,19 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
       <c r="N3" s="2"/>
       <c r="P3" t="s">
         <v>21</v>
@@ -1815,19 +1815,19 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
       <c r="N4" s="2"/>
       <c r="P4" t="s">
         <v>23</v>
@@ -1837,19 +1837,19 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
       <c r="N5" s="2"/>
       <c r="P5" t="s">
         <v>25</v>
@@ -1881,19 +1881,19 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
       <c r="N7" s="2"/>
       <c r="P7" s="6" t="s">
         <v>327</v>
@@ -1947,34 +1947,34 @@
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:26" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="40" t="s">
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="40"/>
+      <c r="I10" s="29"/>
       <c r="J10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="40" t="s">
+      <c r="L10" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s">
         <v>8</v>
@@ -2011,10 +2011,10 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15">
-        <v>0</v>
-      </c>
-      <c r="B11" s="16"/>
+      <c r="A11" s="34">
+        <v>0</v>
+      </c>
+      <c r="B11" s="35"/>
       <c r="C11" s="17" t="s">
         <v>9</v>
       </c>
@@ -2038,7 +2038,7 @@
         <f>IF((Y11-50)&gt;50,50,IF((Y11-50)&lt;0,0,(Y11-50)))</f>
         <v>50</v>
       </c>
-      <c r="M11" s="22"/>
+      <c r="M11" s="28"/>
       <c r="N11" s="21"/>
       <c r="O11" s="2"/>
       <c r="P11">
@@ -2077,10 +2077,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="24"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="25" t="s">
         <v>96</v>
       </c>
@@ -2098,7 +2098,7 @@
         <f t="shared" ref="L12:L75" si="0">IF((Y12-50)&gt;50,50,IF((Y12-50)&lt;0,0,(Y12-50)))</f>
         <v>0</v>
       </c>
-      <c r="M12" s="22"/>
+      <c r="M12" s="28"/>
       <c r="N12" s="21"/>
       <c r="O12" s="2"/>
       <c r="Q12">
@@ -2119,10 +2119,10 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="24"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="25" t="s">
         <v>98</v>
       </c>
@@ -2140,7 +2140,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="22"/>
+      <c r="M13" s="28"/>
       <c r="N13" s="21"/>
       <c r="O13" s="2"/>
       <c r="P13">
@@ -2167,10 +2167,10 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="25" t="s">
         <v>100</v>
       </c>
@@ -2188,7 +2188,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M14" s="22"/>
+      <c r="M14" s="28"/>
       <c r="N14" s="21"/>
       <c r="O14" s="2"/>
       <c r="P14">
@@ -2212,10 +2212,10 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="24"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="25" t="s">
         <v>102</v>
       </c>
@@ -2233,7 +2233,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M15" s="22"/>
+      <c r="M15" s="28"/>
       <c r="N15" s="21"/>
       <c r="O15" s="2"/>
       <c r="P15">
@@ -2260,10 +2260,10 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="24"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="25" t="s">
         <v>104</v>
       </c>
@@ -2281,7 +2281,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M16" s="22"/>
+      <c r="M16" s="28"/>
       <c r="N16" s="21"/>
       <c r="O16" s="2"/>
       <c r="Q16">
@@ -2293,7 +2293,7 @@
       <c r="T16" s="10">
         <v>2</v>
       </c>
-      <c r="U16" s="42">
+      <c r="U16" s="15">
         <v>14</v>
       </c>
       <c r="V16">
@@ -2311,10 +2311,10 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="24"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="25" t="s">
         <v>106</v>
       </c>
@@ -2332,7 +2332,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M17" s="22"/>
+      <c r="M17" s="28"/>
       <c r="N17" s="21"/>
       <c r="O17" s="2"/>
       <c r="P17">
@@ -2359,10 +2359,10 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="24"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="25" t="s">
         <v>108</v>
       </c>
@@ -2380,7 +2380,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M18" s="22"/>
+      <c r="M18" s="28"/>
       <c r="N18" s="21"/>
       <c r="O18" s="2"/>
       <c r="P18">
@@ -2407,10 +2407,10 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="24"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="25" t="s">
         <v>110</v>
       </c>
@@ -2428,7 +2428,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="M19" s="22"/>
+      <c r="M19" s="28"/>
       <c r="N19" s="21"/>
       <c r="O19" s="2"/>
       <c r="P19">
@@ -2440,7 +2440,7 @@
       <c r="T19" s="10">
         <v>8</v>
       </c>
-      <c r="U19" s="42">
+      <c r="U19" s="15">
         <v>16</v>
       </c>
       <c r="V19">
@@ -2458,10 +2458,10 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="24"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="25" t="s">
         <v>112</v>
       </c>
@@ -2479,7 +2479,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="M20" s="22"/>
+      <c r="M20" s="28"/>
       <c r="N20" s="21"/>
       <c r="O20" s="2"/>
       <c r="P20">
@@ -2494,7 +2494,7 @@
       <c r="T20" s="10">
         <v>6</v>
       </c>
-      <c r="U20" s="42">
+      <c r="U20" s="15">
         <v>14</v>
       </c>
       <c r="V20">
@@ -2512,10 +2512,10 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="24"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="25" t="s">
         <v>114</v>
       </c>
@@ -2533,7 +2533,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M21" s="22"/>
+      <c r="M21" s="28"/>
       <c r="N21" s="21"/>
       <c r="O21" s="2"/>
       <c r="P21">
@@ -2560,10 +2560,10 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="24"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="25" t="s">
         <v>116</v>
       </c>
@@ -2581,7 +2581,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="M22" s="22"/>
+      <c r="M22" s="28"/>
       <c r="N22" s="21"/>
       <c r="O22" s="2"/>
       <c r="P22">
@@ -2593,7 +2593,7 @@
       <c r="T22" s="10">
         <v>10</v>
       </c>
-      <c r="U22" s="42">
+      <c r="U22" s="15">
         <v>15</v>
       </c>
       <c r="V22">
@@ -2611,10 +2611,10 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="24"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="25" t="s">
         <v>118</v>
       </c>
@@ -2632,7 +2632,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M23" s="22"/>
+      <c r="M23" s="28"/>
       <c r="N23" s="21"/>
       <c r="O23" s="2"/>
       <c r="Q23">
@@ -2653,10 +2653,10 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="24"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="25" t="s">
         <v>120</v>
       </c>
@@ -2674,7 +2674,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M24" s="22"/>
+      <c r="M24" s="28"/>
       <c r="N24" s="21"/>
       <c r="O24" s="2"/>
       <c r="Q24">
@@ -2701,29 +2701,29 @@
       </c>
     </row>
     <row r="25" spans="1:26" s="13" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="30" t="s">
+      <c r="B25" s="37"/>
+      <c r="C25" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="30" t="s">
+      <c r="D25" s="39"/>
+      <c r="E25" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="F25" s="32"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="34"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="42"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
-      <c r="L25" s="33">
+      <c r="L25" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M25" s="35"/>
-      <c r="N25" s="34"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="42"/>
       <c r="O25" s="12"/>
       <c r="Q25" s="13">
         <v>0</v>
@@ -2749,10 +2749,10 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="24"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="25" t="s">
         <v>124</v>
       </c>
@@ -2770,7 +2770,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M26" s="22"/>
+      <c r="M26" s="28"/>
       <c r="N26" s="21"/>
       <c r="O26" s="2"/>
       <c r="P26">
@@ -2794,10 +2794,10 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="24"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="25" t="s">
         <v>126</v>
       </c>
@@ -2815,7 +2815,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M27" s="22"/>
+      <c r="M27" s="28"/>
       <c r="N27" s="21"/>
       <c r="O27" s="2"/>
       <c r="P27">
@@ -2845,10 +2845,10 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="24"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="25" t="s">
         <v>128</v>
       </c>
@@ -2866,7 +2866,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M28" s="22"/>
+      <c r="M28" s="28"/>
       <c r="N28" s="21"/>
       <c r="O28" s="2"/>
       <c r="P28">
@@ -2893,10 +2893,10 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="24"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="25" t="s">
         <v>130</v>
       </c>
@@ -2914,7 +2914,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="M29" s="22"/>
+      <c r="M29" s="28"/>
       <c r="N29" s="21"/>
       <c r="O29" s="2"/>
       <c r="P29">
@@ -2929,7 +2929,7 @@
       <c r="T29" s="10">
         <v>7</v>
       </c>
-      <c r="U29" s="42">
+      <c r="U29" s="15">
         <v>15</v>
       </c>
       <c r="V29">
@@ -2947,10 +2947,10 @@
       </c>
     </row>
     <row r="30" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="24"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="25" t="s">
         <v>132</v>
       </c>
@@ -2968,7 +2968,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M30" s="22"/>
+      <c r="M30" s="28"/>
       <c r="N30" s="21"/>
       <c r="O30" s="2"/>
       <c r="Q30">
@@ -2989,10 +2989,10 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="24"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="25" t="s">
         <v>134</v>
       </c>
@@ -3010,7 +3010,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M31" s="22"/>
+      <c r="M31" s="28"/>
       <c r="N31" s="21"/>
       <c r="O31" s="2"/>
       <c r="P31">
@@ -3040,10 +3040,10 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="24"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="25" t="s">
         <v>136</v>
       </c>
@@ -3061,7 +3061,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M32" s="22"/>
+      <c r="M32" s="28"/>
       <c r="N32" s="21"/>
       <c r="O32" s="2"/>
       <c r="Q32">
@@ -3082,10 +3082,10 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="24"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="25" t="s">
         <v>138</v>
       </c>
@@ -3103,7 +3103,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M33" s="22"/>
+      <c r="M33" s="28"/>
       <c r="N33" s="21"/>
       <c r="O33" s="2"/>
       <c r="P33">
@@ -3130,10 +3130,10 @@
       </c>
     </row>
     <row r="34" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="24"/>
+      <c r="B34" s="32"/>
       <c r="C34" s="25" t="s">
         <v>140</v>
       </c>
@@ -3151,7 +3151,7 @@
         <f t="shared" si="0"/>
         <v>22.333333333333329</v>
       </c>
-      <c r="M34" s="22"/>
+      <c r="M34" s="28"/>
       <c r="N34" s="21"/>
       <c r="O34" s="2"/>
       <c r="P34">
@@ -3169,7 +3169,7 @@
       <c r="T34" s="10">
         <v>7</v>
       </c>
-      <c r="U34" s="42">
+      <c r="U34" s="15">
         <v>15</v>
       </c>
       <c r="V34">
@@ -3187,10 +3187,10 @@
       </c>
     </row>
     <row r="35" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="24"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="25" t="s">
         <v>142</v>
       </c>
@@ -3208,7 +3208,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M35" s="22"/>
+      <c r="M35" s="28"/>
       <c r="N35" s="21"/>
       <c r="O35" s="2"/>
       <c r="P35">
@@ -3235,10 +3235,10 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="24"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="25" t="s">
         <v>144</v>
       </c>
@@ -3256,7 +3256,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M36" s="22"/>
+      <c r="M36" s="28"/>
       <c r="N36" s="21"/>
       <c r="O36" s="2"/>
       <c r="P36">
@@ -3283,10 +3283,10 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="24"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="25" t="s">
         <v>146</v>
       </c>
@@ -3304,7 +3304,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M37" s="22"/>
+      <c r="M37" s="28"/>
       <c r="N37" s="21"/>
       <c r="O37" s="2"/>
       <c r="P37">
@@ -3331,10 +3331,10 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="24"/>
+      <c r="B38" s="32"/>
       <c r="C38" s="25" t="s">
         <v>148</v>
       </c>
@@ -3352,7 +3352,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="M38" s="22"/>
+      <c r="M38" s="28"/>
       <c r="N38" s="21"/>
       <c r="O38" s="2"/>
       <c r="P38">
@@ -3367,7 +3367,7 @@
       <c r="T38" s="10">
         <v>7</v>
       </c>
-      <c r="U38" s="42">
+      <c r="U38" s="15">
         <v>15</v>
       </c>
       <c r="V38">
@@ -3385,10 +3385,10 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="24"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="25" t="s">
         <v>150</v>
       </c>
@@ -3406,7 +3406,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M39" s="22"/>
+      <c r="M39" s="28"/>
       <c r="N39" s="21"/>
       <c r="O39" s="2"/>
       <c r="Q39">
@@ -3427,10 +3427,10 @@
       </c>
     </row>
     <row r="40" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="24"/>
+      <c r="B40" s="32"/>
       <c r="C40" s="25" t="s">
         <v>152</v>
       </c>
@@ -3448,7 +3448,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M40" s="22"/>
+      <c r="M40" s="28"/>
       <c r="N40" s="21"/>
       <c r="O40" s="2"/>
       <c r="P40">
@@ -3475,10 +3475,10 @@
       </c>
     </row>
     <row r="41" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="24"/>
+      <c r="B41" s="32"/>
       <c r="C41" s="25" t="s">
         <v>154</v>
       </c>
@@ -3496,7 +3496,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M41" s="22"/>
+      <c r="M41" s="28"/>
       <c r="N41" s="21"/>
       <c r="O41" s="2"/>
       <c r="Q41">
@@ -3517,10 +3517,10 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="24"/>
+      <c r="B42" s="32"/>
       <c r="C42" s="25" t="s">
         <v>156</v>
       </c>
@@ -3538,7 +3538,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M42" s="22"/>
+      <c r="M42" s="28"/>
       <c r="N42" s="21"/>
       <c r="O42" s="2"/>
       <c r="Q42">
@@ -3559,10 +3559,10 @@
       </c>
     </row>
     <row r="43" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="24"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="25" t="s">
         <v>158</v>
       </c>
@@ -3580,7 +3580,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M43" s="22"/>
+      <c r="M43" s="28"/>
       <c r="N43" s="21"/>
       <c r="O43" s="2"/>
       <c r="P43">
@@ -3613,29 +3613,29 @@
       </c>
     </row>
     <row r="44" spans="1:26" s="13" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="29"/>
-      <c r="C44" s="30" t="s">
+      <c r="B44" s="37"/>
+      <c r="C44" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="D44" s="31"/>
-      <c r="E44" s="30" t="s">
+      <c r="D44" s="39"/>
+      <c r="E44" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="F44" s="32"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="34"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="42"/>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
-      <c r="L44" s="33">
+      <c r="L44" s="41">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="M44" s="35"/>
-      <c r="N44" s="34"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="42"/>
       <c r="O44" s="12"/>
       <c r="P44" s="13">
         <v>20</v>
@@ -3649,7 +3649,7 @@
       <c r="T44" s="14">
         <v>10</v>
       </c>
-      <c r="U44" s="43">
+      <c r="U44" s="16">
         <v>18</v>
       </c>
       <c r="V44" s="13">
@@ -3664,10 +3664,10 @@
       </c>
     </row>
     <row r="45" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="24"/>
+      <c r="B45" s="32"/>
       <c r="C45" s="25" t="s">
         <v>162</v>
       </c>
@@ -3685,7 +3685,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M45" s="22"/>
+      <c r="M45" s="28"/>
       <c r="N45" s="21"/>
       <c r="O45" s="2"/>
       <c r="P45">
@@ -3709,10 +3709,10 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="24"/>
+      <c r="B46" s="32"/>
       <c r="C46" s="25" t="s">
         <v>164</v>
       </c>
@@ -3730,7 +3730,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M46" s="22"/>
+      <c r="M46" s="28"/>
       <c r="N46" s="21"/>
       <c r="O46" s="2"/>
       <c r="P46">
@@ -3757,10 +3757,10 @@
       </c>
     </row>
     <row r="47" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="24"/>
+      <c r="B47" s="32"/>
       <c r="C47" s="25" t="s">
         <v>166</v>
       </c>
@@ -3778,7 +3778,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M47" s="22"/>
+      <c r="M47" s="28"/>
       <c r="N47" s="21"/>
       <c r="O47" s="2"/>
       <c r="P47">
@@ -3805,10 +3805,10 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="24"/>
+      <c r="B48" s="32"/>
       <c r="C48" s="25" t="s">
         <v>168</v>
       </c>
@@ -3826,7 +3826,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M48" s="22"/>
+      <c r="M48" s="28"/>
       <c r="N48" s="21"/>
       <c r="O48" s="2"/>
       <c r="P48">
@@ -3856,10 +3856,10 @@
       </c>
     </row>
     <row r="49" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B49" s="24"/>
+      <c r="B49" s="32"/>
       <c r="C49" s="25" t="s">
         <v>170</v>
       </c>
@@ -3877,7 +3877,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M49" s="22"/>
+      <c r="M49" s="28"/>
       <c r="N49" s="21"/>
       <c r="O49" s="2"/>
       <c r="P49">
@@ -3901,10 +3901,10 @@
       </c>
     </row>
     <row r="50" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="24"/>
+      <c r="B50" s="32"/>
       <c r="C50" s="25" t="s">
         <v>172</v>
       </c>
@@ -3922,7 +3922,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="M50" s="22"/>
+      <c r="M50" s="28"/>
       <c r="N50" s="21"/>
       <c r="O50" s="2"/>
       <c r="P50">
@@ -3940,7 +3940,7 @@
       <c r="T50" s="10">
         <v>5</v>
       </c>
-      <c r="U50" s="42">
+      <c r="U50" s="15">
         <v>15</v>
       </c>
       <c r="V50">
@@ -3958,10 +3958,10 @@
       </c>
     </row>
     <row r="51" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B51" s="24"/>
+      <c r="B51" s="32"/>
       <c r="C51" s="25" t="s">
         <v>174</v>
       </c>
@@ -3979,7 +3979,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M51" s="22"/>
+      <c r="M51" s="28"/>
       <c r="N51" s="21"/>
       <c r="O51" s="2"/>
       <c r="Q51">
@@ -4003,10 +4003,10 @@
       </c>
     </row>
     <row r="52" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="B52" s="24"/>
+      <c r="B52" s="32"/>
       <c r="C52" s="25" t="s">
         <v>176</v>
       </c>
@@ -4024,7 +4024,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="M52" s="22"/>
+      <c r="M52" s="28"/>
       <c r="N52" s="21"/>
       <c r="O52" s="2"/>
       <c r="P52">
@@ -4039,7 +4039,7 @@
       <c r="T52" s="10">
         <v>5</v>
       </c>
-      <c r="U52" s="42">
+      <c r="U52" s="15">
         <v>15</v>
       </c>
       <c r="V52">
@@ -4057,10 +4057,10 @@
       </c>
     </row>
     <row r="53" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="24"/>
+      <c r="B53" s="32"/>
       <c r="C53" s="25" t="s">
         <v>178</v>
       </c>
@@ -4078,7 +4078,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="M53" s="22"/>
+      <c r="M53" s="28"/>
       <c r="N53" s="21"/>
       <c r="O53" s="2"/>
       <c r="P53">
@@ -4096,7 +4096,7 @@
       <c r="T53" s="10">
         <v>6</v>
       </c>
-      <c r="U53" s="42">
+      <c r="U53" s="15">
         <v>16</v>
       </c>
       <c r="V53">
@@ -4114,10 +4114,10 @@
       </c>
     </row>
     <row r="54" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="B54" s="24"/>
+      <c r="B54" s="32"/>
       <c r="C54" s="25" t="s">
         <v>180</v>
       </c>
@@ -4135,7 +4135,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M54" s="22"/>
+      <c r="M54" s="28"/>
       <c r="N54" s="21"/>
       <c r="O54" s="2"/>
       <c r="Q54">
@@ -4156,10 +4156,10 @@
       </c>
     </row>
     <row r="55" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="B55" s="24"/>
+      <c r="B55" s="32"/>
       <c r="C55" s="25" t="s">
         <v>182</v>
       </c>
@@ -4177,7 +4177,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M55" s="22"/>
+      <c r="M55" s="28"/>
       <c r="N55" s="21"/>
       <c r="O55" s="2"/>
       <c r="Q55">
@@ -4201,10 +4201,10 @@
       </c>
     </row>
     <row r="56" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B56" s="24"/>
+      <c r="B56" s="32"/>
       <c r="C56" s="25" t="s">
         <v>184</v>
       </c>
@@ -4222,7 +4222,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M56" s="22"/>
+      <c r="M56" s="28"/>
       <c r="N56" s="21"/>
       <c r="O56" s="2"/>
       <c r="Q56">
@@ -4246,10 +4246,10 @@
       </c>
     </row>
     <row r="57" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="B57" s="24"/>
+      <c r="B57" s="32"/>
       <c r="C57" s="25" t="s">
         <v>186</v>
       </c>
@@ -4267,7 +4267,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M57" s="22"/>
+      <c r="M57" s="28"/>
       <c r="N57" s="21"/>
       <c r="O57" s="2"/>
       <c r="Q57">
@@ -4294,10 +4294,10 @@
       </c>
     </row>
     <row r="58" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="B58" s="24"/>
+      <c r="B58" s="32"/>
       <c r="C58" s="25" t="s">
         <v>188</v>
       </c>
@@ -4315,7 +4315,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M58" s="22"/>
+      <c r="M58" s="28"/>
       <c r="N58" s="21"/>
       <c r="O58" s="2"/>
       <c r="P58">
@@ -4342,10 +4342,10 @@
       </c>
     </row>
     <row r="59" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="23" t="s">
+      <c r="A59" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="B59" s="24"/>
+      <c r="B59" s="32"/>
       <c r="C59" s="25" t="s">
         <v>190</v>
       </c>
@@ -4363,7 +4363,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="M59" s="22"/>
+      <c r="M59" s="28"/>
       <c r="N59" s="21"/>
       <c r="O59" s="2"/>
       <c r="P59">
@@ -4375,7 +4375,7 @@
       <c r="T59" s="10">
         <v>8</v>
       </c>
-      <c r="U59" s="42">
+      <c r="U59" s="15">
         <v>14</v>
       </c>
       <c r="V59">
@@ -4393,10 +4393,10 @@
       </c>
     </row>
     <row r="60" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="23" t="s">
+      <c r="A60" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="B60" s="24"/>
+      <c r="B60" s="32"/>
       <c r="C60" s="25" t="s">
         <v>192</v>
       </c>
@@ -4414,7 +4414,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="M60" s="22"/>
+      <c r="M60" s="28"/>
       <c r="N60" s="21"/>
       <c r="O60" s="2"/>
       <c r="P60">
@@ -4432,7 +4432,7 @@
       <c r="T60" s="10">
         <v>7</v>
       </c>
-      <c r="U60" s="42">
+      <c r="U60" s="15">
         <v>15</v>
       </c>
       <c r="V60">
@@ -4450,10 +4450,10 @@
       </c>
     </row>
     <row r="61" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="23" t="s">
+      <c r="A61" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="B61" s="24"/>
+      <c r="B61" s="32"/>
       <c r="C61" s="25" t="s">
         <v>194</v>
       </c>
@@ -4471,7 +4471,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M61" s="22"/>
+      <c r="M61" s="28"/>
       <c r="N61" s="21"/>
       <c r="O61" s="2"/>
       <c r="P61">
@@ -4498,10 +4498,10 @@
       </c>
     </row>
     <row r="62" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="23" t="s">
+      <c r="A62" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="B62" s="24"/>
+      <c r="B62" s="32"/>
       <c r="C62" s="25" t="s">
         <v>196</v>
       </c>
@@ -4519,7 +4519,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M62" s="22"/>
+      <c r="M62" s="28"/>
       <c r="N62" s="21"/>
       <c r="O62" s="2"/>
       <c r="P62">
@@ -4543,10 +4543,10 @@
       </c>
     </row>
     <row r="63" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="23" t="s">
+      <c r="A63" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="B63" s="24"/>
+      <c r="B63" s="32"/>
       <c r="C63" s="25" t="s">
         <v>198</v>
       </c>
@@ -4564,7 +4564,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M63" s="22"/>
+      <c r="M63" s="28"/>
       <c r="N63" s="21"/>
       <c r="O63" s="2"/>
       <c r="Q63">
@@ -4585,10 +4585,10 @@
       </c>
     </row>
     <row r="64" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="23" t="s">
+      <c r="A64" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="B64" s="24"/>
+      <c r="B64" s="32"/>
       <c r="C64" s="25" t="s">
         <v>200</v>
       </c>
@@ -4606,7 +4606,7 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="M64" s="22"/>
+      <c r="M64" s="28"/>
       <c r="N64" s="21"/>
       <c r="O64" s="2"/>
       <c r="P64">
@@ -4624,7 +4624,7 @@
       <c r="T64" s="10">
         <v>6</v>
       </c>
-      <c r="U64" s="42">
+      <c r="U64" s="15">
         <v>16</v>
       </c>
       <c r="V64">
@@ -4642,10 +4642,10 @@
       </c>
     </row>
     <row r="65" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="23" t="s">
+      <c r="A65" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B65" s="24"/>
+      <c r="B65" s="32"/>
       <c r="C65" s="25" t="s">
         <v>202</v>
       </c>
@@ -4663,7 +4663,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M65" s="22"/>
+      <c r="M65" s="28"/>
       <c r="N65" s="21"/>
       <c r="O65" s="2"/>
       <c r="Q65">
@@ -4684,10 +4684,10 @@
       </c>
     </row>
     <row r="66" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="23" t="s">
+      <c r="A66" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="B66" s="24"/>
+      <c r="B66" s="32"/>
       <c r="C66" s="25" t="s">
         <v>204</v>
       </c>
@@ -4705,7 +4705,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M66" s="22"/>
+      <c r="M66" s="28"/>
       <c r="N66" s="21"/>
       <c r="O66" s="2"/>
       <c r="P66">
@@ -4729,10 +4729,10 @@
       </c>
     </row>
     <row r="67" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="23" t="s">
+      <c r="A67" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="24"/>
+      <c r="B67" s="32"/>
       <c r="C67" s="25" t="s">
         <v>206</v>
       </c>
@@ -4750,7 +4750,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M67" s="22"/>
+      <c r="M67" s="28"/>
       <c r="N67" s="21"/>
       <c r="O67" s="2"/>
       <c r="P67">
@@ -4780,10 +4780,10 @@
       </c>
     </row>
     <row r="68" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="B68" s="24"/>
+      <c r="B68" s="32"/>
       <c r="C68" s="25" t="s">
         <v>208</v>
       </c>
@@ -4801,7 +4801,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M68" s="22"/>
+      <c r="M68" s="28"/>
       <c r="N68" s="21"/>
       <c r="O68" s="2"/>
       <c r="P68">
@@ -4828,10 +4828,10 @@
       </c>
     </row>
     <row r="69" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="23" t="s">
+      <c r="A69" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="B69" s="24"/>
+      <c r="B69" s="32"/>
       <c r="C69" s="25" t="s">
         <v>210</v>
       </c>
@@ -4849,7 +4849,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M69" s="22"/>
+      <c r="M69" s="28"/>
       <c r="N69" s="21"/>
       <c r="O69" s="2"/>
       <c r="Q69">
@@ -4870,10 +4870,10 @@
       </c>
     </row>
     <row r="70" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="23" t="s">
+      <c r="A70" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B70" s="24"/>
+      <c r="B70" s="32"/>
       <c r="C70" s="25" t="s">
         <v>212</v>
       </c>
@@ -4891,7 +4891,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M70" s="22"/>
+      <c r="M70" s="28"/>
       <c r="N70" s="21"/>
       <c r="O70" s="2"/>
       <c r="P70">
@@ -4921,10 +4921,10 @@
       </c>
     </row>
     <row r="71" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="23" t="s">
+      <c r="A71" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B71" s="24"/>
+      <c r="B71" s="32"/>
       <c r="C71" s="25" t="s">
         <v>214</v>
       </c>
@@ -4942,7 +4942,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M71" s="22"/>
+      <c r="M71" s="28"/>
       <c r="N71" s="21"/>
       <c r="O71" s="2"/>
       <c r="Q71">
@@ -4954,7 +4954,7 @@
       <c r="T71" s="10">
         <v>2</v>
       </c>
-      <c r="U71" s="42">
+      <c r="U71" s="15">
         <v>15</v>
       </c>
       <c r="V71">
@@ -4972,10 +4972,10 @@
       </c>
     </row>
     <row r="72" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="23" t="s">
+      <c r="A72" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="B72" s="24"/>
+      <c r="B72" s="32"/>
       <c r="C72" s="25" t="s">
         <v>216</v>
       </c>
@@ -4993,7 +4993,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="M72" s="22"/>
+      <c r="M72" s="28"/>
       <c r="N72" s="21"/>
       <c r="O72" s="2"/>
       <c r="P72">
@@ -5008,7 +5008,7 @@
       <c r="T72" s="10">
         <v>2</v>
       </c>
-      <c r="U72" s="42">
+      <c r="U72" s="15">
         <v>16</v>
       </c>
       <c r="V72">
@@ -5026,10 +5026,10 @@
       </c>
     </row>
     <row r="73" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="23" t="s">
+      <c r="A73" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="B73" s="24"/>
+      <c r="B73" s="32"/>
       <c r="C73" s="25" t="s">
         <v>218</v>
       </c>
@@ -5047,7 +5047,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="M73" s="22"/>
+      <c r="M73" s="28"/>
       <c r="N73" s="21"/>
       <c r="O73" s="2"/>
       <c r="P73">
@@ -5065,7 +5065,7 @@
       <c r="T73" s="10">
         <v>6</v>
       </c>
-      <c r="U73" s="42">
+      <c r="U73" s="15">
         <v>14</v>
       </c>
       <c r="V73">
@@ -5083,10 +5083,10 @@
       </c>
     </row>
     <row r="74" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="23" t="s">
+      <c r="A74" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="B74" s="24"/>
+      <c r="B74" s="32"/>
       <c r="C74" s="25" t="s">
         <v>220</v>
       </c>
@@ -5104,7 +5104,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M74" s="22"/>
+      <c r="M74" s="28"/>
       <c r="N74" s="21"/>
       <c r="O74" s="2"/>
       <c r="Q74">
@@ -5131,10 +5131,10 @@
       </c>
     </row>
     <row r="75" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="23" t="s">
+      <c r="A75" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="B75" s="24"/>
+      <c r="B75" s="32"/>
       <c r="C75" s="25" t="s">
         <v>223</v>
       </c>
@@ -5152,7 +5152,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="M75" s="22"/>
+      <c r="M75" s="28"/>
       <c r="N75" s="21"/>
       <c r="O75" s="2"/>
       <c r="P75">
@@ -5167,7 +5167,7 @@
       <c r="T75" s="10">
         <v>2</v>
       </c>
-      <c r="U75" s="42">
+      <c r="U75" s="15">
         <v>16</v>
       </c>
       <c r="V75">
@@ -5185,10 +5185,10 @@
       </c>
     </row>
     <row r="76" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="23" t="s">
+      <c r="A76" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="B76" s="24"/>
+      <c r="B76" s="32"/>
       <c r="C76" s="25" t="s">
         <v>226</v>
       </c>
@@ -5206,7 +5206,7 @@
         <f t="shared" ref="L76:L113" si="2">IF((Y76-50)&gt;50,50,IF((Y76-50)&lt;0,0,(Y76-50)))</f>
         <v>0</v>
       </c>
-      <c r="M76" s="22"/>
+      <c r="M76" s="28"/>
       <c r="N76" s="21"/>
       <c r="O76" s="2"/>
       <c r="Q76">
@@ -5227,10 +5227,10 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="23" t="s">
+      <c r="A77" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="B77" s="24"/>
+      <c r="B77" s="32"/>
       <c r="C77" s="25" t="s">
         <v>229</v>
       </c>
@@ -5248,7 +5248,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M77" s="22"/>
+      <c r="M77" s="28"/>
       <c r="N77" s="21"/>
       <c r="O77" s="2"/>
       <c r="P77">
@@ -5275,10 +5275,10 @@
       </c>
     </row>
     <row r="78" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="23" t="s">
+      <c r="A78" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="B78" s="24"/>
+      <c r="B78" s="32"/>
       <c r="C78" s="25" t="s">
         <v>232</v>
       </c>
@@ -5296,7 +5296,7 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="M78" s="22"/>
+      <c r="M78" s="28"/>
       <c r="N78" s="21"/>
       <c r="O78" s="2"/>
       <c r="P78">
@@ -5311,7 +5311,7 @@
       <c r="T78" s="10">
         <v>10</v>
       </c>
-      <c r="U78" s="42">
+      <c r="U78" s="15">
         <v>14</v>
       </c>
       <c r="V78">
@@ -5329,10 +5329,10 @@
       </c>
     </row>
     <row r="79" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="23" t="s">
+      <c r="A79" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="B79" s="24"/>
+      <c r="B79" s="32"/>
       <c r="C79" s="25" t="s">
         <v>235</v>
       </c>
@@ -5350,7 +5350,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M79" s="22"/>
+      <c r="M79" s="28"/>
       <c r="N79" s="21"/>
       <c r="O79" s="2"/>
       <c r="Q79">
@@ -5377,10 +5377,10 @@
       </c>
     </row>
     <row r="80" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="23" t="s">
+      <c r="A80" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="B80" s="24"/>
+      <c r="B80" s="32"/>
       <c r="C80" s="25" t="s">
         <v>238</v>
       </c>
@@ -5398,7 +5398,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M80" s="22"/>
+      <c r="M80" s="28"/>
       <c r="N80" s="21"/>
       <c r="O80" s="2"/>
       <c r="P80">
@@ -5425,10 +5425,10 @@
       </c>
     </row>
     <row r="81" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="23" t="s">
+      <c r="A81" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="B81" s="24"/>
+      <c r="B81" s="32"/>
       <c r="C81" s="25" t="s">
         <v>241</v>
       </c>
@@ -5446,7 +5446,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M81" s="22"/>
+      <c r="M81" s="28"/>
       <c r="N81" s="21"/>
       <c r="O81" s="2"/>
       <c r="P81">
@@ -5476,10 +5476,10 @@
       </c>
     </row>
     <row r="82" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="23" t="s">
+      <c r="A82" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="B82" s="24"/>
+      <c r="B82" s="32"/>
       <c r="C82" s="25" t="s">
         <v>244</v>
       </c>
@@ -5497,7 +5497,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M82" s="22"/>
+      <c r="M82" s="28"/>
       <c r="N82" s="21"/>
       <c r="O82" s="2"/>
       <c r="Q82">
@@ -5518,10 +5518,10 @@
       </c>
     </row>
     <row r="83" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="23" t="s">
+      <c r="A83" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="B83" s="24"/>
+      <c r="B83" s="32"/>
       <c r="C83" s="25" t="s">
         <v>247</v>
       </c>
@@ -5539,7 +5539,7 @@
         <f t="shared" si="2"/>
         <v>17.75</v>
       </c>
-      <c r="M83" s="22"/>
+      <c r="M83" s="28"/>
       <c r="N83" s="21"/>
       <c r="O83" s="2"/>
       <c r="P83">
@@ -5557,7 +5557,7 @@
       <c r="T83" s="10">
         <v>8</v>
       </c>
-      <c r="U83" s="42">
+      <c r="U83" s="15">
         <v>15</v>
       </c>
       <c r="V83">
@@ -5575,10 +5575,10 @@
       </c>
     </row>
     <row r="84" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="23" t="s">
+      <c r="A84" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="B84" s="24"/>
+      <c r="B84" s="32"/>
       <c r="C84" s="25" t="s">
         <v>250</v>
       </c>
@@ -5596,7 +5596,7 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="M84" s="22"/>
+      <c r="M84" s="28"/>
       <c r="N84" s="21"/>
       <c r="O84" s="2"/>
       <c r="Q84">
@@ -5608,7 +5608,7 @@
       <c r="T84" s="10">
         <v>5</v>
       </c>
-      <c r="U84" s="42">
+      <c r="U84" s="15">
         <v>15</v>
       </c>
       <c r="V84">
@@ -5626,10 +5626,10 @@
       </c>
     </row>
     <row r="85" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="23" t="s">
+      <c r="A85" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="B85" s="24"/>
+      <c r="B85" s="32"/>
       <c r="C85" s="25" t="s">
         <v>253</v>
       </c>
@@ -5647,7 +5647,7 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="M85" s="22"/>
+      <c r="M85" s="28"/>
       <c r="N85" s="21"/>
       <c r="O85" s="2"/>
       <c r="P85">
@@ -5662,7 +5662,7 @@
       <c r="T85" s="10">
         <v>7</v>
       </c>
-      <c r="U85" s="42">
+      <c r="U85" s="15">
         <v>14</v>
       </c>
       <c r="V85">
@@ -5680,10 +5680,10 @@
       </c>
     </row>
     <row r="86" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="23" t="s">
+      <c r="A86" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="B86" s="24"/>
+      <c r="B86" s="32"/>
       <c r="C86" s="25" t="s">
         <v>256</v>
       </c>
@@ -5701,7 +5701,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M86" s="22"/>
+      <c r="M86" s="28"/>
       <c r="N86" s="21"/>
       <c r="O86" s="2"/>
       <c r="P86">
@@ -5728,10 +5728,10 @@
       </c>
     </row>
     <row r="87" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="23" t="s">
+      <c r="A87" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="B87" s="24"/>
+      <c r="B87" s="32"/>
       <c r="C87" s="25" t="s">
         <v>259</v>
       </c>
@@ -5749,7 +5749,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M87" s="22"/>
+      <c r="M87" s="28"/>
       <c r="N87" s="21"/>
       <c r="O87" s="2"/>
       <c r="Q87">
@@ -5770,10 +5770,10 @@
       </c>
     </row>
     <row r="88" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="23" t="s">
+      <c r="A88" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="B88" s="24"/>
+      <c r="B88" s="32"/>
       <c r="C88" s="25" t="s">
         <v>262</v>
       </c>
@@ -5791,7 +5791,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M88" s="22"/>
+      <c r="M88" s="28"/>
       <c r="N88" s="21"/>
       <c r="O88" s="2"/>
       <c r="P88">
@@ -5815,10 +5815,10 @@
       </c>
     </row>
     <row r="89" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="23" t="s">
+      <c r="A89" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="B89" s="24"/>
+      <c r="B89" s="32"/>
       <c r="C89" s="25" t="s">
         <v>265</v>
       </c>
@@ -5836,7 +5836,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M89" s="22"/>
+      <c r="M89" s="28"/>
       <c r="N89" s="21"/>
       <c r="O89" s="2"/>
       <c r="P89">
@@ -5860,10 +5860,10 @@
       </c>
     </row>
     <row r="90" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="23" t="s">
+      <c r="A90" s="31" t="s">
         <v>267</v>
       </c>
-      <c r="B90" s="24"/>
+      <c r="B90" s="32"/>
       <c r="C90" s="25" t="s">
         <v>268</v>
       </c>
@@ -5881,7 +5881,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M90" s="22"/>
+      <c r="M90" s="28"/>
       <c r="N90" s="21"/>
       <c r="O90" s="2"/>
       <c r="P90">
@@ -5905,10 +5905,10 @@
       </c>
     </row>
     <row r="91" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="23" t="s">
+      <c r="A91" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="B91" s="24"/>
+      <c r="B91" s="32"/>
       <c r="C91" s="25" t="s">
         <v>271</v>
       </c>
@@ -5926,7 +5926,7 @@
         <f t="shared" si="2"/>
         <v>17.666666666666671</v>
       </c>
-      <c r="M91" s="22"/>
+      <c r="M91" s="28"/>
       <c r="N91" s="21"/>
       <c r="O91" s="2"/>
       <c r="P91">
@@ -5944,7 +5944,7 @@
       <c r="T91" s="10">
         <v>6</v>
       </c>
-      <c r="U91" s="42">
+      <c r="U91" s="15">
         <v>14</v>
       </c>
       <c r="V91">
@@ -5962,10 +5962,10 @@
       </c>
     </row>
     <row r="92" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="23" t="s">
+      <c r="A92" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="B92" s="24"/>
+      <c r="B92" s="32"/>
       <c r="C92" s="25" t="s">
         <v>274</v>
       </c>
@@ -5983,7 +5983,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M92" s="22"/>
+      <c r="M92" s="28"/>
       <c r="N92" s="21"/>
       <c r="O92" s="2"/>
       <c r="P92">
@@ -6013,10 +6013,10 @@
       </c>
     </row>
     <row r="93" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="23" t="s">
+      <c r="A93" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="B93" s="24"/>
+      <c r="B93" s="32"/>
       <c r="C93" s="25" t="s">
         <v>277</v>
       </c>
@@ -6034,7 +6034,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M93" s="22"/>
+      <c r="M93" s="28"/>
       <c r="N93" s="21"/>
       <c r="O93" s="2"/>
       <c r="P93">
@@ -6064,10 +6064,10 @@
       </c>
     </row>
     <row r="94" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="23" t="s">
+      <c r="A94" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="B94" s="24"/>
+      <c r="B94" s="32"/>
       <c r="C94" s="25" t="s">
         <v>280</v>
       </c>
@@ -6085,7 +6085,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M94" s="22"/>
+      <c r="M94" s="28"/>
       <c r="N94" s="21"/>
       <c r="O94" s="2"/>
       <c r="P94">
@@ -6112,10 +6112,10 @@
       </c>
     </row>
     <row r="95" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="23" t="s">
+      <c r="A95" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="B95" s="24"/>
+      <c r="B95" s="32"/>
       <c r="C95" s="25" t="s">
         <v>283</v>
       </c>
@@ -6131,9 +6131,9 @@
       <c r="K95" s="5"/>
       <c r="L95" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M95" s="22"/>
+        <v>3</v>
+      </c>
+      <c r="M95" s="28"/>
       <c r="N95" s="21"/>
       <c r="O95" s="2"/>
       <c r="P95">
@@ -6148,19 +6148,22 @@
       <c r="V95">
         <v>2</v>
       </c>
+      <c r="X95">
+        <v>29</v>
+      </c>
       <c r="Y95">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="Z95">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="23" t="s">
+      <c r="A96" s="31" t="s">
         <v>285</v>
       </c>
-      <c r="B96" s="24"/>
+      <c r="B96" s="32"/>
       <c r="C96" s="25" t="s">
         <v>286</v>
       </c>
@@ -6178,7 +6181,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M96" s="22"/>
+      <c r="M96" s="28"/>
       <c r="N96" s="21"/>
       <c r="O96" s="2"/>
       <c r="Q96">
@@ -6202,10 +6205,10 @@
       </c>
     </row>
     <row r="97" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="23" t="s">
+      <c r="A97" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="B97" s="24"/>
+      <c r="B97" s="32"/>
       <c r="C97" s="25" t="s">
         <v>289</v>
       </c>
@@ -6223,7 +6226,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M97" s="22"/>
+      <c r="M97" s="28"/>
       <c r="N97" s="21"/>
       <c r="O97" s="2"/>
       <c r="P97">
@@ -6247,10 +6250,10 @@
       </c>
     </row>
     <row r="98" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="23" t="s">
+      <c r="A98" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="B98" s="24"/>
+      <c r="B98" s="32"/>
       <c r="C98" s="25" t="s">
         <v>292</v>
       </c>
@@ -6268,7 +6271,7 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="M98" s="22"/>
+      <c r="M98" s="28"/>
       <c r="N98" s="21"/>
       <c r="O98" s="2"/>
       <c r="P98">
@@ -6286,7 +6289,7 @@
       <c r="T98" s="10">
         <v>8</v>
       </c>
-      <c r="U98" s="42">
+      <c r="U98" s="15">
         <v>15</v>
       </c>
       <c r="V98">
@@ -6304,10 +6307,10 @@
       </c>
     </row>
     <row r="99" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="23" t="s">
+      <c r="A99" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="B99" s="24"/>
+      <c r="B99" s="32"/>
       <c r="C99" s="25" t="s">
         <v>295</v>
       </c>
@@ -6325,7 +6328,7 @@
         <f t="shared" si="2"/>
         <v>23.75</v>
       </c>
-      <c r="M99" s="22"/>
+      <c r="M99" s="28"/>
       <c r="N99" s="21"/>
       <c r="O99" s="2"/>
       <c r="P99">
@@ -6343,7 +6346,7 @@
       <c r="T99" s="10">
         <v>8</v>
       </c>
-      <c r="U99" s="42">
+      <c r="U99" s="15">
         <v>15</v>
       </c>
       <c r="V99">
@@ -6361,10 +6364,10 @@
       </c>
     </row>
     <row r="100" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="23" t="s">
+      <c r="A100" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="B100" s="24"/>
+      <c r="B100" s="32"/>
       <c r="C100" s="25" t="s">
         <v>298</v>
       </c>
@@ -6382,7 +6385,7 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="M100" s="22"/>
+      <c r="M100" s="28"/>
       <c r="N100" s="21"/>
       <c r="O100" s="2"/>
       <c r="P100">
@@ -6397,7 +6400,7 @@
       <c r="T100" s="10">
         <v>2</v>
       </c>
-      <c r="U100" s="42">
+      <c r="U100" s="15">
         <v>15</v>
       </c>
       <c r="V100">
@@ -6415,10 +6418,10 @@
       </c>
     </row>
     <row r="101" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="23" t="s">
+      <c r="A101" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="B101" s="24"/>
+      <c r="B101" s="32"/>
       <c r="C101" s="25" t="s">
         <v>301</v>
       </c>
@@ -6436,7 +6439,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M101" s="22"/>
+      <c r="M101" s="28"/>
       <c r="N101" s="21"/>
       <c r="O101" s="2"/>
       <c r="Q101">
@@ -6463,10 +6466,10 @@
       </c>
     </row>
     <row r="102" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="23" t="s">
+      <c r="A102" s="31" t="s">
         <v>303</v>
       </c>
-      <c r="B102" s="24"/>
+      <c r="B102" s="32"/>
       <c r="C102" s="25" t="s">
         <v>304</v>
       </c>
@@ -6484,7 +6487,7 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="M102" s="22"/>
+      <c r="M102" s="28"/>
       <c r="N102" s="21"/>
       <c r="O102" s="2"/>
       <c r="P102">
@@ -6502,7 +6505,7 @@
       <c r="T102" s="10">
         <v>6</v>
       </c>
-      <c r="U102" s="42">
+      <c r="U102" s="15">
         <v>15</v>
       </c>
       <c r="V102">
@@ -6520,10 +6523,10 @@
       </c>
     </row>
     <row r="103" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="23" t="s">
+      <c r="A103" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="B103" s="24"/>
+      <c r="B103" s="32"/>
       <c r="C103" s="25" t="s">
         <v>307</v>
       </c>
@@ -6541,7 +6544,7 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="M103" s="22"/>
+      <c r="M103" s="28"/>
       <c r="N103" s="21"/>
       <c r="O103" s="2"/>
       <c r="P103">
@@ -6553,7 +6556,7 @@
       <c r="T103" s="10">
         <v>8</v>
       </c>
-      <c r="U103" s="42">
+      <c r="U103" s="15">
         <v>15</v>
       </c>
       <c r="V103">
@@ -6571,10 +6574,10 @@
       </c>
     </row>
     <row r="104" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="23" t="s">
+      <c r="A104" s="31" t="s">
         <v>309</v>
       </c>
-      <c r="B104" s="24"/>
+      <c r="B104" s="32"/>
       <c r="C104" s="25" t="s">
         <v>310</v>
       </c>
@@ -6592,7 +6595,7 @@
         <f t="shared" si="2"/>
         <v>18.333333333333343</v>
       </c>
-      <c r="M104" s="22"/>
+      <c r="M104" s="28"/>
       <c r="N104" s="21"/>
       <c r="O104" s="2"/>
       <c r="P104">
@@ -6610,7 +6613,7 @@
       <c r="T104" s="10">
         <v>7</v>
       </c>
-      <c r="U104" s="42">
+      <c r="U104" s="15">
         <v>15</v>
       </c>
       <c r="V104">
@@ -6628,10 +6631,10 @@
       </c>
     </row>
     <row r="105" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="23" t="s">
+      <c r="A105" s="31" t="s">
         <v>312</v>
       </c>
-      <c r="B105" s="24"/>
+      <c r="B105" s="32"/>
       <c r="C105" s="25" t="s">
         <v>313</v>
       </c>
@@ -6649,7 +6652,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M105" s="22"/>
+      <c r="M105" s="28"/>
       <c r="N105" s="21"/>
       <c r="O105" s="2"/>
       <c r="Q105">
@@ -6673,10 +6676,10 @@
       </c>
     </row>
     <row r="106" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="23" t="s">
+      <c r="A106" s="31" t="s">
         <v>315</v>
       </c>
-      <c r="B106" s="24"/>
+      <c r="B106" s="32"/>
       <c r="C106" s="25" t="s">
         <v>316</v>
       </c>
@@ -6694,7 +6697,7 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="M106" s="22"/>
+      <c r="M106" s="28"/>
       <c r="N106" s="21"/>
       <c r="O106" s="2"/>
       <c r="P106">
@@ -6709,7 +6712,7 @@
       <c r="T106" s="10">
         <v>9</v>
       </c>
-      <c r="U106" s="42">
+      <c r="U106" s="15">
         <v>15</v>
       </c>
       <c r="V106">
@@ -6727,10 +6730,10 @@
       </c>
     </row>
     <row r="107" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="23" t="s">
+      <c r="A107" s="31" t="s">
         <v>318</v>
       </c>
-      <c r="B107" s="24"/>
+      <c r="B107" s="32"/>
       <c r="C107" s="25" t="s">
         <v>319</v>
       </c>
@@ -6748,7 +6751,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M107" s="22"/>
+      <c r="M107" s="28"/>
       <c r="N107" s="21"/>
       <c r="O107" s="2"/>
       <c r="P107">
@@ -6775,10 +6778,10 @@
       </c>
     </row>
     <row r="108" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="23" t="s">
+      <c r="A108" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="B108" s="24"/>
+      <c r="B108" s="32"/>
       <c r="C108" s="25" t="s">
         <v>322</v>
       </c>
@@ -6796,7 +6799,7 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="M108" s="22"/>
+      <c r="M108" s="28"/>
       <c r="N108" s="21"/>
       <c r="O108" s="2"/>
       <c r="P108">
@@ -6808,7 +6811,7 @@
       <c r="T108" s="10">
         <v>6</v>
       </c>
-      <c r="U108" s="42">
+      <c r="U108" s="15">
         <v>15</v>
       </c>
       <c r="V108">
@@ -6826,10 +6829,10 @@
       </c>
     </row>
     <row r="109" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="23" t="s">
+      <c r="A109" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="B109" s="24"/>
+      <c r="B109" s="32"/>
       <c r="C109" s="25" t="s">
         <v>325</v>
       </c>
@@ -6847,7 +6850,7 @@
         <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
-      <c r="M109" s="22"/>
+      <c r="M109" s="28"/>
       <c r="N109" s="21"/>
       <c r="O109" s="2"/>
       <c r="Q109">
@@ -6859,7 +6862,7 @@
       <c r="T109" s="10">
         <v>6</v>
       </c>
-      <c r="U109" s="42">
+      <c r="U109" s="15">
         <v>15</v>
       </c>
       <c r="V109">
@@ -6877,8 +6880,8 @@
       </c>
     </row>
     <row r="110" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="15"/>
-      <c r="B110" s="16"/>
+      <c r="A110" s="34"/>
+      <c r="B110" s="35"/>
       <c r="C110" s="17"/>
       <c r="D110" s="18"/>
       <c r="E110" s="17"/>
@@ -6892,7 +6895,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M110" s="22"/>
+      <c r="M110" s="28"/>
       <c r="N110" s="21"/>
       <c r="O110" s="2"/>
       <c r="Q110">
@@ -6913,8 +6916,8 @@
       </c>
     </row>
     <row r="111" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="15"/>
-      <c r="B111" s="16"/>
+      <c r="A111" s="34"/>
+      <c r="B111" s="35"/>
       <c r="C111" s="17"/>
       <c r="D111" s="18"/>
       <c r="E111" s="17"/>
@@ -6928,7 +6931,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M111" s="22"/>
+      <c r="M111" s="28"/>
       <c r="N111" s="21"/>
       <c r="O111" s="2"/>
       <c r="Q111">
@@ -6949,8 +6952,8 @@
       </c>
     </row>
     <row r="112" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="15"/>
-      <c r="B112" s="16"/>
+      <c r="A112" s="34"/>
+      <c r="B112" s="35"/>
       <c r="C112" s="17"/>
       <c r="D112" s="18"/>
       <c r="E112" s="17"/>
@@ -6964,7 +6967,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M112" s="22"/>
+      <c r="M112" s="28"/>
       <c r="N112" s="21"/>
       <c r="O112" s="2"/>
       <c r="Q112">
@@ -6985,8 +6988,8 @@
       </c>
     </row>
     <row r="113" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="15"/>
-      <c r="B113" s="16"/>
+      <c r="A113" s="34"/>
+      <c r="B113" s="35"/>
       <c r="C113" s="17"/>
       <c r="D113" s="18"/>
       <c r="E113" s="17"/>
@@ -7000,7 +7003,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M113" s="22"/>
+      <c r="M113" s="28"/>
       <c r="N113" s="21"/>
       <c r="O113" s="2"/>
       <c r="Q113">
@@ -7031,39 +7034,486 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="537">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="L112:N112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="E113:G113"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="L113:N113"/>
+    <mergeCell ref="L108:N108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="L109:N109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="E110:G110"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="L110:N110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="E111:G111"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="L111:N111"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="E109:G109"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="L103:N103"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="L104:N104"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="L105:N105"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="L106:N106"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="L107:N107"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E105:G105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="E106:G106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="E107:G107"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="E104:G104"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="L102:N102"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="L96:N96"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="L100:N100"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="L98:N98"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="L101:N101"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="L94:N94"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="L89:N89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="L90:N90"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="L87:N87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="L88:N88"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="L85:N85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="L86:N86"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="L83:N83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="L84:N84"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="L81:N81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="L79:N79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="L80:N80"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="L78:N78"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="L76:N76"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="L77:N77"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="L75:N75"/>
+    <mergeCell ref="L74:N74"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="L68:N68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="L69:N69"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="L72:N72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="L73:N73"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="L71:N71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="L66:N66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="L67:N67"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="L64:N64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="L65:N65"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="L61:N61"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="L19:N19"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
@@ -7088,486 +7538,39 @@
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="L47:N47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="L61:N61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="L64:N64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="L65:N65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="L66:N66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="L67:N67"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="L72:N72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="L73:N73"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="L70:N70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="L71:N71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="L68:N68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="L69:N69"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="L77:N77"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="L75:N75"/>
-    <mergeCell ref="L74:N74"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="L78:N78"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="L76:N76"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="L79:N79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="L80:N80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="L81:N81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="L82:N82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="L83:N83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="L84:N84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="L85:N85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="L86:N86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="L87:N87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="L88:N88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="L89:N89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="L90:N90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="L91:N91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="L92:N92"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="L93:N93"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="L94:N94"/>
-    <mergeCell ref="L102:N102"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="L96:N96"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="L100:N100"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="L98:N98"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="L101:N101"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="E104:G104"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="E105:G105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="E106:G106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="E107:G107"/>
-    <mergeCell ref="L103:N103"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="L104:N104"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="L105:N105"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="L106:N106"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="L107:N107"/>
-    <mergeCell ref="L108:N108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="L109:N109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="E110:G110"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="L110:N110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="E111:G111"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="L111:N111"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="E109:G109"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="E112:G112"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="L112:N112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="E113:G113"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="L113:N113"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/OYM/_Documentos Comunes/POO_C32017.xlsx
+++ b/OYM/_Documentos Comunes/POO_C32017.xlsx
@@ -1263,6 +1263,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1277,14 +1283,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1294,30 +1300,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1342,6 +1324,24 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1728,8 +1728,8 @@
   <dimension ref="A1:Z113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X95" sqref="X95"/>
+      <pane ySplit="10" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X102" sqref="X102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1760,19 +1760,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
+      <c r="B1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1793,19 +1793,19 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
       <c r="N3" s="2"/>
       <c r="P3" t="s">
         <v>21</v>
@@ -1815,19 +1815,19 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
       <c r="N4" s="2"/>
       <c r="P4" t="s">
         <v>23</v>
@@ -1837,19 +1837,19 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
       <c r="N5" s="2"/>
       <c r="P5" t="s">
         <v>25</v>
@@ -1881,19 +1881,19 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
       <c r="N7" s="2"/>
       <c r="P7" s="6" t="s">
         <v>327</v>
@@ -1947,34 +1947,34 @@
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:26" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30" t="s">
+      <c r="B10" s="42"/>
+      <c r="C10" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="29" t="s">
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="29"/>
+      <c r="I10" s="42"/>
       <c r="J10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="29" t="s">
+      <c r="L10" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s">
         <v>8</v>
@@ -2011,35 +2011,35 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="34">
-        <v>0</v>
-      </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="17" t="s">
+      <c r="A11" s="17">
+        <v>0</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="17" t="s">
+      <c r="D11" s="20"/>
+      <c r="E11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="20">
+      <c r="F11" s="21"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="22">
         <v>10</v>
       </c>
-      <c r="I11" s="21"/>
+      <c r="I11" s="23"/>
       <c r="J11" s="5">
         <v>20</v>
       </c>
       <c r="K11" s="5">
         <v>20</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="22">
         <f>IF((Y11-50)&gt;50,50,IF((Y11-50)&lt;0,0,(Y11-50)))</f>
         <v>50</v>
       </c>
-      <c r="M11" s="28"/>
-      <c r="N11" s="21"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="23"/>
       <c r="O11" s="2"/>
       <c r="P11">
         <v>20</v>
@@ -2077,29 +2077,29 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="25" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="25" t="s">
+      <c r="D12" s="28"/>
+      <c r="E12" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="21"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="20">
+      <c r="L12" s="22">
         <f t="shared" ref="L12:L75" si="0">IF((Y12-50)&gt;50,50,IF((Y12-50)&lt;0,0,(Y12-50)))</f>
         <v>0</v>
       </c>
-      <c r="M12" s="28"/>
-      <c r="N12" s="21"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="23"/>
       <c r="O12" s="2"/>
       <c r="Q12">
         <v>0</v>
@@ -2119,29 +2119,29 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="25" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="25" t="s">
+      <c r="D13" s="28"/>
+      <c r="E13" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="21"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="20">
+      <c r="L13" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="28"/>
-      <c r="N13" s="21"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="23"/>
       <c r="O13" s="2"/>
       <c r="P13">
         <v>16</v>
@@ -2167,29 +2167,29 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="25" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="25" t="s">
+      <c r="D14" s="28"/>
+      <c r="E14" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="21"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="20">
+      <c r="L14" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M14" s="28"/>
-      <c r="N14" s="21"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="23"/>
       <c r="O14" s="2"/>
       <c r="P14">
         <v>15</v>
@@ -2212,29 +2212,29 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="25" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="25" t="s">
+      <c r="D15" s="28"/>
+      <c r="E15" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="21"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="20">
+      <c r="L15" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M15" s="28"/>
-      <c r="N15" s="21"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="23"/>
       <c r="O15" s="2"/>
       <c r="P15">
         <v>15</v>
@@ -2260,29 +2260,29 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="25" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="25" t="s">
+      <c r="D16" s="28"/>
+      <c r="E16" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="21"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="23"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="20">
+      <c r="L16" s="22">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="M16" s="28"/>
-      <c r="N16" s="21"/>
+        <v>32</v>
+      </c>
+      <c r="M16" s="24"/>
+      <c r="N16" s="23"/>
       <c r="O16" s="2"/>
       <c r="Q16">
         <v>0</v>
@@ -2302,38 +2302,41 @@
       <c r="W16">
         <v>20</v>
       </c>
+      <c r="X16">
+        <v>30</v>
+      </c>
       <c r="Y16">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="Z16">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="25" t="s">
+      <c r="B17" s="26"/>
+      <c r="C17" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="25" t="s">
+      <c r="D17" s="28"/>
+      <c r="E17" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="21"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="20">
+      <c r="L17" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M17" s="28"/>
-      <c r="N17" s="21"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="23"/>
       <c r="O17" s="2"/>
       <c r="P17">
         <v>13</v>
@@ -2359,29 +2362,29 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="25" t="s">
+      <c r="B18" s="26"/>
+      <c r="C18" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="25" t="s">
+      <c r="D18" s="28"/>
+      <c r="E18" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="21"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="20">
+      <c r="L18" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M18" s="28"/>
-      <c r="N18" s="21"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="23"/>
       <c r="O18" s="2"/>
       <c r="P18">
         <v>14</v>
@@ -2407,29 +2410,29 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="25" t="s">
+      <c r="B19" s="26"/>
+      <c r="C19" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="25" t="s">
+      <c r="D19" s="28"/>
+      <c r="E19" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="21"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="20">
+      <c r="L19" s="22">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="M19" s="28"/>
-      <c r="N19" s="21"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="23"/>
       <c r="O19" s="2"/>
       <c r="P19">
         <v>14</v>
@@ -2458,29 +2461,29 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="25" t="s">
+      <c r="B20" s="26"/>
+      <c r="C20" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="25" t="s">
+      <c r="D20" s="28"/>
+      <c r="E20" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="21"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="23"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="20">
+      <c r="L20" s="22">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="M20" s="28"/>
-      <c r="N20" s="21"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="23"/>
       <c r="O20" s="2"/>
       <c r="P20">
         <v>16</v>
@@ -2512,29 +2515,29 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="25" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="25" t="s">
+      <c r="D21" s="28"/>
+      <c r="E21" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="21"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="20">
+      <c r="L21" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M21" s="28"/>
-      <c r="N21" s="21"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="23"/>
       <c r="O21" s="2"/>
       <c r="P21">
         <v>14</v>
@@ -2560,29 +2563,29 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="25" t="s">
+      <c r="B22" s="26"/>
+      <c r="C22" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="25" t="s">
+      <c r="D22" s="28"/>
+      <c r="E22" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="21"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="20">
+      <c r="L22" s="22">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="M22" s="28"/>
-      <c r="N22" s="21"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="23"/>
       <c r="O22" s="2"/>
       <c r="P22">
         <v>18</v>
@@ -2611,29 +2614,29 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="25" t="s">
+      <c r="B23" s="26"/>
+      <c r="C23" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="25" t="s">
+      <c r="D23" s="28"/>
+      <c r="E23" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="21"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="23"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="20">
+      <c r="L23" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M23" s="28"/>
-      <c r="N23" s="21"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="23"/>
       <c r="O23" s="2"/>
       <c r="Q23">
         <v>0</v>
@@ -2653,29 +2656,29 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="25" t="s">
+      <c r="B24" s="26"/>
+      <c r="C24" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="25" t="s">
+      <c r="D24" s="28"/>
+      <c r="E24" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="21"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="20">
+      <c r="L24" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M24" s="28"/>
-      <c r="N24" s="21"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="23"/>
       <c r="O24" s="2"/>
       <c r="Q24">
         <v>0</v>
@@ -2701,29 +2704,29 @@
       </c>
     </row>
     <row r="25" spans="1:26" s="13" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38" t="s">
+      <c r="B25" s="31"/>
+      <c r="C25" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="38" t="s">
+      <c r="D25" s="33"/>
+      <c r="E25" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="F25" s="40"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="42"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="36"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
-      <c r="L25" s="41">
+      <c r="L25" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M25" s="43"/>
-      <c r="N25" s="42"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="36"/>
       <c r="O25" s="12"/>
       <c r="Q25" s="13">
         <v>0</v>
@@ -2749,29 +2752,29 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="25" t="s">
+      <c r="B26" s="26"/>
+      <c r="C26" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="25" t="s">
+      <c r="D26" s="28"/>
+      <c r="E26" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="21"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="23"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="20">
+      <c r="L26" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M26" s="28"/>
-      <c r="N26" s="21"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="23"/>
       <c r="O26" s="2"/>
       <c r="P26">
         <v>15</v>
@@ -2794,29 +2797,29 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="25" t="s">
+      <c r="B27" s="26"/>
+      <c r="C27" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="25" t="s">
+      <c r="D27" s="28"/>
+      <c r="E27" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="F27" s="27"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="21"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="23"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="20">
+      <c r="L27" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M27" s="28"/>
-      <c r="N27" s="21"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="23"/>
       <c r="O27" s="2"/>
       <c r="P27">
         <v>14</v>
@@ -2845,29 +2848,29 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="25" t="s">
+      <c r="B28" s="26"/>
+      <c r="C28" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="25" t="s">
+      <c r="D28" s="28"/>
+      <c r="E28" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="21"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="23"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="20">
+      <c r="L28" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M28" s="28"/>
-      <c r="N28" s="21"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="23"/>
       <c r="O28" s="2"/>
       <c r="P28">
         <v>18</v>
@@ -2893,29 +2896,29 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="25" t="s">
+      <c r="B29" s="26"/>
+      <c r="C29" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="25" t="s">
+      <c r="D29" s="28"/>
+      <c r="E29" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="21"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="23"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="20">
+      <c r="L29" s="22">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="M29" s="28"/>
-      <c r="N29" s="21"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="23"/>
       <c r="O29" s="2"/>
       <c r="P29">
         <v>16</v>
@@ -2947,29 +2950,29 @@
       </c>
     </row>
     <row r="30" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="25" t="s">
+      <c r="B30" s="26"/>
+      <c r="C30" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="25" t="s">
+      <c r="D30" s="28"/>
+      <c r="E30" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="21"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="23"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="20">
+      <c r="L30" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M30" s="28"/>
-      <c r="N30" s="21"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="23"/>
       <c r="O30" s="2"/>
       <c r="Q30">
         <v>0</v>
@@ -2989,29 +2992,29 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="25" t="s">
+      <c r="B31" s="26"/>
+      <c r="C31" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="25" t="s">
+      <c r="D31" s="28"/>
+      <c r="E31" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="F31" s="27"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="21"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="23"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="20">
+      <c r="L31" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M31" s="28"/>
-      <c r="N31" s="21"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="23"/>
       <c r="O31" s="2"/>
       <c r="P31">
         <v>14</v>
@@ -3040,29 +3043,29 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="25" t="s">
+      <c r="B32" s="26"/>
+      <c r="C32" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="25" t="s">
+      <c r="D32" s="28"/>
+      <c r="E32" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="21"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="23"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="20">
+      <c r="L32" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M32" s="28"/>
-      <c r="N32" s="21"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="23"/>
       <c r="O32" s="2"/>
       <c r="Q32">
         <v>0</v>
@@ -3082,29 +3085,29 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="25" t="s">
+      <c r="B33" s="26"/>
+      <c r="C33" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="25" t="s">
+      <c r="D33" s="28"/>
+      <c r="E33" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="F33" s="27"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="21"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="23"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="20">
+      <c r="L33" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M33" s="28"/>
-      <c r="N33" s="21"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="23"/>
       <c r="O33" s="2"/>
       <c r="P33">
         <v>18</v>
@@ -3130,29 +3133,29 @@
       </c>
     </row>
     <row r="34" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="25" t="s">
+      <c r="B34" s="26"/>
+      <c r="C34" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="25" t="s">
+      <c r="D34" s="28"/>
+      <c r="E34" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="F34" s="27"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="21"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="23"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="20">
+      <c r="L34" s="22">
         <f t="shared" si="0"/>
         <v>22.333333333333329</v>
       </c>
-      <c r="M34" s="28"/>
-      <c r="N34" s="21"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="23"/>
       <c r="O34" s="2"/>
       <c r="P34">
         <v>15</v>
@@ -3187,29 +3190,29 @@
       </c>
     </row>
     <row r="35" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="25" t="s">
+      <c r="B35" s="26"/>
+      <c r="C35" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="25" t="s">
+      <c r="D35" s="28"/>
+      <c r="E35" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="F35" s="27"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="21"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="23"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="20">
+      <c r="L35" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M35" s="28"/>
-      <c r="N35" s="21"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="23"/>
       <c r="O35" s="2"/>
       <c r="P35">
         <v>17</v>
@@ -3235,29 +3238,29 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="25" t="s">
+      <c r="B36" s="26"/>
+      <c r="C36" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="25" t="s">
+      <c r="D36" s="28"/>
+      <c r="E36" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="F36" s="27"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="21"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="23"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="20">
+      <c r="L36" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M36" s="28"/>
-      <c r="N36" s="21"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="23"/>
       <c r="O36" s="2"/>
       <c r="P36">
         <v>19</v>
@@ -3283,29 +3286,29 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="25" t="s">
+      <c r="B37" s="26"/>
+      <c r="C37" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="25" t="s">
+      <c r="D37" s="28"/>
+      <c r="E37" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="F37" s="27"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="21"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="23"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="20">
+      <c r="L37" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M37" s="28"/>
-      <c r="N37" s="21"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="23"/>
       <c r="O37" s="2"/>
       <c r="P37">
         <v>15</v>
@@ -3331,29 +3334,29 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="25" t="s">
+      <c r="B38" s="26"/>
+      <c r="C38" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="25" t="s">
+      <c r="D38" s="28"/>
+      <c r="E38" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="F38" s="27"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="21"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="23"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="20">
+      <c r="L38" s="22">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="M38" s="28"/>
-      <c r="N38" s="21"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="23"/>
       <c r="O38" s="2"/>
       <c r="P38">
         <v>16</v>
@@ -3385,29 +3388,29 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="25" t="s">
+      <c r="B39" s="26"/>
+      <c r="C39" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="25" t="s">
+      <c r="D39" s="28"/>
+      <c r="E39" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="F39" s="27"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="21"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="23"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="20">
+      <c r="L39" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M39" s="28"/>
-      <c r="N39" s="21"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="23"/>
       <c r="O39" s="2"/>
       <c r="Q39">
         <v>0</v>
@@ -3427,29 +3430,29 @@
       </c>
     </row>
     <row r="40" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="32"/>
-      <c r="C40" s="25" t="s">
+      <c r="B40" s="26"/>
+      <c r="C40" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="25" t="s">
+      <c r="D40" s="28"/>
+      <c r="E40" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="27"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="21"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="23"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
-      <c r="L40" s="20">
+      <c r="L40" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M40" s="28"/>
-      <c r="N40" s="21"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="23"/>
       <c r="O40" s="2"/>
       <c r="P40">
         <v>13</v>
@@ -3475,29 +3478,29 @@
       </c>
     </row>
     <row r="41" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="25" t="s">
+      <c r="B41" s="26"/>
+      <c r="C41" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="D41" s="26"/>
-      <c r="E41" s="25" t="s">
+      <c r="D41" s="28"/>
+      <c r="E41" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="F41" s="27"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="21"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="23"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
-      <c r="L41" s="20">
+      <c r="L41" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M41" s="28"/>
-      <c r="N41" s="21"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="23"/>
       <c r="O41" s="2"/>
       <c r="Q41">
         <v>0</v>
@@ -3517,29 +3520,29 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="25" t="s">
+      <c r="B42" s="26"/>
+      <c r="C42" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="D42" s="26"/>
-      <c r="E42" s="25" t="s">
+      <c r="D42" s="28"/>
+      <c r="E42" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="F42" s="27"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="21"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="23"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
-      <c r="L42" s="20">
+      <c r="L42" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M42" s="28"/>
-      <c r="N42" s="21"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="23"/>
       <c r="O42" s="2"/>
       <c r="Q42">
         <v>9</v>
@@ -3559,29 +3562,29 @@
       </c>
     </row>
     <row r="43" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="25" t="s">
+      <c r="B43" s="26"/>
+      <c r="C43" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="D43" s="26"/>
-      <c r="E43" s="25" t="s">
+      <c r="D43" s="28"/>
+      <c r="E43" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="F43" s="27"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="21"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="23"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
-      <c r="L43" s="20">
+      <c r="L43" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M43" s="28"/>
-      <c r="N43" s="21"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="23"/>
       <c r="O43" s="2"/>
       <c r="P43">
         <v>11</v>
@@ -3613,29 +3616,29 @@
       </c>
     </row>
     <row r="44" spans="1:26" s="13" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="36" t="s">
+      <c r="A44" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="37"/>
-      <c r="C44" s="38" t="s">
+      <c r="B44" s="31"/>
+      <c r="C44" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="D44" s="39"/>
-      <c r="E44" s="38" t="s">
+      <c r="D44" s="33"/>
+      <c r="E44" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="F44" s="40"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="42"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="36"/>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
-      <c r="L44" s="41">
+      <c r="L44" s="35">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="M44" s="43"/>
-      <c r="N44" s="42"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="36"/>
       <c r="O44" s="12"/>
       <c r="P44" s="13">
         <v>20</v>
@@ -3664,29 +3667,29 @@
       </c>
     </row>
     <row r="45" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="32"/>
-      <c r="C45" s="25" t="s">
+      <c r="B45" s="26"/>
+      <c r="C45" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="D45" s="26"/>
-      <c r="E45" s="25" t="s">
+      <c r="D45" s="28"/>
+      <c r="E45" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="F45" s="27"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="21"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="23"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
-      <c r="L45" s="20">
+      <c r="L45" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M45" s="28"/>
-      <c r="N45" s="21"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="23"/>
       <c r="O45" s="2"/>
       <c r="P45">
         <v>14</v>
@@ -3709,29 +3712,29 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="32"/>
-      <c r="C46" s="25" t="s">
+      <c r="B46" s="26"/>
+      <c r="C46" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="D46" s="26"/>
-      <c r="E46" s="25" t="s">
+      <c r="D46" s="28"/>
+      <c r="E46" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="F46" s="27"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="21"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="23"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
-      <c r="L46" s="20">
+      <c r="L46" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M46" s="28"/>
-      <c r="N46" s="21"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="23"/>
       <c r="O46" s="2"/>
       <c r="P46">
         <v>13</v>
@@ -3757,29 +3760,29 @@
       </c>
     </row>
     <row r="47" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="32"/>
-      <c r="C47" s="25" t="s">
+      <c r="B47" s="26"/>
+      <c r="C47" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="D47" s="26"/>
-      <c r="E47" s="25" t="s">
+      <c r="D47" s="28"/>
+      <c r="E47" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="F47" s="27"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="21"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="23"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
-      <c r="L47" s="20">
+      <c r="L47" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M47" s="28"/>
-      <c r="N47" s="21"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="23"/>
       <c r="O47" s="2"/>
       <c r="P47">
         <v>20</v>
@@ -3805,29 +3808,29 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="32"/>
-      <c r="C48" s="25" t="s">
+      <c r="B48" s="26"/>
+      <c r="C48" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="25" t="s">
+      <c r="D48" s="28"/>
+      <c r="E48" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="21"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="23"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
-      <c r="L48" s="20">
+      <c r="L48" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M48" s="28"/>
-      <c r="N48" s="21"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="23"/>
       <c r="O48" s="2"/>
       <c r="P48">
         <v>14</v>
@@ -3856,29 +3859,29 @@
       </c>
     </row>
     <row r="49" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B49" s="32"/>
-      <c r="C49" s="25" t="s">
+      <c r="B49" s="26"/>
+      <c r="C49" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="D49" s="26"/>
-      <c r="E49" s="25" t="s">
+      <c r="D49" s="28"/>
+      <c r="E49" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="F49" s="27"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="21"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="23"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
-      <c r="L49" s="20">
+      <c r="L49" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M49" s="28"/>
-      <c r="N49" s="21"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="23"/>
       <c r="O49" s="2"/>
       <c r="P49">
         <v>16</v>
@@ -3901,29 +3904,29 @@
       </c>
     </row>
     <row r="50" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="32"/>
-      <c r="C50" s="25" t="s">
+      <c r="B50" s="26"/>
+      <c r="C50" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="D50" s="26"/>
-      <c r="E50" s="25" t="s">
+      <c r="D50" s="28"/>
+      <c r="E50" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="F50" s="27"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="21"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="23"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="20">
+      <c r="L50" s="22">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="M50" s="28"/>
-      <c r="N50" s="21"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="23"/>
       <c r="O50" s="2"/>
       <c r="P50">
         <v>13</v>
@@ -3958,29 +3961,29 @@
       </c>
     </row>
     <row r="51" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="31" t="s">
+      <c r="A51" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B51" s="32"/>
-      <c r="C51" s="25" t="s">
+      <c r="B51" s="26"/>
+      <c r="C51" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="D51" s="26"/>
-      <c r="E51" s="25" t="s">
+      <c r="D51" s="28"/>
+      <c r="E51" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="F51" s="27"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="21"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="23"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
-      <c r="L51" s="20">
+      <c r="L51" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M51" s="28"/>
-      <c r="N51" s="21"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="23"/>
       <c r="O51" s="2"/>
       <c r="Q51">
         <v>0</v>
@@ -4003,29 +4006,29 @@
       </c>
     </row>
     <row r="52" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B52" s="32"/>
-      <c r="C52" s="25" t="s">
+      <c r="B52" s="26"/>
+      <c r="C52" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="D52" s="26"/>
-      <c r="E52" s="25" t="s">
+      <c r="D52" s="28"/>
+      <c r="E52" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="F52" s="27"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="21"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="23"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
-      <c r="L52" s="20">
+      <c r="L52" s="22">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="M52" s="28"/>
-      <c r="N52" s="21"/>
+        <v>50</v>
+      </c>
+      <c r="M52" s="24"/>
+      <c r="N52" s="23"/>
       <c r="O52" s="2"/>
       <c r="P52">
         <v>13</v>
@@ -4048,38 +4051,41 @@
       <c r="W52">
         <v>20</v>
       </c>
+      <c r="X52">
+        <v>30</v>
+      </c>
       <c r="Y52">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="Z52">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="32"/>
-      <c r="C53" s="25" t="s">
+      <c r="B53" s="26"/>
+      <c r="C53" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="D53" s="26"/>
-      <c r="E53" s="25" t="s">
+      <c r="D53" s="28"/>
+      <c r="E53" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="F53" s="27"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="21"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="23"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
-      <c r="L53" s="20">
+      <c r="L53" s="22">
         <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="M53" s="28"/>
-      <c r="N53" s="21"/>
+        <v>50</v>
+      </c>
+      <c r="M53" s="24"/>
+      <c r="N53" s="23"/>
       <c r="O53" s="2"/>
       <c r="P53">
         <v>17</v>
@@ -4105,38 +4111,41 @@
       <c r="W53">
         <v>20</v>
       </c>
+      <c r="X53">
+        <v>30</v>
+      </c>
       <c r="Y53">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="Z53">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B54" s="32"/>
-      <c r="C54" s="25" t="s">
+      <c r="B54" s="26"/>
+      <c r="C54" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="D54" s="26"/>
-      <c r="E54" s="25" t="s">
+      <c r="D54" s="28"/>
+      <c r="E54" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="F54" s="27"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="21"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="23"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="20">
+      <c r="L54" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M54" s="28"/>
-      <c r="N54" s="21"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="23"/>
       <c r="O54" s="2"/>
       <c r="Q54">
         <v>0</v>
@@ -4156,29 +4165,29 @@
       </c>
     </row>
     <row r="55" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="31" t="s">
+      <c r="A55" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B55" s="32"/>
-      <c r="C55" s="25" t="s">
+      <c r="B55" s="26"/>
+      <c r="C55" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="D55" s="26"/>
-      <c r="E55" s="25" t="s">
+      <c r="D55" s="28"/>
+      <c r="E55" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="F55" s="27"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="21"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="23"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="20">
+      <c r="L55" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M55" s="28"/>
-      <c r="N55" s="21"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="23"/>
       <c r="O55" s="2"/>
       <c r="Q55">
         <v>0</v>
@@ -4201,29 +4210,29 @@
       </c>
     </row>
     <row r="56" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="31" t="s">
+      <c r="A56" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B56" s="32"/>
-      <c r="C56" s="25" t="s">
+      <c r="B56" s="26"/>
+      <c r="C56" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="D56" s="26"/>
-      <c r="E56" s="25" t="s">
+      <c r="D56" s="28"/>
+      <c r="E56" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="F56" s="27"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="21"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="23"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="20">
+      <c r="L56" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M56" s="28"/>
-      <c r="N56" s="21"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="23"/>
       <c r="O56" s="2"/>
       <c r="Q56">
         <v>0</v>
@@ -4246,29 +4255,29 @@
       </c>
     </row>
     <row r="57" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="31" t="s">
+      <c r="A57" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B57" s="32"/>
-      <c r="C57" s="25" t="s">
+      <c r="B57" s="26"/>
+      <c r="C57" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="D57" s="26"/>
-      <c r="E57" s="25" t="s">
+      <c r="D57" s="28"/>
+      <c r="E57" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="F57" s="27"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="21"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="23"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="20">
+      <c r="L57" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M57" s="28"/>
-      <c r="N57" s="21"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="23"/>
       <c r="O57" s="2"/>
       <c r="Q57">
         <v>8</v>
@@ -4294,29 +4303,29 @@
       </c>
     </row>
     <row r="58" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="31" t="s">
+      <c r="A58" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B58" s="32"/>
-      <c r="C58" s="25" t="s">
+      <c r="B58" s="26"/>
+      <c r="C58" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="D58" s="26"/>
-      <c r="E58" s="25" t="s">
+      <c r="D58" s="28"/>
+      <c r="E58" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="F58" s="27"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="21"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="23"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="20">
+      <c r="L58" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M58" s="28"/>
-      <c r="N58" s="21"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="23"/>
       <c r="O58" s="2"/>
       <c r="P58">
         <v>14</v>
@@ -4342,29 +4351,29 @@
       </c>
     </row>
     <row r="59" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="31" t="s">
+      <c r="A59" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B59" s="32"/>
-      <c r="C59" s="25" t="s">
+      <c r="B59" s="26"/>
+      <c r="C59" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="D59" s="26"/>
-      <c r="E59" s="25" t="s">
+      <c r="D59" s="28"/>
+      <c r="E59" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="F59" s="27"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="21"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="23"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="20">
+      <c r="L59" s="22">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="M59" s="28"/>
-      <c r="N59" s="21"/>
+        <v>47</v>
+      </c>
+      <c r="M59" s="24"/>
+      <c r="N59" s="23"/>
       <c r="O59" s="2"/>
       <c r="P59">
         <v>13</v>
@@ -4384,38 +4393,41 @@
       <c r="W59">
         <v>18</v>
       </c>
+      <c r="X59">
+        <v>30</v>
+      </c>
       <c r="Y59">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="Z59">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="31" t="s">
+      <c r="A60" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B60" s="32"/>
-      <c r="C60" s="25" t="s">
+      <c r="B60" s="26"/>
+      <c r="C60" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="D60" s="26"/>
-      <c r="E60" s="25" t="s">
+      <c r="D60" s="28"/>
+      <c r="E60" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="F60" s="27"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="21"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="23"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="20">
+      <c r="L60" s="22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="M60" s="28"/>
-      <c r="N60" s="21"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="23"/>
       <c r="O60" s="2"/>
       <c r="P60">
         <v>13</v>
@@ -4450,29 +4462,29 @@
       </c>
     </row>
     <row r="61" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="31" t="s">
+      <c r="A61" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B61" s="32"/>
-      <c r="C61" s="25" t="s">
+      <c r="B61" s="26"/>
+      <c r="C61" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="D61" s="26"/>
-      <c r="E61" s="25" t="s">
+      <c r="D61" s="28"/>
+      <c r="E61" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="F61" s="27"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="21"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="23"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="20">
+      <c r="L61" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M61" s="28"/>
-      <c r="N61" s="21"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="23"/>
       <c r="O61" s="2"/>
       <c r="P61">
         <v>14</v>
@@ -4498,29 +4510,29 @@
       </c>
     </row>
     <row r="62" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B62" s="32"/>
-      <c r="C62" s="25" t="s">
+      <c r="B62" s="26"/>
+      <c r="C62" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="D62" s="26"/>
-      <c r="E62" s="25" t="s">
+      <c r="D62" s="28"/>
+      <c r="E62" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="F62" s="27"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="21"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="23"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="20">
+      <c r="L62" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M62" s="28"/>
-      <c r="N62" s="21"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="23"/>
       <c r="O62" s="2"/>
       <c r="P62">
         <v>13</v>
@@ -4543,29 +4555,29 @@
       </c>
     </row>
     <row r="63" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="31" t="s">
+      <c r="A63" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B63" s="32"/>
-      <c r="C63" s="25" t="s">
+      <c r="B63" s="26"/>
+      <c r="C63" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="D63" s="26"/>
-      <c r="E63" s="25" t="s">
+      <c r="D63" s="28"/>
+      <c r="E63" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="F63" s="27"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="21"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="23"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="20">
+      <c r="L63" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M63" s="28"/>
-      <c r="N63" s="21"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="23"/>
       <c r="O63" s="2"/>
       <c r="Q63">
         <v>0</v>
@@ -4585,29 +4597,29 @@
       </c>
     </row>
     <row r="64" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="31" t="s">
+      <c r="A64" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B64" s="32"/>
-      <c r="C64" s="25" t="s">
+      <c r="B64" s="26"/>
+      <c r="C64" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="D64" s="26"/>
-      <c r="E64" s="25" t="s">
+      <c r="D64" s="28"/>
+      <c r="E64" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="F64" s="27"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="21"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="23"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="20">
+      <c r="L64" s="22">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="M64" s="28"/>
-      <c r="N64" s="21"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="23"/>
       <c r="O64" s="2"/>
       <c r="P64">
         <v>18</v>
@@ -4642,29 +4654,29 @@
       </c>
     </row>
     <row r="65" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="31" t="s">
+      <c r="A65" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B65" s="32"/>
-      <c r="C65" s="25" t="s">
+      <c r="B65" s="26"/>
+      <c r="C65" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="D65" s="26"/>
-      <c r="E65" s="25" t="s">
+      <c r="D65" s="28"/>
+      <c r="E65" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="F65" s="27"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="21"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="23"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="20">
+      <c r="L65" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M65" s="28"/>
-      <c r="N65" s="21"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="23"/>
       <c r="O65" s="2"/>
       <c r="Q65">
         <v>0</v>
@@ -4684,29 +4696,29 @@
       </c>
     </row>
     <row r="66" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="31" t="s">
+      <c r="A66" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B66" s="32"/>
-      <c r="C66" s="25" t="s">
+      <c r="B66" s="26"/>
+      <c r="C66" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="D66" s="26"/>
-      <c r="E66" s="25" t="s">
+      <c r="D66" s="28"/>
+      <c r="E66" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="F66" s="27"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="21"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="23"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
-      <c r="L66" s="20">
+      <c r="L66" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M66" s="28"/>
-      <c r="N66" s="21"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="23"/>
       <c r="O66" s="2"/>
       <c r="P66">
         <v>13</v>
@@ -4729,29 +4741,29 @@
       </c>
     </row>
     <row r="67" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="31" t="s">
+      <c r="A67" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="32"/>
-      <c r="C67" s="25" t="s">
+      <c r="B67" s="26"/>
+      <c r="C67" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="D67" s="26"/>
-      <c r="E67" s="25" t="s">
+      <c r="D67" s="28"/>
+      <c r="E67" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="F67" s="27"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="21"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="23"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="20">
+      <c r="L67" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M67" s="28"/>
-      <c r="N67" s="21"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="23"/>
       <c r="O67" s="2"/>
       <c r="P67">
         <v>15</v>
@@ -4780,29 +4792,29 @@
       </c>
     </row>
     <row r="68" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="31" t="s">
+      <c r="A68" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B68" s="32"/>
-      <c r="C68" s="25" t="s">
+      <c r="B68" s="26"/>
+      <c r="C68" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="D68" s="26"/>
-      <c r="E68" s="25" t="s">
+      <c r="D68" s="28"/>
+      <c r="E68" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="F68" s="27"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="21"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="23"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-      <c r="L68" s="20">
+      <c r="L68" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M68" s="28"/>
-      <c r="N68" s="21"/>
+      <c r="M68" s="24"/>
+      <c r="N68" s="23"/>
       <c r="O68" s="2"/>
       <c r="P68">
         <v>15</v>
@@ -4828,29 +4840,29 @@
       </c>
     </row>
     <row r="69" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="31" t="s">
+      <c r="A69" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B69" s="32"/>
-      <c r="C69" s="25" t="s">
+      <c r="B69" s="26"/>
+      <c r="C69" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="D69" s="26"/>
-      <c r="E69" s="25" t="s">
+      <c r="D69" s="28"/>
+      <c r="E69" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="F69" s="27"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="21"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="23"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="20">
+      <c r="L69" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M69" s="28"/>
-      <c r="N69" s="21"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="23"/>
       <c r="O69" s="2"/>
       <c r="Q69">
         <v>10</v>
@@ -4870,29 +4882,29 @@
       </c>
     </row>
     <row r="70" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="31" t="s">
+      <c r="A70" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B70" s="32"/>
-      <c r="C70" s="25" t="s">
+      <c r="B70" s="26"/>
+      <c r="C70" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="D70" s="26"/>
-      <c r="E70" s="25" t="s">
+      <c r="D70" s="28"/>
+      <c r="E70" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="F70" s="27"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="21"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="23"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
-      <c r="L70" s="20">
+      <c r="L70" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M70" s="28"/>
-      <c r="N70" s="21"/>
+      <c r="M70" s="24"/>
+      <c r="N70" s="23"/>
       <c r="O70" s="2"/>
       <c r="P70">
         <v>18</v>
@@ -4921,29 +4933,29 @@
       </c>
     </row>
     <row r="71" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="31" t="s">
+      <c r="A71" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B71" s="32"/>
-      <c r="C71" s="25" t="s">
+      <c r="B71" s="26"/>
+      <c r="C71" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="D71" s="26"/>
-      <c r="E71" s="25" t="s">
+      <c r="D71" s="28"/>
+      <c r="E71" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="F71" s="27"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="21"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="23"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
-      <c r="L71" s="20">
+      <c r="L71" s="22">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M71" s="28"/>
-      <c r="N71" s="21"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="23"/>
       <c r="O71" s="2"/>
       <c r="Q71">
         <v>0</v>
@@ -4972,29 +4984,29 @@
       </c>
     </row>
     <row r="72" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="31" t="s">
+      <c r="A72" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B72" s="32"/>
-      <c r="C72" s="25" t="s">
+      <c r="B72" s="26"/>
+      <c r="C72" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="D72" s="26"/>
-      <c r="E72" s="25" t="s">
+      <c r="D72" s="28"/>
+      <c r="E72" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="F72" s="27"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="21"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="23"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="L72" s="20">
+      <c r="L72" s="22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="M72" s="28"/>
-      <c r="N72" s="21"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="23"/>
       <c r="O72" s="2"/>
       <c r="P72">
         <v>15</v>
@@ -5026,29 +5038,29 @@
       </c>
     </row>
     <row r="73" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B73" s="32"/>
-      <c r="C73" s="25" t="s">
+      <c r="B73" s="26"/>
+      <c r="C73" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="D73" s="26"/>
-      <c r="E73" s="25" t="s">
+      <c r="D73" s="28"/>
+      <c r="E73" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="F73" s="27"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="21"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="23"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
-      <c r="L73" s="20">
+      <c r="L73" s="22">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="M73" s="28"/>
-      <c r="N73" s="21"/>
+      <c r="M73" s="24"/>
+      <c r="N73" s="23"/>
       <c r="O73" s="2"/>
       <c r="P73">
         <v>13</v>
@@ -5083,29 +5095,29 @@
       </c>
     </row>
     <row r="74" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="31" t="s">
+      <c r="A74" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B74" s="32"/>
-      <c r="C74" s="25" t="s">
+      <c r="B74" s="26"/>
+      <c r="C74" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="D74" s="26"/>
-      <c r="E74" s="25" t="s">
+      <c r="D74" s="28"/>
+      <c r="E74" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="F74" s="27"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="21"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="23"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
-      <c r="L74" s="20">
+      <c r="L74" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M74" s="28"/>
-      <c r="N74" s="21"/>
+      <c r="M74" s="24"/>
+      <c r="N74" s="23"/>
       <c r="O74" s="2"/>
       <c r="Q74">
         <v>0</v>
@@ -5131,29 +5143,29 @@
       </c>
     </row>
     <row r="75" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="31" t="s">
+      <c r="A75" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="B75" s="32"/>
-      <c r="C75" s="25" t="s">
+      <c r="B75" s="26"/>
+      <c r="C75" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="D75" s="26"/>
-      <c r="E75" s="25" t="s">
+      <c r="D75" s="28"/>
+      <c r="E75" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="F75" s="27"/>
-      <c r="G75" s="26"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="21"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="23"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
-      <c r="L75" s="20">
+      <c r="L75" s="22">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="M75" s="28"/>
-      <c r="N75" s="21"/>
+      <c r="M75" s="24"/>
+      <c r="N75" s="23"/>
       <c r="O75" s="2"/>
       <c r="P75">
         <v>14</v>
@@ -5185,29 +5197,29 @@
       </c>
     </row>
     <row r="76" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="31" t="s">
+      <c r="A76" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="B76" s="32"/>
-      <c r="C76" s="25" t="s">
+      <c r="B76" s="26"/>
+      <c r="C76" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="D76" s="26"/>
-      <c r="E76" s="25" t="s">
+      <c r="D76" s="28"/>
+      <c r="E76" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="F76" s="27"/>
-      <c r="G76" s="26"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="21"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="23"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
-      <c r="L76" s="20">
+      <c r="L76" s="22">
         <f t="shared" ref="L76:L113" si="2">IF((Y76-50)&gt;50,50,IF((Y76-50)&lt;0,0,(Y76-50)))</f>
         <v>0</v>
       </c>
-      <c r="M76" s="28"/>
-      <c r="N76" s="21"/>
+      <c r="M76" s="24"/>
+      <c r="N76" s="23"/>
       <c r="O76" s="2"/>
       <c r="Q76">
         <v>0</v>
@@ -5227,29 +5239,29 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="31" t="s">
+      <c r="A77" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="B77" s="32"/>
-      <c r="C77" s="25" t="s">
+      <c r="B77" s="26"/>
+      <c r="C77" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="D77" s="26"/>
-      <c r="E77" s="25" t="s">
+      <c r="D77" s="28"/>
+      <c r="E77" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="F77" s="27"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="21"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="23"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
-      <c r="L77" s="20">
+      <c r="L77" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M77" s="28"/>
-      <c r="N77" s="21"/>
+      <c r="M77" s="24"/>
+      <c r="N77" s="23"/>
       <c r="O77" s="2"/>
       <c r="P77">
         <v>19</v>
@@ -5275,29 +5287,29 @@
       </c>
     </row>
     <row r="78" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="31" t="s">
+      <c r="A78" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="B78" s="32"/>
-      <c r="C78" s="25" t="s">
+      <c r="B78" s="26"/>
+      <c r="C78" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="D78" s="26"/>
-      <c r="E78" s="25" t="s">
+      <c r="D78" s="28"/>
+      <c r="E78" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="F78" s="27"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="21"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="23"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
-      <c r="L78" s="20">
+      <c r="L78" s="22">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="M78" s="28"/>
-      <c r="N78" s="21"/>
+      <c r="M78" s="24"/>
+      <c r="N78" s="23"/>
       <c r="O78" s="2"/>
       <c r="P78">
         <v>16</v>
@@ -5329,29 +5341,29 @@
       </c>
     </row>
     <row r="79" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="31" t="s">
+      <c r="A79" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="B79" s="32"/>
-      <c r="C79" s="25" t="s">
+      <c r="B79" s="26"/>
+      <c r="C79" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="D79" s="26"/>
-      <c r="E79" s="25" t="s">
+      <c r="D79" s="28"/>
+      <c r="E79" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="F79" s="27"/>
-      <c r="G79" s="26"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="21"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="23"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
-      <c r="L79" s="20">
+      <c r="L79" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M79" s="28"/>
-      <c r="N79" s="21"/>
+      <c r="M79" s="24"/>
+      <c r="N79" s="23"/>
       <c r="O79" s="2"/>
       <c r="Q79">
         <v>0</v>
@@ -5377,29 +5389,29 @@
       </c>
     </row>
     <row r="80" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="31" t="s">
+      <c r="A80" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="B80" s="32"/>
-      <c r="C80" s="25" t="s">
+      <c r="B80" s="26"/>
+      <c r="C80" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="D80" s="26"/>
-      <c r="E80" s="25" t="s">
+      <c r="D80" s="28"/>
+      <c r="E80" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="F80" s="27"/>
-      <c r="G80" s="26"/>
-      <c r="H80" s="20"/>
-      <c r="I80" s="21"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="23"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
-      <c r="L80" s="20">
+      <c r="L80" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M80" s="28"/>
-      <c r="N80" s="21"/>
+      <c r="M80" s="24"/>
+      <c r="N80" s="23"/>
       <c r="O80" s="2"/>
       <c r="P80">
         <v>16</v>
@@ -5425,29 +5437,29 @@
       </c>
     </row>
     <row r="81" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="31" t="s">
+      <c r="A81" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="B81" s="32"/>
-      <c r="C81" s="25" t="s">
+      <c r="B81" s="26"/>
+      <c r="C81" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="D81" s="26"/>
-      <c r="E81" s="25" t="s">
+      <c r="D81" s="28"/>
+      <c r="E81" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="F81" s="27"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="21"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="23"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
-      <c r="L81" s="20">
+      <c r="L81" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M81" s="28"/>
-      <c r="N81" s="21"/>
+      <c r="M81" s="24"/>
+      <c r="N81" s="23"/>
       <c r="O81" s="2"/>
       <c r="P81">
         <v>16</v>
@@ -5476,29 +5488,29 @@
       </c>
     </row>
     <row r="82" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="31" t="s">
+      <c r="A82" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="B82" s="32"/>
-      <c r="C82" s="25" t="s">
+      <c r="B82" s="26"/>
+      <c r="C82" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="D82" s="26"/>
-      <c r="E82" s="25" t="s">
+      <c r="D82" s="28"/>
+      <c r="E82" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="F82" s="27"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="20"/>
-      <c r="I82" s="21"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="23"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
-      <c r="L82" s="20">
+      <c r="L82" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M82" s="28"/>
-      <c r="N82" s="21"/>
+      <c r="M82" s="24"/>
+      <c r="N82" s="23"/>
       <c r="O82" s="2"/>
       <c r="Q82">
         <v>10</v>
@@ -5518,29 +5530,29 @@
       </c>
     </row>
     <row r="83" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="31" t="s">
+      <c r="A83" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="B83" s="32"/>
-      <c r="C83" s="25" t="s">
+      <c r="B83" s="26"/>
+      <c r="C83" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="D83" s="26"/>
-      <c r="E83" s="25" t="s">
+      <c r="D83" s="28"/>
+      <c r="E83" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="F83" s="27"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="21"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="23"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
-      <c r="L83" s="20">
+      <c r="L83" s="22">
         <f t="shared" si="2"/>
         <v>17.75</v>
       </c>
-      <c r="M83" s="28"/>
-      <c r="N83" s="21"/>
+      <c r="M83" s="24"/>
+      <c r="N83" s="23"/>
       <c r="O83" s="2"/>
       <c r="P83">
         <v>11</v>
@@ -5575,29 +5587,29 @@
       </c>
     </row>
     <row r="84" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="31" t="s">
+      <c r="A84" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="B84" s="32"/>
-      <c r="C84" s="25" t="s">
+      <c r="B84" s="26"/>
+      <c r="C84" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="D84" s="26"/>
-      <c r="E84" s="25" t="s">
+      <c r="D84" s="28"/>
+      <c r="E84" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="F84" s="27"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="21"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="23"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
-      <c r="L84" s="20">
+      <c r="L84" s="22">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="M84" s="28"/>
-      <c r="N84" s="21"/>
+      <c r="M84" s="24"/>
+      <c r="N84" s="23"/>
       <c r="O84" s="2"/>
       <c r="Q84">
         <v>0</v>
@@ -5626,29 +5638,29 @@
       </c>
     </row>
     <row r="85" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="31" t="s">
+      <c r="A85" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="B85" s="32"/>
-      <c r="C85" s="25" t="s">
+      <c r="B85" s="26"/>
+      <c r="C85" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="D85" s="26"/>
-      <c r="E85" s="25" t="s">
+      <c r="D85" s="28"/>
+      <c r="E85" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="F85" s="27"/>
-      <c r="G85" s="26"/>
-      <c r="H85" s="20"/>
-      <c r="I85" s="21"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="23"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
-      <c r="L85" s="20">
+      <c r="L85" s="22">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="M85" s="28"/>
-      <c r="N85" s="21"/>
+      <c r="M85" s="24"/>
+      <c r="N85" s="23"/>
       <c r="O85" s="2"/>
       <c r="P85">
         <v>13</v>
@@ -5680,29 +5692,29 @@
       </c>
     </row>
     <row r="86" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="31" t="s">
+      <c r="A86" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="B86" s="32"/>
-      <c r="C86" s="25" t="s">
+      <c r="B86" s="26"/>
+      <c r="C86" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="D86" s="26"/>
-      <c r="E86" s="25" t="s">
+      <c r="D86" s="28"/>
+      <c r="E86" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="F86" s="27"/>
-      <c r="G86" s="26"/>
-      <c r="H86" s="20"/>
-      <c r="I86" s="21"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="22"/>
+      <c r="I86" s="23"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
-      <c r="L86" s="20">
+      <c r="L86" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M86" s="28"/>
-      <c r="N86" s="21"/>
+      <c r="M86" s="24"/>
+      <c r="N86" s="23"/>
       <c r="O86" s="2"/>
       <c r="P86">
         <v>16</v>
@@ -5728,29 +5740,29 @@
       </c>
     </row>
     <row r="87" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="31" t="s">
+      <c r="A87" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="B87" s="32"/>
-      <c r="C87" s="25" t="s">
+      <c r="B87" s="26"/>
+      <c r="C87" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="D87" s="26"/>
-      <c r="E87" s="25" t="s">
+      <c r="D87" s="28"/>
+      <c r="E87" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="F87" s="27"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="20"/>
-      <c r="I87" s="21"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="23"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
-      <c r="L87" s="20">
+      <c r="L87" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M87" s="28"/>
-      <c r="N87" s="21"/>
+      <c r="M87" s="24"/>
+      <c r="N87" s="23"/>
       <c r="O87" s="2"/>
       <c r="Q87">
         <v>0</v>
@@ -5770,29 +5782,29 @@
       </c>
     </row>
     <row r="88" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="31" t="s">
+      <c r="A88" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="B88" s="32"/>
-      <c r="C88" s="25" t="s">
+      <c r="B88" s="26"/>
+      <c r="C88" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="D88" s="26"/>
-      <c r="E88" s="25" t="s">
+      <c r="D88" s="28"/>
+      <c r="E88" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="F88" s="27"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="21"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="23"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
-      <c r="L88" s="20">
+      <c r="L88" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M88" s="28"/>
-      <c r="N88" s="21"/>
+      <c r="M88" s="24"/>
+      <c r="N88" s="23"/>
       <c r="O88" s="2"/>
       <c r="P88">
         <v>14</v>
@@ -5815,29 +5827,29 @@
       </c>
     </row>
     <row r="89" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="31" t="s">
+      <c r="A89" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="B89" s="32"/>
-      <c r="C89" s="25" t="s">
+      <c r="B89" s="26"/>
+      <c r="C89" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="D89" s="26"/>
-      <c r="E89" s="25" t="s">
+      <c r="D89" s="28"/>
+      <c r="E89" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="F89" s="27"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="20"/>
-      <c r="I89" s="21"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="23"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
-      <c r="L89" s="20">
+      <c r="L89" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M89" s="28"/>
-      <c r="N89" s="21"/>
+      <c r="M89" s="24"/>
+      <c r="N89" s="23"/>
       <c r="O89" s="2"/>
       <c r="P89">
         <v>13</v>
@@ -5860,29 +5872,29 @@
       </c>
     </row>
     <row r="90" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="31" t="s">
+      <c r="A90" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="B90" s="32"/>
-      <c r="C90" s="25" t="s">
+      <c r="B90" s="26"/>
+      <c r="C90" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="D90" s="26"/>
-      <c r="E90" s="25" t="s">
+      <c r="D90" s="28"/>
+      <c r="E90" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="F90" s="27"/>
-      <c r="G90" s="26"/>
-      <c r="H90" s="20"/>
-      <c r="I90" s="21"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="22"/>
+      <c r="I90" s="23"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
-      <c r="L90" s="20">
+      <c r="L90" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M90" s="28"/>
-      <c r="N90" s="21"/>
+      <c r="M90" s="24"/>
+      <c r="N90" s="23"/>
       <c r="O90" s="2"/>
       <c r="P90">
         <v>14</v>
@@ -5905,29 +5917,29 @@
       </c>
     </row>
     <row r="91" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="31" t="s">
+      <c r="A91" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="B91" s="32"/>
-      <c r="C91" s="25" t="s">
+      <c r="B91" s="26"/>
+      <c r="C91" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="D91" s="26"/>
-      <c r="E91" s="25" t="s">
+      <c r="D91" s="28"/>
+      <c r="E91" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="F91" s="27"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="20"/>
-      <c r="I91" s="21"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="22"/>
+      <c r="I91" s="23"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
-      <c r="L91" s="20">
+      <c r="L91" s="22">
         <f t="shared" si="2"/>
         <v>17.666666666666671</v>
       </c>
-      <c r="M91" s="28"/>
-      <c r="N91" s="21"/>
+      <c r="M91" s="24"/>
+      <c r="N91" s="23"/>
       <c r="O91" s="2"/>
       <c r="P91">
         <v>13</v>
@@ -5962,29 +5974,29 @@
       </c>
     </row>
     <row r="92" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="31" t="s">
+      <c r="A92" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="B92" s="32"/>
-      <c r="C92" s="25" t="s">
+      <c r="B92" s="26"/>
+      <c r="C92" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="D92" s="26"/>
-      <c r="E92" s="25" t="s">
+      <c r="D92" s="28"/>
+      <c r="E92" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="F92" s="27"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="20"/>
-      <c r="I92" s="21"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="28"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="23"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
-      <c r="L92" s="20">
+      <c r="L92" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M92" s="28"/>
-      <c r="N92" s="21"/>
+      <c r="M92" s="24"/>
+      <c r="N92" s="23"/>
       <c r="O92" s="2"/>
       <c r="P92">
         <v>14</v>
@@ -6013,29 +6025,29 @@
       </c>
     </row>
     <row r="93" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="31" t="s">
+      <c r="A93" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="B93" s="32"/>
-      <c r="C93" s="25" t="s">
+      <c r="B93" s="26"/>
+      <c r="C93" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="D93" s="26"/>
-      <c r="E93" s="25" t="s">
+      <c r="D93" s="28"/>
+      <c r="E93" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="F93" s="27"/>
-      <c r="G93" s="26"/>
-      <c r="H93" s="20"/>
-      <c r="I93" s="21"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="23"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
-      <c r="L93" s="20">
+      <c r="L93" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M93" s="28"/>
-      <c r="N93" s="21"/>
+      <c r="M93" s="24"/>
+      <c r="N93" s="23"/>
       <c r="O93" s="2"/>
       <c r="P93">
         <v>13</v>
@@ -6064,29 +6076,29 @@
       </c>
     </row>
     <row r="94" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="31" t="s">
+      <c r="A94" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="B94" s="32"/>
-      <c r="C94" s="25" t="s">
+      <c r="B94" s="26"/>
+      <c r="C94" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="D94" s="26"/>
-      <c r="E94" s="25" t="s">
+      <c r="D94" s="28"/>
+      <c r="E94" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="F94" s="27"/>
-      <c r="G94" s="26"/>
-      <c r="H94" s="20"/>
-      <c r="I94" s="21"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="23"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
-      <c r="L94" s="20">
+      <c r="L94" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M94" s="28"/>
-      <c r="N94" s="21"/>
+      <c r="M94" s="24"/>
+      <c r="N94" s="23"/>
       <c r="O94" s="2"/>
       <c r="P94">
         <v>13</v>
@@ -6112,29 +6124,29 @@
       </c>
     </row>
     <row r="95" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="31" t="s">
+      <c r="A95" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="B95" s="32"/>
-      <c r="C95" s="25" t="s">
+      <c r="B95" s="26"/>
+      <c r="C95" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="D95" s="26"/>
-      <c r="E95" s="25" t="s">
+      <c r="D95" s="28"/>
+      <c r="E95" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="F95" s="27"/>
-      <c r="G95" s="26"/>
-      <c r="H95" s="20"/>
-      <c r="I95" s="21"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="22"/>
+      <c r="I95" s="23"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
-      <c r="L95" s="20">
+      <c r="L95" s="22">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="M95" s="28"/>
-      <c r="N95" s="21"/>
+      <c r="M95" s="24"/>
+      <c r="N95" s="23"/>
       <c r="O95" s="2"/>
       <c r="P95">
         <v>14</v>
@@ -6160,29 +6172,29 @@
       </c>
     </row>
     <row r="96" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="31" t="s">
+      <c r="A96" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="B96" s="32"/>
-      <c r="C96" s="25" t="s">
+      <c r="B96" s="26"/>
+      <c r="C96" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="D96" s="26"/>
-      <c r="E96" s="25" t="s">
+      <c r="D96" s="28"/>
+      <c r="E96" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="F96" s="27"/>
-      <c r="G96" s="26"/>
-      <c r="H96" s="20"/>
-      <c r="I96" s="21"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="28"/>
+      <c r="H96" s="22"/>
+      <c r="I96" s="23"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
-      <c r="L96" s="20">
+      <c r="L96" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M96" s="28"/>
-      <c r="N96" s="21"/>
+      <c r="M96" s="24"/>
+      <c r="N96" s="23"/>
       <c r="O96" s="2"/>
       <c r="Q96">
         <v>9</v>
@@ -6205,29 +6217,29 @@
       </c>
     </row>
     <row r="97" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="31" t="s">
+      <c r="A97" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="B97" s="32"/>
-      <c r="C97" s="25" t="s">
+      <c r="B97" s="26"/>
+      <c r="C97" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="D97" s="26"/>
-      <c r="E97" s="25" t="s">
+      <c r="D97" s="28"/>
+      <c r="E97" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="F97" s="27"/>
-      <c r="G97" s="26"/>
-      <c r="H97" s="20"/>
-      <c r="I97" s="21"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="28"/>
+      <c r="H97" s="22"/>
+      <c r="I97" s="23"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
-      <c r="L97" s="20">
+      <c r="L97" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M97" s="28"/>
-      <c r="N97" s="21"/>
+      <c r="M97" s="24"/>
+      <c r="N97" s="23"/>
       <c r="O97" s="2"/>
       <c r="P97">
         <v>18</v>
@@ -6250,29 +6262,29 @@
       </c>
     </row>
     <row r="98" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="31" t="s">
+      <c r="A98" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="B98" s="32"/>
-      <c r="C98" s="25" t="s">
+      <c r="B98" s="26"/>
+      <c r="C98" s="27" t="s">
         <v>292</v>
       </c>
-      <c r="D98" s="26"/>
-      <c r="E98" s="25" t="s">
+      <c r="D98" s="28"/>
+      <c r="E98" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="F98" s="27"/>
-      <c r="G98" s="26"/>
-      <c r="H98" s="20"/>
-      <c r="I98" s="21"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="23"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
-      <c r="L98" s="20">
+      <c r="L98" s="22">
         <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="M98" s="28"/>
-      <c r="N98" s="21"/>
+        <v>50</v>
+      </c>
+      <c r="M98" s="24"/>
+      <c r="N98" s="23"/>
       <c r="O98" s="2"/>
       <c r="P98">
         <v>16</v>
@@ -6298,38 +6310,41 @@
       <c r="W98">
         <v>20</v>
       </c>
+      <c r="X98">
+        <v>30</v>
+      </c>
       <c r="Y98">
         <f t="shared" si="3"/>
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="Z98">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="31" t="s">
+      <c r="A99" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="B99" s="32"/>
-      <c r="C99" s="25" t="s">
+      <c r="B99" s="26"/>
+      <c r="C99" s="27" t="s">
         <v>295</v>
       </c>
-      <c r="D99" s="26"/>
-      <c r="E99" s="25" t="s">
+      <c r="D99" s="28"/>
+      <c r="E99" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="F99" s="27"/>
-      <c r="G99" s="26"/>
-      <c r="H99" s="20"/>
-      <c r="I99" s="21"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="28"/>
+      <c r="H99" s="22"/>
+      <c r="I99" s="23"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
-      <c r="L99" s="20">
+      <c r="L99" s="22">
         <f t="shared" si="2"/>
-        <v>23.75</v>
-      </c>
-      <c r="M99" s="28"/>
-      <c r="N99" s="21"/>
+        <v>50</v>
+      </c>
+      <c r="M99" s="24"/>
+      <c r="N99" s="23"/>
       <c r="O99" s="2"/>
       <c r="P99">
         <v>16</v>
@@ -6355,38 +6370,41 @@
       <c r="W99">
         <v>20</v>
       </c>
+      <c r="X99">
+        <v>30</v>
+      </c>
       <c r="Y99">
         <f t="shared" si="3"/>
-        <v>73.75</v>
+        <v>103.75</v>
       </c>
       <c r="Z99">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="31" t="s">
+      <c r="A100" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="B100" s="32"/>
-      <c r="C100" s="25" t="s">
+      <c r="B100" s="26"/>
+      <c r="C100" s="27" t="s">
         <v>298</v>
       </c>
-      <c r="D100" s="26"/>
-      <c r="E100" s="25" t="s">
+      <c r="D100" s="28"/>
+      <c r="E100" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="F100" s="27"/>
-      <c r="G100" s="26"/>
-      <c r="H100" s="20"/>
-      <c r="I100" s="21"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="28"/>
+      <c r="H100" s="22"/>
+      <c r="I100" s="23"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
-      <c r="L100" s="20">
+      <c r="L100" s="22">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="M100" s="28"/>
-      <c r="N100" s="21"/>
+      <c r="M100" s="24"/>
+      <c r="N100" s="23"/>
       <c r="O100" s="2"/>
       <c r="P100">
         <v>13</v>
@@ -6418,29 +6436,29 @@
       </c>
     </row>
     <row r="101" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="31" t="s">
+      <c r="A101" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="B101" s="32"/>
-      <c r="C101" s="25" t="s">
+      <c r="B101" s="26"/>
+      <c r="C101" s="27" t="s">
         <v>301</v>
       </c>
-      <c r="D101" s="26"/>
-      <c r="E101" s="25" t="s">
+      <c r="D101" s="28"/>
+      <c r="E101" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="F101" s="27"/>
-      <c r="G101" s="26"/>
-      <c r="H101" s="20"/>
-      <c r="I101" s="21"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="28"/>
+      <c r="H101" s="22"/>
+      <c r="I101" s="23"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
-      <c r="L101" s="20">
+      <c r="L101" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M101" s="28"/>
-      <c r="N101" s="21"/>
+      <c r="M101" s="24"/>
+      <c r="N101" s="23"/>
       <c r="O101" s="2"/>
       <c r="Q101">
         <v>9</v>
@@ -6466,29 +6484,29 @@
       </c>
     </row>
     <row r="102" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="31" t="s">
+      <c r="A102" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="B102" s="32"/>
-      <c r="C102" s="25" t="s">
+      <c r="B102" s="26"/>
+      <c r="C102" s="27" t="s">
         <v>304</v>
       </c>
-      <c r="D102" s="26"/>
-      <c r="E102" s="25" t="s">
+      <c r="D102" s="28"/>
+      <c r="E102" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="F102" s="27"/>
-      <c r="G102" s="26"/>
-      <c r="H102" s="20"/>
-      <c r="I102" s="21"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="28"/>
+      <c r="H102" s="22"/>
+      <c r="I102" s="23"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
-      <c r="L102" s="20">
+      <c r="L102" s="22">
         <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="M102" s="28"/>
-      <c r="N102" s="21"/>
+        <v>50</v>
+      </c>
+      <c r="M102" s="24"/>
+      <c r="N102" s="23"/>
       <c r="O102" s="2"/>
       <c r="P102">
         <v>16</v>
@@ -6514,38 +6532,41 @@
       <c r="W102">
         <v>20</v>
       </c>
+      <c r="X102">
+        <v>30</v>
+      </c>
       <c r="Y102">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="Z102">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="31" t="s">
+      <c r="A103" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="B103" s="32"/>
-      <c r="C103" s="25" t="s">
+      <c r="B103" s="26"/>
+      <c r="C103" s="27" t="s">
         <v>307</v>
       </c>
-      <c r="D103" s="26"/>
-      <c r="E103" s="25" t="s">
+      <c r="D103" s="28"/>
+      <c r="E103" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="F103" s="27"/>
-      <c r="G103" s="26"/>
-      <c r="H103" s="20"/>
-      <c r="I103" s="21"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="28"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="23"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
-      <c r="L103" s="20">
+      <c r="L103" s="22">
         <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="M103" s="28"/>
-      <c r="N103" s="21"/>
+        <v>50</v>
+      </c>
+      <c r="M103" s="24"/>
+      <c r="N103" s="23"/>
       <c r="O103" s="2"/>
       <c r="P103">
         <v>18</v>
@@ -6565,38 +6586,41 @@
       <c r="W103">
         <v>20</v>
       </c>
+      <c r="X103">
+        <v>30</v>
+      </c>
       <c r="Y103">
         <f t="shared" si="3"/>
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="Z103">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="31" t="s">
+      <c r="A104" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="B104" s="32"/>
-      <c r="C104" s="25" t="s">
+      <c r="B104" s="26"/>
+      <c r="C104" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="D104" s="26"/>
-      <c r="E104" s="25" t="s">
+      <c r="D104" s="28"/>
+      <c r="E104" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="F104" s="27"/>
-      <c r="G104" s="26"/>
-      <c r="H104" s="20"/>
-      <c r="I104" s="21"/>
+      <c r="F104" s="29"/>
+      <c r="G104" s="28"/>
+      <c r="H104" s="22"/>
+      <c r="I104" s="23"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
-      <c r="L104" s="20">
+      <c r="L104" s="22">
         <f t="shared" si="2"/>
         <v>18.333333333333343</v>
       </c>
-      <c r="M104" s="28"/>
-      <c r="N104" s="21"/>
+      <c r="M104" s="24"/>
+      <c r="N104" s="23"/>
       <c r="O104" s="2"/>
       <c r="P104">
         <v>11</v>
@@ -6631,29 +6655,29 @@
       </c>
     </row>
     <row r="105" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="31" t="s">
+      <c r="A105" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="B105" s="32"/>
-      <c r="C105" s="25" t="s">
+      <c r="B105" s="26"/>
+      <c r="C105" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="D105" s="26"/>
-      <c r="E105" s="25" t="s">
+      <c r="D105" s="28"/>
+      <c r="E105" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="F105" s="27"/>
-      <c r="G105" s="26"/>
-      <c r="H105" s="20"/>
-      <c r="I105" s="21"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="28"/>
+      <c r="H105" s="22"/>
+      <c r="I105" s="23"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
-      <c r="L105" s="20">
+      <c r="L105" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M105" s="28"/>
-      <c r="N105" s="21"/>
+      <c r="M105" s="24"/>
+      <c r="N105" s="23"/>
       <c r="O105" s="2"/>
       <c r="Q105">
         <v>0</v>
@@ -6676,29 +6700,29 @@
       </c>
     </row>
     <row r="106" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="31" t="s">
+      <c r="A106" s="25" t="s">
         <v>315</v>
       </c>
-      <c r="B106" s="32"/>
-      <c r="C106" s="25" t="s">
+      <c r="B106" s="26"/>
+      <c r="C106" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="D106" s="26"/>
-      <c r="E106" s="25" t="s">
+      <c r="D106" s="28"/>
+      <c r="E106" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="F106" s="27"/>
-      <c r="G106" s="26"/>
-      <c r="H106" s="20"/>
-      <c r="I106" s="21"/>
+      <c r="F106" s="29"/>
+      <c r="G106" s="28"/>
+      <c r="H106" s="22"/>
+      <c r="I106" s="23"/>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
-      <c r="L106" s="20">
+      <c r="L106" s="22">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="M106" s="28"/>
-      <c r="N106" s="21"/>
+      <c r="M106" s="24"/>
+      <c r="N106" s="23"/>
       <c r="O106" s="2"/>
       <c r="P106">
         <v>16</v>
@@ -6730,29 +6754,29 @@
       </c>
     </row>
     <row r="107" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="31" t="s">
+      <c r="A107" s="25" t="s">
         <v>318</v>
       </c>
-      <c r="B107" s="32"/>
-      <c r="C107" s="25" t="s">
+      <c r="B107" s="26"/>
+      <c r="C107" s="27" t="s">
         <v>319</v>
       </c>
-      <c r="D107" s="26"/>
-      <c r="E107" s="25" t="s">
+      <c r="D107" s="28"/>
+      <c r="E107" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="F107" s="27"/>
-      <c r="G107" s="26"/>
-      <c r="H107" s="20"/>
-      <c r="I107" s="21"/>
+      <c r="F107" s="29"/>
+      <c r="G107" s="28"/>
+      <c r="H107" s="22"/>
+      <c r="I107" s="23"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
-      <c r="L107" s="20">
+      <c r="L107" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M107" s="28"/>
-      <c r="N107" s="21"/>
+      <c r="M107" s="24"/>
+      <c r="N107" s="23"/>
       <c r="O107" s="2"/>
       <c r="P107">
         <v>18</v>
@@ -6778,29 +6802,29 @@
       </c>
     </row>
     <row r="108" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="31" t="s">
+      <c r="A108" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="B108" s="32"/>
-      <c r="C108" s="25" t="s">
+      <c r="B108" s="26"/>
+      <c r="C108" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="D108" s="26"/>
-      <c r="E108" s="25" t="s">
+      <c r="D108" s="28"/>
+      <c r="E108" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="F108" s="27"/>
-      <c r="G108" s="26"/>
-      <c r="H108" s="20"/>
-      <c r="I108" s="21"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="28"/>
+      <c r="H108" s="22"/>
+      <c r="I108" s="23"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
-      <c r="L108" s="20">
+      <c r="L108" s="22">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="M108" s="28"/>
-      <c r="N108" s="21"/>
+      <c r="M108" s="24"/>
+      <c r="N108" s="23"/>
       <c r="O108" s="2"/>
       <c r="P108">
         <v>13</v>
@@ -6829,29 +6853,29 @@
       </c>
     </row>
     <row r="109" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="31" t="s">
+      <c r="A109" s="25" t="s">
         <v>324</v>
       </c>
-      <c r="B109" s="32"/>
-      <c r="C109" s="25" t="s">
+      <c r="B109" s="26"/>
+      <c r="C109" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="D109" s="26"/>
-      <c r="E109" s="25" t="s">
+      <c r="D109" s="28"/>
+      <c r="E109" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="F109" s="27"/>
-      <c r="G109" s="26"/>
-      <c r="H109" s="20"/>
-      <c r="I109" s="21"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="28"/>
+      <c r="H109" s="22"/>
+      <c r="I109" s="23"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
-      <c r="L109" s="20">
+      <c r="L109" s="22">
         <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
-      <c r="M109" s="28"/>
-      <c r="N109" s="21"/>
+      <c r="M109" s="24"/>
+      <c r="N109" s="23"/>
       <c r="O109" s="2"/>
       <c r="Q109">
         <v>7</v>
@@ -6880,23 +6904,23 @@
       </c>
     </row>
     <row r="110" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="34"/>
-      <c r="B110" s="35"/>
-      <c r="C110" s="17"/>
-      <c r="D110" s="18"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="19"/>
-      <c r="G110" s="18"/>
-      <c r="H110" s="20"/>
-      <c r="I110" s="21"/>
+      <c r="A110" s="17"/>
+      <c r="B110" s="18"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="20"/>
+      <c r="H110" s="22"/>
+      <c r="I110" s="23"/>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
-      <c r="L110" s="20">
+      <c r="L110" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M110" s="28"/>
-      <c r="N110" s="21"/>
+      <c r="M110" s="24"/>
+      <c r="N110" s="23"/>
       <c r="O110" s="2"/>
       <c r="Q110">
         <v>0</v>
@@ -6916,23 +6940,23 @@
       </c>
     </row>
     <row r="111" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="34"/>
-      <c r="B111" s="35"/>
-      <c r="C111" s="17"/>
-      <c r="D111" s="18"/>
-      <c r="E111" s="17"/>
-      <c r="F111" s="19"/>
-      <c r="G111" s="18"/>
-      <c r="H111" s="20"/>
-      <c r="I111" s="21"/>
+      <c r="A111" s="17"/>
+      <c r="B111" s="18"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="21"/>
+      <c r="G111" s="20"/>
+      <c r="H111" s="22"/>
+      <c r="I111" s="23"/>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
-      <c r="L111" s="20">
+      <c r="L111" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M111" s="28"/>
-      <c r="N111" s="21"/>
+      <c r="M111" s="24"/>
+      <c r="N111" s="23"/>
       <c r="O111" s="2"/>
       <c r="Q111">
         <v>0</v>
@@ -6952,23 +6976,23 @@
       </c>
     </row>
     <row r="112" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="34"/>
-      <c r="B112" s="35"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="17"/>
-      <c r="F112" s="19"/>
-      <c r="G112" s="18"/>
-      <c r="H112" s="20"/>
-      <c r="I112" s="21"/>
+      <c r="A112" s="17"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="20"/>
+      <c r="H112" s="22"/>
+      <c r="I112" s="23"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
-      <c r="L112" s="20">
+      <c r="L112" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M112" s="28"/>
-      <c r="N112" s="21"/>
+      <c r="M112" s="24"/>
+      <c r="N112" s="23"/>
       <c r="O112" s="2"/>
       <c r="Q112">
         <v>0</v>
@@ -6988,23 +7012,23 @@
       </c>
     </row>
     <row r="113" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="34"/>
-      <c r="B113" s="35"/>
-      <c r="C113" s="17"/>
-      <c r="D113" s="18"/>
-      <c r="E113" s="17"/>
-      <c r="F113" s="19"/>
-      <c r="G113" s="18"/>
-      <c r="H113" s="20"/>
-      <c r="I113" s="21"/>
+      <c r="A113" s="17"/>
+      <c r="B113" s="18"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="21"/>
+      <c r="G113" s="20"/>
+      <c r="H113" s="22"/>
+      <c r="I113" s="23"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
-      <c r="L113" s="20">
+      <c r="L113" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M113" s="28"/>
-      <c r="N113" s="21"/>
+      <c r="M113" s="24"/>
+      <c r="N113" s="23"/>
       <c r="O113" s="2"/>
       <c r="Q113">
         <v>0</v>
@@ -7034,65 +7058,460 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="537">
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="E112:G112"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="L112:N112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="E113:G113"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="L113:N113"/>
-    <mergeCell ref="L108:N108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="L109:N109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="E110:G110"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="L110:N110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="E111:G111"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="L111:N111"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="E109:G109"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="L103:N103"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="L104:N104"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="L105:N105"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="L106:N106"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="L107:N107"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="E105:G105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="E106:G106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="E107:G107"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="E104:G104"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="L61:N61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="L64:N64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="L65:N65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="L66:N66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="L67:N67"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="L72:N72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="L73:N73"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="L71:N71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="L68:N68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="L69:N69"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="L77:N77"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="L75:N75"/>
+    <mergeCell ref="L74:N74"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="L78:N78"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="L76:N76"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="L79:N79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="L80:N80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="L81:N81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="L83:N83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="L84:N84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="L85:N85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="L86:N86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="L87:N87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="L88:N88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="L89:N89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="L90:N90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="L94:N94"/>
     <mergeCell ref="L102:N102"/>
     <mergeCell ref="A96:B96"/>
     <mergeCell ref="C96:D96"/>
@@ -7117,460 +7536,65 @@
     <mergeCell ref="A99:B99"/>
     <mergeCell ref="C99:D99"/>
     <mergeCell ref="E99:G99"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="L93:N93"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="L94:N94"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="L91:N91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="L92:N92"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="L89:N89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="L90:N90"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="L87:N87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="L88:N88"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="L85:N85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="L86:N86"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="L83:N83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="L84:N84"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="L81:N81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="L82:N82"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="L79:N79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="L80:N80"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="L78:N78"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="L76:N76"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="L77:N77"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="L75:N75"/>
-    <mergeCell ref="L74:N74"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="L68:N68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="L69:N69"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="L72:N72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="L73:N73"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="L70:N70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="L71:N71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="L66:N66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="L67:N67"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="L64:N64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="L65:N65"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="L61:N61"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="L47:N47"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="E104:G104"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E105:G105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="E106:G106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="E107:G107"/>
+    <mergeCell ref="L103:N103"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="L104:N104"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="L105:N105"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="L106:N106"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="L107:N107"/>
+    <mergeCell ref="L108:N108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="L109:N109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="E110:G110"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="L110:N110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="E111:G111"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="L111:N111"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="E109:G109"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="L112:N112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="E113:G113"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="L113:N113"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/OYM/_Documentos Comunes/POO_C32017.xlsx
+++ b/OYM/_Documentos Comunes/POO_C32017.xlsx
@@ -1263,12 +1263,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1283,14 +1277,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1300,6 +1294,30 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1324,24 +1342,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1727,9 +1727,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X102" sqref="X102"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C109" sqref="C109:D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1747,7 +1747,7 @@
     <col min="12" max="12" width="5.28515625" customWidth="1"/>
     <col min="13" max="13" width="1" customWidth="1"/>
     <col min="14" max="15" width="0.140625" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" customWidth="1"/>
     <col min="17" max="17" width="4.5703125" customWidth="1"/>
     <col min="18" max="18" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5.140625" customWidth="1"/>
@@ -1760,19 +1760,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
+      <c r="B1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1793,19 +1793,19 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
       <c r="N3" s="2"/>
       <c r="P3" t="s">
         <v>21</v>
@@ -1815,19 +1815,19 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
       <c r="N4" s="2"/>
       <c r="P4" t="s">
         <v>23</v>
@@ -1837,19 +1837,19 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
       <c r="N5" s="2"/>
       <c r="P5" t="s">
         <v>25</v>
@@ -1881,19 +1881,19 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
       <c r="N7" s="2"/>
       <c r="P7" s="6" t="s">
         <v>327</v>
@@ -1947,34 +1947,34 @@
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:26" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="42" t="s">
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="42"/>
+      <c r="I10" s="29"/>
       <c r="J10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="42" t="s">
+      <c r="L10" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s">
         <v>8</v>
@@ -2011,35 +2011,35 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17">
-        <v>0</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19" t="s">
+      <c r="A11" s="34">
+        <v>0</v>
+      </c>
+      <c r="B11" s="35"/>
+      <c r="C11" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="18"/>
+      <c r="E11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="22">
+      <c r="F11" s="19"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="20">
         <v>10</v>
       </c>
-      <c r="I11" s="23"/>
+      <c r="I11" s="21"/>
       <c r="J11" s="5">
         <v>20</v>
       </c>
       <c r="K11" s="5">
         <v>20</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="20">
         <f>IF((Y11-50)&gt;50,50,IF((Y11-50)&lt;0,0,(Y11-50)))</f>
         <v>50</v>
       </c>
-      <c r="M11" s="24"/>
-      <c r="N11" s="23"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="21"/>
       <c r="O11" s="2"/>
       <c r="P11">
         <v>20</v>
@@ -2077,29 +2077,29 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27" t="s">
+      <c r="B12" s="32"/>
+      <c r="C12" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="27" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="22">
+      <c r="L12" s="20">
         <f t="shared" ref="L12:L75" si="0">IF((Y12-50)&gt;50,50,IF((Y12-50)&lt;0,0,(Y12-50)))</f>
         <v>0</v>
       </c>
-      <c r="M12" s="24"/>
-      <c r="N12" s="23"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="21"/>
       <c r="O12" s="2"/>
       <c r="Q12">
         <v>0</v>
@@ -2119,29 +2119,29 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27" t="s">
+      <c r="B13" s="32"/>
+      <c r="C13" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="27" t="s">
+      <c r="D13" s="26"/>
+      <c r="E13" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="23"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="21"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="22">
+      <c r="L13" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="24"/>
-      <c r="N13" s="23"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="21"/>
       <c r="O13" s="2"/>
       <c r="P13">
         <v>16</v>
@@ -2167,29 +2167,29 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27" t="s">
+      <c r="B14" s="32"/>
+      <c r="C14" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="27" t="s">
+      <c r="D14" s="26"/>
+      <c r="E14" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="21"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="22">
+      <c r="L14" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="24"/>
-      <c r="N14" s="23"/>
+        <v>5</v>
+      </c>
+      <c r="M14" s="28"/>
+      <c r="N14" s="21"/>
       <c r="O14" s="2"/>
       <c r="P14">
         <v>15</v>
@@ -2203,38 +2203,41 @@
       <c r="V14">
         <v>2</v>
       </c>
+      <c r="X14">
+        <v>30</v>
+      </c>
       <c r="Y14">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27" t="s">
+      <c r="B15" s="32"/>
+      <c r="C15" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="27" t="s">
+      <c r="D15" s="26"/>
+      <c r="E15" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="23"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="21"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="22">
+      <c r="L15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="24"/>
-      <c r="N15" s="23"/>
+        <v>2</v>
+      </c>
+      <c r="M15" s="28"/>
+      <c r="N15" s="21"/>
       <c r="O15" s="2"/>
       <c r="P15">
         <v>15</v>
@@ -2251,38 +2254,41 @@
       <c r="V15">
         <v>2</v>
       </c>
+      <c r="X15">
+        <v>30</v>
+      </c>
       <c r="Y15">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="Z15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27" t="s">
+      <c r="B16" s="32"/>
+      <c r="C16" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="27" t="s">
+      <c r="D16" s="26"/>
+      <c r="E16" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="23"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="21"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="22">
+      <c r="L16" s="20">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="M16" s="24"/>
-      <c r="N16" s="23"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="21"/>
       <c r="O16" s="2"/>
       <c r="Q16">
         <v>0</v>
@@ -2314,29 +2320,29 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27" t="s">
+      <c r="B17" s="32"/>
+      <c r="C17" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="27" t="s">
+      <c r="D17" s="26"/>
+      <c r="E17" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="23"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="21"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="22">
+      <c r="L17" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M17" s="24"/>
-      <c r="N17" s="23"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="21"/>
       <c r="O17" s="2"/>
       <c r="P17">
         <v>13</v>
@@ -2353,38 +2359,41 @@
       <c r="V17">
         <v>2</v>
       </c>
+      <c r="X17">
+        <v>30</v>
+      </c>
       <c r="Y17">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="Z17">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27" t="s">
+      <c r="B18" s="32"/>
+      <c r="C18" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="27" t="s">
+      <c r="D18" s="26"/>
+      <c r="E18" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="21"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="22">
+      <c r="L18" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M18" s="24"/>
-      <c r="N18" s="23"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="21"/>
       <c r="O18" s="2"/>
       <c r="P18">
         <v>14</v>
@@ -2401,38 +2410,41 @@
       <c r="V18">
         <v>2</v>
       </c>
+      <c r="X18">
+        <v>30</v>
+      </c>
       <c r="Y18">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="Z18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27" t="s">
+      <c r="B19" s="32"/>
+      <c r="C19" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="27" t="s">
+      <c r="D19" s="26"/>
+      <c r="E19" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="23"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="21"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="22">
+      <c r="L19" s="20">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="M19" s="24"/>
-      <c r="N19" s="23"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="21"/>
       <c r="O19" s="2"/>
       <c r="P19">
         <v>14</v>
@@ -2461,29 +2473,29 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27" t="s">
+      <c r="B20" s="32"/>
+      <c r="C20" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="27" t="s">
+      <c r="D20" s="26"/>
+      <c r="E20" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="23"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="21"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="22">
+      <c r="L20" s="20">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="M20" s="24"/>
-      <c r="N20" s="23"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="21"/>
       <c r="O20" s="2"/>
       <c r="P20">
         <v>16</v>
@@ -2515,29 +2527,29 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27" t="s">
+      <c r="B21" s="32"/>
+      <c r="C21" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="27" t="s">
+      <c r="D21" s="26"/>
+      <c r="E21" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="23"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="21"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="22">
+      <c r="L21" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="24"/>
-      <c r="N21" s="23"/>
+        <v>4</v>
+      </c>
+      <c r="M21" s="28"/>
+      <c r="N21" s="21"/>
       <c r="O21" s="2"/>
       <c r="P21">
         <v>14</v>
@@ -2554,38 +2566,41 @@
       <c r="V21">
         <v>1</v>
       </c>
+      <c r="X21">
+        <v>30</v>
+      </c>
       <c r="Y21">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="Z21">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27" t="s">
+      <c r="B22" s="32"/>
+      <c r="C22" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="27" t="s">
+      <c r="D22" s="26"/>
+      <c r="E22" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="23"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="21"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="22">
+      <c r="L22" s="20">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="M22" s="24"/>
-      <c r="N22" s="23"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="21"/>
       <c r="O22" s="2"/>
       <c r="P22">
         <v>18</v>
@@ -2614,29 +2629,29 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27" t="s">
+      <c r="B23" s="32"/>
+      <c r="C23" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="27" t="s">
+      <c r="D23" s="26"/>
+      <c r="E23" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="23"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="21"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="22">
+      <c r="L23" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M23" s="24"/>
-      <c r="N23" s="23"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="21"/>
       <c r="O23" s="2"/>
       <c r="Q23">
         <v>0</v>
@@ -2656,29 +2671,29 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27" t="s">
+      <c r="B24" s="32"/>
+      <c r="C24" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="27" t="s">
+      <c r="D24" s="26"/>
+      <c r="E24" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="23"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="21"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="22">
+      <c r="L24" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M24" s="24"/>
-      <c r="N24" s="23"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="21"/>
       <c r="O24" s="2"/>
       <c r="Q24">
         <v>0</v>
@@ -2704,29 +2719,29 @@
       </c>
     </row>
     <row r="25" spans="1:26" s="13" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32" t="s">
+      <c r="B25" s="37"/>
+      <c r="C25" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="32" t="s">
+      <c r="D25" s="39"/>
+      <c r="E25" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="36"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="42"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
-      <c r="L25" s="35">
+      <c r="L25" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="36"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="42"/>
       <c r="O25" s="12"/>
       <c r="Q25" s="13">
         <v>0</v>
@@ -2752,29 +2767,29 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27" t="s">
+      <c r="B26" s="32"/>
+      <c r="C26" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="27" t="s">
+      <c r="D26" s="26"/>
+      <c r="E26" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="23"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="21"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="22">
+      <c r="L26" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M26" s="24"/>
-      <c r="N26" s="23"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="21"/>
       <c r="O26" s="2"/>
       <c r="P26">
         <v>15</v>
@@ -2797,29 +2812,29 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="27" t="s">
+      <c r="B27" s="32"/>
+      <c r="C27" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="27" t="s">
+      <c r="D27" s="26"/>
+      <c r="E27" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="23"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="21"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="22">
+      <c r="L27" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M27" s="24"/>
-      <c r="N27" s="23"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="21"/>
       <c r="O27" s="2"/>
       <c r="P27">
         <v>14</v>
@@ -2848,29 +2863,29 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="27" t="s">
+      <c r="B28" s="32"/>
+      <c r="C28" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="27" t="s">
+      <c r="D28" s="26"/>
+      <c r="E28" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="23"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="21"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="22">
+      <c r="L28" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="24"/>
-      <c r="N28" s="23"/>
+        <v>2</v>
+      </c>
+      <c r="M28" s="28"/>
+      <c r="N28" s="21"/>
       <c r="O28" s="2"/>
       <c r="P28">
         <v>18</v>
@@ -2887,38 +2902,41 @@
       <c r="V28">
         <v>1</v>
       </c>
+      <c r="X28">
+        <v>30</v>
+      </c>
       <c r="Y28">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="Z28">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="27" t="s">
+      <c r="B29" s="32"/>
+      <c r="C29" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="27" t="s">
+      <c r="D29" s="26"/>
+      <c r="E29" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="F29" s="29"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="23"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="21"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="22">
+      <c r="L29" s="20">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="M29" s="24"/>
-      <c r="N29" s="23"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="21"/>
       <c r="O29" s="2"/>
       <c r="P29">
         <v>16</v>
@@ -2950,29 +2968,29 @@
       </c>
     </row>
     <row r="30" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="27" t="s">
+      <c r="B30" s="32"/>
+      <c r="C30" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="27" t="s">
+      <c r="D30" s="26"/>
+      <c r="E30" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="23"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="21"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="22">
+      <c r="L30" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M30" s="24"/>
-      <c r="N30" s="23"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="21"/>
       <c r="O30" s="2"/>
       <c r="Q30">
         <v>0</v>
@@ -2992,29 +3010,29 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="27" t="s">
+      <c r="B31" s="32"/>
+      <c r="C31" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="27" t="s">
+      <c r="D31" s="26"/>
+      <c r="E31" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="F31" s="29"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="23"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="21"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="22">
+      <c r="L31" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M31" s="24"/>
-      <c r="N31" s="23"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="21"/>
       <c r="O31" s="2"/>
       <c r="P31">
         <v>14</v>
@@ -3043,29 +3061,29 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="27" t="s">
+      <c r="B32" s="32"/>
+      <c r="C32" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="27" t="s">
+      <c r="D32" s="26"/>
+      <c r="E32" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="F32" s="29"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="23"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="21"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="22">
+      <c r="L32" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M32" s="24"/>
-      <c r="N32" s="23"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="21"/>
       <c r="O32" s="2"/>
       <c r="Q32">
         <v>0</v>
@@ -3085,29 +3103,29 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="27" t="s">
+      <c r="B33" s="32"/>
+      <c r="C33" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="27" t="s">
+      <c r="D33" s="26"/>
+      <c r="E33" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="F33" s="29"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="23"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="21"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="22">
+      <c r="L33" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M33" s="24"/>
-      <c r="N33" s="23"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="21"/>
       <c r="O33" s="2"/>
       <c r="P33">
         <v>18</v>
@@ -3133,29 +3151,29 @@
       </c>
     </row>
     <row r="34" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="27" t="s">
+      <c r="B34" s="32"/>
+      <c r="C34" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="27" t="s">
+      <c r="D34" s="26"/>
+      <c r="E34" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="F34" s="29"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="23"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="21"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="22">
+      <c r="L34" s="20">
         <f t="shared" si="0"/>
-        <v>22.333333333333329</v>
-      </c>
-      <c r="M34" s="24"/>
-      <c r="N34" s="23"/>
+        <v>50</v>
+      </c>
+      <c r="M34" s="28"/>
+      <c r="N34" s="21"/>
       <c r="O34" s="2"/>
       <c r="P34">
         <v>15</v>
@@ -3181,38 +3199,41 @@
       <c r="W34">
         <v>20</v>
       </c>
+      <c r="X34">
+        <v>30</v>
+      </c>
       <c r="Y34">
         <f t="shared" si="1"/>
-        <v>72.333333333333329</v>
+        <v>102.33333333333333</v>
       </c>
       <c r="Z34">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="27" t="s">
+      <c r="B35" s="32"/>
+      <c r="C35" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="27" t="s">
+      <c r="D35" s="26"/>
+      <c r="E35" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F35" s="29"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="23"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="21"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="22">
+      <c r="L35" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M35" s="24"/>
-      <c r="N35" s="23"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="21"/>
       <c r="O35" s="2"/>
       <c r="P35">
         <v>17</v>
@@ -3238,29 +3259,29 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="27" t="s">
+      <c r="B36" s="32"/>
+      <c r="C36" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="27" t="s">
+      <c r="D36" s="26"/>
+      <c r="E36" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="F36" s="29"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="23"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="21"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="22">
+      <c r="L36" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M36" s="24"/>
-      <c r="N36" s="23"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="21"/>
       <c r="O36" s="2"/>
       <c r="P36">
         <v>19</v>
@@ -3286,29 +3307,29 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="27" t="s">
+      <c r="B37" s="32"/>
+      <c r="C37" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="27" t="s">
+      <c r="D37" s="26"/>
+      <c r="E37" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="F37" s="29"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="23"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="21"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="22">
+      <c r="L37" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M37" s="24"/>
-      <c r="N37" s="23"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="21"/>
       <c r="O37" s="2"/>
       <c r="P37">
         <v>15</v>
@@ -3334,29 +3355,29 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="27" t="s">
+      <c r="B38" s="32"/>
+      <c r="C38" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="27" t="s">
+      <c r="D38" s="26"/>
+      <c r="E38" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="F38" s="29"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="23"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="21"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="22">
+      <c r="L38" s="20">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="M38" s="24"/>
-      <c r="N38" s="23"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="21"/>
       <c r="O38" s="2"/>
       <c r="P38">
         <v>16</v>
@@ -3388,29 +3409,29 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="27" t="s">
+      <c r="B39" s="32"/>
+      <c r="C39" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="27" t="s">
+      <c r="D39" s="26"/>
+      <c r="E39" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="F39" s="29"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="23"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="21"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="22">
+      <c r="L39" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M39" s="24"/>
-      <c r="N39" s="23"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="21"/>
       <c r="O39" s="2"/>
       <c r="Q39">
         <v>0</v>
@@ -3430,29 +3451,29 @@
       </c>
     </row>
     <row r="40" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="27" t="s">
+      <c r="B40" s="32"/>
+      <c r="C40" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="D40" s="28"/>
-      <c r="E40" s="27" t="s">
+      <c r="D40" s="26"/>
+      <c r="E40" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="29"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="23"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="21"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
-      <c r="L40" s="22">
+      <c r="L40" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M40" s="24"/>
-      <c r="N40" s="23"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="21"/>
       <c r="O40" s="2"/>
       <c r="P40">
         <v>13</v>
@@ -3478,29 +3499,29 @@
       </c>
     </row>
     <row r="41" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="27" t="s">
+      <c r="B41" s="32"/>
+      <c r="C41" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="27" t="s">
+      <c r="D41" s="26"/>
+      <c r="E41" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="F41" s="29"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="23"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="21"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
-      <c r="L41" s="22">
+      <c r="L41" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M41" s="24"/>
-      <c r="N41" s="23"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="21"/>
       <c r="O41" s="2"/>
       <c r="Q41">
         <v>0</v>
@@ -3520,29 +3541,29 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="27" t="s">
+      <c r="B42" s="32"/>
+      <c r="C42" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="D42" s="28"/>
-      <c r="E42" s="27" t="s">
+      <c r="D42" s="26"/>
+      <c r="E42" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="F42" s="29"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="23"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="21"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
-      <c r="L42" s="22">
+      <c r="L42" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M42" s="24"/>
-      <c r="N42" s="23"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="21"/>
       <c r="O42" s="2"/>
       <c r="Q42">
         <v>9</v>
@@ -3562,29 +3583,29 @@
       </c>
     </row>
     <row r="43" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="27" t="s">
+      <c r="B43" s="32"/>
+      <c r="C43" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="D43" s="28"/>
-      <c r="E43" s="27" t="s">
+      <c r="D43" s="26"/>
+      <c r="E43" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="F43" s="29"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="23"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="21"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
-      <c r="L43" s="22">
+      <c r="L43" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M43" s="24"/>
-      <c r="N43" s="23"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="21"/>
       <c r="O43" s="2"/>
       <c r="P43">
         <v>11</v>
@@ -3616,29 +3637,29 @@
       </c>
     </row>
     <row r="44" spans="1:26" s="13" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="32" t="s">
+      <c r="B44" s="37"/>
+      <c r="C44" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="D44" s="33"/>
-      <c r="E44" s="32" t="s">
+      <c r="D44" s="39"/>
+      <c r="E44" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="F44" s="34"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="36"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="42"/>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
-      <c r="L44" s="35">
+      <c r="L44" s="41">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="M44" s="37"/>
-      <c r="N44" s="36"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="42"/>
       <c r="O44" s="12"/>
       <c r="P44" s="13">
         <v>20</v>
@@ -3667,29 +3688,29 @@
       </c>
     </row>
     <row r="45" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="27" t="s">
+      <c r="B45" s="32"/>
+      <c r="C45" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="D45" s="28"/>
-      <c r="E45" s="27" t="s">
+      <c r="D45" s="26"/>
+      <c r="E45" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="F45" s="29"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="23"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="21"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
-      <c r="L45" s="22">
+      <c r="L45" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M45" s="24"/>
-      <c r="N45" s="23"/>
+        <v>3</v>
+      </c>
+      <c r="M45" s="28"/>
+      <c r="N45" s="21"/>
       <c r="O45" s="2"/>
       <c r="P45">
         <v>14</v>
@@ -3703,38 +3724,41 @@
       <c r="V45">
         <v>2</v>
       </c>
+      <c r="X45">
+        <v>30</v>
+      </c>
       <c r="Y45">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="Z45">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="27" t="s">
+      <c r="B46" s="32"/>
+      <c r="C46" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="D46" s="28"/>
-      <c r="E46" s="27" t="s">
+      <c r="D46" s="26"/>
+      <c r="E46" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="F46" s="29"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="23"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="21"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
-      <c r="L46" s="22">
+      <c r="L46" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M46" s="24"/>
-      <c r="N46" s="23"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="21"/>
       <c r="O46" s="2"/>
       <c r="P46">
         <v>13</v>
@@ -3760,29 +3784,29 @@
       </c>
     </row>
     <row r="47" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="27" t="s">
+      <c r="B47" s="32"/>
+      <c r="C47" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="D47" s="28"/>
-      <c r="E47" s="27" t="s">
+      <c r="D47" s="26"/>
+      <c r="E47" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="F47" s="29"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="23"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="21"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
-      <c r="L47" s="22">
+      <c r="L47" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M47" s="24"/>
-      <c r="N47" s="23"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="21"/>
       <c r="O47" s="2"/>
       <c r="P47">
         <v>20</v>
@@ -3808,29 +3832,29 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="26"/>
-      <c r="C48" s="27" t="s">
+      <c r="B48" s="32"/>
+      <c r="C48" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="D48" s="28"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="F48" s="29"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="23"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="21"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
-      <c r="L48" s="22">
+      <c r="L48" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M48" s="24"/>
-      <c r="N48" s="23"/>
+        <v>14</v>
+      </c>
+      <c r="M48" s="28"/>
+      <c r="N48" s="21"/>
       <c r="O48" s="2"/>
       <c r="P48">
         <v>14</v>
@@ -3850,38 +3874,41 @@
       <c r="W48">
         <v>16</v>
       </c>
+      <c r="X48">
+        <v>30</v>
+      </c>
       <c r="Y48">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="Z48">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="27" t="s">
+      <c r="B49" s="32"/>
+      <c r="C49" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="D49" s="28"/>
-      <c r="E49" s="27" t="s">
+      <c r="D49" s="26"/>
+      <c r="E49" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="F49" s="29"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="23"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="21"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
-      <c r="L49" s="22">
+      <c r="L49" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M49" s="24"/>
-      <c r="N49" s="23"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="21"/>
       <c r="O49" s="2"/>
       <c r="P49">
         <v>16</v>
@@ -3904,29 +3931,29 @@
       </c>
     </row>
     <row r="50" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="27" t="s">
+      <c r="B50" s="32"/>
+      <c r="C50" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="27" t="s">
+      <c r="D50" s="26"/>
+      <c r="E50" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="F50" s="29"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="23"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="21"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="22">
+      <c r="L50" s="20">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="M50" s="24"/>
-      <c r="N50" s="23"/>
+        <v>49</v>
+      </c>
+      <c r="M50" s="28"/>
+      <c r="N50" s="21"/>
       <c r="O50" s="2"/>
       <c r="P50">
         <v>13</v>
@@ -3952,38 +3979,41 @@
       <c r="W50">
         <v>16</v>
       </c>
+      <c r="X50">
+        <v>30</v>
+      </c>
       <c r="Y50">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="Z50">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B51" s="26"/>
-      <c r="C51" s="27" t="s">
+      <c r="B51" s="32"/>
+      <c r="C51" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="D51" s="28"/>
-      <c r="E51" s="27" t="s">
+      <c r="D51" s="26"/>
+      <c r="E51" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="F51" s="29"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="23"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="21"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
-      <c r="L51" s="22">
+      <c r="L51" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M51" s="24"/>
-      <c r="N51" s="23"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="21"/>
       <c r="O51" s="2"/>
       <c r="Q51">
         <v>0</v>
@@ -4006,29 +4036,29 @@
       </c>
     </row>
     <row r="52" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="27" t="s">
+      <c r="B52" s="32"/>
+      <c r="C52" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="D52" s="28"/>
-      <c r="E52" s="27" t="s">
+      <c r="D52" s="26"/>
+      <c r="E52" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="F52" s="29"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="23"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="21"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
-      <c r="L52" s="22">
+      <c r="L52" s="20">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="M52" s="24"/>
-      <c r="N52" s="23"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="21"/>
       <c r="O52" s="2"/>
       <c r="P52">
         <v>13</v>
@@ -4063,29 +4093,29 @@
       </c>
     </row>
     <row r="53" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="26"/>
-      <c r="C53" s="27" t="s">
+      <c r="B53" s="32"/>
+      <c r="C53" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="27" t="s">
+      <c r="D53" s="26"/>
+      <c r="E53" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="F53" s="29"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="23"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="21"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
-      <c r="L53" s="22">
+      <c r="L53" s="20">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="M53" s="24"/>
-      <c r="N53" s="23"/>
+      <c r="M53" s="28"/>
+      <c r="N53" s="21"/>
       <c r="O53" s="2"/>
       <c r="P53">
         <v>17</v>
@@ -4123,29 +4153,29 @@
       </c>
     </row>
     <row r="54" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="B54" s="26"/>
-      <c r="C54" s="27" t="s">
+      <c r="B54" s="32"/>
+      <c r="C54" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="D54" s="28"/>
-      <c r="E54" s="27" t="s">
+      <c r="D54" s="26"/>
+      <c r="E54" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="F54" s="29"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="23"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="21"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="22">
+      <c r="L54" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M54" s="24"/>
-      <c r="N54" s="23"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="21"/>
       <c r="O54" s="2"/>
       <c r="Q54">
         <v>0</v>
@@ -4165,29 +4195,29 @@
       </c>
     </row>
     <row r="55" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="B55" s="26"/>
-      <c r="C55" s="27" t="s">
+      <c r="B55" s="32"/>
+      <c r="C55" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="D55" s="28"/>
-      <c r="E55" s="27" t="s">
+      <c r="D55" s="26"/>
+      <c r="E55" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="F55" s="29"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="23"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="21"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="22">
+      <c r="L55" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M55" s="24"/>
-      <c r="N55" s="23"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="21"/>
       <c r="O55" s="2"/>
       <c r="Q55">
         <v>0</v>
@@ -4210,29 +4240,29 @@
       </c>
     </row>
     <row r="56" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B56" s="26"/>
-      <c r="C56" s="27" t="s">
+      <c r="B56" s="32"/>
+      <c r="C56" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="D56" s="28"/>
-      <c r="E56" s="27" t="s">
+      <c r="D56" s="26"/>
+      <c r="E56" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="F56" s="29"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="23"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="21"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="22">
+      <c r="L56" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M56" s="24"/>
-      <c r="N56" s="23"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="21"/>
       <c r="O56" s="2"/>
       <c r="Q56">
         <v>0</v>
@@ -4255,29 +4285,29 @@
       </c>
     </row>
     <row r="57" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="B57" s="26"/>
-      <c r="C57" s="27" t="s">
+      <c r="B57" s="32"/>
+      <c r="C57" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="D57" s="28"/>
-      <c r="E57" s="27" t="s">
+      <c r="D57" s="26"/>
+      <c r="E57" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="F57" s="29"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="23"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="21"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="22">
+      <c r="L57" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M57" s="24"/>
-      <c r="N57" s="23"/>
+      <c r="M57" s="28"/>
+      <c r="N57" s="21"/>
       <c r="O57" s="2"/>
       <c r="Q57">
         <v>8</v>
@@ -4303,29 +4333,29 @@
       </c>
     </row>
     <row r="58" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="B58" s="26"/>
-      <c r="C58" s="27" t="s">
+      <c r="B58" s="32"/>
+      <c r="C58" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="D58" s="28"/>
-      <c r="E58" s="27" t="s">
+      <c r="D58" s="26"/>
+      <c r="E58" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="F58" s="29"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="23"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="21"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="22">
+      <c r="L58" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M58" s="24"/>
-      <c r="N58" s="23"/>
+        <v>2</v>
+      </c>
+      <c r="M58" s="28"/>
+      <c r="N58" s="21"/>
       <c r="O58" s="2"/>
       <c r="P58">
         <v>14</v>
@@ -4342,38 +4372,41 @@
       <c r="V58">
         <v>1</v>
       </c>
+      <c r="X58">
+        <v>30</v>
+      </c>
       <c r="Y58">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="Z58">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="B59" s="26"/>
-      <c r="C59" s="27" t="s">
+      <c r="B59" s="32"/>
+      <c r="C59" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="27" t="s">
+      <c r="D59" s="26"/>
+      <c r="E59" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="F59" s="29"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="23"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="21"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="22">
+      <c r="L59" s="20">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="M59" s="24"/>
-      <c r="N59" s="23"/>
+      <c r="M59" s="28"/>
+      <c r="N59" s="21"/>
       <c r="O59" s="2"/>
       <c r="P59">
         <v>13</v>
@@ -4405,29 +4438,29 @@
       </c>
     </row>
     <row r="60" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="B60" s="26"/>
-      <c r="C60" s="27" t="s">
+      <c r="B60" s="32"/>
+      <c r="C60" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="D60" s="28"/>
-      <c r="E60" s="27" t="s">
+      <c r="D60" s="26"/>
+      <c r="E60" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="F60" s="29"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="23"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="21"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="22">
+      <c r="L60" s="20">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="M60" s="24"/>
-      <c r="N60" s="23"/>
+      <c r="M60" s="28"/>
+      <c r="N60" s="21"/>
       <c r="O60" s="2"/>
       <c r="P60">
         <v>13</v>
@@ -4462,29 +4495,29 @@
       </c>
     </row>
     <row r="61" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="B61" s="26"/>
-      <c r="C61" s="27" t="s">
+      <c r="B61" s="32"/>
+      <c r="C61" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="D61" s="28"/>
-      <c r="E61" s="27" t="s">
+      <c r="D61" s="26"/>
+      <c r="E61" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="F61" s="29"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="23"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="21"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="22">
+      <c r="L61" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M61" s="24"/>
-      <c r="N61" s="23"/>
+      <c r="M61" s="28"/>
+      <c r="N61" s="21"/>
       <c r="O61" s="2"/>
       <c r="P61">
         <v>14</v>
@@ -4510,29 +4543,29 @@
       </c>
     </row>
     <row r="62" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="B62" s="26"/>
-      <c r="C62" s="27" t="s">
+      <c r="B62" s="32"/>
+      <c r="C62" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="27" t="s">
+      <c r="D62" s="26"/>
+      <c r="E62" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="F62" s="29"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="23"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="21"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="22">
+      <c r="L62" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M62" s="24"/>
-      <c r="N62" s="23"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="21"/>
       <c r="O62" s="2"/>
       <c r="P62">
         <v>13</v>
@@ -4555,29 +4588,29 @@
       </c>
     </row>
     <row r="63" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="B63" s="26"/>
-      <c r="C63" s="27" t="s">
+      <c r="B63" s="32"/>
+      <c r="C63" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="D63" s="28"/>
-      <c r="E63" s="27" t="s">
+      <c r="D63" s="26"/>
+      <c r="E63" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="F63" s="29"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="23"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="21"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="22">
+      <c r="L63" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M63" s="24"/>
-      <c r="N63" s="23"/>
+      <c r="M63" s="28"/>
+      <c r="N63" s="21"/>
       <c r="O63" s="2"/>
       <c r="Q63">
         <v>0</v>
@@ -4597,29 +4630,29 @@
       </c>
     </row>
     <row r="64" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="B64" s="26"/>
-      <c r="C64" s="27" t="s">
+      <c r="B64" s="32"/>
+      <c r="C64" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="D64" s="28"/>
-      <c r="E64" s="27" t="s">
+      <c r="D64" s="26"/>
+      <c r="E64" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="F64" s="29"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="23"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="21"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="22">
+      <c r="L64" s="20">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="M64" s="24"/>
-      <c r="N64" s="23"/>
+      <c r="M64" s="28"/>
+      <c r="N64" s="21"/>
       <c r="O64" s="2"/>
       <c r="P64">
         <v>18</v>
@@ -4654,29 +4687,29 @@
       </c>
     </row>
     <row r="65" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B65" s="26"/>
-      <c r="C65" s="27" t="s">
+      <c r="B65" s="32"/>
+      <c r="C65" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="D65" s="28"/>
-      <c r="E65" s="27" t="s">
+      <c r="D65" s="26"/>
+      <c r="E65" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="F65" s="29"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="23"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="21"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="22">
+      <c r="L65" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M65" s="24"/>
-      <c r="N65" s="23"/>
+      <c r="M65" s="28"/>
+      <c r="N65" s="21"/>
       <c r="O65" s="2"/>
       <c r="Q65">
         <v>0</v>
@@ -4696,29 +4729,29 @@
       </c>
     </row>
     <row r="66" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="B66" s="26"/>
-      <c r="C66" s="27" t="s">
+      <c r="B66" s="32"/>
+      <c r="C66" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="D66" s="28"/>
-      <c r="E66" s="27" t="s">
+      <c r="D66" s="26"/>
+      <c r="E66" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="F66" s="29"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="23"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="21"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
-      <c r="L66" s="22">
+      <c r="L66" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M66" s="24"/>
-      <c r="N66" s="23"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="21"/>
       <c r="O66" s="2"/>
       <c r="P66">
         <v>13</v>
@@ -4741,29 +4774,29 @@
       </c>
     </row>
     <row r="67" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="26"/>
-      <c r="C67" s="27" t="s">
+      <c r="B67" s="32"/>
+      <c r="C67" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="D67" s="28"/>
-      <c r="E67" s="27" t="s">
+      <c r="D67" s="26"/>
+      <c r="E67" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="F67" s="29"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="23"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="21"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="22">
+      <c r="L67" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M67" s="24"/>
-      <c r="N67" s="23"/>
+      <c r="M67" s="28"/>
+      <c r="N67" s="21"/>
       <c r="O67" s="2"/>
       <c r="P67">
         <v>15</v>
@@ -4792,29 +4825,29 @@
       </c>
     </row>
     <row r="68" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="B68" s="26"/>
-      <c r="C68" s="27" t="s">
+      <c r="B68" s="32"/>
+      <c r="C68" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="D68" s="28"/>
-      <c r="E68" s="27" t="s">
+      <c r="D68" s="26"/>
+      <c r="E68" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="F68" s="29"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="23"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="21"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-      <c r="L68" s="22">
+      <c r="L68" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M68" s="24"/>
-      <c r="N68" s="23"/>
+      <c r="M68" s="28"/>
+      <c r="N68" s="21"/>
       <c r="O68" s="2"/>
       <c r="P68">
         <v>15</v>
@@ -4831,38 +4864,41 @@
       <c r="V68">
         <v>1</v>
       </c>
+      <c r="X68">
+        <v>30</v>
+      </c>
       <c r="Y68">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="Z68">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="B69" s="26"/>
-      <c r="C69" s="27" t="s">
+      <c r="B69" s="32"/>
+      <c r="C69" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="D69" s="28"/>
-      <c r="E69" s="27" t="s">
+      <c r="D69" s="26"/>
+      <c r="E69" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="F69" s="29"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="23"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="21"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="22">
+      <c r="L69" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M69" s="24"/>
-      <c r="N69" s="23"/>
+      <c r="M69" s="28"/>
+      <c r="N69" s="21"/>
       <c r="O69" s="2"/>
       <c r="Q69">
         <v>10</v>
@@ -4882,29 +4918,29 @@
       </c>
     </row>
     <row r="70" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="25" t="s">
+      <c r="A70" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B70" s="26"/>
-      <c r="C70" s="27" t="s">
+      <c r="B70" s="32"/>
+      <c r="C70" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="D70" s="28"/>
-      <c r="E70" s="27" t="s">
+      <c r="D70" s="26"/>
+      <c r="E70" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="F70" s="29"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="23"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="21"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
-      <c r="L70" s="22">
+      <c r="L70" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M70" s="24"/>
-      <c r="N70" s="23"/>
+        <v>5.3333333333333286</v>
+      </c>
+      <c r="M70" s="28"/>
+      <c r="N70" s="21"/>
       <c r="O70" s="2"/>
       <c r="P70">
         <v>18</v>
@@ -4924,38 +4960,41 @@
       <c r="V70">
         <v>2</v>
       </c>
+      <c r="X70">
+        <v>30</v>
+      </c>
       <c r="Y70">
         <f t="shared" si="1"/>
-        <v>25.333333333333332</v>
+        <v>55.333333333333329</v>
       </c>
       <c r="Z70">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B71" s="26"/>
-      <c r="C71" s="27" t="s">
+      <c r="B71" s="32"/>
+      <c r="C71" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="D71" s="28"/>
-      <c r="E71" s="27" t="s">
+      <c r="D71" s="26"/>
+      <c r="E71" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="F71" s="29"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="23"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="21"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
-      <c r="L71" s="22">
+      <c r="L71" s="20">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M71" s="24"/>
-      <c r="N71" s="23"/>
+        <v>33</v>
+      </c>
+      <c r="M71" s="28"/>
+      <c r="N71" s="21"/>
       <c r="O71" s="2"/>
       <c r="Q71">
         <v>0</v>
@@ -4975,38 +5014,41 @@
       <c r="W71">
         <v>19</v>
       </c>
+      <c r="X71">
+        <v>30</v>
+      </c>
       <c r="Y71">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="Z71">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="25" t="s">
+      <c r="A72" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="B72" s="26"/>
-      <c r="C72" s="27" t="s">
+      <c r="B72" s="32"/>
+      <c r="C72" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="D72" s="28"/>
-      <c r="E72" s="27" t="s">
+      <c r="D72" s="26"/>
+      <c r="E72" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="F72" s="29"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="22"/>
-      <c r="I72" s="23"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="21"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="L72" s="22">
+      <c r="L72" s="20">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="M72" s="24"/>
-      <c r="N72" s="23"/>
+      <c r="M72" s="28"/>
+      <c r="N72" s="21"/>
       <c r="O72" s="2"/>
       <c r="P72">
         <v>15</v>
@@ -5038,29 +5080,29 @@
       </c>
     </row>
     <row r="73" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="25" t="s">
+      <c r="A73" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="B73" s="26"/>
-      <c r="C73" s="27" t="s">
+      <c r="B73" s="32"/>
+      <c r="C73" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="D73" s="28"/>
-      <c r="E73" s="27" t="s">
+      <c r="D73" s="26"/>
+      <c r="E73" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="F73" s="29"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="23"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="21"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
-      <c r="L73" s="22">
+      <c r="L73" s="20">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="M73" s="24"/>
-      <c r="N73" s="23"/>
+      <c r="M73" s="28"/>
+      <c r="N73" s="21"/>
       <c r="O73" s="2"/>
       <c r="P73">
         <v>13</v>
@@ -5095,29 +5137,29 @@
       </c>
     </row>
     <row r="74" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="25" t="s">
+      <c r="A74" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="B74" s="26"/>
-      <c r="C74" s="27" t="s">
+      <c r="B74" s="32"/>
+      <c r="C74" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="D74" s="28"/>
-      <c r="E74" s="27" t="s">
+      <c r="D74" s="26"/>
+      <c r="E74" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="F74" s="29"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="23"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="21"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
-      <c r="L74" s="22">
+      <c r="L74" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M74" s="24"/>
-      <c r="N74" s="23"/>
+      <c r="M74" s="28"/>
+      <c r="N74" s="21"/>
       <c r="O74" s="2"/>
       <c r="Q74">
         <v>0</v>
@@ -5143,29 +5185,29 @@
       </c>
     </row>
     <row r="75" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25" t="s">
+      <c r="A75" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="B75" s="26"/>
-      <c r="C75" s="27" t="s">
+      <c r="B75" s="32"/>
+      <c r="C75" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="D75" s="28"/>
-      <c r="E75" s="27" t="s">
+      <c r="D75" s="26"/>
+      <c r="E75" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="F75" s="29"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="22"/>
-      <c r="I75" s="23"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="21"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
-      <c r="L75" s="22">
+      <c r="L75" s="20">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="M75" s="24"/>
-      <c r="N75" s="23"/>
+        <v>49</v>
+      </c>
+      <c r="M75" s="28"/>
+      <c r="N75" s="21"/>
       <c r="O75" s="2"/>
       <c r="P75">
         <v>14</v>
@@ -5188,38 +5230,41 @@
       <c r="W75">
         <v>19</v>
       </c>
+      <c r="X75">
+        <v>30</v>
+      </c>
       <c r="Y75">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="Z75">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="25" t="s">
+      <c r="A76" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="B76" s="26"/>
-      <c r="C76" s="27" t="s">
+      <c r="B76" s="32"/>
+      <c r="C76" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="D76" s="28"/>
-      <c r="E76" s="27" t="s">
+      <c r="D76" s="26"/>
+      <c r="E76" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="F76" s="29"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="22"/>
-      <c r="I76" s="23"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="21"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
-      <c r="L76" s="22">
+      <c r="L76" s="20">
         <f t="shared" ref="L76:L113" si="2">IF((Y76-50)&gt;50,50,IF((Y76-50)&lt;0,0,(Y76-50)))</f>
         <v>0</v>
       </c>
-      <c r="M76" s="24"/>
-      <c r="N76" s="23"/>
+      <c r="M76" s="28"/>
+      <c r="N76" s="21"/>
       <c r="O76" s="2"/>
       <c r="Q76">
         <v>0</v>
@@ -5239,29 +5284,29 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="25" t="s">
+      <c r="A77" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="B77" s="26"/>
-      <c r="C77" s="27" t="s">
+      <c r="B77" s="32"/>
+      <c r="C77" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="D77" s="28"/>
-      <c r="E77" s="27" t="s">
+      <c r="D77" s="26"/>
+      <c r="E77" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="F77" s="29"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="23"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="20"/>
+      <c r="I77" s="21"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
-      <c r="L77" s="22">
+      <c r="L77" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M77" s="24"/>
-      <c r="N77" s="23"/>
+      <c r="M77" s="28"/>
+      <c r="N77" s="21"/>
       <c r="O77" s="2"/>
       <c r="P77">
         <v>19</v>
@@ -5287,29 +5332,29 @@
       </c>
     </row>
     <row r="78" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="25" t="s">
+      <c r="A78" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="B78" s="26"/>
-      <c r="C78" s="27" t="s">
+      <c r="B78" s="32"/>
+      <c r="C78" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="D78" s="28"/>
-      <c r="E78" s="27" t="s">
+      <c r="D78" s="26"/>
+      <c r="E78" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="F78" s="29"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="23"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="21"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
-      <c r="L78" s="22">
+      <c r="L78" s="20">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="M78" s="24"/>
-      <c r="N78" s="23"/>
+      <c r="M78" s="28"/>
+      <c r="N78" s="21"/>
       <c r="O78" s="2"/>
       <c r="P78">
         <v>16</v>
@@ -5341,29 +5386,29 @@
       </c>
     </row>
     <row r="79" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="25" t="s">
+      <c r="A79" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="B79" s="26"/>
-      <c r="C79" s="27" t="s">
+      <c r="B79" s="32"/>
+      <c r="C79" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="D79" s="28"/>
-      <c r="E79" s="27" t="s">
+      <c r="D79" s="26"/>
+      <c r="E79" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="F79" s="29"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="22"/>
-      <c r="I79" s="23"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="21"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
-      <c r="L79" s="22">
+      <c r="L79" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M79" s="24"/>
-      <c r="N79" s="23"/>
+        <v>2</v>
+      </c>
+      <c r="M79" s="28"/>
+      <c r="N79" s="21"/>
       <c r="O79" s="2"/>
       <c r="Q79">
         <v>0</v>
@@ -5380,38 +5425,41 @@
       <c r="W79">
         <v>15</v>
       </c>
+      <c r="X79">
+        <v>30</v>
+      </c>
       <c r="Y79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="Z79">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="25" t="s">
+      <c r="A80" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="B80" s="26"/>
-      <c r="C80" s="27" t="s">
+      <c r="B80" s="32"/>
+      <c r="C80" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="27" t="s">
+      <c r="D80" s="26"/>
+      <c r="E80" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="F80" s="29"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="22"/>
-      <c r="I80" s="23"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="21"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
-      <c r="L80" s="22">
+      <c r="L80" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M80" s="24"/>
-      <c r="N80" s="23"/>
+      <c r="M80" s="28"/>
+      <c r="N80" s="21"/>
       <c r="O80" s="2"/>
       <c r="P80">
         <v>16</v>
@@ -5437,29 +5485,29 @@
       </c>
     </row>
     <row r="81" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="25" t="s">
+      <c r="A81" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="B81" s="26"/>
-      <c r="C81" s="27" t="s">
+      <c r="B81" s="32"/>
+      <c r="C81" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="D81" s="28"/>
-      <c r="E81" s="27" t="s">
+      <c r="D81" s="26"/>
+      <c r="E81" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="F81" s="29"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="22"/>
-      <c r="I81" s="23"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="21"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
-      <c r="L81" s="22">
+      <c r="L81" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M81" s="24"/>
-      <c r="N81" s="23"/>
+      <c r="M81" s="28"/>
+      <c r="N81" s="21"/>
       <c r="O81" s="2"/>
       <c r="P81">
         <v>16</v>
@@ -5488,29 +5536,29 @@
       </c>
     </row>
     <row r="82" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25" t="s">
+      <c r="A82" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="B82" s="26"/>
-      <c r="C82" s="27" t="s">
+      <c r="B82" s="32"/>
+      <c r="C82" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="D82" s="28"/>
-      <c r="E82" s="27" t="s">
+      <c r="D82" s="26"/>
+      <c r="E82" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="F82" s="29"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="22"/>
-      <c r="I82" s="23"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="21"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
-      <c r="L82" s="22">
+      <c r="L82" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M82" s="24"/>
-      <c r="N82" s="23"/>
+      <c r="M82" s="28"/>
+      <c r="N82" s="21"/>
       <c r="O82" s="2"/>
       <c r="Q82">
         <v>10</v>
@@ -5530,29 +5578,29 @@
       </c>
     </row>
     <row r="83" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="25" t="s">
+      <c r="A83" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="B83" s="26"/>
-      <c r="C83" s="27" t="s">
+      <c r="B83" s="32"/>
+      <c r="C83" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="D83" s="28"/>
-      <c r="E83" s="27" t="s">
+      <c r="D83" s="26"/>
+      <c r="E83" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="F83" s="29"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="22"/>
-      <c r="I83" s="23"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="21"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
-      <c r="L83" s="22">
+      <c r="L83" s="20">
         <f t="shared" si="2"/>
         <v>17.75</v>
       </c>
-      <c r="M83" s="24"/>
-      <c r="N83" s="23"/>
+      <c r="M83" s="28"/>
+      <c r="N83" s="21"/>
       <c r="O83" s="2"/>
       <c r="P83">
         <v>11</v>
@@ -5587,29 +5635,29 @@
       </c>
     </row>
     <row r="84" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="25" t="s">
+      <c r="A84" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="B84" s="26"/>
-      <c r="C84" s="27" t="s">
+      <c r="B84" s="32"/>
+      <c r="C84" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="D84" s="28"/>
-      <c r="E84" s="27" t="s">
+      <c r="D84" s="26"/>
+      <c r="E84" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="F84" s="29"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="23"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="21"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
-      <c r="L84" s="22">
+      <c r="L84" s="20">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="M84" s="24"/>
-      <c r="N84" s="23"/>
+      <c r="M84" s="28"/>
+      <c r="N84" s="21"/>
       <c r="O84" s="2"/>
       <c r="Q84">
         <v>0</v>
@@ -5638,29 +5686,29 @@
       </c>
     </row>
     <row r="85" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="25" t="s">
+      <c r="A85" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="B85" s="26"/>
-      <c r="C85" s="27" t="s">
+      <c r="B85" s="32"/>
+      <c r="C85" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="D85" s="28"/>
-      <c r="E85" s="27" t="s">
+      <c r="D85" s="26"/>
+      <c r="E85" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="F85" s="29"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="22"/>
-      <c r="I85" s="23"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="21"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
-      <c r="L85" s="22">
+      <c r="L85" s="20">
         <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="M85" s="24"/>
-      <c r="N85" s="23"/>
+        <v>45</v>
+      </c>
+      <c r="M85" s="28"/>
+      <c r="N85" s="21"/>
       <c r="O85" s="2"/>
       <c r="P85">
         <v>13</v>
@@ -5683,38 +5731,41 @@
       <c r="W85">
         <v>18</v>
       </c>
+      <c r="X85">
+        <v>30</v>
+      </c>
       <c r="Y85">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="Z85">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="25" t="s">
+      <c r="A86" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="B86" s="26"/>
-      <c r="C86" s="27" t="s">
+      <c r="B86" s="32"/>
+      <c r="C86" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="D86" s="28"/>
-      <c r="E86" s="27" t="s">
+      <c r="D86" s="26"/>
+      <c r="E86" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="F86" s="29"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="22"/>
-      <c r="I86" s="23"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="21"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
-      <c r="L86" s="22">
+      <c r="L86" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M86" s="24"/>
-      <c r="N86" s="23"/>
+      <c r="M86" s="28"/>
+      <c r="N86" s="21"/>
       <c r="O86" s="2"/>
       <c r="P86">
         <v>16</v>
@@ -5740,29 +5791,29 @@
       </c>
     </row>
     <row r="87" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="25" t="s">
+      <c r="A87" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="B87" s="26"/>
-      <c r="C87" s="27" t="s">
+      <c r="B87" s="32"/>
+      <c r="C87" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="D87" s="28"/>
-      <c r="E87" s="27" t="s">
+      <c r="D87" s="26"/>
+      <c r="E87" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="F87" s="29"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="22"/>
-      <c r="I87" s="23"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="20"/>
+      <c r="I87" s="21"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
-      <c r="L87" s="22">
+      <c r="L87" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M87" s="24"/>
-      <c r="N87" s="23"/>
+      <c r="M87" s="28"/>
+      <c r="N87" s="21"/>
       <c r="O87" s="2"/>
       <c r="Q87">
         <v>0</v>
@@ -5782,29 +5833,29 @@
       </c>
     </row>
     <row r="88" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="25" t="s">
+      <c r="A88" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="B88" s="26"/>
-      <c r="C88" s="27" t="s">
+      <c r="B88" s="32"/>
+      <c r="C88" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="D88" s="28"/>
-      <c r="E88" s="27" t="s">
+      <c r="D88" s="26"/>
+      <c r="E88" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="F88" s="29"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="22"/>
-      <c r="I88" s="23"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="21"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
-      <c r="L88" s="22">
+      <c r="L88" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M88" s="24"/>
-      <c r="N88" s="23"/>
+        <v>4</v>
+      </c>
+      <c r="M88" s="28"/>
+      <c r="N88" s="21"/>
       <c r="O88" s="2"/>
       <c r="P88">
         <v>14</v>
@@ -5818,38 +5869,41 @@
       <c r="V88">
         <v>1</v>
       </c>
+      <c r="X88">
+        <v>30</v>
+      </c>
       <c r="Y88">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="Z88">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="25" t="s">
+      <c r="A89" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="B89" s="26"/>
-      <c r="C89" s="27" t="s">
+      <c r="B89" s="32"/>
+      <c r="C89" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="27" t="s">
+      <c r="D89" s="26"/>
+      <c r="E89" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="F89" s="29"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="22"/>
-      <c r="I89" s="23"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="20"/>
+      <c r="I89" s="21"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
-      <c r="L89" s="22">
+      <c r="L89" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M89" s="24"/>
-      <c r="N89" s="23"/>
+        <v>3</v>
+      </c>
+      <c r="M89" s="28"/>
+      <c r="N89" s="21"/>
       <c r="O89" s="2"/>
       <c r="P89">
         <v>13</v>
@@ -5863,38 +5917,41 @@
       <c r="V89">
         <v>2</v>
       </c>
+      <c r="X89">
+        <v>30</v>
+      </c>
       <c r="Y89">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="Z89">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="25" t="s">
+      <c r="A90" s="31" t="s">
         <v>267</v>
       </c>
-      <c r="B90" s="26"/>
-      <c r="C90" s="27" t="s">
+      <c r="B90" s="32"/>
+      <c r="C90" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="D90" s="28"/>
-      <c r="E90" s="27" t="s">
+      <c r="D90" s="26"/>
+      <c r="E90" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="F90" s="29"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="22"/>
-      <c r="I90" s="23"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="21"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
-      <c r="L90" s="22">
+      <c r="L90" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M90" s="24"/>
-      <c r="N90" s="23"/>
+        <v>4</v>
+      </c>
+      <c r="M90" s="28"/>
+      <c r="N90" s="21"/>
       <c r="O90" s="2"/>
       <c r="P90">
         <v>14</v>
@@ -5908,38 +5965,41 @@
       <c r="V90">
         <v>2</v>
       </c>
+      <c r="X90">
+        <v>30</v>
+      </c>
       <c r="Y90">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="Z90">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="25" t="s">
+      <c r="A91" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="B91" s="26"/>
-      <c r="C91" s="27" t="s">
+      <c r="B91" s="32"/>
+      <c r="C91" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="D91" s="28"/>
-      <c r="E91" s="27" t="s">
+      <c r="D91" s="26"/>
+      <c r="E91" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="F91" s="29"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="22"/>
-      <c r="I91" s="23"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="21"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
-      <c r="L91" s="22">
+      <c r="L91" s="20">
         <f t="shared" si="2"/>
         <v>17.666666666666671</v>
       </c>
-      <c r="M91" s="24"/>
-      <c r="N91" s="23"/>
+      <c r="M91" s="28"/>
+      <c r="N91" s="21"/>
       <c r="O91" s="2"/>
       <c r="P91">
         <v>13</v>
@@ -5974,29 +6034,29 @@
       </c>
     </row>
     <row r="92" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="25" t="s">
+      <c r="A92" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="B92" s="26"/>
-      <c r="C92" s="27" t="s">
+      <c r="B92" s="32"/>
+      <c r="C92" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="D92" s="28"/>
-      <c r="E92" s="27" t="s">
+      <c r="D92" s="26"/>
+      <c r="E92" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="F92" s="29"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="22"/>
-      <c r="I92" s="23"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="20"/>
+      <c r="I92" s="21"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
-      <c r="L92" s="22">
+      <c r="L92" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M92" s="24"/>
-      <c r="N92" s="23"/>
+      <c r="M92" s="28"/>
+      <c r="N92" s="21"/>
       <c r="O92" s="2"/>
       <c r="P92">
         <v>14</v>
@@ -6025,29 +6085,29 @@
       </c>
     </row>
     <row r="93" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="25" t="s">
+      <c r="A93" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="B93" s="26"/>
-      <c r="C93" s="27" t="s">
+      <c r="B93" s="32"/>
+      <c r="C93" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="D93" s="28"/>
-      <c r="E93" s="27" t="s">
+      <c r="D93" s="26"/>
+      <c r="E93" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="F93" s="29"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="22"/>
-      <c r="I93" s="23"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="20"/>
+      <c r="I93" s="21"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
-      <c r="L93" s="22">
+      <c r="L93" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M93" s="24"/>
-      <c r="N93" s="23"/>
+      <c r="M93" s="28"/>
+      <c r="N93" s="21"/>
       <c r="O93" s="2"/>
       <c r="P93">
         <v>13</v>
@@ -6076,29 +6136,29 @@
       </c>
     </row>
     <row r="94" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="25" t="s">
+      <c r="A94" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="B94" s="26"/>
-      <c r="C94" s="27" t="s">
+      <c r="B94" s="32"/>
+      <c r="C94" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="D94" s="28"/>
-      <c r="E94" s="27" t="s">
+      <c r="D94" s="26"/>
+      <c r="E94" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="F94" s="29"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="22"/>
-      <c r="I94" s="23"/>
+      <c r="F94" s="27"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="20"/>
+      <c r="I94" s="21"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
-      <c r="L94" s="22">
+      <c r="L94" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M94" s="24"/>
-      <c r="N94" s="23"/>
+      <c r="M94" s="28"/>
+      <c r="N94" s="21"/>
       <c r="O94" s="2"/>
       <c r="P94">
         <v>13</v>
@@ -6124,29 +6184,29 @@
       </c>
     </row>
     <row r="95" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="25" t="s">
+      <c r="A95" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="B95" s="26"/>
-      <c r="C95" s="27" t="s">
+      <c r="B95" s="32"/>
+      <c r="C95" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="D95" s="28"/>
-      <c r="E95" s="27" t="s">
+      <c r="D95" s="26"/>
+      <c r="E95" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="F95" s="29"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="22"/>
-      <c r="I95" s="23"/>
+      <c r="F95" s="27"/>
+      <c r="G95" s="26"/>
+      <c r="H95" s="20"/>
+      <c r="I95" s="21"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
-      <c r="L95" s="22">
+      <c r="L95" s="20">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="M95" s="24"/>
-      <c r="N95" s="23"/>
+      <c r="M95" s="28"/>
+      <c r="N95" s="21"/>
       <c r="O95" s="2"/>
       <c r="P95">
         <v>14</v>
@@ -6172,29 +6232,29 @@
       </c>
     </row>
     <row r="96" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="25" t="s">
+      <c r="A96" s="31" t="s">
         <v>285</v>
       </c>
-      <c r="B96" s="26"/>
-      <c r="C96" s="27" t="s">
+      <c r="B96" s="32"/>
+      <c r="C96" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="D96" s="28"/>
-      <c r="E96" s="27" t="s">
+      <c r="D96" s="26"/>
+      <c r="E96" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="F96" s="29"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="22"/>
-      <c r="I96" s="23"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="26"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="21"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
-      <c r="L96" s="22">
+      <c r="L96" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M96" s="24"/>
-      <c r="N96" s="23"/>
+      <c r="M96" s="28"/>
+      <c r="N96" s="21"/>
       <c r="O96" s="2"/>
       <c r="Q96">
         <v>9</v>
@@ -6217,29 +6277,29 @@
       </c>
     </row>
     <row r="97" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="25" t="s">
+      <c r="A97" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="B97" s="26"/>
-      <c r="C97" s="27" t="s">
+      <c r="B97" s="32"/>
+      <c r="C97" s="25" t="s">
         <v>289</v>
       </c>
-      <c r="D97" s="28"/>
-      <c r="E97" s="27" t="s">
+      <c r="D97" s="26"/>
+      <c r="E97" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="F97" s="29"/>
-      <c r="G97" s="28"/>
-      <c r="H97" s="22"/>
-      <c r="I97" s="23"/>
+      <c r="F97" s="27"/>
+      <c r="G97" s="26"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="21"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
-      <c r="L97" s="22">
+      <c r="L97" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M97" s="24"/>
-      <c r="N97" s="23"/>
+      <c r="M97" s="28"/>
+      <c r="N97" s="21"/>
       <c r="O97" s="2"/>
       <c r="P97">
         <v>18</v>
@@ -6262,29 +6322,29 @@
       </c>
     </row>
     <row r="98" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="25" t="s">
+      <c r="A98" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="B98" s="26"/>
-      <c r="C98" s="27" t="s">
+      <c r="B98" s="32"/>
+      <c r="C98" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="27" t="s">
+      <c r="D98" s="26"/>
+      <c r="E98" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="F98" s="29"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="22"/>
-      <c r="I98" s="23"/>
+      <c r="F98" s="27"/>
+      <c r="G98" s="26"/>
+      <c r="H98" s="20"/>
+      <c r="I98" s="21"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
-      <c r="L98" s="22">
+      <c r="L98" s="20">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="M98" s="24"/>
-      <c r="N98" s="23"/>
+      <c r="M98" s="28"/>
+      <c r="N98" s="21"/>
       <c r="O98" s="2"/>
       <c r="P98">
         <v>16</v>
@@ -6322,29 +6382,29 @@
       </c>
     </row>
     <row r="99" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="25" t="s">
+      <c r="A99" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="B99" s="26"/>
-      <c r="C99" s="27" t="s">
+      <c r="B99" s="32"/>
+      <c r="C99" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="D99" s="28"/>
-      <c r="E99" s="27" t="s">
+      <c r="D99" s="26"/>
+      <c r="E99" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="F99" s="29"/>
-      <c r="G99" s="28"/>
-      <c r="H99" s="22"/>
-      <c r="I99" s="23"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="26"/>
+      <c r="H99" s="20"/>
+      <c r="I99" s="21"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
-      <c r="L99" s="22">
+      <c r="L99" s="20">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="M99" s="24"/>
-      <c r="N99" s="23"/>
+      <c r="M99" s="28"/>
+      <c r="N99" s="21"/>
       <c r="O99" s="2"/>
       <c r="P99">
         <v>16</v>
@@ -6382,29 +6442,29 @@
       </c>
     </row>
     <row r="100" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="25" t="s">
+      <c r="A100" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="B100" s="26"/>
-      <c r="C100" s="27" t="s">
+      <c r="B100" s="32"/>
+      <c r="C100" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="D100" s="28"/>
-      <c r="E100" s="27" t="s">
+      <c r="D100" s="26"/>
+      <c r="E100" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="F100" s="29"/>
-      <c r="G100" s="28"/>
-      <c r="H100" s="22"/>
-      <c r="I100" s="23"/>
+      <c r="F100" s="27"/>
+      <c r="G100" s="26"/>
+      <c r="H100" s="20"/>
+      <c r="I100" s="21"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
-      <c r="L100" s="22">
+      <c r="L100" s="20">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="M100" s="24"/>
-      <c r="N100" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="M100" s="28"/>
+      <c r="N100" s="21"/>
       <c r="O100" s="2"/>
       <c r="P100">
         <v>13</v>
@@ -6427,38 +6487,41 @@
       <c r="W100">
         <v>19</v>
       </c>
+      <c r="X100">
+        <v>30</v>
+      </c>
       <c r="Y100">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="Z100">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="25" t="s">
+      <c r="A101" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="B101" s="26"/>
-      <c r="C101" s="27" t="s">
+      <c r="B101" s="32"/>
+      <c r="C101" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="D101" s="28"/>
-      <c r="E101" s="27" t="s">
+      <c r="D101" s="26"/>
+      <c r="E101" s="25" t="s">
         <v>302</v>
       </c>
-      <c r="F101" s="29"/>
-      <c r="G101" s="28"/>
-      <c r="H101" s="22"/>
-      <c r="I101" s="23"/>
+      <c r="F101" s="27"/>
+      <c r="G101" s="26"/>
+      <c r="H101" s="20"/>
+      <c r="I101" s="21"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
-      <c r="L101" s="22">
+      <c r="L101" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M101" s="24"/>
-      <c r="N101" s="23"/>
+      <c r="M101" s="28"/>
+      <c r="N101" s="21"/>
       <c r="O101" s="2"/>
       <c r="Q101">
         <v>9</v>
@@ -6484,29 +6547,29 @@
       </c>
     </row>
     <row r="102" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="25" t="s">
+      <c r="A102" s="31" t="s">
         <v>303</v>
       </c>
-      <c r="B102" s="26"/>
-      <c r="C102" s="27" t="s">
+      <c r="B102" s="32"/>
+      <c r="C102" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="D102" s="28"/>
-      <c r="E102" s="27" t="s">
+      <c r="D102" s="26"/>
+      <c r="E102" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="F102" s="29"/>
-      <c r="G102" s="28"/>
-      <c r="H102" s="22"/>
-      <c r="I102" s="23"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="26"/>
+      <c r="H102" s="20"/>
+      <c r="I102" s="21"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
-      <c r="L102" s="22">
+      <c r="L102" s="20">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="M102" s="24"/>
-      <c r="N102" s="23"/>
+      <c r="M102" s="28"/>
+      <c r="N102" s="21"/>
       <c r="O102" s="2"/>
       <c r="P102">
         <v>16</v>
@@ -6544,29 +6607,29 @@
       </c>
     </row>
     <row r="103" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="25" t="s">
+      <c r="A103" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="B103" s="26"/>
-      <c r="C103" s="27" t="s">
+      <c r="B103" s="32"/>
+      <c r="C103" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="D103" s="28"/>
-      <c r="E103" s="27" t="s">
+      <c r="D103" s="26"/>
+      <c r="E103" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="F103" s="29"/>
-      <c r="G103" s="28"/>
-      <c r="H103" s="22"/>
-      <c r="I103" s="23"/>
+      <c r="F103" s="27"/>
+      <c r="G103" s="26"/>
+      <c r="H103" s="20"/>
+      <c r="I103" s="21"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
-      <c r="L103" s="22">
+      <c r="L103" s="20">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="M103" s="24"/>
-      <c r="N103" s="23"/>
+      <c r="M103" s="28"/>
+      <c r="N103" s="21"/>
       <c r="O103" s="2"/>
       <c r="P103">
         <v>18</v>
@@ -6598,29 +6661,29 @@
       </c>
     </row>
     <row r="104" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="25" t="s">
+      <c r="A104" s="31" t="s">
         <v>309</v>
       </c>
-      <c r="B104" s="26"/>
-      <c r="C104" s="27" t="s">
+      <c r="B104" s="32"/>
+      <c r="C104" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="D104" s="28"/>
-      <c r="E104" s="27" t="s">
+      <c r="D104" s="26"/>
+      <c r="E104" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="F104" s="29"/>
-      <c r="G104" s="28"/>
-      <c r="H104" s="22"/>
-      <c r="I104" s="23"/>
+      <c r="F104" s="27"/>
+      <c r="G104" s="26"/>
+      <c r="H104" s="20"/>
+      <c r="I104" s="21"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
-      <c r="L104" s="22">
+      <c r="L104" s="20">
         <f t="shared" si="2"/>
         <v>18.333333333333343</v>
       </c>
-      <c r="M104" s="24"/>
-      <c r="N104" s="23"/>
+      <c r="M104" s="28"/>
+      <c r="N104" s="21"/>
       <c r="O104" s="2"/>
       <c r="P104">
         <v>11</v>
@@ -6655,29 +6718,29 @@
       </c>
     </row>
     <row r="105" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="25" t="s">
+      <c r="A105" s="31" t="s">
         <v>312</v>
       </c>
-      <c r="B105" s="26"/>
-      <c r="C105" s="27" t="s">
+      <c r="B105" s="32"/>
+      <c r="C105" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="D105" s="28"/>
-      <c r="E105" s="27" t="s">
+      <c r="D105" s="26"/>
+      <c r="E105" s="25" t="s">
         <v>314</v>
       </c>
-      <c r="F105" s="29"/>
-      <c r="G105" s="28"/>
-      <c r="H105" s="22"/>
-      <c r="I105" s="23"/>
+      <c r="F105" s="27"/>
+      <c r="G105" s="26"/>
+      <c r="H105" s="20"/>
+      <c r="I105" s="21"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
-      <c r="L105" s="22">
+      <c r="L105" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M105" s="24"/>
-      <c r="N105" s="23"/>
+      <c r="M105" s="28"/>
+      <c r="N105" s="21"/>
       <c r="O105" s="2"/>
       <c r="Q105">
         <v>0</v>
@@ -6700,29 +6763,29 @@
       </c>
     </row>
     <row r="106" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="25" t="s">
+      <c r="A106" s="31" t="s">
         <v>315</v>
       </c>
-      <c r="B106" s="26"/>
-      <c r="C106" s="27" t="s">
+      <c r="B106" s="32"/>
+      <c r="C106" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="D106" s="28"/>
-      <c r="E106" s="27" t="s">
+      <c r="D106" s="26"/>
+      <c r="E106" s="25" t="s">
         <v>317</v>
       </c>
-      <c r="F106" s="29"/>
-      <c r="G106" s="28"/>
-      <c r="H106" s="22"/>
-      <c r="I106" s="23"/>
+      <c r="F106" s="27"/>
+      <c r="G106" s="26"/>
+      <c r="H106" s="20"/>
+      <c r="I106" s="21"/>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
-      <c r="L106" s="22">
+      <c r="L106" s="20">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="M106" s="24"/>
-      <c r="N106" s="23"/>
+      <c r="M106" s="28"/>
+      <c r="N106" s="21"/>
       <c r="O106" s="2"/>
       <c r="P106">
         <v>16</v>
@@ -6754,29 +6817,29 @@
       </c>
     </row>
     <row r="107" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="25" t="s">
+      <c r="A107" s="31" t="s">
         <v>318</v>
       </c>
-      <c r="B107" s="26"/>
-      <c r="C107" s="27" t="s">
+      <c r="B107" s="32"/>
+      <c r="C107" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="D107" s="28"/>
-      <c r="E107" s="27" t="s">
+      <c r="D107" s="26"/>
+      <c r="E107" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="F107" s="29"/>
-      <c r="G107" s="28"/>
-      <c r="H107" s="22"/>
-      <c r="I107" s="23"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="26"/>
+      <c r="H107" s="20"/>
+      <c r="I107" s="21"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
-      <c r="L107" s="22">
+      <c r="L107" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M107" s="24"/>
-      <c r="N107" s="23"/>
+        <v>2</v>
+      </c>
+      <c r="M107" s="28"/>
+      <c r="N107" s="21"/>
       <c r="O107" s="2"/>
       <c r="P107">
         <v>18</v>
@@ -6793,38 +6856,41 @@
       <c r="V107">
         <v>1</v>
       </c>
+      <c r="X107">
+        <v>30</v>
+      </c>
       <c r="Y107">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="Z107">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="25" t="s">
+      <c r="A108" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="B108" s="26"/>
-      <c r="C108" s="27" t="s">
+      <c r="B108" s="32"/>
+      <c r="C108" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="D108" s="28"/>
-      <c r="E108" s="27" t="s">
+      <c r="D108" s="26"/>
+      <c r="E108" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="F108" s="29"/>
-      <c r="G108" s="28"/>
-      <c r="H108" s="22"/>
-      <c r="I108" s="23"/>
+      <c r="F108" s="27"/>
+      <c r="G108" s="26"/>
+      <c r="H108" s="20"/>
+      <c r="I108" s="21"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
-      <c r="L108" s="22">
+      <c r="L108" s="20">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="M108" s="24"/>
-      <c r="N108" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="M108" s="28"/>
+      <c r="N108" s="21"/>
       <c r="O108" s="2"/>
       <c r="P108">
         <v>13</v>
@@ -6844,38 +6910,41 @@
       <c r="W108">
         <v>17</v>
       </c>
+      <c r="X108">
+        <v>30</v>
+      </c>
       <c r="Y108">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="Z108">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="25" t="s">
+      <c r="A109" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="B109" s="26"/>
-      <c r="C109" s="27" t="s">
+      <c r="B109" s="32"/>
+      <c r="C109" s="25" t="s">
         <v>325</v>
       </c>
-      <c r="D109" s="28"/>
-      <c r="E109" s="27" t="s">
+      <c r="D109" s="26"/>
+      <c r="E109" s="25" t="s">
         <v>326</v>
       </c>
-      <c r="F109" s="29"/>
-      <c r="G109" s="28"/>
-      <c r="H109" s="22"/>
-      <c r="I109" s="23"/>
+      <c r="F109" s="27"/>
+      <c r="G109" s="26"/>
+      <c r="H109" s="20"/>
+      <c r="I109" s="21"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
-      <c r="L109" s="22">
+      <c r="L109" s="20">
         <f t="shared" si="2"/>
-        <v>5.5</v>
-      </c>
-      <c r="M109" s="24"/>
-      <c r="N109" s="23"/>
+        <v>35.5</v>
+      </c>
+      <c r="M109" s="28"/>
+      <c r="N109" s="21"/>
       <c r="O109" s="2"/>
       <c r="Q109">
         <v>7</v>
@@ -6895,32 +6964,35 @@
       <c r="W109">
         <v>18</v>
       </c>
+      <c r="X109">
+        <v>30</v>
+      </c>
       <c r="Y109">
         <f t="shared" si="3"/>
-        <v>55.5</v>
+        <v>85.5</v>
       </c>
       <c r="Z109">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="17"/>
-      <c r="B110" s="18"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="20"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="21"/>
-      <c r="G110" s="20"/>
-      <c r="H110" s="22"/>
-      <c r="I110" s="23"/>
+      <c r="A110" s="34"/>
+      <c r="B110" s="35"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="19"/>
+      <c r="G110" s="18"/>
+      <c r="H110" s="20"/>
+      <c r="I110" s="21"/>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
-      <c r="L110" s="22">
+      <c r="L110" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M110" s="24"/>
-      <c r="N110" s="23"/>
+      <c r="M110" s="28"/>
+      <c r="N110" s="21"/>
       <c r="O110" s="2"/>
       <c r="Q110">
         <v>0</v>
@@ -6940,23 +7012,23 @@
       </c>
     </row>
     <row r="111" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="17"/>
-      <c r="B111" s="18"/>
-      <c r="C111" s="19"/>
-      <c r="D111" s="20"/>
-      <c r="E111" s="19"/>
-      <c r="F111" s="21"/>
-      <c r="G111" s="20"/>
-      <c r="H111" s="22"/>
-      <c r="I111" s="23"/>
+      <c r="A111" s="34"/>
+      <c r="B111" s="35"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="19"/>
+      <c r="G111" s="18"/>
+      <c r="H111" s="20"/>
+      <c r="I111" s="21"/>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
-      <c r="L111" s="22">
+      <c r="L111" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M111" s="24"/>
-      <c r="N111" s="23"/>
+      <c r="M111" s="28"/>
+      <c r="N111" s="21"/>
       <c r="O111" s="2"/>
       <c r="Q111">
         <v>0</v>
@@ -6976,23 +7048,23 @@
       </c>
     </row>
     <row r="112" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="17"/>
-      <c r="B112" s="18"/>
-      <c r="C112" s="19"/>
-      <c r="D112" s="20"/>
-      <c r="E112" s="19"/>
-      <c r="F112" s="21"/>
-      <c r="G112" s="20"/>
-      <c r="H112" s="22"/>
-      <c r="I112" s="23"/>
+      <c r="A112" s="34"/>
+      <c r="B112" s="35"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="19"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="20"/>
+      <c r="I112" s="21"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
-      <c r="L112" s="22">
+      <c r="L112" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M112" s="24"/>
-      <c r="N112" s="23"/>
+      <c r="M112" s="28"/>
+      <c r="N112" s="21"/>
       <c r="O112" s="2"/>
       <c r="Q112">
         <v>0</v>
@@ -7012,23 +7084,23 @@
       </c>
     </row>
     <row r="113" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="17"/>
-      <c r="B113" s="18"/>
-      <c r="C113" s="19"/>
-      <c r="D113" s="20"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="21"/>
-      <c r="G113" s="20"/>
-      <c r="H113" s="22"/>
-      <c r="I113" s="23"/>
+      <c r="A113" s="34"/>
+      <c r="B113" s="35"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="19"/>
+      <c r="G113" s="18"/>
+      <c r="H113" s="20"/>
+      <c r="I113" s="21"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
-      <c r="L113" s="22">
+      <c r="L113" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M113" s="24"/>
-      <c r="N113" s="23"/>
+      <c r="M113" s="28"/>
+      <c r="N113" s="21"/>
       <c r="O113" s="2"/>
       <c r="Q113">
         <v>0</v>
@@ -7058,39 +7130,486 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="537">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="L112:N112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="E113:G113"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="L113:N113"/>
+    <mergeCell ref="L108:N108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="L109:N109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="E110:G110"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="L110:N110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="E111:G111"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="L111:N111"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="E109:G109"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="L103:N103"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="L104:N104"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="L105:N105"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="L106:N106"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="L107:N107"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E105:G105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="E106:G106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="E107:G107"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="E104:G104"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="L102:N102"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="L96:N96"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="L100:N100"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="L98:N98"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="L101:N101"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="L94:N94"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="L89:N89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="L90:N90"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="L87:N87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="L88:N88"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="L85:N85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="L86:N86"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="L83:N83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="L84:N84"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="L81:N81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="L79:N79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="L80:N80"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="L78:N78"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="L76:N76"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="L77:N77"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="L75:N75"/>
+    <mergeCell ref="L74:N74"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="L68:N68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="L69:N69"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="L72:N72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="L73:N73"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="L71:N71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="L66:N66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="L67:N67"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="L64:N64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="L65:N65"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="L61:N61"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="L19:N19"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
@@ -7115,486 +7634,39 @@
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="L47:N47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="L61:N61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="L64:N64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="L65:N65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="L66:N66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="L67:N67"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="L72:N72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="L73:N73"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="L70:N70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="L71:N71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="L68:N68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="L69:N69"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="L77:N77"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="L75:N75"/>
-    <mergeCell ref="L74:N74"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="L78:N78"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="L76:N76"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="L79:N79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="L80:N80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="L81:N81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="L82:N82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="L83:N83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="L84:N84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="L85:N85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="L86:N86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="L87:N87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="L88:N88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="L89:N89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="L90:N90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="L91:N91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="L92:N92"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="L93:N93"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="L94:N94"/>
-    <mergeCell ref="L102:N102"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="L96:N96"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="L100:N100"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="L98:N98"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="L101:N101"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="E104:G104"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="E105:G105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="E106:G106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="E107:G107"/>
-    <mergeCell ref="L103:N103"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="L104:N104"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="L105:N105"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="L106:N106"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="L107:N107"/>
-    <mergeCell ref="L108:N108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="L109:N109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="E110:G110"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="L110:N110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="E111:G111"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="L111:N111"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="E109:G109"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="E112:G112"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="L112:N112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="E113:G113"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="L113:N113"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/OYM/_Documentos Comunes/POO_C32017.xlsx
+++ b/OYM/_Documentos Comunes/POO_C32017.xlsx
@@ -1263,6 +1263,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1277,14 +1283,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1294,30 +1300,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1342,6 +1324,24 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1728,8 +1728,8 @@
   <dimension ref="A1:Z113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C109" sqref="C109:D109"/>
+      <pane ySplit="10" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E66" sqref="A66:XFD66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1760,19 +1760,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
+      <c r="B1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1793,19 +1793,19 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
       <c r="N3" s="2"/>
       <c r="P3" t="s">
         <v>21</v>
@@ -1815,19 +1815,19 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
       <c r="N4" s="2"/>
       <c r="P4" t="s">
         <v>23</v>
@@ -1837,19 +1837,19 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
       <c r="N5" s="2"/>
       <c r="P5" t="s">
         <v>25</v>
@@ -1881,19 +1881,19 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
       <c r="N7" s="2"/>
       <c r="P7" s="6" t="s">
         <v>327</v>
@@ -1947,34 +1947,34 @@
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:26" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30" t="s">
+      <c r="B10" s="42"/>
+      <c r="C10" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="29" t="s">
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="29"/>
+      <c r="I10" s="42"/>
       <c r="J10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="29" t="s">
+      <c r="L10" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s">
         <v>8</v>
@@ -2011,35 +2011,35 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="34">
-        <v>0</v>
-      </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="17" t="s">
+      <c r="A11" s="17">
+        <v>0</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="17" t="s">
+      <c r="D11" s="20"/>
+      <c r="E11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="20">
+      <c r="F11" s="21"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="22">
         <v>10</v>
       </c>
-      <c r="I11" s="21"/>
+      <c r="I11" s="23"/>
       <c r="J11" s="5">
         <v>20</v>
       </c>
       <c r="K11" s="5">
         <v>20</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="22">
         <f>IF((Y11-50)&gt;50,50,IF((Y11-50)&lt;0,0,(Y11-50)))</f>
         <v>50</v>
       </c>
-      <c r="M11" s="28"/>
-      <c r="N11" s="21"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="23"/>
       <c r="O11" s="2"/>
       <c r="P11">
         <v>20</v>
@@ -2077,29 +2077,29 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="25" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="25" t="s">
+      <c r="D12" s="28"/>
+      <c r="E12" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="21"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="20">
+      <c r="L12" s="22">
         <f t="shared" ref="L12:L75" si="0">IF((Y12-50)&gt;50,50,IF((Y12-50)&lt;0,0,(Y12-50)))</f>
         <v>0</v>
       </c>
-      <c r="M12" s="28"/>
-      <c r="N12" s="21"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="23"/>
       <c r="O12" s="2"/>
       <c r="Q12">
         <v>0</v>
@@ -2119,29 +2119,29 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="25" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="25" t="s">
+      <c r="D13" s="28"/>
+      <c r="E13" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="21"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="20">
+      <c r="L13" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="28"/>
-      <c r="N13" s="21"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="23"/>
       <c r="O13" s="2"/>
       <c r="P13">
         <v>16</v>
@@ -2167,29 +2167,29 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="25" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="25" t="s">
+      <c r="D14" s="28"/>
+      <c r="E14" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="21"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="20">
+      <c r="L14" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M14" s="28"/>
-      <c r="N14" s="21"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="23"/>
       <c r="O14" s="2"/>
       <c r="P14">
         <v>15</v>
@@ -2215,29 +2215,29 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="25" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="25" t="s">
+      <c r="D15" s="28"/>
+      <c r="E15" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="21"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="20">
+      <c r="L15" s="22">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M15" s="28"/>
-      <c r="N15" s="21"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="23"/>
       <c r="O15" s="2"/>
       <c r="P15">
         <v>15</v>
@@ -2266,29 +2266,29 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="25" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="25" t="s">
+      <c r="D16" s="28"/>
+      <c r="E16" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="21"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="23"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="20">
+      <c r="L16" s="22">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="M16" s="28"/>
-      <c r="N16" s="21"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="23"/>
       <c r="O16" s="2"/>
       <c r="Q16">
         <v>0</v>
@@ -2320,29 +2320,29 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="25" t="s">
+      <c r="B17" s="26"/>
+      <c r="C17" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="25" t="s">
+      <c r="D17" s="28"/>
+      <c r="E17" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="21"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="20">
+      <c r="L17" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M17" s="28"/>
-      <c r="N17" s="21"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="23"/>
       <c r="O17" s="2"/>
       <c r="P17">
         <v>13</v>
@@ -2371,29 +2371,29 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="25" t="s">
+      <c r="B18" s="26"/>
+      <c r="C18" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="25" t="s">
+      <c r="D18" s="28"/>
+      <c r="E18" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="21"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="20">
+      <c r="L18" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M18" s="28"/>
-      <c r="N18" s="21"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="23"/>
       <c r="O18" s="2"/>
       <c r="P18">
         <v>14</v>
@@ -2422,29 +2422,29 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="25" t="s">
+      <c r="B19" s="26"/>
+      <c r="C19" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="25" t="s">
+      <c r="D19" s="28"/>
+      <c r="E19" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="21"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="20">
+      <c r="L19" s="22">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="M19" s="28"/>
-      <c r="N19" s="21"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="23"/>
       <c r="O19" s="2"/>
       <c r="P19">
         <v>14</v>
@@ -2473,29 +2473,29 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="25" t="s">
+      <c r="B20" s="26"/>
+      <c r="C20" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="25" t="s">
+      <c r="D20" s="28"/>
+      <c r="E20" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="21"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="23"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="20">
+      <c r="L20" s="22">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="M20" s="28"/>
-      <c r="N20" s="21"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="23"/>
       <c r="O20" s="2"/>
       <c r="P20">
         <v>16</v>
@@ -2527,29 +2527,29 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="25" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="25" t="s">
+      <c r="D21" s="28"/>
+      <c r="E21" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="21"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="20">
+      <c r="L21" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M21" s="28"/>
-      <c r="N21" s="21"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="23"/>
       <c r="O21" s="2"/>
       <c r="P21">
         <v>14</v>
@@ -2578,29 +2578,29 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="25" t="s">
+      <c r="B22" s="26"/>
+      <c r="C22" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="25" t="s">
+      <c r="D22" s="28"/>
+      <c r="E22" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="21"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="20">
+      <c r="L22" s="22">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="M22" s="28"/>
-      <c r="N22" s="21"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="23"/>
       <c r="O22" s="2"/>
       <c r="P22">
         <v>18</v>
@@ -2629,29 +2629,29 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="25" t="s">
+      <c r="B23" s="26"/>
+      <c r="C23" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="25" t="s">
+      <c r="D23" s="28"/>
+      <c r="E23" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="21"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="23"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="20">
+      <c r="L23" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M23" s="28"/>
-      <c r="N23" s="21"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="23"/>
       <c r="O23" s="2"/>
       <c r="Q23">
         <v>0</v>
@@ -2671,29 +2671,29 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="25" t="s">
+      <c r="B24" s="26"/>
+      <c r="C24" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="25" t="s">
+      <c r="D24" s="28"/>
+      <c r="E24" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="21"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="20">
+      <c r="L24" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M24" s="28"/>
-      <c r="N24" s="21"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="23"/>
       <c r="O24" s="2"/>
       <c r="Q24">
         <v>0</v>
@@ -2719,29 +2719,29 @@
       </c>
     </row>
     <row r="25" spans="1:26" s="13" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38" t="s">
+      <c r="B25" s="31"/>
+      <c r="C25" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="38" t="s">
+      <c r="D25" s="33"/>
+      <c r="E25" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="F25" s="40"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="42"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="36"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
-      <c r="L25" s="41">
+      <c r="L25" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M25" s="43"/>
-      <c r="N25" s="42"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="36"/>
       <c r="O25" s="12"/>
       <c r="Q25" s="13">
         <v>0</v>
@@ -2767,29 +2767,29 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="25" t="s">
+      <c r="B26" s="26"/>
+      <c r="C26" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="25" t="s">
+      <c r="D26" s="28"/>
+      <c r="E26" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="21"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="23"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="20">
+      <c r="L26" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M26" s="28"/>
-      <c r="N26" s="21"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="23"/>
       <c r="O26" s="2"/>
       <c r="P26">
         <v>15</v>
@@ -2812,29 +2812,29 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="25" t="s">
+      <c r="B27" s="26"/>
+      <c r="C27" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="25" t="s">
+      <c r="D27" s="28"/>
+      <c r="E27" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="F27" s="27"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="21"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="23"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="20">
+      <c r="L27" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M27" s="28"/>
-      <c r="N27" s="21"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="23"/>
       <c r="O27" s="2"/>
       <c r="P27">
         <v>14</v>
@@ -2863,29 +2863,29 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="25" t="s">
+      <c r="B28" s="26"/>
+      <c r="C28" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="25" t="s">
+      <c r="D28" s="28"/>
+      <c r="E28" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="21"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="23"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="20">
+      <c r="L28" s="22">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M28" s="28"/>
-      <c r="N28" s="21"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="23"/>
       <c r="O28" s="2"/>
       <c r="P28">
         <v>18</v>
@@ -2914,29 +2914,29 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="25" t="s">
+      <c r="B29" s="26"/>
+      <c r="C29" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="25" t="s">
+      <c r="D29" s="28"/>
+      <c r="E29" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="21"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="23"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="20">
+      <c r="L29" s="22">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="M29" s="28"/>
-      <c r="N29" s="21"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="23"/>
       <c r="O29" s="2"/>
       <c r="P29">
         <v>16</v>
@@ -2968,29 +2968,29 @@
       </c>
     </row>
     <row r="30" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="25" t="s">
+      <c r="B30" s="26"/>
+      <c r="C30" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="25" t="s">
+      <c r="D30" s="28"/>
+      <c r="E30" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="21"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="23"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="20">
+      <c r="L30" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M30" s="28"/>
-      <c r="N30" s="21"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="23"/>
       <c r="O30" s="2"/>
       <c r="Q30">
         <v>0</v>
@@ -3010,29 +3010,29 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="25" t="s">
+      <c r="B31" s="26"/>
+      <c r="C31" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="25" t="s">
+      <c r="D31" s="28"/>
+      <c r="E31" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="F31" s="27"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="21"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="23"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="20">
+      <c r="L31" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M31" s="28"/>
-      <c r="N31" s="21"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="23"/>
       <c r="O31" s="2"/>
       <c r="P31">
         <v>14</v>
@@ -3061,29 +3061,29 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="25" t="s">
+      <c r="B32" s="26"/>
+      <c r="C32" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="25" t="s">
+      <c r="D32" s="28"/>
+      <c r="E32" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="21"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="23"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="20">
+      <c r="L32" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M32" s="28"/>
-      <c r="N32" s="21"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="23"/>
       <c r="O32" s="2"/>
       <c r="Q32">
         <v>0</v>
@@ -3103,29 +3103,29 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="25" t="s">
+      <c r="B33" s="26"/>
+      <c r="C33" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="25" t="s">
+      <c r="D33" s="28"/>
+      <c r="E33" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="F33" s="27"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="21"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="23"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="20">
+      <c r="L33" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M33" s="28"/>
-      <c r="N33" s="21"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="23"/>
       <c r="O33" s="2"/>
       <c r="P33">
         <v>18</v>
@@ -3151,29 +3151,29 @@
       </c>
     </row>
     <row r="34" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="25" t="s">
+      <c r="B34" s="26"/>
+      <c r="C34" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="25" t="s">
+      <c r="D34" s="28"/>
+      <c r="E34" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="F34" s="27"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="21"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="23"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="20">
+      <c r="L34" s="22">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="M34" s="28"/>
-      <c r="N34" s="21"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="23"/>
       <c r="O34" s="2"/>
       <c r="P34">
         <v>15</v>
@@ -3211,29 +3211,29 @@
       </c>
     </row>
     <row r="35" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="25" t="s">
+      <c r="B35" s="26"/>
+      <c r="C35" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="25" t="s">
+      <c r="D35" s="28"/>
+      <c r="E35" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="F35" s="27"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="21"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="23"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="20">
+      <c r="L35" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M35" s="28"/>
-      <c r="N35" s="21"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="23"/>
       <c r="O35" s="2"/>
       <c r="P35">
         <v>17</v>
@@ -3259,29 +3259,29 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="25" t="s">
+      <c r="B36" s="26"/>
+      <c r="C36" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="25" t="s">
+      <c r="D36" s="28"/>
+      <c r="E36" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="F36" s="27"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="21"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="23"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="20">
+      <c r="L36" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M36" s="28"/>
-      <c r="N36" s="21"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="23"/>
       <c r="O36" s="2"/>
       <c r="P36">
         <v>19</v>
@@ -3307,29 +3307,29 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="25" t="s">
+      <c r="B37" s="26"/>
+      <c r="C37" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="25" t="s">
+      <c r="D37" s="28"/>
+      <c r="E37" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="F37" s="27"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="21"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="23"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="20">
+      <c r="L37" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M37" s="28"/>
-      <c r="N37" s="21"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="23"/>
       <c r="O37" s="2"/>
       <c r="P37">
         <v>15</v>
@@ -3355,29 +3355,29 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="25" t="s">
+      <c r="B38" s="26"/>
+      <c r="C38" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="25" t="s">
+      <c r="D38" s="28"/>
+      <c r="E38" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="F38" s="27"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="21"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="23"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="20">
+      <c r="L38" s="22">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="M38" s="28"/>
-      <c r="N38" s="21"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="23"/>
       <c r="O38" s="2"/>
       <c r="P38">
         <v>16</v>
@@ -3409,29 +3409,29 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="25" t="s">
+      <c r="B39" s="26"/>
+      <c r="C39" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="25" t="s">
+      <c r="D39" s="28"/>
+      <c r="E39" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="F39" s="27"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="21"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="23"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="20">
+      <c r="L39" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M39" s="28"/>
-      <c r="N39" s="21"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="23"/>
       <c r="O39" s="2"/>
       <c r="Q39">
         <v>0</v>
@@ -3451,29 +3451,29 @@
       </c>
     </row>
     <row r="40" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="32"/>
-      <c r="C40" s="25" t="s">
+      <c r="B40" s="26"/>
+      <c r="C40" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="25" t="s">
+      <c r="D40" s="28"/>
+      <c r="E40" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="27"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="21"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="23"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
-      <c r="L40" s="20">
+      <c r="L40" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M40" s="28"/>
-      <c r="N40" s="21"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="23"/>
       <c r="O40" s="2"/>
       <c r="P40">
         <v>13</v>
@@ -3499,29 +3499,29 @@
       </c>
     </row>
     <row r="41" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="25" t="s">
+      <c r="B41" s="26"/>
+      <c r="C41" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="D41" s="26"/>
-      <c r="E41" s="25" t="s">
+      <c r="D41" s="28"/>
+      <c r="E41" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="F41" s="27"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="21"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="23"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
-      <c r="L41" s="20">
+      <c r="L41" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M41" s="28"/>
-      <c r="N41" s="21"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="23"/>
       <c r="O41" s="2"/>
       <c r="Q41">
         <v>0</v>
@@ -3541,29 +3541,29 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="25" t="s">
+      <c r="B42" s="26"/>
+      <c r="C42" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="D42" s="26"/>
-      <c r="E42" s="25" t="s">
+      <c r="D42" s="28"/>
+      <c r="E42" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="F42" s="27"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="21"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="23"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
-      <c r="L42" s="20">
+      <c r="L42" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M42" s="28"/>
-      <c r="N42" s="21"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="23"/>
       <c r="O42" s="2"/>
       <c r="Q42">
         <v>9</v>
@@ -3583,29 +3583,29 @@
       </c>
     </row>
     <row r="43" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="25" t="s">
+      <c r="B43" s="26"/>
+      <c r="C43" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="D43" s="26"/>
-      <c r="E43" s="25" t="s">
+      <c r="D43" s="28"/>
+      <c r="E43" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="F43" s="27"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="21"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="23"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
-      <c r="L43" s="20">
+      <c r="L43" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M43" s="28"/>
-      <c r="N43" s="21"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="23"/>
       <c r="O43" s="2"/>
       <c r="P43">
         <v>11</v>
@@ -3637,29 +3637,29 @@
       </c>
     </row>
     <row r="44" spans="1:26" s="13" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="36" t="s">
+      <c r="A44" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="37"/>
-      <c r="C44" s="38" t="s">
+      <c r="B44" s="31"/>
+      <c r="C44" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="D44" s="39"/>
-      <c r="E44" s="38" t="s">
+      <c r="D44" s="33"/>
+      <c r="E44" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="F44" s="40"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="42"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="36"/>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
-      <c r="L44" s="41">
+      <c r="L44" s="35">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="M44" s="43"/>
-      <c r="N44" s="42"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="36"/>
       <c r="O44" s="12"/>
       <c r="P44" s="13">
         <v>20</v>
@@ -3688,29 +3688,29 @@
       </c>
     </row>
     <row r="45" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="32"/>
-      <c r="C45" s="25" t="s">
+      <c r="B45" s="26"/>
+      <c r="C45" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="D45" s="26"/>
-      <c r="E45" s="25" t="s">
+      <c r="D45" s="28"/>
+      <c r="E45" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="F45" s="27"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="21"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="23"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
-      <c r="L45" s="20">
+      <c r="L45" s="22">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M45" s="28"/>
-      <c r="N45" s="21"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="23"/>
       <c r="O45" s="2"/>
       <c r="P45">
         <v>14</v>
@@ -3736,29 +3736,29 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="32"/>
-      <c r="C46" s="25" t="s">
+      <c r="B46" s="26"/>
+      <c r="C46" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="D46" s="26"/>
-      <c r="E46" s="25" t="s">
+      <c r="D46" s="28"/>
+      <c r="E46" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="F46" s="27"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="21"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="23"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
-      <c r="L46" s="20">
+      <c r="L46" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M46" s="28"/>
-      <c r="N46" s="21"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="23"/>
       <c r="O46" s="2"/>
       <c r="P46">
         <v>13</v>
@@ -3784,29 +3784,29 @@
       </c>
     </row>
     <row r="47" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="32"/>
-      <c r="C47" s="25" t="s">
+      <c r="B47" s="26"/>
+      <c r="C47" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="D47" s="26"/>
-      <c r="E47" s="25" t="s">
+      <c r="D47" s="28"/>
+      <c r="E47" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="F47" s="27"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="21"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="23"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
-      <c r="L47" s="20">
+      <c r="L47" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M47" s="28"/>
-      <c r="N47" s="21"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="23"/>
       <c r="O47" s="2"/>
       <c r="P47">
         <v>20</v>
@@ -3832,29 +3832,29 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="32"/>
-      <c r="C48" s="25" t="s">
+      <c r="B48" s="26"/>
+      <c r="C48" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="25" t="s">
+      <c r="D48" s="28"/>
+      <c r="E48" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="21"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="23"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
-      <c r="L48" s="20">
+      <c r="L48" s="22">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="M48" s="28"/>
-      <c r="N48" s="21"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="23"/>
       <c r="O48" s="2"/>
       <c r="P48">
         <v>14</v>
@@ -3886,29 +3886,29 @@
       </c>
     </row>
     <row r="49" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B49" s="32"/>
-      <c r="C49" s="25" t="s">
+      <c r="B49" s="26"/>
+      <c r="C49" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="D49" s="26"/>
-      <c r="E49" s="25" t="s">
+      <c r="D49" s="28"/>
+      <c r="E49" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="F49" s="27"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="21"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="23"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
-      <c r="L49" s="20">
+      <c r="L49" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M49" s="28"/>
-      <c r="N49" s="21"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="23"/>
       <c r="O49" s="2"/>
       <c r="P49">
         <v>16</v>
@@ -3931,29 +3931,29 @@
       </c>
     </row>
     <row r="50" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="32"/>
-      <c r="C50" s="25" t="s">
+      <c r="B50" s="26"/>
+      <c r="C50" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="D50" s="26"/>
-      <c r="E50" s="25" t="s">
+      <c r="D50" s="28"/>
+      <c r="E50" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="F50" s="27"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="21"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="23"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="20">
+      <c r="L50" s="22">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="M50" s="28"/>
-      <c r="N50" s="21"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="23"/>
       <c r="O50" s="2"/>
       <c r="P50">
         <v>13</v>
@@ -3991,29 +3991,29 @@
       </c>
     </row>
     <row r="51" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="31" t="s">
+      <c r="A51" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B51" s="32"/>
-      <c r="C51" s="25" t="s">
+      <c r="B51" s="26"/>
+      <c r="C51" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="D51" s="26"/>
-      <c r="E51" s="25" t="s">
+      <c r="D51" s="28"/>
+      <c r="E51" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="F51" s="27"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="21"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="23"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
-      <c r="L51" s="20">
+      <c r="L51" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M51" s="28"/>
-      <c r="N51" s="21"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="23"/>
       <c r="O51" s="2"/>
       <c r="Q51">
         <v>0</v>
@@ -4036,29 +4036,29 @@
       </c>
     </row>
     <row r="52" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B52" s="32"/>
-      <c r="C52" s="25" t="s">
+      <c r="B52" s="26"/>
+      <c r="C52" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="D52" s="26"/>
-      <c r="E52" s="25" t="s">
+      <c r="D52" s="28"/>
+      <c r="E52" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="F52" s="27"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="21"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="23"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
-      <c r="L52" s="20">
+      <c r="L52" s="22">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="M52" s="28"/>
-      <c r="N52" s="21"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="23"/>
       <c r="O52" s="2"/>
       <c r="P52">
         <v>13</v>
@@ -4093,29 +4093,29 @@
       </c>
     </row>
     <row r="53" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="32"/>
-      <c r="C53" s="25" t="s">
+      <c r="B53" s="26"/>
+      <c r="C53" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="D53" s="26"/>
-      <c r="E53" s="25" t="s">
+      <c r="D53" s="28"/>
+      <c r="E53" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="F53" s="27"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="21"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="23"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
-      <c r="L53" s="20">
+      <c r="L53" s="22">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="M53" s="28"/>
-      <c r="N53" s="21"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="23"/>
       <c r="O53" s="2"/>
       <c r="P53">
         <v>17</v>
@@ -4153,29 +4153,29 @@
       </c>
     </row>
     <row r="54" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B54" s="32"/>
-      <c r="C54" s="25" t="s">
+      <c r="B54" s="26"/>
+      <c r="C54" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="D54" s="26"/>
-      <c r="E54" s="25" t="s">
+      <c r="D54" s="28"/>
+      <c r="E54" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="F54" s="27"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="21"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="23"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="20">
+      <c r="L54" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M54" s="28"/>
-      <c r="N54" s="21"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="23"/>
       <c r="O54" s="2"/>
       <c r="Q54">
         <v>0</v>
@@ -4195,29 +4195,29 @@
       </c>
     </row>
     <row r="55" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="31" t="s">
+      <c r="A55" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B55" s="32"/>
-      <c r="C55" s="25" t="s">
+      <c r="B55" s="26"/>
+      <c r="C55" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="D55" s="26"/>
-      <c r="E55" s="25" t="s">
+      <c r="D55" s="28"/>
+      <c r="E55" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="F55" s="27"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="21"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="23"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="20">
+      <c r="L55" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M55" s="28"/>
-      <c r="N55" s="21"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="23"/>
       <c r="O55" s="2"/>
       <c r="Q55">
         <v>0</v>
@@ -4240,29 +4240,29 @@
       </c>
     </row>
     <row r="56" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="31" t="s">
+      <c r="A56" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B56" s="32"/>
-      <c r="C56" s="25" t="s">
+      <c r="B56" s="26"/>
+      <c r="C56" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="D56" s="26"/>
-      <c r="E56" s="25" t="s">
+      <c r="D56" s="28"/>
+      <c r="E56" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="F56" s="27"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="21"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="23"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="20">
+      <c r="L56" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M56" s="28"/>
-      <c r="N56" s="21"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="23"/>
       <c r="O56" s="2"/>
       <c r="Q56">
         <v>0</v>
@@ -4285,29 +4285,29 @@
       </c>
     </row>
     <row r="57" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="31" t="s">
+      <c r="A57" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B57" s="32"/>
-      <c r="C57" s="25" t="s">
+      <c r="B57" s="26"/>
+      <c r="C57" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="D57" s="26"/>
-      <c r="E57" s="25" t="s">
+      <c r="D57" s="28"/>
+      <c r="E57" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="F57" s="27"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="21"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="23"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="20">
+      <c r="L57" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M57" s="28"/>
-      <c r="N57" s="21"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="23"/>
       <c r="O57" s="2"/>
       <c r="Q57">
         <v>8</v>
@@ -4333,29 +4333,29 @@
       </c>
     </row>
     <row r="58" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="31" t="s">
+      <c r="A58" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B58" s="32"/>
-      <c r="C58" s="25" t="s">
+      <c r="B58" s="26"/>
+      <c r="C58" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="D58" s="26"/>
-      <c r="E58" s="25" t="s">
+      <c r="D58" s="28"/>
+      <c r="E58" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="F58" s="27"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="21"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="23"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="20">
+      <c r="L58" s="22">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M58" s="28"/>
-      <c r="N58" s="21"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="23"/>
       <c r="O58" s="2"/>
       <c r="P58">
         <v>14</v>
@@ -4384,29 +4384,29 @@
       </c>
     </row>
     <row r="59" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="31" t="s">
+      <c r="A59" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B59" s="32"/>
-      <c r="C59" s="25" t="s">
+      <c r="B59" s="26"/>
+      <c r="C59" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="D59" s="26"/>
-      <c r="E59" s="25" t="s">
+      <c r="D59" s="28"/>
+      <c r="E59" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="F59" s="27"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="21"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="23"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="20">
+      <c r="L59" s="22">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="M59" s="28"/>
-      <c r="N59" s="21"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="23"/>
       <c r="O59" s="2"/>
       <c r="P59">
         <v>13</v>
@@ -4438,29 +4438,29 @@
       </c>
     </row>
     <row r="60" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="31" t="s">
+      <c r="A60" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B60" s="32"/>
-      <c r="C60" s="25" t="s">
+      <c r="B60" s="26"/>
+      <c r="C60" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="D60" s="26"/>
-      <c r="E60" s="25" t="s">
+      <c r="D60" s="28"/>
+      <c r="E60" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="F60" s="27"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="21"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="23"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="20">
+      <c r="L60" s="22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="M60" s="28"/>
-      <c r="N60" s="21"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="23"/>
       <c r="O60" s="2"/>
       <c r="P60">
         <v>13</v>
@@ -4495,29 +4495,29 @@
       </c>
     </row>
     <row r="61" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="31" t="s">
+      <c r="A61" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B61" s="32"/>
-      <c r="C61" s="25" t="s">
+      <c r="B61" s="26"/>
+      <c r="C61" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="D61" s="26"/>
-      <c r="E61" s="25" t="s">
+      <c r="D61" s="28"/>
+      <c r="E61" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="F61" s="27"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="21"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="23"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="20">
+      <c r="L61" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M61" s="28"/>
-      <c r="N61" s="21"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="23"/>
       <c r="O61" s="2"/>
       <c r="P61">
         <v>14</v>
@@ -4543,29 +4543,29 @@
       </c>
     </row>
     <row r="62" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B62" s="32"/>
-      <c r="C62" s="25" t="s">
+      <c r="B62" s="26"/>
+      <c r="C62" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="D62" s="26"/>
-      <c r="E62" s="25" t="s">
+      <c r="D62" s="28"/>
+      <c r="E62" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="F62" s="27"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="21"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="23"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="20">
+      <c r="L62" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M62" s="28"/>
-      <c r="N62" s="21"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="23"/>
       <c r="O62" s="2"/>
       <c r="P62">
         <v>13</v>
@@ -4588,29 +4588,29 @@
       </c>
     </row>
     <row r="63" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="31" t="s">
+      <c r="A63" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B63" s="32"/>
-      <c r="C63" s="25" t="s">
+      <c r="B63" s="26"/>
+      <c r="C63" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="D63" s="26"/>
-      <c r="E63" s="25" t="s">
+      <c r="D63" s="28"/>
+      <c r="E63" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="F63" s="27"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="21"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="23"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="20">
+      <c r="L63" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M63" s="28"/>
-      <c r="N63" s="21"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="23"/>
       <c r="O63" s="2"/>
       <c r="Q63">
         <v>0</v>
@@ -4630,29 +4630,29 @@
       </c>
     </row>
     <row r="64" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="31" t="s">
+      <c r="A64" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B64" s="32"/>
-      <c r="C64" s="25" t="s">
+      <c r="B64" s="26"/>
+      <c r="C64" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="D64" s="26"/>
-      <c r="E64" s="25" t="s">
+      <c r="D64" s="28"/>
+      <c r="E64" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="F64" s="27"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="21"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="23"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="20">
+      <c r="L64" s="22">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="M64" s="28"/>
-      <c r="N64" s="21"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="23"/>
       <c r="O64" s="2"/>
       <c r="P64">
         <v>18</v>
@@ -4687,29 +4687,29 @@
       </c>
     </row>
     <row r="65" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="31" t="s">
+      <c r="A65" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B65" s="32"/>
-      <c r="C65" s="25" t="s">
+      <c r="B65" s="26"/>
+      <c r="C65" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="D65" s="26"/>
-      <c r="E65" s="25" t="s">
+      <c r="D65" s="28"/>
+      <c r="E65" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="F65" s="27"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="21"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="23"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="20">
+      <c r="L65" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M65" s="28"/>
-      <c r="N65" s="21"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="23"/>
       <c r="O65" s="2"/>
       <c r="Q65">
         <v>0</v>
@@ -4728,75 +4728,75 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="31" t="s">
+    <row r="66" spans="1:26" s="13" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="B66" s="32"/>
-      <c r="C66" s="25" t="s">
+      <c r="B66" s="31"/>
+      <c r="C66" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="D66" s="26"/>
-      <c r="E66" s="25" t="s">
+      <c r="D66" s="33"/>
+      <c r="E66" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="F66" s="27"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="20">
+      <c r="F66" s="34"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M66" s="28"/>
-      <c r="N66" s="21"/>
-      <c r="O66" s="2"/>
-      <c r="P66">
+      <c r="M66" s="37"/>
+      <c r="N66" s="36"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="13">
         <v>13</v>
       </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="T66" s="10">
-        <v>0</v>
-      </c>
-      <c r="V66">
-        <v>2</v>
-      </c>
-      <c r="Y66">
+      <c r="Q66" s="13">
+        <v>0</v>
+      </c>
+      <c r="T66" s="14">
+        <v>0</v>
+      </c>
+      <c r="V66" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y66" s="13">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="Z66">
+      <c r="Z66" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="31" t="s">
+      <c r="A67" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="32"/>
-      <c r="C67" s="25" t="s">
+      <c r="B67" s="26"/>
+      <c r="C67" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="D67" s="26"/>
-      <c r="E67" s="25" t="s">
+      <c r="D67" s="28"/>
+      <c r="E67" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="F67" s="27"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="21"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="23"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="20">
+      <c r="L67" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M67" s="28"/>
-      <c r="N67" s="21"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="23"/>
       <c r="O67" s="2"/>
       <c r="P67">
         <v>15</v>
@@ -4825,29 +4825,29 @@
       </c>
     </row>
     <row r="68" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="31" t="s">
+      <c r="A68" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B68" s="32"/>
-      <c r="C68" s="25" t="s">
+      <c r="B68" s="26"/>
+      <c r="C68" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="D68" s="26"/>
-      <c r="E68" s="25" t="s">
+      <c r="D68" s="28"/>
+      <c r="E68" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="F68" s="27"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="21"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="23"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-      <c r="L68" s="20">
+      <c r="L68" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M68" s="28"/>
-      <c r="N68" s="21"/>
+      <c r="M68" s="24"/>
+      <c r="N68" s="23"/>
       <c r="O68" s="2"/>
       <c r="P68">
         <v>15</v>
@@ -4876,29 +4876,29 @@
       </c>
     </row>
     <row r="69" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="31" t="s">
+      <c r="A69" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B69" s="32"/>
-      <c r="C69" s="25" t="s">
+      <c r="B69" s="26"/>
+      <c r="C69" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="D69" s="26"/>
-      <c r="E69" s="25" t="s">
+      <c r="D69" s="28"/>
+      <c r="E69" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="F69" s="27"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="21"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="23"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="20">
+      <c r="L69" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M69" s="28"/>
-      <c r="N69" s="21"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="23"/>
       <c r="O69" s="2"/>
       <c r="Q69">
         <v>10</v>
@@ -4918,29 +4918,29 @@
       </c>
     </row>
     <row r="70" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="31" t="s">
+      <c r="A70" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B70" s="32"/>
-      <c r="C70" s="25" t="s">
+      <c r="B70" s="26"/>
+      <c r="C70" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="D70" s="26"/>
-      <c r="E70" s="25" t="s">
+      <c r="D70" s="28"/>
+      <c r="E70" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="F70" s="27"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="21"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="23"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
-      <c r="L70" s="20">
+      <c r="L70" s="22">
         <f t="shared" si="0"/>
         <v>5.3333333333333286</v>
       </c>
-      <c r="M70" s="28"/>
-      <c r="N70" s="21"/>
+      <c r="M70" s="24"/>
+      <c r="N70" s="23"/>
       <c r="O70" s="2"/>
       <c r="P70">
         <v>18</v>
@@ -4972,29 +4972,29 @@
       </c>
     </row>
     <row r="71" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="31" t="s">
+      <c r="A71" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B71" s="32"/>
-      <c r="C71" s="25" t="s">
+      <c r="B71" s="26"/>
+      <c r="C71" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="D71" s="26"/>
-      <c r="E71" s="25" t="s">
+      <c r="D71" s="28"/>
+      <c r="E71" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="F71" s="27"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="21"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="23"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
-      <c r="L71" s="20">
+      <c r="L71" s="22">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="M71" s="28"/>
-      <c r="N71" s="21"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="23"/>
       <c r="O71" s="2"/>
       <c r="Q71">
         <v>0</v>
@@ -5026,29 +5026,29 @@
       </c>
     </row>
     <row r="72" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="31" t="s">
+      <c r="A72" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B72" s="32"/>
-      <c r="C72" s="25" t="s">
+      <c r="B72" s="26"/>
+      <c r="C72" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="D72" s="26"/>
-      <c r="E72" s="25" t="s">
+      <c r="D72" s="28"/>
+      <c r="E72" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="F72" s="27"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="21"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="23"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="L72" s="20">
+      <c r="L72" s="22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="M72" s="28"/>
-      <c r="N72" s="21"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="23"/>
       <c r="O72" s="2"/>
       <c r="P72">
         <v>15</v>
@@ -5080,29 +5080,29 @@
       </c>
     </row>
     <row r="73" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B73" s="32"/>
-      <c r="C73" s="25" t="s">
+      <c r="B73" s="26"/>
+      <c r="C73" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="D73" s="26"/>
-      <c r="E73" s="25" t="s">
+      <c r="D73" s="28"/>
+      <c r="E73" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="F73" s="27"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="21"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="23"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
-      <c r="L73" s="20">
+      <c r="L73" s="22">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="M73" s="28"/>
-      <c r="N73" s="21"/>
+      <c r="M73" s="24"/>
+      <c r="N73" s="23"/>
       <c r="O73" s="2"/>
       <c r="P73">
         <v>13</v>
@@ -5137,29 +5137,29 @@
       </c>
     </row>
     <row r="74" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="31" t="s">
+      <c r="A74" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B74" s="32"/>
-      <c r="C74" s="25" t="s">
+      <c r="B74" s="26"/>
+      <c r="C74" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="D74" s="26"/>
-      <c r="E74" s="25" t="s">
+      <c r="D74" s="28"/>
+      <c r="E74" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="F74" s="27"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="21"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="23"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
-      <c r="L74" s="20">
+      <c r="L74" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M74" s="28"/>
-      <c r="N74" s="21"/>
+      <c r="M74" s="24"/>
+      <c r="N74" s="23"/>
       <c r="O74" s="2"/>
       <c r="Q74">
         <v>0</v>
@@ -5185,29 +5185,29 @@
       </c>
     </row>
     <row r="75" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="31" t="s">
+      <c r="A75" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="B75" s="32"/>
-      <c r="C75" s="25" t="s">
+      <c r="B75" s="26"/>
+      <c r="C75" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="D75" s="26"/>
-      <c r="E75" s="25" t="s">
+      <c r="D75" s="28"/>
+      <c r="E75" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="F75" s="27"/>
-      <c r="G75" s="26"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="21"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="23"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
-      <c r="L75" s="20">
+      <c r="L75" s="22">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="M75" s="28"/>
-      <c r="N75" s="21"/>
+      <c r="M75" s="24"/>
+      <c r="N75" s="23"/>
       <c r="O75" s="2"/>
       <c r="P75">
         <v>14</v>
@@ -5242,29 +5242,29 @@
       </c>
     </row>
     <row r="76" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="31" t="s">
+      <c r="A76" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="B76" s="32"/>
-      <c r="C76" s="25" t="s">
+      <c r="B76" s="26"/>
+      <c r="C76" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="D76" s="26"/>
-      <c r="E76" s="25" t="s">
+      <c r="D76" s="28"/>
+      <c r="E76" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="F76" s="27"/>
-      <c r="G76" s="26"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="21"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="23"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
-      <c r="L76" s="20">
+      <c r="L76" s="22">
         <f t="shared" ref="L76:L113" si="2">IF((Y76-50)&gt;50,50,IF((Y76-50)&lt;0,0,(Y76-50)))</f>
         <v>0</v>
       </c>
-      <c r="M76" s="28"/>
-      <c r="N76" s="21"/>
+      <c r="M76" s="24"/>
+      <c r="N76" s="23"/>
       <c r="O76" s="2"/>
       <c r="Q76">
         <v>0</v>
@@ -5284,29 +5284,29 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="31" t="s">
+      <c r="A77" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="B77" s="32"/>
-      <c r="C77" s="25" t="s">
+      <c r="B77" s="26"/>
+      <c r="C77" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="D77" s="26"/>
-      <c r="E77" s="25" t="s">
+      <c r="D77" s="28"/>
+      <c r="E77" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="F77" s="27"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="21"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="23"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
-      <c r="L77" s="20">
+      <c r="L77" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M77" s="28"/>
-      <c r="N77" s="21"/>
+      <c r="M77" s="24"/>
+      <c r="N77" s="23"/>
       <c r="O77" s="2"/>
       <c r="P77">
         <v>19</v>
@@ -5332,29 +5332,29 @@
       </c>
     </row>
     <row r="78" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="31" t="s">
+      <c r="A78" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="B78" s="32"/>
-      <c r="C78" s="25" t="s">
+      <c r="B78" s="26"/>
+      <c r="C78" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="D78" s="26"/>
-      <c r="E78" s="25" t="s">
+      <c r="D78" s="28"/>
+      <c r="E78" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="F78" s="27"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="21"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="23"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
-      <c r="L78" s="20">
+      <c r="L78" s="22">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="M78" s="28"/>
-      <c r="N78" s="21"/>
+      <c r="M78" s="24"/>
+      <c r="N78" s="23"/>
       <c r="O78" s="2"/>
       <c r="P78">
         <v>16</v>
@@ -5386,29 +5386,29 @@
       </c>
     </row>
     <row r="79" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="31" t="s">
+      <c r="A79" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="B79" s="32"/>
-      <c r="C79" s="25" t="s">
+      <c r="B79" s="26"/>
+      <c r="C79" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="D79" s="26"/>
-      <c r="E79" s="25" t="s">
+      <c r="D79" s="28"/>
+      <c r="E79" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="F79" s="27"/>
-      <c r="G79" s="26"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="21"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="23"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
-      <c r="L79" s="20">
+      <c r="L79" s="22">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M79" s="28"/>
-      <c r="N79" s="21"/>
+      <c r="M79" s="24"/>
+      <c r="N79" s="23"/>
       <c r="O79" s="2"/>
       <c r="Q79">
         <v>0</v>
@@ -5437,29 +5437,29 @@
       </c>
     </row>
     <row r="80" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="31" t="s">
+      <c r="A80" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="B80" s="32"/>
-      <c r="C80" s="25" t="s">
+      <c r="B80" s="26"/>
+      <c r="C80" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="D80" s="26"/>
-      <c r="E80" s="25" t="s">
+      <c r="D80" s="28"/>
+      <c r="E80" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="F80" s="27"/>
-      <c r="G80" s="26"/>
-      <c r="H80" s="20"/>
-      <c r="I80" s="21"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="23"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
-      <c r="L80" s="20">
+      <c r="L80" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M80" s="28"/>
-      <c r="N80" s="21"/>
+      <c r="M80" s="24"/>
+      <c r="N80" s="23"/>
       <c r="O80" s="2"/>
       <c r="P80">
         <v>16</v>
@@ -5485,29 +5485,29 @@
       </c>
     </row>
     <row r="81" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="31" t="s">
+      <c r="A81" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="B81" s="32"/>
-      <c r="C81" s="25" t="s">
+      <c r="B81" s="26"/>
+      <c r="C81" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="D81" s="26"/>
-      <c r="E81" s="25" t="s">
+      <c r="D81" s="28"/>
+      <c r="E81" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="F81" s="27"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="21"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="23"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
-      <c r="L81" s="20">
+      <c r="L81" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M81" s="28"/>
-      <c r="N81" s="21"/>
+      <c r="M81" s="24"/>
+      <c r="N81" s="23"/>
       <c r="O81" s="2"/>
       <c r="P81">
         <v>16</v>
@@ -5536,29 +5536,29 @@
       </c>
     </row>
     <row r="82" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="31" t="s">
+      <c r="A82" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="B82" s="32"/>
-      <c r="C82" s="25" t="s">
+      <c r="B82" s="26"/>
+      <c r="C82" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="D82" s="26"/>
-      <c r="E82" s="25" t="s">
+      <c r="D82" s="28"/>
+      <c r="E82" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="F82" s="27"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="20"/>
-      <c r="I82" s="21"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="23"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
-      <c r="L82" s="20">
+      <c r="L82" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M82" s="28"/>
-      <c r="N82" s="21"/>
+      <c r="M82" s="24"/>
+      <c r="N82" s="23"/>
       <c r="O82" s="2"/>
       <c r="Q82">
         <v>10</v>
@@ -5578,29 +5578,29 @@
       </c>
     </row>
     <row r="83" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="31" t="s">
+      <c r="A83" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="B83" s="32"/>
-      <c r="C83" s="25" t="s">
+      <c r="B83" s="26"/>
+      <c r="C83" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="D83" s="26"/>
-      <c r="E83" s="25" t="s">
+      <c r="D83" s="28"/>
+      <c r="E83" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="F83" s="27"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="21"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="23"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
-      <c r="L83" s="20">
+      <c r="L83" s="22">
         <f t="shared" si="2"/>
         <v>17.75</v>
       </c>
-      <c r="M83" s="28"/>
-      <c r="N83" s="21"/>
+      <c r="M83" s="24"/>
+      <c r="N83" s="23"/>
       <c r="O83" s="2"/>
       <c r="P83">
         <v>11</v>
@@ -5635,29 +5635,29 @@
       </c>
     </row>
     <row r="84" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="31" t="s">
+      <c r="A84" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="B84" s="32"/>
-      <c r="C84" s="25" t="s">
+      <c r="B84" s="26"/>
+      <c r="C84" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="D84" s="26"/>
-      <c r="E84" s="25" t="s">
+      <c r="D84" s="28"/>
+      <c r="E84" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="F84" s="27"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="21"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="23"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
-      <c r="L84" s="20">
+      <c r="L84" s="22">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="M84" s="28"/>
-      <c r="N84" s="21"/>
+      <c r="M84" s="24"/>
+      <c r="N84" s="23"/>
       <c r="O84" s="2"/>
       <c r="Q84">
         <v>0</v>
@@ -5686,29 +5686,29 @@
       </c>
     </row>
     <row r="85" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="31" t="s">
+      <c r="A85" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="B85" s="32"/>
-      <c r="C85" s="25" t="s">
+      <c r="B85" s="26"/>
+      <c r="C85" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="D85" s="26"/>
-      <c r="E85" s="25" t="s">
+      <c r="D85" s="28"/>
+      <c r="E85" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="F85" s="27"/>
-      <c r="G85" s="26"/>
-      <c r="H85" s="20"/>
-      <c r="I85" s="21"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="23"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
-      <c r="L85" s="20">
+      <c r="L85" s="22">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="M85" s="28"/>
-      <c r="N85" s="21"/>
+      <c r="M85" s="24"/>
+      <c r="N85" s="23"/>
       <c r="O85" s="2"/>
       <c r="P85">
         <v>13</v>
@@ -5743,29 +5743,29 @@
       </c>
     </row>
     <row r="86" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="31" t="s">
+      <c r="A86" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="B86" s="32"/>
-      <c r="C86" s="25" t="s">
+      <c r="B86" s="26"/>
+      <c r="C86" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="D86" s="26"/>
-      <c r="E86" s="25" t="s">
+      <c r="D86" s="28"/>
+      <c r="E86" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="F86" s="27"/>
-      <c r="G86" s="26"/>
-      <c r="H86" s="20"/>
-      <c r="I86" s="21"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="22"/>
+      <c r="I86" s="23"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
-      <c r="L86" s="20">
+      <c r="L86" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M86" s="28"/>
-      <c r="N86" s="21"/>
+      <c r="M86" s="24"/>
+      <c r="N86" s="23"/>
       <c r="O86" s="2"/>
       <c r="P86">
         <v>16</v>
@@ -5791,29 +5791,29 @@
       </c>
     </row>
     <row r="87" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="31" t="s">
+      <c r="A87" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="B87" s="32"/>
-      <c r="C87" s="25" t="s">
+      <c r="B87" s="26"/>
+      <c r="C87" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="D87" s="26"/>
-      <c r="E87" s="25" t="s">
+      <c r="D87" s="28"/>
+      <c r="E87" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="F87" s="27"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="20"/>
-      <c r="I87" s="21"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="23"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
-      <c r="L87" s="20">
+      <c r="L87" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M87" s="28"/>
-      <c r="N87" s="21"/>
+      <c r="M87" s="24"/>
+      <c r="N87" s="23"/>
       <c r="O87" s="2"/>
       <c r="Q87">
         <v>0</v>
@@ -5833,29 +5833,29 @@
       </c>
     </row>
     <row r="88" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="31" t="s">
+      <c r="A88" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="B88" s="32"/>
-      <c r="C88" s="25" t="s">
+      <c r="B88" s="26"/>
+      <c r="C88" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="D88" s="26"/>
-      <c r="E88" s="25" t="s">
+      <c r="D88" s="28"/>
+      <c r="E88" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="F88" s="27"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="21"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="23"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
-      <c r="L88" s="20">
+      <c r="L88" s="22">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M88" s="28"/>
-      <c r="N88" s="21"/>
+      <c r="M88" s="24"/>
+      <c r="N88" s="23"/>
       <c r="O88" s="2"/>
       <c r="P88">
         <v>14</v>
@@ -5881,29 +5881,29 @@
       </c>
     </row>
     <row r="89" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="31" t="s">
+      <c r="A89" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="B89" s="32"/>
-      <c r="C89" s="25" t="s">
+      <c r="B89" s="26"/>
+      <c r="C89" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="D89" s="26"/>
-      <c r="E89" s="25" t="s">
+      <c r="D89" s="28"/>
+      <c r="E89" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="F89" s="27"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="20"/>
-      <c r="I89" s="21"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="23"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
-      <c r="L89" s="20">
+      <c r="L89" s="22">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="M89" s="28"/>
-      <c r="N89" s="21"/>
+      <c r="M89" s="24"/>
+      <c r="N89" s="23"/>
       <c r="O89" s="2"/>
       <c r="P89">
         <v>13</v>
@@ -5929,29 +5929,29 @@
       </c>
     </row>
     <row r="90" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="31" t="s">
+      <c r="A90" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="B90" s="32"/>
-      <c r="C90" s="25" t="s">
+      <c r="B90" s="26"/>
+      <c r="C90" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="D90" s="26"/>
-      <c r="E90" s="25" t="s">
+      <c r="D90" s="28"/>
+      <c r="E90" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="F90" s="27"/>
-      <c r="G90" s="26"/>
-      <c r="H90" s="20"/>
-      <c r="I90" s="21"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="22"/>
+      <c r="I90" s="23"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
-      <c r="L90" s="20">
+      <c r="L90" s="22">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M90" s="28"/>
-      <c r="N90" s="21"/>
+      <c r="M90" s="24"/>
+      <c r="N90" s="23"/>
       <c r="O90" s="2"/>
       <c r="P90">
         <v>14</v>
@@ -5977,29 +5977,29 @@
       </c>
     </row>
     <row r="91" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="31" t="s">
+      <c r="A91" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="B91" s="32"/>
-      <c r="C91" s="25" t="s">
+      <c r="B91" s="26"/>
+      <c r="C91" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="D91" s="26"/>
-      <c r="E91" s="25" t="s">
+      <c r="D91" s="28"/>
+      <c r="E91" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="F91" s="27"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="20"/>
-      <c r="I91" s="21"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="22"/>
+      <c r="I91" s="23"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
-      <c r="L91" s="20">
+      <c r="L91" s="22">
         <f t="shared" si="2"/>
         <v>17.666666666666671</v>
       </c>
-      <c r="M91" s="28"/>
-      <c r="N91" s="21"/>
+      <c r="M91" s="24"/>
+      <c r="N91" s="23"/>
       <c r="O91" s="2"/>
       <c r="P91">
         <v>13</v>
@@ -6034,29 +6034,29 @@
       </c>
     </row>
     <row r="92" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="31" t="s">
+      <c r="A92" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="B92" s="32"/>
-      <c r="C92" s="25" t="s">
+      <c r="B92" s="26"/>
+      <c r="C92" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="D92" s="26"/>
-      <c r="E92" s="25" t="s">
+      <c r="D92" s="28"/>
+      <c r="E92" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="F92" s="27"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="20"/>
-      <c r="I92" s="21"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="28"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="23"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
-      <c r="L92" s="20">
+      <c r="L92" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M92" s="28"/>
-      <c r="N92" s="21"/>
+      <c r="M92" s="24"/>
+      <c r="N92" s="23"/>
       <c r="O92" s="2"/>
       <c r="P92">
         <v>14</v>
@@ -6085,29 +6085,29 @@
       </c>
     </row>
     <row r="93" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="31" t="s">
+      <c r="A93" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="B93" s="32"/>
-      <c r="C93" s="25" t="s">
+      <c r="B93" s="26"/>
+      <c r="C93" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="D93" s="26"/>
-      <c r="E93" s="25" t="s">
+      <c r="D93" s="28"/>
+      <c r="E93" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="F93" s="27"/>
-      <c r="G93" s="26"/>
-      <c r="H93" s="20"/>
-      <c r="I93" s="21"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="23"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
-      <c r="L93" s="20">
+      <c r="L93" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M93" s="28"/>
-      <c r="N93" s="21"/>
+      <c r="M93" s="24"/>
+      <c r="N93" s="23"/>
       <c r="O93" s="2"/>
       <c r="P93">
         <v>13</v>
@@ -6136,29 +6136,29 @@
       </c>
     </row>
     <row r="94" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="31" t="s">
+      <c r="A94" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="B94" s="32"/>
-      <c r="C94" s="25" t="s">
+      <c r="B94" s="26"/>
+      <c r="C94" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="D94" s="26"/>
-      <c r="E94" s="25" t="s">
+      <c r="D94" s="28"/>
+      <c r="E94" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="F94" s="27"/>
-      <c r="G94" s="26"/>
-      <c r="H94" s="20"/>
-      <c r="I94" s="21"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="23"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
-      <c r="L94" s="20">
+      <c r="L94" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M94" s="28"/>
-      <c r="N94" s="21"/>
+      <c r="M94" s="24"/>
+      <c r="N94" s="23"/>
       <c r="O94" s="2"/>
       <c r="P94">
         <v>13</v>
@@ -6184,29 +6184,29 @@
       </c>
     </row>
     <row r="95" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="31" t="s">
+      <c r="A95" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="B95" s="32"/>
-      <c r="C95" s="25" t="s">
+      <c r="B95" s="26"/>
+      <c r="C95" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="D95" s="26"/>
-      <c r="E95" s="25" t="s">
+      <c r="D95" s="28"/>
+      <c r="E95" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="F95" s="27"/>
-      <c r="G95" s="26"/>
-      <c r="H95" s="20"/>
-      <c r="I95" s="21"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="22"/>
+      <c r="I95" s="23"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
-      <c r="L95" s="20">
+      <c r="L95" s="22">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="M95" s="28"/>
-      <c r="N95" s="21"/>
+      <c r="M95" s="24"/>
+      <c r="N95" s="23"/>
       <c r="O95" s="2"/>
       <c r="P95">
         <v>14</v>
@@ -6232,29 +6232,29 @@
       </c>
     </row>
     <row r="96" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="31" t="s">
+      <c r="A96" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="B96" s="32"/>
-      <c r="C96" s="25" t="s">
+      <c r="B96" s="26"/>
+      <c r="C96" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="D96" s="26"/>
-      <c r="E96" s="25" t="s">
+      <c r="D96" s="28"/>
+      <c r="E96" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="F96" s="27"/>
-      <c r="G96" s="26"/>
-      <c r="H96" s="20"/>
-      <c r="I96" s="21"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="28"/>
+      <c r="H96" s="22"/>
+      <c r="I96" s="23"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
-      <c r="L96" s="20">
+      <c r="L96" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M96" s="28"/>
-      <c r="N96" s="21"/>
+      <c r="M96" s="24"/>
+      <c r="N96" s="23"/>
       <c r="O96" s="2"/>
       <c r="Q96">
         <v>9</v>
@@ -6277,29 +6277,29 @@
       </c>
     </row>
     <row r="97" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="31" t="s">
+      <c r="A97" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="B97" s="32"/>
-      <c r="C97" s="25" t="s">
+      <c r="B97" s="26"/>
+      <c r="C97" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="D97" s="26"/>
-      <c r="E97" s="25" t="s">
+      <c r="D97" s="28"/>
+      <c r="E97" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="F97" s="27"/>
-      <c r="G97" s="26"/>
-      <c r="H97" s="20"/>
-      <c r="I97" s="21"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="28"/>
+      <c r="H97" s="22"/>
+      <c r="I97" s="23"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
-      <c r="L97" s="20">
+      <c r="L97" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M97" s="28"/>
-      <c r="N97" s="21"/>
+      <c r="M97" s="24"/>
+      <c r="N97" s="23"/>
       <c r="O97" s="2"/>
       <c r="P97">
         <v>18</v>
@@ -6322,29 +6322,29 @@
       </c>
     </row>
     <row r="98" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="31" t="s">
+      <c r="A98" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="B98" s="32"/>
-      <c r="C98" s="25" t="s">
+      <c r="B98" s="26"/>
+      <c r="C98" s="27" t="s">
         <v>292</v>
       </c>
-      <c r="D98" s="26"/>
-      <c r="E98" s="25" t="s">
+      <c r="D98" s="28"/>
+      <c r="E98" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="F98" s="27"/>
-      <c r="G98" s="26"/>
-      <c r="H98" s="20"/>
-      <c r="I98" s="21"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="23"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
-      <c r="L98" s="20">
+      <c r="L98" s="22">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="M98" s="28"/>
-      <c r="N98" s="21"/>
+      <c r="M98" s="24"/>
+      <c r="N98" s="23"/>
       <c r="O98" s="2"/>
       <c r="P98">
         <v>16</v>
@@ -6382,29 +6382,29 @@
       </c>
     </row>
     <row r="99" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="31" t="s">
+      <c r="A99" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="B99" s="32"/>
-      <c r="C99" s="25" t="s">
+      <c r="B99" s="26"/>
+      <c r="C99" s="27" t="s">
         <v>295</v>
       </c>
-      <c r="D99" s="26"/>
-      <c r="E99" s="25" t="s">
+      <c r="D99" s="28"/>
+      <c r="E99" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="F99" s="27"/>
-      <c r="G99" s="26"/>
-      <c r="H99" s="20"/>
-      <c r="I99" s="21"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="28"/>
+      <c r="H99" s="22"/>
+      <c r="I99" s="23"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
-      <c r="L99" s="20">
+      <c r="L99" s="22">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="M99" s="28"/>
-      <c r="N99" s="21"/>
+      <c r="M99" s="24"/>
+      <c r="N99" s="23"/>
       <c r="O99" s="2"/>
       <c r="P99">
         <v>16</v>
@@ -6442,29 +6442,29 @@
       </c>
     </row>
     <row r="100" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="31" t="s">
+      <c r="A100" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="B100" s="32"/>
-      <c r="C100" s="25" t="s">
+      <c r="B100" s="26"/>
+      <c r="C100" s="27" t="s">
         <v>298</v>
       </c>
-      <c r="D100" s="26"/>
-      <c r="E100" s="25" t="s">
+      <c r="D100" s="28"/>
+      <c r="E100" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="F100" s="27"/>
-      <c r="G100" s="26"/>
-      <c r="H100" s="20"/>
-      <c r="I100" s="21"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="28"/>
+      <c r="H100" s="22"/>
+      <c r="I100" s="23"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
-      <c r="L100" s="20">
+      <c r="L100" s="22">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="M100" s="28"/>
-      <c r="N100" s="21"/>
+      <c r="M100" s="24"/>
+      <c r="N100" s="23"/>
       <c r="O100" s="2"/>
       <c r="P100">
         <v>13</v>
@@ -6499,29 +6499,29 @@
       </c>
     </row>
     <row r="101" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="31" t="s">
+      <c r="A101" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="B101" s="32"/>
-      <c r="C101" s="25" t="s">
+      <c r="B101" s="26"/>
+      <c r="C101" s="27" t="s">
         <v>301</v>
       </c>
-      <c r="D101" s="26"/>
-      <c r="E101" s="25" t="s">
+      <c r="D101" s="28"/>
+      <c r="E101" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="F101" s="27"/>
-      <c r="G101" s="26"/>
-      <c r="H101" s="20"/>
-      <c r="I101" s="21"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="28"/>
+      <c r="H101" s="22"/>
+      <c r="I101" s="23"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
-      <c r="L101" s="20">
+      <c r="L101" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M101" s="28"/>
-      <c r="N101" s="21"/>
+      <c r="M101" s="24"/>
+      <c r="N101" s="23"/>
       <c r="O101" s="2"/>
       <c r="Q101">
         <v>9</v>
@@ -6547,29 +6547,29 @@
       </c>
     </row>
     <row r="102" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="31" t="s">
+      <c r="A102" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="B102" s="32"/>
-      <c r="C102" s="25" t="s">
+      <c r="B102" s="26"/>
+      <c r="C102" s="27" t="s">
         <v>304</v>
       </c>
-      <c r="D102" s="26"/>
-      <c r="E102" s="25" t="s">
+      <c r="D102" s="28"/>
+      <c r="E102" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="F102" s="27"/>
-      <c r="G102" s="26"/>
-      <c r="H102" s="20"/>
-      <c r="I102" s="21"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="28"/>
+      <c r="H102" s="22"/>
+      <c r="I102" s="23"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
-      <c r="L102" s="20">
+      <c r="L102" s="22">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="M102" s="28"/>
-      <c r="N102" s="21"/>
+      <c r="M102" s="24"/>
+      <c r="N102" s="23"/>
       <c r="O102" s="2"/>
       <c r="P102">
         <v>16</v>
@@ -6607,29 +6607,29 @@
       </c>
     </row>
     <row r="103" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="31" t="s">
+      <c r="A103" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="B103" s="32"/>
-      <c r="C103" s="25" t="s">
+      <c r="B103" s="26"/>
+      <c r="C103" s="27" t="s">
         <v>307</v>
       </c>
-      <c r="D103" s="26"/>
-      <c r="E103" s="25" t="s">
+      <c r="D103" s="28"/>
+      <c r="E103" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="F103" s="27"/>
-      <c r="G103" s="26"/>
-      <c r="H103" s="20"/>
-      <c r="I103" s="21"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="28"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="23"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
-      <c r="L103" s="20">
+      <c r="L103" s="22">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="M103" s="28"/>
-      <c r="N103" s="21"/>
+      <c r="M103" s="24"/>
+      <c r="N103" s="23"/>
       <c r="O103" s="2"/>
       <c r="P103">
         <v>18</v>
@@ -6661,29 +6661,29 @@
       </c>
     </row>
     <row r="104" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="31" t="s">
+      <c r="A104" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="B104" s="32"/>
-      <c r="C104" s="25" t="s">
+      <c r="B104" s="26"/>
+      <c r="C104" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="D104" s="26"/>
-      <c r="E104" s="25" t="s">
+      <c r="D104" s="28"/>
+      <c r="E104" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="F104" s="27"/>
-      <c r="G104" s="26"/>
-      <c r="H104" s="20"/>
-      <c r="I104" s="21"/>
+      <c r="F104" s="29"/>
+      <c r="G104" s="28"/>
+      <c r="H104" s="22"/>
+      <c r="I104" s="23"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
-      <c r="L104" s="20">
+      <c r="L104" s="22">
         <f t="shared" si="2"/>
         <v>18.333333333333343</v>
       </c>
-      <c r="M104" s="28"/>
-      <c r="N104" s="21"/>
+      <c r="M104" s="24"/>
+      <c r="N104" s="23"/>
       <c r="O104" s="2"/>
       <c r="P104">
         <v>11</v>
@@ -6718,29 +6718,29 @@
       </c>
     </row>
     <row r="105" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="31" t="s">
+      <c r="A105" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="B105" s="32"/>
-      <c r="C105" s="25" t="s">
+      <c r="B105" s="26"/>
+      <c r="C105" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="D105" s="26"/>
-      <c r="E105" s="25" t="s">
+      <c r="D105" s="28"/>
+      <c r="E105" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="F105" s="27"/>
-      <c r="G105" s="26"/>
-      <c r="H105" s="20"/>
-      <c r="I105" s="21"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="28"/>
+      <c r="H105" s="22"/>
+      <c r="I105" s="23"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
-      <c r="L105" s="20">
+      <c r="L105" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M105" s="28"/>
-      <c r="N105" s="21"/>
+      <c r="M105" s="24"/>
+      <c r="N105" s="23"/>
       <c r="O105" s="2"/>
       <c r="Q105">
         <v>0</v>
@@ -6763,29 +6763,29 @@
       </c>
     </row>
     <row r="106" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="31" t="s">
+      <c r="A106" s="25" t="s">
         <v>315</v>
       </c>
-      <c r="B106" s="32"/>
-      <c r="C106" s="25" t="s">
+      <c r="B106" s="26"/>
+      <c r="C106" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="D106" s="26"/>
-      <c r="E106" s="25" t="s">
+      <c r="D106" s="28"/>
+      <c r="E106" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="F106" s="27"/>
-      <c r="G106" s="26"/>
-      <c r="H106" s="20"/>
-      <c r="I106" s="21"/>
+      <c r="F106" s="29"/>
+      <c r="G106" s="28"/>
+      <c r="H106" s="22"/>
+      <c r="I106" s="23"/>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
-      <c r="L106" s="20">
+      <c r="L106" s="22">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="M106" s="28"/>
-      <c r="N106" s="21"/>
+      <c r="M106" s="24"/>
+      <c r="N106" s="23"/>
       <c r="O106" s="2"/>
       <c r="P106">
         <v>16</v>
@@ -6817,29 +6817,29 @@
       </c>
     </row>
     <row r="107" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="31" t="s">
+      <c r="A107" s="25" t="s">
         <v>318</v>
       </c>
-      <c r="B107" s="32"/>
-      <c r="C107" s="25" t="s">
+      <c r="B107" s="26"/>
+      <c r="C107" s="27" t="s">
         <v>319</v>
       </c>
-      <c r="D107" s="26"/>
-      <c r="E107" s="25" t="s">
+      <c r="D107" s="28"/>
+      <c r="E107" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="F107" s="27"/>
-      <c r="G107" s="26"/>
-      <c r="H107" s="20"/>
-      <c r="I107" s="21"/>
+      <c r="F107" s="29"/>
+      <c r="G107" s="28"/>
+      <c r="H107" s="22"/>
+      <c r="I107" s="23"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
-      <c r="L107" s="20">
+      <c r="L107" s="22">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M107" s="28"/>
-      <c r="N107" s="21"/>
+      <c r="M107" s="24"/>
+      <c r="N107" s="23"/>
       <c r="O107" s="2"/>
       <c r="P107">
         <v>18</v>
@@ -6868,29 +6868,29 @@
       </c>
     </row>
     <row r="108" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="31" t="s">
+      <c r="A108" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="B108" s="32"/>
-      <c r="C108" s="25" t="s">
+      <c r="B108" s="26"/>
+      <c r="C108" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="D108" s="26"/>
-      <c r="E108" s="25" t="s">
+      <c r="D108" s="28"/>
+      <c r="E108" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="F108" s="27"/>
-      <c r="G108" s="26"/>
-      <c r="H108" s="20"/>
-      <c r="I108" s="21"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="28"/>
+      <c r="H108" s="22"/>
+      <c r="I108" s="23"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
-      <c r="L108" s="20">
+      <c r="L108" s="22">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="M108" s="28"/>
-      <c r="N108" s="21"/>
+      <c r="M108" s="24"/>
+      <c r="N108" s="23"/>
       <c r="O108" s="2"/>
       <c r="P108">
         <v>13</v>
@@ -6922,29 +6922,29 @@
       </c>
     </row>
     <row r="109" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="31" t="s">
+      <c r="A109" s="25" t="s">
         <v>324</v>
       </c>
-      <c r="B109" s="32"/>
-      <c r="C109" s="25" t="s">
+      <c r="B109" s="26"/>
+      <c r="C109" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="D109" s="26"/>
-      <c r="E109" s="25" t="s">
+      <c r="D109" s="28"/>
+      <c r="E109" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="F109" s="27"/>
-      <c r="G109" s="26"/>
-      <c r="H109" s="20"/>
-      <c r="I109" s="21"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="28"/>
+      <c r="H109" s="22"/>
+      <c r="I109" s="23"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
-      <c r="L109" s="20">
+      <c r="L109" s="22">
         <f t="shared" si="2"/>
         <v>35.5</v>
       </c>
-      <c r="M109" s="28"/>
-      <c r="N109" s="21"/>
+      <c r="M109" s="24"/>
+      <c r="N109" s="23"/>
       <c r="O109" s="2"/>
       <c r="Q109">
         <v>7</v>
@@ -6976,23 +6976,23 @@
       </c>
     </row>
     <row r="110" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="34"/>
-      <c r="B110" s="35"/>
-      <c r="C110" s="17"/>
-      <c r="D110" s="18"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="19"/>
-      <c r="G110" s="18"/>
-      <c r="H110" s="20"/>
-      <c r="I110" s="21"/>
+      <c r="A110" s="17"/>
+      <c r="B110" s="18"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="20"/>
+      <c r="H110" s="22"/>
+      <c r="I110" s="23"/>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
-      <c r="L110" s="20">
+      <c r="L110" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M110" s="28"/>
-      <c r="N110" s="21"/>
+      <c r="M110" s="24"/>
+      <c r="N110" s="23"/>
       <c r="O110" s="2"/>
       <c r="Q110">
         <v>0</v>
@@ -7012,23 +7012,23 @@
       </c>
     </row>
     <row r="111" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="34"/>
-      <c r="B111" s="35"/>
-      <c r="C111" s="17"/>
-      <c r="D111" s="18"/>
-      <c r="E111" s="17"/>
-      <c r="F111" s="19"/>
-      <c r="G111" s="18"/>
-      <c r="H111" s="20"/>
-      <c r="I111" s="21"/>
+      <c r="A111" s="17"/>
+      <c r="B111" s="18"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="21"/>
+      <c r="G111" s="20"/>
+      <c r="H111" s="22"/>
+      <c r="I111" s="23"/>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
-      <c r="L111" s="20">
+      <c r="L111" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M111" s="28"/>
-      <c r="N111" s="21"/>
+      <c r="M111" s="24"/>
+      <c r="N111" s="23"/>
       <c r="O111" s="2"/>
       <c r="Q111">
         <v>0</v>
@@ -7048,23 +7048,23 @@
       </c>
     </row>
     <row r="112" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="34"/>
-      <c r="B112" s="35"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="17"/>
-      <c r="F112" s="19"/>
-      <c r="G112" s="18"/>
-      <c r="H112" s="20"/>
-      <c r="I112" s="21"/>
+      <c r="A112" s="17"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="20"/>
+      <c r="H112" s="22"/>
+      <c r="I112" s="23"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
-      <c r="L112" s="20">
+      <c r="L112" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M112" s="28"/>
-      <c r="N112" s="21"/>
+      <c r="M112" s="24"/>
+      <c r="N112" s="23"/>
       <c r="O112" s="2"/>
       <c r="Q112">
         <v>0</v>
@@ -7084,23 +7084,23 @@
       </c>
     </row>
     <row r="113" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="34"/>
-      <c r="B113" s="35"/>
-      <c r="C113" s="17"/>
-      <c r="D113" s="18"/>
-      <c r="E113" s="17"/>
-      <c r="F113" s="19"/>
-      <c r="G113" s="18"/>
-      <c r="H113" s="20"/>
-      <c r="I113" s="21"/>
+      <c r="A113" s="17"/>
+      <c r="B113" s="18"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="21"/>
+      <c r="G113" s="20"/>
+      <c r="H113" s="22"/>
+      <c r="I113" s="23"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
-      <c r="L113" s="20">
+      <c r="L113" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M113" s="28"/>
-      <c r="N113" s="21"/>
+      <c r="M113" s="24"/>
+      <c r="N113" s="23"/>
       <c r="O113" s="2"/>
       <c r="Q113">
         <v>0</v>
@@ -7130,65 +7130,460 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="537">
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="E112:G112"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="L112:N112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="E113:G113"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="L113:N113"/>
-    <mergeCell ref="L108:N108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="L109:N109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="E110:G110"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="L110:N110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="E111:G111"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="L111:N111"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="E109:G109"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="L103:N103"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="L104:N104"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="L105:N105"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="L106:N106"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="L107:N107"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="E105:G105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="E106:G106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="E107:G107"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="E104:G104"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="L61:N61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="L64:N64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="L65:N65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="L66:N66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="L67:N67"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="L72:N72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="L73:N73"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="L71:N71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="L68:N68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="L69:N69"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="L77:N77"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="L75:N75"/>
+    <mergeCell ref="L74:N74"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="L78:N78"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="L76:N76"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="L79:N79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="L80:N80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="L81:N81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="L83:N83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="L84:N84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="L85:N85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="L86:N86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="L87:N87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="L88:N88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="L89:N89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="L90:N90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="L94:N94"/>
     <mergeCell ref="L102:N102"/>
     <mergeCell ref="A96:B96"/>
     <mergeCell ref="C96:D96"/>
@@ -7213,460 +7608,65 @@
     <mergeCell ref="A99:B99"/>
     <mergeCell ref="C99:D99"/>
     <mergeCell ref="E99:G99"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="L93:N93"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="L94:N94"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="L91:N91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="L92:N92"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="L89:N89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="L90:N90"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="L87:N87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="L88:N88"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="L85:N85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="L86:N86"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="L83:N83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="L84:N84"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="L81:N81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="L82:N82"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="L79:N79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="L80:N80"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="L78:N78"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="L76:N76"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="L77:N77"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="L75:N75"/>
-    <mergeCell ref="L74:N74"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="L68:N68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="L69:N69"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="L72:N72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="L73:N73"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="L70:N70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="L71:N71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="L66:N66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="L67:N67"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="L64:N64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="L65:N65"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="L61:N61"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="L47:N47"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="E104:G104"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E105:G105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="E106:G106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="E107:G107"/>
+    <mergeCell ref="L103:N103"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="L104:N104"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="L105:N105"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="L106:N106"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="L107:N107"/>
+    <mergeCell ref="L108:N108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="L109:N109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="E110:G110"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="L110:N110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="E111:G111"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="L111:N111"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="E109:G109"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="L112:N112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="E113:G113"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="L113:N113"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/OYM/_Documentos Comunes/POO_C32017.xlsx
+++ b/OYM/_Documentos Comunes/POO_C32017.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\DocumentosUniversitarios\OYM\_Documentos Comunes\"/>
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Page 1'!$A$10:$Z$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Page 1'!$A$1:$O$102</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1012,7 +1012,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1263,12 +1263,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1283,14 +1277,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1300,6 +1294,30 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1324,24 +1342,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1727,9 +1727,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E66" sqref="A66:XFD66"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W40" sqref="W40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1760,19 +1760,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
+      <c r="B1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1793,19 +1793,19 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
       <c r="N3" s="2"/>
       <c r="P3" t="s">
         <v>21</v>
@@ -1815,19 +1815,19 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
       <c r="N4" s="2"/>
       <c r="P4" t="s">
         <v>23</v>
@@ -1837,19 +1837,19 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
       <c r="N5" s="2"/>
       <c r="P5" t="s">
         <v>25</v>
@@ -1881,19 +1881,19 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
       <c r="N7" s="2"/>
       <c r="P7" s="6" t="s">
         <v>327</v>
@@ -1947,34 +1947,34 @@
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:26" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="42" t="s">
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="42"/>
+      <c r="I10" s="29"/>
       <c r="J10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="42" t="s">
+      <c r="L10" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s">
         <v>8</v>
@@ -2011,35 +2011,35 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17">
-        <v>0</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19" t="s">
+      <c r="A11" s="34">
+        <v>0</v>
+      </c>
+      <c r="B11" s="35"/>
+      <c r="C11" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="18"/>
+      <c r="E11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="22">
+      <c r="F11" s="19"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="20">
         <v>10</v>
       </c>
-      <c r="I11" s="23"/>
+      <c r="I11" s="21"/>
       <c r="J11" s="5">
         <v>20</v>
       </c>
       <c r="K11" s="5">
         <v>20</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="20">
         <f>IF((Y11-50)&gt;50,50,IF((Y11-50)&lt;0,0,(Y11-50)))</f>
         <v>50</v>
       </c>
-      <c r="M11" s="24"/>
-      <c r="N11" s="23"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="21"/>
       <c r="O11" s="2"/>
       <c r="P11">
         <v>20</v>
@@ -2077,29 +2077,29 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27" t="s">
+      <c r="B12" s="32"/>
+      <c r="C12" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="27" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="22">
+      <c r="L12" s="20">
         <f t="shared" ref="L12:L75" si="0">IF((Y12-50)&gt;50,50,IF((Y12-50)&lt;0,0,(Y12-50)))</f>
         <v>0</v>
       </c>
-      <c r="M12" s="24"/>
-      <c r="N12" s="23"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="21"/>
       <c r="O12" s="2"/>
       <c r="Q12">
         <v>0</v>
@@ -2118,78 +2118,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+    <row r="13" spans="1:26" s="13" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27" t="s">
+      <c r="B13" s="37"/>
+      <c r="C13" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="27" t="s">
+      <c r="D13" s="39"/>
+      <c r="E13" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="22">
+      <c r="F13" s="40"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="41">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="24"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="2"/>
-      <c r="P13">
+        <v>10.5</v>
+      </c>
+      <c r="M13" s="43"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="13">
         <v>16</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="13">
         <v>9</v>
       </c>
-      <c r="R13">
-        <v>2</v>
-      </c>
-      <c r="T13" s="10">
+      <c r="R13" s="13">
+        <v>2</v>
+      </c>
+      <c r="T13" s="14">
         <v>6</v>
       </c>
-      <c r="V13">
-        <v>2</v>
-      </c>
-      <c r="Y13">
+      <c r="U13" s="16">
+        <v>18</v>
+      </c>
+      <c r="V13" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="13">
         <f t="shared" si="1"/>
-        <v>24.5</v>
-      </c>
-      <c r="Z13">
+        <v>60.5</v>
+      </c>
+      <c r="Z13" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27" t="s">
+      <c r="B14" s="32"/>
+      <c r="C14" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="27" t="s">
+      <c r="D14" s="26"/>
+      <c r="E14" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="21"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="22">
+      <c r="L14" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M14" s="24"/>
-      <c r="N14" s="23"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="21"/>
       <c r="O14" s="2"/>
       <c r="P14">
         <v>15</v>
@@ -2215,29 +2218,29 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27" t="s">
+      <c r="B15" s="32"/>
+      <c r="C15" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="27" t="s">
+      <c r="D15" s="26"/>
+      <c r="E15" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="23"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="21"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="22">
+      <c r="L15" s="20">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M15" s="24"/>
-      <c r="N15" s="23"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="21"/>
       <c r="O15" s="2"/>
       <c r="P15">
         <v>15</v>
@@ -2266,29 +2269,29 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27" t="s">
+      <c r="B16" s="32"/>
+      <c r="C16" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="27" t="s">
+      <c r="D16" s="26"/>
+      <c r="E16" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="23"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="21"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="22">
+      <c r="L16" s="20">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="M16" s="24"/>
-      <c r="N16" s="23"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="21"/>
       <c r="O16" s="2"/>
       <c r="Q16">
         <v>0</v>
@@ -2320,29 +2323,29 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27" t="s">
+      <c r="B17" s="32"/>
+      <c r="C17" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="27" t="s">
+      <c r="D17" s="26"/>
+      <c r="E17" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="23"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="21"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="22">
+      <c r="L17" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M17" s="24"/>
-      <c r="N17" s="23"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="21"/>
       <c r="O17" s="2"/>
       <c r="P17">
         <v>13</v>
@@ -2371,29 +2374,29 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27" t="s">
+      <c r="B18" s="32"/>
+      <c r="C18" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="27" t="s">
+      <c r="D18" s="26"/>
+      <c r="E18" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="21"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="22">
+      <c r="L18" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M18" s="24"/>
-      <c r="N18" s="23"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="21"/>
       <c r="O18" s="2"/>
       <c r="P18">
         <v>14</v>
@@ -2422,29 +2425,29 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27" t="s">
+      <c r="B19" s="32"/>
+      <c r="C19" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="27" t="s">
+      <c r="D19" s="26"/>
+      <c r="E19" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="23"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="21"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="22">
+      <c r="L19" s="20">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="M19" s="24"/>
-      <c r="N19" s="23"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="21"/>
       <c r="O19" s="2"/>
       <c r="P19">
         <v>14</v>
@@ -2473,29 +2476,29 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27" t="s">
+      <c r="B20" s="32"/>
+      <c r="C20" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="27" t="s">
+      <c r="D20" s="26"/>
+      <c r="E20" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="23"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="21"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="22">
+      <c r="L20" s="20">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="M20" s="24"/>
-      <c r="N20" s="23"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="21"/>
       <c r="O20" s="2"/>
       <c r="P20">
         <v>16</v>
@@ -2527,29 +2530,29 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27" t="s">
+      <c r="B21" s="32"/>
+      <c r="C21" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="27" t="s">
+      <c r="D21" s="26"/>
+      <c r="E21" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="23"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="21"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="22">
+      <c r="L21" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M21" s="24"/>
-      <c r="N21" s="23"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="21"/>
       <c r="O21" s="2"/>
       <c r="P21">
         <v>14</v>
@@ -2578,29 +2581,29 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27" t="s">
+      <c r="B22" s="32"/>
+      <c r="C22" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="27" t="s">
+      <c r="D22" s="26"/>
+      <c r="E22" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="23"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="21"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="22">
+      <c r="L22" s="20">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="M22" s="24"/>
-      <c r="N22" s="23"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="21"/>
       <c r="O22" s="2"/>
       <c r="P22">
         <v>18</v>
@@ -2629,29 +2632,29 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27" t="s">
+      <c r="B23" s="32"/>
+      <c r="C23" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="27" t="s">
+      <c r="D23" s="26"/>
+      <c r="E23" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="23"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="21"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="22">
+      <c r="L23" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M23" s="24"/>
-      <c r="N23" s="23"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="21"/>
       <c r="O23" s="2"/>
       <c r="Q23">
         <v>0</v>
@@ -2671,29 +2674,29 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27" t="s">
+      <c r="B24" s="32"/>
+      <c r="C24" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="27" t="s">
+      <c r="D24" s="26"/>
+      <c r="E24" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="23"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="21"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="22">
+      <c r="L24" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M24" s="24"/>
-      <c r="N24" s="23"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="21"/>
       <c r="O24" s="2"/>
       <c r="Q24">
         <v>0</v>
@@ -2719,29 +2722,29 @@
       </c>
     </row>
     <row r="25" spans="1:26" s="13" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32" t="s">
+      <c r="B25" s="37"/>
+      <c r="C25" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="32" t="s">
+      <c r="D25" s="39"/>
+      <c r="E25" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="36"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="42"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
-      <c r="L25" s="35">
+      <c r="L25" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="36"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="42"/>
       <c r="O25" s="12"/>
       <c r="Q25" s="13">
         <v>0</v>
@@ -2767,29 +2770,29 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27" t="s">
+      <c r="B26" s="32"/>
+      <c r="C26" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="27" t="s">
+      <c r="D26" s="26"/>
+      <c r="E26" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="23"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="21"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="22">
+      <c r="L26" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M26" s="24"/>
-      <c r="N26" s="23"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="21"/>
       <c r="O26" s="2"/>
       <c r="P26">
         <v>15</v>
@@ -2812,29 +2815,29 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="27" t="s">
+      <c r="B27" s="32"/>
+      <c r="C27" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="27" t="s">
+      <c r="D27" s="26"/>
+      <c r="E27" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="23"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="21"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="22">
+      <c r="L27" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M27" s="24"/>
-      <c r="N27" s="23"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="21"/>
       <c r="O27" s="2"/>
       <c r="P27">
         <v>14</v>
@@ -2863,29 +2866,29 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="27" t="s">
+      <c r="B28" s="32"/>
+      <c r="C28" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="27" t="s">
+      <c r="D28" s="26"/>
+      <c r="E28" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="23"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="21"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="22">
+      <c r="L28" s="20">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M28" s="24"/>
-      <c r="N28" s="23"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="21"/>
       <c r="O28" s="2"/>
       <c r="P28">
         <v>18</v>
@@ -2914,29 +2917,29 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="27" t="s">
+      <c r="B29" s="32"/>
+      <c r="C29" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="27" t="s">
+      <c r="D29" s="26"/>
+      <c r="E29" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="F29" s="29"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="23"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="21"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="22">
+      <c r="L29" s="20">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="M29" s="24"/>
-      <c r="N29" s="23"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="21"/>
       <c r="O29" s="2"/>
       <c r="P29">
         <v>16</v>
@@ -2968,29 +2971,29 @@
       </c>
     </row>
     <row r="30" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="27" t="s">
+      <c r="B30" s="32"/>
+      <c r="C30" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="27" t="s">
+      <c r="D30" s="26"/>
+      <c r="E30" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="23"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="21"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="22">
+      <c r="L30" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M30" s="24"/>
-      <c r="N30" s="23"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="21"/>
       <c r="O30" s="2"/>
       <c r="Q30">
         <v>0</v>
@@ -3010,29 +3013,29 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="27" t="s">
+      <c r="B31" s="32"/>
+      <c r="C31" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="27" t="s">
+      <c r="D31" s="26"/>
+      <c r="E31" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="F31" s="29"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="23"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="21"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="22">
+      <c r="L31" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M31" s="24"/>
-      <c r="N31" s="23"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="21"/>
       <c r="O31" s="2"/>
       <c r="P31">
         <v>14</v>
@@ -3061,29 +3064,29 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="27" t="s">
+      <c r="B32" s="32"/>
+      <c r="C32" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="27" t="s">
+      <c r="D32" s="26"/>
+      <c r="E32" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="F32" s="29"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="23"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="21"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="22">
+      <c r="L32" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M32" s="24"/>
-      <c r="N32" s="23"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="21"/>
       <c r="O32" s="2"/>
       <c r="Q32">
         <v>0</v>
@@ -3103,29 +3106,29 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="27" t="s">
+      <c r="B33" s="32"/>
+      <c r="C33" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="27" t="s">
+      <c r="D33" s="26"/>
+      <c r="E33" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="F33" s="29"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="23"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="21"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="22">
+      <c r="L33" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M33" s="24"/>
-      <c r="N33" s="23"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="21"/>
       <c r="O33" s="2"/>
       <c r="P33">
         <v>18</v>
@@ -3151,29 +3154,29 @@
       </c>
     </row>
     <row r="34" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="27" t="s">
+      <c r="B34" s="32"/>
+      <c r="C34" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="27" t="s">
+      <c r="D34" s="26"/>
+      <c r="E34" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="F34" s="29"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="23"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="21"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="22">
+      <c r="L34" s="20">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="M34" s="24"/>
-      <c r="N34" s="23"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="21"/>
       <c r="O34" s="2"/>
       <c r="P34">
         <v>15</v>
@@ -3210,78 +3213,84 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="25" t="s">
+    <row r="35" spans="1:26" s="13" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="27" t="s">
+      <c r="B35" s="37"/>
+      <c r="C35" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="27" t="s">
+      <c r="D35" s="39"/>
+      <c r="E35" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="F35" s="29"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="22">
+      <c r="F35" s="40"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="41">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="24"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="2"/>
-      <c r="P35">
+        <v>33</v>
+      </c>
+      <c r="M35" s="43"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="13">
         <v>17</v>
       </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="S35">
+      <c r="Q35" s="13">
+        <v>0</v>
+      </c>
+      <c r="S35" s="13">
         <v>10</v>
       </c>
-      <c r="T35" s="10">
+      <c r="T35" s="14">
         <v>10</v>
       </c>
-      <c r="V35">
-        <v>2</v>
-      </c>
-      <c r="Y35">
+      <c r="U35" s="13">
+        <v>18</v>
+      </c>
+      <c r="V35" s="13">
+        <v>2</v>
+      </c>
+      <c r="W35" s="13">
+        <v>20</v>
+      </c>
+      <c r="Y35" s="13">
         <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="Z35">
+        <v>83</v>
+      </c>
+      <c r="Z35" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="27" t="s">
+      <c r="B36" s="32"/>
+      <c r="C36" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="27" t="s">
+      <c r="D36" s="26"/>
+      <c r="E36" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="F36" s="29"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="23"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="21"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="22">
+      <c r="L36" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M36" s="24"/>
-      <c r="N36" s="23"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="21"/>
       <c r="O36" s="2"/>
       <c r="P36">
         <v>19</v>
@@ -3307,29 +3316,29 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="27" t="s">
+      <c r="B37" s="32"/>
+      <c r="C37" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="27" t="s">
+      <c r="D37" s="26"/>
+      <c r="E37" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="F37" s="29"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="23"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="21"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="22">
+      <c r="L37" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M37" s="24"/>
-      <c r="N37" s="23"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="21"/>
       <c r="O37" s="2"/>
       <c r="P37">
         <v>15</v>
@@ -3355,29 +3364,29 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="27" t="s">
+      <c r="B38" s="32"/>
+      <c r="C38" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="27" t="s">
+      <c r="D38" s="26"/>
+      <c r="E38" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="F38" s="29"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="23"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="21"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="22">
+      <c r="L38" s="20">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="M38" s="24"/>
-      <c r="N38" s="23"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="21"/>
       <c r="O38" s="2"/>
       <c r="P38">
         <v>16</v>
@@ -3409,29 +3418,29 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="27" t="s">
+      <c r="B39" s="32"/>
+      <c r="C39" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="27" t="s">
+      <c r="D39" s="26"/>
+      <c r="E39" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="F39" s="29"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="23"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="21"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="22">
+      <c r="L39" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M39" s="24"/>
-      <c r="N39" s="23"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="21"/>
       <c r="O39" s="2"/>
       <c r="Q39">
         <v>0</v>
@@ -3450,78 +3459,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25" t="s">
+    <row r="40" spans="1:26" s="13" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="27" t="s">
+      <c r="B40" s="37"/>
+      <c r="C40" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="D40" s="28"/>
-      <c r="E40" s="27" t="s">
+      <c r="D40" s="39"/>
+      <c r="E40" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="29"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="22">
+      <c r="F40" s="40"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="41">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M40" s="24"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="2"/>
-      <c r="P40">
+        <v>6</v>
+      </c>
+      <c r="M40" s="43"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="13">
         <v>13</v>
       </c>
-      <c r="Q40">
+      <c r="Q40" s="13">
         <v>9</v>
       </c>
-      <c r="R40">
+      <c r="R40" s="13">
         <v>5</v>
       </c>
-      <c r="T40" s="10">
+      <c r="T40" s="14">
         <v>7</v>
       </c>
-      <c r="V40">
-        <v>2</v>
-      </c>
-      <c r="Y40">
+      <c r="U40" s="13">
+        <v>18</v>
+      </c>
+      <c r="V40" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y40" s="13">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="Z40">
+        <v>56</v>
+      </c>
+      <c r="Z40" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="27" t="s">
+      <c r="B41" s="32"/>
+      <c r="C41" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="27" t="s">
+      <c r="D41" s="26"/>
+      <c r="E41" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="F41" s="29"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="23"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="21"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
-      <c r="L41" s="22">
+      <c r="L41" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M41" s="24"/>
-      <c r="N41" s="23"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="21"/>
       <c r="O41" s="2"/>
       <c r="Q41">
         <v>0</v>
@@ -3541,29 +3553,29 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="27" t="s">
+      <c r="B42" s="32"/>
+      <c r="C42" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="D42" s="28"/>
-      <c r="E42" s="27" t="s">
+      <c r="D42" s="26"/>
+      <c r="E42" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="F42" s="29"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="23"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="21"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
-      <c r="L42" s="22">
+      <c r="L42" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M42" s="24"/>
-      <c r="N42" s="23"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="21"/>
       <c r="O42" s="2"/>
       <c r="Q42">
         <v>9</v>
@@ -3583,29 +3595,29 @@
       </c>
     </row>
     <row r="43" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="27" t="s">
+      <c r="B43" s="32"/>
+      <c r="C43" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="D43" s="28"/>
-      <c r="E43" s="27" t="s">
+      <c r="D43" s="26"/>
+      <c r="E43" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="F43" s="29"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="23"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="21"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
-      <c r="L43" s="22">
+      <c r="L43" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M43" s="24"/>
-      <c r="N43" s="23"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="21"/>
       <c r="O43" s="2"/>
       <c r="P43">
         <v>11</v>
@@ -3637,29 +3649,29 @@
       </c>
     </row>
     <row r="44" spans="1:26" s="13" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="32" t="s">
+      <c r="B44" s="37"/>
+      <c r="C44" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="D44" s="33"/>
-      <c r="E44" s="32" t="s">
+      <c r="D44" s="39"/>
+      <c r="E44" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="F44" s="34"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="36"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="42"/>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
-      <c r="L44" s="35">
+      <c r="L44" s="41">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="M44" s="37"/>
-      <c r="N44" s="36"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="42"/>
       <c r="O44" s="12"/>
       <c r="P44" s="13">
         <v>20</v>
@@ -3688,29 +3700,29 @@
       </c>
     </row>
     <row r="45" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="27" t="s">
+      <c r="B45" s="32"/>
+      <c r="C45" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="D45" s="28"/>
-      <c r="E45" s="27" t="s">
+      <c r="D45" s="26"/>
+      <c r="E45" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="F45" s="29"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="23"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="21"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
-      <c r="L45" s="22">
+      <c r="L45" s="20">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M45" s="24"/>
-      <c r="N45" s="23"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="21"/>
       <c r="O45" s="2"/>
       <c r="P45">
         <v>14</v>
@@ -3736,29 +3748,29 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="27" t="s">
+      <c r="B46" s="32"/>
+      <c r="C46" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="D46" s="28"/>
-      <c r="E46" s="27" t="s">
+      <c r="D46" s="26"/>
+      <c r="E46" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="F46" s="29"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="23"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="21"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
-      <c r="L46" s="22">
+      <c r="L46" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M46" s="24"/>
-      <c r="N46" s="23"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="21"/>
       <c r="O46" s="2"/>
       <c r="P46">
         <v>13</v>
@@ -3784,29 +3796,29 @@
       </c>
     </row>
     <row r="47" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="27" t="s">
+      <c r="B47" s="32"/>
+      <c r="C47" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="D47" s="28"/>
-      <c r="E47" s="27" t="s">
+      <c r="D47" s="26"/>
+      <c r="E47" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="F47" s="29"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="23"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="21"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
-      <c r="L47" s="22">
+      <c r="L47" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M47" s="24"/>
-      <c r="N47" s="23"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="21"/>
       <c r="O47" s="2"/>
       <c r="P47">
         <v>20</v>
@@ -3832,29 +3844,29 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="26"/>
-      <c r="C48" s="27" t="s">
+      <c r="B48" s="32"/>
+      <c r="C48" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="D48" s="28"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="F48" s="29"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="23"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="21"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
-      <c r="L48" s="22">
+      <c r="L48" s="20">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="M48" s="24"/>
-      <c r="N48" s="23"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="21"/>
       <c r="O48" s="2"/>
       <c r="P48">
         <v>14</v>
@@ -3886,29 +3898,29 @@
       </c>
     </row>
     <row r="49" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="27" t="s">
+      <c r="B49" s="32"/>
+      <c r="C49" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="D49" s="28"/>
-      <c r="E49" s="27" t="s">
+      <c r="D49" s="26"/>
+      <c r="E49" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="F49" s="29"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="23"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="21"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
-      <c r="L49" s="22">
+      <c r="L49" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M49" s="24"/>
-      <c r="N49" s="23"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="21"/>
       <c r="O49" s="2"/>
       <c r="P49">
         <v>16</v>
@@ -3931,29 +3943,29 @@
       </c>
     </row>
     <row r="50" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="27" t="s">
+      <c r="B50" s="32"/>
+      <c r="C50" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="27" t="s">
+      <c r="D50" s="26"/>
+      <c r="E50" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="F50" s="29"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="23"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="21"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="22">
+      <c r="L50" s="20">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="M50" s="24"/>
-      <c r="N50" s="23"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="21"/>
       <c r="O50" s="2"/>
       <c r="P50">
         <v>13</v>
@@ -3991,29 +4003,29 @@
       </c>
     </row>
     <row r="51" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B51" s="26"/>
-      <c r="C51" s="27" t="s">
+      <c r="B51" s="32"/>
+      <c r="C51" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="D51" s="28"/>
-      <c r="E51" s="27" t="s">
+      <c r="D51" s="26"/>
+      <c r="E51" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="F51" s="29"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="23"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="21"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
-      <c r="L51" s="22">
+      <c r="L51" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M51" s="24"/>
-      <c r="N51" s="23"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="21"/>
       <c r="O51" s="2"/>
       <c r="Q51">
         <v>0</v>
@@ -4036,29 +4048,29 @@
       </c>
     </row>
     <row r="52" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="27" t="s">
+      <c r="B52" s="32"/>
+      <c r="C52" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="D52" s="28"/>
-      <c r="E52" s="27" t="s">
+      <c r="D52" s="26"/>
+      <c r="E52" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="F52" s="29"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="23"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="21"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
-      <c r="L52" s="22">
+      <c r="L52" s="20">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="M52" s="24"/>
-      <c r="N52" s="23"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="21"/>
       <c r="O52" s="2"/>
       <c r="P52">
         <v>13</v>
@@ -4093,29 +4105,29 @@
       </c>
     </row>
     <row r="53" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="26"/>
-      <c r="C53" s="27" t="s">
+      <c r="B53" s="32"/>
+      <c r="C53" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="27" t="s">
+      <c r="D53" s="26"/>
+      <c r="E53" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="F53" s="29"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="23"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="21"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
-      <c r="L53" s="22">
+      <c r="L53" s="20">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="M53" s="24"/>
-      <c r="N53" s="23"/>
+      <c r="M53" s="28"/>
+      <c r="N53" s="21"/>
       <c r="O53" s="2"/>
       <c r="P53">
         <v>17</v>
@@ -4153,29 +4165,29 @@
       </c>
     </row>
     <row r="54" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="B54" s="26"/>
-      <c r="C54" s="27" t="s">
+      <c r="B54" s="32"/>
+      <c r="C54" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="D54" s="28"/>
-      <c r="E54" s="27" t="s">
+      <c r="D54" s="26"/>
+      <c r="E54" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="F54" s="29"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="23"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="21"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="22">
+      <c r="L54" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M54" s="24"/>
-      <c r="N54" s="23"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="21"/>
       <c r="O54" s="2"/>
       <c r="Q54">
         <v>0</v>
@@ -4195,29 +4207,29 @@
       </c>
     </row>
     <row r="55" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="B55" s="26"/>
-      <c r="C55" s="27" t="s">
+      <c r="B55" s="32"/>
+      <c r="C55" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="D55" s="28"/>
-      <c r="E55" s="27" t="s">
+      <c r="D55" s="26"/>
+      <c r="E55" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="F55" s="29"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="23"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="21"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="22">
+      <c r="L55" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M55" s="24"/>
-      <c r="N55" s="23"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="21"/>
       <c r="O55" s="2"/>
       <c r="Q55">
         <v>0</v>
@@ -4240,29 +4252,29 @@
       </c>
     </row>
     <row r="56" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B56" s="26"/>
-      <c r="C56" s="27" t="s">
+      <c r="B56" s="32"/>
+      <c r="C56" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="D56" s="28"/>
-      <c r="E56" s="27" t="s">
+      <c r="D56" s="26"/>
+      <c r="E56" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="F56" s="29"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="23"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="21"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="22">
+      <c r="L56" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M56" s="24"/>
-      <c r="N56" s="23"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="21"/>
       <c r="O56" s="2"/>
       <c r="Q56">
         <v>0</v>
@@ -4285,29 +4297,29 @@
       </c>
     </row>
     <row r="57" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="B57" s="26"/>
-      <c r="C57" s="27" t="s">
+      <c r="B57" s="32"/>
+      <c r="C57" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="D57" s="28"/>
-      <c r="E57" s="27" t="s">
+      <c r="D57" s="26"/>
+      <c r="E57" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="F57" s="29"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="23"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="21"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="22">
+      <c r="L57" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M57" s="24"/>
-      <c r="N57" s="23"/>
+      <c r="M57" s="28"/>
+      <c r="N57" s="21"/>
       <c r="O57" s="2"/>
       <c r="Q57">
         <v>8</v>
@@ -4333,29 +4345,29 @@
       </c>
     </row>
     <row r="58" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="B58" s="26"/>
-      <c r="C58" s="27" t="s">
+      <c r="B58" s="32"/>
+      <c r="C58" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="D58" s="28"/>
-      <c r="E58" s="27" t="s">
+      <c r="D58" s="26"/>
+      <c r="E58" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="F58" s="29"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="23"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="21"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="22">
+      <c r="L58" s="20">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M58" s="24"/>
-      <c r="N58" s="23"/>
+      <c r="M58" s="28"/>
+      <c r="N58" s="21"/>
       <c r="O58" s="2"/>
       <c r="P58">
         <v>14</v>
@@ -4384,29 +4396,29 @@
       </c>
     </row>
     <row r="59" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="B59" s="26"/>
-      <c r="C59" s="27" t="s">
+      <c r="B59" s="32"/>
+      <c r="C59" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="27" t="s">
+      <c r="D59" s="26"/>
+      <c r="E59" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="F59" s="29"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="23"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="21"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="22">
+      <c r="L59" s="20">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="M59" s="24"/>
-      <c r="N59" s="23"/>
+      <c r="M59" s="28"/>
+      <c r="N59" s="21"/>
       <c r="O59" s="2"/>
       <c r="P59">
         <v>13</v>
@@ -4438,29 +4450,29 @@
       </c>
     </row>
     <row r="60" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="B60" s="26"/>
-      <c r="C60" s="27" t="s">
+      <c r="B60" s="32"/>
+      <c r="C60" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="D60" s="28"/>
-      <c r="E60" s="27" t="s">
+      <c r="D60" s="26"/>
+      <c r="E60" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="F60" s="29"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="23"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="21"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="22">
+      <c r="L60" s="20">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="M60" s="24"/>
-      <c r="N60" s="23"/>
+      <c r="M60" s="28"/>
+      <c r="N60" s="21"/>
       <c r="O60" s="2"/>
       <c r="P60">
         <v>13</v>
@@ -4495,29 +4507,29 @@
       </c>
     </row>
     <row r="61" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="B61" s="26"/>
-      <c r="C61" s="27" t="s">
+      <c r="B61" s="32"/>
+      <c r="C61" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="D61" s="28"/>
-      <c r="E61" s="27" t="s">
+      <c r="D61" s="26"/>
+      <c r="E61" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="F61" s="29"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="23"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="21"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="22">
+      <c r="L61" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M61" s="24"/>
-      <c r="N61" s="23"/>
+      <c r="M61" s="28"/>
+      <c r="N61" s="21"/>
       <c r="O61" s="2"/>
       <c r="P61">
         <v>14</v>
@@ -4543,29 +4555,29 @@
       </c>
     </row>
     <row r="62" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="B62" s="26"/>
-      <c r="C62" s="27" t="s">
+      <c r="B62" s="32"/>
+      <c r="C62" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="27" t="s">
+      <c r="D62" s="26"/>
+      <c r="E62" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="F62" s="29"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="23"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="21"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="22">
+      <c r="L62" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M62" s="24"/>
-      <c r="N62" s="23"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="21"/>
       <c r="O62" s="2"/>
       <c r="P62">
         <v>13</v>
@@ -4588,29 +4600,29 @@
       </c>
     </row>
     <row r="63" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="B63" s="26"/>
-      <c r="C63" s="27" t="s">
+      <c r="B63" s="32"/>
+      <c r="C63" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="D63" s="28"/>
-      <c r="E63" s="27" t="s">
+      <c r="D63" s="26"/>
+      <c r="E63" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="F63" s="29"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="23"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="21"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="22">
+      <c r="L63" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M63" s="24"/>
-      <c r="N63" s="23"/>
+      <c r="M63" s="28"/>
+      <c r="N63" s="21"/>
       <c r="O63" s="2"/>
       <c r="Q63">
         <v>0</v>
@@ -4630,29 +4642,29 @@
       </c>
     </row>
     <row r="64" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="B64" s="26"/>
-      <c r="C64" s="27" t="s">
+      <c r="B64" s="32"/>
+      <c r="C64" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="D64" s="28"/>
-      <c r="E64" s="27" t="s">
+      <c r="D64" s="26"/>
+      <c r="E64" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="F64" s="29"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="23"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="21"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="22">
+      <c r="L64" s="20">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="M64" s="24"/>
-      <c r="N64" s="23"/>
+      <c r="M64" s="28"/>
+      <c r="N64" s="21"/>
       <c r="O64" s="2"/>
       <c r="P64">
         <v>18</v>
@@ -4687,29 +4699,29 @@
       </c>
     </row>
     <row r="65" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B65" s="26"/>
-      <c r="C65" s="27" t="s">
+      <c r="B65" s="32"/>
+      <c r="C65" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="D65" s="28"/>
-      <c r="E65" s="27" t="s">
+      <c r="D65" s="26"/>
+      <c r="E65" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="F65" s="29"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="23"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="21"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="22">
+      <c r="L65" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M65" s="24"/>
-      <c r="N65" s="23"/>
+      <c r="M65" s="28"/>
+      <c r="N65" s="21"/>
       <c r="O65" s="2"/>
       <c r="Q65">
         <v>0</v>
@@ -4729,29 +4741,29 @@
       </c>
     </row>
     <row r="66" spans="1:26" s="13" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="30" t="s">
+      <c r="A66" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="B66" s="31"/>
-      <c r="C66" s="32" t="s">
+      <c r="B66" s="37"/>
+      <c r="C66" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="D66" s="33"/>
-      <c r="E66" s="32" t="s">
+      <c r="D66" s="39"/>
+      <c r="E66" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="F66" s="34"/>
-      <c r="G66" s="33"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="36"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="42"/>
       <c r="J66" s="11"/>
       <c r="K66" s="11"/>
-      <c r="L66" s="35">
+      <c r="L66" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M66" s="37"/>
-      <c r="N66" s="36"/>
+      <c r="M66" s="43"/>
+      <c r="N66" s="42"/>
       <c r="O66" s="12"/>
       <c r="P66" s="13">
         <v>13</v>
@@ -4774,29 +4786,29 @@
       </c>
     </row>
     <row r="67" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="26"/>
-      <c r="C67" s="27" t="s">
+      <c r="B67" s="32"/>
+      <c r="C67" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="D67" s="28"/>
-      <c r="E67" s="27" t="s">
+      <c r="D67" s="26"/>
+      <c r="E67" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="F67" s="29"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="23"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="21"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="22">
+      <c r="L67" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M67" s="24"/>
-      <c r="N67" s="23"/>
+      <c r="M67" s="28"/>
+      <c r="N67" s="21"/>
       <c r="O67" s="2"/>
       <c r="P67">
         <v>15</v>
@@ -4825,29 +4837,29 @@
       </c>
     </row>
     <row r="68" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="B68" s="26"/>
-      <c r="C68" s="27" t="s">
+      <c r="B68" s="32"/>
+      <c r="C68" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="D68" s="28"/>
-      <c r="E68" s="27" t="s">
+      <c r="D68" s="26"/>
+      <c r="E68" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="F68" s="29"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="23"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="21"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-      <c r="L68" s="22">
+      <c r="L68" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M68" s="24"/>
-      <c r="N68" s="23"/>
+      <c r="M68" s="28"/>
+      <c r="N68" s="21"/>
       <c r="O68" s="2"/>
       <c r="P68">
         <v>15</v>
@@ -4876,29 +4888,29 @@
       </c>
     </row>
     <row r="69" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="B69" s="26"/>
-      <c r="C69" s="27" t="s">
+      <c r="B69" s="32"/>
+      <c r="C69" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="D69" s="28"/>
-      <c r="E69" s="27" t="s">
+      <c r="D69" s="26"/>
+      <c r="E69" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="F69" s="29"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="23"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="21"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="22">
+      <c r="L69" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M69" s="24"/>
-      <c r="N69" s="23"/>
+      <c r="M69" s="28"/>
+      <c r="N69" s="21"/>
       <c r="O69" s="2"/>
       <c r="Q69">
         <v>10</v>
@@ -4918,29 +4930,29 @@
       </c>
     </row>
     <row r="70" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="25" t="s">
+      <c r="A70" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B70" s="26"/>
-      <c r="C70" s="27" t="s">
+      <c r="B70" s="32"/>
+      <c r="C70" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="D70" s="28"/>
-      <c r="E70" s="27" t="s">
+      <c r="D70" s="26"/>
+      <c r="E70" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="F70" s="29"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="23"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="21"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
-      <c r="L70" s="22">
+      <c r="L70" s="20">
         <f t="shared" si="0"/>
         <v>5.3333333333333286</v>
       </c>
-      <c r="M70" s="24"/>
-      <c r="N70" s="23"/>
+      <c r="M70" s="28"/>
+      <c r="N70" s="21"/>
       <c r="O70" s="2"/>
       <c r="P70">
         <v>18</v>
@@ -4972,29 +4984,29 @@
       </c>
     </row>
     <row r="71" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B71" s="26"/>
-      <c r="C71" s="27" t="s">
+      <c r="B71" s="32"/>
+      <c r="C71" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="D71" s="28"/>
-      <c r="E71" s="27" t="s">
+      <c r="D71" s="26"/>
+      <c r="E71" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="F71" s="29"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="23"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="21"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
-      <c r="L71" s="22">
+      <c r="L71" s="20">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="M71" s="24"/>
-      <c r="N71" s="23"/>
+      <c r="M71" s="28"/>
+      <c r="N71" s="21"/>
       <c r="O71" s="2"/>
       <c r="Q71">
         <v>0</v>
@@ -5026,29 +5038,29 @@
       </c>
     </row>
     <row r="72" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="25" t="s">
+      <c r="A72" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="B72" s="26"/>
-      <c r="C72" s="27" t="s">
+      <c r="B72" s="32"/>
+      <c r="C72" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="D72" s="28"/>
-      <c r="E72" s="27" t="s">
+      <c r="D72" s="26"/>
+      <c r="E72" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="F72" s="29"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="22"/>
-      <c r="I72" s="23"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="21"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="L72" s="22">
+      <c r="L72" s="20">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="M72" s="24"/>
-      <c r="N72" s="23"/>
+      <c r="M72" s="28"/>
+      <c r="N72" s="21"/>
       <c r="O72" s="2"/>
       <c r="P72">
         <v>15</v>
@@ -5080,29 +5092,29 @@
       </c>
     </row>
     <row r="73" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="25" t="s">
+      <c r="A73" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="B73" s="26"/>
-      <c r="C73" s="27" t="s">
+      <c r="B73" s="32"/>
+      <c r="C73" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="D73" s="28"/>
-      <c r="E73" s="27" t="s">
+      <c r="D73" s="26"/>
+      <c r="E73" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="F73" s="29"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="23"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="21"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
-      <c r="L73" s="22">
+      <c r="L73" s="20">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="M73" s="24"/>
-      <c r="N73" s="23"/>
+      <c r="M73" s="28"/>
+      <c r="N73" s="21"/>
       <c r="O73" s="2"/>
       <c r="P73">
         <v>13</v>
@@ -5137,29 +5149,29 @@
       </c>
     </row>
     <row r="74" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="25" t="s">
+      <c r="A74" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="B74" s="26"/>
-      <c r="C74" s="27" t="s">
+      <c r="B74" s="32"/>
+      <c r="C74" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="D74" s="28"/>
-      <c r="E74" s="27" t="s">
+      <c r="D74" s="26"/>
+      <c r="E74" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="F74" s="29"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="23"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="21"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
-      <c r="L74" s="22">
+      <c r="L74" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M74" s="24"/>
-      <c r="N74" s="23"/>
+      <c r="M74" s="28"/>
+      <c r="N74" s="21"/>
       <c r="O74" s="2"/>
       <c r="Q74">
         <v>0</v>
@@ -5185,29 +5197,29 @@
       </c>
     </row>
     <row r="75" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25" t="s">
+      <c r="A75" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="B75" s="26"/>
-      <c r="C75" s="27" t="s">
+      <c r="B75" s="32"/>
+      <c r="C75" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="D75" s="28"/>
-      <c r="E75" s="27" t="s">
+      <c r="D75" s="26"/>
+      <c r="E75" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="F75" s="29"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="22"/>
-      <c r="I75" s="23"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="21"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
-      <c r="L75" s="22">
+      <c r="L75" s="20">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="M75" s="24"/>
-      <c r="N75" s="23"/>
+      <c r="M75" s="28"/>
+      <c r="N75" s="21"/>
       <c r="O75" s="2"/>
       <c r="P75">
         <v>14</v>
@@ -5242,29 +5254,29 @@
       </c>
     </row>
     <row r="76" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="25" t="s">
+      <c r="A76" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="B76" s="26"/>
-      <c r="C76" s="27" t="s">
+      <c r="B76" s="32"/>
+      <c r="C76" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="D76" s="28"/>
-      <c r="E76" s="27" t="s">
+      <c r="D76" s="26"/>
+      <c r="E76" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="F76" s="29"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="22"/>
-      <c r="I76" s="23"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="21"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
-      <c r="L76" s="22">
+      <c r="L76" s="20">
         <f t="shared" ref="L76:L113" si="2">IF((Y76-50)&gt;50,50,IF((Y76-50)&lt;0,0,(Y76-50)))</f>
         <v>0</v>
       </c>
-      <c r="M76" s="24"/>
-      <c r="N76" s="23"/>
+      <c r="M76" s="28"/>
+      <c r="N76" s="21"/>
       <c r="O76" s="2"/>
       <c r="Q76">
         <v>0</v>
@@ -5284,29 +5296,29 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="25" t="s">
+      <c r="A77" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="B77" s="26"/>
-      <c r="C77" s="27" t="s">
+      <c r="B77" s="32"/>
+      <c r="C77" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="D77" s="28"/>
-      <c r="E77" s="27" t="s">
+      <c r="D77" s="26"/>
+      <c r="E77" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="F77" s="29"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="23"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="20"/>
+      <c r="I77" s="21"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
-      <c r="L77" s="22">
+      <c r="L77" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M77" s="24"/>
-      <c r="N77" s="23"/>
+      <c r="M77" s="28"/>
+      <c r="N77" s="21"/>
       <c r="O77" s="2"/>
       <c r="P77">
         <v>19</v>
@@ -5332,29 +5344,29 @@
       </c>
     </row>
     <row r="78" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="25" t="s">
+      <c r="A78" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="B78" s="26"/>
-      <c r="C78" s="27" t="s">
+      <c r="B78" s="32"/>
+      <c r="C78" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="D78" s="28"/>
-      <c r="E78" s="27" t="s">
+      <c r="D78" s="26"/>
+      <c r="E78" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="F78" s="29"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="23"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="21"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
-      <c r="L78" s="22">
+      <c r="L78" s="20">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="M78" s="24"/>
-      <c r="N78" s="23"/>
+      <c r="M78" s="28"/>
+      <c r="N78" s="21"/>
       <c r="O78" s="2"/>
       <c r="P78">
         <v>16</v>
@@ -5386,29 +5398,29 @@
       </c>
     </row>
     <row r="79" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="25" t="s">
+      <c r="A79" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="B79" s="26"/>
-      <c r="C79" s="27" t="s">
+      <c r="B79" s="32"/>
+      <c r="C79" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="D79" s="28"/>
-      <c r="E79" s="27" t="s">
+      <c r="D79" s="26"/>
+      <c r="E79" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="F79" s="29"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="22"/>
-      <c r="I79" s="23"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="21"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
-      <c r="L79" s="22">
+      <c r="L79" s="20">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M79" s="24"/>
-      <c r="N79" s="23"/>
+      <c r="M79" s="28"/>
+      <c r="N79" s="21"/>
       <c r="O79" s="2"/>
       <c r="Q79">
         <v>0</v>
@@ -5437,29 +5449,29 @@
       </c>
     </row>
     <row r="80" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="25" t="s">
+      <c r="A80" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="B80" s="26"/>
-      <c r="C80" s="27" t="s">
+      <c r="B80" s="32"/>
+      <c r="C80" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="27" t="s">
+      <c r="D80" s="26"/>
+      <c r="E80" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="F80" s="29"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="22"/>
-      <c r="I80" s="23"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="21"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
-      <c r="L80" s="22">
+      <c r="L80" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M80" s="24"/>
-      <c r="N80" s="23"/>
+      <c r="M80" s="28"/>
+      <c r="N80" s="21"/>
       <c r="O80" s="2"/>
       <c r="P80">
         <v>16</v>
@@ -5485,29 +5497,29 @@
       </c>
     </row>
     <row r="81" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="25" t="s">
+      <c r="A81" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="B81" s="26"/>
-      <c r="C81" s="27" t="s">
+      <c r="B81" s="32"/>
+      <c r="C81" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="D81" s="28"/>
-      <c r="E81" s="27" t="s">
+      <c r="D81" s="26"/>
+      <c r="E81" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="F81" s="29"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="22"/>
-      <c r="I81" s="23"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="21"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
-      <c r="L81" s="22">
+      <c r="L81" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M81" s="24"/>
-      <c r="N81" s="23"/>
+      <c r="M81" s="28"/>
+      <c r="N81" s="21"/>
       <c r="O81" s="2"/>
       <c r="P81">
         <v>16</v>
@@ -5536,29 +5548,29 @@
       </c>
     </row>
     <row r="82" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25" t="s">
+      <c r="A82" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="B82" s="26"/>
-      <c r="C82" s="27" t="s">
+      <c r="B82" s="32"/>
+      <c r="C82" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="D82" s="28"/>
-      <c r="E82" s="27" t="s">
+      <c r="D82" s="26"/>
+      <c r="E82" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="F82" s="29"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="22"/>
-      <c r="I82" s="23"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="21"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
-      <c r="L82" s="22">
+      <c r="L82" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M82" s="24"/>
-      <c r="N82" s="23"/>
+      <c r="M82" s="28"/>
+      <c r="N82" s="21"/>
       <c r="O82" s="2"/>
       <c r="Q82">
         <v>10</v>
@@ -5578,29 +5590,29 @@
       </c>
     </row>
     <row r="83" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="25" t="s">
+      <c r="A83" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="B83" s="26"/>
-      <c r="C83" s="27" t="s">
+      <c r="B83" s="32"/>
+      <c r="C83" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="D83" s="28"/>
-      <c r="E83" s="27" t="s">
+      <c r="D83" s="26"/>
+      <c r="E83" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="F83" s="29"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="22"/>
-      <c r="I83" s="23"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="21"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
-      <c r="L83" s="22">
+      <c r="L83" s="20">
         <f t="shared" si="2"/>
         <v>17.75</v>
       </c>
-      <c r="M83" s="24"/>
-      <c r="N83" s="23"/>
+      <c r="M83" s="28"/>
+      <c r="N83" s="21"/>
       <c r="O83" s="2"/>
       <c r="P83">
         <v>11</v>
@@ -5635,29 +5647,29 @@
       </c>
     </row>
     <row r="84" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="25" t="s">
+      <c r="A84" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="B84" s="26"/>
-      <c r="C84" s="27" t="s">
+      <c r="B84" s="32"/>
+      <c r="C84" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="D84" s="28"/>
-      <c r="E84" s="27" t="s">
+      <c r="D84" s="26"/>
+      <c r="E84" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="F84" s="29"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="23"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="21"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
-      <c r="L84" s="22">
+      <c r="L84" s="20">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="M84" s="24"/>
-      <c r="N84" s="23"/>
+      <c r="M84" s="28"/>
+      <c r="N84" s="21"/>
       <c r="O84" s="2"/>
       <c r="Q84">
         <v>0</v>
@@ -5686,29 +5698,29 @@
       </c>
     </row>
     <row r="85" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="25" t="s">
+      <c r="A85" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="B85" s="26"/>
-      <c r="C85" s="27" t="s">
+      <c r="B85" s="32"/>
+      <c r="C85" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="D85" s="28"/>
-      <c r="E85" s="27" t="s">
+      <c r="D85" s="26"/>
+      <c r="E85" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="F85" s="29"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="22"/>
-      <c r="I85" s="23"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="21"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
-      <c r="L85" s="22">
+      <c r="L85" s="20">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="M85" s="24"/>
-      <c r="N85" s="23"/>
+      <c r="M85" s="28"/>
+      <c r="N85" s="21"/>
       <c r="O85" s="2"/>
       <c r="P85">
         <v>13</v>
@@ -5743,29 +5755,29 @@
       </c>
     </row>
     <row r="86" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="25" t="s">
+      <c r="A86" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="B86" s="26"/>
-      <c r="C86" s="27" t="s">
+      <c r="B86" s="32"/>
+      <c r="C86" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="D86" s="28"/>
-      <c r="E86" s="27" t="s">
+      <c r="D86" s="26"/>
+      <c r="E86" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="F86" s="29"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="22"/>
-      <c r="I86" s="23"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="21"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
-      <c r="L86" s="22">
+      <c r="L86" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M86" s="24"/>
-      <c r="N86" s="23"/>
+      <c r="M86" s="28"/>
+      <c r="N86" s="21"/>
       <c r="O86" s="2"/>
       <c r="P86">
         <v>16</v>
@@ -5791,29 +5803,29 @@
       </c>
     </row>
     <row r="87" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="25" t="s">
+      <c r="A87" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="B87" s="26"/>
-      <c r="C87" s="27" t="s">
+      <c r="B87" s="32"/>
+      <c r="C87" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="D87" s="28"/>
-      <c r="E87" s="27" t="s">
+      <c r="D87" s="26"/>
+      <c r="E87" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="F87" s="29"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="22"/>
-      <c r="I87" s="23"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="20"/>
+      <c r="I87" s="21"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
-      <c r="L87" s="22">
+      <c r="L87" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M87" s="24"/>
-      <c r="N87" s="23"/>
+      <c r="M87" s="28"/>
+      <c r="N87" s="21"/>
       <c r="O87" s="2"/>
       <c r="Q87">
         <v>0</v>
@@ -5833,29 +5845,29 @@
       </c>
     </row>
     <row r="88" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="25" t="s">
+      <c r="A88" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="B88" s="26"/>
-      <c r="C88" s="27" t="s">
+      <c r="B88" s="32"/>
+      <c r="C88" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="D88" s="28"/>
-      <c r="E88" s="27" t="s">
+      <c r="D88" s="26"/>
+      <c r="E88" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="F88" s="29"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="22"/>
-      <c r="I88" s="23"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="21"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
-      <c r="L88" s="22">
+      <c r="L88" s="20">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M88" s="24"/>
-      <c r="N88" s="23"/>
+      <c r="M88" s="28"/>
+      <c r="N88" s="21"/>
       <c r="O88" s="2"/>
       <c r="P88">
         <v>14</v>
@@ -5881,29 +5893,29 @@
       </c>
     </row>
     <row r="89" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="25" t="s">
+      <c r="A89" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="B89" s="26"/>
-      <c r="C89" s="27" t="s">
+      <c r="B89" s="32"/>
+      <c r="C89" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="27" t="s">
+      <c r="D89" s="26"/>
+      <c r="E89" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="F89" s="29"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="22"/>
-      <c r="I89" s="23"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="20"/>
+      <c r="I89" s="21"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
-      <c r="L89" s="22">
+      <c r="L89" s="20">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="M89" s="24"/>
-      <c r="N89" s="23"/>
+      <c r="M89" s="28"/>
+      <c r="N89" s="21"/>
       <c r="O89" s="2"/>
       <c r="P89">
         <v>13</v>
@@ -5929,29 +5941,29 @@
       </c>
     </row>
     <row r="90" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="25" t="s">
+      <c r="A90" s="31" t="s">
         <v>267</v>
       </c>
-      <c r="B90" s="26"/>
-      <c r="C90" s="27" t="s">
+      <c r="B90" s="32"/>
+      <c r="C90" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="D90" s="28"/>
-      <c r="E90" s="27" t="s">
+      <c r="D90" s="26"/>
+      <c r="E90" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="F90" s="29"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="22"/>
-      <c r="I90" s="23"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="21"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
-      <c r="L90" s="22">
+      <c r="L90" s="20">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M90" s="24"/>
-      <c r="N90" s="23"/>
+      <c r="M90" s="28"/>
+      <c r="N90" s="21"/>
       <c r="O90" s="2"/>
       <c r="P90">
         <v>14</v>
@@ -5977,29 +5989,29 @@
       </c>
     </row>
     <row r="91" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="25" t="s">
+      <c r="A91" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="B91" s="26"/>
-      <c r="C91" s="27" t="s">
+      <c r="B91" s="32"/>
+      <c r="C91" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="D91" s="28"/>
-      <c r="E91" s="27" t="s">
+      <c r="D91" s="26"/>
+      <c r="E91" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="F91" s="29"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="22"/>
-      <c r="I91" s="23"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="21"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
-      <c r="L91" s="22">
+      <c r="L91" s="20">
         <f t="shared" si="2"/>
         <v>17.666666666666671</v>
       </c>
-      <c r="M91" s="24"/>
-      <c r="N91" s="23"/>
+      <c r="M91" s="28"/>
+      <c r="N91" s="21"/>
       <c r="O91" s="2"/>
       <c r="P91">
         <v>13</v>
@@ -6034,29 +6046,29 @@
       </c>
     </row>
     <row r="92" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="25" t="s">
+      <c r="A92" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="B92" s="26"/>
-      <c r="C92" s="27" t="s">
+      <c r="B92" s="32"/>
+      <c r="C92" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="D92" s="28"/>
-      <c r="E92" s="27" t="s">
+      <c r="D92" s="26"/>
+      <c r="E92" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="F92" s="29"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="22"/>
-      <c r="I92" s="23"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="20"/>
+      <c r="I92" s="21"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
-      <c r="L92" s="22">
+      <c r="L92" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M92" s="24"/>
-      <c r="N92" s="23"/>
+      <c r="M92" s="28"/>
+      <c r="N92" s="21"/>
       <c r="O92" s="2"/>
       <c r="P92">
         <v>14</v>
@@ -6085,29 +6097,29 @@
       </c>
     </row>
     <row r="93" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="25" t="s">
+      <c r="A93" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="B93" s="26"/>
-      <c r="C93" s="27" t="s">
+      <c r="B93" s="32"/>
+      <c r="C93" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="D93" s="28"/>
-      <c r="E93" s="27" t="s">
+      <c r="D93" s="26"/>
+      <c r="E93" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="F93" s="29"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="22"/>
-      <c r="I93" s="23"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="20"/>
+      <c r="I93" s="21"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
-      <c r="L93" s="22">
+      <c r="L93" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M93" s="24"/>
-      <c r="N93" s="23"/>
+      <c r="M93" s="28"/>
+      <c r="N93" s="21"/>
       <c r="O93" s="2"/>
       <c r="P93">
         <v>13</v>
@@ -6136,29 +6148,29 @@
       </c>
     </row>
     <row r="94" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="25" t="s">
+      <c r="A94" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="B94" s="26"/>
-      <c r="C94" s="27" t="s">
+      <c r="B94" s="32"/>
+      <c r="C94" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="D94" s="28"/>
-      <c r="E94" s="27" t="s">
+      <c r="D94" s="26"/>
+      <c r="E94" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="F94" s="29"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="22"/>
-      <c r="I94" s="23"/>
+      <c r="F94" s="27"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="20"/>
+      <c r="I94" s="21"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
-      <c r="L94" s="22">
+      <c r="L94" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M94" s="24"/>
-      <c r="N94" s="23"/>
+      <c r="M94" s="28"/>
+      <c r="N94" s="21"/>
       <c r="O94" s="2"/>
       <c r="P94">
         <v>13</v>
@@ -6184,29 +6196,29 @@
       </c>
     </row>
     <row r="95" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="25" t="s">
+      <c r="A95" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="B95" s="26"/>
-      <c r="C95" s="27" t="s">
+      <c r="B95" s="32"/>
+      <c r="C95" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="D95" s="28"/>
-      <c r="E95" s="27" t="s">
+      <c r="D95" s="26"/>
+      <c r="E95" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="F95" s="29"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="22"/>
-      <c r="I95" s="23"/>
+      <c r="F95" s="27"/>
+      <c r="G95" s="26"/>
+      <c r="H95" s="20"/>
+      <c r="I95" s="21"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
-      <c r="L95" s="22">
+      <c r="L95" s="20">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="M95" s="24"/>
-      <c r="N95" s="23"/>
+      <c r="M95" s="28"/>
+      <c r="N95" s="21"/>
       <c r="O95" s="2"/>
       <c r="P95">
         <v>14</v>
@@ -6232,29 +6244,29 @@
       </c>
     </row>
     <row r="96" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="25" t="s">
+      <c r="A96" s="31" t="s">
         <v>285</v>
       </c>
-      <c r="B96" s="26"/>
-      <c r="C96" s="27" t="s">
+      <c r="B96" s="32"/>
+      <c r="C96" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="D96" s="28"/>
-      <c r="E96" s="27" t="s">
+      <c r="D96" s="26"/>
+      <c r="E96" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="F96" s="29"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="22"/>
-      <c r="I96" s="23"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="26"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="21"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
-      <c r="L96" s="22">
+      <c r="L96" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M96" s="24"/>
-      <c r="N96" s="23"/>
+      <c r="M96" s="28"/>
+      <c r="N96" s="21"/>
       <c r="O96" s="2"/>
       <c r="Q96">
         <v>9</v>
@@ -6277,29 +6289,29 @@
       </c>
     </row>
     <row r="97" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="25" t="s">
+      <c r="A97" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="B97" s="26"/>
-      <c r="C97" s="27" t="s">
+      <c r="B97" s="32"/>
+      <c r="C97" s="25" t="s">
         <v>289</v>
       </c>
-      <c r="D97" s="28"/>
-      <c r="E97" s="27" t="s">
+      <c r="D97" s="26"/>
+      <c r="E97" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="F97" s="29"/>
-      <c r="G97" s="28"/>
-      <c r="H97" s="22"/>
-      <c r="I97" s="23"/>
+      <c r="F97" s="27"/>
+      <c r="G97" s="26"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="21"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
-      <c r="L97" s="22">
+      <c r="L97" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M97" s="24"/>
-      <c r="N97" s="23"/>
+      <c r="M97" s="28"/>
+      <c r="N97" s="21"/>
       <c r="O97" s="2"/>
       <c r="P97">
         <v>18</v>
@@ -6322,29 +6334,29 @@
       </c>
     </row>
     <row r="98" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="25" t="s">
+      <c r="A98" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="B98" s="26"/>
-      <c r="C98" s="27" t="s">
+      <c r="B98" s="32"/>
+      <c r="C98" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="27" t="s">
+      <c r="D98" s="26"/>
+      <c r="E98" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="F98" s="29"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="22"/>
-      <c r="I98" s="23"/>
+      <c r="F98" s="27"/>
+      <c r="G98" s="26"/>
+      <c r="H98" s="20"/>
+      <c r="I98" s="21"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
-      <c r="L98" s="22">
+      <c r="L98" s="20">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="M98" s="24"/>
-      <c r="N98" s="23"/>
+      <c r="M98" s="28"/>
+      <c r="N98" s="21"/>
       <c r="O98" s="2"/>
       <c r="P98">
         <v>16</v>
@@ -6382,29 +6394,29 @@
       </c>
     </row>
     <row r="99" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="25" t="s">
+      <c r="A99" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="B99" s="26"/>
-      <c r="C99" s="27" t="s">
+      <c r="B99" s="32"/>
+      <c r="C99" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="D99" s="28"/>
-      <c r="E99" s="27" t="s">
+      <c r="D99" s="26"/>
+      <c r="E99" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="F99" s="29"/>
-      <c r="G99" s="28"/>
-      <c r="H99" s="22"/>
-      <c r="I99" s="23"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="26"/>
+      <c r="H99" s="20"/>
+      <c r="I99" s="21"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
-      <c r="L99" s="22">
+      <c r="L99" s="20">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="M99" s="24"/>
-      <c r="N99" s="23"/>
+      <c r="M99" s="28"/>
+      <c r="N99" s="21"/>
       <c r="O99" s="2"/>
       <c r="P99">
         <v>16</v>
@@ -6442,29 +6454,29 @@
       </c>
     </row>
     <row r="100" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="25" t="s">
+      <c r="A100" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="B100" s="26"/>
-      <c r="C100" s="27" t="s">
+      <c r="B100" s="32"/>
+      <c r="C100" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="D100" s="28"/>
-      <c r="E100" s="27" t="s">
+      <c r="D100" s="26"/>
+      <c r="E100" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="F100" s="29"/>
-      <c r="G100" s="28"/>
-      <c r="H100" s="22"/>
-      <c r="I100" s="23"/>
+      <c r="F100" s="27"/>
+      <c r="G100" s="26"/>
+      <c r="H100" s="20"/>
+      <c r="I100" s="21"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
-      <c r="L100" s="22">
+      <c r="L100" s="20">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="M100" s="24"/>
-      <c r="N100" s="23"/>
+      <c r="M100" s="28"/>
+      <c r="N100" s="21"/>
       <c r="O100" s="2"/>
       <c r="P100">
         <v>13</v>
@@ -6499,29 +6511,29 @@
       </c>
     </row>
     <row r="101" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="25" t="s">
+      <c r="A101" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="B101" s="26"/>
-      <c r="C101" s="27" t="s">
+      <c r="B101" s="32"/>
+      <c r="C101" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="D101" s="28"/>
-      <c r="E101" s="27" t="s">
+      <c r="D101" s="26"/>
+      <c r="E101" s="25" t="s">
         <v>302</v>
       </c>
-      <c r="F101" s="29"/>
-      <c r="G101" s="28"/>
-      <c r="H101" s="22"/>
-      <c r="I101" s="23"/>
+      <c r="F101" s="27"/>
+      <c r="G101" s="26"/>
+      <c r="H101" s="20"/>
+      <c r="I101" s="21"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
-      <c r="L101" s="22">
+      <c r="L101" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M101" s="24"/>
-      <c r="N101" s="23"/>
+      <c r="M101" s="28"/>
+      <c r="N101" s="21"/>
       <c r="O101" s="2"/>
       <c r="Q101">
         <v>9</v>
@@ -6547,29 +6559,29 @@
       </c>
     </row>
     <row r="102" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="25" t="s">
+      <c r="A102" s="31" t="s">
         <v>303</v>
       </c>
-      <c r="B102" s="26"/>
-      <c r="C102" s="27" t="s">
+      <c r="B102" s="32"/>
+      <c r="C102" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="D102" s="28"/>
-      <c r="E102" s="27" t="s">
+      <c r="D102" s="26"/>
+      <c r="E102" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="F102" s="29"/>
-      <c r="G102" s="28"/>
-      <c r="H102" s="22"/>
-      <c r="I102" s="23"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="26"/>
+      <c r="H102" s="20"/>
+      <c r="I102" s="21"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
-      <c r="L102" s="22">
+      <c r="L102" s="20">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="M102" s="24"/>
-      <c r="N102" s="23"/>
+      <c r="M102" s="28"/>
+      <c r="N102" s="21"/>
       <c r="O102" s="2"/>
       <c r="P102">
         <v>16</v>
@@ -6607,29 +6619,29 @@
       </c>
     </row>
     <row r="103" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="25" t="s">
+      <c r="A103" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="B103" s="26"/>
-      <c r="C103" s="27" t="s">
+      <c r="B103" s="32"/>
+      <c r="C103" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="D103" s="28"/>
-      <c r="E103" s="27" t="s">
+      <c r="D103" s="26"/>
+      <c r="E103" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="F103" s="29"/>
-      <c r="G103" s="28"/>
-      <c r="H103" s="22"/>
-      <c r="I103" s="23"/>
+      <c r="F103" s="27"/>
+      <c r="G103" s="26"/>
+      <c r="H103" s="20"/>
+      <c r="I103" s="21"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
-      <c r="L103" s="22">
+      <c r="L103" s="20">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="M103" s="24"/>
-      <c r="N103" s="23"/>
+      <c r="M103" s="28"/>
+      <c r="N103" s="21"/>
       <c r="O103" s="2"/>
       <c r="P103">
         <v>18</v>
@@ -6661,29 +6673,29 @@
       </c>
     </row>
     <row r="104" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="25" t="s">
+      <c r="A104" s="31" t="s">
         <v>309</v>
       </c>
-      <c r="B104" s="26"/>
-      <c r="C104" s="27" t="s">
+      <c r="B104" s="32"/>
+      <c r="C104" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="D104" s="28"/>
-      <c r="E104" s="27" t="s">
+      <c r="D104" s="26"/>
+      <c r="E104" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="F104" s="29"/>
-      <c r="G104" s="28"/>
-      <c r="H104" s="22"/>
-      <c r="I104" s="23"/>
+      <c r="F104" s="27"/>
+      <c r="G104" s="26"/>
+      <c r="H104" s="20"/>
+      <c r="I104" s="21"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
-      <c r="L104" s="22">
+      <c r="L104" s="20">
         <f t="shared" si="2"/>
         <v>18.333333333333343</v>
       </c>
-      <c r="M104" s="24"/>
-      <c r="N104" s="23"/>
+      <c r="M104" s="28"/>
+      <c r="N104" s="21"/>
       <c r="O104" s="2"/>
       <c r="P104">
         <v>11</v>
@@ -6718,29 +6730,29 @@
       </c>
     </row>
     <row r="105" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="25" t="s">
+      <c r="A105" s="31" t="s">
         <v>312</v>
       </c>
-      <c r="B105" s="26"/>
-      <c r="C105" s="27" t="s">
+      <c r="B105" s="32"/>
+      <c r="C105" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="D105" s="28"/>
-      <c r="E105" s="27" t="s">
+      <c r="D105" s="26"/>
+      <c r="E105" s="25" t="s">
         <v>314</v>
       </c>
-      <c r="F105" s="29"/>
-      <c r="G105" s="28"/>
-      <c r="H105" s="22"/>
-      <c r="I105" s="23"/>
+      <c r="F105" s="27"/>
+      <c r="G105" s="26"/>
+      <c r="H105" s="20"/>
+      <c r="I105" s="21"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
-      <c r="L105" s="22">
+      <c r="L105" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M105" s="24"/>
-      <c r="N105" s="23"/>
+      <c r="M105" s="28"/>
+      <c r="N105" s="21"/>
       <c r="O105" s="2"/>
       <c r="Q105">
         <v>0</v>
@@ -6763,29 +6775,29 @@
       </c>
     </row>
     <row r="106" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="25" t="s">
+      <c r="A106" s="31" t="s">
         <v>315</v>
       </c>
-      <c r="B106" s="26"/>
-      <c r="C106" s="27" t="s">
+      <c r="B106" s="32"/>
+      <c r="C106" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="D106" s="28"/>
-      <c r="E106" s="27" t="s">
+      <c r="D106" s="26"/>
+      <c r="E106" s="25" t="s">
         <v>317</v>
       </c>
-      <c r="F106" s="29"/>
-      <c r="G106" s="28"/>
-      <c r="H106" s="22"/>
-      <c r="I106" s="23"/>
+      <c r="F106" s="27"/>
+      <c r="G106" s="26"/>
+      <c r="H106" s="20"/>
+      <c r="I106" s="21"/>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
-      <c r="L106" s="22">
+      <c r="L106" s="20">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="M106" s="24"/>
-      <c r="N106" s="23"/>
+      <c r="M106" s="28"/>
+      <c r="N106" s="21"/>
       <c r="O106" s="2"/>
       <c r="P106">
         <v>16</v>
@@ -6817,29 +6829,29 @@
       </c>
     </row>
     <row r="107" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="25" t="s">
+      <c r="A107" s="31" t="s">
         <v>318</v>
       </c>
-      <c r="B107" s="26"/>
-      <c r="C107" s="27" t="s">
+      <c r="B107" s="32"/>
+      <c r="C107" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="D107" s="28"/>
-      <c r="E107" s="27" t="s">
+      <c r="D107" s="26"/>
+      <c r="E107" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="F107" s="29"/>
-      <c r="G107" s="28"/>
-      <c r="H107" s="22"/>
-      <c r="I107" s="23"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="26"/>
+      <c r="H107" s="20"/>
+      <c r="I107" s="21"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
-      <c r="L107" s="22">
+      <c r="L107" s="20">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M107" s="24"/>
-      <c r="N107" s="23"/>
+      <c r="M107" s="28"/>
+      <c r="N107" s="21"/>
       <c r="O107" s="2"/>
       <c r="P107">
         <v>18</v>
@@ -6868,29 +6880,29 @@
       </c>
     </row>
     <row r="108" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="25" t="s">
+      <c r="A108" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="B108" s="26"/>
-      <c r="C108" s="27" t="s">
+      <c r="B108" s="32"/>
+      <c r="C108" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="D108" s="28"/>
-      <c r="E108" s="27" t="s">
+      <c r="D108" s="26"/>
+      <c r="E108" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="F108" s="29"/>
-      <c r="G108" s="28"/>
-      <c r="H108" s="22"/>
-      <c r="I108" s="23"/>
+      <c r="F108" s="27"/>
+      <c r="G108" s="26"/>
+      <c r="H108" s="20"/>
+      <c r="I108" s="21"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
-      <c r="L108" s="22">
+      <c r="L108" s="20">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="M108" s="24"/>
-      <c r="N108" s="23"/>
+      <c r="M108" s="28"/>
+      <c r="N108" s="21"/>
       <c r="O108" s="2"/>
       <c r="P108">
         <v>13</v>
@@ -6922,29 +6934,29 @@
       </c>
     </row>
     <row r="109" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="25" t="s">
+      <c r="A109" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="B109" s="26"/>
-      <c r="C109" s="27" t="s">
+      <c r="B109" s="32"/>
+      <c r="C109" s="25" t="s">
         <v>325</v>
       </c>
-      <c r="D109" s="28"/>
-      <c r="E109" s="27" t="s">
+      <c r="D109" s="26"/>
+      <c r="E109" s="25" t="s">
         <v>326</v>
       </c>
-      <c r="F109" s="29"/>
-      <c r="G109" s="28"/>
-      <c r="H109" s="22"/>
-      <c r="I109" s="23"/>
+      <c r="F109" s="27"/>
+      <c r="G109" s="26"/>
+      <c r="H109" s="20"/>
+      <c r="I109" s="21"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
-      <c r="L109" s="22">
+      <c r="L109" s="20">
         <f t="shared" si="2"/>
         <v>35.5</v>
       </c>
-      <c r="M109" s="24"/>
-      <c r="N109" s="23"/>
+      <c r="M109" s="28"/>
+      <c r="N109" s="21"/>
       <c r="O109" s="2"/>
       <c r="Q109">
         <v>7</v>
@@ -6976,23 +6988,23 @@
       </c>
     </row>
     <row r="110" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="17"/>
-      <c r="B110" s="18"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="20"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="21"/>
-      <c r="G110" s="20"/>
-      <c r="H110" s="22"/>
-      <c r="I110" s="23"/>
+      <c r="A110" s="34"/>
+      <c r="B110" s="35"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="19"/>
+      <c r="G110" s="18"/>
+      <c r="H110" s="20"/>
+      <c r="I110" s="21"/>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
-      <c r="L110" s="22">
+      <c r="L110" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M110" s="24"/>
-      <c r="N110" s="23"/>
+      <c r="M110" s="28"/>
+      <c r="N110" s="21"/>
       <c r="O110" s="2"/>
       <c r="Q110">
         <v>0</v>
@@ -7012,23 +7024,23 @@
       </c>
     </row>
     <row r="111" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="17"/>
-      <c r="B111" s="18"/>
-      <c r="C111" s="19"/>
-      <c r="D111" s="20"/>
-      <c r="E111" s="19"/>
-      <c r="F111" s="21"/>
-      <c r="G111" s="20"/>
-      <c r="H111" s="22"/>
-      <c r="I111" s="23"/>
+      <c r="A111" s="34"/>
+      <c r="B111" s="35"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="19"/>
+      <c r="G111" s="18"/>
+      <c r="H111" s="20"/>
+      <c r="I111" s="21"/>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
-      <c r="L111" s="22">
+      <c r="L111" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M111" s="24"/>
-      <c r="N111" s="23"/>
+      <c r="M111" s="28"/>
+      <c r="N111" s="21"/>
       <c r="O111" s="2"/>
       <c r="Q111">
         <v>0</v>
@@ -7048,23 +7060,23 @@
       </c>
     </row>
     <row r="112" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="17"/>
-      <c r="B112" s="18"/>
-      <c r="C112" s="19"/>
-      <c r="D112" s="20"/>
-      <c r="E112" s="19"/>
-      <c r="F112" s="21"/>
-      <c r="G112" s="20"/>
-      <c r="H112" s="22"/>
-      <c r="I112" s="23"/>
+      <c r="A112" s="34"/>
+      <c r="B112" s="35"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="19"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="20"/>
+      <c r="I112" s="21"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
-      <c r="L112" s="22">
+      <c r="L112" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M112" s="24"/>
-      <c r="N112" s="23"/>
+      <c r="M112" s="28"/>
+      <c r="N112" s="21"/>
       <c r="O112" s="2"/>
       <c r="Q112">
         <v>0</v>
@@ -7084,23 +7096,23 @@
       </c>
     </row>
     <row r="113" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="17"/>
-      <c r="B113" s="18"/>
-      <c r="C113" s="19"/>
-      <c r="D113" s="20"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="21"/>
-      <c r="G113" s="20"/>
-      <c r="H113" s="22"/>
-      <c r="I113" s="23"/>
+      <c r="A113" s="34"/>
+      <c r="B113" s="35"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="19"/>
+      <c r="G113" s="18"/>
+      <c r="H113" s="20"/>
+      <c r="I113" s="21"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
-      <c r="L113" s="22">
+      <c r="L113" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M113" s="24"/>
-      <c r="N113" s="23"/>
+      <c r="M113" s="28"/>
+      <c r="N113" s="21"/>
       <c r="O113" s="2"/>
       <c r="Q113">
         <v>0</v>
@@ -7130,39 +7142,486 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="537">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="L112:N112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="E113:G113"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="L113:N113"/>
+    <mergeCell ref="L108:N108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="L109:N109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="E110:G110"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="L110:N110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="E111:G111"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="L111:N111"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="E109:G109"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="L103:N103"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="L104:N104"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="L105:N105"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="L106:N106"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="L107:N107"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E105:G105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="E106:G106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="E107:G107"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="E104:G104"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="L102:N102"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="L96:N96"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="L100:N100"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="L98:N98"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="L101:N101"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="L94:N94"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="L89:N89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="L90:N90"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="L87:N87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="L88:N88"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="L85:N85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="L86:N86"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="L83:N83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="L84:N84"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="L81:N81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="L79:N79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="L80:N80"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="L78:N78"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="L76:N76"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="L77:N77"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="L75:N75"/>
+    <mergeCell ref="L74:N74"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="L68:N68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="L69:N69"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="L72:N72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="L73:N73"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="L71:N71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="L66:N66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="L67:N67"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="L64:N64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="L65:N65"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="L61:N61"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="L19:N19"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
@@ -7187,486 +7646,39 @@
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="L47:N47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="L61:N61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="L64:N64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="L65:N65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="L66:N66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="L67:N67"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="L72:N72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="L73:N73"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="L70:N70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="L71:N71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="L68:N68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="L69:N69"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="L77:N77"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="L75:N75"/>
-    <mergeCell ref="L74:N74"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="L78:N78"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="L76:N76"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="L79:N79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="L80:N80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="L81:N81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="L82:N82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="L83:N83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="L84:N84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="L85:N85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="L86:N86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="L87:N87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="L88:N88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="L89:N89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="L90:N90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="L91:N91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="L92:N92"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="L93:N93"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="L94:N94"/>
-    <mergeCell ref="L102:N102"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="L96:N96"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="L100:N100"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="L98:N98"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="L101:N101"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="E104:G104"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="E105:G105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="E106:G106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="E107:G107"/>
-    <mergeCell ref="L103:N103"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="L104:N104"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="L105:N105"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="L106:N106"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="L107:N107"/>
-    <mergeCell ref="L108:N108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="L109:N109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="E110:G110"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="L110:N110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="E111:G111"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="L111:N111"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="E109:G109"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="E112:G112"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="L112:N112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="E113:G113"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="L113:N113"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/OYM/_Documentos Comunes/POO_C32017.xlsx
+++ b/OYM/_Documentos Comunes/POO_C32017.xlsx
@@ -1263,6 +1263,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1277,14 +1283,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1294,30 +1300,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1342,6 +1324,24 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1727,9 +1727,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W40" sqref="W40"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W107" sqref="W107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1747,32 +1747,32 @@
     <col min="12" max="12" width="5.28515625" customWidth="1"/>
     <col min="13" max="13" width="1" customWidth="1"/>
     <col min="14" max="15" width="0.140625" customWidth="1"/>
-    <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="4.5703125" customWidth="1"/>
-    <col min="18" max="18" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.140625" customWidth="1"/>
-    <col min="20" max="20" width="5.5703125" customWidth="1"/>
-    <col min="21" max="21" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.42578125" customWidth="1"/>
+    <col min="17" max="17" width="2.140625" customWidth="1"/>
+    <col min="18" max="18" width="2.5703125" customWidth="1"/>
+    <col min="19" max="19" width="2.42578125" customWidth="1"/>
+    <col min="20" max="20" width="2.140625" customWidth="1"/>
+    <col min="21" max="21" width="5.140625" customWidth="1"/>
+    <col min="22" max="22" width="5" customWidth="1"/>
     <col min="23" max="23" width="8" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
+      <c r="B1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1793,19 +1793,19 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
       <c r="N3" s="2"/>
       <c r="P3" t="s">
         <v>21</v>
@@ -1815,19 +1815,19 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
       <c r="N4" s="2"/>
       <c r="P4" t="s">
         <v>23</v>
@@ -1837,19 +1837,19 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
       <c r="N5" s="2"/>
       <c r="P5" t="s">
         <v>25</v>
@@ -1881,19 +1881,19 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
       <c r="N7" s="2"/>
       <c r="P7" s="6" t="s">
         <v>327</v>
@@ -1947,34 +1947,34 @@
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:26" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30" t="s">
+      <c r="B10" s="42"/>
+      <c r="C10" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="29" t="s">
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="29"/>
+      <c r="I10" s="42"/>
       <c r="J10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="29" t="s">
+      <c r="L10" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s">
         <v>8</v>
@@ -2011,35 +2011,35 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="34">
-        <v>0</v>
-      </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="17" t="s">
+      <c r="A11" s="17">
+        <v>0</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="17" t="s">
+      <c r="D11" s="20"/>
+      <c r="E11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="20">
+      <c r="F11" s="21"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="22">
         <v>10</v>
       </c>
-      <c r="I11" s="21"/>
+      <c r="I11" s="23"/>
       <c r="J11" s="5">
         <v>20</v>
       </c>
       <c r="K11" s="5">
         <v>20</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="22">
         <f>IF((Y11-50)&gt;50,50,IF((Y11-50)&lt;0,0,(Y11-50)))</f>
         <v>50</v>
       </c>
-      <c r="M11" s="28"/>
-      <c r="N11" s="21"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="23"/>
       <c r="O11" s="2"/>
       <c r="P11">
         <v>20</v>
@@ -2077,29 +2077,29 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="25" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="25" t="s">
+      <c r="D12" s="28"/>
+      <c r="E12" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="21"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="20">
+      <c r="L12" s="22">
         <f t="shared" ref="L12:L75" si="0">IF((Y12-50)&gt;50,50,IF((Y12-50)&lt;0,0,(Y12-50)))</f>
         <v>0</v>
       </c>
-      <c r="M12" s="28"/>
-      <c r="N12" s="21"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="23"/>
       <c r="O12" s="2"/>
       <c r="Q12">
         <v>0</v>
@@ -2119,29 +2119,29 @@
       </c>
     </row>
     <row r="13" spans="1:26" s="13" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="38" t="s">
+      <c r="B13" s="31"/>
+      <c r="C13" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="38" t="s">
+      <c r="D13" s="33"/>
+      <c r="E13" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="42"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="36"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
-      <c r="L13" s="41">
+      <c r="L13" s="35">
         <f t="shared" si="0"/>
-        <v>10.5</v>
-      </c>
-      <c r="M13" s="43"/>
-      <c r="N13" s="42"/>
+        <v>29.5</v>
+      </c>
+      <c r="M13" s="37"/>
+      <c r="N13" s="36"/>
       <c r="O13" s="12"/>
       <c r="P13" s="13">
         <v>16</v>
@@ -2161,38 +2161,41 @@
       <c r="V13" s="13">
         <v>2</v>
       </c>
+      <c r="W13" s="13">
+        <v>19</v>
+      </c>
       <c r="Y13" s="13">
         <f t="shared" si="1"/>
-        <v>60.5</v>
+        <v>79.5</v>
       </c>
       <c r="Z13" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="25" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="25" t="s">
+      <c r="D14" s="28"/>
+      <c r="E14" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="21"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="20">
+      <c r="L14" s="22">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="M14" s="28"/>
-      <c r="N14" s="21"/>
+        <v>50</v>
+      </c>
+      <c r="M14" s="24"/>
+      <c r="N14" s="23"/>
       <c r="O14" s="2"/>
       <c r="P14">
         <v>15</v>
@@ -2203,44 +2206,50 @@
       <c r="T14" s="10">
         <v>10</v>
       </c>
+      <c r="U14" s="15">
+        <v>15</v>
+      </c>
       <c r="V14">
         <v>2</v>
+      </c>
+      <c r="W14">
+        <v>19</v>
       </c>
       <c r="X14">
         <v>30</v>
       </c>
       <c r="Y14">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="Z14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="25" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="25" t="s">
+      <c r="D15" s="28"/>
+      <c r="E15" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="21"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="20">
+      <c r="L15" s="22">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="M15" s="28"/>
-      <c r="N15" s="21"/>
+        <v>46</v>
+      </c>
+      <c r="M15" s="24"/>
+      <c r="N15" s="23"/>
       <c r="O15" s="2"/>
       <c r="P15">
         <v>15</v>
@@ -2254,44 +2263,50 @@
       <c r="T15" s="10">
         <v>7</v>
       </c>
+      <c r="U15" s="15">
+        <v>15</v>
+      </c>
       <c r="V15">
         <v>2</v>
+      </c>
+      <c r="W15">
+        <v>14</v>
       </c>
       <c r="X15">
         <v>30</v>
       </c>
       <c r="Y15">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="Z15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="25" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="25" t="s">
+      <c r="D16" s="28"/>
+      <c r="E16" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="21"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="23"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="20">
+      <c r="L16" s="22">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="M16" s="28"/>
-      <c r="N16" s="21"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="23"/>
       <c r="O16" s="2"/>
       <c r="Q16">
         <v>0</v>
@@ -2323,29 +2338,29 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="25" t="s">
+      <c r="B17" s="26"/>
+      <c r="C17" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="25" t="s">
+      <c r="D17" s="28"/>
+      <c r="E17" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="21"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="20">
+      <c r="L17" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="28"/>
-      <c r="N17" s="21"/>
+        <v>43</v>
+      </c>
+      <c r="M17" s="24"/>
+      <c r="N17" s="23"/>
       <c r="O17" s="2"/>
       <c r="P17">
         <v>13</v>
@@ -2359,44 +2374,50 @@
       <c r="T17" s="10">
         <v>2</v>
       </c>
+      <c r="U17" s="15">
+        <v>16</v>
+      </c>
       <c r="V17">
         <v>2</v>
+      </c>
+      <c r="W17">
+        <v>14</v>
       </c>
       <c r="X17">
         <v>30</v>
       </c>
       <c r="Y17">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="Z17">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="25" t="s">
+      <c r="B18" s="26"/>
+      <c r="C18" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="25" t="s">
+      <c r="D18" s="28"/>
+      <c r="E18" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="21"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="20">
+      <c r="L18" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="28"/>
-      <c r="N18" s="21"/>
+        <v>41</v>
+      </c>
+      <c r="M18" s="24"/>
+      <c r="N18" s="23"/>
       <c r="O18" s="2"/>
       <c r="P18">
         <v>14</v>
@@ -2410,44 +2431,50 @@
       <c r="T18" s="10">
         <v>4</v>
       </c>
+      <c r="U18" s="15">
+        <v>14</v>
+      </c>
       <c r="V18">
         <v>2</v>
+      </c>
+      <c r="W18">
+        <v>13</v>
       </c>
       <c r="X18">
         <v>30</v>
       </c>
       <c r="Y18">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="Z18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="25" t="s">
+      <c r="B19" s="26"/>
+      <c r="C19" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="25" t="s">
+      <c r="D19" s="28"/>
+      <c r="E19" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="21"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="20">
+      <c r="L19" s="22">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="M19" s="28"/>
-      <c r="N19" s="21"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="23"/>
       <c r="O19" s="2"/>
       <c r="P19">
         <v>14</v>
@@ -2476,29 +2503,29 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="25" t="s">
+      <c r="B20" s="26"/>
+      <c r="C20" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="25" t="s">
+      <c r="D20" s="28"/>
+      <c r="E20" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="21"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="23"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="20">
+      <c r="L20" s="22">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="M20" s="28"/>
-      <c r="N20" s="21"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="23"/>
       <c r="O20" s="2"/>
       <c r="P20">
         <v>16</v>
@@ -2530,29 +2557,29 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="25" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="25" t="s">
+      <c r="D21" s="28"/>
+      <c r="E21" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="21"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="20">
+      <c r="L21" s="22">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="M21" s="28"/>
-      <c r="N21" s="21"/>
+        <v>45</v>
+      </c>
+      <c r="M21" s="24"/>
+      <c r="N21" s="23"/>
       <c r="O21" s="2"/>
       <c r="P21">
         <v>14</v>
@@ -2566,44 +2593,50 @@
       <c r="T21" s="10">
         <v>10</v>
       </c>
+      <c r="U21" s="15">
+        <v>14</v>
+      </c>
       <c r="V21">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="W21">
+        <v>13</v>
       </c>
       <c r="X21">
         <v>30</v>
       </c>
       <c r="Y21">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="Z21">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="25" t="s">
+      <c r="B22" s="26"/>
+      <c r="C22" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="25" t="s">
+      <c r="D22" s="28"/>
+      <c r="E22" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="21"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="20">
+      <c r="L22" s="22">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="M22" s="28"/>
-      <c r="N22" s="21"/>
+        <v>50</v>
+      </c>
+      <c r="M22" s="24"/>
+      <c r="N22" s="23"/>
       <c r="O22" s="2"/>
       <c r="P22">
         <v>18</v>
@@ -2623,38 +2656,41 @@
       <c r="W22">
         <v>19</v>
       </c>
+      <c r="X22">
+        <v>30</v>
+      </c>
       <c r="Y22">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="Z22">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="25" t="s">
+      <c r="B23" s="26"/>
+      <c r="C23" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="25" t="s">
+      <c r="D23" s="28"/>
+      <c r="E23" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="21"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="23"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="20">
+      <c r="L23" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M23" s="28"/>
-      <c r="N23" s="21"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="23"/>
       <c r="O23" s="2"/>
       <c r="Q23">
         <v>0</v>
@@ -2674,29 +2710,29 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="25" t="s">
+      <c r="B24" s="26"/>
+      <c r="C24" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="25" t="s">
+      <c r="D24" s="28"/>
+      <c r="E24" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="21"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="20">
+      <c r="L24" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M24" s="28"/>
-      <c r="N24" s="21"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="23"/>
       <c r="O24" s="2"/>
       <c r="Q24">
         <v>0</v>
@@ -2722,29 +2758,29 @@
       </c>
     </row>
     <row r="25" spans="1:26" s="13" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38" t="s">
+      <c r="B25" s="31"/>
+      <c r="C25" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="38" t="s">
+      <c r="D25" s="33"/>
+      <c r="E25" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="F25" s="40"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="42"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="36"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
-      <c r="L25" s="41">
+      <c r="L25" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M25" s="43"/>
-      <c r="N25" s="42"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="36"/>
       <c r="O25" s="12"/>
       <c r="Q25" s="13">
         <v>0</v>
@@ -2763,36 +2799,36 @@
       </c>
       <c r="Y25" s="13">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="Z25" s="13">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="25" t="s">
+      <c r="B26" s="26"/>
+      <c r="C26" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="25" t="s">
+      <c r="D26" s="28"/>
+      <c r="E26" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="21"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="23"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="20">
+      <c r="L26" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M26" s="28"/>
-      <c r="N26" s="21"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="23"/>
       <c r="O26" s="2"/>
       <c r="P26">
         <v>15</v>
@@ -2815,29 +2851,29 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="25" t="s">
+      <c r="B27" s="26"/>
+      <c r="C27" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="25" t="s">
+      <c r="D27" s="28"/>
+      <c r="E27" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="F27" s="27"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="21"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="23"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="20">
+      <c r="L27" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M27" s="28"/>
-      <c r="N27" s="21"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="23"/>
       <c r="O27" s="2"/>
       <c r="P27">
         <v>14</v>
@@ -2866,29 +2902,29 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="25" t="s">
+      <c r="B28" s="26"/>
+      <c r="C28" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="25" t="s">
+      <c r="D28" s="28"/>
+      <c r="E28" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="21"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="23"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="20">
+      <c r="L28" s="22">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="M28" s="28"/>
-      <c r="N28" s="21"/>
+        <v>45</v>
+      </c>
+      <c r="M28" s="24"/>
+      <c r="N28" s="23"/>
       <c r="O28" s="2"/>
       <c r="P28">
         <v>18</v>
@@ -2902,44 +2938,50 @@
       <c r="T28" s="10">
         <v>2</v>
       </c>
+      <c r="U28" s="15">
+        <v>15</v>
+      </c>
       <c r="V28">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="W28">
+        <v>13</v>
       </c>
       <c r="X28">
         <v>30</v>
       </c>
       <c r="Y28">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="Z28">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="25" t="s">
+      <c r="B29" s="26"/>
+      <c r="C29" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="25" t="s">
+      <c r="D29" s="28"/>
+      <c r="E29" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="21"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="23"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="20">
+      <c r="L29" s="22">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="M29" s="28"/>
-      <c r="N29" s="21"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="23"/>
       <c r="O29" s="2"/>
       <c r="P29">
         <v>16</v>
@@ -2971,29 +3013,29 @@
       </c>
     </row>
     <row r="30" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="25" t="s">
+      <c r="B30" s="26"/>
+      <c r="C30" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="25" t="s">
+      <c r="D30" s="28"/>
+      <c r="E30" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="21"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="23"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="20">
+      <c r="L30" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M30" s="28"/>
-      <c r="N30" s="21"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="23"/>
       <c r="O30" s="2"/>
       <c r="Q30">
         <v>0</v>
@@ -3013,29 +3055,29 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="25" t="s">
+      <c r="B31" s="26"/>
+      <c r="C31" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="25" t="s">
+      <c r="D31" s="28"/>
+      <c r="E31" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="F31" s="27"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="21"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="23"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="20">
+      <c r="L31" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M31" s="28"/>
-      <c r="N31" s="21"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="23"/>
       <c r="O31" s="2"/>
       <c r="P31">
         <v>14</v>
@@ -3064,29 +3106,29 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="25" t="s">
+      <c r="B32" s="26"/>
+      <c r="C32" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="25" t="s">
+      <c r="D32" s="28"/>
+      <c r="E32" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="21"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="23"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="20">
+      <c r="L32" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M32" s="28"/>
-      <c r="N32" s="21"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="23"/>
       <c r="O32" s="2"/>
       <c r="Q32">
         <v>0</v>
@@ -3106,29 +3148,29 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="25" t="s">
+      <c r="B33" s="26"/>
+      <c r="C33" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="25" t="s">
+      <c r="D33" s="28"/>
+      <c r="E33" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="F33" s="27"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="21"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="23"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="20">
+      <c r="L33" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="28"/>
-      <c r="N33" s="21"/>
+        <v>27</v>
+      </c>
+      <c r="M33" s="24"/>
+      <c r="N33" s="23"/>
       <c r="O33" s="2"/>
       <c r="P33">
         <v>18</v>
@@ -3139,6 +3181,9 @@
       <c r="T33" s="10">
         <v>9</v>
       </c>
+      <c r="U33" s="15">
+        <v>15</v>
+      </c>
       <c r="V33">
         <v>2</v>
       </c>
@@ -3147,36 +3192,36 @@
       </c>
       <c r="Y33">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="Z33">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="25" t="s">
+      <c r="B34" s="26"/>
+      <c r="C34" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="25" t="s">
+      <c r="D34" s="28"/>
+      <c r="E34" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="F34" s="27"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="21"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="23"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="20">
+      <c r="L34" s="22">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="M34" s="28"/>
-      <c r="N34" s="21"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="23"/>
       <c r="O34" s="2"/>
       <c r="P34">
         <v>15</v>
@@ -3214,29 +3259,29 @@
       </c>
     </row>
     <row r="35" spans="1:26" s="13" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="38" t="s">
+      <c r="B35" s="31"/>
+      <c r="C35" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="D35" s="39"/>
-      <c r="E35" s="38" t="s">
+      <c r="D35" s="33"/>
+      <c r="E35" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="F35" s="40"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="42"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="36"/>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
-      <c r="L35" s="41">
+      <c r="L35" s="35">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="M35" s="43"/>
-      <c r="N35" s="42"/>
+        <v>32</v>
+      </c>
+      <c r="M35" s="37"/>
+      <c r="N35" s="36"/>
       <c r="O35" s="12"/>
       <c r="P35" s="13">
         <v>17</v>
@@ -3257,40 +3302,40 @@
         <v>2</v>
       </c>
       <c r="W35" s="13">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y35" s="13">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z35" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="25" t="s">
+      <c r="B36" s="26"/>
+      <c r="C36" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="25" t="s">
+      <c r="D36" s="28"/>
+      <c r="E36" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="F36" s="27"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="21"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="23"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="20">
+      <c r="L36" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="28"/>
-      <c r="N36" s="21"/>
+        <v>19</v>
+      </c>
+      <c r="M36" s="24"/>
+      <c r="N36" s="23"/>
       <c r="O36" s="2"/>
       <c r="P36">
         <v>19</v>
@@ -3304,41 +3349,47 @@
       <c r="T36" s="10">
         <v>7</v>
       </c>
+      <c r="U36" s="15">
+        <v>15</v>
+      </c>
       <c r="V36">
         <v>2</v>
+      </c>
+      <c r="W36">
+        <v>13</v>
       </c>
       <c r="Y36">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="25" t="s">
+      <c r="B37" s="26"/>
+      <c r="C37" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="25" t="s">
+      <c r="D37" s="28"/>
+      <c r="E37" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="F37" s="27"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="21"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="23"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="20">
+      <c r="L37" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M37" s="28"/>
-      <c r="N37" s="21"/>
+        <v>14</v>
+      </c>
+      <c r="M37" s="24"/>
+      <c r="N37" s="23"/>
       <c r="O37" s="2"/>
       <c r="P37">
         <v>15</v>
@@ -3352,41 +3403,47 @@
       <c r="T37" s="10">
         <v>2</v>
       </c>
+      <c r="U37" s="15">
+        <v>16</v>
+      </c>
       <c r="V37">
         <v>2</v>
+      </c>
+      <c r="W37">
+        <v>13</v>
       </c>
       <c r="Y37">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="25" t="s">
+      <c r="B38" s="26"/>
+      <c r="C38" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="25" t="s">
+      <c r="D38" s="28"/>
+      <c r="E38" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="F38" s="27"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="21"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="23"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="20">
+      <c r="L38" s="22">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="M38" s="28"/>
-      <c r="N38" s="21"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="23"/>
       <c r="O38" s="2"/>
       <c r="P38">
         <v>16</v>
@@ -3418,29 +3475,29 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="25" t="s">
+      <c r="B39" s="26"/>
+      <c r="C39" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="25" t="s">
+      <c r="D39" s="28"/>
+      <c r="E39" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="F39" s="27"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="21"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="23"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="20">
+      <c r="L39" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M39" s="28"/>
-      <c r="N39" s="21"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="23"/>
       <c r="O39" s="2"/>
       <c r="Q39">
         <v>0</v>
@@ -3460,29 +3517,29 @@
       </c>
     </row>
     <row r="40" spans="1:26" s="13" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="36" t="s">
+      <c r="A40" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="37"/>
-      <c r="C40" s="38" t="s">
+      <c r="B40" s="31"/>
+      <c r="C40" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="D40" s="39"/>
-      <c r="E40" s="38" t="s">
+      <c r="D40" s="33"/>
+      <c r="E40" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="40"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="42"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="36"/>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
-      <c r="L40" s="41">
+      <c r="L40" s="35">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="M40" s="43"/>
-      <c r="N40" s="42"/>
+        <v>21</v>
+      </c>
+      <c r="M40" s="37"/>
+      <c r="N40" s="36"/>
       <c r="O40" s="12"/>
       <c r="P40" s="13">
         <v>13</v>
@@ -3491,10 +3548,10 @@
         <v>9</v>
       </c>
       <c r="R40" s="13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T40" s="14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U40" s="13">
         <v>18</v>
@@ -3502,38 +3559,41 @@
       <c r="V40" s="13">
         <v>2</v>
       </c>
+      <c r="W40" s="13">
+        <v>13</v>
+      </c>
       <c r="Y40" s="13">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="Z40" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="25" t="s">
+      <c r="B41" s="26"/>
+      <c r="C41" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="D41" s="26"/>
-      <c r="E41" s="25" t="s">
+      <c r="D41" s="28"/>
+      <c r="E41" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="F41" s="27"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="21"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="23"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
-      <c r="L41" s="20">
+      <c r="L41" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M41" s="28"/>
-      <c r="N41" s="21"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="23"/>
       <c r="O41" s="2"/>
       <c r="Q41">
         <v>0</v>
@@ -3553,29 +3613,29 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="25" t="s">
+      <c r="B42" s="26"/>
+      <c r="C42" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="D42" s="26"/>
-      <c r="E42" s="25" t="s">
+      <c r="D42" s="28"/>
+      <c r="E42" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="F42" s="27"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="21"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="23"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
-      <c r="L42" s="20">
+      <c r="L42" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M42" s="28"/>
-      <c r="N42" s="21"/>
+        <v>7</v>
+      </c>
+      <c r="M42" s="24"/>
+      <c r="N42" s="23"/>
       <c r="O42" s="2"/>
       <c r="Q42">
         <v>9</v>
@@ -3583,41 +3643,47 @@
       <c r="T42" s="10">
         <v>0</v>
       </c>
+      <c r="U42">
+        <v>15</v>
+      </c>
       <c r="V42">
         <v>2</v>
+      </c>
+      <c r="W42">
+        <v>18</v>
       </c>
       <c r="Y42">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="Z42">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="25" t="s">
+      <c r="B43" s="26"/>
+      <c r="C43" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="D43" s="26"/>
-      <c r="E43" s="25" t="s">
+      <c r="D43" s="28"/>
+      <c r="E43" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="F43" s="27"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="21"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="23"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
-      <c r="L43" s="20">
+      <c r="L43" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M43" s="28"/>
-      <c r="N43" s="21"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="23"/>
       <c r="O43" s="2"/>
       <c r="P43">
         <v>11</v>
@@ -3649,29 +3715,29 @@
       </c>
     </row>
     <row r="44" spans="1:26" s="13" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="36" t="s">
+      <c r="A44" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="37"/>
-      <c r="C44" s="38" t="s">
+      <c r="B44" s="31"/>
+      <c r="C44" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="D44" s="39"/>
-      <c r="E44" s="38" t="s">
+      <c r="D44" s="33"/>
+      <c r="E44" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="F44" s="40"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="42"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="36"/>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
-      <c r="L44" s="41">
+      <c r="L44" s="35">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="M44" s="43"/>
-      <c r="N44" s="42"/>
+        <v>37</v>
+      </c>
+      <c r="M44" s="37"/>
+      <c r="N44" s="36"/>
       <c r="O44" s="12"/>
       <c r="P44" s="13">
         <v>20</v>
@@ -3691,38 +3757,41 @@
       <c r="V44" s="13">
         <v>2</v>
       </c>
+      <c r="W44" s="13">
+        <v>16</v>
+      </c>
       <c r="Y44" s="13">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="Z44" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="32"/>
-      <c r="C45" s="25" t="s">
+      <c r="B45" s="26"/>
+      <c r="C45" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="D45" s="26"/>
-      <c r="E45" s="25" t="s">
+      <c r="D45" s="28"/>
+      <c r="E45" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="F45" s="27"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="21"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="23"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
-      <c r="L45" s="20">
+      <c r="L45" s="22">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M45" s="28"/>
-      <c r="N45" s="21"/>
+        <v>50</v>
+      </c>
+      <c r="M45" s="24"/>
+      <c r="N45" s="23"/>
       <c r="O45" s="2"/>
       <c r="P45">
         <v>14</v>
@@ -3733,44 +3802,50 @@
       <c r="T45" s="10">
         <v>9</v>
       </c>
+      <c r="U45" s="15">
+        <v>15</v>
+      </c>
       <c r="V45">
         <v>2</v>
+      </c>
+      <c r="W45">
+        <v>19</v>
       </c>
       <c r="X45">
         <v>30</v>
       </c>
       <c r="Y45">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="Z45">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="32"/>
-      <c r="C46" s="25" t="s">
+      <c r="B46" s="26"/>
+      <c r="C46" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="D46" s="26"/>
-      <c r="E46" s="25" t="s">
+      <c r="D46" s="28"/>
+      <c r="E46" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="F46" s="27"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="21"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="23"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
-      <c r="L46" s="20">
+      <c r="L46" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M46" s="28"/>
-      <c r="N46" s="21"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="23"/>
       <c r="O46" s="2"/>
       <c r="P46">
         <v>13</v>
@@ -3796,29 +3871,29 @@
       </c>
     </row>
     <row r="47" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="32"/>
-      <c r="C47" s="25" t="s">
+      <c r="B47" s="26"/>
+      <c r="C47" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="D47" s="26"/>
-      <c r="E47" s="25" t="s">
+      <c r="D47" s="28"/>
+      <c r="E47" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="F47" s="27"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="21"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="23"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
-      <c r="L47" s="20">
+      <c r="L47" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M47" s="28"/>
-      <c r="N47" s="21"/>
+        <v>26</v>
+      </c>
+      <c r="M47" s="24"/>
+      <c r="N47" s="23"/>
       <c r="O47" s="2"/>
       <c r="P47">
         <v>20</v>
@@ -3830,43 +3905,49 @@
         <v>10</v>
       </c>
       <c r="T47" s="10">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="U47" s="15">
+        <v>15</v>
       </c>
       <c r="V47">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="W47">
+        <v>16</v>
       </c>
       <c r="Y47">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="Z47">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="32"/>
-      <c r="C48" s="25" t="s">
+      <c r="B48" s="26"/>
+      <c r="C48" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="25" t="s">
+      <c r="D48" s="28"/>
+      <c r="E48" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="21"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="23"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
-      <c r="L48" s="20">
+      <c r="L48" s="22">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="M48" s="28"/>
-      <c r="N48" s="21"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="23"/>
       <c r="O48" s="2"/>
       <c r="P48">
         <v>14</v>
@@ -3898,29 +3979,29 @@
       </c>
     </row>
     <row r="49" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B49" s="32"/>
-      <c r="C49" s="25" t="s">
+      <c r="B49" s="26"/>
+      <c r="C49" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="D49" s="26"/>
-      <c r="E49" s="25" t="s">
+      <c r="D49" s="28"/>
+      <c r="E49" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="F49" s="27"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="21"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="23"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
-      <c r="L49" s="20">
+      <c r="L49" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M49" s="28"/>
-      <c r="N49" s="21"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="23"/>
       <c r="O49" s="2"/>
       <c r="P49">
         <v>16</v>
@@ -3943,29 +4024,29 @@
       </c>
     </row>
     <row r="50" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="32"/>
-      <c r="C50" s="25" t="s">
+      <c r="B50" s="26"/>
+      <c r="C50" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="D50" s="26"/>
-      <c r="E50" s="25" t="s">
+      <c r="D50" s="28"/>
+      <c r="E50" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="F50" s="27"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="21"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="23"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="20">
+      <c r="L50" s="22">
         <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="M50" s="28"/>
-      <c r="N50" s="21"/>
+        <v>41</v>
+      </c>
+      <c r="M50" s="24"/>
+      <c r="N50" s="23"/>
       <c r="O50" s="2"/>
       <c r="P50">
         <v>13</v>
@@ -3989,43 +4070,43 @@
         <v>2</v>
       </c>
       <c r="W50">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="X50">
         <v>30</v>
       </c>
       <c r="Y50">
         <f t="shared" si="1"/>
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="Z50">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="31" t="s">
+      <c r="A51" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B51" s="32"/>
-      <c r="C51" s="25" t="s">
+      <c r="B51" s="26"/>
+      <c r="C51" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="D51" s="26"/>
-      <c r="E51" s="25" t="s">
+      <c r="D51" s="28"/>
+      <c r="E51" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="F51" s="27"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="21"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="23"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
-      <c r="L51" s="20">
+      <c r="L51" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M51" s="28"/>
-      <c r="N51" s="21"/>
+        <v>36</v>
+      </c>
+      <c r="M51" s="24"/>
+      <c r="N51" s="23"/>
       <c r="O51" s="2"/>
       <c r="Q51">
         <v>0</v>
@@ -4036,41 +4117,50 @@
       <c r="T51" s="10">
         <v>10</v>
       </c>
+      <c r="U51" s="15">
+        <v>16</v>
+      </c>
       <c r="V51">
         <v>2</v>
+      </c>
+      <c r="W51">
+        <v>14</v>
+      </c>
+      <c r="X51">
+        <v>30</v>
       </c>
       <c r="Y51">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="Z51">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B52" s="32"/>
-      <c r="C52" s="25" t="s">
+      <c r="B52" s="26"/>
+      <c r="C52" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="D52" s="26"/>
-      <c r="E52" s="25" t="s">
+      <c r="D52" s="28"/>
+      <c r="E52" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="F52" s="27"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="21"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="23"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
-      <c r="L52" s="20">
+      <c r="L52" s="22">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="M52" s="28"/>
-      <c r="N52" s="21"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="23"/>
       <c r="O52" s="2"/>
       <c r="P52">
         <v>13</v>
@@ -4105,29 +4195,29 @@
       </c>
     </row>
     <row r="53" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="32"/>
-      <c r="C53" s="25" t="s">
+      <c r="B53" s="26"/>
+      <c r="C53" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="D53" s="26"/>
-      <c r="E53" s="25" t="s">
+      <c r="D53" s="28"/>
+      <c r="E53" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="F53" s="27"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="21"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="23"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
-      <c r="L53" s="20">
+      <c r="L53" s="22">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="M53" s="28"/>
-      <c r="N53" s="21"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="23"/>
       <c r="O53" s="2"/>
       <c r="P53">
         <v>17</v>
@@ -4165,29 +4255,29 @@
       </c>
     </row>
     <row r="54" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B54" s="32"/>
-      <c r="C54" s="25" t="s">
+      <c r="B54" s="26"/>
+      <c r="C54" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="D54" s="26"/>
-      <c r="E54" s="25" t="s">
+      <c r="D54" s="28"/>
+      <c r="E54" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="F54" s="27"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="21"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="23"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="20">
+      <c r="L54" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M54" s="28"/>
-      <c r="N54" s="21"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="23"/>
       <c r="O54" s="2"/>
       <c r="Q54">
         <v>0</v>
@@ -4207,29 +4297,29 @@
       </c>
     </row>
     <row r="55" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="31" t="s">
+      <c r="A55" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B55" s="32"/>
-      <c r="C55" s="25" t="s">
+      <c r="B55" s="26"/>
+      <c r="C55" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="D55" s="26"/>
-      <c r="E55" s="25" t="s">
+      <c r="D55" s="28"/>
+      <c r="E55" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="F55" s="27"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="21"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="23"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="20">
+      <c r="L55" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M55" s="28"/>
-      <c r="N55" s="21"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="23"/>
       <c r="O55" s="2"/>
       <c r="Q55">
         <v>0</v>
@@ -4240,41 +4330,47 @@
       <c r="T55" s="10">
         <v>2</v>
       </c>
+      <c r="U55" s="15">
+        <v>16</v>
+      </c>
       <c r="V55">
         <v>2</v>
+      </c>
+      <c r="W55">
+        <v>13</v>
       </c>
       <c r="Y55">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="Z55">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="31" t="s">
+      <c r="A56" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B56" s="32"/>
-      <c r="C56" s="25" t="s">
+      <c r="B56" s="26"/>
+      <c r="C56" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="D56" s="26"/>
-      <c r="E56" s="25" t="s">
+      <c r="D56" s="28"/>
+      <c r="E56" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="F56" s="27"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="21"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="23"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="20">
+      <c r="L56" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M56" s="28"/>
-      <c r="N56" s="21"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="23"/>
       <c r="O56" s="2"/>
       <c r="Q56">
         <v>0</v>
@@ -4285,41 +4381,47 @@
       <c r="T56" s="10">
         <v>5</v>
       </c>
+      <c r="U56" s="15">
+        <v>17</v>
+      </c>
       <c r="V56">
         <v>1</v>
       </c>
+      <c r="W56">
+        <v>15</v>
+      </c>
       <c r="Y56">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="Z56">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="31" t="s">
+      <c r="A57" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B57" s="32"/>
-      <c r="C57" s="25" t="s">
+      <c r="B57" s="26"/>
+      <c r="C57" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="D57" s="26"/>
-      <c r="E57" s="25" t="s">
+      <c r="D57" s="28"/>
+      <c r="E57" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="F57" s="27"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="21"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="23"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="20">
+      <c r="L57" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M57" s="28"/>
-      <c r="N57" s="21"/>
+        <v>28.5</v>
+      </c>
+      <c r="M57" s="24"/>
+      <c r="N57" s="23"/>
       <c r="O57" s="2"/>
       <c r="Q57">
         <v>8</v>
@@ -4330,44 +4432,47 @@
       <c r="T57" s="10">
         <v>5</v>
       </c>
+      <c r="U57" s="15">
+        <v>16</v>
+      </c>
       <c r="V57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W57">
         <v>19</v>
       </c>
       <c r="Y57">
         <f t="shared" si="1"/>
-        <v>26.5</v>
+        <v>78.5</v>
       </c>
       <c r="Z57">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="31" t="s">
+      <c r="A58" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B58" s="32"/>
-      <c r="C58" s="25" t="s">
+      <c r="B58" s="26"/>
+      <c r="C58" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="D58" s="26"/>
-      <c r="E58" s="25" t="s">
+      <c r="D58" s="28"/>
+      <c r="E58" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="F58" s="27"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="21"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="23"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="20">
+      <c r="L58" s="22">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="M58" s="28"/>
-      <c r="N58" s="21"/>
+        <v>47</v>
+      </c>
+      <c r="M58" s="24"/>
+      <c r="N58" s="23"/>
       <c r="O58" s="2"/>
       <c r="P58">
         <v>14</v>
@@ -4381,44 +4486,50 @@
       <c r="T58" s="10">
         <v>8</v>
       </c>
+      <c r="U58" s="15">
+        <v>16</v>
+      </c>
       <c r="V58">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="W58">
+        <v>13</v>
       </c>
       <c r="X58">
         <v>30</v>
       </c>
       <c r="Y58">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="Z58">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="31" t="s">
+      <c r="A59" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B59" s="32"/>
-      <c r="C59" s="25" t="s">
+      <c r="B59" s="26"/>
+      <c r="C59" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="D59" s="26"/>
-      <c r="E59" s="25" t="s">
+      <c r="D59" s="28"/>
+      <c r="E59" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="F59" s="27"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="21"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="23"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="20">
+      <c r="L59" s="22">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="M59" s="28"/>
-      <c r="N59" s="21"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="23"/>
       <c r="O59" s="2"/>
       <c r="P59">
         <v>13</v>
@@ -4450,29 +4561,29 @@
       </c>
     </row>
     <row r="60" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="31" t="s">
+      <c r="A60" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B60" s="32"/>
-      <c r="C60" s="25" t="s">
+      <c r="B60" s="26"/>
+      <c r="C60" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="D60" s="26"/>
-      <c r="E60" s="25" t="s">
+      <c r="D60" s="28"/>
+      <c r="E60" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="F60" s="27"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="21"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="23"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="20">
+      <c r="L60" s="22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="M60" s="28"/>
-      <c r="N60" s="21"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="23"/>
       <c r="O60" s="2"/>
       <c r="P60">
         <v>13</v>
@@ -4507,29 +4618,29 @@
       </c>
     </row>
     <row r="61" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="31" t="s">
+      <c r="A61" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B61" s="32"/>
-      <c r="C61" s="25" t="s">
+      <c r="B61" s="26"/>
+      <c r="C61" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="D61" s="26"/>
-      <c r="E61" s="25" t="s">
+      <c r="D61" s="28"/>
+      <c r="E61" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="F61" s="27"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="21"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="23"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="20">
+      <c r="L61" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M61" s="28"/>
-      <c r="N61" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="M61" s="24"/>
+      <c r="N61" s="23"/>
       <c r="O61" s="2"/>
       <c r="P61">
         <v>14</v>
@@ -4540,6 +4651,9 @@
       <c r="T61" s="10">
         <v>10</v>
       </c>
+      <c r="U61" s="15">
+        <v>15</v>
+      </c>
       <c r="V61">
         <v>2</v>
       </c>
@@ -4548,36 +4662,36 @@
       </c>
       <c r="Y61">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="Z61">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B62" s="32"/>
-      <c r="C62" s="25" t="s">
+      <c r="B62" s="26"/>
+      <c r="C62" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="D62" s="26"/>
-      <c r="E62" s="25" t="s">
+      <c r="D62" s="28"/>
+      <c r="E62" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="F62" s="27"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="21"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="23"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="20">
+      <c r="L62" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M62" s="28"/>
-      <c r="N62" s="21"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="23"/>
       <c r="O62" s="2"/>
       <c r="P62">
         <v>13</v>
@@ -4600,29 +4714,29 @@
       </c>
     </row>
     <row r="63" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="31" t="s">
+      <c r="A63" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B63" s="32"/>
-      <c r="C63" s="25" t="s">
+      <c r="B63" s="26"/>
+      <c r="C63" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="D63" s="26"/>
-      <c r="E63" s="25" t="s">
+      <c r="D63" s="28"/>
+      <c r="E63" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="F63" s="27"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="21"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="23"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="20">
+      <c r="L63" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M63" s="28"/>
-      <c r="N63" s="21"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="23"/>
       <c r="O63" s="2"/>
       <c r="Q63">
         <v>0</v>
@@ -4642,29 +4756,29 @@
       </c>
     </row>
     <row r="64" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="31" t="s">
+      <c r="A64" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B64" s="32"/>
-      <c r="C64" s="25" t="s">
+      <c r="B64" s="26"/>
+      <c r="C64" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="D64" s="26"/>
-      <c r="E64" s="25" t="s">
+      <c r="D64" s="28"/>
+      <c r="E64" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="F64" s="27"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="21"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="23"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="20">
+      <c r="L64" s="22">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="M64" s="28"/>
-      <c r="N64" s="21"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="23"/>
       <c r="O64" s="2"/>
       <c r="P64">
         <v>18</v>
@@ -4699,29 +4813,29 @@
       </c>
     </row>
     <row r="65" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="31" t="s">
+      <c r="A65" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B65" s="32"/>
-      <c r="C65" s="25" t="s">
+      <c r="B65" s="26"/>
+      <c r="C65" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="D65" s="26"/>
-      <c r="E65" s="25" t="s">
+      <c r="D65" s="28"/>
+      <c r="E65" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="F65" s="27"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="21"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="23"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="20">
+      <c r="L65" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M65" s="28"/>
-      <c r="N65" s="21"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="23"/>
       <c r="O65" s="2"/>
       <c r="Q65">
         <v>0</v>
@@ -4741,29 +4855,29 @@
       </c>
     </row>
     <row r="66" spans="1:26" s="13" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="36" t="s">
+      <c r="A66" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="B66" s="37"/>
-      <c r="C66" s="38" t="s">
+      <c r="B66" s="31"/>
+      <c r="C66" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="D66" s="39"/>
-      <c r="E66" s="38" t="s">
+      <c r="D66" s="33"/>
+      <c r="E66" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="F66" s="40"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="41"/>
-      <c r="I66" s="42"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="36"/>
       <c r="J66" s="11"/>
       <c r="K66" s="11"/>
-      <c r="L66" s="41">
+      <c r="L66" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M66" s="43"/>
-      <c r="N66" s="42"/>
+      <c r="M66" s="37"/>
+      <c r="N66" s="36"/>
       <c r="O66" s="12"/>
       <c r="P66" s="13">
         <v>13</v>
@@ -4786,29 +4900,29 @@
       </c>
     </row>
     <row r="67" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="31" t="s">
+      <c r="A67" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="32"/>
-      <c r="C67" s="25" t="s">
+      <c r="B67" s="26"/>
+      <c r="C67" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="D67" s="26"/>
-      <c r="E67" s="25" t="s">
+      <c r="D67" s="28"/>
+      <c r="E67" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="F67" s="27"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="21"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="23"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="20">
+      <c r="L67" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M67" s="28"/>
-      <c r="N67" s="21"/>
+        <v>18</v>
+      </c>
+      <c r="M67" s="24"/>
+      <c r="N67" s="23"/>
       <c r="O67" s="2"/>
       <c r="P67">
         <v>15</v>
@@ -4825,41 +4939,47 @@
       <c r="T67" s="10">
         <v>8</v>
       </c>
+      <c r="U67" s="15">
+        <v>14</v>
+      </c>
       <c r="V67">
         <v>2</v>
+      </c>
+      <c r="W67">
+        <v>17</v>
       </c>
       <c r="Y67">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="Z67">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="31" t="s">
+      <c r="A68" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B68" s="32"/>
-      <c r="C68" s="25" t="s">
+      <c r="B68" s="26"/>
+      <c r="C68" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="D68" s="26"/>
-      <c r="E68" s="25" t="s">
+      <c r="D68" s="28"/>
+      <c r="E68" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="F68" s="27"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="21"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="23"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-      <c r="L68" s="20">
+      <c r="L68" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M68" s="28"/>
-      <c r="N68" s="21"/>
+        <v>27</v>
+      </c>
+      <c r="M68" s="24"/>
+      <c r="N68" s="23"/>
       <c r="O68" s="2"/>
       <c r="P68">
         <v>15</v>
@@ -4873,44 +4993,50 @@
       <c r="T68" s="10">
         <v>2</v>
       </c>
+      <c r="U68" s="15">
+        <v>14</v>
+      </c>
       <c r="V68">
         <v>1</v>
       </c>
+      <c r="W68">
+        <v>14</v>
+      </c>
       <c r="X68">
         <v>30</v>
       </c>
       <c r="Y68">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="Z68">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="31" t="s">
+      <c r="A69" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B69" s="32"/>
-      <c r="C69" s="25" t="s">
+      <c r="B69" s="26"/>
+      <c r="C69" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="D69" s="26"/>
-      <c r="E69" s="25" t="s">
+      <c r="D69" s="28"/>
+      <c r="E69" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="F69" s="27"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="21"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="23"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="20">
+      <c r="L69" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M69" s="28"/>
-      <c r="N69" s="21"/>
+        <v>4</v>
+      </c>
+      <c r="M69" s="24"/>
+      <c r="N69" s="23"/>
       <c r="O69" s="2"/>
       <c r="Q69">
         <v>10</v>
@@ -4918,41 +5044,47 @@
       <c r="T69" s="10">
         <v>10</v>
       </c>
+      <c r="U69">
+        <v>15</v>
+      </c>
       <c r="V69">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="W69">
+        <v>14</v>
       </c>
       <c r="Y69">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="Z69">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="31" t="s">
+      <c r="A70" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B70" s="32"/>
-      <c r="C70" s="25" t="s">
+      <c r="B70" s="26"/>
+      <c r="C70" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="D70" s="26"/>
-      <c r="E70" s="25" t="s">
+      <c r="D70" s="28"/>
+      <c r="E70" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="F70" s="27"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="21"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="23"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
-      <c r="L70" s="20">
+      <c r="L70" s="22">
         <f t="shared" si="0"/>
-        <v>5.3333333333333286</v>
-      </c>
-      <c r="M70" s="28"/>
-      <c r="N70" s="21"/>
+        <v>50</v>
+      </c>
+      <c r="M70" s="24"/>
+      <c r="N70" s="23"/>
       <c r="O70" s="2"/>
       <c r="P70">
         <v>18</v>
@@ -4969,44 +5101,50 @@
       <c r="T70" s="10">
         <v>7</v>
       </c>
+      <c r="U70" s="15">
+        <v>16</v>
+      </c>
       <c r="V70">
         <v>2</v>
+      </c>
+      <c r="W70">
+        <v>16</v>
       </c>
       <c r="X70">
         <v>30</v>
       </c>
       <c r="Y70">
         <f t="shared" si="1"/>
-        <v>55.333333333333329</v>
+        <v>103.33333333333333</v>
       </c>
       <c r="Z70">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="31" t="s">
+      <c r="A71" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B71" s="32"/>
-      <c r="C71" s="25" t="s">
+      <c r="B71" s="26"/>
+      <c r="C71" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="D71" s="26"/>
-      <c r="E71" s="25" t="s">
+      <c r="D71" s="28"/>
+      <c r="E71" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="F71" s="27"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="21"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="23"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
-      <c r="L71" s="20">
+      <c r="L71" s="22">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="M71" s="28"/>
-      <c r="N71" s="21"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="23"/>
       <c r="O71" s="2"/>
       <c r="Q71">
         <v>0</v>
@@ -5038,29 +5176,29 @@
       </c>
     </row>
     <row r="72" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="31" t="s">
+      <c r="A72" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B72" s="32"/>
-      <c r="C72" s="25" t="s">
+      <c r="B72" s="26"/>
+      <c r="C72" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="D72" s="26"/>
-      <c r="E72" s="25" t="s">
+      <c r="D72" s="28"/>
+      <c r="E72" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="F72" s="27"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="21"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="23"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="L72" s="20">
+      <c r="L72" s="22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="M72" s="28"/>
-      <c r="N72" s="21"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="23"/>
       <c r="O72" s="2"/>
       <c r="P72">
         <v>15</v>
@@ -5092,29 +5230,29 @@
       </c>
     </row>
     <row r="73" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B73" s="32"/>
-      <c r="C73" s="25" t="s">
+      <c r="B73" s="26"/>
+      <c r="C73" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="D73" s="26"/>
-      <c r="E73" s="25" t="s">
+      <c r="D73" s="28"/>
+      <c r="E73" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="F73" s="27"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="21"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="23"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
-      <c r="L73" s="20">
+      <c r="L73" s="22">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="M73" s="28"/>
-      <c r="N73" s="21"/>
+      <c r="M73" s="24"/>
+      <c r="N73" s="23"/>
       <c r="O73" s="2"/>
       <c r="P73">
         <v>13</v>
@@ -5149,29 +5287,29 @@
       </c>
     </row>
     <row r="74" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="31" t="s">
+      <c r="A74" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B74" s="32"/>
-      <c r="C74" s="25" t="s">
+      <c r="B74" s="26"/>
+      <c r="C74" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="D74" s="26"/>
-      <c r="E74" s="25" t="s">
+      <c r="D74" s="28"/>
+      <c r="E74" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="F74" s="27"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="21"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="23"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
-      <c r="L74" s="20">
+      <c r="L74" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M74" s="28"/>
-      <c r="N74" s="21"/>
+        <v>29.333333333333343</v>
+      </c>
+      <c r="M74" s="24"/>
+      <c r="N74" s="23"/>
       <c r="O74" s="2"/>
       <c r="Q74">
         <v>0</v>
@@ -5185,41 +5323,50 @@
       <c r="T74" s="10">
         <v>7</v>
       </c>
+      <c r="U74" s="15">
+        <v>16</v>
+      </c>
       <c r="V74">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="W74">
+        <v>10</v>
+      </c>
+      <c r="X74">
+        <v>30</v>
       </c>
       <c r="Y74">
         <f t="shared" si="1"/>
-        <v>7.333333333333333</v>
+        <v>79.333333333333343</v>
       </c>
       <c r="Z74">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="31" t="s">
+      <c r="A75" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="B75" s="32"/>
-      <c r="C75" s="25" t="s">
+      <c r="B75" s="26"/>
+      <c r="C75" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="D75" s="26"/>
-      <c r="E75" s="25" t="s">
+      <c r="D75" s="28"/>
+      <c r="E75" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="F75" s="27"/>
-      <c r="G75" s="26"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="21"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="23"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
-      <c r="L75" s="20">
+      <c r="L75" s="22">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="M75" s="28"/>
-      <c r="N75" s="21"/>
+      <c r="M75" s="24"/>
+      <c r="N75" s="23"/>
       <c r="O75" s="2"/>
       <c r="P75">
         <v>14</v>
@@ -5254,29 +5401,29 @@
       </c>
     </row>
     <row r="76" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="31" t="s">
+      <c r="A76" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="B76" s="32"/>
-      <c r="C76" s="25" t="s">
+      <c r="B76" s="26"/>
+      <c r="C76" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="D76" s="26"/>
-      <c r="E76" s="25" t="s">
+      <c r="D76" s="28"/>
+      <c r="E76" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="F76" s="27"/>
-      <c r="G76" s="26"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="21"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="23"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
-      <c r="L76" s="20">
+      <c r="L76" s="22">
         <f t="shared" ref="L76:L113" si="2">IF((Y76-50)&gt;50,50,IF((Y76-50)&lt;0,0,(Y76-50)))</f>
         <v>0</v>
       </c>
-      <c r="M76" s="28"/>
-      <c r="N76" s="21"/>
+      <c r="M76" s="24"/>
+      <c r="N76" s="23"/>
       <c r="O76" s="2"/>
       <c r="Q76">
         <v>0</v>
@@ -5296,29 +5443,29 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="31" t="s">
+      <c r="A77" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="B77" s="32"/>
-      <c r="C77" s="25" t="s">
+      <c r="B77" s="26"/>
+      <c r="C77" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="D77" s="26"/>
-      <c r="E77" s="25" t="s">
+      <c r="D77" s="28"/>
+      <c r="E77" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="F77" s="27"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="21"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="23"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
-      <c r="L77" s="20">
+      <c r="L77" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M77" s="28"/>
-      <c r="N77" s="21"/>
+      <c r="M77" s="24"/>
+      <c r="N77" s="23"/>
       <c r="O77" s="2"/>
       <c r="P77">
         <v>19</v>
@@ -5335,38 +5482,41 @@
       <c r="V77">
         <v>2</v>
       </c>
+      <c r="W77">
+        <v>16</v>
+      </c>
       <c r="Y77">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="Z77">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="31" t="s">
+      <c r="A78" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="B78" s="32"/>
-      <c r="C78" s="25" t="s">
+      <c r="B78" s="26"/>
+      <c r="C78" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="D78" s="26"/>
-      <c r="E78" s="25" t="s">
+      <c r="D78" s="28"/>
+      <c r="E78" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="F78" s="27"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="21"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="23"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
-      <c r="L78" s="20">
+      <c r="L78" s="22">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="M78" s="28"/>
-      <c r="N78" s="21"/>
+      <c r="M78" s="24"/>
+      <c r="N78" s="23"/>
       <c r="O78" s="2"/>
       <c r="P78">
         <v>16</v>
@@ -5398,29 +5548,29 @@
       </c>
     </row>
     <row r="79" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="31" t="s">
+      <c r="A79" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="B79" s="32"/>
-      <c r="C79" s="25" t="s">
+      <c r="B79" s="26"/>
+      <c r="C79" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="D79" s="26"/>
-      <c r="E79" s="25" t="s">
+      <c r="D79" s="28"/>
+      <c r="E79" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="F79" s="27"/>
-      <c r="G79" s="26"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="21"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="23"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
-      <c r="L79" s="20">
+      <c r="L79" s="22">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="M79" s="28"/>
-      <c r="N79" s="21"/>
+        <v>32</v>
+      </c>
+      <c r="M79" s="24"/>
+      <c r="N79" s="23"/>
       <c r="O79" s="2"/>
       <c r="Q79">
         <v>0</v>
@@ -5429,7 +5579,10 @@
         <v>7</v>
       </c>
       <c r="T79" s="10">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="U79" s="15">
+        <v>15</v>
       </c>
       <c r="V79">
         <v>2</v>
@@ -5442,36 +5595,36 @@
       </c>
       <c r="Y79">
         <f t="shared" si="3"/>
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="Z79">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="31" t="s">
+      <c r="A80" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="B80" s="32"/>
-      <c r="C80" s="25" t="s">
+      <c r="B80" s="26"/>
+      <c r="C80" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="D80" s="26"/>
-      <c r="E80" s="25" t="s">
+      <c r="D80" s="28"/>
+      <c r="E80" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="F80" s="27"/>
-      <c r="G80" s="26"/>
-      <c r="H80" s="20"/>
-      <c r="I80" s="21"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="23"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
-      <c r="L80" s="20">
+      <c r="L80" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M80" s="28"/>
-      <c r="N80" s="21"/>
+      <c r="M80" s="24"/>
+      <c r="N80" s="23"/>
       <c r="O80" s="2"/>
       <c r="P80">
         <v>16</v>
@@ -5497,29 +5650,29 @@
       </c>
     </row>
     <row r="81" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="31" t="s">
+      <c r="A81" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="B81" s="32"/>
-      <c r="C81" s="25" t="s">
+      <c r="B81" s="26"/>
+      <c r="C81" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="D81" s="26"/>
-      <c r="E81" s="25" t="s">
+      <c r="D81" s="28"/>
+      <c r="E81" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="F81" s="27"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="21"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="23"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
-      <c r="L81" s="20">
+      <c r="L81" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M81" s="28"/>
-      <c r="N81" s="21"/>
+        <v>19</v>
+      </c>
+      <c r="M81" s="24"/>
+      <c r="N81" s="23"/>
       <c r="O81" s="2"/>
       <c r="P81">
         <v>16</v>
@@ -5536,41 +5689,47 @@
       <c r="T81" s="10">
         <v>6</v>
       </c>
+      <c r="U81" s="15">
+        <v>14</v>
+      </c>
       <c r="V81">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="W81">
+        <v>16</v>
       </c>
       <c r="Y81">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="Z81">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="31" t="s">
+      <c r="A82" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="B82" s="32"/>
-      <c r="C82" s="25" t="s">
+      <c r="B82" s="26"/>
+      <c r="C82" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="D82" s="26"/>
-      <c r="E82" s="25" t="s">
+      <c r="D82" s="28"/>
+      <c r="E82" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="F82" s="27"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="20"/>
-      <c r="I82" s="21"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="23"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
-      <c r="L82" s="20">
+      <c r="L82" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M82" s="28"/>
-      <c r="N82" s="21"/>
+      <c r="M82" s="24"/>
+      <c r="N82" s="23"/>
       <c r="O82" s="2"/>
       <c r="Q82">
         <v>10</v>
@@ -5590,29 +5749,29 @@
       </c>
     </row>
     <row r="83" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="31" t="s">
+      <c r="A83" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="B83" s="32"/>
-      <c r="C83" s="25" t="s">
+      <c r="B83" s="26"/>
+      <c r="C83" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="D83" s="26"/>
-      <c r="E83" s="25" t="s">
+      <c r="D83" s="28"/>
+      <c r="E83" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="F83" s="27"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="21"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="23"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
-      <c r="L83" s="20">
+      <c r="L83" s="22">
         <f t="shared" si="2"/>
         <v>17.75</v>
       </c>
-      <c r="M83" s="28"/>
-      <c r="N83" s="21"/>
+      <c r="M83" s="24"/>
+      <c r="N83" s="23"/>
       <c r="O83" s="2"/>
       <c r="P83">
         <v>11</v>
@@ -5647,29 +5806,29 @@
       </c>
     </row>
     <row r="84" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="31" t="s">
+      <c r="A84" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="B84" s="32"/>
-      <c r="C84" s="25" t="s">
+      <c r="B84" s="26"/>
+      <c r="C84" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="D84" s="26"/>
-      <c r="E84" s="25" t="s">
+      <c r="D84" s="28"/>
+      <c r="E84" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="F84" s="27"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="21"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="23"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
-      <c r="L84" s="20">
+      <c r="L84" s="22">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="M84" s="28"/>
-      <c r="N84" s="21"/>
+      <c r="M84" s="24"/>
+      <c r="N84" s="23"/>
       <c r="O84" s="2"/>
       <c r="Q84">
         <v>0</v>
@@ -5698,29 +5857,29 @@
       </c>
     </row>
     <row r="85" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="31" t="s">
+      <c r="A85" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="B85" s="32"/>
-      <c r="C85" s="25" t="s">
+      <c r="B85" s="26"/>
+      <c r="C85" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="D85" s="26"/>
-      <c r="E85" s="25" t="s">
+      <c r="D85" s="28"/>
+      <c r="E85" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="F85" s="27"/>
-      <c r="G85" s="26"/>
-      <c r="H85" s="20"/>
-      <c r="I85" s="21"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="23"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
-      <c r="L85" s="20">
+      <c r="L85" s="22">
         <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="M85" s="28"/>
-      <c r="N85" s="21"/>
+        <v>50</v>
+      </c>
+      <c r="M85" s="24"/>
+      <c r="N85" s="23"/>
       <c r="O85" s="2"/>
       <c r="P85">
         <v>13</v>
@@ -5748,36 +5907,36 @@
       </c>
       <c r="Y85">
         <f t="shared" si="3"/>
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="Z85">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="31" t="s">
+      <c r="A86" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="B86" s="32"/>
-      <c r="C86" s="25" t="s">
+      <c r="B86" s="26"/>
+      <c r="C86" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="D86" s="26"/>
-      <c r="E86" s="25" t="s">
+      <c r="D86" s="28"/>
+      <c r="E86" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="F86" s="27"/>
-      <c r="G86" s="26"/>
-      <c r="H86" s="20"/>
-      <c r="I86" s="21"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="22"/>
+      <c r="I86" s="23"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
-      <c r="L86" s="20">
+      <c r="L86" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M86" s="28"/>
-      <c r="N86" s="21"/>
+        <v>16.5</v>
+      </c>
+      <c r="M86" s="24"/>
+      <c r="N86" s="23"/>
       <c r="O86" s="2"/>
       <c r="P86">
         <v>16</v>
@@ -5791,41 +5950,47 @@
       <c r="T86" s="10">
         <v>5</v>
       </c>
+      <c r="U86" s="15">
+        <v>15</v>
+      </c>
       <c r="V86">
         <v>2</v>
+      </c>
+      <c r="W86">
+        <v>13</v>
       </c>
       <c r="Y86">
         <f t="shared" si="3"/>
-        <v>23.5</v>
+        <v>66.5</v>
       </c>
       <c r="Z86">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="31" t="s">
+      <c r="A87" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="B87" s="32"/>
-      <c r="C87" s="25" t="s">
+      <c r="B87" s="26"/>
+      <c r="C87" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="D87" s="26"/>
-      <c r="E87" s="25" t="s">
+      <c r="D87" s="28"/>
+      <c r="E87" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="F87" s="27"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="20"/>
-      <c r="I87" s="21"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="23"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
-      <c r="L87" s="20">
+      <c r="L87" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M87" s="28"/>
-      <c r="N87" s="21"/>
+      <c r="M87" s="24"/>
+      <c r="N87" s="23"/>
       <c r="O87" s="2"/>
       <c r="Q87">
         <v>0</v>
@@ -5845,29 +6010,29 @@
       </c>
     </row>
     <row r="88" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="31" t="s">
+      <c r="A88" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="B88" s="32"/>
-      <c r="C88" s="25" t="s">
+      <c r="B88" s="26"/>
+      <c r="C88" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="D88" s="26"/>
-      <c r="E88" s="25" t="s">
+      <c r="D88" s="28"/>
+      <c r="E88" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="F88" s="27"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="21"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="23"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
-      <c r="L88" s="20">
+      <c r="L88" s="22">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="M88" s="28"/>
-      <c r="N88" s="21"/>
+        <v>50</v>
+      </c>
+      <c r="M88" s="24"/>
+      <c r="N88" s="23"/>
       <c r="O88" s="2"/>
       <c r="P88">
         <v>14</v>
@@ -5878,44 +6043,50 @@
       <c r="T88" s="10">
         <v>10</v>
       </c>
+      <c r="U88" s="15">
+        <v>15</v>
+      </c>
       <c r="V88">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="W88">
+        <v>17</v>
       </c>
       <c r="X88">
         <v>30</v>
       </c>
       <c r="Y88">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="Z88">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="31" t="s">
+      <c r="A89" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="B89" s="32"/>
-      <c r="C89" s="25" t="s">
+      <c r="B89" s="26"/>
+      <c r="C89" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="D89" s="26"/>
-      <c r="E89" s="25" t="s">
+      <c r="D89" s="28"/>
+      <c r="E89" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="F89" s="27"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="20"/>
-      <c r="I89" s="21"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="23"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
-      <c r="L89" s="20">
+      <c r="L89" s="22">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="M89" s="28"/>
-      <c r="N89" s="21"/>
+        <v>50</v>
+      </c>
+      <c r="M89" s="24"/>
+      <c r="N89" s="23"/>
       <c r="O89" s="2"/>
       <c r="P89">
         <v>13</v>
@@ -5926,44 +6097,50 @@
       <c r="T89" s="10">
         <v>10</v>
       </c>
+      <c r="U89" s="15">
+        <v>16</v>
+      </c>
       <c r="V89">
         <v>2</v>
+      </c>
+      <c r="W89">
+        <v>18</v>
       </c>
       <c r="X89">
         <v>30</v>
       </c>
       <c r="Y89">
         <f t="shared" si="3"/>
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="Z89">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="31" t="s">
+      <c r="A90" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="B90" s="32"/>
-      <c r="C90" s="25" t="s">
+      <c r="B90" s="26"/>
+      <c r="C90" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="D90" s="26"/>
-      <c r="E90" s="25" t="s">
+      <c r="D90" s="28"/>
+      <c r="E90" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="F90" s="27"/>
-      <c r="G90" s="26"/>
-      <c r="H90" s="20"/>
-      <c r="I90" s="21"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="22"/>
+      <c r="I90" s="23"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
-      <c r="L90" s="20">
+      <c r="L90" s="22">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="M90" s="28"/>
-      <c r="N90" s="21"/>
+        <v>50</v>
+      </c>
+      <c r="M90" s="24"/>
+      <c r="N90" s="23"/>
       <c r="O90" s="2"/>
       <c r="P90">
         <v>14</v>
@@ -5974,44 +6151,50 @@
       <c r="T90" s="10">
         <v>10</v>
       </c>
+      <c r="U90" s="15">
+        <v>16</v>
+      </c>
       <c r="V90">
         <v>2</v>
+      </c>
+      <c r="W90">
+        <v>19</v>
       </c>
       <c r="X90">
         <v>30</v>
       </c>
       <c r="Y90">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="Z90">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="31" t="s">
+      <c r="A91" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="B91" s="32"/>
-      <c r="C91" s="25" t="s">
+      <c r="B91" s="26"/>
+      <c r="C91" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="D91" s="26"/>
-      <c r="E91" s="25" t="s">
+      <c r="D91" s="28"/>
+      <c r="E91" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="F91" s="27"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="20"/>
-      <c r="I91" s="21"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="22"/>
+      <c r="I91" s="23"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
-      <c r="L91" s="20">
+      <c r="L91" s="22">
         <f t="shared" si="2"/>
         <v>17.666666666666671</v>
       </c>
-      <c r="M91" s="28"/>
-      <c r="N91" s="21"/>
+      <c r="M91" s="24"/>
+      <c r="N91" s="23"/>
       <c r="O91" s="2"/>
       <c r="P91">
         <v>13</v>
@@ -6046,29 +6229,29 @@
       </c>
     </row>
     <row r="92" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="31" t="s">
+      <c r="A92" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="B92" s="32"/>
-      <c r="C92" s="25" t="s">
+      <c r="B92" s="26"/>
+      <c r="C92" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="D92" s="26"/>
-      <c r="E92" s="25" t="s">
+      <c r="D92" s="28"/>
+      <c r="E92" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="F92" s="27"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="20"/>
-      <c r="I92" s="21"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="28"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="23"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
-      <c r="L92" s="20">
+      <c r="L92" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M92" s="28"/>
-      <c r="N92" s="21"/>
+      <c r="M92" s="24"/>
+      <c r="N92" s="23"/>
       <c r="O92" s="2"/>
       <c r="P92">
         <v>14</v>
@@ -6097,29 +6280,29 @@
       </c>
     </row>
     <row r="93" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="31" t="s">
+      <c r="A93" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="B93" s="32"/>
-      <c r="C93" s="25" t="s">
+      <c r="B93" s="26"/>
+      <c r="C93" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="D93" s="26"/>
-      <c r="E93" s="25" t="s">
+      <c r="D93" s="28"/>
+      <c r="E93" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="F93" s="27"/>
-      <c r="G93" s="26"/>
-      <c r="H93" s="20"/>
-      <c r="I93" s="21"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="23"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
-      <c r="L93" s="20">
+      <c r="L93" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M93" s="28"/>
-      <c r="N93" s="21"/>
+      <c r="M93" s="24"/>
+      <c r="N93" s="23"/>
       <c r="O93" s="2"/>
       <c r="P93">
         <v>13</v>
@@ -6148,29 +6331,29 @@
       </c>
     </row>
     <row r="94" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="31" t="s">
+      <c r="A94" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="B94" s="32"/>
-      <c r="C94" s="25" t="s">
+      <c r="B94" s="26"/>
+      <c r="C94" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="D94" s="26"/>
-      <c r="E94" s="25" t="s">
+      <c r="D94" s="28"/>
+      <c r="E94" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="F94" s="27"/>
-      <c r="G94" s="26"/>
-      <c r="H94" s="20"/>
-      <c r="I94" s="21"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="23"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
-      <c r="L94" s="20">
+      <c r="L94" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M94" s="28"/>
-      <c r="N94" s="21"/>
+        <v>20</v>
+      </c>
+      <c r="M94" s="24"/>
+      <c r="N94" s="23"/>
       <c r="O94" s="2"/>
       <c r="P94">
         <v>13</v>
@@ -6181,44 +6364,47 @@
       <c r="T94" s="10">
         <v>4</v>
       </c>
+      <c r="U94" s="15">
+        <v>15</v>
+      </c>
       <c r="V94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W94">
         <v>19</v>
       </c>
       <c r="Y94">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="Z94">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="31" t="s">
+      <c r="A95" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="B95" s="32"/>
-      <c r="C95" s="25" t="s">
+      <c r="B95" s="26"/>
+      <c r="C95" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="D95" s="26"/>
-      <c r="E95" s="25" t="s">
+      <c r="D95" s="28"/>
+      <c r="E95" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="F95" s="27"/>
-      <c r="G95" s="26"/>
-      <c r="H95" s="20"/>
-      <c r="I95" s="21"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="22"/>
+      <c r="I95" s="23"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
-      <c r="L95" s="20">
+      <c r="L95" s="22">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="M95" s="28"/>
-      <c r="N95" s="21"/>
+        <v>50</v>
+      </c>
+      <c r="M95" s="24"/>
+      <c r="N95" s="23"/>
       <c r="O95" s="2"/>
       <c r="P95">
         <v>14</v>
@@ -6229,44 +6415,50 @@
       <c r="T95" s="10">
         <v>10</v>
       </c>
+      <c r="U95" s="15">
+        <v>16</v>
+      </c>
       <c r="V95">
         <v>2</v>
+      </c>
+      <c r="W95">
+        <v>19</v>
       </c>
       <c r="X95">
         <v>29</v>
       </c>
       <c r="Y95">
         <f t="shared" si="3"/>
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="Z95">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="31" t="s">
+      <c r="A96" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="B96" s="32"/>
-      <c r="C96" s="25" t="s">
+      <c r="B96" s="26"/>
+      <c r="C96" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="D96" s="26"/>
-      <c r="E96" s="25" t="s">
+      <c r="D96" s="28"/>
+      <c r="E96" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="F96" s="27"/>
-      <c r="G96" s="26"/>
-      <c r="H96" s="20"/>
-      <c r="I96" s="21"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="28"/>
+      <c r="H96" s="22"/>
+      <c r="I96" s="23"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
-      <c r="L96" s="20">
+      <c r="L96" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M96" s="28"/>
-      <c r="N96" s="21"/>
+        <v>33</v>
+      </c>
+      <c r="M96" s="24"/>
+      <c r="N96" s="23"/>
       <c r="O96" s="2"/>
       <c r="Q96">
         <v>9</v>
@@ -6274,44 +6466,47 @@
       <c r="T96" s="10">
         <v>9</v>
       </c>
+      <c r="U96">
+        <v>15</v>
+      </c>
       <c r="V96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W96">
         <v>19</v>
       </c>
       <c r="Y96">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="Z96">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="31" t="s">
+      <c r="A97" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="B97" s="32"/>
-      <c r="C97" s="25" t="s">
+      <c r="B97" s="26"/>
+      <c r="C97" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="D97" s="26"/>
-      <c r="E97" s="25" t="s">
+      <c r="D97" s="28"/>
+      <c r="E97" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="F97" s="27"/>
-      <c r="G97" s="26"/>
-      <c r="H97" s="20"/>
-      <c r="I97" s="21"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="28"/>
+      <c r="H97" s="22"/>
+      <c r="I97" s="23"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
-      <c r="L97" s="20">
+      <c r="L97" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M97" s="28"/>
-      <c r="N97" s="21"/>
+        <v>16</v>
+      </c>
+      <c r="M97" s="24"/>
+      <c r="N97" s="23"/>
       <c r="O97" s="2"/>
       <c r="P97">
         <v>18</v>
@@ -6322,41 +6517,47 @@
       <c r="T97" s="10">
         <v>0</v>
       </c>
+      <c r="U97" s="15">
+        <v>15</v>
+      </c>
       <c r="V97">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="W97">
+        <v>18</v>
       </c>
       <c r="Y97">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="Z97">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="31" t="s">
+      <c r="A98" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="B98" s="32"/>
-      <c r="C98" s="25" t="s">
+      <c r="B98" s="26"/>
+      <c r="C98" s="27" t="s">
         <v>292</v>
       </c>
-      <c r="D98" s="26"/>
-      <c r="E98" s="25" t="s">
+      <c r="D98" s="28"/>
+      <c r="E98" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="F98" s="27"/>
-      <c r="G98" s="26"/>
-      <c r="H98" s="20"/>
-      <c r="I98" s="21"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="23"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
-      <c r="L98" s="20">
+      <c r="L98" s="22">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="M98" s="28"/>
-      <c r="N98" s="21"/>
+      <c r="M98" s="24"/>
+      <c r="N98" s="23"/>
       <c r="O98" s="2"/>
       <c r="P98">
         <v>16</v>
@@ -6394,29 +6595,29 @@
       </c>
     </row>
     <row r="99" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="31" t="s">
+      <c r="A99" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="B99" s="32"/>
-      <c r="C99" s="25" t="s">
+      <c r="B99" s="26"/>
+      <c r="C99" s="27" t="s">
         <v>295</v>
       </c>
-      <c r="D99" s="26"/>
-      <c r="E99" s="25" t="s">
+      <c r="D99" s="28"/>
+      <c r="E99" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="F99" s="27"/>
-      <c r="G99" s="26"/>
-      <c r="H99" s="20"/>
-      <c r="I99" s="21"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="28"/>
+      <c r="H99" s="22"/>
+      <c r="I99" s="23"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
-      <c r="L99" s="20">
+      <c r="L99" s="22">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="M99" s="28"/>
-      <c r="N99" s="21"/>
+      <c r="M99" s="24"/>
+      <c r="N99" s="23"/>
       <c r="O99" s="2"/>
       <c r="P99">
         <v>16</v>
@@ -6454,29 +6655,29 @@
       </c>
     </row>
     <row r="100" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="31" t="s">
+      <c r="A100" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="B100" s="32"/>
-      <c r="C100" s="25" t="s">
+      <c r="B100" s="26"/>
+      <c r="C100" s="27" t="s">
         <v>298</v>
       </c>
-      <c r="D100" s="26"/>
-      <c r="E100" s="25" t="s">
+      <c r="D100" s="28"/>
+      <c r="E100" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="F100" s="27"/>
-      <c r="G100" s="26"/>
-      <c r="H100" s="20"/>
-      <c r="I100" s="21"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="28"/>
+      <c r="H100" s="22"/>
+      <c r="I100" s="23"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
-      <c r="L100" s="20">
+      <c r="L100" s="22">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="M100" s="28"/>
-      <c r="N100" s="21"/>
+      <c r="M100" s="24"/>
+      <c r="N100" s="23"/>
       <c r="O100" s="2"/>
       <c r="P100">
         <v>13</v>
@@ -6511,29 +6712,29 @@
       </c>
     </row>
     <row r="101" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="31" t="s">
+      <c r="A101" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="B101" s="32"/>
-      <c r="C101" s="25" t="s">
+      <c r="B101" s="26"/>
+      <c r="C101" s="27" t="s">
         <v>301</v>
       </c>
-      <c r="D101" s="26"/>
-      <c r="E101" s="25" t="s">
+      <c r="D101" s="28"/>
+      <c r="E101" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="F101" s="27"/>
-      <c r="G101" s="26"/>
-      <c r="H101" s="20"/>
-      <c r="I101" s="21"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="28"/>
+      <c r="H101" s="22"/>
+      <c r="I101" s="23"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
-      <c r="L101" s="20">
+      <c r="L101" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M101" s="28"/>
-      <c r="N101" s="21"/>
+        <v>9</v>
+      </c>
+      <c r="M101" s="24"/>
+      <c r="N101" s="23"/>
       <c r="O101" s="2"/>
       <c r="Q101">
         <v>9</v>
@@ -6547,41 +6748,47 @@
       <c r="T101" s="10">
         <v>8</v>
       </c>
+      <c r="U101" s="15">
+        <v>16</v>
+      </c>
       <c r="V101">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="W101">
+        <v>19</v>
       </c>
       <c r="Y101">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="Z101">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="31" t="s">
+      <c r="A102" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="B102" s="32"/>
-      <c r="C102" s="25" t="s">
+      <c r="B102" s="26"/>
+      <c r="C102" s="27" t="s">
         <v>304</v>
       </c>
-      <c r="D102" s="26"/>
-      <c r="E102" s="25" t="s">
+      <c r="D102" s="28"/>
+      <c r="E102" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="F102" s="27"/>
-      <c r="G102" s="26"/>
-      <c r="H102" s="20"/>
-      <c r="I102" s="21"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="28"/>
+      <c r="H102" s="22"/>
+      <c r="I102" s="23"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
-      <c r="L102" s="20">
+      <c r="L102" s="22">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="M102" s="28"/>
-      <c r="N102" s="21"/>
+      <c r="M102" s="24"/>
+      <c r="N102" s="23"/>
       <c r="O102" s="2"/>
       <c r="P102">
         <v>16</v>
@@ -6619,29 +6826,29 @@
       </c>
     </row>
     <row r="103" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="31" t="s">
+      <c r="A103" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="B103" s="32"/>
-      <c r="C103" s="25" t="s">
+      <c r="B103" s="26"/>
+      <c r="C103" s="27" t="s">
         <v>307</v>
       </c>
-      <c r="D103" s="26"/>
-      <c r="E103" s="25" t="s">
+      <c r="D103" s="28"/>
+      <c r="E103" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="F103" s="27"/>
-      <c r="G103" s="26"/>
-      <c r="H103" s="20"/>
-      <c r="I103" s="21"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="28"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="23"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
-      <c r="L103" s="20">
+      <c r="L103" s="22">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="M103" s="28"/>
-      <c r="N103" s="21"/>
+      <c r="M103" s="24"/>
+      <c r="N103" s="23"/>
       <c r="O103" s="2"/>
       <c r="P103">
         <v>18</v>
@@ -6673,29 +6880,29 @@
       </c>
     </row>
     <row r="104" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="31" t="s">
+      <c r="A104" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="B104" s="32"/>
-      <c r="C104" s="25" t="s">
+      <c r="B104" s="26"/>
+      <c r="C104" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="D104" s="26"/>
-      <c r="E104" s="25" t="s">
+      <c r="D104" s="28"/>
+      <c r="E104" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="F104" s="27"/>
-      <c r="G104" s="26"/>
-      <c r="H104" s="20"/>
-      <c r="I104" s="21"/>
+      <c r="F104" s="29"/>
+      <c r="G104" s="28"/>
+      <c r="H104" s="22"/>
+      <c r="I104" s="23"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
-      <c r="L104" s="20">
+      <c r="L104" s="22">
         <f t="shared" si="2"/>
         <v>18.333333333333343</v>
       </c>
-      <c r="M104" s="28"/>
-      <c r="N104" s="21"/>
+      <c r="M104" s="24"/>
+      <c r="N104" s="23"/>
       <c r="O104" s="2"/>
       <c r="P104">
         <v>11</v>
@@ -6730,29 +6937,29 @@
       </c>
     </row>
     <row r="105" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="31" t="s">
+      <c r="A105" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="B105" s="32"/>
-      <c r="C105" s="25" t="s">
+      <c r="B105" s="26"/>
+      <c r="C105" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="D105" s="26"/>
-      <c r="E105" s="25" t="s">
+      <c r="D105" s="28"/>
+      <c r="E105" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="F105" s="27"/>
-      <c r="G105" s="26"/>
-      <c r="H105" s="20"/>
-      <c r="I105" s="21"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="28"/>
+      <c r="H105" s="22"/>
+      <c r="I105" s="23"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
-      <c r="L105" s="20">
+      <c r="L105" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M105" s="28"/>
-      <c r="N105" s="21"/>
+      <c r="M105" s="24"/>
+      <c r="N105" s="23"/>
       <c r="O105" s="2"/>
       <c r="Q105">
         <v>0</v>
@@ -6763,41 +6970,47 @@
       <c r="T105" s="10">
         <v>2</v>
       </c>
+      <c r="U105" s="15">
+        <v>15</v>
+      </c>
       <c r="V105">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="W105">
+        <v>12</v>
       </c>
       <c r="Y105">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="Z105">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="31" t="s">
+      <c r="A106" s="25" t="s">
         <v>315</v>
       </c>
-      <c r="B106" s="32"/>
-      <c r="C106" s="25" t="s">
+      <c r="B106" s="26"/>
+      <c r="C106" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="D106" s="26"/>
-      <c r="E106" s="25" t="s">
+      <c r="D106" s="28"/>
+      <c r="E106" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="F106" s="27"/>
-      <c r="G106" s="26"/>
-      <c r="H106" s="20"/>
-      <c r="I106" s="21"/>
+      <c r="F106" s="29"/>
+      <c r="G106" s="28"/>
+      <c r="H106" s="22"/>
+      <c r="I106" s="23"/>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
-      <c r="L106" s="20">
+      <c r="L106" s="22">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="M106" s="28"/>
-      <c r="N106" s="21"/>
+      <c r="M106" s="24"/>
+      <c r="N106" s="23"/>
       <c r="O106" s="2"/>
       <c r="P106">
         <v>16</v>
@@ -6829,29 +7042,29 @@
       </c>
     </row>
     <row r="107" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="31" t="s">
+      <c r="A107" s="25" t="s">
         <v>318</v>
       </c>
-      <c r="B107" s="32"/>
-      <c r="C107" s="25" t="s">
+      <c r="B107" s="26"/>
+      <c r="C107" s="27" t="s">
         <v>319</v>
       </c>
-      <c r="D107" s="26"/>
-      <c r="E107" s="25" t="s">
+      <c r="D107" s="28"/>
+      <c r="E107" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="F107" s="27"/>
-      <c r="G107" s="26"/>
-      <c r="H107" s="20"/>
-      <c r="I107" s="21"/>
+      <c r="F107" s="29"/>
+      <c r="G107" s="28"/>
+      <c r="H107" s="22"/>
+      <c r="I107" s="23"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
-      <c r="L107" s="20">
+      <c r="L107" s="22">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="M107" s="28"/>
-      <c r="N107" s="21"/>
+        <v>47</v>
+      </c>
+      <c r="M107" s="24"/>
+      <c r="N107" s="23"/>
       <c r="O107" s="2"/>
       <c r="P107">
         <v>18</v>
@@ -6865,44 +7078,50 @@
       <c r="T107" s="10">
         <v>2</v>
       </c>
+      <c r="U107" s="15">
+        <v>15</v>
+      </c>
       <c r="V107">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="W107">
+        <v>15</v>
       </c>
       <c r="X107">
         <v>30</v>
       </c>
       <c r="Y107">
         <f t="shared" si="3"/>
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="Z107">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="31" t="s">
+      <c r="A108" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="B108" s="32"/>
-      <c r="C108" s="25" t="s">
+      <c r="B108" s="26"/>
+      <c r="C108" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="D108" s="26"/>
-      <c r="E108" s="25" t="s">
+      <c r="D108" s="28"/>
+      <c r="E108" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="F108" s="27"/>
-      <c r="G108" s="26"/>
-      <c r="H108" s="20"/>
-      <c r="I108" s="21"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="28"/>
+      <c r="H108" s="22"/>
+      <c r="I108" s="23"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
-      <c r="L108" s="20">
+      <c r="L108" s="22">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="M108" s="28"/>
-      <c r="N108" s="21"/>
+      <c r="M108" s="24"/>
+      <c r="N108" s="23"/>
       <c r="O108" s="2"/>
       <c r="P108">
         <v>13</v>
@@ -6934,29 +7153,29 @@
       </c>
     </row>
     <row r="109" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="31" t="s">
+      <c r="A109" s="25" t="s">
         <v>324</v>
       </c>
-      <c r="B109" s="32"/>
-      <c r="C109" s="25" t="s">
+      <c r="B109" s="26"/>
+      <c r="C109" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="D109" s="26"/>
-      <c r="E109" s="25" t="s">
+      <c r="D109" s="28"/>
+      <c r="E109" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="F109" s="27"/>
-      <c r="G109" s="26"/>
-      <c r="H109" s="20"/>
-      <c r="I109" s="21"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="28"/>
+      <c r="H109" s="22"/>
+      <c r="I109" s="23"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
-      <c r="L109" s="20">
+      <c r="L109" s="22">
         <f t="shared" si="2"/>
-        <v>35.5</v>
-      </c>
-      <c r="M109" s="28"/>
-      <c r="N109" s="21"/>
+        <v>50</v>
+      </c>
+      <c r="M109" s="24"/>
+      <c r="N109" s="23"/>
       <c r="O109" s="2"/>
       <c r="Q109">
         <v>7</v>
@@ -6981,30 +7200,30 @@
       </c>
       <c r="Y109">
         <f t="shared" si="3"/>
-        <v>85.5</v>
+        <v>110.5</v>
       </c>
       <c r="Z109">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="34"/>
-      <c r="B110" s="35"/>
-      <c r="C110" s="17"/>
-      <c r="D110" s="18"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="19"/>
-      <c r="G110" s="18"/>
-      <c r="H110" s="20"/>
-      <c r="I110" s="21"/>
+      <c r="A110" s="17"/>
+      <c r="B110" s="18"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="20"/>
+      <c r="H110" s="22"/>
+      <c r="I110" s="23"/>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
-      <c r="L110" s="20">
+      <c r="L110" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M110" s="28"/>
-      <c r="N110" s="21"/>
+      <c r="M110" s="24"/>
+      <c r="N110" s="23"/>
       <c r="O110" s="2"/>
       <c r="Q110">
         <v>0</v>
@@ -7024,23 +7243,23 @@
       </c>
     </row>
     <row r="111" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="34"/>
-      <c r="B111" s="35"/>
-      <c r="C111" s="17"/>
-      <c r="D111" s="18"/>
-      <c r="E111" s="17"/>
-      <c r="F111" s="19"/>
-      <c r="G111" s="18"/>
-      <c r="H111" s="20"/>
-      <c r="I111" s="21"/>
+      <c r="A111" s="17"/>
+      <c r="B111" s="18"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="21"/>
+      <c r="G111" s="20"/>
+      <c r="H111" s="22"/>
+      <c r="I111" s="23"/>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
-      <c r="L111" s="20">
+      <c r="L111" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M111" s="28"/>
-      <c r="N111" s="21"/>
+      <c r="M111" s="24"/>
+      <c r="N111" s="23"/>
       <c r="O111" s="2"/>
       <c r="Q111">
         <v>0</v>
@@ -7060,23 +7279,23 @@
       </c>
     </row>
     <row r="112" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="34"/>
-      <c r="B112" s="35"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="17"/>
-      <c r="F112" s="19"/>
-      <c r="G112" s="18"/>
-      <c r="H112" s="20"/>
-      <c r="I112" s="21"/>
+      <c r="A112" s="17"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="20"/>
+      <c r="H112" s="22"/>
+      <c r="I112" s="23"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
-      <c r="L112" s="20">
+      <c r="L112" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M112" s="28"/>
-      <c r="N112" s="21"/>
+      <c r="M112" s="24"/>
+      <c r="N112" s="23"/>
       <c r="O112" s="2"/>
       <c r="Q112">
         <v>0</v>
@@ -7096,23 +7315,23 @@
       </c>
     </row>
     <row r="113" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="34"/>
-      <c r="B113" s="35"/>
-      <c r="C113" s="17"/>
-      <c r="D113" s="18"/>
-      <c r="E113" s="17"/>
-      <c r="F113" s="19"/>
-      <c r="G113" s="18"/>
-      <c r="H113" s="20"/>
-      <c r="I113" s="21"/>
+      <c r="A113" s="17"/>
+      <c r="B113" s="18"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="21"/>
+      <c r="G113" s="20"/>
+      <c r="H113" s="22"/>
+      <c r="I113" s="23"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
-      <c r="L113" s="20">
+      <c r="L113" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M113" s="28"/>
-      <c r="N113" s="21"/>
+      <c r="M113" s="24"/>
+      <c r="N113" s="23"/>
       <c r="O113" s="2"/>
       <c r="Q113">
         <v>0</v>
@@ -7142,65 +7361,460 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="537">
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="E112:G112"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="L112:N112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="E113:G113"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="L113:N113"/>
-    <mergeCell ref="L108:N108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="L109:N109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="E110:G110"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="L110:N110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="E111:G111"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="L111:N111"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="E109:G109"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="L103:N103"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="L104:N104"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="L105:N105"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="L106:N106"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="L107:N107"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="E105:G105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="E106:G106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="E107:G107"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="E104:G104"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="L61:N61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="L64:N64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="L65:N65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="L66:N66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="L67:N67"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="L72:N72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="L73:N73"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="L71:N71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="L68:N68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="L69:N69"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="L77:N77"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="L75:N75"/>
+    <mergeCell ref="L74:N74"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="L78:N78"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="L76:N76"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="L79:N79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="L80:N80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="L81:N81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="L83:N83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="L84:N84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="L85:N85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="L86:N86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="L87:N87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="L88:N88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="L89:N89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="L90:N90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="L94:N94"/>
     <mergeCell ref="L102:N102"/>
     <mergeCell ref="A96:B96"/>
     <mergeCell ref="C96:D96"/>
@@ -7225,460 +7839,65 @@
     <mergeCell ref="A99:B99"/>
     <mergeCell ref="C99:D99"/>
     <mergeCell ref="E99:G99"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="L93:N93"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="L94:N94"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="L91:N91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="L92:N92"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="L89:N89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="L90:N90"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="L87:N87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="L88:N88"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="L85:N85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="L86:N86"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="L83:N83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="L84:N84"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="L81:N81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="L82:N82"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="L79:N79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="L80:N80"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="L78:N78"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="L76:N76"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="L77:N77"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="L75:N75"/>
-    <mergeCell ref="L74:N74"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="L68:N68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="L69:N69"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="L72:N72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="L73:N73"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="L70:N70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="L71:N71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="L66:N66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="L67:N67"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="L64:N64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="L65:N65"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="L61:N61"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="L47:N47"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="E104:G104"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E105:G105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="E106:G106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="E107:G107"/>
+    <mergeCell ref="L103:N103"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="L104:N104"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="L105:N105"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="L106:N106"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="L107:N107"/>
+    <mergeCell ref="L108:N108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="L109:N109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="E110:G110"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="L110:N110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="E111:G111"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="L111:N111"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="E109:G109"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="L112:N112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="E113:G113"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="L113:N113"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/OYM/_Documentos Comunes/POO_C32017.xlsx
+++ b/OYM/_Documentos Comunes/POO_C32017.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="330">
   <si>
     <t>LISTA DE ESTUDIANTES</t>
   </si>
@@ -1007,13 +1007,19 @@
   </si>
   <si>
     <t>Semana 14</t>
+  </si>
+  <si>
+    <t>15-SIIN-1-120</t>
+  </si>
+  <si>
+    <t>Luiggie Valdez</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1058,20 +1064,12 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF00B050"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF00B050"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF00B050"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1226,7 +1224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
@@ -1252,16 +1250,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1301,6 +1290,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1322,27 +1329,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1727,9 +1723,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W107" sqref="W107"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1760,19 +1756,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
+      <c r="B1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1793,19 +1789,19 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
       <c r="N3" s="2"/>
       <c r="P3" t="s">
         <v>21</v>
@@ -1815,19 +1811,19 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
       <c r="N4" s="2"/>
       <c r="P4" t="s">
         <v>23</v>
@@ -1837,19 +1833,19 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
       <c r="N5" s="2"/>
       <c r="P5" t="s">
         <v>25</v>
@@ -1881,19 +1877,19 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
       <c r="N7" s="2"/>
       <c r="P7" s="6" t="s">
         <v>327</v>
@@ -1947,34 +1943,34 @@
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:26" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="42" t="s">
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="42"/>
+      <c r="I10" s="29"/>
       <c r="J10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="42" t="s">
+      <c r="L10" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s">
         <v>8</v>
@@ -2011,35 +2007,35 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17">
-        <v>0</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19" t="s">
+      <c r="A11" s="12">
+        <v>0</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="15"/>
+      <c r="E11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="22">
+      <c r="F11" s="16"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="17">
         <v>10</v>
       </c>
-      <c r="I11" s="23"/>
+      <c r="I11" s="18"/>
       <c r="J11" s="5">
         <v>20</v>
       </c>
       <c r="K11" s="5">
         <v>20</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="17">
         <f>IF((Y11-50)&gt;50,50,IF((Y11-50)&lt;0,0,(Y11-50)))</f>
         <v>50</v>
       </c>
-      <c r="M11" s="24"/>
-      <c r="N11" s="23"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="18"/>
       <c r="O11" s="2"/>
       <c r="P11">
         <v>20</v>
@@ -2077,29 +2073,29 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="27" t="s">
+      <c r="D12" s="23"/>
+      <c r="E12" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="18"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="22">
+      <c r="L12" s="17">
         <f t="shared" ref="L12:L75" si="0">IF((Y12-50)&gt;50,50,IF((Y12-50)&lt;0,0,(Y12-50)))</f>
         <v>0</v>
       </c>
-      <c r="M12" s="24"/>
-      <c r="N12" s="23"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="18"/>
       <c r="O12" s="2"/>
       <c r="Q12">
         <v>0</v>
@@ -2118,84 +2114,84 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="13" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
+    <row r="13" spans="1:26" s="6" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32" t="s">
+      <c r="B13" s="32"/>
+      <c r="C13" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="32" t="s">
+      <c r="D13" s="34"/>
+      <c r="E13" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="35">
+      <c r="F13" s="35"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="36">
         <f t="shared" si="0"/>
-        <v>29.5</v>
-      </c>
-      <c r="M13" s="37"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="13">
+        <v>30</v>
+      </c>
+      <c r="M13" s="39"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="6">
         <v>16</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q13" s="6">
         <v>9</v>
       </c>
-      <c r="R13" s="13">
-        <v>2</v>
-      </c>
-      <c r="T13" s="14">
-        <v>6</v>
-      </c>
-      <c r="U13" s="16">
+      <c r="R13" s="6">
+        <v>9</v>
+      </c>
+      <c r="T13" s="9">
+        <v>9</v>
+      </c>
+      <c r="U13" s="41">
         <v>18</v>
       </c>
-      <c r="V13" s="13">
-        <v>2</v>
-      </c>
-      <c r="W13" s="13">
+      <c r="V13" s="6">
+        <v>2</v>
+      </c>
+      <c r="W13" s="6">
         <v>19</v>
       </c>
-      <c r="Y13" s="13">
+      <c r="Y13" s="6">
         <f t="shared" si="1"/>
-        <v>79.5</v>
-      </c>
-      <c r="Z13" s="13">
+        <v>80</v>
+      </c>
+      <c r="Z13" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="27" t="s">
+      <c r="D14" s="23"/>
+      <c r="E14" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="18"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="22">
+      <c r="L14" s="17">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="M14" s="24"/>
-      <c r="N14" s="23"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="18"/>
       <c r="O14" s="2"/>
       <c r="P14">
         <v>15</v>
@@ -2206,7 +2202,7 @@
       <c r="T14" s="10">
         <v>10</v>
       </c>
-      <c r="U14" s="15">
+      <c r="U14" s="11">
         <v>15</v>
       </c>
       <c r="V14">
@@ -2227,29 +2223,29 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27" t="s">
+      <c r="B15" s="21"/>
+      <c r="C15" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="27" t="s">
+      <c r="D15" s="23"/>
+      <c r="E15" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="23"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="18"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="22">
+      <c r="L15" s="17">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="M15" s="24"/>
-      <c r="N15" s="23"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="18"/>
       <c r="O15" s="2"/>
       <c r="P15">
         <v>15</v>
@@ -2263,7 +2259,7 @@
       <c r="T15" s="10">
         <v>7</v>
       </c>
-      <c r="U15" s="15">
+      <c r="U15" s="11">
         <v>15</v>
       </c>
       <c r="V15">
@@ -2284,29 +2280,29 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="27" t="s">
+      <c r="D16" s="23"/>
+      <c r="E16" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="23"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="18"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="22">
+      <c r="L16" s="17">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="M16" s="24"/>
-      <c r="N16" s="23"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="18"/>
       <c r="O16" s="2"/>
       <c r="Q16">
         <v>0</v>
@@ -2317,7 +2313,7 @@
       <c r="T16" s="10">
         <v>2</v>
       </c>
-      <c r="U16" s="15">
+      <c r="U16" s="11">
         <v>14</v>
       </c>
       <c r="V16">
@@ -2338,29 +2334,29 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27" t="s">
+      <c r="B17" s="21"/>
+      <c r="C17" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="27" t="s">
+      <c r="D17" s="23"/>
+      <c r="E17" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="23"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="18"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="22">
+      <c r="L17" s="17">
         <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="M17" s="24"/>
-      <c r="N17" s="23"/>
+        <v>50</v>
+      </c>
+      <c r="M17" s="19"/>
+      <c r="N17" s="18"/>
       <c r="O17" s="2"/>
       <c r="P17">
         <v>13</v>
@@ -2374,7 +2370,7 @@
       <c r="T17" s="10">
         <v>2</v>
       </c>
-      <c r="U17" s="15">
+      <c r="U17" s="11">
         <v>16</v>
       </c>
       <c r="V17">
@@ -2388,36 +2384,36 @@
       </c>
       <c r="Y17">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="27" t="s">
+      <c r="D18" s="23"/>
+      <c r="E18" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="18"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="22">
+      <c r="L18" s="17">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="M18" s="24"/>
-      <c r="N18" s="23"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="18"/>
       <c r="O18" s="2"/>
       <c r="P18">
         <v>14</v>
@@ -2431,7 +2427,7 @@
       <c r="T18" s="10">
         <v>4</v>
       </c>
-      <c r="U18" s="15">
+      <c r="U18" s="11">
         <v>14</v>
       </c>
       <c r="V18">
@@ -2452,29 +2448,29 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27" t="s">
+      <c r="B19" s="21"/>
+      <c r="C19" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="27" t="s">
+      <c r="D19" s="23"/>
+      <c r="E19" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="23"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="18"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="22">
+      <c r="L19" s="17">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="M19" s="24"/>
-      <c r="N19" s="23"/>
+        <v>38</v>
+      </c>
+      <c r="M19" s="19"/>
+      <c r="N19" s="18"/>
       <c r="O19" s="2"/>
       <c r="P19">
         <v>14</v>
@@ -2485,7 +2481,7 @@
       <c r="T19" s="10">
         <v>8</v>
       </c>
-      <c r="U19" s="15">
+      <c r="U19" s="11">
         <v>16</v>
       </c>
       <c r="V19">
@@ -2494,38 +2490,41 @@
       <c r="W19">
         <v>19</v>
       </c>
+      <c r="X19">
+        <v>15</v>
+      </c>
       <c r="Y19">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="Z19">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="27" t="s">
+      <c r="D20" s="23"/>
+      <c r="E20" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="23"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="18"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="22">
+      <c r="L20" s="17">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="M20" s="24"/>
-      <c r="N20" s="23"/>
+        <v>50</v>
+      </c>
+      <c r="M20" s="19"/>
+      <c r="N20" s="18"/>
       <c r="O20" s="2"/>
       <c r="P20">
         <v>16</v>
@@ -2539,7 +2538,7 @@
       <c r="T20" s="10">
         <v>6</v>
       </c>
-      <c r="U20" s="15">
+      <c r="U20" s="11">
         <v>14</v>
       </c>
       <c r="V20">
@@ -2548,38 +2547,41 @@
       <c r="W20">
         <v>20</v>
       </c>
+      <c r="X20">
+        <v>30</v>
+      </c>
       <c r="Y20">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="Z20">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27" t="s">
+      <c r="B21" s="21"/>
+      <c r="C21" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="27" t="s">
+      <c r="D21" s="23"/>
+      <c r="E21" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="23"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="18"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="22">
+      <c r="L21" s="17">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="M21" s="24"/>
-      <c r="N21" s="23"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="18"/>
       <c r="O21" s="2"/>
       <c r="P21">
         <v>14</v>
@@ -2593,7 +2595,7 @@
       <c r="T21" s="10">
         <v>10</v>
       </c>
-      <c r="U21" s="15">
+      <c r="U21" s="11">
         <v>14</v>
       </c>
       <c r="V21">
@@ -2614,29 +2616,29 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27" t="s">
+      <c r="B22" s="21"/>
+      <c r="C22" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="27" t="s">
+      <c r="D22" s="23"/>
+      <c r="E22" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="23"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="18"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="22">
+      <c r="L22" s="17">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="M22" s="24"/>
-      <c r="N22" s="23"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="18"/>
       <c r="O22" s="2"/>
       <c r="P22">
         <v>18</v>
@@ -2647,7 +2649,7 @@
       <c r="T22" s="10">
         <v>10</v>
       </c>
-      <c r="U22" s="15">
+      <c r="U22" s="11">
         <v>15</v>
       </c>
       <c r="V22">
@@ -2668,29 +2670,29 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27" t="s">
+      <c r="B23" s="21"/>
+      <c r="C23" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="27" t="s">
+      <c r="D23" s="23"/>
+      <c r="E23" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="23"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="18"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="22">
+      <c r="L23" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M23" s="24"/>
-      <c r="N23" s="23"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="18"/>
       <c r="O23" s="2"/>
       <c r="Q23">
         <v>0</v>
@@ -2710,29 +2712,29 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27" t="s">
+      <c r="B24" s="21"/>
+      <c r="C24" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="27" t="s">
+      <c r="D24" s="23"/>
+      <c r="E24" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="23"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="18"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="22">
+      <c r="L24" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M24" s="24"/>
-      <c r="N24" s="23"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="18"/>
       <c r="O24" s="2"/>
       <c r="Q24">
         <v>0</v>
@@ -2757,78 +2759,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:26" s="13" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="30" t="s">
+    <row r="25" spans="1:26" s="6" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32" t="s">
+      <c r="B25" s="32"/>
+      <c r="C25" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="32" t="s">
+      <c r="D25" s="34"/>
+      <c r="E25" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="35">
+      <c r="F25" s="35"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="36">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="12"/>
-      <c r="Q25" s="13">
-        <v>0</v>
-      </c>
-      <c r="S25" s="13">
+        <v>21</v>
+      </c>
+      <c r="M25" s="39"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="40"/>
+      <c r="Q25" s="6">
+        <v>0</v>
+      </c>
+      <c r="S25" s="6">
         <v>7</v>
       </c>
-      <c r="T25" s="14">
+      <c r="T25" s="9">
         <v>7</v>
       </c>
-      <c r="V25" s="13">
-        <v>2</v>
-      </c>
-      <c r="W25" s="13">
+      <c r="U25" s="6">
+        <v>12</v>
+      </c>
+      <c r="V25" s="6">
+        <v>2</v>
+      </c>
+      <c r="W25" s="6">
         <v>20</v>
       </c>
-      <c r="Y25" s="13">
+      <c r="Y25" s="6">
         <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="Z25" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="Z25" s="13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27" t="s">
+      <c r="B26" s="21"/>
+      <c r="C26" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="27" t="s">
+      <c r="D26" s="23"/>
+      <c r="E26" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="23"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="18"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="22">
+      <c r="L26" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M26" s="24"/>
-      <c r="N26" s="23"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="18"/>
       <c r="O26" s="2"/>
       <c r="P26">
         <v>15</v>
@@ -2851,29 +2856,29 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="27" t="s">
+      <c r="B27" s="21"/>
+      <c r="C27" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="27" t="s">
+      <c r="D27" s="23"/>
+      <c r="E27" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="23"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="18"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="22">
+      <c r="L27" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M27" s="24"/>
-      <c r="N27" s="23"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="18"/>
       <c r="O27" s="2"/>
       <c r="P27">
         <v>14</v>
@@ -2902,29 +2907,29 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="27" t="s">
+      <c r="B28" s="21"/>
+      <c r="C28" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="27" t="s">
+      <c r="D28" s="23"/>
+      <c r="E28" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="23"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="18"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="22">
+      <c r="L28" s="17">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="M28" s="24"/>
-      <c r="N28" s="23"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="18"/>
       <c r="O28" s="2"/>
       <c r="P28">
         <v>18</v>
@@ -2938,7 +2943,7 @@
       <c r="T28" s="10">
         <v>2</v>
       </c>
-      <c r="U28" s="15">
+      <c r="U28" s="11">
         <v>15</v>
       </c>
       <c r="V28">
@@ -2959,29 +2964,29 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="27" t="s">
+      <c r="B29" s="21"/>
+      <c r="C29" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="27" t="s">
+      <c r="D29" s="23"/>
+      <c r="E29" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="F29" s="29"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="23"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="18"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="22">
+      <c r="L29" s="17">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="M29" s="24"/>
-      <c r="N29" s="23"/>
+        <v>50</v>
+      </c>
+      <c r="M29" s="19"/>
+      <c r="N29" s="18"/>
       <c r="O29" s="2"/>
       <c r="P29">
         <v>16</v>
@@ -2995,7 +3000,7 @@
       <c r="T29" s="10">
         <v>7</v>
       </c>
-      <c r="U29" s="15">
+      <c r="U29" s="11">
         <v>15</v>
       </c>
       <c r="V29">
@@ -3004,38 +3009,41 @@
       <c r="W29">
         <v>20</v>
       </c>
+      <c r="X29">
+        <v>30</v>
+      </c>
       <c r="Y29">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="Z29">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="27" t="s">
+      <c r="B30" s="21"/>
+      <c r="C30" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="27" t="s">
+      <c r="D30" s="23"/>
+      <c r="E30" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="23"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="18"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="22">
+      <c r="L30" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M30" s="24"/>
-      <c r="N30" s="23"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="18"/>
       <c r="O30" s="2"/>
       <c r="Q30">
         <v>0</v>
@@ -3055,29 +3063,29 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="27" t="s">
+      <c r="B31" s="21"/>
+      <c r="C31" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="27" t="s">
+      <c r="D31" s="23"/>
+      <c r="E31" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="F31" s="29"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="23"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="18"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="22">
+      <c r="L31" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="24"/>
-      <c r="N31" s="23"/>
+        <v>23</v>
+      </c>
+      <c r="M31" s="19"/>
+      <c r="N31" s="18"/>
       <c r="O31" s="2"/>
       <c r="P31">
         <v>14</v>
@@ -3097,38 +3105,41 @@
       <c r="W31">
         <v>20</v>
       </c>
+      <c r="X31">
+        <v>30</v>
+      </c>
       <c r="Y31">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="Z31">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="27" t="s">
+      <c r="B32" s="21"/>
+      <c r="C32" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="27" t="s">
+      <c r="D32" s="23"/>
+      <c r="E32" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="F32" s="29"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="23"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="18"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="22">
+      <c r="L32" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M32" s="24"/>
-      <c r="N32" s="23"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="18"/>
       <c r="O32" s="2"/>
       <c r="Q32">
         <v>0</v>
@@ -3148,29 +3159,29 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="27" t="s">
+      <c r="B33" s="21"/>
+      <c r="C33" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="27" t="s">
+      <c r="D33" s="23"/>
+      <c r="E33" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F33" s="29"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="23"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="18"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="22">
+      <c r="L33" s="17">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="M33" s="24"/>
-      <c r="N33" s="23"/>
+        <v>42</v>
+      </c>
+      <c r="M33" s="19"/>
+      <c r="N33" s="18"/>
       <c r="O33" s="2"/>
       <c r="P33">
         <v>18</v>
@@ -3181,7 +3192,7 @@
       <c r="T33" s="10">
         <v>9</v>
       </c>
-      <c r="U33" s="15">
+      <c r="U33" s="11">
         <v>15</v>
       </c>
       <c r="V33">
@@ -3190,38 +3201,41 @@
       <c r="W33">
         <v>20</v>
       </c>
+      <c r="X33">
+        <v>15</v>
+      </c>
       <c r="Y33">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="Z33">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="27" t="s">
+      <c r="B34" s="21"/>
+      <c r="C34" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="27" t="s">
+      <c r="D34" s="23"/>
+      <c r="E34" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="F34" s="29"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="23"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="18"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="22">
+      <c r="L34" s="17">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="M34" s="24"/>
-      <c r="N34" s="23"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="18"/>
       <c r="O34" s="2"/>
       <c r="P34">
         <v>15</v>
@@ -3238,7 +3252,7 @@
       <c r="T34" s="10">
         <v>7</v>
       </c>
-      <c r="U34" s="15">
+      <c r="U34" s="11">
         <v>15</v>
       </c>
       <c r="V34">
@@ -3258,84 +3272,87 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:26" s="13" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="30" t="s">
+    <row r="35" spans="1:26" s="6" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="32" t="s">
+      <c r="B35" s="32"/>
+      <c r="C35" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="32" t="s">
+      <c r="D35" s="34"/>
+      <c r="E35" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="F35" s="34"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="35">
+      <c r="F35" s="35"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="36">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="M35" s="37"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="13">
+        <v>50</v>
+      </c>
+      <c r="M35" s="39"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="6">
         <v>17</v>
       </c>
-      <c r="Q35" s="13">
-        <v>0</v>
-      </c>
-      <c r="S35" s="13">
+      <c r="Q35" s="6">
+        <v>0</v>
+      </c>
+      <c r="S35" s="6">
         <v>10</v>
       </c>
-      <c r="T35" s="14">
+      <c r="T35" s="9">
         <v>10</v>
       </c>
-      <c r="U35" s="13">
+      <c r="U35" s="6">
         <v>18</v>
       </c>
-      <c r="V35" s="13">
-        <v>2</v>
-      </c>
-      <c r="W35" s="13">
+      <c r="V35" s="6">
+        <v>2</v>
+      </c>
+      <c r="W35" s="6">
         <v>19</v>
       </c>
-      <c r="Y35" s="13">
+      <c r="X35" s="6">
+        <v>30</v>
+      </c>
+      <c r="Y35" s="6">
         <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="Z35" s="13">
+        <v>112</v>
+      </c>
+      <c r="Z35" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="27" t="s">
+      <c r="B36" s="21"/>
+      <c r="C36" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="27" t="s">
+      <c r="D36" s="23"/>
+      <c r="E36" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="F36" s="29"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="23"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="18"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="22">
+      <c r="L36" s="17">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="M36" s="24"/>
-      <c r="N36" s="23"/>
+        <v>49</v>
+      </c>
+      <c r="M36" s="19"/>
+      <c r="N36" s="18"/>
       <c r="O36" s="2"/>
       <c r="P36">
         <v>19</v>
@@ -3349,7 +3366,7 @@
       <c r="T36" s="10">
         <v>7</v>
       </c>
-      <c r="U36" s="15">
+      <c r="U36" s="11">
         <v>15</v>
       </c>
       <c r="V36">
@@ -3358,38 +3375,41 @@
       <c r="W36">
         <v>13</v>
       </c>
+      <c r="X36">
+        <v>30</v>
+      </c>
       <c r="Y36">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="27" t="s">
+      <c r="B37" s="21"/>
+      <c r="C37" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="27" t="s">
+      <c r="D37" s="23"/>
+      <c r="E37" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="F37" s="29"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="23"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="18"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="22">
+      <c r="L37" s="17">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="M37" s="24"/>
-      <c r="N37" s="23"/>
+        <v>39</v>
+      </c>
+      <c r="M37" s="19"/>
+      <c r="N37" s="18"/>
       <c r="O37" s="2"/>
       <c r="P37">
         <v>15</v>
@@ -3403,7 +3423,7 @@
       <c r="T37" s="10">
         <v>2</v>
       </c>
-      <c r="U37" s="15">
+      <c r="U37" s="11">
         <v>16</v>
       </c>
       <c r="V37">
@@ -3412,38 +3432,41 @@
       <c r="W37">
         <v>13</v>
       </c>
+      <c r="X37">
+        <v>25</v>
+      </c>
       <c r="Y37">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="27" t="s">
+      <c r="B38" s="21"/>
+      <c r="C38" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="27" t="s">
+      <c r="D38" s="23"/>
+      <c r="E38" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="F38" s="29"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="23"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="18"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="22">
+      <c r="L38" s="17">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="M38" s="24"/>
-      <c r="N38" s="23"/>
+        <v>50</v>
+      </c>
+      <c r="M38" s="19"/>
+      <c r="N38" s="18"/>
       <c r="O38" s="2"/>
       <c r="P38">
         <v>16</v>
@@ -3457,7 +3480,7 @@
       <c r="T38" s="10">
         <v>7</v>
       </c>
-      <c r="U38" s="15">
+      <c r="U38" s="11">
         <v>15</v>
       </c>
       <c r="V38">
@@ -3466,38 +3489,41 @@
       <c r="W38">
         <v>20</v>
       </c>
+      <c r="X38">
+        <v>30</v>
+      </c>
       <c r="Y38">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="27" t="s">
+      <c r="B39" s="21"/>
+      <c r="C39" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="27" t="s">
+      <c r="D39" s="23"/>
+      <c r="E39" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="F39" s="29"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="23"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="18"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="22">
+      <c r="L39" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M39" s="24"/>
-      <c r="N39" s="23"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="18"/>
       <c r="O39" s="2"/>
       <c r="Q39">
         <v>0</v>
@@ -3516,84 +3542,87 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:26" s="13" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="30" t="s">
+    <row r="40" spans="1:26" s="6" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="32" t="s">
+      <c r="B40" s="32"/>
+      <c r="C40" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="D40" s="33"/>
-      <c r="E40" s="32" t="s">
+      <c r="D40" s="34"/>
+      <c r="E40" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="34"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="35">
+      <c r="F40" s="35"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="36">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="M40" s="37"/>
-      <c r="N40" s="36"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="13">
+        <v>31</v>
+      </c>
+      <c r="M40" s="39"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="6">
         <v>13</v>
       </c>
-      <c r="Q40" s="13">
+      <c r="Q40" s="6">
         <v>9</v>
       </c>
-      <c r="R40" s="13">
+      <c r="R40" s="6">
         <v>9</v>
       </c>
-      <c r="T40" s="14">
+      <c r="T40" s="9">
         <v>9</v>
       </c>
-      <c r="U40" s="13">
+      <c r="U40" s="6">
         <v>18</v>
       </c>
-      <c r="V40" s="13">
-        <v>2</v>
-      </c>
-      <c r="W40" s="13">
+      <c r="V40" s="6">
+        <v>2</v>
+      </c>
+      <c r="W40" s="6">
         <v>13</v>
       </c>
-      <c r="Y40" s="13">
+      <c r="X40" s="6">
+        <v>10</v>
+      </c>
+      <c r="Y40" s="6">
         <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="Z40" s="13">
+        <v>81</v>
+      </c>
+      <c r="Z40" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="27" t="s">
+      <c r="B41" s="21"/>
+      <c r="C41" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="27" t="s">
+      <c r="D41" s="23"/>
+      <c r="E41" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="F41" s="29"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="23"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="18"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
-      <c r="L41" s="22">
+      <c r="L41" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M41" s="24"/>
-      <c r="N41" s="23"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="18"/>
       <c r="O41" s="2"/>
       <c r="Q41">
         <v>0</v>
@@ -3613,29 +3642,29 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="27" t="s">
+      <c r="B42" s="21"/>
+      <c r="C42" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="D42" s="28"/>
-      <c r="E42" s="27" t="s">
+      <c r="D42" s="23"/>
+      <c r="E42" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="F42" s="29"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="23"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="18"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
-      <c r="L42" s="22">
+      <c r="L42" s="17">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="M42" s="24"/>
-      <c r="N42" s="23"/>
+        <v>27</v>
+      </c>
+      <c r="M42" s="19"/>
+      <c r="N42" s="18"/>
       <c r="O42" s="2"/>
       <c r="Q42">
         <v>9</v>
@@ -3652,38 +3681,41 @@
       <c r="W42">
         <v>18</v>
       </c>
+      <c r="X42">
+        <v>20</v>
+      </c>
       <c r="Y42">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="Z42">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="27" t="s">
+      <c r="B43" s="21"/>
+      <c r="C43" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="D43" s="28"/>
-      <c r="E43" s="27" t="s">
+      <c r="D43" s="23"/>
+      <c r="E43" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="F43" s="29"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="23"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="18"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
-      <c r="L43" s="22">
+      <c r="L43" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M43" s="24"/>
-      <c r="N43" s="23"/>
+        <v>2</v>
+      </c>
+      <c r="M43" s="19"/>
+      <c r="N43" s="18"/>
       <c r="O43" s="2"/>
       <c r="P43">
         <v>11</v>
@@ -3706,92 +3738,95 @@
       <c r="W43">
         <v>19</v>
       </c>
+      <c r="X43">
+        <v>15</v>
+      </c>
       <c r="Y43">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="Z43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:26" s="13" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="30" t="s">
+    <row r="44" spans="1:26" s="6" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="32" t="s">
+      <c r="B44" s="32"/>
+      <c r="C44" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="D44" s="33"/>
-      <c r="E44" s="32" t="s">
+      <c r="D44" s="34"/>
+      <c r="E44" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="F44" s="34"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="35">
+      <c r="F44" s="35"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="36">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="M44" s="37"/>
-      <c r="N44" s="36"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="13">
+      <c r="M44" s="39"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="6">
         <v>20</v>
       </c>
-      <c r="Q44" s="13">
-        <v>0</v>
-      </c>
-      <c r="S44" s="13">
+      <c r="Q44" s="6">
+        <v>0</v>
+      </c>
+      <c r="S44" s="6">
         <v>10</v>
       </c>
-      <c r="T44" s="14">
+      <c r="T44" s="9">
         <v>10</v>
       </c>
-      <c r="U44" s="16">
+      <c r="U44" s="41">
         <v>18</v>
       </c>
-      <c r="V44" s="13">
-        <v>2</v>
-      </c>
-      <c r="W44" s="13">
+      <c r="V44" s="6">
+        <v>2</v>
+      </c>
+      <c r="W44" s="6">
         <v>16</v>
       </c>
-      <c r="Y44" s="13">
+      <c r="Y44" s="6">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="Z44" s="13">
+      <c r="Z44" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="27" t="s">
+      <c r="B45" s="21"/>
+      <c r="C45" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="D45" s="28"/>
-      <c r="E45" s="27" t="s">
+      <c r="D45" s="23"/>
+      <c r="E45" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="F45" s="29"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="23"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="18"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
-      <c r="L45" s="22">
+      <c r="L45" s="17">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="M45" s="24"/>
-      <c r="N45" s="23"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="18"/>
       <c r="O45" s="2"/>
       <c r="P45">
         <v>14</v>
@@ -3802,7 +3837,7 @@
       <c r="T45" s="10">
         <v>9</v>
       </c>
-      <c r="U45" s="15">
+      <c r="U45" s="11">
         <v>15</v>
       </c>
       <c r="V45">
@@ -3823,29 +3858,29 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="27" t="s">
+      <c r="B46" s="21"/>
+      <c r="C46" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="D46" s="28"/>
-      <c r="E46" s="27" t="s">
+      <c r="D46" s="23"/>
+      <c r="E46" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="F46" s="29"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="23"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="18"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
-      <c r="L46" s="22">
+      <c r="L46" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M46" s="24"/>
-      <c r="N46" s="23"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="18"/>
       <c r="O46" s="2"/>
       <c r="P46">
         <v>13</v>
@@ -3871,29 +3906,29 @@
       </c>
     </row>
     <row r="47" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="27" t="s">
+      <c r="B47" s="21"/>
+      <c r="C47" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="D47" s="28"/>
-      <c r="E47" s="27" t="s">
+      <c r="D47" s="23"/>
+      <c r="E47" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="F47" s="29"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="23"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="18"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
-      <c r="L47" s="22">
+      <c r="L47" s="17">
         <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="M47" s="24"/>
-      <c r="N47" s="23"/>
+        <v>50</v>
+      </c>
+      <c r="M47" s="19"/>
+      <c r="N47" s="18"/>
       <c r="O47" s="2"/>
       <c r="P47">
         <v>20</v>
@@ -3907,7 +3942,7 @@
       <c r="T47" s="10">
         <v>10</v>
       </c>
-      <c r="U47" s="15">
+      <c r="U47" s="11">
         <v>15</v>
       </c>
       <c r="V47">
@@ -3916,38 +3951,41 @@
       <c r="W47">
         <v>16</v>
       </c>
+      <c r="X47">
+        <v>30</v>
+      </c>
       <c r="Y47">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="Z47">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="26"/>
-      <c r="C48" s="27" t="s">
+      <c r="B48" s="21"/>
+      <c r="C48" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="D48" s="28"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="23"/>
+      <c r="E48" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="F48" s="29"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="23"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="18"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
-      <c r="L48" s="22">
+      <c r="L48" s="17">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="M48" s="24"/>
-      <c r="N48" s="23"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="18"/>
       <c r="O48" s="2"/>
       <c r="P48">
         <v>14</v>
@@ -3979,29 +4017,29 @@
       </c>
     </row>
     <row r="49" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="27" t="s">
+      <c r="B49" s="21"/>
+      <c r="C49" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="D49" s="28"/>
-      <c r="E49" s="27" t="s">
+      <c r="D49" s="23"/>
+      <c r="E49" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="F49" s="29"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="23"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="18"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
-      <c r="L49" s="22">
+      <c r="L49" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M49" s="24"/>
-      <c r="N49" s="23"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="18"/>
       <c r="O49" s="2"/>
       <c r="P49">
         <v>16</v>
@@ -4024,29 +4062,29 @@
       </c>
     </row>
     <row r="50" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="27" t="s">
+      <c r="B50" s="21"/>
+      <c r="C50" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="27" t="s">
+      <c r="D50" s="23"/>
+      <c r="E50" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="F50" s="29"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="23"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="18"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="22">
+      <c r="L50" s="17">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="M50" s="24"/>
-      <c r="N50" s="23"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="18"/>
       <c r="O50" s="2"/>
       <c r="P50">
         <v>13</v>
@@ -4063,7 +4101,7 @@
       <c r="T50" s="10">
         <v>5</v>
       </c>
-      <c r="U50" s="15">
+      <c r="U50" s="11">
         <v>15</v>
       </c>
       <c r="V50">
@@ -4084,29 +4122,29 @@
       </c>
     </row>
     <row r="51" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B51" s="26"/>
-      <c r="C51" s="27" t="s">
+      <c r="B51" s="21"/>
+      <c r="C51" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="D51" s="28"/>
-      <c r="E51" s="27" t="s">
+      <c r="D51" s="23"/>
+      <c r="E51" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="F51" s="29"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="23"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="18"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
-      <c r="L51" s="22">
+      <c r="L51" s="17">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="M51" s="24"/>
-      <c r="N51" s="23"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="18"/>
       <c r="O51" s="2"/>
       <c r="Q51">
         <v>0</v>
@@ -4117,7 +4155,7 @@
       <c r="T51" s="10">
         <v>10</v>
       </c>
-      <c r="U51" s="15">
+      <c r="U51" s="11">
         <v>16</v>
       </c>
       <c r="V51">
@@ -4138,29 +4176,29 @@
       </c>
     </row>
     <row r="52" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="27" t="s">
+      <c r="B52" s="21"/>
+      <c r="C52" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="D52" s="28"/>
-      <c r="E52" s="27" t="s">
+      <c r="D52" s="23"/>
+      <c r="E52" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="F52" s="29"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="23"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="18"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
-      <c r="L52" s="22">
+      <c r="L52" s="17">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="M52" s="24"/>
-      <c r="N52" s="23"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="18"/>
       <c r="O52" s="2"/>
       <c r="P52">
         <v>13</v>
@@ -4174,7 +4212,7 @@
       <c r="T52" s="10">
         <v>5</v>
       </c>
-      <c r="U52" s="15">
+      <c r="U52" s="11">
         <v>15</v>
       </c>
       <c r="V52">
@@ -4195,29 +4233,29 @@
       </c>
     </row>
     <row r="53" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="26"/>
-      <c r="C53" s="27" t="s">
+      <c r="B53" s="21"/>
+      <c r="C53" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="27" t="s">
+      <c r="D53" s="23"/>
+      <c r="E53" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="F53" s="29"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="23"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="18"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
-      <c r="L53" s="22">
+      <c r="L53" s="17">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="M53" s="24"/>
-      <c r="N53" s="23"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="18"/>
       <c r="O53" s="2"/>
       <c r="P53">
         <v>17</v>
@@ -4234,7 +4272,7 @@
       <c r="T53" s="10">
         <v>6</v>
       </c>
-      <c r="U53" s="15">
+      <c r="U53" s="11">
         <v>16</v>
       </c>
       <c r="V53">
@@ -4244,40 +4282,40 @@
         <v>20</v>
       </c>
       <c r="X53">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Y53">
         <f t="shared" si="1"/>
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="Z53">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B54" s="26"/>
-      <c r="C54" s="27" t="s">
+      <c r="B54" s="21"/>
+      <c r="C54" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="D54" s="28"/>
-      <c r="E54" s="27" t="s">
+      <c r="D54" s="23"/>
+      <c r="E54" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="F54" s="29"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="23"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="18"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="22">
+      <c r="L54" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M54" s="24"/>
-      <c r="N54" s="23"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="18"/>
       <c r="O54" s="2"/>
       <c r="Q54">
         <v>0</v>
@@ -4297,29 +4335,29 @@
       </c>
     </row>
     <row r="55" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B55" s="26"/>
-      <c r="C55" s="27" t="s">
+      <c r="B55" s="21"/>
+      <c r="C55" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="D55" s="28"/>
-      <c r="E55" s="27" t="s">
+      <c r="D55" s="23"/>
+      <c r="E55" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="F55" s="29"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="23"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="18"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="22">
+      <c r="L55" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M55" s="24"/>
-      <c r="N55" s="23"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="18"/>
       <c r="O55" s="2"/>
       <c r="Q55">
         <v>0</v>
@@ -4330,7 +4368,7 @@
       <c r="T55" s="10">
         <v>2</v>
       </c>
-      <c r="U55" s="15">
+      <c r="U55" s="11">
         <v>16</v>
       </c>
       <c r="V55">
@@ -4348,29 +4386,29 @@
       </c>
     </row>
     <row r="56" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B56" s="26"/>
-      <c r="C56" s="27" t="s">
+      <c r="B56" s="21"/>
+      <c r="C56" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="D56" s="28"/>
-      <c r="E56" s="27" t="s">
+      <c r="D56" s="23"/>
+      <c r="E56" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="F56" s="29"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="23"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="18"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="22">
+      <c r="L56" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M56" s="24"/>
-      <c r="N56" s="23"/>
+        <v>12</v>
+      </c>
+      <c r="M56" s="19"/>
+      <c r="N56" s="18"/>
       <c r="O56" s="2"/>
       <c r="Q56">
         <v>0</v>
@@ -4381,7 +4419,7 @@
       <c r="T56" s="10">
         <v>5</v>
       </c>
-      <c r="U56" s="15">
+      <c r="U56" s="11">
         <v>17</v>
       </c>
       <c r="V56">
@@ -4390,38 +4428,41 @@
       <c r="W56">
         <v>15</v>
       </c>
+      <c r="X56">
+        <v>20</v>
+      </c>
       <c r="Y56">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="Z56">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B57" s="26"/>
-      <c r="C57" s="27" t="s">
+      <c r="B57" s="21"/>
+      <c r="C57" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D57" s="28"/>
-      <c r="E57" s="27" t="s">
+      <c r="D57" s="23"/>
+      <c r="E57" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="F57" s="29"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="23"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="18"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="22">
+      <c r="L57" s="17">
         <f t="shared" si="0"/>
-        <v>28.5</v>
-      </c>
-      <c r="M57" s="24"/>
-      <c r="N57" s="23"/>
+        <v>48.5</v>
+      </c>
+      <c r="M57" s="19"/>
+      <c r="N57" s="18"/>
       <c r="O57" s="2"/>
       <c r="Q57">
         <v>8</v>
@@ -4432,7 +4473,7 @@
       <c r="T57" s="10">
         <v>5</v>
       </c>
-      <c r="U57" s="15">
+      <c r="U57" s="11">
         <v>16</v>
       </c>
       <c r="V57">
@@ -4441,38 +4482,41 @@
       <c r="W57">
         <v>19</v>
       </c>
+      <c r="X57">
+        <v>20</v>
+      </c>
       <c r="Y57">
         <f t="shared" si="1"/>
-        <v>78.5</v>
+        <v>98.5</v>
       </c>
       <c r="Z57">
         <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B58" s="26"/>
-      <c r="C58" s="27" t="s">
+      <c r="B58" s="21"/>
+      <c r="C58" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D58" s="28"/>
-      <c r="E58" s="27" t="s">
+      <c r="D58" s="23"/>
+      <c r="E58" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="F58" s="29"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="23"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="18"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="22">
+      <c r="L58" s="17">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="M58" s="24"/>
-      <c r="N58" s="23"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="18"/>
       <c r="O58" s="2"/>
       <c r="P58">
         <v>14</v>
@@ -4486,7 +4530,7 @@
       <c r="T58" s="10">
         <v>8</v>
       </c>
-      <c r="U58" s="15">
+      <c r="U58" s="11">
         <v>16</v>
       </c>
       <c r="V58">
@@ -4507,29 +4551,29 @@
       </c>
     </row>
     <row r="59" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B59" s="26"/>
-      <c r="C59" s="27" t="s">
+      <c r="B59" s="21"/>
+      <c r="C59" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="27" t="s">
+      <c r="D59" s="23"/>
+      <c r="E59" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="F59" s="29"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="23"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="18"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="22">
+      <c r="L59" s="17">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="M59" s="24"/>
-      <c r="N59" s="23"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="18"/>
       <c r="O59" s="2"/>
       <c r="P59">
         <v>13</v>
@@ -4540,7 +4584,7 @@
       <c r="T59" s="10">
         <v>8</v>
       </c>
-      <c r="U59" s="15">
+      <c r="U59" s="11">
         <v>14</v>
       </c>
       <c r="V59">
@@ -4561,29 +4605,29 @@
       </c>
     </row>
     <row r="60" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B60" s="26"/>
-      <c r="C60" s="27" t="s">
+      <c r="B60" s="21"/>
+      <c r="C60" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="D60" s="28"/>
-      <c r="E60" s="27" t="s">
+      <c r="D60" s="23"/>
+      <c r="E60" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="F60" s="29"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="23"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="18"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="22">
+      <c r="L60" s="17">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="M60" s="24"/>
-      <c r="N60" s="23"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="18"/>
       <c r="O60" s="2"/>
       <c r="P60">
         <v>13</v>
@@ -4600,7 +4644,7 @@
       <c r="T60" s="10">
         <v>7</v>
       </c>
-      <c r="U60" s="15">
+      <c r="U60" s="11">
         <v>15</v>
       </c>
       <c r="V60">
@@ -4618,29 +4662,29 @@
       </c>
     </row>
     <row r="61" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B61" s="26"/>
-      <c r="C61" s="27" t="s">
+      <c r="B61" s="21"/>
+      <c r="C61" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="D61" s="28"/>
-      <c r="E61" s="27" t="s">
+      <c r="D61" s="23"/>
+      <c r="E61" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="F61" s="29"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="23"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="18"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="22">
+      <c r="L61" s="17">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="M61" s="24"/>
-      <c r="N61" s="23"/>
+        <v>38</v>
+      </c>
+      <c r="M61" s="19"/>
+      <c r="N61" s="18"/>
       <c r="O61" s="2"/>
       <c r="P61">
         <v>14</v>
@@ -4651,7 +4695,7 @@
       <c r="T61" s="10">
         <v>10</v>
       </c>
-      <c r="U61" s="15">
+      <c r="U61" s="11">
         <v>15</v>
       </c>
       <c r="V61">
@@ -4660,38 +4704,41 @@
       <c r="W61">
         <v>19</v>
       </c>
+      <c r="X61">
+        <v>15</v>
+      </c>
       <c r="Y61">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="Z61">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B62" s="26"/>
-      <c r="C62" s="27" t="s">
+      <c r="B62" s="21"/>
+      <c r="C62" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="27" t="s">
+      <c r="D62" s="23"/>
+      <c r="E62" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="F62" s="29"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="23"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="18"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="22">
+      <c r="L62" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M62" s="24"/>
-      <c r="N62" s="23"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="18"/>
       <c r="O62" s="2"/>
       <c r="P62">
         <v>13</v>
@@ -4705,38 +4752,41 @@
       <c r="V62">
         <v>2</v>
       </c>
+      <c r="X62">
+        <v>15</v>
+      </c>
       <c r="Y62">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="Z62">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B63" s="26"/>
-      <c r="C63" s="27" t="s">
+      <c r="B63" s="21"/>
+      <c r="C63" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="D63" s="28"/>
-      <c r="E63" s="27" t="s">
+      <c r="D63" s="23"/>
+      <c r="E63" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="F63" s="29"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="23"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="18"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="22">
+      <c r="L63" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M63" s="24"/>
-      <c r="N63" s="23"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="18"/>
       <c r="O63" s="2"/>
       <c r="Q63">
         <v>0</v>
@@ -4756,29 +4806,29 @@
       </c>
     </row>
     <row r="64" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B64" s="26"/>
-      <c r="C64" s="27" t="s">
+      <c r="B64" s="21"/>
+      <c r="C64" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="D64" s="28"/>
-      <c r="E64" s="27" t="s">
+      <c r="D64" s="23"/>
+      <c r="E64" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="F64" s="29"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="23"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="18"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="22">
+      <c r="L64" s="17">
         <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="M64" s="24"/>
-      <c r="N64" s="23"/>
+        <v>44</v>
+      </c>
+      <c r="M64" s="19"/>
+      <c r="N64" s="18"/>
       <c r="O64" s="2"/>
       <c r="P64">
         <v>18</v>
@@ -4795,7 +4845,7 @@
       <c r="T64" s="10">
         <v>6</v>
       </c>
-      <c r="U64" s="15">
+      <c r="U64" s="11">
         <v>16</v>
       </c>
       <c r="V64">
@@ -4804,38 +4854,41 @@
       <c r="W64">
         <v>20</v>
       </c>
+      <c r="X64">
+        <v>15</v>
+      </c>
       <c r="Y64">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="Z64">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B65" s="26"/>
-      <c r="C65" s="27" t="s">
+      <c r="B65" s="21"/>
+      <c r="C65" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="D65" s="28"/>
-      <c r="E65" s="27" t="s">
+      <c r="D65" s="23"/>
+      <c r="E65" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="F65" s="29"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="23"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="18"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="22">
+      <c r="L65" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M65" s="24"/>
-      <c r="N65" s="23"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="18"/>
       <c r="O65" s="2"/>
       <c r="Q65">
         <v>0</v>
@@ -4854,75 +4907,84 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:26" s="13" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="30" t="s">
+    <row r="66" spans="1:26" s="6" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="B66" s="31"/>
-      <c r="C66" s="32" t="s">
+      <c r="B66" s="32"/>
+      <c r="C66" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="D66" s="33"/>
-      <c r="E66" s="32" t="s">
+      <c r="D66" s="34"/>
+      <c r="E66" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="F66" s="34"/>
-      <c r="G66" s="33"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="11"/>
-      <c r="K66" s="11"/>
-      <c r="L66" s="35">
+      <c r="F66" s="35"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="38"/>
+      <c r="K66" s="38"/>
+      <c r="L66" s="36">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M66" s="37"/>
-      <c r="N66" s="36"/>
-      <c r="O66" s="12"/>
-      <c r="P66" s="13">
+        <v>30</v>
+      </c>
+      <c r="M66" s="39"/>
+      <c r="N66" s="37"/>
+      <c r="O66" s="40"/>
+      <c r="P66" s="6">
         <v>13</v>
       </c>
-      <c r="Q66" s="13">
-        <v>0</v>
-      </c>
-      <c r="T66" s="14">
-        <v>0</v>
-      </c>
-      <c r="V66" s="13">
-        <v>2</v>
-      </c>
-      <c r="Y66" s="13">
+      <c r="Q66" s="6">
+        <v>0</v>
+      </c>
+      <c r="T66" s="9">
+        <v>9</v>
+      </c>
+      <c r="U66" s="6">
+        <v>16</v>
+      </c>
+      <c r="V66" s="6">
+        <v>2</v>
+      </c>
+      <c r="W66" s="6">
+        <v>15</v>
+      </c>
+      <c r="X66" s="6">
+        <v>11</v>
+      </c>
+      <c r="Y66" s="6">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="Z66" s="13">
+        <v>80</v>
+      </c>
+      <c r="Z66" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="26"/>
-      <c r="C67" s="27" t="s">
+      <c r="B67" s="21"/>
+      <c r="C67" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="D67" s="28"/>
-      <c r="E67" s="27" t="s">
+      <c r="D67" s="23"/>
+      <c r="E67" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="F67" s="29"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="23"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="18"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="22">
+      <c r="L67" s="17">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="M67" s="24"/>
-      <c r="N67" s="23"/>
+        <v>33</v>
+      </c>
+      <c r="M67" s="19"/>
+      <c r="N67" s="18"/>
       <c r="O67" s="2"/>
       <c r="P67">
         <v>15</v>
@@ -4939,7 +5001,7 @@
       <c r="T67" s="10">
         <v>8</v>
       </c>
-      <c r="U67" s="15">
+      <c r="U67" s="11">
         <v>14</v>
       </c>
       <c r="V67">
@@ -4948,38 +5010,41 @@
       <c r="W67">
         <v>17</v>
       </c>
+      <c r="X67">
+        <v>15</v>
+      </c>
       <c r="Y67">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="Z67">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B68" s="26"/>
-      <c r="C68" s="27" t="s">
+      <c r="B68" s="21"/>
+      <c r="C68" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="D68" s="28"/>
-      <c r="E68" s="27" t="s">
+      <c r="D68" s="23"/>
+      <c r="E68" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="F68" s="29"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="23"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="18"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-      <c r="L68" s="22">
+      <c r="L68" s="17">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="M68" s="24"/>
-      <c r="N68" s="23"/>
+      <c r="M68" s="19"/>
+      <c r="N68" s="18"/>
       <c r="O68" s="2"/>
       <c r="P68">
         <v>15</v>
@@ -4993,7 +5058,7 @@
       <c r="T68" s="10">
         <v>2</v>
       </c>
-      <c r="U68" s="15">
+      <c r="U68" s="11">
         <v>14</v>
       </c>
       <c r="V68">
@@ -5014,29 +5079,29 @@
       </c>
     </row>
     <row r="69" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B69" s="26"/>
-      <c r="C69" s="27" t="s">
+      <c r="B69" s="21"/>
+      <c r="C69" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="D69" s="28"/>
-      <c r="E69" s="27" t="s">
+      <c r="D69" s="23"/>
+      <c r="E69" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="F69" s="29"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="23"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="18"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="22">
+      <c r="L69" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M69" s="24"/>
-      <c r="N69" s="23"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="18"/>
       <c r="O69" s="2"/>
       <c r="Q69">
         <v>10</v>
@@ -5062,29 +5127,29 @@
       </c>
     </row>
     <row r="70" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="25" t="s">
+      <c r="A70" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B70" s="26"/>
-      <c r="C70" s="27" t="s">
+      <c r="B70" s="21"/>
+      <c r="C70" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="D70" s="28"/>
-      <c r="E70" s="27" t="s">
+      <c r="D70" s="23"/>
+      <c r="E70" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="F70" s="29"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="23"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="18"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
-      <c r="L70" s="22">
+      <c r="L70" s="17">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="M70" s="24"/>
-      <c r="N70" s="23"/>
+      <c r="M70" s="19"/>
+      <c r="N70" s="18"/>
       <c r="O70" s="2"/>
       <c r="P70">
         <v>18</v>
@@ -5101,7 +5166,7 @@
       <c r="T70" s="10">
         <v>7</v>
       </c>
-      <c r="U70" s="15">
+      <c r="U70" s="11">
         <v>16</v>
       </c>
       <c r="V70">
@@ -5122,29 +5187,29 @@
       </c>
     </row>
     <row r="71" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B71" s="26"/>
-      <c r="C71" s="27" t="s">
+      <c r="B71" s="21"/>
+      <c r="C71" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="D71" s="28"/>
-      <c r="E71" s="27" t="s">
+      <c r="D71" s="23"/>
+      <c r="E71" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="F71" s="29"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="23"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="18"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
-      <c r="L71" s="22">
+      <c r="L71" s="17">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="M71" s="24"/>
-      <c r="N71" s="23"/>
+      <c r="M71" s="19"/>
+      <c r="N71" s="18"/>
       <c r="O71" s="2"/>
       <c r="Q71">
         <v>0</v>
@@ -5155,7 +5220,7 @@
       <c r="T71" s="10">
         <v>2</v>
       </c>
-      <c r="U71" s="15">
+      <c r="U71" s="11">
         <v>15</v>
       </c>
       <c r="V71">
@@ -5176,29 +5241,29 @@
       </c>
     </row>
     <row r="72" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="25" t="s">
+      <c r="A72" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="B72" s="26"/>
-      <c r="C72" s="27" t="s">
+      <c r="B72" s="21"/>
+      <c r="C72" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="D72" s="28"/>
-      <c r="E72" s="27" t="s">
+      <c r="D72" s="23"/>
+      <c r="E72" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="F72" s="29"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="22"/>
-      <c r="I72" s="23"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="18"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="L72" s="22">
+      <c r="L72" s="17">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="M72" s="24"/>
-      <c r="N72" s="23"/>
+        <v>41</v>
+      </c>
+      <c r="M72" s="19"/>
+      <c r="N72" s="18"/>
       <c r="O72" s="2"/>
       <c r="P72">
         <v>15</v>
@@ -5212,7 +5277,7 @@
       <c r="T72" s="10">
         <v>2</v>
       </c>
-      <c r="U72" s="15">
+      <c r="U72" s="11">
         <v>16</v>
       </c>
       <c r="V72">
@@ -5221,38 +5286,41 @@
       <c r="W72">
         <v>20</v>
       </c>
+      <c r="X72">
+        <v>20</v>
+      </c>
       <c r="Y72">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="Z72">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="25" t="s">
+      <c r="A73" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B73" s="26"/>
-      <c r="C73" s="27" t="s">
+      <c r="B73" s="21"/>
+      <c r="C73" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="D73" s="28"/>
-      <c r="E73" s="27" t="s">
+      <c r="D73" s="23"/>
+      <c r="E73" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="F73" s="29"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="23"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="18"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
-      <c r="L73" s="22">
+      <c r="L73" s="17">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="M73" s="24"/>
-      <c r="N73" s="23"/>
+      <c r="M73" s="19"/>
+      <c r="N73" s="18"/>
       <c r="O73" s="2"/>
       <c r="P73">
         <v>13</v>
@@ -5269,7 +5337,7 @@
       <c r="T73" s="10">
         <v>6</v>
       </c>
-      <c r="U73" s="15">
+      <c r="U73" s="11">
         <v>14</v>
       </c>
       <c r="V73">
@@ -5287,29 +5355,29 @@
       </c>
     </row>
     <row r="74" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="25" t="s">
+      <c r="A74" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B74" s="26"/>
-      <c r="C74" s="27" t="s">
+      <c r="B74" s="21"/>
+      <c r="C74" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="D74" s="28"/>
-      <c r="E74" s="27" t="s">
+      <c r="D74" s="23"/>
+      <c r="E74" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="F74" s="29"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="23"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="18"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
-      <c r="L74" s="22">
+      <c r="L74" s="17">
         <f t="shared" si="0"/>
         <v>29.333333333333343</v>
       </c>
-      <c r="M74" s="24"/>
-      <c r="N74" s="23"/>
+      <c r="M74" s="19"/>
+      <c r="N74" s="18"/>
       <c r="O74" s="2"/>
       <c r="Q74">
         <v>0</v>
@@ -5323,7 +5391,7 @@
       <c r="T74" s="10">
         <v>7</v>
       </c>
-      <c r="U74" s="15">
+      <c r="U74" s="11">
         <v>16</v>
       </c>
       <c r="V74">
@@ -5344,29 +5412,29 @@
       </c>
     </row>
     <row r="75" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25" t="s">
+      <c r="A75" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="B75" s="26"/>
-      <c r="C75" s="27" t="s">
+      <c r="B75" s="21"/>
+      <c r="C75" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="D75" s="28"/>
-      <c r="E75" s="27" t="s">
+      <c r="D75" s="23"/>
+      <c r="E75" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="F75" s="29"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="22"/>
-      <c r="I75" s="23"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="18"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
-      <c r="L75" s="22">
+      <c r="L75" s="17">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="M75" s="24"/>
-      <c r="N75" s="23"/>
+      <c r="M75" s="19"/>
+      <c r="N75" s="18"/>
       <c r="O75" s="2"/>
       <c r="P75">
         <v>14</v>
@@ -5380,7 +5448,7 @@
       <c r="T75" s="10">
         <v>2</v>
       </c>
-      <c r="U75" s="15">
+      <c r="U75" s="11">
         <v>16</v>
       </c>
       <c r="V75">
@@ -5401,29 +5469,29 @@
       </c>
     </row>
     <row r="76" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="25" t="s">
+      <c r="A76" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="B76" s="26"/>
-      <c r="C76" s="27" t="s">
+      <c r="B76" s="21"/>
+      <c r="C76" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="D76" s="28"/>
-      <c r="E76" s="27" t="s">
+      <c r="D76" s="23"/>
+      <c r="E76" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="F76" s="29"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="22"/>
-      <c r="I76" s="23"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="18"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
-      <c r="L76" s="22">
+      <c r="L76" s="17">
         <f t="shared" ref="L76:L113" si="2">IF((Y76-50)&gt;50,50,IF((Y76-50)&lt;0,0,(Y76-50)))</f>
         <v>0</v>
       </c>
-      <c r="M76" s="24"/>
-      <c r="N76" s="23"/>
+      <c r="M76" s="19"/>
+      <c r="N76" s="18"/>
       <c r="O76" s="2"/>
       <c r="Q76">
         <v>0</v>
@@ -5443,29 +5511,29 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="25" t="s">
+      <c r="A77" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="B77" s="26"/>
-      <c r="C77" s="27" t="s">
+      <c r="B77" s="21"/>
+      <c r="C77" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="D77" s="28"/>
-      <c r="E77" s="27" t="s">
+      <c r="D77" s="23"/>
+      <c r="E77" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="F77" s="29"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="23"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="18"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
-      <c r="L77" s="22">
+      <c r="L77" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M77" s="24"/>
-      <c r="N77" s="23"/>
+        <v>25</v>
+      </c>
+      <c r="M77" s="19"/>
+      <c r="N77" s="18"/>
       <c r="O77" s="2"/>
       <c r="P77">
         <v>19</v>
@@ -5485,38 +5553,41 @@
       <c r="W77">
         <v>16</v>
       </c>
+      <c r="X77">
+        <v>30</v>
+      </c>
       <c r="Y77">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="Z77">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="25" t="s">
+      <c r="A78" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="B78" s="26"/>
-      <c r="C78" s="27" t="s">
+      <c r="B78" s="21"/>
+      <c r="C78" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="D78" s="28"/>
-      <c r="E78" s="27" t="s">
+      <c r="D78" s="23"/>
+      <c r="E78" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="F78" s="29"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="23"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="18"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
-      <c r="L78" s="22">
+      <c r="L78" s="17">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="M78" s="24"/>
-      <c r="N78" s="23"/>
+      <c r="M78" s="19"/>
+      <c r="N78" s="18"/>
       <c r="O78" s="2"/>
       <c r="P78">
         <v>16</v>
@@ -5530,7 +5601,7 @@
       <c r="T78" s="10">
         <v>10</v>
       </c>
-      <c r="U78" s="15">
+      <c r="U78" s="11">
         <v>14</v>
       </c>
       <c r="V78">
@@ -5548,29 +5619,29 @@
       </c>
     </row>
     <row r="79" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="25" t="s">
+      <c r="A79" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="B79" s="26"/>
-      <c r="C79" s="27" t="s">
+      <c r="B79" s="21"/>
+      <c r="C79" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="D79" s="28"/>
-      <c r="E79" s="27" t="s">
+      <c r="D79" s="23"/>
+      <c r="E79" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="F79" s="29"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="22"/>
-      <c r="I79" s="23"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="18"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
-      <c r="L79" s="22">
+      <c r="L79" s="17">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="M79" s="24"/>
-      <c r="N79" s="23"/>
+      <c r="M79" s="19"/>
+      <c r="N79" s="18"/>
       <c r="O79" s="2"/>
       <c r="Q79">
         <v>0</v>
@@ -5581,7 +5652,7 @@
       <c r="T79" s="10">
         <v>7</v>
       </c>
-      <c r="U79" s="15">
+      <c r="U79" s="11">
         <v>15</v>
       </c>
       <c r="V79">
@@ -5602,29 +5673,29 @@
       </c>
     </row>
     <row r="80" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="25" t="s">
+      <c r="A80" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="B80" s="26"/>
-      <c r="C80" s="27" t="s">
+      <c r="B80" s="21"/>
+      <c r="C80" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="27" t="s">
+      <c r="D80" s="23"/>
+      <c r="E80" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F80" s="29"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="22"/>
-      <c r="I80" s="23"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="18"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
-      <c r="L80" s="22">
+      <c r="L80" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M80" s="24"/>
-      <c r="N80" s="23"/>
+      <c r="M80" s="19"/>
+      <c r="N80" s="18"/>
       <c r="O80" s="2"/>
       <c r="P80">
         <v>16</v>
@@ -5641,38 +5712,41 @@
       <c r="V80">
         <v>1</v>
       </c>
+      <c r="X80">
+        <v>20</v>
+      </c>
       <c r="Y80">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="Z80">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="25" t="s">
+      <c r="A81" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="B81" s="26"/>
-      <c r="C81" s="27" t="s">
+      <c r="B81" s="21"/>
+      <c r="C81" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="D81" s="28"/>
-      <c r="E81" s="27" t="s">
+      <c r="D81" s="23"/>
+      <c r="E81" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="F81" s="29"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="22"/>
-      <c r="I81" s="23"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="18"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
-      <c r="L81" s="22">
+      <c r="L81" s="17">
         <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="M81" s="24"/>
-      <c r="N81" s="23"/>
+        <v>39</v>
+      </c>
+      <c r="M81" s="19"/>
+      <c r="N81" s="18"/>
       <c r="O81" s="2"/>
       <c r="P81">
         <v>16</v>
@@ -5689,7 +5763,7 @@
       <c r="T81" s="10">
         <v>6</v>
       </c>
-      <c r="U81" s="15">
+      <c r="U81" s="11">
         <v>14</v>
       </c>
       <c r="V81">
@@ -5698,38 +5772,41 @@
       <c r="W81">
         <v>16</v>
       </c>
+      <c r="X81">
+        <v>20</v>
+      </c>
       <c r="Y81">
         <f t="shared" si="3"/>
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="Z81">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25" t="s">
+      <c r="A82" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="B82" s="26"/>
-      <c r="C82" s="27" t="s">
+      <c r="B82" s="21"/>
+      <c r="C82" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="D82" s="28"/>
-      <c r="E82" s="27" t="s">
+      <c r="D82" s="23"/>
+      <c r="E82" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="F82" s="29"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="22"/>
-      <c r="I82" s="23"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="18"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
-      <c r="L82" s="22">
+      <c r="L82" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M82" s="24"/>
-      <c r="N82" s="23"/>
+      <c r="M82" s="19"/>
+      <c r="N82" s="18"/>
       <c r="O82" s="2"/>
       <c r="Q82">
         <v>10</v>
@@ -5749,29 +5826,29 @@
       </c>
     </row>
     <row r="83" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="25" t="s">
+      <c r="A83" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="B83" s="26"/>
-      <c r="C83" s="27" t="s">
+      <c r="B83" s="21"/>
+      <c r="C83" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="D83" s="28"/>
-      <c r="E83" s="27" t="s">
+      <c r="D83" s="23"/>
+      <c r="E83" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="F83" s="29"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="22"/>
-      <c r="I83" s="23"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="18"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
-      <c r="L83" s="22">
+      <c r="L83" s="17">
         <f t="shared" si="2"/>
-        <v>17.75</v>
-      </c>
-      <c r="M83" s="24"/>
-      <c r="N83" s="23"/>
+        <v>47.75</v>
+      </c>
+      <c r="M83" s="19"/>
+      <c r="N83" s="18"/>
       <c r="O83" s="2"/>
       <c r="P83">
         <v>11</v>
@@ -5788,7 +5865,7 @@
       <c r="T83" s="10">
         <v>8</v>
       </c>
-      <c r="U83" s="15">
+      <c r="U83" s="11">
         <v>15</v>
       </c>
       <c r="V83">
@@ -5797,38 +5874,41 @@
       <c r="W83">
         <v>19</v>
       </c>
+      <c r="X83">
+        <v>30</v>
+      </c>
       <c r="Y83">
         <f t="shared" si="3"/>
-        <v>67.75</v>
+        <v>97.75</v>
       </c>
       <c r="Z83">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="25" t="s">
+      <c r="A84" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="B84" s="26"/>
-      <c r="C84" s="27" t="s">
+      <c r="B84" s="21"/>
+      <c r="C84" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="D84" s="28"/>
-      <c r="E84" s="27" t="s">
+      <c r="D84" s="23"/>
+      <c r="E84" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="F84" s="29"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="23"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="18"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
-      <c r="L84" s="22">
+      <c r="L84" s="17">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="M84" s="24"/>
-      <c r="N84" s="23"/>
+        <v>24</v>
+      </c>
+      <c r="M84" s="19"/>
+      <c r="N84" s="18"/>
       <c r="O84" s="2"/>
       <c r="Q84">
         <v>0</v>
@@ -5839,7 +5919,7 @@
       <c r="T84" s="10">
         <v>5</v>
       </c>
-      <c r="U84" s="15">
+      <c r="U84" s="11">
         <v>15</v>
       </c>
       <c r="V84">
@@ -5848,38 +5928,41 @@
       <c r="W84">
         <v>19</v>
       </c>
+      <c r="X84">
+        <v>15</v>
+      </c>
       <c r="Y84">
         <f t="shared" si="3"/>
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="Z84">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="25" t="s">
+      <c r="A85" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="B85" s="26"/>
-      <c r="C85" s="27" t="s">
+      <c r="B85" s="21"/>
+      <c r="C85" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="D85" s="28"/>
-      <c r="E85" s="27" t="s">
+      <c r="D85" s="23"/>
+      <c r="E85" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="F85" s="29"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="22"/>
-      <c r="I85" s="23"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="18"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
-      <c r="L85" s="22">
+      <c r="L85" s="17">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="M85" s="24"/>
-      <c r="N85" s="23"/>
+      <c r="M85" s="19"/>
+      <c r="N85" s="18"/>
       <c r="O85" s="2"/>
       <c r="P85">
         <v>13</v>
@@ -5893,7 +5976,7 @@
       <c r="T85" s="10">
         <v>7</v>
       </c>
-      <c r="U85" s="15">
+      <c r="U85" s="11">
         <v>14</v>
       </c>
       <c r="V85">
@@ -5914,29 +5997,29 @@
       </c>
     </row>
     <row r="86" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="25" t="s">
+      <c r="A86" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="B86" s="26"/>
-      <c r="C86" s="27" t="s">
+      <c r="B86" s="21"/>
+      <c r="C86" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="D86" s="28"/>
-      <c r="E86" s="27" t="s">
+      <c r="D86" s="23"/>
+      <c r="E86" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="F86" s="29"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="22"/>
-      <c r="I86" s="23"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="18"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
-      <c r="L86" s="22">
+      <c r="L86" s="17">
         <f t="shared" si="2"/>
         <v>16.5</v>
       </c>
-      <c r="M86" s="24"/>
-      <c r="N86" s="23"/>
+      <c r="M86" s="19"/>
+      <c r="N86" s="18"/>
       <c r="O86" s="2"/>
       <c r="P86">
         <v>16</v>
@@ -5950,7 +6033,7 @@
       <c r="T86" s="10">
         <v>5</v>
       </c>
-      <c r="U86" s="15">
+      <c r="U86" s="11">
         <v>15</v>
       </c>
       <c r="V86">
@@ -5968,29 +6051,29 @@
       </c>
     </row>
     <row r="87" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="25" t="s">
+      <c r="A87" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="B87" s="26"/>
-      <c r="C87" s="27" t="s">
+      <c r="B87" s="21"/>
+      <c r="C87" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="D87" s="28"/>
-      <c r="E87" s="27" t="s">
+      <c r="D87" s="23"/>
+      <c r="E87" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="F87" s="29"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="22"/>
-      <c r="I87" s="23"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="18"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
-      <c r="L87" s="22">
+      <c r="L87" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M87" s="24"/>
-      <c r="N87" s="23"/>
+      <c r="M87" s="19"/>
+      <c r="N87" s="18"/>
       <c r="O87" s="2"/>
       <c r="Q87">
         <v>0</v>
@@ -6010,29 +6093,29 @@
       </c>
     </row>
     <row r="88" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="25" t="s">
+      <c r="A88" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="B88" s="26"/>
-      <c r="C88" s="27" t="s">
+      <c r="B88" s="21"/>
+      <c r="C88" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="D88" s="28"/>
-      <c r="E88" s="27" t="s">
+      <c r="D88" s="23"/>
+      <c r="E88" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="F88" s="29"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="22"/>
-      <c r="I88" s="23"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="18"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
-      <c r="L88" s="22">
+      <c r="L88" s="17">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="M88" s="24"/>
-      <c r="N88" s="23"/>
+      <c r="M88" s="19"/>
+      <c r="N88" s="18"/>
       <c r="O88" s="2"/>
       <c r="P88">
         <v>14</v>
@@ -6043,7 +6126,7 @@
       <c r="T88" s="10">
         <v>10</v>
       </c>
-      <c r="U88" s="15">
+      <c r="U88" s="11">
         <v>15</v>
       </c>
       <c r="V88">
@@ -6064,29 +6147,29 @@
       </c>
     </row>
     <row r="89" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="25" t="s">
+      <c r="A89" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="B89" s="26"/>
-      <c r="C89" s="27" t="s">
+      <c r="B89" s="21"/>
+      <c r="C89" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="27" t="s">
+      <c r="D89" s="23"/>
+      <c r="E89" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="F89" s="29"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="22"/>
-      <c r="I89" s="23"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="18"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
-      <c r="L89" s="22">
+      <c r="L89" s="17">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="M89" s="24"/>
-      <c r="N89" s="23"/>
+      <c r="M89" s="19"/>
+      <c r="N89" s="18"/>
       <c r="O89" s="2"/>
       <c r="P89">
         <v>13</v>
@@ -6097,7 +6180,7 @@
       <c r="T89" s="10">
         <v>10</v>
       </c>
-      <c r="U89" s="15">
+      <c r="U89" s="11">
         <v>16</v>
       </c>
       <c r="V89">
@@ -6118,29 +6201,29 @@
       </c>
     </row>
     <row r="90" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="25" t="s">
+      <c r="A90" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="B90" s="26"/>
-      <c r="C90" s="27" t="s">
+      <c r="B90" s="21"/>
+      <c r="C90" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="D90" s="28"/>
-      <c r="E90" s="27" t="s">
+      <c r="D90" s="23"/>
+      <c r="E90" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="F90" s="29"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="22"/>
-      <c r="I90" s="23"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="18"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
-      <c r="L90" s="22">
+      <c r="L90" s="17">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="M90" s="24"/>
-      <c r="N90" s="23"/>
+      <c r="M90" s="19"/>
+      <c r="N90" s="18"/>
       <c r="O90" s="2"/>
       <c r="P90">
         <v>14</v>
@@ -6151,7 +6234,7 @@
       <c r="T90" s="10">
         <v>10</v>
       </c>
-      <c r="U90" s="15">
+      <c r="U90" s="11">
         <v>16</v>
       </c>
       <c r="V90">
@@ -6172,29 +6255,29 @@
       </c>
     </row>
     <row r="91" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="25" t="s">
+      <c r="A91" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="B91" s="26"/>
-      <c r="C91" s="27" t="s">
+      <c r="B91" s="21"/>
+      <c r="C91" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="D91" s="28"/>
-      <c r="E91" s="27" t="s">
+      <c r="D91" s="23"/>
+      <c r="E91" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="F91" s="29"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="22"/>
-      <c r="I91" s="23"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="18"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
-      <c r="L91" s="22">
+      <c r="L91" s="17">
         <f t="shared" si="2"/>
         <v>17.666666666666671</v>
       </c>
-      <c r="M91" s="24"/>
-      <c r="N91" s="23"/>
+      <c r="M91" s="19"/>
+      <c r="N91" s="18"/>
       <c r="O91" s="2"/>
       <c r="P91">
         <v>13</v>
@@ -6211,7 +6294,7 @@
       <c r="T91" s="10">
         <v>6</v>
       </c>
-      <c r="U91" s="15">
+      <c r="U91" s="11">
         <v>14</v>
       </c>
       <c r="V91">
@@ -6229,29 +6312,29 @@
       </c>
     </row>
     <row r="92" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="25" t="s">
+      <c r="A92" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="B92" s="26"/>
-      <c r="C92" s="27" t="s">
+      <c r="B92" s="21"/>
+      <c r="C92" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="D92" s="28"/>
-      <c r="E92" s="27" t="s">
+      <c r="D92" s="23"/>
+      <c r="E92" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="F92" s="29"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="22"/>
-      <c r="I92" s="23"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="18"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
-      <c r="L92" s="22">
+      <c r="L92" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M92" s="24"/>
-      <c r="N92" s="23"/>
+        <v>5</v>
+      </c>
+      <c r="M92" s="19"/>
+      <c r="N92" s="18"/>
       <c r="O92" s="2"/>
       <c r="P92">
         <v>14</v>
@@ -6271,38 +6354,41 @@
       <c r="W92">
         <v>19</v>
       </c>
+      <c r="X92">
+        <v>15</v>
+      </c>
       <c r="Y92">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="Z92">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="25" t="s">
+      <c r="A93" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="B93" s="26"/>
-      <c r="C93" s="27" t="s">
+      <c r="B93" s="21"/>
+      <c r="C93" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="D93" s="28"/>
-      <c r="E93" s="27" t="s">
+      <c r="D93" s="23"/>
+      <c r="E93" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="F93" s="29"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="22"/>
-      <c r="I93" s="23"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="18"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
-      <c r="L93" s="22">
+      <c r="L93" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M93" s="24"/>
-      <c r="N93" s="23"/>
+      <c r="M93" s="19"/>
+      <c r="N93" s="18"/>
       <c r="O93" s="2"/>
       <c r="P93">
         <v>13</v>
@@ -6322,38 +6408,41 @@
       <c r="W93">
         <v>18</v>
       </c>
+      <c r="X93">
+        <v>15</v>
+      </c>
       <c r="Y93">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="Z93">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="25" t="s">
+      <c r="A94" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="B94" s="26"/>
-      <c r="C94" s="27" t="s">
+      <c r="B94" s="21"/>
+      <c r="C94" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="D94" s="28"/>
-      <c r="E94" s="27" t="s">
+      <c r="D94" s="23"/>
+      <c r="E94" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="F94" s="29"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="22"/>
-      <c r="I94" s="23"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="18"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
-      <c r="L94" s="22">
+      <c r="L94" s="17">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="M94" s="24"/>
-      <c r="N94" s="23"/>
+      <c r="M94" s="19"/>
+      <c r="N94" s="18"/>
       <c r="O94" s="2"/>
       <c r="P94">
         <v>13</v>
@@ -6364,7 +6453,7 @@
       <c r="T94" s="10">
         <v>4</v>
       </c>
-      <c r="U94" s="15">
+      <c r="U94" s="11">
         <v>15</v>
       </c>
       <c r="V94">
@@ -6382,29 +6471,29 @@
       </c>
     </row>
     <row r="95" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="25" t="s">
+      <c r="A95" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="B95" s="26"/>
-      <c r="C95" s="27" t="s">
+      <c r="B95" s="21"/>
+      <c r="C95" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="D95" s="28"/>
-      <c r="E95" s="27" t="s">
+      <c r="D95" s="23"/>
+      <c r="E95" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="F95" s="29"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="22"/>
-      <c r="I95" s="23"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="18"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
-      <c r="L95" s="22">
+      <c r="L95" s="17">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="M95" s="24"/>
-      <c r="N95" s="23"/>
+      <c r="M95" s="19"/>
+      <c r="N95" s="18"/>
       <c r="O95" s="2"/>
       <c r="P95">
         <v>14</v>
@@ -6415,7 +6504,7 @@
       <c r="T95" s="10">
         <v>10</v>
       </c>
-      <c r="U95" s="15">
+      <c r="U95" s="11">
         <v>16</v>
       </c>
       <c r="V95">
@@ -6436,29 +6525,29 @@
       </c>
     </row>
     <row r="96" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="25" t="s">
+      <c r="A96" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="B96" s="26"/>
-      <c r="C96" s="27" t="s">
+      <c r="B96" s="21"/>
+      <c r="C96" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="D96" s="28"/>
-      <c r="E96" s="27" t="s">
+      <c r="D96" s="23"/>
+      <c r="E96" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="F96" s="29"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="22"/>
-      <c r="I96" s="23"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="18"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
-      <c r="L96" s="22">
+      <c r="L96" s="17">
         <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="M96" s="24"/>
-      <c r="N96" s="23"/>
+        <v>50</v>
+      </c>
+      <c r="M96" s="19"/>
+      <c r="N96" s="18"/>
       <c r="O96" s="2"/>
       <c r="Q96">
         <v>9</v>
@@ -6475,38 +6564,41 @@
       <c r="W96">
         <v>19</v>
       </c>
+      <c r="X96">
+        <v>30</v>
+      </c>
       <c r="Y96">
         <f t="shared" si="3"/>
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="Z96">
         <v>25</v>
       </c>
     </row>
     <row r="97" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="25" t="s">
+      <c r="A97" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="B97" s="26"/>
-      <c r="C97" s="27" t="s">
+      <c r="B97" s="21"/>
+      <c r="C97" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="D97" s="28"/>
-      <c r="E97" s="27" t="s">
+      <c r="D97" s="23"/>
+      <c r="E97" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="F97" s="29"/>
-      <c r="G97" s="28"/>
-      <c r="H97" s="22"/>
-      <c r="I97" s="23"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="18"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
-      <c r="L97" s="22">
+      <c r="L97" s="17">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="M97" s="24"/>
-      <c r="N97" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="M97" s="19"/>
+      <c r="N97" s="18"/>
       <c r="O97" s="2"/>
       <c r="P97">
         <v>18</v>
@@ -6517,7 +6609,7 @@
       <c r="T97" s="10">
         <v>0</v>
       </c>
-      <c r="U97" s="15">
+      <c r="U97" s="11">
         <v>15</v>
       </c>
       <c r="V97">
@@ -6526,38 +6618,41 @@
       <c r="W97">
         <v>18</v>
       </c>
+      <c r="X97">
+        <v>30</v>
+      </c>
       <c r="Y97">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="Z97">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="25" t="s">
+      <c r="A98" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="B98" s="26"/>
-      <c r="C98" s="27" t="s">
+      <c r="B98" s="21"/>
+      <c r="C98" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="27" t="s">
+      <c r="D98" s="23"/>
+      <c r="E98" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="F98" s="29"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="22"/>
-      <c r="I98" s="23"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="18"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
-      <c r="L98" s="22">
+      <c r="L98" s="17">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="M98" s="24"/>
-      <c r="N98" s="23"/>
+      <c r="M98" s="19"/>
+      <c r="N98" s="18"/>
       <c r="O98" s="2"/>
       <c r="P98">
         <v>16</v>
@@ -6574,7 +6669,7 @@
       <c r="T98" s="10">
         <v>8</v>
       </c>
-      <c r="U98" s="15">
+      <c r="U98" s="11">
         <v>15</v>
       </c>
       <c r="V98">
@@ -6584,40 +6679,40 @@
         <v>20</v>
       </c>
       <c r="X98">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Y98">
         <f t="shared" si="3"/>
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="Z98">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="25" t="s">
+      <c r="A99" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="B99" s="26"/>
-      <c r="C99" s="27" t="s">
+      <c r="B99" s="21"/>
+      <c r="C99" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="D99" s="28"/>
-      <c r="E99" s="27" t="s">
+      <c r="D99" s="23"/>
+      <c r="E99" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="F99" s="29"/>
-      <c r="G99" s="28"/>
-      <c r="H99" s="22"/>
-      <c r="I99" s="23"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="23"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="18"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
-      <c r="L99" s="22">
+      <c r="L99" s="17">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="M99" s="24"/>
-      <c r="N99" s="23"/>
+        <v>48.75</v>
+      </c>
+      <c r="M99" s="19"/>
+      <c r="N99" s="18"/>
       <c r="O99" s="2"/>
       <c r="P99">
         <v>16</v>
@@ -6634,7 +6729,7 @@
       <c r="T99" s="10">
         <v>8</v>
       </c>
-      <c r="U99" s="15">
+      <c r="U99" s="11">
         <v>15</v>
       </c>
       <c r="V99">
@@ -6644,40 +6739,40 @@
         <v>20</v>
       </c>
       <c r="X99">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Y99">
         <f t="shared" si="3"/>
-        <v>103.75</v>
+        <v>98.75</v>
       </c>
       <c r="Z99">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="25" t="s">
+      <c r="A100" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="B100" s="26"/>
-      <c r="C100" s="27" t="s">
+      <c r="B100" s="21"/>
+      <c r="C100" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="D100" s="28"/>
-      <c r="E100" s="27" t="s">
+      <c r="D100" s="23"/>
+      <c r="E100" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="F100" s="29"/>
-      <c r="G100" s="28"/>
-      <c r="H100" s="22"/>
-      <c r="I100" s="23"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="23"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="18"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
-      <c r="L100" s="22">
+      <c r="L100" s="17">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="M100" s="24"/>
-      <c r="N100" s="23"/>
+      <c r="M100" s="19"/>
+      <c r="N100" s="18"/>
       <c r="O100" s="2"/>
       <c r="P100">
         <v>13</v>
@@ -6691,7 +6786,7 @@
       <c r="T100" s="10">
         <v>2</v>
       </c>
-      <c r="U100" s="15">
+      <c r="U100" s="11">
         <v>15</v>
       </c>
       <c r="V100">
@@ -6712,29 +6807,29 @@
       </c>
     </row>
     <row r="101" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="25" t="s">
+      <c r="A101" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="B101" s="26"/>
-      <c r="C101" s="27" t="s">
+      <c r="B101" s="21"/>
+      <c r="C101" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="D101" s="28"/>
-      <c r="E101" s="27" t="s">
+      <c r="D101" s="23"/>
+      <c r="E101" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="F101" s="29"/>
-      <c r="G101" s="28"/>
-      <c r="H101" s="22"/>
-      <c r="I101" s="23"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="23"/>
+      <c r="H101" s="17"/>
+      <c r="I101" s="18"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
-      <c r="L101" s="22">
+      <c r="L101" s="17">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="M101" s="24"/>
-      <c r="N101" s="23"/>
+        <v>39</v>
+      </c>
+      <c r="M101" s="19"/>
+      <c r="N101" s="18"/>
       <c r="O101" s="2"/>
       <c r="Q101">
         <v>9</v>
@@ -6748,7 +6843,7 @@
       <c r="T101" s="10">
         <v>8</v>
       </c>
-      <c r="U101" s="15">
+      <c r="U101" s="11">
         <v>16</v>
       </c>
       <c r="V101">
@@ -6757,38 +6852,41 @@
       <c r="W101">
         <v>19</v>
       </c>
+      <c r="X101">
+        <v>30</v>
+      </c>
       <c r="Y101">
         <f t="shared" si="3"/>
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="Z101">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="25" t="s">
+      <c r="A102" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="B102" s="26"/>
-      <c r="C102" s="27" t="s">
+      <c r="B102" s="21"/>
+      <c r="C102" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="D102" s="28"/>
-      <c r="E102" s="27" t="s">
+      <c r="D102" s="23"/>
+      <c r="E102" s="22" t="s">
         <v>305</v>
       </c>
-      <c r="F102" s="29"/>
-      <c r="G102" s="28"/>
-      <c r="H102" s="22"/>
-      <c r="I102" s="23"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="23"/>
+      <c r="H102" s="17"/>
+      <c r="I102" s="18"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
-      <c r="L102" s="22">
+      <c r="L102" s="17">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="M102" s="24"/>
-      <c r="N102" s="23"/>
+      <c r="M102" s="19"/>
+      <c r="N102" s="18"/>
       <c r="O102" s="2"/>
       <c r="P102">
         <v>16</v>
@@ -6805,7 +6903,7 @@
       <c r="T102" s="10">
         <v>6</v>
       </c>
-      <c r="U102" s="15">
+      <c r="U102" s="11">
         <v>15</v>
       </c>
       <c r="V102">
@@ -6815,40 +6913,40 @@
         <v>20</v>
       </c>
       <c r="X102">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Y102">
         <f t="shared" si="3"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="Z102">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="25" t="s">
+      <c r="A103" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="B103" s="26"/>
-      <c r="C103" s="27" t="s">
+      <c r="B103" s="21"/>
+      <c r="C103" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="D103" s="28"/>
-      <c r="E103" s="27" t="s">
+      <c r="D103" s="23"/>
+      <c r="E103" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="F103" s="29"/>
-      <c r="G103" s="28"/>
-      <c r="H103" s="22"/>
-      <c r="I103" s="23"/>
+      <c r="F103" s="24"/>
+      <c r="G103" s="23"/>
+      <c r="H103" s="17"/>
+      <c r="I103" s="18"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
-      <c r="L103" s="22">
+      <c r="L103" s="17">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="M103" s="24"/>
-      <c r="N103" s="23"/>
+      <c r="M103" s="19"/>
+      <c r="N103" s="18"/>
       <c r="O103" s="2"/>
       <c r="P103">
         <v>18</v>
@@ -6859,7 +6957,7 @@
       <c r="T103" s="10">
         <v>8</v>
       </c>
-      <c r="U103" s="15">
+      <c r="U103" s="11">
         <v>15</v>
       </c>
       <c r="V103">
@@ -6869,40 +6967,40 @@
         <v>20</v>
       </c>
       <c r="X103">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Y103">
         <f t="shared" si="3"/>
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="Z103">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="25" t="s">
+      <c r="A104" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="B104" s="26"/>
-      <c r="C104" s="27" t="s">
+      <c r="B104" s="21"/>
+      <c r="C104" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="D104" s="28"/>
-      <c r="E104" s="27" t="s">
+      <c r="D104" s="23"/>
+      <c r="E104" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="F104" s="29"/>
-      <c r="G104" s="28"/>
-      <c r="H104" s="22"/>
-      <c r="I104" s="23"/>
+      <c r="F104" s="24"/>
+      <c r="G104" s="23"/>
+      <c r="H104" s="17"/>
+      <c r="I104" s="18"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
-      <c r="L104" s="22">
+      <c r="L104" s="17">
         <f t="shared" si="2"/>
         <v>18.333333333333343</v>
       </c>
-      <c r="M104" s="24"/>
-      <c r="N104" s="23"/>
+      <c r="M104" s="19"/>
+      <c r="N104" s="18"/>
       <c r="O104" s="2"/>
       <c r="P104">
         <v>11</v>
@@ -6919,7 +7017,7 @@
       <c r="T104" s="10">
         <v>7</v>
       </c>
-      <c r="U104" s="15">
+      <c r="U104" s="11">
         <v>15</v>
       </c>
       <c r="V104">
@@ -6937,29 +7035,29 @@
       </c>
     </row>
     <row r="105" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="25" t="s">
+      <c r="A105" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="B105" s="26"/>
-      <c r="C105" s="27" t="s">
+      <c r="B105" s="21"/>
+      <c r="C105" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="D105" s="28"/>
-      <c r="E105" s="27" t="s">
+      <c r="D105" s="23"/>
+      <c r="E105" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="F105" s="29"/>
-      <c r="G105" s="28"/>
-      <c r="H105" s="22"/>
-      <c r="I105" s="23"/>
+      <c r="F105" s="24"/>
+      <c r="G105" s="23"/>
+      <c r="H105" s="17"/>
+      <c r="I105" s="18"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
-      <c r="L105" s="22">
+      <c r="L105" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M105" s="24"/>
-      <c r="N105" s="23"/>
+        <v>11</v>
+      </c>
+      <c r="M105" s="19"/>
+      <c r="N105" s="18"/>
       <c r="O105" s="2"/>
       <c r="Q105">
         <v>0</v>
@@ -6970,7 +7068,7 @@
       <c r="T105" s="10">
         <v>2</v>
       </c>
-      <c r="U105" s="15">
+      <c r="U105" s="11">
         <v>15</v>
       </c>
       <c r="V105">
@@ -6979,38 +7077,41 @@
       <c r="W105">
         <v>12</v>
       </c>
+      <c r="X105">
+        <v>15</v>
+      </c>
       <c r="Y105">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="Z105">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="25" t="s">
+      <c r="A106" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="B106" s="26"/>
-      <c r="C106" s="27" t="s">
+      <c r="B106" s="21"/>
+      <c r="C106" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="D106" s="28"/>
-      <c r="E106" s="27" t="s">
+      <c r="D106" s="23"/>
+      <c r="E106" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="F106" s="29"/>
-      <c r="G106" s="28"/>
-      <c r="H106" s="22"/>
-      <c r="I106" s="23"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="23"/>
+      <c r="H106" s="17"/>
+      <c r="I106" s="18"/>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
-      <c r="L106" s="22">
+      <c r="L106" s="17">
         <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="M106" s="24"/>
-      <c r="N106" s="23"/>
+        <v>50</v>
+      </c>
+      <c r="M106" s="19"/>
+      <c r="N106" s="18"/>
       <c r="O106" s="2"/>
       <c r="P106">
         <v>16</v>
@@ -7024,7 +7125,7 @@
       <c r="T106" s="10">
         <v>9</v>
       </c>
-      <c r="U106" s="15">
+      <c r="U106" s="11">
         <v>15</v>
       </c>
       <c r="V106">
@@ -7033,38 +7134,41 @@
       <c r="W106">
         <v>18</v>
       </c>
+      <c r="X106">
+        <v>30</v>
+      </c>
       <c r="Y106">
         <f t="shared" si="3"/>
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="Z106">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="25" t="s">
+      <c r="A107" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="B107" s="26"/>
-      <c r="C107" s="27" t="s">
+      <c r="B107" s="21"/>
+      <c r="C107" s="22" t="s">
         <v>319</v>
       </c>
-      <c r="D107" s="28"/>
-      <c r="E107" s="27" t="s">
+      <c r="D107" s="23"/>
+      <c r="E107" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="F107" s="29"/>
-      <c r="G107" s="28"/>
-      <c r="H107" s="22"/>
-      <c r="I107" s="23"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="23"/>
+      <c r="H107" s="17"/>
+      <c r="I107" s="18"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
-      <c r="L107" s="22">
+      <c r="L107" s="17">
         <f t="shared" si="2"/>
-        <v>47</v>
-      </c>
-      <c r="M107" s="24"/>
-      <c r="N107" s="23"/>
+        <v>42</v>
+      </c>
+      <c r="M107" s="19"/>
+      <c r="N107" s="18"/>
       <c r="O107" s="2"/>
       <c r="P107">
         <v>18</v>
@@ -7078,7 +7182,7 @@
       <c r="T107" s="10">
         <v>2</v>
       </c>
-      <c r="U107" s="15">
+      <c r="U107" s="11">
         <v>15</v>
       </c>
       <c r="V107">
@@ -7088,40 +7192,40 @@
         <v>15</v>
       </c>
       <c r="X107">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Y107">
         <f t="shared" si="3"/>
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="Z107">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="25" t="s">
+      <c r="A108" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="B108" s="26"/>
-      <c r="C108" s="27" t="s">
+      <c r="B108" s="21"/>
+      <c r="C108" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="D108" s="28"/>
-      <c r="E108" s="27" t="s">
+      <c r="D108" s="23"/>
+      <c r="E108" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="F108" s="29"/>
-      <c r="G108" s="28"/>
-      <c r="H108" s="22"/>
-      <c r="I108" s="23"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="23"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="18"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
-      <c r="L108" s="22">
+      <c r="L108" s="17">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="M108" s="24"/>
-      <c r="N108" s="23"/>
+      <c r="M108" s="19"/>
+      <c r="N108" s="18"/>
       <c r="O108" s="2"/>
       <c r="P108">
         <v>13</v>
@@ -7132,7 +7236,7 @@
       <c r="T108" s="10">
         <v>6</v>
       </c>
-      <c r="U108" s="15">
+      <c r="U108" s="11">
         <v>15</v>
       </c>
       <c r="V108">
@@ -7153,29 +7257,29 @@
       </c>
     </row>
     <row r="109" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="25" t="s">
+      <c r="A109" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B109" s="26"/>
-      <c r="C109" s="27" t="s">
+      <c r="B109" s="21"/>
+      <c r="C109" s="22" t="s">
         <v>325</v>
       </c>
-      <c r="D109" s="28"/>
-      <c r="E109" s="27" t="s">
+      <c r="D109" s="23"/>
+      <c r="E109" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="F109" s="29"/>
-      <c r="G109" s="28"/>
-      <c r="H109" s="22"/>
-      <c r="I109" s="23"/>
+      <c r="F109" s="24"/>
+      <c r="G109" s="23"/>
+      <c r="H109" s="17"/>
+      <c r="I109" s="18"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
-      <c r="L109" s="22">
+      <c r="L109" s="17">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="M109" s="24"/>
-      <c r="N109" s="23"/>
+      <c r="M109" s="19"/>
+      <c r="N109" s="18"/>
       <c r="O109" s="2"/>
       <c r="Q109">
         <v>7</v>
@@ -7186,7 +7290,7 @@
       <c r="T109" s="10">
         <v>6</v>
       </c>
-      <c r="U109" s="15">
+      <c r="U109" s="11">
         <v>15</v>
       </c>
       <c r="V109">
@@ -7207,23 +7311,27 @@
       </c>
     </row>
     <row r="110" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="17"/>
-      <c r="B110" s="18"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="20"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="21"/>
-      <c r="G110" s="20"/>
-      <c r="H110" s="22"/>
-      <c r="I110" s="23"/>
+      <c r="A110" s="12"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="D110" s="15"/>
+      <c r="E110" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="F110" s="16"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="17"/>
+      <c r="I110" s="18"/>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
-      <c r="L110" s="22">
+      <c r="L110" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M110" s="24"/>
-      <c r="N110" s="23"/>
+      <c r="M110" s="19"/>
+      <c r="N110" s="18"/>
       <c r="O110" s="2"/>
       <c r="Q110">
         <v>0</v>
@@ -7234,32 +7342,35 @@
       <c r="V110">
         <v>1</v>
       </c>
+      <c r="X110">
+        <v>28</v>
+      </c>
       <c r="Y110">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Z110">
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="17"/>
-      <c r="B111" s="18"/>
-      <c r="C111" s="19"/>
-      <c r="D111" s="20"/>
-      <c r="E111" s="19"/>
-      <c r="F111" s="21"/>
-      <c r="G111" s="20"/>
-      <c r="H111" s="22"/>
-      <c r="I111" s="23"/>
+      <c r="A111" s="12"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="17"/>
+      <c r="I111" s="18"/>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
-      <c r="L111" s="22">
+      <c r="L111" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M111" s="24"/>
-      <c r="N111" s="23"/>
+      <c r="M111" s="19"/>
+      <c r="N111" s="18"/>
       <c r="O111" s="2"/>
       <c r="Q111">
         <v>0</v>
@@ -7279,23 +7390,23 @@
       </c>
     </row>
     <row r="112" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="17"/>
-      <c r="B112" s="18"/>
-      <c r="C112" s="19"/>
-      <c r="D112" s="20"/>
-      <c r="E112" s="19"/>
-      <c r="F112" s="21"/>
-      <c r="G112" s="20"/>
-      <c r="H112" s="22"/>
-      <c r="I112" s="23"/>
+      <c r="A112" s="12"/>
+      <c r="B112" s="13"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="16"/>
+      <c r="G112" s="15"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="18"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
-      <c r="L112" s="22">
+      <c r="L112" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M112" s="24"/>
-      <c r="N112" s="23"/>
+      <c r="M112" s="19"/>
+      <c r="N112" s="18"/>
       <c r="O112" s="2"/>
       <c r="Q112">
         <v>0</v>
@@ -7315,23 +7426,23 @@
       </c>
     </row>
     <row r="113" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="17"/>
-      <c r="B113" s="18"/>
-      <c r="C113" s="19"/>
-      <c r="D113" s="20"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="21"/>
-      <c r="G113" s="20"/>
-      <c r="H113" s="22"/>
-      <c r="I113" s="23"/>
+      <c r="A113" s="12"/>
+      <c r="B113" s="13"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="17"/>
+      <c r="I113" s="18"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
-      <c r="L113" s="22">
+      <c r="L113" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M113" s="24"/>
-      <c r="N113" s="23"/>
+      <c r="M113" s="19"/>
+      <c r="N113" s="18"/>
       <c r="O113" s="2"/>
       <c r="Q113">
         <v>0</v>

--- a/OYM/_Documentos Comunes/POO_C32017.xlsx
+++ b/OYM/_Documentos Comunes/POO_C32017.xlsx
@@ -1019,7 +1019,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1064,12 +1064,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1224,7 +1218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
@@ -1251,12 +1245,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1272,8 +1264,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1293,52 +1309,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1724,8 +1706,8 @@
   <dimension ref="A1:Z113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:L1"/>
+      <pane ySplit="10" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z112" sqref="Z112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1742,12 +1724,13 @@
     <col min="10" max="11" width="6.42578125" customWidth="1"/>
     <col min="12" max="12" width="5.28515625" customWidth="1"/>
     <col min="13" max="13" width="1" customWidth="1"/>
-    <col min="14" max="15" width="0.140625" customWidth="1"/>
-    <col min="16" max="16" width="1.42578125" customWidth="1"/>
-    <col min="17" max="17" width="2.140625" customWidth="1"/>
-    <col min="18" max="18" width="2.5703125" customWidth="1"/>
-    <col min="19" max="19" width="2.42578125" customWidth="1"/>
-    <col min="20" max="20" width="2.140625" customWidth="1"/>
+    <col min="14" max="14" width="0.140625" customWidth="1"/>
+    <col min="15" max="15" width="0.5703125" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" customWidth="1"/>
+    <col min="17" max="17" width="3.85546875" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" customWidth="1"/>
+    <col min="19" max="19" width="4.28515625" customWidth="1"/>
+    <col min="20" max="20" width="3.42578125" customWidth="1"/>
     <col min="21" max="21" width="5.140625" customWidth="1"/>
     <col min="22" max="22" width="5" customWidth="1"/>
     <col min="23" max="23" width="8" bestFit="1" customWidth="1"/>
@@ -1756,19 +1739,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
+      <c r="B1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1789,19 +1772,19 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
       <c r="N3" s="2"/>
       <c r="P3" t="s">
         <v>21</v>
@@ -1811,19 +1794,19 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
       <c r="N4" s="2"/>
       <c r="P4" t="s">
         <v>23</v>
@@ -1833,19 +1816,19 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
       <c r="N5" s="2"/>
       <c r="P5" t="s">
         <v>25</v>
@@ -1877,19 +1860,19 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
       <c r="N7" s="2"/>
       <c r="P7" s="6" t="s">
         <v>327</v>
@@ -1943,34 +1926,34 @@
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:26" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29" t="s">
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="29"/>
+      <c r="I10" s="25"/>
       <c r="J10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="29" t="s">
+      <c r="L10" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s">
         <v>8</v>
@@ -2007,10 +1990,10 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
-        <v>0</v>
-      </c>
-      <c r="B11" s="13"/>
+      <c r="A11" s="36">
+        <v>0</v>
+      </c>
+      <c r="B11" s="37"/>
       <c r="C11" s="14" t="s">
         <v>9</v>
       </c>
@@ -2021,20 +2004,23 @@
       <c r="F11" s="16"/>
       <c r="G11" s="15"/>
       <c r="H11" s="17">
+        <f>IF((Y11)&gt;70,10,"")</f>
         <v>10</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="5">
+        <f>IF((Y11)&gt;70,20,"")</f>
         <v>20</v>
       </c>
       <c r="K11" s="5">
+        <f>IF((Y11)&gt;70,20,"")</f>
         <v>20</v>
       </c>
       <c r="L11" s="17">
-        <f>IF((Y11-50)&gt;50,50,IF((Y11-50)&lt;0,0,(Y11-50)))</f>
+        <f>IF((Y11)&gt;70,IF((Y11-50)&gt;50,50,IF((Y11-50)&lt;0,0,(Y11-50))), "" )</f>
         <v>50</v>
       </c>
-      <c r="M11" s="19"/>
+      <c r="M11" s="26"/>
       <c r="N11" s="18"/>
       <c r="O11" s="2"/>
       <c r="P11">
@@ -2073,28 +2059,37 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="22" t="s">
+      <c r="D12" s="31"/>
+      <c r="E12" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="17"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="17" t="str">
+        <f t="shared" ref="H12:H75" si="0">IF((Y12)&gt;70,10,"")</f>
+        <v/>
+      </c>
       <c r="I12" s="18"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="17">
-        <f t="shared" ref="L12:L75" si="0">IF((Y12-50)&gt;50,50,IF((Y12-50)&lt;0,0,(Y12-50)))</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="19"/>
+      <c r="J12" s="5" t="str">
+        <f t="shared" ref="J12:J75" si="1">IF((Y12)&gt;70,20,"")</f>
+        <v/>
+      </c>
+      <c r="K12" s="5" t="str">
+        <f t="shared" ref="K12:K75" si="2">IF((Y12)&gt;70,20,"")</f>
+        <v/>
+      </c>
+      <c r="L12" s="17" t="str">
+        <f t="shared" ref="L12:L75" si="3">IF((Y12)&gt;70,IF((Y12-50)&gt;50,50,IF((Y12-50)&lt;0,0,(Y12-50))), "" )</f>
+        <v/>
+      </c>
+      <c r="M12" s="26"/>
       <c r="N12" s="18"/>
       <c r="O12" s="2"/>
       <c r="Q12">
@@ -2107,7 +2102,7 @@
         <v>1</v>
       </c>
       <c r="Y12">
-        <f t="shared" ref="Y12:Y75" si="1">P12+(IF((Q12+R12+S12+T12)&gt;30,(Q12+R12+S12+T12)/4,IF((Q12+R12+S12+T12)&gt;20,(Q12+R12+S12+T12)/3,IF((Q12+R12+S12+T12)&gt;10,(Q12+R12+S12+T12)/2,(Q12+R12+S12+T12)))))+(U12*V12)+W12+X12+Z12</f>
+        <f t="shared" ref="Y12:Y75" si="4">P12+(IF((Q12+R12+S12+T12)&gt;30,(Q12+R12+S12+T12)/4,IF((Q12+R12+S12+T12)&gt;20,(Q12+R12+S12+T12)/3,IF((Q12+R12+S12+T12)&gt;10,(Q12+R12+S12+T12)/2,(Q12+R12+S12+T12)))))+(U12*V12)+W12+X12+Z12</f>
         <v>0</v>
       </c>
       <c r="Z12">
@@ -2115,30 +2110,39 @@
       </c>
     </row>
     <row r="13" spans="1:26" s="6" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="33" t="s">
+      <c r="B13" s="35"/>
+      <c r="C13" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="33" t="s">
+      <c r="D13" s="23"/>
+      <c r="E13" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="36">
+      <c r="F13" s="24"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="17">
         <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K13" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L13" s="17">
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="M13" s="39"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="40"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="12"/>
       <c r="P13" s="6">
         <v>16</v>
       </c>
@@ -2151,7 +2155,7 @@
       <c r="T13" s="9">
         <v>9</v>
       </c>
-      <c r="U13" s="41">
+      <c r="U13" s="13">
         <v>18</v>
       </c>
       <c r="V13" s="6">
@@ -2161,36 +2165,45 @@
         <v>19</v>
       </c>
       <c r="Y13" s="6">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="Z13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="5">
         <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="Z13" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K14" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="L14" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M14" s="19"/>
+      <c r="M14" s="26"/>
       <c r="N14" s="18"/>
       <c r="O14" s="2"/>
       <c r="P14">
@@ -2215,36 +2228,45 @@
         <v>30</v>
       </c>
       <c r="Y14">
+        <f t="shared" si="4"/>
+        <v>104</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="31"/>
+      <c r="E15" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="32"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I15" s="18"/>
+      <c r="J15" s="5">
         <f t="shared" si="1"/>
-        <v>104</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K15" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="L15" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="M15" s="19"/>
+      <c r="M15" s="26"/>
       <c r="N15" s="18"/>
       <c r="O15" s="2"/>
       <c r="P15">
@@ -2272,36 +2294,45 @@
         <v>30</v>
       </c>
       <c r="Y15">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="31"/>
+      <c r="E16" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I16" s="18"/>
+      <c r="J16" s="5">
         <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K16" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="L16" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="M16" s="19"/>
+      <c r="M16" s="26"/>
       <c r="N16" s="18"/>
       <c r="O16" s="2"/>
       <c r="Q16">
@@ -2326,36 +2357,45 @@
         <v>30</v>
       </c>
       <c r="Y16">
+        <f t="shared" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="31"/>
+      <c r="E17" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I17" s="18"/>
+      <c r="J17" s="5">
         <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K17" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="L17" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M17" s="19"/>
+      <c r="M17" s="26"/>
       <c r="N17" s="18"/>
       <c r="O17" s="2"/>
       <c r="P17">
@@ -2383,36 +2423,45 @@
         <v>30</v>
       </c>
       <c r="Y17">
+        <f t="shared" si="4"/>
+        <v>113</v>
+      </c>
+      <c r="Z17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I18" s="18"/>
+      <c r="J18" s="5">
         <f t="shared" si="1"/>
-        <v>113</v>
-      </c>
-      <c r="Z17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K18" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="L18" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="M18" s="19"/>
+      <c r="M18" s="26"/>
       <c r="N18" s="18"/>
       <c r="O18" s="2"/>
       <c r="P18">
@@ -2440,36 +2489,45 @@
         <v>30</v>
       </c>
       <c r="Y18">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="31"/>
+      <c r="E19" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="32"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I19" s="18"/>
+      <c r="J19" s="5">
         <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K19" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="L19" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="M19" s="19"/>
+      <c r="M19" s="26"/>
       <c r="N19" s="18"/>
       <c r="O19" s="2"/>
       <c r="P19">
@@ -2494,36 +2552,45 @@
         <v>15</v>
       </c>
       <c r="Y19">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="32"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I20" s="18"/>
+      <c r="J20" s="5">
         <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K20" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="L20" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M20" s="19"/>
+      <c r="M20" s="26"/>
       <c r="N20" s="18"/>
       <c r="O20" s="2"/>
       <c r="P20">
@@ -2551,36 +2618,45 @@
         <v>30</v>
       </c>
       <c r="Y20">
+        <f t="shared" si="4"/>
+        <v>103</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="32"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="18"/>
+      <c r="J21" s="5">
         <f t="shared" si="1"/>
-        <v>103</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K21" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="L21" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="M21" s="19"/>
+      <c r="M21" s="26"/>
       <c r="N21" s="18"/>
       <c r="O21" s="2"/>
       <c r="P21">
@@ -2608,36 +2684,45 @@
         <v>30</v>
       </c>
       <c r="Y21">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="31"/>
+      <c r="E22" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="32"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I22" s="18"/>
+      <c r="J22" s="5">
         <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K22" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="L22" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M22" s="19"/>
+      <c r="M22" s="26"/>
       <c r="N22" s="18"/>
       <c r="O22" s="2"/>
       <c r="P22">
@@ -2662,36 +2747,45 @@
         <v>30</v>
       </c>
       <c r="Y22">
+        <f t="shared" si="4"/>
+        <v>107</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="E23" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="32"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I23" s="18"/>
+      <c r="J23" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>107</v>
-      </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="19"/>
+        <v/>
+      </c>
+      <c r="K23" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L23" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M23" s="26"/>
       <c r="N23" s="18"/>
       <c r="O23" s="2"/>
       <c r="Q23">
@@ -2704,36 +2798,45 @@
         <v>1</v>
       </c>
       <c r="Y23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="29"/>
+      <c r="C24" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="31"/>
+      <c r="E24" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="32"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I24" s="18"/>
+      <c r="J24" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="19"/>
+        <v/>
+      </c>
+      <c r="K24" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L24" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M24" s="26"/>
       <c r="N24" s="18"/>
       <c r="O24" s="2"/>
       <c r="Q24">
@@ -2752,38 +2855,47 @@
         <v>13</v>
       </c>
       <c r="Y24">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" s="6" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="35"/>
+      <c r="C25" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="24"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I25" s="18"/>
+      <c r="J25" s="5">
         <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" s="6" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="F25" s="35"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="36">
-        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K25" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L25" s="17">
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="M25" s="39"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="40"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="12"/>
       <c r="Q25" s="6">
         <v>0</v>
       </c>
@@ -2803,36 +2915,45 @@
         <v>20</v>
       </c>
       <c r="Y25" s="6">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="Z25" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="29"/>
+      <c r="C26" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="31"/>
+      <c r="E26" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" s="32"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I26" s="18"/>
+      <c r="J26" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="Z25" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="F26" s="24"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="19"/>
+        <v/>
+      </c>
+      <c r="K26" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L26" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M26" s="26"/>
       <c r="N26" s="18"/>
       <c r="O26" s="2"/>
       <c r="P26">
@@ -2848,36 +2969,45 @@
         <v>2</v>
       </c>
       <c r="Y26">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="29"/>
+      <c r="C27" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="31"/>
+      <c r="E27" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" s="32"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I27" s="18"/>
+      <c r="J27" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F27" s="24"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="19"/>
+        <v/>
+      </c>
+      <c r="K27" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L27" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M27" s="26"/>
       <c r="N27" s="18"/>
       <c r="O27" s="2"/>
       <c r="P27">
@@ -2899,36 +3029,45 @@
         <v>16</v>
       </c>
       <c r="Y27">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="29"/>
+      <c r="C28" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="31"/>
+      <c r="E28" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="F28" s="32"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I28" s="18"/>
+      <c r="J28" s="5">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="F28" s="24"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K28" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="L28" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="M28" s="19"/>
+      <c r="M28" s="26"/>
       <c r="N28" s="18"/>
       <c r="O28" s="2"/>
       <c r="P28">
@@ -2956,36 +3095,45 @@
         <v>30</v>
       </c>
       <c r="Y28">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="29"/>
+      <c r="C29" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="31"/>
+      <c r="E29" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="F29" s="32"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I29" s="18"/>
+      <c r="J29" s="5">
         <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L29" s="17">
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="F29" s="24"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="17">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="M29" s="19"/>
+      <c r="M29" s="26"/>
       <c r="N29" s="18"/>
       <c r="O29" s="2"/>
       <c r="P29">
@@ -3013,36 +3161,45 @@
         <v>30</v>
       </c>
       <c r="Y29">
+        <f t="shared" si="4"/>
+        <v>103</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="29"/>
+      <c r="C30" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="31"/>
+      <c r="E30" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30" s="32"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I30" s="18"/>
+      <c r="J30" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>103</v>
-      </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="F30" s="24"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="19"/>
+        <v/>
+      </c>
+      <c r="K30" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L30" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M30" s="26"/>
       <c r="N30" s="18"/>
       <c r="O30" s="2"/>
       <c r="Q30">
@@ -3055,36 +3212,45 @@
         <v>1</v>
       </c>
       <c r="Y30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="29"/>
+      <c r="C31" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="31"/>
+      <c r="E31" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" s="32"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I31" s="18"/>
+      <c r="J31" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="F31" s="24"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K31" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="L31" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="M31" s="19"/>
+      <c r="M31" s="26"/>
       <c r="N31" s="18"/>
       <c r="O31" s="2"/>
       <c r="P31">
@@ -3109,36 +3275,45 @@
         <v>30</v>
       </c>
       <c r="Y31">
+        <f t="shared" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="29"/>
+      <c r="C32" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" s="31"/>
+      <c r="E32" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="32"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I32" s="18"/>
+      <c r="J32" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="Z31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="F32" s="24"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="19"/>
+        <v/>
+      </c>
+      <c r="K32" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L32" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M32" s="26"/>
       <c r="N32" s="18"/>
       <c r="O32" s="2"/>
       <c r="Q32">
@@ -3151,36 +3326,45 @@
         <v>1</v>
       </c>
       <c r="Y32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="29"/>
+      <c r="C33" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" s="32"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I33" s="18"/>
+      <c r="J33" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="F33" s="24"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K33" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="L33" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="M33" s="19"/>
+      <c r="M33" s="26"/>
       <c r="N33" s="18"/>
       <c r="O33" s="2"/>
       <c r="P33">
@@ -3205,36 +3389,45 @@
         <v>15</v>
       </c>
       <c r="Y33">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="29"/>
+      <c r="C34" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" s="31"/>
+      <c r="E34" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="F34" s="32"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I34" s="18"/>
+      <c r="J34" s="5">
         <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-      <c r="Z33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="F34" s="24"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K34" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="L34" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M34" s="19"/>
+      <c r="M34" s="26"/>
       <c r="N34" s="18"/>
       <c r="O34" s="2"/>
       <c r="P34">
@@ -3265,38 +3458,47 @@
         <v>30</v>
       </c>
       <c r="Y34">
+        <f t="shared" si="4"/>
+        <v>102.33333333333333</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" s="6" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="35"/>
+      <c r="C35" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" s="23"/>
+      <c r="E35" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" s="24"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I35" s="18"/>
+      <c r="J35" s="5">
         <f t="shared" si="1"/>
-        <v>102.33333333333333</v>
-      </c>
-      <c r="Z34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" s="6" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="F35" s="35"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="36">
-        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K35" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L35" s="17">
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M35" s="39"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="40"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="12"/>
       <c r="P35" s="6">
         <v>17</v>
       </c>
@@ -3322,36 +3524,45 @@
         <v>30</v>
       </c>
       <c r="Y35" s="6">
+        <f t="shared" si="4"/>
+        <v>112</v>
+      </c>
+      <c r="Z35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="29"/>
+      <c r="C36" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" s="31"/>
+      <c r="E36" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="F36" s="32"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I36" s="18"/>
+      <c r="J36" s="5">
         <f t="shared" si="1"/>
-        <v>112</v>
-      </c>
-      <c r="Z35" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="D36" s="23"/>
-      <c r="E36" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="F36" s="24"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K36" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="L36" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="M36" s="19"/>
+      <c r="M36" s="26"/>
       <c r="N36" s="18"/>
       <c r="O36" s="2"/>
       <c r="P36">
@@ -3379,36 +3590,45 @@
         <v>30</v>
       </c>
       <c r="Y36">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="29"/>
+      <c r="C37" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" s="31"/>
+      <c r="E37" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="F37" s="32"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I37" s="18"/>
+      <c r="J37" s="5">
         <f t="shared" si="1"/>
-        <v>99</v>
-      </c>
-      <c r="Z36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="F37" s="24"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K37" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="L37" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="M37" s="19"/>
+      <c r="M37" s="26"/>
       <c r="N37" s="18"/>
       <c r="O37" s="2"/>
       <c r="P37">
@@ -3436,36 +3656,45 @@
         <v>25</v>
       </c>
       <c r="Y37">
+        <f t="shared" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="29"/>
+      <c r="C38" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" s="31"/>
+      <c r="E38" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="F38" s="32"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I38" s="18"/>
+      <c r="J38" s="5">
         <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="Z37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="D38" s="23"/>
-      <c r="E38" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="F38" s="24"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K38" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="L38" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M38" s="19"/>
+      <c r="M38" s="26"/>
       <c r="N38" s="18"/>
       <c r="O38" s="2"/>
       <c r="P38">
@@ -3493,36 +3722,45 @@
         <v>30</v>
       </c>
       <c r="Y38">
+        <f t="shared" si="4"/>
+        <v>103</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="29"/>
+      <c r="C39" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39" s="31"/>
+      <c r="E39" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="F39" s="32"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I39" s="18"/>
+      <c r="J39" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>103</v>
-      </c>
-      <c r="Z38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="D39" s="23"/>
-      <c r="E39" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="F39" s="24"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M39" s="19"/>
+        <v/>
+      </c>
+      <c r="K39" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L39" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M39" s="26"/>
       <c r="N39" s="18"/>
       <c r="O39" s="2"/>
       <c r="Q39">
@@ -3535,38 +3773,47 @@
         <v>1</v>
       </c>
       <c r="Y39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" s="6" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="35"/>
+      <c r="C40" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" s="23"/>
+      <c r="E40" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F40" s="24"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I40" s="18"/>
+      <c r="J40" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" s="6" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="32"/>
-      <c r="C40" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="D40" s="34"/>
-      <c r="E40" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="F40" s="35"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="36">
-        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K40" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L40" s="17">
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="M40" s="39"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="40"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="12"/>
       <c r="P40" s="6">
         <v>13</v>
       </c>
@@ -3592,36 +3839,45 @@
         <v>10</v>
       </c>
       <c r="Y40" s="6">
+        <f t="shared" si="4"/>
+        <v>81</v>
+      </c>
+      <c r="Z40" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="29"/>
+      <c r="C41" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="D41" s="31"/>
+      <c r="E41" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F41" s="32"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I41" s="18"/>
+      <c r="J41" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="Z40" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="D41" s="23"/>
-      <c r="E41" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="F41" s="24"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M41" s="19"/>
+        <v/>
+      </c>
+      <c r="K41" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L41" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M41" s="26"/>
       <c r="N41" s="18"/>
       <c r="O41" s="2"/>
       <c r="Q41">
@@ -3634,36 +3890,45 @@
         <v>1</v>
       </c>
       <c r="Y41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="29"/>
+      <c r="C42" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D42" s="31"/>
+      <c r="E42" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="F42" s="32"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I42" s="18"/>
+      <c r="J42" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="D42" s="23"/>
-      <c r="E42" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="F42" s="24"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K42" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="L42" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="M42" s="19"/>
+      <c r="M42" s="26"/>
       <c r="N42" s="18"/>
       <c r="O42" s="2"/>
       <c r="Q42">
@@ -3685,36 +3950,45 @@
         <v>20</v>
       </c>
       <c r="Y42">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="29"/>
+      <c r="C43" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="D43" s="31"/>
+      <c r="E43" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="F43" s="32"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I43" s="18"/>
+      <c r="J43" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="D43" s="23"/>
-      <c r="E43" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="F43" s="24"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="17">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="M43" s="19"/>
+        <v/>
+      </c>
+      <c r="K43" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L43" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M43" s="26"/>
       <c r="N43" s="18"/>
       <c r="O43" s="2"/>
       <c r="P43">
@@ -3742,38 +4016,47 @@
         <v>15</v>
       </c>
       <c r="Y43">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="Z43">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" s="6" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="35"/>
+      <c r="C44" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" s="23"/>
+      <c r="E44" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="F44" s="24"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I44" s="18"/>
+      <c r="J44" s="5">
         <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="Z43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" s="6" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" s="32"/>
-      <c r="C44" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="F44" s="35"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="36">
-        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K44" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L44" s="17">
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="M44" s="39"/>
-      <c r="N44" s="37"/>
-      <c r="O44" s="40"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="12"/>
       <c r="P44" s="6">
         <v>20</v>
       </c>
@@ -3786,7 +4069,7 @@
       <c r="T44" s="9">
         <v>10</v>
       </c>
-      <c r="U44" s="41">
+      <c r="U44" s="13">
         <v>18</v>
       </c>
       <c r="V44" s="6">
@@ -3796,7 +4079,7 @@
         <v>16</v>
       </c>
       <c r="Y44" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
       <c r="Z44" s="6">
@@ -3804,28 +4087,37 @@
       </c>
     </row>
     <row r="45" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="22" t="s">
+      <c r="B45" s="29"/>
+      <c r="C45" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="D45" s="23"/>
-      <c r="E45" s="22" t="s">
+      <c r="D45" s="31"/>
+      <c r="E45" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="F45" s="24"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="17"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="I45" s="18"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
+      <c r="J45" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K45" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="L45" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M45" s="19"/>
+      <c r="M45" s="26"/>
       <c r="N45" s="18"/>
       <c r="O45" s="2"/>
       <c r="P45">
@@ -3850,36 +4142,45 @@
         <v>30</v>
       </c>
       <c r="Y45">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" s="29"/>
+      <c r="C46" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="D46" s="31"/>
+      <c r="E46" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="F46" s="32"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I46" s="18"/>
+      <c r="J46" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>102</v>
-      </c>
-      <c r="Z45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="D46" s="23"/>
-      <c r="E46" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="F46" s="24"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M46" s="19"/>
+        <v/>
+      </c>
+      <c r="K46" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L46" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M46" s="26"/>
       <c r="N46" s="18"/>
       <c r="O46" s="2"/>
       <c r="P46">
@@ -3898,36 +4199,45 @@
         <v>1</v>
       </c>
       <c r="Y46">
+        <f t="shared" si="4"/>
+        <v>22.666666666666664</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="29"/>
+      <c r="C47" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="D47" s="31"/>
+      <c r="E47" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="F47" s="32"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I47" s="18"/>
+      <c r="J47" s="5">
         <f t="shared" si="1"/>
-        <v>22.666666666666664</v>
-      </c>
-      <c r="Z46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="D47" s="23"/>
-      <c r="E47" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="F47" s="24"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K47" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="L47" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M47" s="19"/>
+      <c r="M47" s="26"/>
       <c r="N47" s="18"/>
       <c r="O47" s="2"/>
       <c r="P47">
@@ -3955,36 +4265,45 @@
         <v>30</v>
       </c>
       <c r="Y47">
+        <f t="shared" si="4"/>
+        <v>106</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="29"/>
+      <c r="C48" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="D48" s="31"/>
+      <c r="E48" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="F48" s="32"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I48" s="18"/>
+      <c r="J48" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>106</v>
-      </c>
-      <c r="Z47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="D48" s="23"/>
-      <c r="E48" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="F48" s="24"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="17">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="M48" s="19"/>
+        <v/>
+      </c>
+      <c r="K48" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L48" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M48" s="26"/>
       <c r="N48" s="18"/>
       <c r="O48" s="2"/>
       <c r="P48">
@@ -4009,36 +4328,45 @@
         <v>30</v>
       </c>
       <c r="Y48">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="Z48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="29"/>
+      <c r="C49" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="D49" s="31"/>
+      <c r="E49" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="F49" s="32"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I49" s="18"/>
+      <c r="J49" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="Z48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="D49" s="23"/>
-      <c r="E49" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="F49" s="24"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M49" s="19"/>
+        <v/>
+      </c>
+      <c r="K49" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L49" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M49" s="26"/>
       <c r="N49" s="18"/>
       <c r="O49" s="2"/>
       <c r="P49">
@@ -4054,36 +4382,45 @@
         <v>2</v>
       </c>
       <c r="Y49">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="29"/>
+      <c r="C50" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="D50" s="31"/>
+      <c r="E50" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="F50" s="32"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I50" s="18"/>
+      <c r="J50" s="5">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="Z49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="D50" s="23"/>
-      <c r="E50" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="F50" s="24"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K50" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="L50" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="M50" s="19"/>
+      <c r="M50" s="26"/>
       <c r="N50" s="18"/>
       <c r="O50" s="2"/>
       <c r="P50">
@@ -4114,36 +4451,45 @@
         <v>30</v>
       </c>
       <c r="Y50">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="29"/>
+      <c r="C51" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="D51" s="31"/>
+      <c r="E51" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="F51" s="32"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I51" s="18"/>
+      <c r="J51" s="5">
         <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="Z50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B51" s="21"/>
-      <c r="C51" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="D51" s="23"/>
-      <c r="E51" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="F51" s="24"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K51" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="L51" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="M51" s="19"/>
+      <c r="M51" s="26"/>
       <c r="N51" s="18"/>
       <c r="O51" s="2"/>
       <c r="Q51">
@@ -4168,36 +4514,45 @@
         <v>30</v>
       </c>
       <c r="Y51">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="29"/>
+      <c r="C52" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="D52" s="31"/>
+      <c r="E52" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="F52" s="32"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I52" s="18"/>
+      <c r="J52" s="5">
         <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="Z51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="D52" s="23"/>
-      <c r="E52" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="F52" s="24"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K52" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="L52" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M52" s="19"/>
+      <c r="M52" s="26"/>
       <c r="N52" s="18"/>
       <c r="O52" s="2"/>
       <c r="P52">
@@ -4225,36 +4580,45 @@
         <v>30</v>
       </c>
       <c r="Y52">
+        <f t="shared" si="4"/>
+        <v>103</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="29"/>
+      <c r="C53" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="D53" s="31"/>
+      <c r="E53" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="F53" s="32"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I53" s="18"/>
+      <c r="J53" s="5">
         <f t="shared" si="1"/>
-        <v>103</v>
-      </c>
-      <c r="Z52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B53" s="21"/>
-      <c r="C53" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="D53" s="23"/>
-      <c r="E53" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="F53" s="24"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K53" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="L53" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M53" s="19"/>
+      <c r="M53" s="26"/>
       <c r="N53" s="18"/>
       <c r="O53" s="2"/>
       <c r="P53">
@@ -4285,36 +4649,45 @@
         <v>25</v>
       </c>
       <c r="Y53">
+        <f t="shared" si="4"/>
+        <v>103</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" s="29"/>
+      <c r="C54" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="D54" s="31"/>
+      <c r="E54" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="F54" s="32"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I54" s="18"/>
+      <c r="J54" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>103</v>
-      </c>
-      <c r="Z53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="B54" s="21"/>
-      <c r="C54" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="D54" s="23"/>
-      <c r="E54" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="F54" s="24"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M54" s="19"/>
+        <v/>
+      </c>
+      <c r="K54" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L54" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M54" s="26"/>
       <c r="N54" s="18"/>
       <c r="O54" s="2"/>
       <c r="Q54">
@@ -4327,36 +4700,45 @@
         <v>1</v>
       </c>
       <c r="Y54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="29"/>
+      <c r="C55" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="D55" s="31"/>
+      <c r="E55" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="F55" s="32"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I55" s="18"/>
+      <c r="J55" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B55" s="21"/>
-      <c r="C55" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D55" s="23"/>
-      <c r="E55" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="F55" s="24"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M55" s="19"/>
+        <v/>
+      </c>
+      <c r="K55" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L55" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M55" s="26"/>
       <c r="N55" s="18"/>
       <c r="O55" s="2"/>
       <c r="Q55">
@@ -4378,36 +4760,45 @@
         <v>13</v>
       </c>
       <c r="Y55">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" s="29"/>
+      <c r="C56" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="D56" s="31"/>
+      <c r="E56" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="F56" s="32"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I56" s="18"/>
+      <c r="J56" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="Z55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="D56" s="23"/>
-      <c r="E56" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="F56" s="24"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="17">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="M56" s="19"/>
+        <v/>
+      </c>
+      <c r="K56" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L56" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M56" s="26"/>
       <c r="N56" s="18"/>
       <c r="O56" s="2"/>
       <c r="Q56">
@@ -4432,36 +4823,45 @@
         <v>20</v>
       </c>
       <c r="Y56">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="Z56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" s="29"/>
+      <c r="C57" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D57" s="31"/>
+      <c r="E57" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="F57" s="32"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I57" s="18"/>
+      <c r="J57" s="5">
         <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="Z56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B57" s="21"/>
-      <c r="C57" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="D57" s="23"/>
-      <c r="E57" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="F57" s="24"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K57" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="L57" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>48.5</v>
       </c>
-      <c r="M57" s="19"/>
+      <c r="M57" s="26"/>
       <c r="N57" s="18"/>
       <c r="O57" s="2"/>
       <c r="Q57">
@@ -4486,36 +4886,45 @@
         <v>20</v>
       </c>
       <c r="Y57">
+        <f t="shared" si="4"/>
+        <v>98.5</v>
+      </c>
+      <c r="Z57">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" s="29"/>
+      <c r="C58" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="D58" s="31"/>
+      <c r="E58" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="F58" s="32"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I58" s="18"/>
+      <c r="J58" s="5">
         <f t="shared" si="1"/>
-        <v>98.5</v>
-      </c>
-      <c r="Z57">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="B58" s="21"/>
-      <c r="C58" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="D58" s="23"/>
-      <c r="E58" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="F58" s="24"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K58" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="L58" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="M58" s="19"/>
+      <c r="M58" s="26"/>
       <c r="N58" s="18"/>
       <c r="O58" s="2"/>
       <c r="P58">
@@ -4543,36 +4952,45 @@
         <v>30</v>
       </c>
       <c r="Y58">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59" s="29"/>
+      <c r="C59" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D59" s="31"/>
+      <c r="E59" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="F59" s="32"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I59" s="18"/>
+      <c r="J59" s="5">
         <f t="shared" si="1"/>
-        <v>97</v>
-      </c>
-      <c r="Z58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="B59" s="21"/>
-      <c r="C59" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="D59" s="23"/>
-      <c r="E59" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="F59" s="24"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K59" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="L59" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="M59" s="19"/>
+      <c r="M59" s="26"/>
       <c r="N59" s="18"/>
       <c r="O59" s="2"/>
       <c r="P59">
@@ -4597,36 +5015,45 @@
         <v>30</v>
       </c>
       <c r="Y59">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60" s="29"/>
+      <c r="C60" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D60" s="31"/>
+      <c r="E60" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="F60" s="32"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I60" s="18"/>
+      <c r="J60" s="5">
         <f t="shared" si="1"/>
-        <v>97</v>
-      </c>
-      <c r="Z59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="B60" s="21"/>
-      <c r="C60" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="D60" s="23"/>
-      <c r="E60" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="F60" s="24"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K60" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="L60" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="M60" s="19"/>
+      <c r="M60" s="26"/>
       <c r="N60" s="18"/>
       <c r="O60" s="2"/>
       <c r="P60">
@@ -4654,36 +5081,45 @@
         <v>19</v>
       </c>
       <c r="Y60">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B61" s="29"/>
+      <c r="C61" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D61" s="31"/>
+      <c r="E61" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="F61" s="32"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I61" s="18"/>
+      <c r="J61" s="5">
         <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="Z60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="B61" s="21"/>
-      <c r="C61" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="D61" s="23"/>
-      <c r="E61" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="F61" s="24"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K61" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="L61" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="M61" s="19"/>
+      <c r="M61" s="26"/>
       <c r="N61" s="18"/>
       <c r="O61" s="2"/>
       <c r="P61">
@@ -4708,36 +5144,45 @@
         <v>15</v>
       </c>
       <c r="Y61">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" s="29"/>
+      <c r="C62" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="D62" s="31"/>
+      <c r="E62" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="F62" s="32"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I62" s="18"/>
+      <c r="J62" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="Z61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B62" s="21"/>
-      <c r="C62" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="D62" s="23"/>
-      <c r="E62" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="F62" s="24"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M62" s="19"/>
+        <v/>
+      </c>
+      <c r="K62" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L62" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M62" s="26"/>
       <c r="N62" s="18"/>
       <c r="O62" s="2"/>
       <c r="P62">
@@ -4756,36 +5201,45 @@
         <v>15</v>
       </c>
       <c r="Y62">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B63" s="29"/>
+      <c r="C63" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="D63" s="31"/>
+      <c r="E63" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="F63" s="32"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I63" s="18"/>
+      <c r="J63" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="Z62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B63" s="21"/>
-      <c r="C63" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="D63" s="23"/>
-      <c r="E63" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="F63" s="24"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M63" s="19"/>
+        <v/>
+      </c>
+      <c r="K63" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L63" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M63" s="26"/>
       <c r="N63" s="18"/>
       <c r="O63" s="2"/>
       <c r="Q63">
@@ -4798,36 +5252,45 @@
         <v>1</v>
       </c>
       <c r="Y63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B64" s="29"/>
+      <c r="C64" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="D64" s="31"/>
+      <c r="E64" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="F64" s="32"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I64" s="18"/>
+      <c r="J64" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B64" s="21"/>
-      <c r="C64" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="D64" s="23"/>
-      <c r="E64" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="F64" s="24"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K64" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="L64" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="M64" s="19"/>
+      <c r="M64" s="26"/>
       <c r="N64" s="18"/>
       <c r="O64" s="2"/>
       <c r="P64">
@@ -4858,36 +5321,45 @@
         <v>15</v>
       </c>
       <c r="Y64">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B65" s="29"/>
+      <c r="C65" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="D65" s="31"/>
+      <c r="E65" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="F65" s="32"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I65" s="18"/>
+      <c r="J65" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-      <c r="Z64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B65" s="21"/>
-      <c r="C65" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="D65" s="23"/>
-      <c r="E65" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="F65" s="24"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="18"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M65" s="19"/>
+        <v/>
+      </c>
+      <c r="K65" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L65" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M65" s="26"/>
       <c r="N65" s="18"/>
       <c r="O65" s="2"/>
       <c r="Q65">
@@ -4900,38 +5372,47 @@
         <v>1</v>
       </c>
       <c r="Y65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" s="6" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B66" s="35"/>
+      <c r="C66" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D66" s="23"/>
+      <c r="E66" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="F66" s="24"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I66" s="18"/>
+      <c r="J66" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:26" s="6" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="B66" s="32"/>
-      <c r="C66" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="D66" s="34"/>
-      <c r="E66" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="F66" s="35"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="38"/>
-      <c r="K66" s="38"/>
-      <c r="L66" s="36">
-        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K66" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L66" s="17">
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="M66" s="39"/>
-      <c r="N66" s="37"/>
-      <c r="O66" s="40"/>
+      <c r="M66" s="26"/>
+      <c r="N66" s="18"/>
+      <c r="O66" s="12"/>
       <c r="P66" s="6">
         <v>13</v>
       </c>
@@ -4954,36 +5435,45 @@
         <v>11</v>
       </c>
       <c r="Y66" s="6">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="Z66" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="29"/>
+      <c r="C67" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="D67" s="31"/>
+      <c r="E67" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="F67" s="32"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I67" s="18"/>
+      <c r="J67" s="5">
         <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="Z66" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B67" s="21"/>
-      <c r="C67" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="D67" s="23"/>
-      <c r="E67" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="F67" s="24"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K67" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="L67" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="M67" s="19"/>
+      <c r="M67" s="26"/>
       <c r="N67" s="18"/>
       <c r="O67" s="2"/>
       <c r="P67">
@@ -5014,36 +5504,45 @@
         <v>15</v>
       </c>
       <c r="Y67">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" s="29"/>
+      <c r="C68" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="D68" s="31"/>
+      <c r="E68" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="F68" s="32"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I68" s="18"/>
+      <c r="J68" s="5">
         <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="Z67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B68" s="21"/>
-      <c r="C68" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="D68" s="23"/>
-      <c r="E68" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="F68" s="24"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K68" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="L68" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="M68" s="19"/>
+      <c r="M68" s="26"/>
       <c r="N68" s="18"/>
       <c r="O68" s="2"/>
       <c r="P68">
@@ -5071,36 +5570,45 @@
         <v>30</v>
       </c>
       <c r="Y68">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" s="29"/>
+      <c r="C69" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="D69" s="31"/>
+      <c r="E69" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="F69" s="32"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I69" s="18"/>
+      <c r="J69" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="Z68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="B69" s="21"/>
-      <c r="C69" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="D69" s="23"/>
-      <c r="E69" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="F69" s="24"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="17">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="M69" s="19"/>
+        <v/>
+      </c>
+      <c r="K69" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L69" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M69" s="26"/>
       <c r="N69" s="18"/>
       <c r="O69" s="2"/>
       <c r="Q69">
@@ -5119,36 +5627,45 @@
         <v>14</v>
       </c>
       <c r="Y69">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="Z69">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B70" s="29"/>
+      <c r="C70" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="D70" s="31"/>
+      <c r="E70" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="F70" s="32"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I70" s="18"/>
+      <c r="J70" s="5">
         <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="Z69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B70" s="21"/>
-      <c r="C70" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="D70" s="23"/>
-      <c r="E70" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="F70" s="24"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K70" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="L70" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M70" s="19"/>
+      <c r="M70" s="26"/>
       <c r="N70" s="18"/>
       <c r="O70" s="2"/>
       <c r="P70">
@@ -5179,36 +5696,45 @@
         <v>30</v>
       </c>
       <c r="Y70">
+        <f t="shared" si="4"/>
+        <v>103.33333333333333</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B71" s="29"/>
+      <c r="C71" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="D71" s="31"/>
+      <c r="E71" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="F71" s="32"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I71" s="18"/>
+      <c r="J71" s="5">
         <f t="shared" si="1"/>
-        <v>103.33333333333333</v>
-      </c>
-      <c r="Z70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B71" s="21"/>
-      <c r="C71" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="D71" s="23"/>
-      <c r="E71" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="F71" s="24"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K71" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="L71" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="M71" s="19"/>
+      <c r="M71" s="26"/>
       <c r="N71" s="18"/>
       <c r="O71" s="2"/>
       <c r="Q71">
@@ -5233,36 +5759,45 @@
         <v>30</v>
       </c>
       <c r="Y71">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B72" s="29"/>
+      <c r="C72" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="D72" s="31"/>
+      <c r="E72" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="F72" s="32"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I72" s="18"/>
+      <c r="J72" s="5">
         <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="Z71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B72" s="21"/>
-      <c r="C72" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="D72" s="23"/>
-      <c r="E72" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="F72" s="24"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K72" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="L72" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="M72" s="19"/>
+      <c r="M72" s="26"/>
       <c r="N72" s="18"/>
       <c r="O72" s="2"/>
       <c r="P72">
@@ -5290,36 +5825,45 @@
         <v>20</v>
       </c>
       <c r="Y72">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B73" s="29"/>
+      <c r="C73" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="D73" s="31"/>
+      <c r="E73" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="F73" s="32"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I73" s="18"/>
+      <c r="J73" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="Z72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B73" s="21"/>
-      <c r="C73" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="D73" s="23"/>
-      <c r="E73" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="F73" s="24"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
-      <c r="L73" s="17">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="M73" s="19"/>
+        <v/>
+      </c>
+      <c r="K73" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L73" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M73" s="26"/>
       <c r="N73" s="18"/>
       <c r="O73" s="2"/>
       <c r="P73">
@@ -5347,36 +5891,45 @@
         <v>17</v>
       </c>
       <c r="Y73">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="Z73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B74" s="29"/>
+      <c r="C74" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D74" s="31"/>
+      <c r="E74" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="F74" s="32"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I74" s="18"/>
+      <c r="J74" s="5">
         <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="Z73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="B74" s="21"/>
-      <c r="C74" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="D74" s="23"/>
-      <c r="E74" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="F74" s="24"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K74" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="L74" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>29.333333333333343</v>
       </c>
-      <c r="M74" s="19"/>
+      <c r="M74" s="26"/>
       <c r="N74" s="18"/>
       <c r="O74" s="2"/>
       <c r="Q74">
@@ -5404,36 +5957,45 @@
         <v>30</v>
       </c>
       <c r="Y74">
+        <f t="shared" si="4"/>
+        <v>79.333333333333343</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="B75" s="29"/>
+      <c r="C75" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="D75" s="31"/>
+      <c r="E75" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="F75" s="32"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I75" s="18"/>
+      <c r="J75" s="5">
         <f t="shared" si="1"/>
-        <v>79.333333333333343</v>
-      </c>
-      <c r="Z74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="B75" s="21"/>
-      <c r="C75" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="D75" s="23"/>
-      <c r="E75" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="F75" s="24"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K75" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="L75" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="M75" s="19"/>
+      <c r="M75" s="26"/>
       <c r="N75" s="18"/>
       <c r="O75" s="2"/>
       <c r="P75">
@@ -5461,7 +6023,7 @@
         <v>30</v>
       </c>
       <c r="Y75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>99</v>
       </c>
       <c r="Z75">
@@ -5469,28 +6031,37 @@
       </c>
     </row>
     <row r="76" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="20" t="s">
+      <c r="A76" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="B76" s="21"/>
-      <c r="C76" s="22" t="s">
+      <c r="B76" s="29"/>
+      <c r="C76" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="D76" s="23"/>
-      <c r="E76" s="22" t="s">
+      <c r="D76" s="31"/>
+      <c r="E76" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="F76" s="24"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="17"/>
+      <c r="F76" s="32"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="17" t="str">
+        <f t="shared" ref="H76:H110" si="5">IF((Y76)&gt;70,10,"")</f>
+        <v/>
+      </c>
       <c r="I76" s="18"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
-      <c r="L76" s="17">
-        <f t="shared" ref="L76:L113" si="2">IF((Y76-50)&gt;50,50,IF((Y76-50)&lt;0,0,(Y76-50)))</f>
-        <v>0</v>
-      </c>
-      <c r="M76" s="19"/>
+      <c r="J76" s="5" t="str">
+        <f t="shared" ref="J76:J111" si="6">IF((Y76)&gt;70,20,"")</f>
+        <v/>
+      </c>
+      <c r="K76" s="5" t="str">
+        <f t="shared" ref="K76:K110" si="7">IF((Y76)&gt;70,20,"")</f>
+        <v/>
+      </c>
+      <c r="L76" s="17" t="str">
+        <f t="shared" ref="L76:L113" si="8">IF((Y76)&gt;70,IF((Y76-50)&gt;50,50,IF((Y76-50)&lt;0,0,(Y76-50))), "" )</f>
+        <v/>
+      </c>
+      <c r="M76" s="26"/>
       <c r="N76" s="18"/>
       <c r="O76" s="2"/>
       <c r="Q76">
@@ -5503,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="Y76">
-        <f t="shared" ref="Y76:Y113" si="3">P76+(IF((Q76+R76+S76+T76)&gt;30,(Q76+R76+S76+T76)/4,IF((Q76+R76+S76+T76)&gt;20,(Q76+R76+S76+T76)/3,IF((Q76+R76+S76+T76)&gt;10,(Q76+R76+S76+T76)/2,(Q76+R76+S76+T76)))))+(U76*V76)+W76+X76+Z76</f>
+        <f t="shared" ref="Y76:Y113" si="9">P76+(IF((Q76+R76+S76+T76)&gt;30,(Q76+R76+S76+T76)/4,IF((Q76+R76+S76+T76)&gt;20,(Q76+R76+S76+T76)/3,IF((Q76+R76+S76+T76)&gt;10,(Q76+R76+S76+T76)/2,(Q76+R76+S76+T76)))))+(U76*V76)+W76+X76+Z76</f>
         <v>0</v>
       </c>
       <c r="Z76">
@@ -5511,28 +6082,37 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="20" t="s">
+      <c r="A77" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="B77" s="21"/>
-      <c r="C77" s="22" t="s">
+      <c r="B77" s="29"/>
+      <c r="C77" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="D77" s="23"/>
-      <c r="E77" s="22" t="s">
+      <c r="D77" s="31"/>
+      <c r="E77" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="F77" s="24"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="17"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="17">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="I77" s="18"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
+      <c r="J77" s="5">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K77" s="5">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
       <c r="L77" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
-      <c r="M77" s="19"/>
+      <c r="M77" s="26"/>
       <c r="N77" s="18"/>
       <c r="O77" s="2"/>
       <c r="P77">
@@ -5557,7 +6137,7 @@
         <v>30</v>
       </c>
       <c r="Y77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>75</v>
       </c>
       <c r="Z77">
@@ -5565,28 +6145,37 @@
       </c>
     </row>
     <row r="78" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="20" t="s">
+      <c r="A78" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="B78" s="21"/>
-      <c r="C78" s="22" t="s">
+      <c r="B78" s="29"/>
+      <c r="C78" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="D78" s="23"/>
-      <c r="E78" s="22" t="s">
+      <c r="D78" s="31"/>
+      <c r="E78" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="F78" s="24"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="17"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="17">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="I78" s="18"/>
-      <c r="J78" s="5"/>
-      <c r="K78" s="5"/>
+      <c r="J78" s="5">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K78" s="5">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
       <c r="L78" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
-      <c r="M78" s="19"/>
+      <c r="M78" s="26"/>
       <c r="N78" s="18"/>
       <c r="O78" s="2"/>
       <c r="P78">
@@ -5611,7 +6200,7 @@
         <v>18</v>
       </c>
       <c r="Y78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>72</v>
       </c>
       <c r="Z78">
@@ -5619,28 +6208,37 @@
       </c>
     </row>
     <row r="79" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="20" t="s">
+      <c r="A79" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="B79" s="21"/>
-      <c r="C79" s="22" t="s">
+      <c r="B79" s="29"/>
+      <c r="C79" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="D79" s="23"/>
-      <c r="E79" s="22" t="s">
+      <c r="D79" s="31"/>
+      <c r="E79" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="F79" s="24"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="17"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="17">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="I79" s="18"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
+      <c r="J79" s="5">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K79" s="5">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
       <c r="L79" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
-      <c r="M79" s="19"/>
+      <c r="M79" s="26"/>
       <c r="N79" s="18"/>
       <c r="O79" s="2"/>
       <c r="Q79">
@@ -5665,7 +6263,7 @@
         <v>30</v>
       </c>
       <c r="Y79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>82</v>
       </c>
       <c r="Z79">
@@ -5673,28 +6271,37 @@
       </c>
     </row>
     <row r="80" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="20" t="s">
+      <c r="A80" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="B80" s="21"/>
-      <c r="C80" s="22" t="s">
+      <c r="B80" s="29"/>
+      <c r="C80" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="D80" s="23"/>
-      <c r="E80" s="22" t="s">
+      <c r="D80" s="31"/>
+      <c r="E80" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="F80" s="24"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="17"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I80" s="18"/>
-      <c r="J80" s="5"/>
-      <c r="K80" s="5"/>
-      <c r="L80" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M80" s="19"/>
+      <c r="J80" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K80" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L80" s="17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M80" s="26"/>
       <c r="N80" s="18"/>
       <c r="O80" s="2"/>
       <c r="P80">
@@ -5716,7 +6323,7 @@
         <v>20</v>
       </c>
       <c r="Y80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="Z80">
@@ -5724,28 +6331,37 @@
       </c>
     </row>
     <row r="81" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="20" t="s">
+      <c r="A81" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="B81" s="21"/>
-      <c r="C81" s="22" t="s">
+      <c r="B81" s="29"/>
+      <c r="C81" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="D81" s="23"/>
-      <c r="E81" s="22" t="s">
+      <c r="D81" s="31"/>
+      <c r="E81" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="F81" s="24"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="17"/>
+      <c r="F81" s="32"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="17">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="I81" s="18"/>
-      <c r="J81" s="5"/>
-      <c r="K81" s="5"/>
+      <c r="J81" s="5">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K81" s="5">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
       <c r="L81" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>39</v>
       </c>
-      <c r="M81" s="19"/>
+      <c r="M81" s="26"/>
       <c r="N81" s="18"/>
       <c r="O81" s="2"/>
       <c r="P81">
@@ -5776,7 +6392,7 @@
         <v>20</v>
       </c>
       <c r="Y81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>89</v>
       </c>
       <c r="Z81">
@@ -5784,28 +6400,37 @@
       </c>
     </row>
     <row r="82" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="20" t="s">
+      <c r="A82" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="B82" s="21"/>
-      <c r="C82" s="22" t="s">
+      <c r="B82" s="29"/>
+      <c r="C82" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="D82" s="23"/>
-      <c r="E82" s="22" t="s">
+      <c r="D82" s="31"/>
+      <c r="E82" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="F82" s="24"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="17"/>
+      <c r="F82" s="32"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I82" s="18"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
-      <c r="L82" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M82" s="19"/>
+      <c r="J82" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K82" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L82" s="17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M82" s="26"/>
       <c r="N82" s="18"/>
       <c r="O82" s="2"/>
       <c r="Q82">
@@ -5818,7 +6443,7 @@
         <v>1</v>
       </c>
       <c r="Y82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="Z82">
@@ -5826,28 +6451,37 @@
       </c>
     </row>
     <row r="83" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="20" t="s">
+      <c r="A83" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="B83" s="21"/>
-      <c r="C83" s="22" t="s">
+      <c r="B83" s="29"/>
+      <c r="C83" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="D83" s="23"/>
-      <c r="E83" s="22" t="s">
+      <c r="D83" s="31"/>
+      <c r="E83" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="F83" s="24"/>
-      <c r="G83" s="23"/>
-      <c r="H83" s="17"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="17">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="I83" s="18"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
+      <c r="J83" s="5">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K83" s="5">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
       <c r="L83" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>47.75</v>
       </c>
-      <c r="M83" s="19"/>
+      <c r="M83" s="26"/>
       <c r="N83" s="18"/>
       <c r="O83" s="2"/>
       <c r="P83">
@@ -5878,7 +6512,7 @@
         <v>30</v>
       </c>
       <c r="Y83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>97.75</v>
       </c>
       <c r="Z83">
@@ -5886,28 +6520,37 @@
       </c>
     </row>
     <row r="84" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="20" t="s">
+      <c r="A84" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="B84" s="21"/>
-      <c r="C84" s="22" t="s">
+      <c r="B84" s="29"/>
+      <c r="C84" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="D84" s="23"/>
-      <c r="E84" s="22" t="s">
+      <c r="D84" s="31"/>
+      <c r="E84" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="F84" s="24"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="17"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="17">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="I84" s="18"/>
-      <c r="J84" s="5"/>
-      <c r="K84" s="5"/>
+      <c r="J84" s="5">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K84" s="5">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
       <c r="L84" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="M84" s="19"/>
+      <c r="M84" s="26"/>
       <c r="N84" s="18"/>
       <c r="O84" s="2"/>
       <c r="Q84">
@@ -5932,7 +6575,7 @@
         <v>15</v>
       </c>
       <c r="Y84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>74</v>
       </c>
       <c r="Z84">
@@ -5940,28 +6583,37 @@
       </c>
     </row>
     <row r="85" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="20" t="s">
+      <c r="A85" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="B85" s="21"/>
-      <c r="C85" s="22" t="s">
+      <c r="B85" s="29"/>
+      <c r="C85" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="D85" s="23"/>
-      <c r="E85" s="22" t="s">
+      <c r="D85" s="31"/>
+      <c r="E85" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="F85" s="24"/>
-      <c r="G85" s="23"/>
-      <c r="H85" s="17"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="31"/>
+      <c r="H85" s="17">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="I85" s="18"/>
-      <c r="J85" s="5"/>
-      <c r="K85" s="5"/>
+      <c r="J85" s="5">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K85" s="5">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
       <c r="L85" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="M85" s="19"/>
+      <c r="M85" s="26"/>
       <c r="N85" s="18"/>
       <c r="O85" s="2"/>
       <c r="P85">
@@ -5989,7 +6641,7 @@
         <v>30</v>
       </c>
       <c r="Y85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>120</v>
       </c>
       <c r="Z85">
@@ -5997,28 +6649,37 @@
       </c>
     </row>
     <row r="86" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="20" t="s">
+      <c r="A86" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="B86" s="21"/>
-      <c r="C86" s="22" t="s">
+      <c r="B86" s="29"/>
+      <c r="C86" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="D86" s="23"/>
-      <c r="E86" s="22" t="s">
+      <c r="D86" s="31"/>
+      <c r="E86" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="F86" s="24"/>
-      <c r="G86" s="23"/>
-      <c r="H86" s="17"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="31"/>
+      <c r="H86" s="17">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="I86" s="18"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
+      <c r="J86" s="5">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K86" s="5">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
       <c r="L86" s="17">
-        <f t="shared" si="2"/>
-        <v>16.5</v>
-      </c>
-      <c r="M86" s="19"/>
+        <f t="shared" si="8"/>
+        <v>20.5</v>
+      </c>
+      <c r="M86" s="26"/>
       <c r="N86" s="18"/>
       <c r="O86" s="2"/>
       <c r="P86">
@@ -6043,36 +6704,45 @@
         <v>13</v>
       </c>
       <c r="Y86">
-        <f t="shared" si="3"/>
-        <v>66.5</v>
+        <f t="shared" si="9"/>
+        <v>70.5</v>
       </c>
       <c r="Z86">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="20" t="s">
+      <c r="A87" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="B87" s="21"/>
-      <c r="C87" s="22" t="s">
+      <c r="B87" s="29"/>
+      <c r="C87" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="D87" s="23"/>
-      <c r="E87" s="22" t="s">
+      <c r="D87" s="31"/>
+      <c r="E87" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="F87" s="24"/>
-      <c r="G87" s="23"/>
-      <c r="H87" s="17"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I87" s="18"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
-      <c r="L87" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M87" s="19"/>
+      <c r="J87" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K87" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L87" s="17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M87" s="26"/>
       <c r="N87" s="18"/>
       <c r="O87" s="2"/>
       <c r="Q87">
@@ -6085,7 +6755,7 @@
         <v>1</v>
       </c>
       <c r="Y87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z87">
@@ -6093,28 +6763,37 @@
       </c>
     </row>
     <row r="88" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="20" t="s">
+      <c r="A88" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="B88" s="21"/>
-      <c r="C88" s="22" t="s">
+      <c r="B88" s="29"/>
+      <c r="C88" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="D88" s="23"/>
-      <c r="E88" s="22" t="s">
+      <c r="D88" s="31"/>
+      <c r="E88" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="F88" s="24"/>
-      <c r="G88" s="23"/>
-      <c r="H88" s="17"/>
+      <c r="F88" s="32"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="17">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="I88" s="18"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
+      <c r="J88" s="5">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K88" s="5">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
       <c r="L88" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="M88" s="19"/>
+      <c r="M88" s="26"/>
       <c r="N88" s="18"/>
       <c r="O88" s="2"/>
       <c r="P88">
@@ -6139,7 +6818,7 @@
         <v>30</v>
       </c>
       <c r="Y88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>101</v>
       </c>
       <c r="Z88">
@@ -6147,28 +6826,37 @@
       </c>
     </row>
     <row r="89" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="20" t="s">
+      <c r="A89" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="B89" s="21"/>
-      <c r="C89" s="22" t="s">
+      <c r="B89" s="29"/>
+      <c r="C89" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="D89" s="23"/>
-      <c r="E89" s="22" t="s">
+      <c r="D89" s="31"/>
+      <c r="E89" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="F89" s="24"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="17"/>
+      <c r="F89" s="32"/>
+      <c r="G89" s="31"/>
+      <c r="H89" s="17">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="I89" s="18"/>
-      <c r="J89" s="5"/>
-      <c r="K89" s="5"/>
+      <c r="J89" s="5">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K89" s="5">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
       <c r="L89" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="M89" s="19"/>
+      <c r="M89" s="26"/>
       <c r="N89" s="18"/>
       <c r="O89" s="2"/>
       <c r="P89">
@@ -6193,7 +6881,7 @@
         <v>30</v>
       </c>
       <c r="Y89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>103</v>
       </c>
       <c r="Z89">
@@ -6201,28 +6889,37 @@
       </c>
     </row>
     <row r="90" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="20" t="s">
+      <c r="A90" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="B90" s="21"/>
-      <c r="C90" s="22" t="s">
+      <c r="B90" s="29"/>
+      <c r="C90" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="D90" s="23"/>
-      <c r="E90" s="22" t="s">
+      <c r="D90" s="31"/>
+      <c r="E90" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="F90" s="24"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="17"/>
+      <c r="F90" s="32"/>
+      <c r="G90" s="31"/>
+      <c r="H90" s="17">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="I90" s="18"/>
-      <c r="J90" s="5"/>
-      <c r="K90" s="5"/>
+      <c r="J90" s="5">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K90" s="5">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
       <c r="L90" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="M90" s="19"/>
+      <c r="M90" s="26"/>
       <c r="N90" s="18"/>
       <c r="O90" s="2"/>
       <c r="P90">
@@ -6247,7 +6944,7 @@
         <v>30</v>
       </c>
       <c r="Y90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>105</v>
       </c>
       <c r="Z90">
@@ -6255,28 +6952,37 @@
       </c>
     </row>
     <row r="91" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="20" t="s">
+      <c r="A91" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="B91" s="21"/>
-      <c r="C91" s="22" t="s">
+      <c r="B91" s="29"/>
+      <c r="C91" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="D91" s="23"/>
-      <c r="E91" s="22" t="s">
+      <c r="D91" s="31"/>
+      <c r="E91" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="F91" s="24"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="17"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="31"/>
+      <c r="H91" s="17">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="I91" s="18"/>
-      <c r="J91" s="5"/>
-      <c r="K91" s="5"/>
+      <c r="J91" s="5">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K91" s="5">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
       <c r="L91" s="17">
-        <f t="shared" si="2"/>
-        <v>17.666666666666671</v>
-      </c>
-      <c r="M91" s="19"/>
+        <f t="shared" si="8"/>
+        <v>20.666666666666671</v>
+      </c>
+      <c r="M91" s="26"/>
       <c r="N91" s="18"/>
       <c r="O91" s="2"/>
       <c r="P91">
@@ -6304,36 +7010,45 @@
         <v>19</v>
       </c>
       <c r="Y91">
-        <f t="shared" si="3"/>
-        <v>67.666666666666671</v>
+        <f t="shared" si="9"/>
+        <v>70.666666666666671</v>
       </c>
       <c r="Z91">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="20" t="s">
+      <c r="A92" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="B92" s="21"/>
-      <c r="C92" s="22" t="s">
+      <c r="B92" s="29"/>
+      <c r="C92" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="D92" s="23"/>
-      <c r="E92" s="22" t="s">
+      <c r="D92" s="31"/>
+      <c r="E92" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="F92" s="24"/>
-      <c r="G92" s="23"/>
-      <c r="H92" s="17"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I92" s="18"/>
-      <c r="J92" s="5"/>
-      <c r="K92" s="5"/>
-      <c r="L92" s="17">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="M92" s="19"/>
+      <c r="J92" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K92" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L92" s="17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M92" s="26"/>
       <c r="N92" s="18"/>
       <c r="O92" s="2"/>
       <c r="P92">
@@ -6358,7 +7073,7 @@
         <v>15</v>
       </c>
       <c r="Y92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>55</v>
       </c>
       <c r="Z92">
@@ -6366,28 +7081,37 @@
       </c>
     </row>
     <row r="93" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="20" t="s">
+      <c r="A93" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="B93" s="21"/>
-      <c r="C93" s="22" t="s">
+      <c r="B93" s="29"/>
+      <c r="C93" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="D93" s="23"/>
-      <c r="E93" s="22" t="s">
+      <c r="D93" s="31"/>
+      <c r="E93" s="30" t="s">
         <v>278</v>
       </c>
-      <c r="F93" s="24"/>
-      <c r="G93" s="23"/>
-      <c r="H93" s="17"/>
+      <c r="F93" s="32"/>
+      <c r="G93" s="31"/>
+      <c r="H93" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I93" s="18"/>
-      <c r="J93" s="5"/>
-      <c r="K93" s="5"/>
-      <c r="L93" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M93" s="19"/>
+      <c r="J93" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K93" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L93" s="17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M93" s="26"/>
       <c r="N93" s="18"/>
       <c r="O93" s="2"/>
       <c r="P93">
@@ -6412,7 +7136,7 @@
         <v>15</v>
       </c>
       <c r="Y93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="Z93">
@@ -6420,28 +7144,37 @@
       </c>
     </row>
     <row r="94" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="20" t="s">
+      <c r="A94" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="B94" s="21"/>
-      <c r="C94" s="22" t="s">
+      <c r="B94" s="29"/>
+      <c r="C94" s="30" t="s">
         <v>280</v>
       </c>
-      <c r="D94" s="23"/>
-      <c r="E94" s="22" t="s">
+      <c r="D94" s="31"/>
+      <c r="E94" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="F94" s="24"/>
-      <c r="G94" s="23"/>
-      <c r="H94" s="17"/>
+      <c r="F94" s="32"/>
+      <c r="G94" s="31"/>
+      <c r="H94" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I94" s="18"/>
-      <c r="J94" s="5"/>
-      <c r="K94" s="5"/>
-      <c r="L94" s="17">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="M94" s="19"/>
+      <c r="J94" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K94" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L94" s="17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M94" s="26"/>
       <c r="N94" s="18"/>
       <c r="O94" s="2"/>
       <c r="P94">
@@ -6463,7 +7196,7 @@
         <v>19</v>
       </c>
       <c r="Y94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
       <c r="Z94">
@@ -6471,28 +7204,37 @@
       </c>
     </row>
     <row r="95" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="20" t="s">
+      <c r="A95" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="B95" s="21"/>
-      <c r="C95" s="22" t="s">
+      <c r="B95" s="29"/>
+      <c r="C95" s="30" t="s">
         <v>283</v>
       </c>
-      <c r="D95" s="23"/>
-      <c r="E95" s="22" t="s">
+      <c r="D95" s="31"/>
+      <c r="E95" s="30" t="s">
         <v>284</v>
       </c>
-      <c r="F95" s="24"/>
-      <c r="G95" s="23"/>
-      <c r="H95" s="17"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="31"/>
+      <c r="H95" s="17">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="I95" s="18"/>
-      <c r="J95" s="5"/>
-      <c r="K95" s="5"/>
+      <c r="J95" s="5">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K95" s="5">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
       <c r="L95" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="M95" s="19"/>
+      <c r="M95" s="26"/>
       <c r="N95" s="18"/>
       <c r="O95" s="2"/>
       <c r="P95">
@@ -6517,7 +7259,7 @@
         <v>29</v>
       </c>
       <c r="Y95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>104</v>
       </c>
       <c r="Z95">
@@ -6525,28 +7267,37 @@
       </c>
     </row>
     <row r="96" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="20" t="s">
+      <c r="A96" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="B96" s="21"/>
-      <c r="C96" s="22" t="s">
+      <c r="B96" s="29"/>
+      <c r="C96" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="D96" s="23"/>
-      <c r="E96" s="22" t="s">
+      <c r="D96" s="31"/>
+      <c r="E96" s="30" t="s">
         <v>287</v>
       </c>
-      <c r="F96" s="24"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="17"/>
+      <c r="F96" s="32"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="17">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="I96" s="18"/>
-      <c r="J96" s="5"/>
-      <c r="K96" s="5"/>
+      <c r="J96" s="5">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K96" s="5">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
       <c r="L96" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="M96" s="19"/>
+      <c r="M96" s="26"/>
       <c r="N96" s="18"/>
       <c r="O96" s="2"/>
       <c r="Q96">
@@ -6568,7 +7319,7 @@
         <v>30</v>
       </c>
       <c r="Y96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>113</v>
       </c>
       <c r="Z96">
@@ -6576,28 +7327,37 @@
       </c>
     </row>
     <row r="97" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="20" t="s">
+      <c r="A97" s="28" t="s">
         <v>288</v>
       </c>
-      <c r="B97" s="21"/>
-      <c r="C97" s="22" t="s">
+      <c r="B97" s="29"/>
+      <c r="C97" s="30" t="s">
         <v>289</v>
       </c>
-      <c r="D97" s="23"/>
-      <c r="E97" s="22" t="s">
+      <c r="D97" s="31"/>
+      <c r="E97" s="30" t="s">
         <v>290</v>
       </c>
-      <c r="F97" s="24"/>
-      <c r="G97" s="23"/>
-      <c r="H97" s="17"/>
+      <c r="F97" s="32"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="17">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="I97" s="18"/>
-      <c r="J97" s="5"/>
-      <c r="K97" s="5"/>
+      <c r="J97" s="5">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K97" s="5">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
       <c r="L97" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
-      <c r="M97" s="19"/>
+      <c r="M97" s="26"/>
       <c r="N97" s="18"/>
       <c r="O97" s="2"/>
       <c r="P97">
@@ -6622,7 +7382,7 @@
         <v>30</v>
       </c>
       <c r="Y97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>96</v>
       </c>
       <c r="Z97">
@@ -6630,28 +7390,37 @@
       </c>
     </row>
     <row r="98" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="20" t="s">
+      <c r="A98" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="B98" s="21"/>
-      <c r="C98" s="22" t="s">
+      <c r="B98" s="29"/>
+      <c r="C98" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="D98" s="23"/>
-      <c r="E98" s="22" t="s">
+      <c r="D98" s="31"/>
+      <c r="E98" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="F98" s="24"/>
-      <c r="G98" s="23"/>
-      <c r="H98" s="17"/>
+      <c r="F98" s="32"/>
+      <c r="G98" s="31"/>
+      <c r="H98" s="17">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="I98" s="18"/>
-      <c r="J98" s="5"/>
-      <c r="K98" s="5"/>
+      <c r="J98" s="5">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K98" s="5">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
       <c r="L98" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="M98" s="19"/>
+      <c r="M98" s="26"/>
       <c r="N98" s="18"/>
       <c r="O98" s="2"/>
       <c r="P98">
@@ -6682,7 +7451,7 @@
         <v>25</v>
       </c>
       <c r="Y98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>101</v>
       </c>
       <c r="Z98">
@@ -6690,28 +7459,37 @@
       </c>
     </row>
     <row r="99" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="20" t="s">
+      <c r="A99" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="B99" s="21"/>
-      <c r="C99" s="22" t="s">
+      <c r="B99" s="29"/>
+      <c r="C99" s="30" t="s">
         <v>295</v>
       </c>
-      <c r="D99" s="23"/>
-      <c r="E99" s="22" t="s">
+      <c r="D99" s="31"/>
+      <c r="E99" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="F99" s="24"/>
-      <c r="G99" s="23"/>
-      <c r="H99" s="17"/>
+      <c r="F99" s="32"/>
+      <c r="G99" s="31"/>
+      <c r="H99" s="17">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="I99" s="18"/>
-      <c r="J99" s="5"/>
-      <c r="K99" s="5"/>
+      <c r="J99" s="5">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K99" s="5">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
       <c r="L99" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>48.75</v>
       </c>
-      <c r="M99" s="19"/>
+      <c r="M99" s="26"/>
       <c r="N99" s="18"/>
       <c r="O99" s="2"/>
       <c r="P99">
@@ -6742,7 +7520,7 @@
         <v>25</v>
       </c>
       <c r="Y99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>98.75</v>
       </c>
       <c r="Z99">
@@ -6750,28 +7528,37 @@
       </c>
     </row>
     <row r="100" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="20" t="s">
+      <c r="A100" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="B100" s="21"/>
-      <c r="C100" s="22" t="s">
+      <c r="B100" s="29"/>
+      <c r="C100" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="D100" s="23"/>
-      <c r="E100" s="22" t="s">
+      <c r="D100" s="31"/>
+      <c r="E100" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="F100" s="24"/>
-      <c r="G100" s="23"/>
-      <c r="H100" s="17"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="31"/>
+      <c r="H100" s="17">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="I100" s="18"/>
-      <c r="J100" s="5"/>
-      <c r="K100" s="5"/>
+      <c r="J100" s="5">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K100" s="5">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
       <c r="L100" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
-      <c r="M100" s="19"/>
+      <c r="M100" s="26"/>
       <c r="N100" s="18"/>
       <c r="O100" s="2"/>
       <c r="P100">
@@ -6799,7 +7586,7 @@
         <v>30</v>
       </c>
       <c r="Y100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>96</v>
       </c>
       <c r="Z100">
@@ -6807,28 +7594,37 @@
       </c>
     </row>
     <row r="101" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="20" t="s">
+      <c r="A101" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="B101" s="21"/>
-      <c r="C101" s="22" t="s">
+      <c r="B101" s="29"/>
+      <c r="C101" s="30" t="s">
         <v>301</v>
       </c>
-      <c r="D101" s="23"/>
-      <c r="E101" s="22" t="s">
+      <c r="D101" s="31"/>
+      <c r="E101" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="F101" s="24"/>
-      <c r="G101" s="23"/>
-      <c r="H101" s="17"/>
+      <c r="F101" s="32"/>
+      <c r="G101" s="31"/>
+      <c r="H101" s="17">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="I101" s="18"/>
-      <c r="J101" s="5"/>
-      <c r="K101" s="5"/>
+      <c r="J101" s="5">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K101" s="5">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
       <c r="L101" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>39</v>
       </c>
-      <c r="M101" s="19"/>
+      <c r="M101" s="26"/>
       <c r="N101" s="18"/>
       <c r="O101" s="2"/>
       <c r="Q101">
@@ -6856,7 +7652,7 @@
         <v>30</v>
       </c>
       <c r="Y101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>89</v>
       </c>
       <c r="Z101">
@@ -6864,28 +7660,37 @@
       </c>
     </row>
     <row r="102" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="20" t="s">
+      <c r="A102" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="B102" s="21"/>
-      <c r="C102" s="22" t="s">
+      <c r="B102" s="29"/>
+      <c r="C102" s="30" t="s">
         <v>304</v>
       </c>
-      <c r="D102" s="23"/>
-      <c r="E102" s="22" t="s">
+      <c r="D102" s="31"/>
+      <c r="E102" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="F102" s="24"/>
-      <c r="G102" s="23"/>
-      <c r="H102" s="17"/>
+      <c r="F102" s="32"/>
+      <c r="G102" s="31"/>
+      <c r="H102" s="17">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="I102" s="18"/>
-      <c r="J102" s="5"/>
-      <c r="K102" s="5"/>
+      <c r="J102" s="5">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K102" s="5">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
       <c r="L102" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="M102" s="19"/>
+      <c r="M102" s="26"/>
       <c r="N102" s="18"/>
       <c r="O102" s="2"/>
       <c r="P102">
@@ -6916,7 +7721,7 @@
         <v>25</v>
       </c>
       <c r="Y102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="Z102">
@@ -6924,28 +7729,37 @@
       </c>
     </row>
     <row r="103" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="20" t="s">
+      <c r="A103" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="B103" s="21"/>
-      <c r="C103" s="22" t="s">
+      <c r="B103" s="29"/>
+      <c r="C103" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="D103" s="23"/>
-      <c r="E103" s="22" t="s">
+      <c r="D103" s="31"/>
+      <c r="E103" s="30" t="s">
         <v>308</v>
       </c>
-      <c r="F103" s="24"/>
-      <c r="G103" s="23"/>
-      <c r="H103" s="17"/>
+      <c r="F103" s="32"/>
+      <c r="G103" s="31"/>
+      <c r="H103" s="17">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="I103" s="18"/>
-      <c r="J103" s="5"/>
-      <c r="K103" s="5"/>
+      <c r="J103" s="5">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K103" s="5">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
       <c r="L103" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="M103" s="19"/>
+      <c r="M103" s="26"/>
       <c r="N103" s="18"/>
       <c r="O103" s="2"/>
       <c r="P103">
@@ -6970,7 +7784,7 @@
         <v>25</v>
       </c>
       <c r="Y103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>101</v>
       </c>
       <c r="Z103">
@@ -6978,28 +7792,37 @@
       </c>
     </row>
     <row r="104" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="20" t="s">
+      <c r="A104" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="B104" s="21"/>
-      <c r="C104" s="22" t="s">
+      <c r="B104" s="29"/>
+      <c r="C104" s="30" t="s">
         <v>310</v>
       </c>
-      <c r="D104" s="23"/>
-      <c r="E104" s="22" t="s">
+      <c r="D104" s="31"/>
+      <c r="E104" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="F104" s="24"/>
-      <c r="G104" s="23"/>
-      <c r="H104" s="17"/>
+      <c r="F104" s="32"/>
+      <c r="G104" s="31"/>
+      <c r="H104" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I104" s="18"/>
-      <c r="J104" s="5"/>
-      <c r="K104" s="5"/>
-      <c r="L104" s="17">
-        <f t="shared" si="2"/>
-        <v>18.333333333333343</v>
-      </c>
-      <c r="M104" s="19"/>
+      <c r="J104" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K104" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L104" s="17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M104" s="26"/>
       <c r="N104" s="18"/>
       <c r="O104" s="2"/>
       <c r="P104">
@@ -7027,7 +7850,7 @@
         <v>19</v>
       </c>
       <c r="Y104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>68.333333333333343</v>
       </c>
       <c r="Z104">
@@ -7035,28 +7858,37 @@
       </c>
     </row>
     <row r="105" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="20" t="s">
+      <c r="A105" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="B105" s="21"/>
-      <c r="C105" s="22" t="s">
+      <c r="B105" s="29"/>
+      <c r="C105" s="30" t="s">
         <v>313</v>
       </c>
-      <c r="D105" s="23"/>
-      <c r="E105" s="22" t="s">
+      <c r="D105" s="31"/>
+      <c r="E105" s="30" t="s">
         <v>314</v>
       </c>
-      <c r="F105" s="24"/>
-      <c r="G105" s="23"/>
-      <c r="H105" s="17"/>
+      <c r="F105" s="32"/>
+      <c r="G105" s="31"/>
+      <c r="H105" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I105" s="18"/>
-      <c r="J105" s="5"/>
-      <c r="K105" s="5"/>
-      <c r="L105" s="17">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="M105" s="19"/>
+      <c r="J105" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K105" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L105" s="17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M105" s="26"/>
       <c r="N105" s="18"/>
       <c r="O105" s="2"/>
       <c r="Q105">
@@ -7081,36 +7913,45 @@
         <v>15</v>
       </c>
       <c r="Y105">
-        <f t="shared" si="3"/>
-        <v>61</v>
+        <f t="shared" si="9"/>
+        <v>70</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="20" t="s">
+      <c r="A106" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="B106" s="21"/>
-      <c r="C106" s="22" t="s">
+      <c r="B106" s="29"/>
+      <c r="C106" s="30" t="s">
         <v>316</v>
       </c>
-      <c r="D106" s="23"/>
-      <c r="E106" s="22" t="s">
+      <c r="D106" s="31"/>
+      <c r="E106" s="30" t="s">
         <v>317</v>
       </c>
-      <c r="F106" s="24"/>
-      <c r="G106" s="23"/>
-      <c r="H106" s="17"/>
+      <c r="F106" s="32"/>
+      <c r="G106" s="31"/>
+      <c r="H106" s="17">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="I106" s="18"/>
-      <c r="J106" s="5"/>
-      <c r="K106" s="5"/>
+      <c r="J106" s="5">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K106" s="5">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
       <c r="L106" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="M106" s="19"/>
+      <c r="M106" s="26"/>
       <c r="N106" s="18"/>
       <c r="O106" s="2"/>
       <c r="P106">
@@ -7138,7 +7979,7 @@
         <v>30</v>
       </c>
       <c r="Y106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>103</v>
       </c>
       <c r="Z106">
@@ -7146,28 +7987,37 @@
       </c>
     </row>
     <row r="107" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="20" t="s">
+      <c r="A107" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="B107" s="21"/>
-      <c r="C107" s="22" t="s">
+      <c r="B107" s="29"/>
+      <c r="C107" s="30" t="s">
         <v>319</v>
       </c>
-      <c r="D107" s="23"/>
-      <c r="E107" s="22" t="s">
+      <c r="D107" s="31"/>
+      <c r="E107" s="30" t="s">
         <v>320</v>
       </c>
-      <c r="F107" s="24"/>
-      <c r="G107" s="23"/>
-      <c r="H107" s="17"/>
+      <c r="F107" s="32"/>
+      <c r="G107" s="31"/>
+      <c r="H107" s="17">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="I107" s="18"/>
-      <c r="J107" s="5"/>
-      <c r="K107" s="5"/>
+      <c r="J107" s="5">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K107" s="5">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
       <c r="L107" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
-      <c r="M107" s="19"/>
+      <c r="M107" s="26"/>
       <c r="N107" s="18"/>
       <c r="O107" s="2"/>
       <c r="P107">
@@ -7195,7 +8045,7 @@
         <v>25</v>
       </c>
       <c r="Y107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>92</v>
       </c>
       <c r="Z107">
@@ -7203,28 +8053,37 @@
       </c>
     </row>
     <row r="108" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="20" t="s">
+      <c r="A108" s="28" t="s">
         <v>321</v>
       </c>
-      <c r="B108" s="21"/>
-      <c r="C108" s="22" t="s">
+      <c r="B108" s="29"/>
+      <c r="C108" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="D108" s="23"/>
-      <c r="E108" s="22" t="s">
+      <c r="D108" s="31"/>
+      <c r="E108" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="F108" s="24"/>
-      <c r="G108" s="23"/>
-      <c r="H108" s="17"/>
+      <c r="F108" s="32"/>
+      <c r="G108" s="31"/>
+      <c r="H108" s="17">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="I108" s="18"/>
-      <c r="J108" s="5"/>
-      <c r="K108" s="5"/>
+      <c r="J108" s="5">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K108" s="5">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
       <c r="L108" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
-      <c r="M108" s="19"/>
+      <c r="M108" s="26"/>
       <c r="N108" s="18"/>
       <c r="O108" s="2"/>
       <c r="P108">
@@ -7249,7 +8108,7 @@
         <v>30</v>
       </c>
       <c r="Y108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>96</v>
       </c>
       <c r="Z108">
@@ -7257,28 +8116,37 @@
       </c>
     </row>
     <row r="109" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="20" t="s">
+      <c r="A109" s="28" t="s">
         <v>324</v>
       </c>
-      <c r="B109" s="21"/>
-      <c r="C109" s="22" t="s">
+      <c r="B109" s="29"/>
+      <c r="C109" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="D109" s="23"/>
-      <c r="E109" s="22" t="s">
+      <c r="D109" s="31"/>
+      <c r="E109" s="30" t="s">
         <v>326</v>
       </c>
-      <c r="F109" s="24"/>
-      <c r="G109" s="23"/>
-      <c r="H109" s="17"/>
+      <c r="F109" s="32"/>
+      <c r="G109" s="31"/>
+      <c r="H109" s="17">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="I109" s="18"/>
-      <c r="J109" s="5"/>
-      <c r="K109" s="5"/>
+      <c r="J109" s="5">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K109" s="5">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
       <c r="L109" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="M109" s="19"/>
+      <c r="M109" s="26"/>
       <c r="N109" s="18"/>
       <c r="O109" s="2"/>
       <c r="Q109">
@@ -7303,7 +8171,7 @@
         <v>30</v>
       </c>
       <c r="Y109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>110.5</v>
       </c>
       <c r="Z109">
@@ -7311,8 +8179,8 @@
       </c>
     </row>
     <row r="110" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="12"/>
-      <c r="B110" s="13"/>
+      <c r="A110" s="36"/>
+      <c r="B110" s="37"/>
       <c r="C110" s="14" t="s">
         <v>328</v>
       </c>
@@ -7322,15 +8190,24 @@
       </c>
       <c r="F110" s="16"/>
       <c r="G110" s="15"/>
-      <c r="H110" s="17"/>
+      <c r="H110" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I110" s="18"/>
-      <c r="J110" s="5"/>
-      <c r="K110" s="5"/>
-      <c r="L110" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M110" s="19"/>
+      <c r="J110" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K110" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L110" s="17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M110" s="26"/>
       <c r="N110" s="18"/>
       <c r="O110" s="2"/>
       <c r="Q110">
@@ -7346,7 +8223,7 @@
         <v>28</v>
       </c>
       <c r="Y110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="Z110">
@@ -7354,8 +8231,8 @@
       </c>
     </row>
     <row r="111" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="12"/>
-      <c r="B111" s="13"/>
+      <c r="A111" s="36"/>
+      <c r="B111" s="37"/>
       <c r="C111" s="14"/>
       <c r="D111" s="15"/>
       <c r="E111" s="14"/>
@@ -7363,13 +8240,16 @@
       <c r="G111" s="15"/>
       <c r="H111" s="17"/>
       <c r="I111" s="18"/>
-      <c r="J111" s="5"/>
+      <c r="J111" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
       <c r="K111" s="5"/>
-      <c r="L111" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M111" s="19"/>
+      <c r="L111" s="17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M111" s="26"/>
       <c r="N111" s="18"/>
       <c r="O111" s="2"/>
       <c r="Q111">
@@ -7382,7 +8262,7 @@
         <v>1</v>
       </c>
       <c r="Y111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z111">
@@ -7390,8 +8270,8 @@
       </c>
     </row>
     <row r="112" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="12"/>
-      <c r="B112" s="13"/>
+      <c r="A112" s="36"/>
+      <c r="B112" s="37"/>
       <c r="C112" s="14"/>
       <c r="D112" s="15"/>
       <c r="E112" s="14"/>
@@ -7401,11 +8281,11 @@
       <c r="I112" s="18"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
-      <c r="L112" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M112" s="19"/>
+      <c r="L112" s="17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M112" s="26"/>
       <c r="N112" s="18"/>
       <c r="O112" s="2"/>
       <c r="Q112">
@@ -7418,7 +8298,7 @@
         <v>1</v>
       </c>
       <c r="Y112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z112">
@@ -7426,8 +8306,8 @@
       </c>
     </row>
     <row r="113" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="12"/>
-      <c r="B113" s="13"/>
+      <c r="A113" s="36"/>
+      <c r="B113" s="37"/>
       <c r="C113" s="14"/>
       <c r="D113" s="15"/>
       <c r="E113" s="14"/>
@@ -7437,11 +8317,11 @@
       <c r="I113" s="18"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
-      <c r="L113" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M113" s="19"/>
+      <c r="L113" s="17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M113" s="26"/>
       <c r="N113" s="18"/>
       <c r="O113" s="2"/>
       <c r="Q113">
@@ -7454,7 +8334,7 @@
         <v>1</v>
       </c>
       <c r="Y113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z113">
@@ -7472,39 +8352,486 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="537">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="L112:N112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="E113:G113"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="L113:N113"/>
+    <mergeCell ref="L108:N108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="L109:N109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="E110:G110"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="L110:N110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="E111:G111"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="L111:N111"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="E109:G109"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="L103:N103"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="L104:N104"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="L105:N105"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="L106:N106"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="L107:N107"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E105:G105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="E106:G106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="E107:G107"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="E104:G104"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="L102:N102"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="L96:N96"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="L100:N100"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="L98:N98"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="L101:N101"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="L94:N94"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="L89:N89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="L90:N90"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="L87:N87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="L88:N88"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="L85:N85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="L86:N86"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="L83:N83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="L84:N84"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="L81:N81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="L79:N79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="L80:N80"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="L78:N78"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="L76:N76"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="L77:N77"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="L75:N75"/>
+    <mergeCell ref="L74:N74"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="L68:N68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="L69:N69"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="L72:N72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="L73:N73"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="L71:N71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="L66:N66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="L67:N67"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="L64:N64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="L65:N65"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="L61:N61"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="L19:N19"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
@@ -7529,486 +8856,39 @@
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="L47:N47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="L61:N61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="L64:N64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="L65:N65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="L66:N66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="L67:N67"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="L72:N72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="L73:N73"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="L70:N70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="L71:N71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="L68:N68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="L69:N69"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="L77:N77"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="L75:N75"/>
-    <mergeCell ref="L74:N74"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="L78:N78"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="L76:N76"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="L79:N79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="L80:N80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="L81:N81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="L82:N82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="L83:N83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="L84:N84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="L85:N85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="L86:N86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="L87:N87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="L88:N88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="L89:N89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="L90:N90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="L91:N91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="L92:N92"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="L93:N93"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="L94:N94"/>
-    <mergeCell ref="L102:N102"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="L96:N96"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="L100:N100"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="L98:N98"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="L101:N101"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="E104:G104"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="E105:G105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="E106:G106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="E107:G107"/>
-    <mergeCell ref="L103:N103"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="L104:N104"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="L105:N105"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="L106:N106"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="L107:N107"/>
-    <mergeCell ref="L108:N108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="L109:N109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="E110:G110"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="L110:N110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="E111:G111"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="L111:N111"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="E109:G109"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="E112:G112"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="L112:N112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="E113:G113"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="L113:N113"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/OYM/_Documentos Comunes/POO_C32017.xlsx
+++ b/OYM/_Documentos Comunes/POO_C32017.xlsx
@@ -1019,7 +1019,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1064,6 +1064,18 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF92D050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF92D050"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1218,7 +1230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
@@ -1250,6 +1262,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1264,32 +1282,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1306,21 +1300,59 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1706,8 +1738,8 @@
   <dimension ref="A1:Z113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z112" sqref="Z112"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L12" sqref="L12:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1739,19 +1771,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1772,19 +1804,19 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
       <c r="N3" s="2"/>
       <c r="P3" t="s">
         <v>21</v>
@@ -1794,19 +1826,19 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
       <c r="N4" s="2"/>
       <c r="P4" t="s">
         <v>23</v>
@@ -1816,19 +1848,19 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
       <c r="N5" s="2"/>
       <c r="P5" t="s">
         <v>25</v>
@@ -1860,19 +1892,19 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
       <c r="N7" s="2"/>
       <c r="P7" s="6" t="s">
         <v>327</v>
@@ -1926,34 +1958,34 @@
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:26" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27" t="s">
+      <c r="B10" s="36"/>
+      <c r="C10" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="25" t="s">
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="25"/>
+      <c r="I10" s="36"/>
       <c r="J10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="25" t="s">
+      <c r="L10" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s">
         <v>8</v>
@@ -1990,38 +2022,38 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="36">
-        <v>0</v>
-      </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="14" t="s">
+      <c r="A11" s="14">
+        <v>0</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="17">
-        <f>IF((Y11)&gt;70,10,"")</f>
-        <v>10</v>
-      </c>
-      <c r="I11" s="18"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="19">
+        <f>IF((Y11)&gt;69,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="I11" s="20"/>
       <c r="J11" s="5">
-        <f>IF((Y11)&gt;70,20,"")</f>
+        <f>IF((Y11)&gt;69,20,"")</f>
         <v>20</v>
       </c>
       <c r="K11" s="5">
-        <f>IF((Y11)&gt;70,20,"")</f>
-        <v>20</v>
-      </c>
-      <c r="L11" s="17">
-        <f>IF((Y11)&gt;70,IF((Y11-50)&gt;50,50,IF((Y11-50)&lt;0,0,(Y11-50))), "" )</f>
+        <f>IF((Y11)&gt;69,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="L11" s="19">
+        <f>IF((Y11)&gt;69,IF((Y11-50)&gt;50,50,IF((Y11-50)&lt;0,0,(Y11-50))), "" )</f>
         <v>50</v>
       </c>
-      <c r="M11" s="26"/>
-      <c r="N11" s="18"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="20"/>
       <c r="O11" s="2"/>
       <c r="P11">
         <v>20</v>
@@ -2059,38 +2091,38 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="30" t="s">
+      <c r="D12" s="25"/>
+      <c r="E12" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="17" t="str">
-        <f t="shared" ref="H12:H75" si="0">IF((Y12)&gt;70,10,"")</f>
-        <v/>
-      </c>
-      <c r="I12" s="18"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="19" t="str">
+        <f t="shared" ref="H12:H75" si="0">IF((Y12)&gt;69,10,"")</f>
+        <v/>
+      </c>
+      <c r="I12" s="20"/>
       <c r="J12" s="5" t="str">
-        <f t="shared" ref="J12:J75" si="1">IF((Y12)&gt;70,20,"")</f>
+        <f t="shared" ref="J12:J75" si="1">IF((Y12)&gt;69,20,"")</f>
         <v/>
       </c>
       <c r="K12" s="5" t="str">
-        <f t="shared" ref="K12:K75" si="2">IF((Y12)&gt;70,20,"")</f>
-        <v/>
-      </c>
-      <c r="L12" s="17" t="str">
-        <f t="shared" ref="L12:L75" si="3">IF((Y12)&gt;70,IF((Y12-50)&gt;50,50,IF((Y12-50)&lt;0,0,(Y12-50))), "" )</f>
-        <v/>
-      </c>
-      <c r="M12" s="26"/>
-      <c r="N12" s="18"/>
+        <f t="shared" ref="K12:K75" si="2">IF((Y12)&gt;69,20,"")</f>
+        <v/>
+      </c>
+      <c r="L12" s="19" t="str">
+        <f t="shared" ref="L12:L75" si="3">IF((Y12)&gt;69,IF((Y12-50)&gt;50,50,IF((Y12-50)&lt;0,0,(Y12-50))), "" )</f>
+        <v/>
+      </c>
+      <c r="M12" s="21"/>
+      <c r="N12" s="20"/>
       <c r="O12" s="2"/>
       <c r="Q12">
         <v>0</v>
@@ -2110,24 +2142,24 @@
       </c>
     </row>
     <row r="13" spans="1:26" s="6" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="22" t="s">
+      <c r="B13" s="28"/>
+      <c r="C13" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="22" t="s">
+      <c r="D13" s="30"/>
+      <c r="E13" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="17">
+      <c r="F13" s="31"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="19">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I13" s="18"/>
+      <c r="I13" s="20"/>
       <c r="J13" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2136,12 +2168,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="19">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="M13" s="26"/>
-      <c r="N13" s="18"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="20"/>
       <c r="O13" s="12"/>
       <c r="P13" s="6">
         <v>16</v>
@@ -2173,24 +2205,24 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="30" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="30" t="s">
+      <c r="D14" s="25"/>
+      <c r="E14" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="17">
+      <c r="F14" s="26"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="19">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I14" s="18"/>
+      <c r="I14" s="20"/>
       <c r="J14" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2199,12 +2231,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="19">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M14" s="26"/>
-      <c r="N14" s="18"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="20"/>
       <c r="O14" s="2"/>
       <c r="P14">
         <v>15</v>
@@ -2236,24 +2268,24 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="30" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="30" t="s">
+      <c r="D15" s="25"/>
+      <c r="E15" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="17">
+      <c r="F15" s="26"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="19">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I15" s="18"/>
+      <c r="I15" s="20"/>
       <c r="J15" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2262,12 +2294,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L15" s="19">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="M15" s="26"/>
-      <c r="N15" s="18"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="20"/>
       <c r="O15" s="2"/>
       <c r="P15">
         <v>15</v>
@@ -2302,24 +2334,24 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="30" t="s">
+      <c r="D16" s="25"/>
+      <c r="E16" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="17">
+      <c r="F16" s="26"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="19">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I16" s="18"/>
+      <c r="I16" s="20"/>
       <c r="J16" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2328,12 +2360,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="19">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="M16" s="26"/>
-      <c r="N16" s="18"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="20"/>
       <c r="O16" s="2"/>
       <c r="Q16">
         <v>0</v>
@@ -2365,24 +2397,24 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30" t="s">
+      <c r="B17" s="23"/>
+      <c r="C17" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="30" t="s">
+      <c r="D17" s="25"/>
+      <c r="E17" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="17">
+      <c r="F17" s="26"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="19">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I17" s="18"/>
+      <c r="I17" s="20"/>
       <c r="J17" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2391,12 +2423,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="19">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M17" s="26"/>
-      <c r="N17" s="18"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="20"/>
       <c r="O17" s="2"/>
       <c r="P17">
         <v>13</v>
@@ -2431,24 +2463,24 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30" t="s">
+      <c r="B18" s="23"/>
+      <c r="C18" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="30" t="s">
+      <c r="D18" s="25"/>
+      <c r="E18" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="17">
+      <c r="F18" s="26"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="19">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I18" s="18"/>
+      <c r="I18" s="20"/>
       <c r="J18" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2457,12 +2489,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L18" s="17">
+      <c r="L18" s="19">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="M18" s="26"/>
-      <c r="N18" s="18"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="20"/>
       <c r="O18" s="2"/>
       <c r="P18">
         <v>14</v>
@@ -2497,24 +2529,24 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30" t="s">
+      <c r="B19" s="23"/>
+      <c r="C19" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="30" t="s">
+      <c r="D19" s="25"/>
+      <c r="E19" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="17">
+      <c r="F19" s="26"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="19">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I19" s="18"/>
+      <c r="I19" s="20"/>
       <c r="J19" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2523,12 +2555,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L19" s="19">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="M19" s="26"/>
-      <c r="N19" s="18"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="20"/>
       <c r="O19" s="2"/>
       <c r="P19">
         <v>14</v>
@@ -2560,24 +2592,24 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="30" t="s">
+      <c r="B20" s="23"/>
+      <c r="C20" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="30" t="s">
+      <c r="D20" s="25"/>
+      <c r="E20" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="17">
+      <c r="F20" s="26"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="19">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I20" s="18"/>
+      <c r="I20" s="20"/>
       <c r="J20" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2586,12 +2618,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L20" s="17">
+      <c r="L20" s="19">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M20" s="26"/>
-      <c r="N20" s="18"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="20"/>
       <c r="O20" s="2"/>
       <c r="P20">
         <v>16</v>
@@ -2626,24 +2658,24 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="30" t="s">
+      <c r="D21" s="25"/>
+      <c r="E21" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="17">
+      <c r="F21" s="26"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="19">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I21" s="18"/>
+      <c r="I21" s="20"/>
       <c r="J21" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2652,12 +2684,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="19">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="M21" s="26"/>
-      <c r="N21" s="18"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="20"/>
       <c r="O21" s="2"/>
       <c r="P21">
         <v>14</v>
@@ -2692,24 +2724,24 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="30" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="30" t="s">
+      <c r="D22" s="25"/>
+      <c r="E22" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="F22" s="32"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="17">
+      <c r="F22" s="26"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="19">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I22" s="18"/>
+      <c r="I22" s="20"/>
       <c r="J22" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2718,12 +2750,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L22" s="17">
+      <c r="L22" s="19">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M22" s="26"/>
-      <c r="N22" s="18"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="20"/>
       <c r="O22" s="2"/>
       <c r="P22">
         <v>18</v>
@@ -2755,24 +2787,24 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30" t="s">
+      <c r="B23" s="23"/>
+      <c r="C23" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="30" t="s">
+      <c r="D23" s="25"/>
+      <c r="E23" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="32"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="17" t="str">
+      <c r="F23" s="26"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I23" s="18"/>
+      <c r="I23" s="20"/>
       <c r="J23" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2781,12 +2813,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L23" s="17" t="str">
+      <c r="L23" s="19" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M23" s="26"/>
-      <c r="N23" s="18"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="20"/>
       <c r="O23" s="2"/>
       <c r="Q23">
         <v>0</v>
@@ -2806,24 +2838,24 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="30" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="30" t="s">
+      <c r="D24" s="25"/>
+      <c r="E24" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="F24" s="32"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="17" t="str">
+      <c r="F24" s="26"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I24" s="18"/>
+      <c r="I24" s="20"/>
       <c r="J24" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2832,12 +2864,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L24" s="17" t="str">
+      <c r="L24" s="19" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M24" s="26"/>
-      <c r="N24" s="18"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="20"/>
       <c r="O24" s="2"/>
       <c r="Q24">
         <v>0</v>
@@ -2863,24 +2895,24 @@
       </c>
     </row>
     <row r="25" spans="1:26" s="6" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="22" t="s">
+      <c r="B25" s="28"/>
+      <c r="C25" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="22" t="s">
+      <c r="D25" s="30"/>
+      <c r="E25" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="F25" s="24"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="17">
+      <c r="F25" s="31"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="19">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I25" s="18"/>
+      <c r="I25" s="20"/>
       <c r="J25" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2889,12 +2921,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L25" s="17">
+      <c r="L25" s="19">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="M25" s="26"/>
-      <c r="N25" s="18"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="20"/>
       <c r="O25" s="12"/>
       <c r="Q25" s="6">
         <v>0</v>
@@ -2923,24 +2955,24 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="30" t="s">
+      <c r="B26" s="23"/>
+      <c r="C26" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="30" t="s">
+      <c r="D26" s="25"/>
+      <c r="E26" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="17" t="str">
+      <c r="F26" s="26"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I26" s="18"/>
+      <c r="I26" s="20"/>
       <c r="J26" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2949,12 +2981,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L26" s="17" t="str">
+      <c r="L26" s="19" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M26" s="26"/>
-      <c r="N26" s="18"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="20"/>
       <c r="O26" s="2"/>
       <c r="P26">
         <v>15</v>
@@ -2977,24 +3009,24 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="30" t="s">
+      <c r="B27" s="23"/>
+      <c r="C27" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="30" t="s">
+      <c r="D27" s="25"/>
+      <c r="E27" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="F27" s="32"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="17" t="str">
+      <c r="F27" s="26"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I27" s="18"/>
+      <c r="I27" s="20"/>
       <c r="J27" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3003,12 +3035,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L27" s="17" t="str">
+      <c r="L27" s="19" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M27" s="26"/>
-      <c r="N27" s="18"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="20"/>
       <c r="O27" s="2"/>
       <c r="P27">
         <v>14</v>
@@ -3037,24 +3069,24 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="30" t="s">
+      <c r="B28" s="23"/>
+      <c r="C28" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="30" t="s">
+      <c r="D28" s="25"/>
+      <c r="E28" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="F28" s="32"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="17">
+      <c r="F28" s="26"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="19">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I28" s="18"/>
+      <c r="I28" s="20"/>
       <c r="J28" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3063,12 +3095,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L28" s="17">
+      <c r="L28" s="19">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="M28" s="26"/>
-      <c r="N28" s="18"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="20"/>
       <c r="O28" s="2"/>
       <c r="P28">
         <v>18</v>
@@ -3103,24 +3135,24 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="30" t="s">
+      <c r="B29" s="23"/>
+      <c r="C29" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="30" t="s">
+      <c r="D29" s="25"/>
+      <c r="E29" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="F29" s="32"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="17">
+      <c r="F29" s="26"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="19">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I29" s="18"/>
+      <c r="I29" s="20"/>
       <c r="J29" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3129,12 +3161,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L29" s="17">
+      <c r="L29" s="19">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M29" s="26"/>
-      <c r="N29" s="18"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="20"/>
       <c r="O29" s="2"/>
       <c r="P29">
         <v>16</v>
@@ -3169,24 +3201,24 @@
       </c>
     </row>
     <row r="30" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="30" t="s">
+      <c r="B30" s="23"/>
+      <c r="C30" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="30" t="s">
+      <c r="D30" s="25"/>
+      <c r="E30" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="F30" s="32"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="17" t="str">
+      <c r="F30" s="26"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I30" s="18"/>
+      <c r="I30" s="20"/>
       <c r="J30" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3195,12 +3227,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L30" s="17" t="str">
+      <c r="L30" s="19" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M30" s="26"/>
-      <c r="N30" s="18"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="20"/>
       <c r="O30" s="2"/>
       <c r="Q30">
         <v>0</v>
@@ -3219,25 +3251,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="28" t="s">
+    <row r="31" spans="1:26" s="44" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="30" t="s">
+      <c r="B31" s="39"/>
+      <c r="C31" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="30" t="s">
+      <c r="D31" s="41"/>
+      <c r="E31" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="F31" s="32"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="17">
+      <c r="F31" s="42"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="19">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I31" s="18"/>
+      <c r="I31" s="20"/>
       <c r="J31" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3246,61 +3278,67 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L31" s="17">
+      <c r="L31" s="19">
         <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="M31" s="26"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="2"/>
-      <c r="P31">
+        <v>49</v>
+      </c>
+      <c r="M31" s="21"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="44">
         <v>14</v>
       </c>
-      <c r="Q31">
-        <v>10</v>
-      </c>
-      <c r="R31">
-        <v>2</v>
-      </c>
-      <c r="T31" s="10">
+      <c r="Q31" s="44">
+        <v>10</v>
+      </c>
+      <c r="R31" s="44">
+        <v>2</v>
+      </c>
+      <c r="S31" s="44">
+        <v>0</v>
+      </c>
+      <c r="T31" s="45">
         <v>6</v>
       </c>
-      <c r="V31">
-        <v>2</v>
-      </c>
-      <c r="W31">
-        <v>20</v>
-      </c>
-      <c r="X31">
+      <c r="U31" s="44">
+        <v>13</v>
+      </c>
+      <c r="V31" s="44">
+        <v>2</v>
+      </c>
+      <c r="W31" s="44">
+        <v>20</v>
+      </c>
+      <c r="X31" s="44">
         <v>30</v>
       </c>
-      <c r="Y31">
+      <c r="Y31" s="44">
         <f t="shared" si="4"/>
-        <v>73</v>
-      </c>
-      <c r="Z31">
+        <v>99</v>
+      </c>
+      <c r="Z31" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="30" t="s">
+      <c r="B32" s="23"/>
+      <c r="C32" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="30" t="s">
+      <c r="D32" s="25"/>
+      <c r="E32" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="F32" s="32"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="17" t="str">
+      <c r="F32" s="26"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I32" s="18"/>
+      <c r="I32" s="20"/>
       <c r="J32" s="5" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3309,12 +3347,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L32" s="17" t="str">
+      <c r="L32" s="19" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M32" s="26"/>
-      <c r="N32" s="18"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="20"/>
       <c r="O32" s="2"/>
       <c r="Q32">
         <v>0</v>
@@ -3334,24 +3372,24 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="30" t="s">
+      <c r="B33" s="23"/>
+      <c r="C33" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="30" t="s">
+      <c r="D33" s="25"/>
+      <c r="E33" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="F33" s="32"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="17">
+      <c r="F33" s="26"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="19">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I33" s="18"/>
+      <c r="I33" s="20"/>
       <c r="J33" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3360,12 +3398,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L33" s="17">
+      <c r="L33" s="19">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="M33" s="26"/>
-      <c r="N33" s="18"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="20"/>
       <c r="O33" s="2"/>
       <c r="P33">
         <v>18</v>
@@ -3397,24 +3435,24 @@
       </c>
     </row>
     <row r="34" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="